--- a/app/data/covid19_MTL.xlsx
+++ b/app/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EC5C59-C588-46C5-A147-C25FD51F9FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7DE331-FC3D-4E85-A2F8-88E0493E01F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17180" yWindow="3640" windowWidth="30500" windowHeight="15990" tabRatio="512" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="17310" yWindow="2690" windowWidth="20450" windowHeight="15990" tabRatio="512" activeTab="4" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="323">
   <si>
     <t>borough</t>
   </si>
@@ -949,52 +949,16 @@
     <t>n.p.</t>
   </si>
   <si>
-    <t>&lt; 5</t>
-  </si>
-  <si>
-    <t>12,7</t>
-  </si>
-  <si>
     <t>0,8</t>
   </si>
   <si>
     <t>1er MAI, 18h00</t>
   </si>
   <si>
-    <t>NOMBRE DE CAS CONFIRMÉS¹</t>
-  </si>
-  <si>
-    <t>RÉPARTITION DES CAS (%)</t>
-  </si>
-  <si>
-    <t>TAUX POUR</t>
-  </si>
-  <si>
-    <t>100 000</t>
-  </si>
-  <si>
-    <t>PERSONNES</t>
-  </si>
-  <si>
-    <t>NOMBRE DE DÉCÈS</t>
-  </si>
-  <si>
-    <t>TAUX DE MORTALITÉ POUR</t>
-  </si>
-  <si>
-    <t>* 9,4</t>
-  </si>
-  <si>
     <t>8,9</t>
   </si>
   <si>
-    <t> 786,7</t>
-  </si>
-  <si>
     <t>1 365</t>
-  </si>
-  <si>
-    <t> 66,1</t>
   </si>
   <si>
     <t>2 MAI, 18h20</t>
@@ -1003,43 +967,10 @@
     <t>1,0</t>
   </si>
   <si>
-    <t> 138,9</t>
-  </si>
-  <si>
-    <t> 116,7</t>
-  </si>
-  <si>
     <t>2,9</t>
   </si>
   <si>
-    <t> 233,8</t>
-  </si>
-  <si>
-    <t>10,6</t>
-  </si>
-  <si>
-    <t> 533,4</t>
-  </si>
-  <si>
-    <t>12,0</t>
-  </si>
-  <si>
-    <t> 592,0</t>
-  </si>
-  <si>
-    <t>13,9</t>
-  </si>
-  <si>
-    <t> 809,8</t>
-  </si>
-  <si>
     <t>* 4,0</t>
-  </si>
-  <si>
-    <t> 800,2</t>
-  </si>
-  <si>
-    <t> 662,6</t>
   </si>
   <si>
     <t> 44,3</t>
@@ -1048,19 +979,70 @@
     <t>9,6</t>
   </si>
   <si>
-    <t> 1073,9</t>
+    <t>3 MAI, 18h04</t>
   </si>
   <si>
-    <t> 151,3</t>
+    <t> 803,8</t>
   </si>
   <si>
-    <t>27,6</t>
+    <t>1 410</t>
   </si>
   <si>
-    <t> 4420,0</t>
+    <t> 145,2</t>
   </si>
   <si>
-    <t> 1000,6</t>
+    <t> 120,4</t>
+  </si>
+  <si>
+    <t> 237,3</t>
+  </si>
+  <si>
+    <t>10,5</t>
+  </si>
+  <si>
+    <t> 540,8</t>
+  </si>
+  <si>
+    <t>12,1</t>
+  </si>
+  <si>
+    <t> 609,1</t>
+  </si>
+  <si>
+    <t>14,0</t>
+  </si>
+  <si>
+    <t> 829,9</t>
+  </si>
+  <si>
+    <t>12,8</t>
+  </si>
+  <si>
+    <t> 820,9</t>
+  </si>
+  <si>
+    <t>* 9,7</t>
+  </si>
+  <si>
+    <t> 678,8</t>
+  </si>
+  <si>
+    <t> 1094,0</t>
+  </si>
+  <si>
+    <t> 155,5</t>
+  </si>
+  <si>
+    <t>27,5</t>
+  </si>
+  <si>
+    <t> 4 502,1</t>
+  </si>
+  <si>
+    <t> 1038,2</t>
+  </si>
+  <si>
+    <t> 68,3</t>
   </si>
 </sst>
 </file>
@@ -1574,20 +1556,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:AJ35"/>
+  <dimension ref="A1:AK35"/>
   <sheetViews>
     <sheetView topLeftCell="R1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2:AJ35"/>
+      <selection activeCell="AL18" sqref="AL18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="36" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="37" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1696,8 +1678,11 @@
       <c r="AJ1" s="19">
         <v>43953</v>
       </c>
+      <c r="AK1" s="19">
+        <v>43954</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1806,8 +1791,11 @@
       <c r="AJ2">
         <v>1307</v>
       </c>
+      <c r="AK2">
+        <v>1329</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1916,8 +1904,11 @@
       <c r="AJ3">
         <v>347</v>
       </c>
+      <c r="AK3">
+        <v>364</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2026,8 +2017,11 @@
       <c r="AJ4">
         <v>9</v>
       </c>
+      <c r="AK4">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2136,8 +2130,11 @@
       <c r="AJ5">
         <v>40</v>
       </c>
+      <c r="AK5">
+        <v>42</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2246,8 +2243,11 @@
       <c r="AJ6">
         <v>1375</v>
       </c>
+      <c r="AK6">
+        <v>1388</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -2356,8 +2356,11 @@
       <c r="AJ7">
         <v>375</v>
       </c>
+      <c r="AK7">
+        <v>378</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -2466,8 +2469,11 @@
       <c r="AJ8">
         <v>252</v>
       </c>
+      <c r="AK8">
+        <v>259</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -2576,8 +2582,11 @@
       <c r="AJ9">
         <v>132</v>
       </c>
+      <c r="AK9">
+        <v>133</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -2686,8 +2695,11 @@
       <c r="AJ10">
         <v>39</v>
       </c>
+      <c r="AK10">
+        <v>39</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -2796,8 +2808,11 @@
       <c r="AJ11">
         <v>70</v>
       </c>
+      <c r="AK11">
+        <v>70</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2906,8 +2921,11 @@
       <c r="AJ12">
         <v>333</v>
       </c>
+      <c r="AK12">
+        <v>336</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3016,8 +3034,11 @@
       <c r="AJ13">
         <v>829</v>
       </c>
+      <c r="AK13">
+        <v>838</v>
+      </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3126,8 +3147,11 @@
       <c r="AJ14">
         <v>116</v>
       </c>
+      <c r="AK14">
+        <v>118</v>
+      </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3236,8 +3260,11 @@
       <c r="AJ15">
         <v>1150</v>
       </c>
+      <c r="AK15">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -3346,8 +3373,11 @@
       <c r="AJ16">
         <v>22</v>
       </c>
+      <c r="AK16">
+        <v>22</v>
+      </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3456,8 +3486,11 @@
       <c r="AJ17">
         <v>1423</v>
       </c>
+      <c r="AK17">
+        <v>1457</v>
+      </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -3566,8 +3599,11 @@
       <c r="AJ18">
         <v>14</v>
       </c>
+      <c r="AK18">
+        <v>14</v>
+      </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -3676,8 +3712,11 @@
       <c r="AJ19">
         <v>186</v>
       </c>
+      <c r="AK19">
+        <v>190</v>
+      </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3786,8 +3825,11 @@
       <c r="AJ20">
         <v>209</v>
       </c>
+      <c r="AK20">
+        <v>209</v>
+      </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3896,8 +3938,11 @@
       <c r="AJ21">
         <v>287</v>
       </c>
+      <c r="AK21">
+        <v>294</v>
+      </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4006,8 +4051,11 @@
       <c r="AJ22">
         <v>609</v>
       </c>
+      <c r="AK22">
+        <v>616</v>
+      </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -4116,8 +4164,11 @@
       <c r="AJ23">
         <v>126</v>
       </c>
+      <c r="AK23">
+        <v>126</v>
+      </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4226,8 +4277,11 @@
       <c r="AJ24">
         <v>1130</v>
       </c>
+      <c r="AK24">
+        <v>1178</v>
+      </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4336,8 +4390,11 @@
       <c r="AJ25">
         <v>885</v>
       </c>
+      <c r="AK25">
+        <v>913</v>
+      </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -4446,8 +4503,11 @@
       <c r="AJ26">
         <v>13</v>
       </c>
+      <c r="AK26">
+        <v>14</v>
+      </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4556,8 +4616,11 @@
       <c r="AJ27">
         <v>586</v>
       </c>
+      <c r="AK27">
+        <v>594</v>
+      </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4666,8 +4729,11 @@
       <c r="AJ28">
         <v>616</v>
       </c>
+      <c r="AK28">
+        <v>638</v>
+      </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -4776,8 +4842,11 @@
       <c r="AJ29">
         <v>2</v>
       </c>
+      <c r="AK29">
+        <v>3</v>
+      </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4886,8 +4955,11 @@
       <c r="AJ30">
         <v>649</v>
       </c>
+      <c r="AK30">
+        <v>662</v>
+      </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4996,8 +5068,11 @@
       <c r="AJ31">
         <v>678</v>
       </c>
+      <c r="AK31">
+        <v>683</v>
+      </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5106,8 +5181,11 @@
       <c r="AJ32">
         <v>399</v>
       </c>
+      <c r="AK32">
+        <v>411</v>
+      </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5216,8 +5294,11 @@
       <c r="AJ33">
         <v>1139</v>
       </c>
+      <c r="AK33">
+        <v>1190</v>
+      </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -5326,8 +5407,11 @@
       <c r="AJ34">
         <v>128</v>
       </c>
+      <c r="AK34">
+        <v>129</v>
+      </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5435,6 +5519,9 @@
       </c>
       <c r="AJ35">
         <v>777</v>
+      </c>
+      <c r="AK35">
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -5445,11 +5532,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AK34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ34" sqref="AJ34"/>
+      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5457,10 +5544,10 @@
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="27" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="36" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="37" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5590,8 +5677,11 @@
       <c r="AJ1" s="1">
         <v>43953</v>
       </c>
+      <c r="AK1" s="1">
+        <v>43954</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5731,8 +5821,12 @@
         <f>cases!AJ2/(population_2016!$B2/1000)</f>
         <v>9.7359305746955194</v>
       </c>
+      <c r="AK2" s="3">
+        <f>cases!AK2/(population_2016!$B2/1000)</f>
+        <v>9.8998100487913891</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5872,8 +5966,12 @@
         <f>cases!AJ3/(population_2016!$B3/1000)</f>
         <v>8.108234414431255</v>
       </c>
+      <c r="AK3" s="3">
+        <f>cases!AK3/(population_2016!$B3/1000)</f>
+        <v>8.5054678007290399</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -6013,8 +6111,12 @@
         <f>cases!AJ4/(population_2016!$B4/1000)</f>
         <v>2.3541721161391576</v>
       </c>
+      <c r="AK4" s="3">
+        <f>cases!AK4/(population_2016!$B4/1000)</f>
+        <v>2.3541721161391576</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -6154,8 +6256,12 @@
         <f>cases!AJ5/(population_2016!$B5/1000)</f>
         <v>2.0699648105982198</v>
       </c>
+      <c r="AK5" s="3">
+        <f>cases!AK5/(population_2016!$B5/1000)</f>
+        <v>2.1734630511281305</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6295,8 +6401,12 @@
         <f>cases!AJ6/(population_2016!$B6/1000)</f>
         <v>8.257266394427095</v>
       </c>
+      <c r="AK6" s="3">
+        <f>cases!AK6/(population_2016!$B6/1000)</f>
+        <v>8.3353350948834972</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -6436,8 +6546,12 @@
         <f>cases!AJ7/(population_2016!$B7/1000)</f>
         <v>11.556952662721894</v>
       </c>
+      <c r="AK7" s="3">
+        <f>cases!AK7/(population_2016!$B7/1000)</f>
+        <v>11.649408284023668</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -6577,8 +6691,12 @@
         <f>cases!AJ8/(population_2016!$B8/1000)</f>
         <v>5.1534796212601481</v>
       </c>
+      <c r="AK8" s="3">
+        <f>cases!AK8/(population_2016!$B8/1000)</f>
+        <v>5.2966318329618192</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -6718,8 +6836,12 @@
         <f>cases!AJ9/(population_2016!$B9/1000)</f>
         <v>6.9546891464699678</v>
       </c>
+      <c r="AK9" s="3">
+        <f>cases!AK9/(population_2016!$B9/1000)</f>
+        <v>7.0073761854583774</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -6859,8 +6981,12 @@
         <f>cases!AJ10/(population_2016!$B10/1000)</f>
         <v>5.5930015775132658</v>
       </c>
+      <c r="AK10" s="3">
+        <f>cases!AK10/(population_2016!$B10/1000)</f>
+        <v>5.5930015775132658</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -7000,8 +7126,12 @@
         <f>cases!AJ11/(population_2016!$B11/1000)</f>
         <v>3.4737730137462162</v>
       </c>
+      <c r="AK11" s="3">
+        <f>cases!AK11/(population_2016!$B11/1000)</f>
+        <v>3.4737730137462162</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -7141,8 +7271,12 @@
         <f>cases!AJ12/(population_2016!$B12/1000)</f>
         <v>7.4849962912180548</v>
       </c>
+      <c r="AK12" s="3">
+        <f>cases!AK12/(population_2016!$B12/1000)</f>
+        <v>7.5524286902380364</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -7282,8 +7416,12 @@
         <f>cases!AJ13/(population_2016!$B13/1000)</f>
         <v>10.786826799214085</v>
       </c>
+      <c r="AK13" s="3">
+        <f>cases!AK13/(population_2016!$B13/1000)</f>
+        <v>10.903933483403382</v>
+      </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -7423,8 +7561,12 @@
         <f>cases!AJ14/(population_2016!$B14/1000)</f>
         <v>6.2998968120349748</v>
       </c>
+      <c r="AK14" s="3">
+        <f>cases!AK14/(population_2016!$B14/1000)</f>
+        <v>6.4085157225873024</v>
+      </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -7564,8 +7706,12 @@
         <f>cases!AJ15/(population_2016!$B15/1000)</f>
         <v>8.4543904016938178</v>
       </c>
+      <c r="AK15" s="3">
+        <f>cases!AK15/(population_2016!$B15/1000)</f>
+        <v>8.7116979356584139</v>
+      </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -7705,8 +7851,12 @@
         <f>cases!AJ16/(population_2016!$B16/1000)</f>
         <v>5.7142857142857144</v>
       </c>
+      <c r="AK16" s="3">
+        <f>cases!AK16/(population_2016!$B16/1000)</f>
+        <v>5.7142857142857144</v>
+      </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -7846,8 +7996,12 @@
         <f>cases!AJ17/(population_2016!$B17/1000)</f>
         <v>16.893415960301066</v>
       </c>
+      <c r="AK17" s="3">
+        <f>cases!AK17/(population_2016!$B17/1000)</f>
+        <v>17.297053446351832</v>
+      </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -7987,8 +8141,12 @@
         <f>cases!AJ18/(population_2016!$B18/1000)</f>
         <v>2.7722772277227725</v>
       </c>
+      <c r="AK18" s="3">
+        <f>cases!AK18/(population_2016!$B18/1000)</f>
+        <v>2.7722772277227725</v>
+      </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -8128,8 +8286,12 @@
         <f>cases!AJ19/(population_2016!$B19/1000)</f>
         <v>9.1734069836259611</v>
       </c>
+      <c r="AK19" s="3">
+        <f>cases!AK19/(population_2016!$B19/1000)</f>
+        <v>9.3706845531663046</v>
+      </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -8269,8 +8431,12 @@
         <f>cases!AJ20/(population_2016!$B20/1000)</f>
         <v>8.7250563580195379</v>
       </c>
+      <c r="AK20" s="3">
+        <f>cases!AK20/(population_2016!$B20/1000)</f>
+        <v>8.7250563580195379</v>
+      </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -8410,8 +8576,12 @@
         <f>cases!AJ21/(population_2016!$B21/1000)</f>
         <v>4.1415934311730664</v>
       </c>
+      <c r="AK21" s="3">
+        <f>cases!AK21/(population_2016!$B21/1000)</f>
+        <v>4.2426079051041174</v>
+      </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -8551,8 +8721,12 @@
         <f>cases!AJ22/(population_2016!$B22/1000)</f>
         <v>5.8557692307692308</v>
       </c>
+      <c r="AK22" s="3">
+        <f>cases!AK22/(population_2016!$B22/1000)</f>
+        <v>5.9230769230769234</v>
+      </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -8692,8 +8866,12 @@
         <f>cases!AJ23/(population_2016!$B23/1000)</f>
         <v>4.0152963671128106</v>
       </c>
+      <c r="AK23" s="3">
+        <f>cases!AK23/(population_2016!$B23/1000)</f>
+        <v>4.0152963671128106</v>
+      </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -8833,8 +9011,12 @@
         <f>cases!AJ24/(population_2016!$B24/1000)</f>
         <v>10.58617426903872</v>
       </c>
+      <c r="AK24" s="3">
+        <f>cases!AK24/(population_2016!$B24/1000)</f>
+        <v>11.035852468077533</v>
+      </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -8974,8 +9156,12 @@
         <f>cases!AJ25/(population_2016!$B25/1000)</f>
         <v>6.3399957016978288</v>
       </c>
+      <c r="AK25" s="3">
+        <f>cases!AK25/(population_2016!$B25/1000)</f>
+        <v>6.5405831363278173</v>
+      </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -9115,8 +9301,12 @@
         <f>cases!AJ26/(population_2016!$B26/1000)</f>
         <v>2.6220250100847116</v>
       </c>
+      <c r="AK26" s="3">
+        <f>cases!AK26/(population_2016!$B26/1000)</f>
+        <v>2.8237192416296892</v>
+      </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -9256,8 +9446,12 @@
         <f>cases!AJ27/(population_2016!$B27/1000)</f>
         <v>5.9294936657627391</v>
       </c>
+      <c r="AK27" s="3">
+        <f>cases!AK27/(population_2016!$B27/1000)</f>
+        <v>6.0104423847492612</v>
+      </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -9397,8 +9591,12 @@
         <f>cases!AJ28/(population_2016!$B28/1000)</f>
         <v>7.8666751803843935</v>
       </c>
+      <c r="AK28" s="3">
+        <f>cases!AK28/(population_2016!$B28/1000)</f>
+        <v>8.1476278653981229</v>
+      </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -9538,8 +9736,12 @@
         <f>cases!AJ29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
+      <c r="AK29" s="3">
+        <f>cases!AK29/(population_2016!$B29/1000)</f>
+        <v>3.2573289902280127</v>
+      </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -9679,8 +9881,12 @@
         <f>cases!AJ30/(population_2016!$B30/1000)</f>
         <v>8.3044362836048169</v>
       </c>
+      <c r="AK30" s="3">
+        <f>cases!AK30/(population_2016!$B30/1000)</f>
+        <v>8.4707809241084568</v>
+      </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -9820,8 +10026,12 @@
         <f>cases!AJ31/(population_2016!$B31/1000)</f>
         <v>9.7935836138034631</v>
       </c>
+      <c r="AK31" s="3">
+        <f>cases!AK31/(population_2016!$B31/1000)</f>
+        <v>9.8658076817518676</v>
+      </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -9961,8 +10171,12 @@
         <f>cases!AJ32/(population_2016!$B32/1000)</f>
         <v>4.4745990804082085</v>
       </c>
+      <c r="AK32" s="3">
+        <f>cases!AK32/(population_2016!$B32/1000)</f>
+        <v>4.6091734888415381</v>
+      </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -10102,8 +10316,12 @@
         <f>cases!AJ33/(population_2016!$B33/1000)</f>
         <v>7.9178049814741431</v>
       </c>
+      <c r="AK33" s="3">
+        <f>cases!AK33/(population_2016!$B33/1000)</f>
+        <v>8.272333562734179</v>
+      </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -10242,6 +10460,10 @@
       <c r="AJ34" s="3">
         <f>cases!AJ34/(population_2016!$B34/1000)</f>
         <v>6.3016935801496645</v>
+      </c>
+      <c r="AK34" s="3">
+        <f>cases!AK34/(population_2016!$B34/1000)</f>
+        <v>6.3509255612445843</v>
       </c>
     </row>
   </sheetData>
@@ -10251,11 +10473,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AS50"/>
+  <dimension ref="A1:AS51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V57" sqref="V57"/>
+    <sheetView topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18172,6 +18394,177 @@
         <v>45.932394252750306</v>
       </c>
     </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A51" s="19">
+        <v>43954</v>
+      </c>
+      <c r="B51" s="17">
+        <f>mtl_newcases!C52</f>
+        <v>16606</v>
+      </c>
+      <c r="C51" s="17">
+        <f t="shared" ref="C51" si="505">B51-B50</f>
+        <v>355</v>
+      </c>
+      <c r="D51">
+        <v>1410</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51" si="506">D51-D50</f>
+        <v>45</v>
+      </c>
+      <c r="F51" cm="1">
+        <f t="array" ref="F51:O51">TRANSPOSE(santemontreal!AJ$57:AJ$66)</f>
+        <v>161</v>
+      </c>
+      <c r="G51">
+        <v>130</v>
+      </c>
+      <c r="H51">
+        <v>472</v>
+      </c>
+      <c r="I51">
+        <v>1742</v>
+      </c>
+      <c r="J51">
+        <v>2001</v>
+      </c>
+      <c r="K51">
+        <v>2310</v>
+      </c>
+      <c r="L51">
+        <v>2107</v>
+      </c>
+      <c r="M51">
+        <v>1470</v>
+      </c>
+      <c r="N51">
+        <v>1583</v>
+      </c>
+      <c r="O51">
+        <v>4549</v>
+      </c>
+      <c r="P51" s="18">
+        <f>F51/(age_distribution_2016!$B$2/100000)</f>
+        <v>146.71040641516313</v>
+      </c>
+      <c r="Q51" s="18">
+        <f>G51/(age_distribution_2016!$B$3/100000)</f>
+        <v>124.5389663265795</v>
+      </c>
+      <c r="R51" s="18">
+        <f>H51/(age_distribution_2016!$B$4/100000)</f>
+        <v>250.81701517124105</v>
+      </c>
+      <c r="S51" s="18">
+        <f>I51/(age_distribution_2016!$B$5/100000)</f>
+        <v>594.08304203256887</v>
+      </c>
+      <c r="T51" s="18">
+        <f>J51/(age_distribution_2016!$B$6/100000)</f>
+        <v>667.723366980896</v>
+      </c>
+      <c r="U51" s="18">
+        <f>K51/(age_distribution_2016!$B$7/100000)</f>
+        <v>907.75125257883872</v>
+      </c>
+      <c r="V51" s="18">
+        <f>L51/(age_distribution_2016!$B$8/100000)</f>
+        <v>813.90632544664413</v>
+      </c>
+      <c r="W51" s="18">
+        <f>M51/(age_distribution_2016!$B$9/100000)</f>
+        <v>717.05568156874222</v>
+      </c>
+      <c r="X51" s="18">
+        <f>N51/(age_distribution_2016!$B$10/100000)</f>
+        <v>1220.697100555213</v>
+      </c>
+      <c r="Y51" s="18">
+        <f>O51/(age_distribution_2016!$B$11/100000)</f>
+        <v>4604.0180152826279</v>
+      </c>
+      <c r="Z51" s="3">
+        <f t="shared" ref="Z51" si="507">F51*100/SUM($F51:$O51)</f>
+        <v>0.97428139183055973</v>
+      </c>
+      <c r="AA51" s="3">
+        <f t="shared" ref="AA51" si="508">G51*100/SUM($F51:$O51)</f>
+        <v>0.78668683812405449</v>
+      </c>
+      <c r="AB51" s="3">
+        <f t="shared" ref="AB51" si="509">H51*100/SUM($F51:$O51)</f>
+        <v>2.8562783661119515</v>
+      </c>
+      <c r="AC51" s="3">
+        <f t="shared" ref="AC51" si="510">I51*100/SUM($F51:$O51)</f>
+        <v>10.54160363086233</v>
+      </c>
+      <c r="AD51" s="3">
+        <f t="shared" ref="AD51" si="511">J51*100/SUM($F51:$O51)</f>
+        <v>12.108925869894099</v>
+      </c>
+      <c r="AE51" s="3">
+        <f t="shared" ref="AE51" si="512">K51*100/SUM($F51:$O51)</f>
+        <v>13.978819969742814</v>
+      </c>
+      <c r="AF51" s="3">
+        <f t="shared" ref="AF51" si="513">L51*100/SUM($F51:$O51)</f>
+        <v>12.750378214826021</v>
+      </c>
+      <c r="AG51" s="3">
+        <f t="shared" ref="AG51" si="514">M51*100/SUM($F51:$O51)</f>
+        <v>8.8956127080181542</v>
+      </c>
+      <c r="AH51" s="3">
+        <f t="shared" ref="AH51" si="515">N51*100/SUM($F51:$O51)</f>
+        <v>9.5794251134644473</v>
+      </c>
+      <c r="AI51" s="3">
+        <f t="shared" ref="AI51" si="516">O51*100/SUM($F51:$O51)</f>
+        <v>27.527987897125566</v>
+      </c>
+      <c r="AJ51" s="3">
+        <f t="shared" ref="AJ51" si="517">P51*100/SUM($P51:$Y51)</f>
+        <v>1.4601971603955033</v>
+      </c>
+      <c r="AK51" s="3">
+        <f t="shared" ref="AK51" si="518">Q51*100/SUM($P51:$Y51)</f>
+        <v>1.2395265573326602</v>
+      </c>
+      <c r="AL51" s="3">
+        <f t="shared" ref="AL51" si="519">R51*100/SUM($P51:$Y51)</f>
+        <v>2.4963620664748518</v>
+      </c>
+      <c r="AM51" s="3">
+        <f t="shared" ref="AM51" si="520">S51*100/SUM($P51:$Y51)</f>
+        <v>5.9128618903847698</v>
+      </c>
+      <c r="AN51" s="3">
+        <f t="shared" ref="AN51" si="521">T51*100/SUM($P51:$Y51)</f>
+        <v>6.6457982648902103</v>
+      </c>
+      <c r="AO51" s="3">
+        <f t="shared" ref="AO51" si="522">U51*100/SUM($P51:$Y51)</f>
+        <v>9.0347769715133577</v>
+      </c>
+      <c r="AP51" s="3">
+        <f t="shared" ref="AP51" si="523">V51*100/SUM($P51:$Y51)</f>
+        <v>8.1007457772422562</v>
+      </c>
+      <c r="AQ51" s="3">
+        <f t="shared" ref="AQ51" si="524">W51*100/SUM($P51:$Y51)</f>
+        <v>7.1367989201066191</v>
+      </c>
+      <c r="AR51" s="3">
+        <f t="shared" ref="AR51" si="525">X51*100/SUM($P51:$Y51)</f>
+        <v>12.149502434678835</v>
+      </c>
+      <c r="AS51" s="3">
+        <f t="shared" ref="AS51" si="526">Y51*100/SUM($P51:$Y51)</f>
+        <v>45.823429956980931</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18179,11 +18572,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18324,7 +18717,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F62" si="1">E4-E3</f>
+        <f t="shared" ref="F4:F63" si="1">E4-E3</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -18337,7 +18730,7 @@
         <v>260</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J62" si="2">I4-I3</f>
+        <f t="shared" ref="J4:J63" si="2">I4-I3</f>
         <v>18</v>
       </c>
       <c r="K4" t="s">
@@ -20546,6 +20939,44 @@
       </c>
       <c r="K62">
         <v>7258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B63">
+        <v>32623</v>
+      </c>
+      <c r="C63">
+        <f>B63-B62</f>
+        <v>758</v>
+      </c>
+      <c r="D63">
+        <v>22765</v>
+      </c>
+      <c r="E63">
+        <v>2280</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="G63">
+        <v>1772</v>
+      </c>
+      <c r="H63">
+        <v>218</v>
+      </c>
+      <c r="I63">
+        <v>206551</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="2"/>
+        <v>3611</v>
+      </c>
+      <c r="K63">
+        <v>7578</v>
       </c>
     </row>
   </sheetData>
@@ -20555,11 +20986,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21303,7 +21734,7 @@
         <v>563</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:C51" si="13">C40+B41</f>
+        <f t="shared" ref="C41:C52" si="13">C40+B41</f>
         <v>11494</v>
       </c>
       <c r="E41" s="19">
@@ -21445,7 +21876,7 @@
         <v>12811</v>
       </c>
       <c r="G47">
-        <f t="shared" ref="G47:G51" si="16">C47-F47</f>
+        <f t="shared" ref="G47:G52" si="16">C47-F47</f>
         <v>1428</v>
       </c>
     </row>
@@ -21519,7 +21950,7 @@
       <c r="A51" s="19">
         <v>43953</v>
       </c>
-      <c r="B51" s="23">
+      <c r="B51" s="24">
         <v>294</v>
       </c>
       <c r="C51">
@@ -21533,6 +21964,28 @@
         <v>16251</v>
       </c>
       <c r="G51">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="19">
+        <v>43954</v>
+      </c>
+      <c r="B52" s="24">
+        <v>355</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="13"/>
+        <v>16606</v>
+      </c>
+      <c r="E52" s="19">
+        <v>43954</v>
+      </c>
+      <c r="F52">
+        <v>16606</v>
+      </c>
+      <c r="G52">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -21547,9 +22000,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH119"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI70" sqref="AI70"/>
+      <selection pane="topRight" activeCell="AJ2" sqref="AJ2:AJ35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21661,12 +22114,14 @@
         <v>289</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="AJ1" s="5"/>
+        <v>295</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="AK1" s="5"/>
       <c r="AL1" s="5"/>
       <c r="AM1" s="5"/>
@@ -21954,7 +22409,9 @@
       <c r="AI2" s="7">
         <v>1307</v>
       </c>
-      <c r="AJ2" s="7"/>
+      <c r="AJ2" s="7">
+        <v>1329</v>
+      </c>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
       <c r="AM2" s="7"/>
@@ -22242,7 +22699,9 @@
       <c r="AI3" s="9">
         <v>347</v>
       </c>
-      <c r="AJ3" s="9"/>
+      <c r="AJ3" s="9">
+        <v>364</v>
+      </c>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
       <c r="AM3" s="9"/>
@@ -22530,7 +22989,9 @@
       <c r="AI4" s="7">
         <v>9</v>
       </c>
-      <c r="AJ4" s="7"/>
+      <c r="AJ4" s="7">
+        <v>9</v>
+      </c>
       <c r="AK4" s="7"/>
       <c r="AL4" s="7"/>
       <c r="AM4" s="7"/>
@@ -22818,7 +23279,9 @@
       <c r="AI5" s="9">
         <v>40</v>
       </c>
-      <c r="AJ5" s="9"/>
+      <c r="AJ5" s="9">
+        <v>42</v>
+      </c>
       <c r="AK5" s="9"/>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
@@ -23106,7 +23569,9 @@
       <c r="AI6" s="7">
         <v>1375</v>
       </c>
-      <c r="AJ6" s="7"/>
+      <c r="AJ6" s="7">
+        <v>1388</v>
+      </c>
       <c r="AK6" s="7"/>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7"/>
@@ -23394,7 +23859,9 @@
       <c r="AI7" s="9">
         <v>375</v>
       </c>
-      <c r="AJ7" s="9"/>
+      <c r="AJ7" s="9">
+        <v>378</v>
+      </c>
       <c r="AK7" s="9"/>
       <c r="AL7" s="9"/>
       <c r="AM7" s="9"/>
@@ -23682,7 +24149,9 @@
       <c r="AI8" s="7">
         <v>252</v>
       </c>
-      <c r="AJ8" s="7"/>
+      <c r="AJ8" s="7">
+        <v>259</v>
+      </c>
       <c r="AK8" s="7"/>
       <c r="AL8" s="7"/>
       <c r="AM8" s="7"/>
@@ -23970,7 +24439,9 @@
       <c r="AI9" s="9">
         <v>132</v>
       </c>
-      <c r="AJ9" s="9"/>
+      <c r="AJ9" s="9">
+        <v>133</v>
+      </c>
       <c r="AK9" s="9"/>
       <c r="AL9" s="9"/>
       <c r="AM9" s="9"/>
@@ -24258,7 +24729,9 @@
       <c r="AI10" s="7">
         <v>39</v>
       </c>
-      <c r="AJ10" s="7"/>
+      <c r="AJ10" s="7">
+        <v>39</v>
+      </c>
       <c r="AK10" s="7"/>
       <c r="AL10" s="7"/>
       <c r="AM10" s="7"/>
@@ -24546,7 +25019,9 @@
       <c r="AI11" s="9">
         <v>70</v>
       </c>
-      <c r="AJ11" s="9"/>
+      <c r="AJ11" s="9">
+        <v>70</v>
+      </c>
       <c r="AK11" s="9"/>
       <c r="AL11" s="9"/>
       <c r="AM11" s="9"/>
@@ -24834,7 +25309,9 @@
       <c r="AI12" s="7">
         <v>333</v>
       </c>
-      <c r="AJ12" s="7"/>
+      <c r="AJ12" s="7">
+        <v>336</v>
+      </c>
       <c r="AK12" s="7"/>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
@@ -25122,7 +25599,9 @@
       <c r="AI13" s="9">
         <v>829</v>
       </c>
-      <c r="AJ13" s="9"/>
+      <c r="AJ13" s="9">
+        <v>838</v>
+      </c>
       <c r="AK13" s="9"/>
       <c r="AL13" s="9"/>
       <c r="AM13" s="9"/>
@@ -25410,7 +25889,9 @@
       <c r="AI14" s="7">
         <v>116</v>
       </c>
-      <c r="AJ14" s="7"/>
+      <c r="AJ14" s="7">
+        <v>118</v>
+      </c>
       <c r="AK14" s="7"/>
       <c r="AL14" s="7"/>
       <c r="AM14" s="7"/>
@@ -25698,7 +26179,9 @@
       <c r="AI15" s="9">
         <v>1150</v>
       </c>
-      <c r="AJ15" s="9"/>
+      <c r="AJ15" s="9">
+        <v>1185</v>
+      </c>
       <c r="AK15" s="9"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="9"/>
@@ -25986,7 +26469,9 @@
       <c r="AI16" s="7">
         <v>22</v>
       </c>
-      <c r="AJ16" s="7"/>
+      <c r="AJ16" s="7">
+        <v>22</v>
+      </c>
       <c r="AK16" s="7"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
@@ -26274,7 +26759,9 @@
       <c r="AI17" s="9">
         <v>1423</v>
       </c>
-      <c r="AJ17" s="9"/>
+      <c r="AJ17" s="9">
+        <v>1457</v>
+      </c>
       <c r="AK17" s="9"/>
       <c r="AL17" s="9"/>
       <c r="AM17" s="9"/>
@@ -26562,7 +27049,9 @@
       <c r="AI18" s="7">
         <v>14</v>
       </c>
-      <c r="AJ18" s="7"/>
+      <c r="AJ18" s="7">
+        <v>14</v>
+      </c>
       <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
       <c r="AM18" s="7"/>
@@ -26850,7 +27339,9 @@
       <c r="AI19" s="9">
         <v>186</v>
       </c>
-      <c r="AJ19" s="9"/>
+      <c r="AJ19" s="9">
+        <v>190</v>
+      </c>
       <c r="AK19" s="9"/>
       <c r="AL19" s="9"/>
       <c r="AM19" s="9"/>
@@ -27138,7 +27629,9 @@
       <c r="AI20" s="7">
         <v>209</v>
       </c>
-      <c r="AJ20" s="7"/>
+      <c r="AJ20" s="7">
+        <v>209</v>
+      </c>
       <c r="AK20" s="7"/>
       <c r="AL20" s="7"/>
       <c r="AM20" s="7"/>
@@ -27426,7 +27919,9 @@
       <c r="AI21" s="9">
         <v>287</v>
       </c>
-      <c r="AJ21" s="9"/>
+      <c r="AJ21" s="9">
+        <v>294</v>
+      </c>
       <c r="AK21" s="9"/>
       <c r="AL21" s="9"/>
       <c r="AM21" s="9"/>
@@ -27714,7 +28209,9 @@
       <c r="AI22" s="7">
         <v>609</v>
       </c>
-      <c r="AJ22" s="7"/>
+      <c r="AJ22" s="7">
+        <v>616</v>
+      </c>
       <c r="AK22" s="7"/>
       <c r="AL22" s="7"/>
       <c r="AM22" s="7"/>
@@ -28002,7 +28499,9 @@
       <c r="AI23" s="9">
         <v>126</v>
       </c>
-      <c r="AJ23" s="9"/>
+      <c r="AJ23" s="9">
+        <v>126</v>
+      </c>
       <c r="AK23" s="9"/>
       <c r="AL23" s="9"/>
       <c r="AM23" s="9"/>
@@ -28290,7 +28789,9 @@
       <c r="AI24" s="7">
         <v>1130</v>
       </c>
-      <c r="AJ24" s="7"/>
+      <c r="AJ24" s="7">
+        <v>1178</v>
+      </c>
       <c r="AK24" s="7"/>
       <c r="AL24" s="7"/>
       <c r="AM24" s="7"/>
@@ -28578,7 +29079,9 @@
       <c r="AI25" s="9">
         <v>885</v>
       </c>
-      <c r="AJ25" s="9"/>
+      <c r="AJ25" s="9">
+        <v>913</v>
+      </c>
       <c r="AK25" s="9"/>
       <c r="AL25" s="9"/>
       <c r="AM25" s="9"/>
@@ -28866,7 +29369,9 @@
       <c r="AI26" s="7">
         <v>13</v>
       </c>
-      <c r="AJ26" s="7"/>
+      <c r="AJ26" s="7">
+        <v>14</v>
+      </c>
       <c r="AK26" s="7"/>
       <c r="AL26" s="7"/>
       <c r="AM26" s="7"/>
@@ -29154,7 +29659,9 @@
       <c r="AI27" s="9">
         <v>586</v>
       </c>
-      <c r="AJ27" s="9"/>
+      <c r="AJ27" s="9">
+        <v>594</v>
+      </c>
       <c r="AK27" s="9"/>
       <c r="AL27" s="9"/>
       <c r="AM27" s="9"/>
@@ -29442,7 +29949,9 @@
       <c r="AI28" s="7">
         <v>616</v>
       </c>
-      <c r="AJ28" s="7"/>
+      <c r="AJ28" s="7">
+        <v>638</v>
+      </c>
       <c r="AK28" s="7"/>
       <c r="AL28" s="7"/>
       <c r="AM28" s="7"/>
@@ -29730,7 +30239,9 @@
       <c r="AI29" s="20">
         <v>2</v>
       </c>
-      <c r="AJ29" s="22"/>
+      <c r="AJ29" s="20">
+        <v>3</v>
+      </c>
       <c r="AK29" s="22"/>
       <c r="AL29" s="22"/>
       <c r="AM29" s="22"/>
@@ -30018,7 +30529,9 @@
       <c r="AI30" s="7">
         <v>649</v>
       </c>
-      <c r="AJ30" s="7"/>
+      <c r="AJ30" s="7">
+        <v>662</v>
+      </c>
       <c r="AK30" s="7"/>
       <c r="AL30" s="7"/>
       <c r="AM30" s="7"/>
@@ -30306,7 +30819,9 @@
       <c r="AI31" s="9">
         <v>678</v>
       </c>
-      <c r="AJ31" s="9"/>
+      <c r="AJ31" s="9">
+        <v>683</v>
+      </c>
       <c r="AK31" s="9"/>
       <c r="AL31" s="9"/>
       <c r="AM31" s="9"/>
@@ -30594,7 +31109,9 @@
       <c r="AI32" s="7">
         <v>399</v>
       </c>
-      <c r="AJ32" s="7"/>
+      <c r="AJ32" s="7">
+        <v>411</v>
+      </c>
       <c r="AK32" s="7"/>
       <c r="AL32" s="7"/>
       <c r="AM32" s="7"/>
@@ -30882,7 +31399,9 @@
       <c r="AI33" s="9">
         <v>1139</v>
       </c>
-      <c r="AJ33" s="9"/>
+      <c r="AJ33" s="9">
+        <v>1190</v>
+      </c>
       <c r="AK33" s="9"/>
       <c r="AL33" s="9"/>
       <c r="AM33" s="9"/>
@@ -31170,7 +31689,9 @@
       <c r="AI34" s="7">
         <v>128</v>
       </c>
-      <c r="AJ34" s="7"/>
+      <c r="AJ34" s="7">
+        <v>129</v>
+      </c>
       <c r="AK34" s="7"/>
       <c r="AL34" s="7"/>
       <c r="AM34" s="7"/>
@@ -31458,7 +31979,9 @@
       <c r="AI35" s="9">
         <v>777</v>
       </c>
-      <c r="AJ35" s="9"/>
+      <c r="AJ35" s="9">
+        <v>775</v>
+      </c>
       <c r="AK35" s="9"/>
       <c r="AL35" s="9"/>
       <c r="AM35" s="9"/>
@@ -31746,7 +32269,9 @@
       <c r="AI36" s="11">
         <v>16251</v>
       </c>
-      <c r="AJ36" s="11"/>
+      <c r="AJ36" s="11">
+        <v>16606</v>
+      </c>
       <c r="AK36" s="11"/>
       <c r="AL36" s="11"/>
       <c r="AM36" s="11"/>
@@ -35964,12 +36489,14 @@
         <v>289</v>
       </c>
       <c r="AH56" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AI56" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="AJ56" s="5"/>
+        <v>295</v>
+      </c>
+      <c r="AJ56" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="AK56" s="5"/>
       <c r="AL56" s="5"/>
       <c r="AM56" s="5"/>
@@ -36255,7 +36782,9 @@
       <c r="AI57" s="7">
         <v>154</v>
       </c>
-      <c r="AJ57" s="7"/>
+      <c r="AJ57" s="7">
+        <v>161</v>
+      </c>
       <c r="AK57" s="7"/>
       <c r="AL57" s="7"/>
       <c r="AM57" s="7"/>
@@ -36541,7 +37070,9 @@
       <c r="AI58" s="9">
         <v>126</v>
       </c>
-      <c r="AJ58" s="9"/>
+      <c r="AJ58" s="9">
+        <v>130</v>
+      </c>
       <c r="AK58" s="9"/>
       <c r="AL58" s="9"/>
       <c r="AM58" s="9"/>
@@ -36827,7 +37358,9 @@
       <c r="AI59" s="7">
         <v>465</v>
       </c>
-      <c r="AJ59" s="7"/>
+      <c r="AJ59" s="7">
+        <v>472</v>
+      </c>
       <c r="AK59" s="7"/>
       <c r="AL59" s="7"/>
       <c r="AM59" s="7"/>
@@ -37113,7 +37646,9 @@
       <c r="AI60" s="9">
         <v>1718</v>
       </c>
-      <c r="AJ60" s="9"/>
+      <c r="AJ60" s="9">
+        <v>1742</v>
+      </c>
       <c r="AK60" s="9"/>
       <c r="AL60" s="9"/>
       <c r="AM60" s="9"/>
@@ -37399,7 +37934,9 @@
       <c r="AI61" s="7">
         <v>1945</v>
       </c>
-      <c r="AJ61" s="7"/>
+      <c r="AJ61" s="7">
+        <v>2001</v>
+      </c>
       <c r="AK61" s="7"/>
       <c r="AL61" s="7"/>
       <c r="AM61" s="7"/>
@@ -37685,7 +38222,9 @@
       <c r="AI62" s="9">
         <v>2254</v>
       </c>
-      <c r="AJ62" s="9"/>
+      <c r="AJ62" s="9">
+        <v>2310</v>
+      </c>
       <c r="AK62" s="9"/>
       <c r="AL62" s="9"/>
       <c r="AM62" s="9"/>
@@ -37971,7 +38510,9 @@
       <c r="AI63" s="7">
         <v>2054</v>
       </c>
-      <c r="AJ63" s="7"/>
+      <c r="AJ63" s="7">
+        <v>2107</v>
+      </c>
       <c r="AK63" s="7"/>
       <c r="AL63" s="7"/>
       <c r="AM63" s="7"/>
@@ -38257,7 +38798,9 @@
       <c r="AI64" s="9">
         <v>1435</v>
       </c>
-      <c r="AJ64" s="9"/>
+      <c r="AJ64" s="9">
+        <v>1470</v>
+      </c>
       <c r="AK64" s="9"/>
       <c r="AL64" s="9"/>
       <c r="AM64" s="9"/>
@@ -38543,7 +39086,9 @@
       <c r="AI65" s="7">
         <v>1554</v>
       </c>
-      <c r="AJ65" s="7"/>
+      <c r="AJ65" s="7">
+        <v>1583</v>
+      </c>
       <c r="AK65" s="7"/>
       <c r="AL65" s="7"/>
       <c r="AM65" s="7"/>
@@ -38829,7 +39374,9 @@
       <c r="AI66" s="9">
         <v>4466</v>
       </c>
-      <c r="AJ66" s="9"/>
+      <c r="AJ66" s="9">
+        <v>4549</v>
+      </c>
       <c r="AK66" s="9"/>
       <c r="AL66" s="9"/>
       <c r="AM66" s="9"/>
@@ -39115,7 +39662,9 @@
       <c r="AI67" s="7">
         <v>80</v>
       </c>
-      <c r="AJ67" s="7"/>
+      <c r="AJ67" s="7">
+        <v>81</v>
+      </c>
       <c r="AK67" s="7"/>
       <c r="AL67" s="7"/>
       <c r="AM67" s="7"/>
@@ -39401,7 +39950,9 @@
       <c r="AI68" s="15">
         <v>16251</v>
       </c>
-      <c r="AJ68" s="15"/>
+      <c r="AJ68" s="15">
+        <v>16606</v>
+      </c>
       <c r="AK68" s="15"/>
       <c r="AL68" s="15"/>
       <c r="AM68" s="15"/>
@@ -39689,6 +40240,9 @@
       <c r="AI70">
         <v>1365</v>
       </c>
+      <c r="AJ70">
+        <v>1410</v>
+      </c>
     </row>
     <row r="71" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4" t="s">
@@ -39702,6 +40256,9 @@
       <c r="AI72">
         <v>152</v>
       </c>
+      <c r="AJ72">
+        <v>155</v>
+      </c>
     </row>
     <row r="73" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="8" t="s">
@@ -39710,6 +40267,9 @@
       <c r="AI73">
         <v>16</v>
       </c>
+      <c r="AJ73">
+        <v>16</v>
+      </c>
     </row>
     <row r="74" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="6" t="s">
@@ -39718,6 +40278,9 @@
       <c r="AI74">
         <v>0</v>
       </c>
+      <c r="AJ74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="8" t="s">
@@ -39726,6 +40289,9 @@
       <c r="AI75" s="24">
         <v>3</v>
       </c>
+      <c r="AJ75" s="24">
+        <v>3</v>
+      </c>
     </row>
     <row r="76" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="6" t="s">
@@ -39734,6 +40300,9 @@
       <c r="AI76">
         <v>133</v>
       </c>
+      <c r="AJ76">
+        <v>138</v>
+      </c>
     </row>
     <row r="77" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="8" t="s">
@@ -39742,6 +40311,9 @@
       <c r="AI77">
         <v>14</v>
       </c>
+      <c r="AJ77">
+        <v>15</v>
+      </c>
     </row>
     <row r="78" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="6" t="s">
@@ -39750,6 +40322,9 @@
       <c r="AI78">
         <v>14</v>
       </c>
+      <c r="AJ78">
+        <v>16</v>
+      </c>
     </row>
     <row r="79" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="8" t="s">
@@ -39758,6 +40333,9 @@
       <c r="AI79">
         <v>26</v>
       </c>
+      <c r="AJ79">
+        <v>26</v>
+      </c>
     </row>
     <row r="80" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="6" t="s">
@@ -39766,314 +40344,431 @@
       <c r="AI80">
         <v>0</v>
       </c>
+      <c r="AJ80" s="24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="81" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="8" t="s">
         <v>46</v>
       </c>
       <c r="AI81">
         <v>7</v>
       </c>
+      <c r="AJ81">
+        <v>7</v>
+      </c>
     </row>
-    <row r="82" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="6" t="s">
         <v>47</v>
       </c>
       <c r="AI82">
         <v>22</v>
       </c>
+      <c r="AJ82">
+        <v>23</v>
+      </c>
     </row>
-    <row r="83" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="8" t="s">
         <v>48</v>
       </c>
       <c r="AI83">
         <v>92</v>
       </c>
+      <c r="AJ83">
+        <v>92</v>
+      </c>
     </row>
-    <row r="84" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
         <v>49</v>
       </c>
       <c r="AI84">
         <v>9</v>
       </c>
+      <c r="AJ84">
+        <v>10</v>
+      </c>
     </row>
-    <row r="85" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="8" t="s">
         <v>50</v>
       </c>
       <c r="AI85">
         <v>125</v>
       </c>
+      <c r="AJ85">
+        <v>130</v>
+      </c>
     </row>
-    <row r="86" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
         <v>51</v>
       </c>
       <c r="AI86">
         <v>0</v>
       </c>
+      <c r="AJ86" s="24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="8" t="s">
         <v>52</v>
       </c>
       <c r="AI87">
         <v>82</v>
       </c>
+      <c r="AJ87">
+        <v>86</v>
+      </c>
     </row>
-    <row r="88" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
         <v>53</v>
       </c>
       <c r="AI88" s="24">
         <v>2</v>
       </c>
+      <c r="AJ88" s="24">
+        <v>2</v>
+      </c>
     </row>
-    <row r="89" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="8" t="s">
         <v>54</v>
       </c>
       <c r="AI89">
         <v>46</v>
       </c>
+      <c r="AJ89">
+        <v>47</v>
+      </c>
     </row>
-    <row r="90" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="6" t="s">
         <v>55</v>
       </c>
       <c r="AI90">
         <v>7</v>
       </c>
+      <c r="AJ90">
+        <v>7</v>
+      </c>
     </row>
-    <row r="91" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AI91">
         <v>18</v>
       </c>
+      <c r="AJ91">
+        <v>18</v>
+      </c>
     </row>
-    <row r="92" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
         <v>57</v>
       </c>
       <c r="AI92">
         <v>44</v>
       </c>
+      <c r="AJ92">
+        <v>47</v>
+      </c>
     </row>
-    <row r="93" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="8" t="s">
         <v>58</v>
       </c>
       <c r="AI93">
         <v>13</v>
       </c>
+      <c r="AJ93">
+        <v>13</v>
+      </c>
     </row>
-    <row r="94" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
         <v>59</v>
       </c>
       <c r="AI94">
         <v>43</v>
       </c>
+      <c r="AJ94">
+        <v>46</v>
+      </c>
     </row>
-    <row r="95" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="8" t="s">
         <v>60</v>
       </c>
       <c r="AI95">
         <v>73</v>
       </c>
+      <c r="AJ95">
+        <v>75</v>
+      </c>
     </row>
-    <row r="96" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="6" t="s">
         <v>61</v>
       </c>
       <c r="AI96" s="24">
         <v>2</v>
       </c>
+      <c r="AJ96" s="24">
+        <v>2</v>
+      </c>
     </row>
-    <row r="97" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="8" t="s">
         <v>62</v>
       </c>
       <c r="AI97">
         <v>54</v>
       </c>
+      <c r="AJ97">
+        <v>55</v>
+      </c>
     </row>
-    <row r="98" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="6" t="s">
         <v>63</v>
       </c>
       <c r="AI98">
         <v>24</v>
       </c>
+      <c r="AJ98">
+        <v>26</v>
+      </c>
     </row>
-    <row r="99" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="8" t="s">
         <v>64</v>
       </c>
       <c r="AI99">
         <v>0</v>
       </c>
+      <c r="AJ99">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="6" t="s">
         <v>65</v>
       </c>
       <c r="AI100">
         <v>118</v>
       </c>
+      <c r="AJ100">
+        <v>122</v>
+      </c>
     </row>
-    <row r="101" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="8" t="s">
         <v>66</v>
       </c>
       <c r="AI101">
         <v>88</v>
       </c>
+      <c r="AJ101">
+        <v>88</v>
+      </c>
     </row>
-    <row r="102" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="6" t="s">
         <v>67</v>
       </c>
       <c r="AI102">
         <v>25</v>
       </c>
+      <c r="AJ102">
+        <v>25</v>
+      </c>
     </row>
-    <row r="103" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="8" t="s">
         <v>68</v>
       </c>
       <c r="AI103">
         <v>67</v>
       </c>
+      <c r="AJ103">
+        <v>68</v>
+      </c>
     </row>
-    <row r="104" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AI104">
         <v>11</v>
       </c>
+      <c r="AJ104">
+        <v>14</v>
+      </c>
     </row>
-    <row r="105" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="8" t="s">
         <v>70</v>
       </c>
       <c r="AI105">
         <v>35</v>
       </c>
+      <c r="AJ105">
+        <v>36</v>
+      </c>
     </row>
-    <row r="106" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="10" t="s">
         <v>71</v>
       </c>
       <c r="AI106" t="s">
-        <v>305</v>
+        <v>294</v>
+      </c>
+      <c r="AJ106" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>86</v>
       </c>
       <c r="AI108">
         <v>0</v>
       </c>
+      <c r="AJ108">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>87</v>
       </c>
       <c r="AI109">
         <v>0</v>
       </c>
+      <c r="AJ109">
+        <v>0</v>
+      </c>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>88</v>
       </c>
       <c r="AI110">
         <v>0</v>
       </c>
+      <c r="AJ110">
+        <v>0</v>
+      </c>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>89</v>
       </c>
       <c r="AI111">
         <v>0</v>
       </c>
+      <c r="AJ111">
+        <v>0</v>
+      </c>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>90</v>
       </c>
       <c r="AI112" s="24">
         <v>3</v>
       </c>
+      <c r="AJ112">
+        <v>3</v>
+      </c>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>91</v>
       </c>
       <c r="AI113">
         <v>11</v>
       </c>
+      <c r="AJ113">
+        <v>11</v>
+      </c>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>92</v>
       </c>
       <c r="AI114">
         <v>24</v>
       </c>
+      <c r="AJ114">
+        <v>25</v>
+      </c>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>93</v>
       </c>
       <c r="AI115">
         <v>96</v>
       </c>
+      <c r="AJ115">
+        <v>96</v>
+      </c>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>94</v>
       </c>
       <c r="AI116">
         <v>219</v>
       </c>
+      <c r="AJ116">
+        <v>225</v>
+      </c>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>95</v>
       </c>
       <c r="AI117">
         <v>1011</v>
       </c>
+      <c r="AJ117">
+        <v>1049</v>
+      </c>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>96</v>
       </c>
       <c r="AI118">
         <v>1</v>
       </c>
+      <c r="AJ118">
+        <v>1</v>
+      </c>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>97</v>
       </c>
       <c r="AI119" t="s">
-        <v>305</v>
+        <v>294</v>
+      </c>
+      <c r="AJ119">
+        <v>1410</v>
       </c>
     </row>
   </sheetData>
@@ -40088,7 +40783,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="E2" sqref="E2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40096,52 +40791,67 @@
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" t="s">
-        <v>295</v>
+        <v>86</v>
+      </c>
+      <c r="B2">
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>296</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F2" t="s">
-        <v>301</v>
+        <v>304</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>291</v>
+      </c>
       <c r="D3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F3" t="s">
-        <v>298</v>
+        <v>305</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4">
+        <v>472</v>
+      </c>
+      <c r="C4" t="s">
+        <v>297</v>
+      </c>
       <c r="D4" t="s">
-        <v>299</v>
-      </c>
-      <c r="F4" t="s">
-        <v>299</v>
+        <v>306</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B5">
-        <v>154</v>
+        <v>1742</v>
       </c>
       <c r="C5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" t="s">
         <v>308</v>
-      </c>
-      <c r="D5" t="s">
-        <v>309</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -40149,27 +40859,30 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B6">
-        <v>126</v>
+        <v>2001</v>
       </c>
       <c r="C6" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="D6" t="s">
         <v>310</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B7">
-        <v>465</v>
+        <v>2310</v>
       </c>
       <c r="C7" t="s">
         <v>311</v>
@@ -40178,15 +40891,18 @@
         <v>312</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B8">
-        <v>1718</v>
+        <v>2107</v>
       </c>
       <c r="C8" t="s">
         <v>313</v>
@@ -40195,167 +40911,110 @@
         <v>314</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2">
-        <v>1945</v>
+        <v>1470</v>
       </c>
       <c r="C9" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="D9" t="s">
         <v>316</v>
       </c>
-      <c r="E9" t="s">
-        <v>291</v>
+      <c r="E9">
+        <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B10">
-        <v>2254</v>
+        <v>1583</v>
       </c>
       <c r="C10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D10" t="s">
         <v>317</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10">
+        <v>225</v>
+      </c>
+      <c r="F10" t="s">
         <v>318</v>
-      </c>
-      <c r="E10">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B11">
-        <v>2054</v>
+        <v>4549</v>
       </c>
       <c r="C11" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="D11" t="s">
         <v>320</v>
       </c>
       <c r="E11">
-        <v>24</v>
+        <v>1049</v>
       </c>
       <c r="F11" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B12">
-        <v>1435</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="D12" t="s">
-        <v>321</v>
+        <v>229</v>
       </c>
       <c r="E12">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>322</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B13">
-        <v>1554</v>
+        <v>16606</v>
       </c>
       <c r="C13" t="s">
-        <v>323</v>
+        <v>229</v>
       </c>
       <c r="D13" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="E13">
-        <v>219</v>
+        <v>1410</v>
       </c>
       <c r="F13" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14">
-        <v>4466</v>
-      </c>
-      <c r="C14" t="s">
-        <v>326</v>
-      </c>
-      <c r="D14" t="s">
-        <v>327</v>
-      </c>
-      <c r="E14">
-        <v>1011</v>
-      </c>
-      <c r="F14" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15">
-        <v>80</v>
-      </c>
-      <c r="C15" t="s">
-        <v>229</v>
-      </c>
-      <c r="D15" t="s">
-        <v>229</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16">
-        <v>16251</v>
-      </c>
-      <c r="C16" t="s">
-        <v>229</v>
-      </c>
-      <c r="D16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F16" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/app/data/covid19_MTL.xlsx
+++ b/app/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7DE331-FC3D-4E85-A2F8-88E0493E01F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02498D2-DD8F-4510-BCDC-186931086F26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17310" yWindow="2690" windowWidth="20450" windowHeight="15990" tabRatio="512" activeTab="4" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="8580" yWindow="5720" windowWidth="29390" windowHeight="14060" tabRatio="512" activeTab="2" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="331">
   <si>
     <t>borough</t>
   </si>
@@ -967,13 +967,7 @@
     <t>1,0</t>
   </si>
   <si>
-    <t>2,9</t>
-  </si>
-  <si>
     <t>* 4,0</t>
-  </si>
-  <si>
-    <t> 44,3</t>
   </si>
   <si>
     <t>9,6</t>
@@ -982,67 +976,97 @@
     <t>3 MAI, 18h04</t>
   </si>
   <si>
-    <t> 803,8</t>
-  </si>
-  <si>
-    <t>1 410</t>
-  </si>
-  <si>
-    <t> 145,2</t>
-  </si>
-  <si>
-    <t> 120,4</t>
-  </si>
-  <si>
-    <t> 237,3</t>
-  </si>
-  <si>
-    <t>10,5</t>
-  </si>
-  <si>
-    <t> 540,8</t>
-  </si>
-  <si>
-    <t>12,1</t>
-  </si>
-  <si>
-    <t> 609,1</t>
-  </si>
-  <si>
     <t>14,0</t>
-  </si>
-  <si>
-    <t> 829,9</t>
   </si>
   <si>
     <t>12,8</t>
   </si>
   <si>
-    <t> 820,9</t>
-  </si>
-  <si>
-    <t>* 9,7</t>
-  </si>
-  <si>
-    <t> 678,8</t>
-  </si>
-  <si>
-    <t> 1094,0</t>
-  </si>
-  <si>
-    <t> 155,5</t>
-  </si>
-  <si>
     <t>27,5</t>
   </si>
   <si>
-    <t> 4 502,1</t>
+    <t>NOMBRE DE CAS CONFIRMÉS¹</t>
   </si>
   <si>
-    <t> 1038,2</t>
+    <t>RÉPARTITION DES CAS (%)</t>
   </si>
   <si>
-    <t> 68,3</t>
+    <t>100 000</t>
+  </si>
+  <si>
+    <t>PERSONNES</t>
+  </si>
+  <si>
+    <t>NOMBRE DE DÉCÈS</t>
+  </si>
+  <si>
+    <t>TAUX DE MORTALITÉ POUR</t>
+  </si>
+  <si>
+    <t>&lt; 5</t>
+  </si>
+  <si>
+    <t> 822,5</t>
+  </si>
+  <si>
+    <t> 72,0</t>
+  </si>
+  <si>
+    <t>4 MAI, 18h04</t>
+  </si>
+  <si>
+    <t>TAUX POUR</t>
+  </si>
+  <si>
+    <t> 146,1</t>
+  </si>
+  <si>
+    <t> 123,2</t>
+  </si>
+  <si>
+    <t>2,8</t>
+  </si>
+  <si>
+    <t> 241,8</t>
+  </si>
+  <si>
+    <t>10,6</t>
+  </si>
+  <si>
+    <t> 553,9</t>
+  </si>
+  <si>
+    <t>12,2</t>
+  </si>
+  <si>
+    <t> 625,5</t>
+  </si>
+  <si>
+    <t> 849,3</t>
+  </si>
+  <si>
+    <t> 841,2</t>
+  </si>
+  <si>
+    <t>* 10,1</t>
+  </si>
+  <si>
+    <t> 693,1</t>
+  </si>
+  <si>
+    <t> 48,5</t>
+  </si>
+  <si>
+    <t> 1 116,1</t>
+  </si>
+  <si>
+    <t> 166,5</t>
+  </si>
+  <si>
+    <t> 4 607,0</t>
+  </si>
+  <si>
+    <t> 1089,7</t>
   </si>
 </sst>
 </file>
@@ -1556,20 +1580,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:AK35"/>
+  <dimension ref="A1:AL35"/>
   <sheetViews>
     <sheetView topLeftCell="R1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AL18" sqref="AL18"/>
+      <selection activeCell="AK1" sqref="AK1:AL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="37" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="38" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1681,8 +1705,11 @@
       <c r="AK1" s="19">
         <v>43954</v>
       </c>
+      <c r="AL1" s="19">
+        <v>43955</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1794,8 +1821,11 @@
       <c r="AK2">
         <v>1329</v>
       </c>
+      <c r="AL2">
+        <v>1351</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1907,8 +1937,11 @@
       <c r="AK3">
         <v>364</v>
       </c>
+      <c r="AL3">
+        <v>363</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2020,8 +2053,11 @@
       <c r="AK4">
         <v>9</v>
       </c>
+      <c r="AL4">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2133,8 +2169,11 @@
       <c r="AK5">
         <v>42</v>
       </c>
+      <c r="AL5">
+        <v>42</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2246,8 +2285,11 @@
       <c r="AK6">
         <v>1388</v>
       </c>
+      <c r="AL6">
+        <v>1427</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -2359,8 +2401,11 @@
       <c r="AK7">
         <v>378</v>
       </c>
+      <c r="AL7">
+        <v>386</v>
+      </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -2472,8 +2517,11 @@
       <c r="AK8">
         <v>259</v>
       </c>
+      <c r="AL8">
+        <v>268</v>
+      </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -2585,8 +2633,11 @@
       <c r="AK9">
         <v>133</v>
       </c>
+      <c r="AL9">
+        <v>136</v>
+      </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -2698,8 +2749,11 @@
       <c r="AK10">
         <v>39</v>
       </c>
+      <c r="AL10">
+        <v>41</v>
+      </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -2811,8 +2865,11 @@
       <c r="AK11">
         <v>70</v>
       </c>
+      <c r="AL11">
+        <v>72</v>
+      </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2924,8 +2981,11 @@
       <c r="AK12">
         <v>336</v>
       </c>
+      <c r="AL12">
+        <v>343</v>
+      </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3037,8 +3097,11 @@
       <c r="AK13">
         <v>838</v>
       </c>
+      <c r="AL13">
+        <v>852</v>
+      </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3150,8 +3213,11 @@
       <c r="AK14">
         <v>118</v>
       </c>
+      <c r="AL14">
+        <v>115</v>
+      </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3263,8 +3329,11 @@
       <c r="AK15">
         <v>1185</v>
       </c>
+      <c r="AL15">
+        <v>1226</v>
+      </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -3376,8 +3445,11 @@
       <c r="AK16">
         <v>22</v>
       </c>
+      <c r="AL16">
+        <v>23</v>
+      </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3489,8 +3561,11 @@
       <c r="AK17">
         <v>1457</v>
       </c>
+      <c r="AL17">
+        <v>1501</v>
+      </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -3602,8 +3677,11 @@
       <c r="AK18">
         <v>14</v>
       </c>
+      <c r="AL18">
+        <v>14</v>
+      </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -3715,8 +3793,11 @@
       <c r="AK19">
         <v>190</v>
       </c>
+      <c r="AL19">
+        <v>192</v>
+      </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3828,8 +3909,11 @@
       <c r="AK20">
         <v>209</v>
       </c>
+      <c r="AL20">
+        <v>211</v>
+      </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3941,8 +4025,11 @@
       <c r="AK21">
         <v>294</v>
       </c>
+      <c r="AL21">
+        <v>297</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4054,8 +4141,11 @@
       <c r="AK22">
         <v>616</v>
       </c>
+      <c r="AL22">
+        <v>621</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -4167,8 +4257,11 @@
       <c r="AK23">
         <v>126</v>
       </c>
+      <c r="AL23">
+        <v>129</v>
+      </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4280,8 +4373,11 @@
       <c r="AK24">
         <v>1178</v>
       </c>
+      <c r="AL24">
+        <v>1201</v>
+      </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4393,8 +4489,11 @@
       <c r="AK25">
         <v>913</v>
       </c>
+      <c r="AL25">
+        <v>931</v>
+      </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -4506,8 +4605,11 @@
       <c r="AK26">
         <v>14</v>
       </c>
+      <c r="AL26">
+        <v>15</v>
+      </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4619,8 +4721,11 @@
       <c r="AK27">
         <v>594</v>
       </c>
+      <c r="AL27">
+        <v>607</v>
+      </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4732,8 +4837,11 @@
       <c r="AK28">
         <v>638</v>
       </c>
+      <c r="AL28">
+        <v>638</v>
+      </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -4845,8 +4953,11 @@
       <c r="AK29">
         <v>3</v>
       </c>
+      <c r="AL29">
+        <v>3</v>
+      </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4958,8 +5069,11 @@
       <c r="AK30">
         <v>662</v>
       </c>
+      <c r="AL30">
+        <v>684</v>
+      </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5071,8 +5185,11 @@
       <c r="AK31">
         <v>683</v>
       </c>
+      <c r="AL31">
+        <v>706</v>
+      </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5184,8 +5301,11 @@
       <c r="AK32">
         <v>411</v>
       </c>
+      <c r="AL32">
+        <v>439</v>
+      </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5297,8 +5417,11 @@
       <c r="AK33">
         <v>1190</v>
       </c>
+      <c r="AL33">
+        <v>1212</v>
+      </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -5410,8 +5533,11 @@
       <c r="AK34">
         <v>129</v>
       </c>
+      <c r="AL34">
+        <v>135</v>
+      </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5522,6 +5648,9 @@
       </c>
       <c r="AK35">
         <v>775</v>
+      </c>
+      <c r="AL35">
+        <v>783</v>
       </c>
     </row>
   </sheetData>
@@ -5532,11 +5661,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:AK34"/>
+  <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL6" sqref="AL6"/>
+      <selection pane="topRight" activeCell="AK1" sqref="AK1:AL34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5544,10 +5673,10 @@
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="27" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="37" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="38" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5680,8 +5809,11 @@
       <c r="AK1" s="1">
         <v>43954</v>
       </c>
+      <c r="AL1" s="1">
+        <v>43955</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5825,8 +5957,12 @@
         <f>cases!AK2/(population_2016!$B2/1000)</f>
         <v>9.8998100487913891</v>
       </c>
+      <c r="AL2" s="3">
+        <f>cases!AL2/(population_2016!$B2/1000)</f>
+        <v>10.063689522887257</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5970,8 +6106,12 @@
         <f>cases!AK3/(population_2016!$B3/1000)</f>
         <v>8.5054678007290399</v>
       </c>
+      <c r="AL3" s="3">
+        <f>cases!AL3/(population_2016!$B3/1000)</f>
+        <v>8.4821011309468179</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -6115,8 +6255,12 @@
         <f>cases!AK4/(population_2016!$B4/1000)</f>
         <v>2.3541721161391576</v>
       </c>
+      <c r="AL4" s="3">
+        <f>cases!AL4/(population_2016!$B4/1000)</f>
+        <v>2.3541721161391576</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -6260,8 +6404,12 @@
         <f>cases!AK5/(population_2016!$B5/1000)</f>
         <v>2.1734630511281305</v>
       </c>
+      <c r="AL5" s="3">
+        <f>cases!AL5/(population_2016!$B5/1000)</f>
+        <v>2.1734630511281305</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6405,8 +6553,12 @@
         <f>cases!AK6/(population_2016!$B6/1000)</f>
         <v>8.3353350948834972</v>
       </c>
+      <c r="AL6" s="3">
+        <f>cases!AL6/(population_2016!$B6/1000)</f>
+        <v>8.5695411962527022</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -6550,8 +6702,12 @@
         <f>cases!AK7/(population_2016!$B7/1000)</f>
         <v>11.649408284023668</v>
       </c>
+      <c r="AL7" s="3">
+        <f>cases!AL7/(population_2016!$B7/1000)</f>
+        <v>11.895956607495069</v>
+      </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -6695,8 +6851,12 @@
         <f>cases!AK8/(population_2016!$B8/1000)</f>
         <v>5.2966318329618192</v>
       </c>
+      <c r="AL8" s="3">
+        <f>cases!AL8/(population_2016!$B8/1000)</f>
+        <v>5.4806846765782531</v>
+      </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -6840,8 +7000,12 @@
         <f>cases!AK9/(population_2016!$B9/1000)</f>
         <v>7.0073761854583774</v>
       </c>
+      <c r="AL9" s="3">
+        <f>cases!AL9/(population_2016!$B9/1000)</f>
+        <v>7.1654373024236033</v>
+      </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -6985,8 +7149,12 @@
         <f>cases!AK10/(population_2016!$B10/1000)</f>
         <v>5.5930015775132658</v>
       </c>
+      <c r="AL10" s="3">
+        <f>cases!AL10/(population_2016!$B10/1000)</f>
+        <v>5.8798221712318943</v>
+      </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -7130,8 +7298,12 @@
         <f>cases!AK11/(population_2016!$B11/1000)</f>
         <v>3.4737730137462162</v>
       </c>
+      <c r="AL11" s="3">
+        <f>cases!AL11/(population_2016!$B11/1000)</f>
+        <v>3.5730236712818222</v>
+      </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -7275,8 +7447,12 @@
         <f>cases!AK12/(population_2016!$B12/1000)</f>
         <v>7.5524286902380364</v>
       </c>
+      <c r="AL12" s="3">
+        <f>cases!AL12/(population_2016!$B12/1000)</f>
+        <v>7.709770954617996</v>
+      </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -7420,8 +7596,12 @@
         <f>cases!AK13/(population_2016!$B13/1000)</f>
         <v>10.903933483403382</v>
       </c>
+      <c r="AL13" s="3">
+        <f>cases!AL13/(population_2016!$B13/1000)</f>
+        <v>11.086099436586732</v>
+      </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -7565,8 +7745,12 @@
         <f>cases!AK14/(population_2016!$B14/1000)</f>
         <v>6.4085157225873024</v>
       </c>
+      <c r="AL14" s="3">
+        <f>cases!AL14/(population_2016!$B14/1000)</f>
+        <v>6.2455873567588114</v>
+      </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -7710,8 +7894,12 @@
         <f>cases!AK15/(population_2016!$B15/1000)</f>
         <v>8.7116979356584139</v>
       </c>
+      <c r="AL15" s="3">
+        <f>cases!AL15/(population_2016!$B15/1000)</f>
+        <v>9.0131153325883666</v>
+      </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -7855,8 +8043,12 @@
         <f>cases!AK16/(population_2016!$B16/1000)</f>
         <v>5.7142857142857144</v>
       </c>
+      <c r="AL16" s="3">
+        <f>cases!AL16/(population_2016!$B16/1000)</f>
+        <v>5.9740259740259738</v>
+      </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -8000,8 +8192,12 @@
         <f>cases!AK17/(population_2016!$B17/1000)</f>
         <v>17.297053446351832</v>
       </c>
+      <c r="AL17" s="3">
+        <f>cases!AL17/(population_2016!$B17/1000)</f>
+        <v>17.819407840064581</v>
+      </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -8145,8 +8341,12 @@
         <f>cases!AK18/(population_2016!$B18/1000)</f>
         <v>2.7722772277227725</v>
       </c>
+      <c r="AL18" s="3">
+        <f>cases!AL18/(population_2016!$B18/1000)</f>
+        <v>2.7722772277227725</v>
+      </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -8290,8 +8490,12 @@
         <f>cases!AK19/(population_2016!$B19/1000)</f>
         <v>9.3706845531663046</v>
       </c>
+      <c r="AL19" s="3">
+        <f>cases!AL19/(population_2016!$B19/1000)</f>
+        <v>9.4693233379364763</v>
+      </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -8435,8 +8639,12 @@
         <f>cases!AK20/(population_2016!$B20/1000)</f>
         <v>8.7250563580195379</v>
       </c>
+      <c r="AL20" s="3">
+        <f>cases!AL20/(population_2016!$B20/1000)</f>
+        <v>8.8085497202972363</v>
+      </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -8580,8 +8788,12 @@
         <f>cases!AK21/(population_2016!$B21/1000)</f>
         <v>4.2426079051041174</v>
       </c>
+      <c r="AL21" s="3">
+        <f>cases!AL21/(population_2016!$B21/1000)</f>
+        <v>4.2858998225031391</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -8725,8 +8937,12 @@
         <f>cases!AK22/(population_2016!$B22/1000)</f>
         <v>5.9230769230769234</v>
       </c>
+      <c r="AL22" s="3">
+        <f>cases!AL22/(population_2016!$B22/1000)</f>
+        <v>5.9711538461538458</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -8870,8 +9086,12 @@
         <f>cases!AK23/(population_2016!$B23/1000)</f>
         <v>4.0152963671128106</v>
       </c>
+      <c r="AL23" s="3">
+        <f>cases!AL23/(population_2016!$B23/1000)</f>
+        <v>4.1108986615678775</v>
+      </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -9015,8 +9235,12 @@
         <f>cases!AK24/(population_2016!$B24/1000)</f>
         <v>11.035852468077533</v>
       </c>
+      <c r="AL24" s="3">
+        <f>cases!AL24/(population_2016!$B24/1000)</f>
+        <v>11.25132327178363</v>
+      </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -9160,8 +9384,12 @@
         <f>cases!AK25/(population_2016!$B25/1000)</f>
         <v>6.5405831363278173</v>
       </c>
+      <c r="AL25" s="3">
+        <f>cases!AL25/(population_2016!$B25/1000)</f>
+        <v>6.6695322014470948</v>
+      </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -9305,8 +9533,12 @@
         <f>cases!AK26/(population_2016!$B26/1000)</f>
         <v>2.8237192416296892</v>
       </c>
+      <c r="AL26" s="3">
+        <f>cases!AL26/(population_2016!$B26/1000)</f>
+        <v>3.0254134731746669</v>
+      </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -9450,8 +9682,12 @@
         <f>cases!AK27/(population_2016!$B27/1000)</f>
         <v>6.0104423847492612</v>
       </c>
+      <c r="AL27" s="3">
+        <f>cases!AL27/(population_2016!$B27/1000)</f>
+        <v>6.1419840531023597</v>
+      </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -9595,8 +9831,12 @@
         <f>cases!AK28/(population_2016!$B28/1000)</f>
         <v>8.1476278653981229</v>
       </c>
+      <c r="AL28" s="3">
+        <f>cases!AL28/(population_2016!$B28/1000)</f>
+        <v>8.1476278653981229</v>
+      </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -9740,8 +9980,12 @@
         <f>cases!AK29/(population_2016!$B29/1000)</f>
         <v>3.2573289902280127</v>
       </c>
+      <c r="AL29" s="3">
+        <f>cases!AL29/(population_2016!$B29/1000)</f>
+        <v>3.2573289902280127</v>
+      </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -9885,8 +10129,12 @@
         <f>cases!AK30/(population_2016!$B30/1000)</f>
         <v>8.4707809241084568</v>
       </c>
+      <c r="AL30" s="3">
+        <f>cases!AL30/(population_2016!$B30/1000)</f>
+        <v>8.7522872388069253</v>
+      </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -10030,8 +10278,12 @@
         <f>cases!AK31/(population_2016!$B31/1000)</f>
         <v>9.8658076817518676</v>
       </c>
+      <c r="AL31" s="3">
+        <f>cases!AL31/(population_2016!$B31/1000)</f>
+        <v>10.198038394314521</v>
+      </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -10175,8 +10427,12 @@
         <f>cases!AK32/(population_2016!$B32/1000)</f>
         <v>4.6091734888415381</v>
       </c>
+      <c r="AL32" s="3">
+        <f>cases!AL32/(population_2016!$B32/1000)</f>
+        <v>4.923180441852641</v>
+      </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -10320,8 +10576,12 @@
         <f>cases!AK33/(population_2016!$B33/1000)</f>
         <v>8.272333562734179</v>
       </c>
+      <c r="AL33" s="3">
+        <f>cases!AL33/(population_2016!$B33/1000)</f>
+        <v>8.425267460532627</v>
+      </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -10464,6 +10724,10 @@
       <c r="AK34" s="3">
         <f>cases!AK34/(population_2016!$B34/1000)</f>
         <v>6.3509255612445843</v>
+      </c>
+      <c r="AL34" s="3">
+        <f>cases!AL34/(population_2016!$B34/1000)</f>
+        <v>6.6463174478140994</v>
       </c>
     </row>
   </sheetData>
@@ -10473,11 +10737,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AS51"/>
+  <dimension ref="A1:AS52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R55" sqref="R55"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S56" sqref="S56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13027,11 +13291,11 @@
       </c>
       <c r="B19" s="17">
         <f>mtl_newcases!C20</f>
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="C19" s="17">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>101</v>
@@ -13197,7 +13461,7 @@
       </c>
       <c r="B20" s="17">
         <f>mtl_newcases!C21</f>
-        <v>2954</v>
+        <v>2955</v>
       </c>
       <c r="C20" s="17">
         <f t="shared" si="0"/>
@@ -13367,7 +13631,7 @@
       </c>
       <c r="B21" s="17">
         <f>mtl_newcases!C22</f>
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="C21" s="17">
         <f t="shared" si="0"/>
@@ -13537,7 +13801,7 @@
       </c>
       <c r="B22" s="17">
         <f>mtl_newcases!C23</f>
-        <v>3646</v>
+        <v>3647</v>
       </c>
       <c r="C22" s="17">
         <f t="shared" si="0"/>
@@ -13707,7 +13971,7 @@
       </c>
       <c r="B23" s="17">
         <f>mtl_newcases!C24</f>
-        <v>3906</v>
+        <v>3907</v>
       </c>
       <c r="C23" s="17">
         <f t="shared" si="0"/>
@@ -13877,7 +14141,7 @@
       </c>
       <c r="B24" s="17">
         <f>mtl_newcases!C25</f>
-        <v>4367</v>
+        <v>4368</v>
       </c>
       <c r="C24" s="17">
         <f t="shared" si="0"/>
@@ -14051,7 +14315,7 @@
       </c>
       <c r="C25" s="17">
         <f t="shared" si="0"/>
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D25">
         <v>74</v>
@@ -14218,11 +14482,11 @@
       </c>
       <c r="B26" s="17">
         <f>mtl_newcases!C27</f>
-        <v>5170</v>
+        <v>5169</v>
       </c>
       <c r="C26" s="17">
         <f t="shared" si="0"/>
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D26">
         <v>91</v>
@@ -14393,7 +14657,7 @@
       </c>
       <c r="C27" s="17">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -14560,11 +14824,11 @@
       </c>
       <c r="B28" s="17">
         <f>mtl_newcases!C29</f>
-        <v>5833</v>
+        <v>5832</v>
       </c>
       <c r="C28" s="17">
         <f t="shared" si="0"/>
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D28">
         <v>135</v>
@@ -14735,7 +14999,7 @@
       </c>
       <c r="C29" s="17">
         <f t="shared" si="0"/>
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D29">
         <v>147</v>
@@ -14902,11 +15166,11 @@
       </c>
       <c r="B30" s="17">
         <f>mtl_newcases!C31</f>
-        <v>6432</v>
+        <v>6433</v>
       </c>
       <c r="C30" s="17">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D30">
         <v>162</v>
@@ -15073,11 +15337,11 @@
       </c>
       <c r="B31" s="17">
         <f>mtl_newcases!C32</f>
-        <v>6975</v>
+        <v>6973</v>
       </c>
       <c r="C31" s="17">
         <f t="shared" si="0"/>
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D31">
         <v>218</v>
@@ -15244,11 +15508,11 @@
       </c>
       <c r="B32" s="17">
         <f>mtl_newcases!C33</f>
-        <v>7457</v>
+        <v>7453</v>
       </c>
       <c r="C32" s="17">
         <f t="shared" si="0"/>
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D32">
         <v>242</v>
@@ -15415,11 +15679,11 @@
       </c>
       <c r="B33" s="17">
         <f>mtl_newcases!C34</f>
-        <v>8094</v>
+        <v>8091</v>
       </c>
       <c r="C33" s="17">
         <f t="shared" si="0"/>
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D33">
         <v>332</v>
@@ -15586,11 +15850,11 @@
       </c>
       <c r="B34" s="17">
         <f>mtl_newcases!C35</f>
-        <v>8593</v>
+        <v>8589</v>
       </c>
       <c r="C34" s="17">
         <f t="shared" si="0"/>
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D34">
         <v>391</v>
@@ -15757,7 +16021,7 @@
       </c>
       <c r="B35" s="17">
         <f>mtl_newcases!C36</f>
-        <v>9172</v>
+        <v>9168</v>
       </c>
       <c r="C35" s="17">
         <f t="shared" si="0"/>
@@ -15928,11 +16192,11 @@
       </c>
       <c r="B36" s="17">
         <f>mtl_newcases!C37</f>
-        <v>9499</v>
+        <v>9493</v>
       </c>
       <c r="C36" s="17">
         <f t="shared" si="0"/>
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D36">
         <v>513</v>
@@ -16099,11 +16363,11 @@
       </c>
       <c r="B37" s="17">
         <f>mtl_newcases!C38</f>
-        <v>9933</v>
+        <v>9928</v>
       </c>
       <c r="C37" s="17">
         <f t="shared" si="0"/>
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D37">
         <v>525</v>
@@ -16239,7 +16503,7 @@
       </c>
       <c r="B38" s="17">
         <f>mtl_newcases!C39</f>
-        <v>10445</v>
+        <v>10440</v>
       </c>
       <c r="C38" s="17">
         <f t="shared" si="0"/>
@@ -16410,11 +16674,11 @@
       </c>
       <c r="B39" s="17">
         <f>mtl_newcases!C40</f>
-        <v>10931</v>
+        <v>10925</v>
       </c>
       <c r="C39" s="17">
         <f t="shared" si="0"/>
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D39">
         <v>647</v>
@@ -16581,11 +16845,11 @@
       </c>
       <c r="B40" s="17">
         <f>mtl_newcases!C41</f>
-        <v>11494</v>
+        <v>11490</v>
       </c>
       <c r="C40" s="17">
         <f t="shared" si="0"/>
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D40">
         <v>741</v>
@@ -16752,11 +17016,11 @@
       </c>
       <c r="B41" s="17">
         <f>mtl_newcases!C42</f>
-        <v>12066</v>
+        <v>12057</v>
       </c>
       <c r="C41" s="17">
         <f t="shared" si="0"/>
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D41">
         <v>808</v>
@@ -16923,11 +17187,11 @@
       </c>
       <c r="B42" s="17">
         <f>mtl_newcases!C43</f>
-        <v>12601</v>
+        <v>12589</v>
       </c>
       <c r="C42" s="17">
         <f t="shared" si="0"/>
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D42">
         <v>895</v>
@@ -17094,11 +17358,11 @@
       </c>
       <c r="B43" s="17">
         <f>mtl_newcases!C44</f>
-        <v>12933</v>
+        <v>12922</v>
       </c>
       <c r="C43" s="17">
         <f t="shared" si="0"/>
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D43">
         <v>938</v>
@@ -17265,11 +17529,11 @@
       </c>
       <c r="B44" s="17">
         <f>mtl_newcases!C45</f>
-        <v>13261</v>
+        <v>13252</v>
       </c>
       <c r="C44" s="17">
         <f>B44-B43</f>
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D44">
         <v>983</v>
@@ -17436,11 +17700,11 @@
       </c>
       <c r="B45" s="17">
         <f>mtl_newcases!C46</f>
-        <v>13758</v>
+        <v>13750</v>
       </c>
       <c r="C45" s="17">
         <f>B45-B44</f>
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D45">
         <v>1039</v>
@@ -17607,11 +17871,11 @@
       </c>
       <c r="B46" s="17">
         <f>mtl_newcases!C47</f>
-        <v>14239</v>
+        <v>14226</v>
       </c>
       <c r="C46" s="17">
         <f t="shared" ref="C46:C47" si="438">B46-B45</f>
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D46">
         <v>1078</v>
@@ -17747,11 +18011,11 @@
       </c>
       <c r="B47" s="17">
         <f>mtl_newcases!C48</f>
-        <v>14783</v>
+        <v>14772</v>
       </c>
       <c r="C47" s="17">
         <f t="shared" si="438"/>
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D47">
         <v>1146</v>
@@ -17887,11 +18151,11 @@
       </c>
       <c r="B48" s="17">
         <f>mtl_newcases!C49</f>
-        <v>15401</v>
+        <v>15375</v>
       </c>
       <c r="C48" s="17">
         <f t="shared" ref="C48" si="439">B48-B47</f>
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="D48">
         <v>1245</v>
@@ -18058,11 +18322,11 @@
       </c>
       <c r="B49" s="17">
         <f>mtl_newcases!C50</f>
-        <v>15957</v>
+        <v>15982</v>
       </c>
       <c r="C49" s="17">
         <f t="shared" ref="C49" si="461">B49-B48</f>
-        <v>556</v>
+        <v>607</v>
       </c>
       <c r="D49">
         <v>1312</v>
@@ -18229,11 +18493,11 @@
       </c>
       <c r="B50" s="17">
         <f>mtl_newcases!C51</f>
-        <v>16251</v>
+        <v>16402</v>
       </c>
       <c r="C50" s="17">
         <f t="shared" ref="C50" si="483">B50-B49</f>
-        <v>294</v>
+        <v>420</v>
       </c>
       <c r="D50">
         <v>1365</v>
@@ -18400,11 +18664,11 @@
       </c>
       <c r="B51" s="17">
         <f>mtl_newcases!C52</f>
-        <v>16606</v>
+        <v>16728</v>
       </c>
       <c r="C51" s="17">
         <f t="shared" ref="C51" si="505">B51-B50</f>
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="D51">
         <v>1410</v>
@@ -18563,6 +18827,177 @@
       <c r="AS51" s="3">
         <f t="shared" ref="AS51" si="526">Y51*100/SUM($P51:$Y51)</f>
         <v>45.823429956980931</v>
+      </c>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A52" s="19">
+        <v>43955</v>
+      </c>
+      <c r="B52" s="17">
+        <f>mtl_newcases!C53</f>
+        <v>16991</v>
+      </c>
+      <c r="C52" s="17">
+        <f t="shared" ref="C52" si="527">B52-B51</f>
+        <v>263</v>
+      </c>
+      <c r="D52">
+        <v>1488</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ref="E52" si="528">D52-D51</f>
+        <v>78</v>
+      </c>
+      <c r="F52" cm="1">
+        <f t="array" ref="F52:O52">TRANSPOSE(santemontreal!AK$57:AK$66)</f>
+        <v>162</v>
+      </c>
+      <c r="G52">
+        <v>133</v>
+      </c>
+      <c r="H52">
+        <v>481</v>
+      </c>
+      <c r="I52">
+        <v>1784</v>
+      </c>
+      <c r="J52">
+        <v>2055</v>
+      </c>
+      <c r="K52">
+        <v>2364</v>
+      </c>
+      <c r="L52">
+        <v>2159</v>
+      </c>
+      <c r="M52">
+        <v>1501</v>
+      </c>
+      <c r="N52">
+        <v>1615</v>
+      </c>
+      <c r="O52">
+        <v>4655</v>
+      </c>
+      <c r="P52" s="18">
+        <f>F52/(age_distribution_2016!$B$2/100000)</f>
+        <v>147.62165117550575</v>
+      </c>
+      <c r="Q52" s="18">
+        <f>G52/(age_distribution_2016!$B$3/100000)</f>
+        <v>127.41294247257748</v>
+      </c>
+      <c r="R52" s="18">
+        <f>H52/(age_distribution_2016!$B$4/100000)</f>
+        <v>255.59954300289607</v>
+      </c>
+      <c r="S52" s="18">
+        <f>I52/(age_distribution_2016!$B$5/100000)</f>
+        <v>608.40651376928986</v>
+      </c>
+      <c r="T52" s="18">
+        <f>J52/(age_distribution_2016!$B$6/100000)</f>
+        <v>685.74288812880616</v>
+      </c>
+      <c r="U52" s="18">
+        <f>K52/(age_distribution_2016!$B$7/100000)</f>
+        <v>928.9714117300324</v>
+      </c>
+      <c r="V52" s="18">
+        <f>L52/(age_distribution_2016!$B$8/100000)</f>
+        <v>833.99323998068564</v>
+      </c>
+      <c r="W52" s="18">
+        <f>M52/(age_distribution_2016!$B$9/100000)</f>
+        <v>732.17726396917146</v>
+      </c>
+      <c r="X52" s="18">
+        <f>N52/(age_distribution_2016!$B$10/100000)</f>
+        <v>1245.3732264034547</v>
+      </c>
+      <c r="Y52" s="18">
+        <f>O52/(age_distribution_2016!$B$11/100000)</f>
+        <v>4711.3000354233091</v>
+      </c>
+      <c r="Z52" s="3">
+        <f t="shared" ref="Z52" si="529">F52*100/SUM($F52:$O52)</f>
+        <v>0.95806966704122065</v>
+      </c>
+      <c r="AA52" s="3">
+        <f t="shared" ref="AA52" si="530">G52*100/SUM($F52:$O52)</f>
+        <v>0.78656336862026144</v>
+      </c>
+      <c r="AB52" s="3">
+        <f t="shared" ref="AB52" si="531">H52*100/SUM($F52:$O52)</f>
+        <v>2.8446389496717726</v>
+      </c>
+      <c r="AC52" s="3">
+        <f t="shared" ref="AC52" si="532">I52*100/SUM($F52:$O52)</f>
+        <v>10.550594358034182</v>
+      </c>
+      <c r="AD52" s="3">
+        <f t="shared" ref="AD52" si="533">J52*100/SUM($F52:$O52)</f>
+        <v>12.153291146726595</v>
+      </c>
+      <c r="AE52" s="3">
+        <f t="shared" ref="AE52" si="534">K52*100/SUM($F52:$O52)</f>
+        <v>13.980720326453367</v>
+      </c>
+      <c r="AF52" s="3">
+        <f t="shared" ref="AF52" si="535">L52*100/SUM($F52:$O52)</f>
+        <v>12.768348216925897</v>
+      </c>
+      <c r="AG52" s="3">
+        <f t="shared" ref="AG52" si="536">M52*100/SUM($F52:$O52)</f>
+        <v>8.8769294458572361</v>
+      </c>
+      <c r="AH52" s="3">
+        <f t="shared" ref="AH52" si="537">N52*100/SUM($F52:$O52)</f>
+        <v>9.5511266189603177</v>
+      </c>
+      <c r="AI52" s="3">
+        <f t="shared" ref="AI52" si="538">O52*100/SUM($F52:$O52)</f>
+        <v>27.529717901709148</v>
+      </c>
+      <c r="AJ52" s="3">
+        <f t="shared" ref="AJ52" si="539">P52*100/SUM($P52:$Y52)</f>
+        <v>1.4364835608971269</v>
+      </c>
+      <c r="AK52" s="3">
+        <f t="shared" ref="AK52" si="540">Q52*100/SUM($P52:$Y52)</f>
+        <v>1.2398357276859788</v>
+      </c>
+      <c r="AL52" s="3">
+        <f t="shared" ref="AL52" si="541">R52*100/SUM($P52:$Y52)</f>
+        <v>2.4871998028254043</v>
+      </c>
+      <c r="AM52" s="3">
+        <f t="shared" ref="AM52" si="542">S52*100/SUM($P52:$Y52)</f>
+        <v>5.9203101199109884</v>
+      </c>
+      <c r="AN52" s="3">
+        <f t="shared" ref="AN52" si="543">T52*100/SUM($P52:$Y52)</f>
+        <v>6.6728584726912636</v>
+      </c>
+      <c r="AO52" s="3">
+        <f t="shared" ref="AO52" si="544">U52*100/SUM($P52:$Y52)</f>
+        <v>9.0396777902658236</v>
+      </c>
+      <c r="AP52" s="3">
+        <f t="shared" ref="AP52" si="545">V52*100/SUM($P52:$Y52)</f>
+        <v>8.1154598230802719</v>
+      </c>
+      <c r="AQ52" s="3">
+        <f t="shared" ref="AQ52" si="546">W52*100/SUM($P52:$Y52)</f>
+        <v>7.1247042353152157</v>
+      </c>
+      <c r="AR52" s="3">
+        <f t="shared" ref="AR52" si="547">X52*100/SUM($P52:$Y52)</f>
+        <v>12.118535138067966</v>
+      </c>
+      <c r="AS52" s="3">
+        <f t="shared" ref="AS52" si="548">Y52*100/SUM($P52:$Y52)</f>
+        <v>45.844935329259975</v>
       </c>
     </row>
   </sheetData>
@@ -18572,11 +19007,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18717,7 +19152,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F63" si="1">E4-E3</f>
+        <f t="shared" ref="F4:F64" si="1">E4-E3</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -18730,7 +19165,7 @@
         <v>260</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J63" si="2">I4-I3</f>
+        <f t="shared" ref="J4:J64" si="2">I4-I3</f>
         <v>18</v>
       </c>
       <c r="K4" t="s">
@@ -20759,7 +21194,7 @@
         <v>26594</v>
       </c>
       <c r="C58">
-        <f>B58-B57</f>
+        <f t="shared" ref="C58:C64" si="3">B58-B57</f>
         <v>837</v>
       </c>
       <c r="D58">
@@ -20797,7 +21232,7 @@
         <v>27538</v>
       </c>
       <c r="C59">
-        <f>B59-B58</f>
+        <f t="shared" si="3"/>
         <v>944</v>
       </c>
       <c r="D59">
@@ -20835,7 +21270,7 @@
         <v>28648</v>
       </c>
       <c r="C60">
-        <f>B60-B59</f>
+        <f t="shared" si="3"/>
         <v>1110</v>
       </c>
       <c r="D60">
@@ -20873,7 +21308,7 @@
         <v>29656</v>
       </c>
       <c r="C61">
-        <f>B61-B60</f>
+        <f t="shared" si="3"/>
         <v>1008</v>
       </c>
       <c r="D61">
@@ -20911,7 +21346,7 @@
         <v>31865</v>
       </c>
       <c r="C62">
-        <f>B62-B61</f>
+        <f t="shared" si="3"/>
         <v>2209</v>
       </c>
       <c r="D62">
@@ -20949,7 +21384,7 @@
         <v>32623</v>
       </c>
       <c r="C63">
-        <f>B63-B62</f>
+        <f t="shared" si="3"/>
         <v>758</v>
       </c>
       <c r="D63">
@@ -20977,6 +21412,44 @@
       </c>
       <c r="K63">
         <v>7578</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B64">
+        <v>33417</v>
+      </c>
+      <c r="C64">
+        <f>B64-B63</f>
+        <v>794</v>
+      </c>
+      <c r="D64">
+        <v>23096</v>
+      </c>
+      <c r="E64">
+        <v>2398</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="G64">
+        <v>1821</v>
+      </c>
+      <c r="H64">
+        <v>218</v>
+      </c>
+      <c r="I64">
+        <v>209946</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="2"/>
+        <v>3395</v>
+      </c>
+      <c r="K64">
+        <v>7923</v>
       </c>
     </row>
   </sheetData>
@@ -20986,11 +21459,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21269,11 +21742,11 @@
         <v>43922</v>
       </c>
       <c r="B20">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="E20" s="19">
         <v>43922</v>
@@ -21283,7 +21756,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>-81</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -21295,7 +21768,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>2954</v>
+        <v>2955</v>
       </c>
       <c r="E21" s="19">
         <v>43923</v>
@@ -21305,7 +21778,7 @@
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G26" si="2">C21-F21</f>
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -21317,7 +21790,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="E22" s="19">
         <v>43924</v>
@@ -21327,7 +21800,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -21339,7 +21812,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3646</v>
+        <v>3647</v>
       </c>
       <c r="E23" s="19">
         <v>43925</v>
@@ -21349,7 +21822,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>-67</v>
+        <v>-66</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -21361,7 +21834,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>3906</v>
+        <v>3907</v>
       </c>
       <c r="E24" s="19">
         <v>43926</v>
@@ -21371,7 +21844,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>-71</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -21383,7 +21856,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>4367</v>
+        <v>4368</v>
       </c>
       <c r="E25" s="19">
         <v>43927</v>
@@ -21393,7 +21866,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>-40</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -21401,7 +21874,7 @@
         <v>43928</v>
       </c>
       <c r="B26">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -21423,11 +21896,11 @@
         <v>43929</v>
       </c>
       <c r="B27">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>5170</v>
+        <v>5169</v>
       </c>
       <c r="E27" s="19">
         <v>43929</v>
@@ -21437,7 +21910,7 @@
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="3">C27-F27</f>
-        <v>-92</v>
+        <v>-93</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -21445,7 +21918,7 @@
         <v>43930</v>
       </c>
       <c r="B28">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C28">
         <f t="shared" ref="C28:C37" si="4">C27+B28</f>
@@ -21467,11 +21940,11 @@
         <v>43931</v>
       </c>
       <c r="B29">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
-        <v>5833</v>
+        <v>5832</v>
       </c>
       <c r="E29" s="19">
         <v>43931</v>
@@ -21481,7 +21954,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>-28</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -21489,7 +21962,7 @@
         <v>43932</v>
       </c>
       <c r="B30">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
@@ -21511,11 +21984,11 @@
         <v>43933</v>
       </c>
       <c r="B31">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
-        <v>6432</v>
+        <v>6433</v>
       </c>
       <c r="E31" s="19">
         <v>43933</v>
@@ -21525,7 +21998,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -21533,11 +22006,11 @@
         <v>43934</v>
       </c>
       <c r="B32">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
-        <v>6975</v>
+        <v>6973</v>
       </c>
       <c r="E32" s="19">
         <v>43934</v>
@@ -21547,7 +22020,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -21555,11 +22028,11 @@
         <v>43935</v>
       </c>
       <c r="B33">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>7457</v>
+        <v>7453</v>
       </c>
       <c r="E33" s="19">
         <v>43935</v>
@@ -21569,7 +22042,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -21577,11 +22050,11 @@
         <v>43936</v>
       </c>
       <c r="B34">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>8094</v>
+        <v>8091</v>
       </c>
       <c r="E34" s="19">
         <v>43936</v>
@@ -21591,7 +22064,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G36" si="6">C34-F34</f>
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -21599,11 +22072,11 @@
         <v>43937</v>
       </c>
       <c r="B35">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>8593</v>
+        <v>8589</v>
       </c>
       <c r="E35" s="19">
         <v>43937</v>
@@ -21613,7 +22086,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -21625,7 +22098,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
-        <v>9172</v>
+        <v>9168</v>
       </c>
       <c r="E36" s="19">
         <v>43938</v>
@@ -21635,7 +22108,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -21643,11 +22116,11 @@
         <v>43939</v>
       </c>
       <c r="B37" s="23">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
-        <v>9499</v>
+        <v>9493</v>
       </c>
       <c r="E37" s="19">
         <v>43939</v>
@@ -21657,7 +22130,7 @@
       </c>
       <c r="G37">
         <f t="shared" ref="G37" si="7">C37-F37</f>
-        <v>1042</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -21665,11 +22138,11 @@
         <v>43940</v>
       </c>
       <c r="B38" s="23">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C39" si="8">C37+B38</f>
-        <v>9933</v>
+        <v>9928</v>
       </c>
       <c r="E38" s="19">
         <v>43940</v>
@@ -21679,7 +22152,7 @@
       </c>
       <c r="G38">
         <f t="shared" ref="G38" si="9">C38-F38</f>
-        <v>969</v>
+        <v>964</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -21691,7 +22164,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="8"/>
-        <v>10445</v>
+        <v>10440</v>
       </c>
       <c r="E39" s="19">
         <v>43941</v>
@@ -21701,7 +22174,7 @@
       </c>
       <c r="G39">
         <f t="shared" ref="G39" si="10">C39-F39</f>
-        <v>1097</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -21709,11 +22182,11 @@
         <v>43942</v>
       </c>
       <c r="B40">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40" si="11">C39+B40</f>
-        <v>10931</v>
+        <v>10925</v>
       </c>
       <c r="E40" s="19">
         <v>43942</v>
@@ -21723,7 +22196,7 @@
       </c>
       <c r="G40">
         <f t="shared" ref="G40" si="12">C40-F40</f>
-        <v>1075</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -21731,11 +22204,11 @@
         <v>43943</v>
       </c>
       <c r="B41">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C41">
         <f t="shared" ref="C41:C52" si="13">C40+B41</f>
-        <v>11494</v>
+        <v>11490</v>
       </c>
       <c r="E41" s="19">
         <v>43943</v>
@@ -21745,7 +22218,7 @@
       </c>
       <c r="G41">
         <f t="shared" ref="G41" si="14">C41-F41</f>
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -21753,11 +22226,11 @@
         <v>43944</v>
       </c>
       <c r="B42" s="23">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C42">
         <f t="shared" si="13"/>
-        <v>12066</v>
+        <v>12057</v>
       </c>
       <c r="E42" s="19">
         <v>43944</v>
@@ -21767,7 +22240,7 @@
       </c>
       <c r="G42">
         <f t="shared" ref="G42:G44" si="15">C42-F42</f>
-        <v>1169</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -21775,11 +22248,11 @@
         <v>43945</v>
       </c>
       <c r="B43" s="23">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C43">
         <f t="shared" si="13"/>
-        <v>12601</v>
+        <v>12589</v>
       </c>
       <c r="E43" s="19">
         <v>43945</v>
@@ -21789,7 +22262,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="15"/>
-        <v>1440</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -21797,11 +22270,11 @@
         <v>43946</v>
       </c>
       <c r="B44" s="23">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C44">
         <f t="shared" si="13"/>
-        <v>12933</v>
+        <v>12922</v>
       </c>
       <c r="E44" s="19">
         <v>43946</v>
@@ -21811,7 +22284,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="15"/>
-        <v>1312</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -21819,11 +22292,11 @@
         <v>43947</v>
       </c>
       <c r="B45" s="23">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C45">
         <f t="shared" si="13"/>
-        <v>13261</v>
+        <v>13252</v>
       </c>
       <c r="E45" s="19">
         <v>43947</v>
@@ -21833,7 +22306,7 @@
       </c>
       <c r="G45">
         <f>C45-F45</f>
-        <v>1227</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -21841,11 +22314,11 @@
         <v>43948</v>
       </c>
       <c r="B46" s="23">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C46">
         <f t="shared" si="13"/>
-        <v>13758</v>
+        <v>13750</v>
       </c>
       <c r="E46" s="19">
         <v>43948</v>
@@ -21855,7 +22328,7 @@
       </c>
       <c r="G46">
         <f>C46-F46</f>
-        <v>1271</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -21863,11 +22336,11 @@
         <v>43949</v>
       </c>
       <c r="B47" s="23">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C47">
         <f t="shared" si="13"/>
-        <v>14239</v>
+        <v>14226</v>
       </c>
       <c r="E47" s="19">
         <v>43949</v>
@@ -21877,7 +22350,7 @@
       </c>
       <c r="G47">
         <f t="shared" ref="G47:G52" si="16">C47-F47</f>
-        <v>1428</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -21885,11 +22358,11 @@
         <v>43950</v>
       </c>
       <c r="B48" s="23">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C48">
         <f t="shared" si="13"/>
-        <v>14783</v>
+        <v>14772</v>
       </c>
       <c r="E48" s="19">
         <v>43950</v>
@@ -21899,7 +22372,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="16"/>
-        <v>1459</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -21907,11 +22380,11 @@
         <v>43951</v>
       </c>
       <c r="B49" s="23">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="C49">
         <f t="shared" si="13"/>
-        <v>15401</v>
+        <v>15375</v>
       </c>
       <c r="E49" s="19">
         <v>43951</v>
@@ -21921,7 +22394,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="16"/>
-        <v>1422</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -21929,11 +22402,11 @@
         <v>43952</v>
       </c>
       <c r="B50" s="23">
-        <v>556</v>
+        <v>607</v>
       </c>
       <c r="C50">
         <f t="shared" si="13"/>
-        <v>15957</v>
+        <v>15982</v>
       </c>
       <c r="E50" s="19">
         <v>43952</v>
@@ -21943,19 +22416,19 @@
       </c>
       <c r="G50">
         <f t="shared" si="16"/>
-        <v>1358</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="19">
         <v>43953</v>
       </c>
-      <c r="B51" s="24">
-        <v>294</v>
+      <c r="B51" s="23">
+        <v>420</v>
       </c>
       <c r="C51">
         <f t="shared" si="13"/>
-        <v>16251</v>
+        <v>16402</v>
       </c>
       <c r="E51" s="19">
         <v>43953</v>
@@ -21965,19 +22438,19 @@
       </c>
       <c r="G51">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="19">
         <v>43954</v>
       </c>
-      <c r="B52" s="24">
-        <v>355</v>
+      <c r="B52" s="23">
+        <v>326</v>
       </c>
       <c r="C52">
         <f t="shared" si="13"/>
-        <v>16606</v>
+        <v>16728</v>
       </c>
       <c r="E52" s="19">
         <v>43954</v>
@@ -21987,6 +22460,28 @@
       </c>
       <c r="G52">
         <f t="shared" si="16"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="19">
+        <v>43955</v>
+      </c>
+      <c r="B53" s="24">
+        <v>263</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53" si="17">C52+B53</f>
+        <v>16991</v>
+      </c>
+      <c r="E53" s="19">
+        <v>43955</v>
+      </c>
+      <c r="F53">
+        <v>16991</v>
+      </c>
+      <c r="G53">
+        <f t="shared" ref="G53" si="18">C53-F53</f>
         <v>0</v>
       </c>
     </row>
@@ -22000,9 +22495,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH119"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ2" sqref="AJ2:AJ35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AK2" sqref="AK2:AK35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22120,9 +22615,11 @@
         <v>295</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="AK1" s="5"/>
+        <v>299</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>312</v>
+      </c>
       <c r="AL1" s="5"/>
       <c r="AM1" s="5"/>
       <c r="AN1" s="5"/>
@@ -22412,7 +22909,9 @@
       <c r="AJ2" s="7">
         <v>1329</v>
       </c>
-      <c r="AK2" s="7"/>
+      <c r="AK2" s="7">
+        <v>1351</v>
+      </c>
       <c r="AL2" s="7"/>
       <c r="AM2" s="7"/>
       <c r="AN2" s="7"/>
@@ -22702,7 +23201,9 @@
       <c r="AJ3" s="9">
         <v>364</v>
       </c>
-      <c r="AK3" s="9"/>
+      <c r="AK3" s="9">
+        <v>363</v>
+      </c>
       <c r="AL3" s="9"/>
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
@@ -22992,7 +23493,9 @@
       <c r="AJ4" s="7">
         <v>9</v>
       </c>
-      <c r="AK4" s="7"/>
+      <c r="AK4" s="7">
+        <v>9</v>
+      </c>
       <c r="AL4" s="7"/>
       <c r="AM4" s="7"/>
       <c r="AN4" s="7"/>
@@ -23282,7 +23785,9 @@
       <c r="AJ5" s="9">
         <v>42</v>
       </c>
-      <c r="AK5" s="9"/>
+      <c r="AK5" s="9">
+        <v>42</v>
+      </c>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
       <c r="AN5" s="9"/>
@@ -23572,7 +24077,9 @@
       <c r="AJ6" s="7">
         <v>1388</v>
       </c>
-      <c r="AK6" s="7"/>
+      <c r="AK6" s="7">
+        <v>1427</v>
+      </c>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="7"/>
@@ -23862,7 +24369,9 @@
       <c r="AJ7" s="9">
         <v>378</v>
       </c>
-      <c r="AK7" s="9"/>
+      <c r="AK7" s="9">
+        <v>386</v>
+      </c>
       <c r="AL7" s="9"/>
       <c r="AM7" s="9"/>
       <c r="AN7" s="9"/>
@@ -24152,7 +24661,9 @@
       <c r="AJ8" s="7">
         <v>259</v>
       </c>
-      <c r="AK8" s="7"/>
+      <c r="AK8" s="7">
+        <v>268</v>
+      </c>
       <c r="AL8" s="7"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
@@ -24442,7 +24953,9 @@
       <c r="AJ9" s="9">
         <v>133</v>
       </c>
-      <c r="AK9" s="9"/>
+      <c r="AK9" s="9">
+        <v>136</v>
+      </c>
       <c r="AL9" s="9"/>
       <c r="AM9" s="9"/>
       <c r="AN9" s="9"/>
@@ -24732,7 +25245,9 @@
       <c r="AJ10" s="7">
         <v>39</v>
       </c>
-      <c r="AK10" s="7"/>
+      <c r="AK10" s="7">
+        <v>41</v>
+      </c>
       <c r="AL10" s="7"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="7"/>
@@ -25022,7 +25537,9 @@
       <c r="AJ11" s="9">
         <v>70</v>
       </c>
-      <c r="AK11" s="9"/>
+      <c r="AK11" s="9">
+        <v>72</v>
+      </c>
       <c r="AL11" s="9"/>
       <c r="AM11" s="9"/>
       <c r="AN11" s="9"/>
@@ -25312,7 +25829,9 @@
       <c r="AJ12" s="7">
         <v>336</v>
       </c>
-      <c r="AK12" s="7"/>
+      <c r="AK12" s="7">
+        <v>343</v>
+      </c>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="7"/>
@@ -25602,7 +26121,9 @@
       <c r="AJ13" s="9">
         <v>838</v>
       </c>
-      <c r="AK13" s="9"/>
+      <c r="AK13" s="9">
+        <v>852</v>
+      </c>
       <c r="AL13" s="9"/>
       <c r="AM13" s="9"/>
       <c r="AN13" s="9"/>
@@ -25892,7 +26413,9 @@
       <c r="AJ14" s="7">
         <v>118</v>
       </c>
-      <c r="AK14" s="7"/>
+      <c r="AK14" s="7">
+        <v>115</v>
+      </c>
       <c r="AL14" s="7"/>
       <c r="AM14" s="7"/>
       <c r="AN14" s="7"/>
@@ -26182,7 +26705,9 @@
       <c r="AJ15" s="9">
         <v>1185</v>
       </c>
-      <c r="AK15" s="9"/>
+      <c r="AK15" s="9">
+        <v>1226</v>
+      </c>
       <c r="AL15" s="9"/>
       <c r="AM15" s="9"/>
       <c r="AN15" s="9"/>
@@ -26472,7 +26997,9 @@
       <c r="AJ16" s="7">
         <v>22</v>
       </c>
-      <c r="AK16" s="7"/>
+      <c r="AK16" s="7">
+        <v>23</v>
+      </c>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="7"/>
@@ -26762,7 +27289,9 @@
       <c r="AJ17" s="9">
         <v>1457</v>
       </c>
-      <c r="AK17" s="9"/>
+      <c r="AK17" s="9">
+        <v>1501</v>
+      </c>
       <c r="AL17" s="9"/>
       <c r="AM17" s="9"/>
       <c r="AN17" s="9"/>
@@ -27052,7 +27581,9 @@
       <c r="AJ18" s="7">
         <v>14</v>
       </c>
-      <c r="AK18" s="7"/>
+      <c r="AK18" s="7">
+        <v>14</v>
+      </c>
       <c r="AL18" s="7"/>
       <c r="AM18" s="7"/>
       <c r="AN18" s="7"/>
@@ -27342,7 +27873,9 @@
       <c r="AJ19" s="9">
         <v>190</v>
       </c>
-      <c r="AK19" s="9"/>
+      <c r="AK19" s="9">
+        <v>192</v>
+      </c>
       <c r="AL19" s="9"/>
       <c r="AM19" s="9"/>
       <c r="AN19" s="9"/>
@@ -27632,7 +28165,9 @@
       <c r="AJ20" s="7">
         <v>209</v>
       </c>
-      <c r="AK20" s="7"/>
+      <c r="AK20" s="7">
+        <v>211</v>
+      </c>
       <c r="AL20" s="7"/>
       <c r="AM20" s="7"/>
       <c r="AN20" s="7"/>
@@ -27922,7 +28457,9 @@
       <c r="AJ21" s="9">
         <v>294</v>
       </c>
-      <c r="AK21" s="9"/>
+      <c r="AK21" s="9">
+        <v>297</v>
+      </c>
       <c r="AL21" s="9"/>
       <c r="AM21" s="9"/>
       <c r="AN21" s="9"/>
@@ -28212,7 +28749,9 @@
       <c r="AJ22" s="7">
         <v>616</v>
       </c>
-      <c r="AK22" s="7"/>
+      <c r="AK22" s="7">
+        <v>621</v>
+      </c>
       <c r="AL22" s="7"/>
       <c r="AM22" s="7"/>
       <c r="AN22" s="7"/>
@@ -28502,7 +29041,9 @@
       <c r="AJ23" s="9">
         <v>126</v>
       </c>
-      <c r="AK23" s="9"/>
+      <c r="AK23" s="9">
+        <v>129</v>
+      </c>
       <c r="AL23" s="9"/>
       <c r="AM23" s="9"/>
       <c r="AN23" s="9"/>
@@ -28792,7 +29333,9 @@
       <c r="AJ24" s="7">
         <v>1178</v>
       </c>
-      <c r="AK24" s="7"/>
+      <c r="AK24" s="7">
+        <v>1201</v>
+      </c>
       <c r="AL24" s="7"/>
       <c r="AM24" s="7"/>
       <c r="AN24" s="7"/>
@@ -29082,7 +29625,9 @@
       <c r="AJ25" s="9">
         <v>913</v>
       </c>
-      <c r="AK25" s="9"/>
+      <c r="AK25" s="9">
+        <v>931</v>
+      </c>
       <c r="AL25" s="9"/>
       <c r="AM25" s="9"/>
       <c r="AN25" s="9"/>
@@ -29372,7 +29917,9 @@
       <c r="AJ26" s="7">
         <v>14</v>
       </c>
-      <c r="AK26" s="7"/>
+      <c r="AK26" s="7">
+        <v>15</v>
+      </c>
       <c r="AL26" s="7"/>
       <c r="AM26" s="7"/>
       <c r="AN26" s="7"/>
@@ -29662,7 +30209,9 @@
       <c r="AJ27" s="9">
         <v>594</v>
       </c>
-      <c r="AK27" s="9"/>
+      <c r="AK27" s="9">
+        <v>607</v>
+      </c>
       <c r="AL27" s="9"/>
       <c r="AM27" s="9"/>
       <c r="AN27" s="9"/>
@@ -29952,7 +30501,9 @@
       <c r="AJ28" s="7">
         <v>638</v>
       </c>
-      <c r="AK28" s="7"/>
+      <c r="AK28" s="7">
+        <v>638</v>
+      </c>
       <c r="AL28" s="7"/>
       <c r="AM28" s="7"/>
       <c r="AN28" s="7"/>
@@ -30242,7 +30793,9 @@
       <c r="AJ29" s="20">
         <v>3</v>
       </c>
-      <c r="AK29" s="22"/>
+      <c r="AK29" s="20">
+        <v>3</v>
+      </c>
       <c r="AL29" s="22"/>
       <c r="AM29" s="22"/>
       <c r="AN29" s="22"/>
@@ -30532,7 +31085,9 @@
       <c r="AJ30" s="7">
         <v>662</v>
       </c>
-      <c r="AK30" s="7"/>
+      <c r="AK30" s="7">
+        <v>684</v>
+      </c>
       <c r="AL30" s="7"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
@@ -30822,7 +31377,9 @@
       <c r="AJ31" s="9">
         <v>683</v>
       </c>
-      <c r="AK31" s="9"/>
+      <c r="AK31" s="9">
+        <v>706</v>
+      </c>
       <c r="AL31" s="9"/>
       <c r="AM31" s="9"/>
       <c r="AN31" s="9"/>
@@ -31112,7 +31669,9 @@
       <c r="AJ32" s="7">
         <v>411</v>
       </c>
-      <c r="AK32" s="7"/>
+      <c r="AK32" s="7">
+        <v>439</v>
+      </c>
       <c r="AL32" s="7"/>
       <c r="AM32" s="7"/>
       <c r="AN32" s="7"/>
@@ -31402,7 +31961,9 @@
       <c r="AJ33" s="9">
         <v>1190</v>
       </c>
-      <c r="AK33" s="9"/>
+      <c r="AK33" s="9">
+        <v>1212</v>
+      </c>
       <c r="AL33" s="9"/>
       <c r="AM33" s="9"/>
       <c r="AN33" s="9"/>
@@ -31692,7 +32253,9 @@
       <c r="AJ34" s="7">
         <v>129</v>
       </c>
-      <c r="AK34" s="7"/>
+      <c r="AK34" s="7">
+        <v>135</v>
+      </c>
       <c r="AL34" s="7"/>
       <c r="AM34" s="7"/>
       <c r="AN34" s="7"/>
@@ -31982,7 +32545,9 @@
       <c r="AJ35" s="9">
         <v>775</v>
       </c>
-      <c r="AK35" s="9"/>
+      <c r="AK35" s="9">
+        <v>783</v>
+      </c>
       <c r="AL35" s="9"/>
       <c r="AM35" s="9"/>
       <c r="AN35" s="9"/>
@@ -32272,7 +32837,9 @@
       <c r="AJ36" s="11">
         <v>16606</v>
       </c>
-      <c r="AK36" s="11"/>
+      <c r="AK36" s="11">
+        <v>16991</v>
+      </c>
       <c r="AL36" s="11"/>
       <c r="AM36" s="11"/>
       <c r="AN36" s="11"/>
@@ -36390,113 +36957,45 @@
       <c r="HH54" s="7"/>
     </row>
     <row r="55" spans="1:216" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:216" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:216" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="12" t="s">
         <v>85</v>
       </c>
       <c r="B56" s="13"/>
-      <c r="C56" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L56" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="M56" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="N56" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="O56" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="P56" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q56" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="R56" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="S56" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="T56" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="U56" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="V56" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="W56" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="X56" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y56" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="Z56" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA56" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="AB56" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="AC56" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="AD56" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="AE56" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="AF56" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="AG56" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="AH56" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="AI56" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="AJ56" s="5" t="s">
-        <v>301</v>
-      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="5"/>
+      <c r="AJ56" s="5"/>
       <c r="AK56" s="5"/>
       <c r="AL56" s="5"/>
       <c r="AM56" s="5"/>
@@ -36785,7 +37284,9 @@
       <c r="AJ57" s="7">
         <v>161</v>
       </c>
-      <c r="AK57" s="7"/>
+      <c r="AK57" s="7">
+        <v>162</v>
+      </c>
       <c r="AL57" s="7"/>
       <c r="AM57" s="7"/>
       <c r="AN57" s="7"/>
@@ -37073,7 +37574,9 @@
       <c r="AJ58" s="9">
         <v>130</v>
       </c>
-      <c r="AK58" s="9"/>
+      <c r="AK58" s="9">
+        <v>133</v>
+      </c>
       <c r="AL58" s="9"/>
       <c r="AM58" s="9"/>
       <c r="AN58" s="9"/>
@@ -37361,7 +37864,9 @@
       <c r="AJ59" s="7">
         <v>472</v>
       </c>
-      <c r="AK59" s="7"/>
+      <c r="AK59" s="7">
+        <v>481</v>
+      </c>
       <c r="AL59" s="7"/>
       <c r="AM59" s="7"/>
       <c r="AN59" s="7"/>
@@ -37649,7 +38154,9 @@
       <c r="AJ60" s="9">
         <v>1742</v>
       </c>
-      <c r="AK60" s="9"/>
+      <c r="AK60" s="9">
+        <v>1784</v>
+      </c>
       <c r="AL60" s="9"/>
       <c r="AM60" s="9"/>
       <c r="AN60" s="9"/>
@@ -37937,7 +38444,9 @@
       <c r="AJ61" s="7">
         <v>2001</v>
       </c>
-      <c r="AK61" s="7"/>
+      <c r="AK61" s="7">
+        <v>2055</v>
+      </c>
       <c r="AL61" s="7"/>
       <c r="AM61" s="7"/>
       <c r="AN61" s="7"/>
@@ -38225,7 +38734,9 @@
       <c r="AJ62" s="9">
         <v>2310</v>
       </c>
-      <c r="AK62" s="9"/>
+      <c r="AK62" s="9">
+        <v>2364</v>
+      </c>
       <c r="AL62" s="9"/>
       <c r="AM62" s="9"/>
       <c r="AN62" s="9"/>
@@ -38513,7 +39024,9 @@
       <c r="AJ63" s="7">
         <v>2107</v>
       </c>
-      <c r="AK63" s="7"/>
+      <c r="AK63" s="7">
+        <v>2159</v>
+      </c>
       <c r="AL63" s="7"/>
       <c r="AM63" s="7"/>
       <c r="AN63" s="7"/>
@@ -38801,7 +39314,9 @@
       <c r="AJ64" s="9">
         <v>1470</v>
       </c>
-      <c r="AK64" s="9"/>
+      <c r="AK64" s="9">
+        <v>1501</v>
+      </c>
       <c r="AL64" s="9"/>
       <c r="AM64" s="9"/>
       <c r="AN64" s="9"/>
@@ -39089,7 +39604,9 @@
       <c r="AJ65" s="7">
         <v>1583</v>
       </c>
-      <c r="AK65" s="7"/>
+      <c r="AK65" s="7">
+        <v>1615</v>
+      </c>
       <c r="AL65" s="7"/>
       <c r="AM65" s="7"/>
       <c r="AN65" s="7"/>
@@ -39377,7 +39894,9 @@
       <c r="AJ66" s="9">
         <v>4549</v>
       </c>
-      <c r="AK66" s="9"/>
+      <c r="AK66" s="9">
+        <v>4655</v>
+      </c>
       <c r="AL66" s="9"/>
       <c r="AM66" s="9"/>
       <c r="AN66" s="9"/>
@@ -39665,7 +40184,9 @@
       <c r="AJ67" s="7">
         <v>81</v>
       </c>
-      <c r="AK67" s="7"/>
+      <c r="AK67" s="7">
+        <v>82</v>
+      </c>
       <c r="AL67" s="7"/>
       <c r="AM67" s="7"/>
       <c r="AN67" s="7"/>
@@ -39953,7 +40474,9 @@
       <c r="AJ68" s="15">
         <v>16606</v>
       </c>
-      <c r="AK68" s="15"/>
+      <c r="AK68" s="15">
+        <v>16991</v>
+      </c>
       <c r="AL68" s="15"/>
       <c r="AM68" s="15"/>
       <c r="AN68" s="15"/>
@@ -40134,6 +40657,224 @@
       <c r="HG68" s="15"/>
       <c r="HH68" s="15"/>
     </row>
+    <row r="69" spans="1:216" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="12"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
+      <c r="AA69" s="5"/>
+      <c r="AB69" s="5"/>
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="5"/>
+      <c r="AF69" s="5"/>
+      <c r="AG69" s="5"/>
+      <c r="AH69" s="5"/>
+      <c r="AI69" s="5"/>
+      <c r="AJ69" s="5"/>
+      <c r="AK69" s="5"/>
+      <c r="AL69" s="5"/>
+      <c r="AM69" s="5"/>
+      <c r="AN69" s="5"/>
+      <c r="AO69" s="5"/>
+      <c r="AP69" s="5"/>
+      <c r="AQ69" s="5"/>
+      <c r="AR69" s="5"/>
+      <c r="AS69" s="5"/>
+      <c r="AT69" s="5"/>
+      <c r="AU69" s="5"/>
+      <c r="AV69" s="5"/>
+      <c r="AW69" s="5"/>
+      <c r="AX69" s="5"/>
+      <c r="AY69" s="5"/>
+      <c r="AZ69" s="5"/>
+      <c r="BA69" s="5"/>
+      <c r="BB69" s="5"/>
+      <c r="BC69" s="5"/>
+      <c r="BD69" s="5"/>
+      <c r="BE69" s="5"/>
+      <c r="BF69" s="5"/>
+      <c r="BG69" s="5"/>
+      <c r="BH69" s="5"/>
+      <c r="BI69" s="5"/>
+      <c r="BJ69" s="5"/>
+      <c r="BK69" s="5"/>
+      <c r="BL69" s="5"/>
+      <c r="BM69" s="5"/>
+      <c r="BN69" s="5"/>
+      <c r="BO69" s="5"/>
+      <c r="BP69" s="5"/>
+      <c r="BQ69" s="5"/>
+      <c r="BR69" s="5"/>
+      <c r="BS69" s="5"/>
+      <c r="BT69" s="5"/>
+      <c r="BU69" s="5"/>
+      <c r="BV69" s="5"/>
+      <c r="BW69" s="5"/>
+      <c r="BX69" s="5"/>
+      <c r="BY69" s="5"/>
+      <c r="BZ69" s="5"/>
+      <c r="CA69" s="5"/>
+      <c r="CB69" s="5"/>
+      <c r="CC69" s="5"/>
+      <c r="CD69" s="5"/>
+      <c r="CE69" s="5"/>
+      <c r="CF69" s="5"/>
+      <c r="CG69" s="5"/>
+      <c r="CH69" s="5"/>
+      <c r="CI69" s="5"/>
+      <c r="CJ69" s="5"/>
+      <c r="CK69" s="5"/>
+      <c r="CL69" s="5"/>
+      <c r="CM69" s="5"/>
+      <c r="CN69" s="5"/>
+      <c r="CO69" s="5"/>
+      <c r="CP69" s="5"/>
+      <c r="CQ69" s="5"/>
+      <c r="CR69" s="5"/>
+      <c r="CS69" s="5"/>
+      <c r="CT69" s="5"/>
+      <c r="CU69" s="5"/>
+      <c r="CV69" s="5"/>
+      <c r="CW69" s="5"/>
+      <c r="CX69" s="5"/>
+      <c r="CY69" s="5"/>
+      <c r="CZ69" s="5"/>
+      <c r="DA69" s="5"/>
+      <c r="DB69" s="5"/>
+      <c r="DC69" s="5"/>
+      <c r="DD69" s="5"/>
+      <c r="DE69" s="5"/>
+      <c r="DF69" s="5"/>
+      <c r="DG69" s="5"/>
+      <c r="DH69" s="5"/>
+      <c r="DI69" s="5"/>
+      <c r="DJ69" s="5"/>
+      <c r="DK69" s="5"/>
+      <c r="DL69" s="5"/>
+      <c r="DM69" s="5"/>
+      <c r="DN69" s="5"/>
+      <c r="DO69" s="5"/>
+      <c r="DP69" s="5"/>
+      <c r="DQ69" s="5"/>
+      <c r="DR69" s="5"/>
+      <c r="DS69" s="5"/>
+      <c r="DT69" s="5"/>
+      <c r="DU69" s="5"/>
+      <c r="DV69" s="5"/>
+      <c r="DW69" s="5"/>
+      <c r="DX69" s="5"/>
+      <c r="DY69" s="5"/>
+      <c r="DZ69" s="5"/>
+      <c r="EA69" s="5"/>
+      <c r="EB69" s="5"/>
+      <c r="EC69" s="5"/>
+      <c r="ED69" s="5"/>
+      <c r="EE69" s="5"/>
+      <c r="EF69" s="5"/>
+      <c r="EG69" s="5"/>
+      <c r="EH69" s="5"/>
+      <c r="EI69" s="5"/>
+      <c r="EJ69" s="5"/>
+      <c r="EK69" s="5"/>
+      <c r="EL69" s="5"/>
+      <c r="EM69" s="5"/>
+      <c r="EN69" s="5"/>
+      <c r="EO69" s="5"/>
+      <c r="EP69" s="5"/>
+      <c r="EQ69" s="5"/>
+      <c r="ER69" s="5"/>
+      <c r="ES69" s="5"/>
+      <c r="ET69" s="5"/>
+      <c r="EU69" s="5"/>
+      <c r="EV69" s="5"/>
+      <c r="EW69" s="5"/>
+      <c r="EX69" s="5"/>
+      <c r="EY69" s="5"/>
+      <c r="EZ69" s="5"/>
+      <c r="FA69" s="5"/>
+      <c r="FB69" s="5"/>
+      <c r="FC69" s="5"/>
+      <c r="FD69" s="5"/>
+      <c r="FE69" s="5"/>
+      <c r="FF69" s="5"/>
+      <c r="FG69" s="5"/>
+      <c r="FH69" s="5"/>
+      <c r="FI69" s="5"/>
+      <c r="FJ69" s="5"/>
+      <c r="FK69" s="5"/>
+      <c r="FL69" s="5"/>
+      <c r="FM69" s="5"/>
+      <c r="FN69" s="5"/>
+      <c r="FO69" s="5"/>
+      <c r="FP69" s="5"/>
+      <c r="FQ69" s="5"/>
+      <c r="FR69" s="5"/>
+      <c r="FS69" s="5"/>
+      <c r="FT69" s="5"/>
+      <c r="FU69" s="5"/>
+      <c r="FV69" s="5"/>
+      <c r="FW69" s="5"/>
+      <c r="FX69" s="5"/>
+      <c r="FY69" s="5"/>
+      <c r="FZ69" s="5"/>
+      <c r="GA69" s="5"/>
+      <c r="GB69" s="5"/>
+      <c r="GC69" s="5"/>
+      <c r="GD69" s="5"/>
+      <c r="GE69" s="5"/>
+      <c r="GF69" s="5"/>
+      <c r="GG69" s="5"/>
+      <c r="GH69" s="5"/>
+      <c r="GI69" s="5"/>
+      <c r="GJ69" s="5"/>
+      <c r="GK69" s="5"/>
+      <c r="GL69" s="5"/>
+      <c r="GM69" s="5"/>
+      <c r="GN69" s="5"/>
+      <c r="GO69" s="5"/>
+      <c r="GP69" s="5"/>
+      <c r="GQ69" s="5"/>
+      <c r="GR69" s="5"/>
+      <c r="GS69" s="5"/>
+      <c r="GT69" s="5"/>
+      <c r="GU69" s="5"/>
+      <c r="GV69" s="5"/>
+      <c r="GW69" s="5"/>
+      <c r="GX69" s="5"/>
+      <c r="GY69" s="5"/>
+      <c r="GZ69" s="5"/>
+      <c r="HA69" s="5"/>
+      <c r="HB69" s="5"/>
+      <c r="HC69" s="5"/>
+      <c r="HD69" s="5"/>
+      <c r="HE69" s="5"/>
+      <c r="HF69" s="5"/>
+      <c r="HG69" s="5"/>
+      <c r="HH69" s="5"/>
+    </row>
     <row r="70" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>218</v>
@@ -40242,6 +40983,9 @@
       </c>
       <c r="AJ70">
         <v>1410</v>
+      </c>
+      <c r="AK70">
+        <v>1488</v>
       </c>
     </row>
     <row r="71" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -40259,6 +41003,9 @@
       <c r="AJ72">
         <v>155</v>
       </c>
+      <c r="AK72">
+        <v>186</v>
+      </c>
     </row>
     <row r="73" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="8" t="s">
@@ -40270,6 +41017,9 @@
       <c r="AJ73">
         <v>16</v>
       </c>
+      <c r="AK73">
+        <v>16</v>
+      </c>
     </row>
     <row r="74" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="6" t="s">
@@ -40281,16 +41031,22 @@
       <c r="AJ74">
         <v>0</v>
       </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AI75" s="24">
-        <v>3</v>
-      </c>
-      <c r="AJ75" s="24">
-        <v>3</v>
+      <c r="AI75" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AJ75" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AK75" s="24">
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -40303,6 +41059,9 @@
       <c r="AJ76">
         <v>138</v>
       </c>
+      <c r="AK76">
+        <v>142</v>
+      </c>
     </row>
     <row r="77" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="8" t="s">
@@ -40314,6 +41073,9 @@
       <c r="AJ77">
         <v>15</v>
       </c>
+      <c r="AK77">
+        <v>15</v>
+      </c>
     </row>
     <row r="78" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="6" t="s">
@@ -40325,6 +41087,9 @@
       <c r="AJ78">
         <v>16</v>
       </c>
+      <c r="AK78">
+        <v>16</v>
+      </c>
     </row>
     <row r="79" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="8" t="s">
@@ -40336,6 +41101,9 @@
       <c r="AJ79">
         <v>26</v>
       </c>
+      <c r="AK79">
+        <v>26</v>
+      </c>
     </row>
     <row r="80" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="6" t="s">
@@ -40344,11 +41112,14 @@
       <c r="AI80">
         <v>0</v>
       </c>
-      <c r="AJ80" s="24">
-        <v>1</v>
+      <c r="AJ80" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="8" t="s">
         <v>46</v>
       </c>
@@ -40358,8 +41129,11 @@
       <c r="AJ81">
         <v>7</v>
       </c>
+      <c r="AK81">
+        <v>8</v>
+      </c>
     </row>
-    <row r="82" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="6" t="s">
         <v>47</v>
       </c>
@@ -40369,8 +41143,11 @@
       <c r="AJ82">
         <v>23</v>
       </c>
+      <c r="AK82">
+        <v>23</v>
+      </c>
     </row>
-    <row r="83" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="8" t="s">
         <v>48</v>
       </c>
@@ -40380,8 +41157,11 @@
       <c r="AJ83">
         <v>92</v>
       </c>
+      <c r="AK83">
+        <v>92</v>
+      </c>
     </row>
-    <row r="84" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
         <v>49</v>
       </c>
@@ -40391,8 +41171,11 @@
       <c r="AJ84">
         <v>10</v>
       </c>
+      <c r="AK84">
+        <v>14</v>
+      </c>
     </row>
-    <row r="85" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="8" t="s">
         <v>50</v>
       </c>
@@ -40402,19 +41185,25 @@
       <c r="AJ85">
         <v>130</v>
       </c>
+      <c r="AK85">
+        <v>140</v>
+      </c>
     </row>
-    <row r="86" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
         <v>51</v>
       </c>
       <c r="AI86">
         <v>0</v>
       </c>
-      <c r="AJ86" s="24">
-        <v>1</v>
+      <c r="AJ86" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AK86" s="24" t="s">
+        <v>309</v>
       </c>
     </row>
-    <row r="87" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="8" t="s">
         <v>52</v>
       </c>
@@ -40424,19 +41213,25 @@
       <c r="AJ87">
         <v>86</v>
       </c>
+      <c r="AK87">
+        <v>93</v>
+      </c>
     </row>
-    <row r="88" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AI88" s="24">
-        <v>2</v>
-      </c>
-      <c r="AJ88" s="24">
-        <v>2</v>
+      <c r="AI88" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AJ88" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AK88" s="24" t="s">
+        <v>309</v>
       </c>
     </row>
-    <row r="89" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="8" t="s">
         <v>54</v>
       </c>
@@ -40446,8 +41241,11 @@
       <c r="AJ89">
         <v>47</v>
       </c>
+      <c r="AK89">
+        <v>47</v>
+      </c>
     </row>
-    <row r="90" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="6" t="s">
         <v>55</v>
       </c>
@@ -40457,8 +41255,11 @@
       <c r="AJ90">
         <v>7</v>
       </c>
+      <c r="AK90">
+        <v>7</v>
+      </c>
     </row>
-    <row r="91" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="8" t="s">
         <v>56</v>
       </c>
@@ -40468,8 +41269,11 @@
       <c r="AJ91">
         <v>18</v>
       </c>
+      <c r="AK91">
+        <v>18</v>
+      </c>
     </row>
-    <row r="92" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
         <v>57</v>
       </c>
@@ -40479,8 +41283,11 @@
       <c r="AJ92">
         <v>47</v>
       </c>
+      <c r="AK92">
+        <v>49</v>
+      </c>
     </row>
-    <row r="93" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="8" t="s">
         <v>58</v>
       </c>
@@ -40490,8 +41297,11 @@
       <c r="AJ93">
         <v>13</v>
       </c>
+      <c r="AK93">
+        <v>14</v>
+      </c>
     </row>
-    <row r="94" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
         <v>59</v>
       </c>
@@ -40501,8 +41311,11 @@
       <c r="AJ94">
         <v>46</v>
       </c>
+      <c r="AK94">
+        <v>52</v>
+      </c>
     </row>
-    <row r="95" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="8" t="s">
         <v>60</v>
       </c>
@@ -40512,19 +41325,25 @@
       <c r="AJ95">
         <v>75</v>
       </c>
+      <c r="AK95">
+        <v>80</v>
+      </c>
     </row>
-    <row r="96" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AI96" s="24">
-        <v>2</v>
-      </c>
-      <c r="AJ96" s="24">
-        <v>2</v>
+      <c r="AI96" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AJ96" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AK96" s="24" t="s">
+        <v>309</v>
       </c>
     </row>
-    <row r="97" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="8" t="s">
         <v>62</v>
       </c>
@@ -40534,8 +41353,11 @@
       <c r="AJ97">
         <v>55</v>
       </c>
+      <c r="AK97">
+        <v>56</v>
+      </c>
     </row>
-    <row r="98" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="6" t="s">
         <v>63</v>
       </c>
@@ -40545,8 +41367,11 @@
       <c r="AJ98">
         <v>26</v>
       </c>
+      <c r="AK98">
+        <v>29</v>
+      </c>
     </row>
-    <row r="99" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="8" t="s">
         <v>64</v>
       </c>
@@ -40556,8 +41381,11 @@
       <c r="AJ99">
         <v>0</v>
       </c>
+      <c r="AK99">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="6" t="s">
         <v>65</v>
       </c>
@@ -40567,8 +41395,11 @@
       <c r="AJ100">
         <v>122</v>
       </c>
+      <c r="AK100">
+        <v>124</v>
+      </c>
     </row>
-    <row r="101" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="8" t="s">
         <v>66</v>
       </c>
@@ -40578,8 +41409,11 @@
       <c r="AJ101">
         <v>88</v>
       </c>
+      <c r="AK101">
+        <v>89</v>
+      </c>
     </row>
-    <row r="102" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="6" t="s">
         <v>67</v>
       </c>
@@ -40589,8 +41423,11 @@
       <c r="AJ102">
         <v>25</v>
       </c>
+      <c r="AK102">
+        <v>25</v>
+      </c>
     </row>
-    <row r="103" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="8" t="s">
         <v>68</v>
       </c>
@@ -40600,8 +41437,11 @@
       <c r="AJ103">
         <v>68</v>
       </c>
+      <c r="AK103">
+        <v>69</v>
+      </c>
     </row>
-    <row r="104" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="6" t="s">
         <v>69</v>
       </c>
@@ -40611,8 +41451,11 @@
       <c r="AJ104">
         <v>14</v>
       </c>
+      <c r="AK104">
+        <v>14</v>
+      </c>
     </row>
-    <row r="105" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="8" t="s">
         <v>70</v>
       </c>
@@ -40622,24 +41465,245 @@
       <c r="AJ105">
         <v>36</v>
       </c>
+      <c r="AK105">
+        <v>37</v>
+      </c>
     </row>
-    <row r="106" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AI106" t="s">
-        <v>294</v>
-      </c>
-      <c r="AJ106" t="s">
-        <v>303</v>
+      <c r="AI106">
+        <v>1365</v>
+      </c>
+      <c r="AJ106">
+        <v>1410</v>
+      </c>
+      <c r="AK106">
+        <v>1488</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+    <row r="107" spans="1:216" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="12" t="s">
         <v>85</v>
       </c>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="5"/>
+      <c r="S107" s="5"/>
+      <c r="T107" s="5"/>
+      <c r="U107" s="5"/>
+      <c r="V107" s="5"/>
+      <c r="W107" s="5"/>
+      <c r="X107" s="5"/>
+      <c r="Y107" s="5"/>
+      <c r="Z107" s="5"/>
+      <c r="AA107" s="5"/>
+      <c r="AB107" s="5"/>
+      <c r="AC107" s="5"/>
+      <c r="AD107" s="5"/>
+      <c r="AE107" s="5"/>
+      <c r="AF107" s="5"/>
+      <c r="AG107" s="5"/>
+      <c r="AH107" s="5"/>
+      <c r="AI107" s="5"/>
+      <c r="AJ107" s="5"/>
+      <c r="AK107" s="5"/>
+      <c r="AL107" s="5"/>
+      <c r="AM107" s="5"/>
+      <c r="AN107" s="5"/>
+      <c r="AO107" s="5"/>
+      <c r="AP107" s="5"/>
+      <c r="AQ107" s="5"/>
+      <c r="AR107" s="5"/>
+      <c r="AS107" s="5"/>
+      <c r="AT107" s="5"/>
+      <c r="AU107" s="5"/>
+      <c r="AV107" s="5"/>
+      <c r="AW107" s="5"/>
+      <c r="AX107" s="5"/>
+      <c r="AY107" s="5"/>
+      <c r="AZ107" s="5"/>
+      <c r="BA107" s="5"/>
+      <c r="BB107" s="5"/>
+      <c r="BC107" s="5"/>
+      <c r="BD107" s="5"/>
+      <c r="BE107" s="5"/>
+      <c r="BF107" s="5"/>
+      <c r="BG107" s="5"/>
+      <c r="BH107" s="5"/>
+      <c r="BI107" s="5"/>
+      <c r="BJ107" s="5"/>
+      <c r="BK107" s="5"/>
+      <c r="BL107" s="5"/>
+      <c r="BM107" s="5"/>
+      <c r="BN107" s="5"/>
+      <c r="BO107" s="5"/>
+      <c r="BP107" s="5"/>
+      <c r="BQ107" s="5"/>
+      <c r="BR107" s="5"/>
+      <c r="BS107" s="5"/>
+      <c r="BT107" s="5"/>
+      <c r="BU107" s="5"/>
+      <c r="BV107" s="5"/>
+      <c r="BW107" s="5"/>
+      <c r="BX107" s="5"/>
+      <c r="BY107" s="5"/>
+      <c r="BZ107" s="5"/>
+      <c r="CA107" s="5"/>
+      <c r="CB107" s="5"/>
+      <c r="CC107" s="5"/>
+      <c r="CD107" s="5"/>
+      <c r="CE107" s="5"/>
+      <c r="CF107" s="5"/>
+      <c r="CG107" s="5"/>
+      <c r="CH107" s="5"/>
+      <c r="CI107" s="5"/>
+      <c r="CJ107" s="5"/>
+      <c r="CK107" s="5"/>
+      <c r="CL107" s="5"/>
+      <c r="CM107" s="5"/>
+      <c r="CN107" s="5"/>
+      <c r="CO107" s="5"/>
+      <c r="CP107" s="5"/>
+      <c r="CQ107" s="5"/>
+      <c r="CR107" s="5"/>
+      <c r="CS107" s="5"/>
+      <c r="CT107" s="5"/>
+      <c r="CU107" s="5"/>
+      <c r="CV107" s="5"/>
+      <c r="CW107" s="5"/>
+      <c r="CX107" s="5"/>
+      <c r="CY107" s="5"/>
+      <c r="CZ107" s="5"/>
+      <c r="DA107" s="5"/>
+      <c r="DB107" s="5"/>
+      <c r="DC107" s="5"/>
+      <c r="DD107" s="5"/>
+      <c r="DE107" s="5"/>
+      <c r="DF107" s="5"/>
+      <c r="DG107" s="5"/>
+      <c r="DH107" s="5"/>
+      <c r="DI107" s="5"/>
+      <c r="DJ107" s="5"/>
+      <c r="DK107" s="5"/>
+      <c r="DL107" s="5"/>
+      <c r="DM107" s="5"/>
+      <c r="DN107" s="5"/>
+      <c r="DO107" s="5"/>
+      <c r="DP107" s="5"/>
+      <c r="DQ107" s="5"/>
+      <c r="DR107" s="5"/>
+      <c r="DS107" s="5"/>
+      <c r="DT107" s="5"/>
+      <c r="DU107" s="5"/>
+      <c r="DV107" s="5"/>
+      <c r="DW107" s="5"/>
+      <c r="DX107" s="5"/>
+      <c r="DY107" s="5"/>
+      <c r="DZ107" s="5"/>
+      <c r="EA107" s="5"/>
+      <c r="EB107" s="5"/>
+      <c r="EC107" s="5"/>
+      <c r="ED107" s="5"/>
+      <c r="EE107" s="5"/>
+      <c r="EF107" s="5"/>
+      <c r="EG107" s="5"/>
+      <c r="EH107" s="5"/>
+      <c r="EI107" s="5"/>
+      <c r="EJ107" s="5"/>
+      <c r="EK107" s="5"/>
+      <c r="EL107" s="5"/>
+      <c r="EM107" s="5"/>
+      <c r="EN107" s="5"/>
+      <c r="EO107" s="5"/>
+      <c r="EP107" s="5"/>
+      <c r="EQ107" s="5"/>
+      <c r="ER107" s="5"/>
+      <c r="ES107" s="5"/>
+      <c r="ET107" s="5"/>
+      <c r="EU107" s="5"/>
+      <c r="EV107" s="5"/>
+      <c r="EW107" s="5"/>
+      <c r="EX107" s="5"/>
+      <c r="EY107" s="5"/>
+      <c r="EZ107" s="5"/>
+      <c r="FA107" s="5"/>
+      <c r="FB107" s="5"/>
+      <c r="FC107" s="5"/>
+      <c r="FD107" s="5"/>
+      <c r="FE107" s="5"/>
+      <c r="FF107" s="5"/>
+      <c r="FG107" s="5"/>
+      <c r="FH107" s="5"/>
+      <c r="FI107" s="5"/>
+      <c r="FJ107" s="5"/>
+      <c r="FK107" s="5"/>
+      <c r="FL107" s="5"/>
+      <c r="FM107" s="5"/>
+      <c r="FN107" s="5"/>
+      <c r="FO107" s="5"/>
+      <c r="FP107" s="5"/>
+      <c r="FQ107" s="5"/>
+      <c r="FR107" s="5"/>
+      <c r="FS107" s="5"/>
+      <c r="FT107" s="5"/>
+      <c r="FU107" s="5"/>
+      <c r="FV107" s="5"/>
+      <c r="FW107" s="5"/>
+      <c r="FX107" s="5"/>
+      <c r="FY107" s="5"/>
+      <c r="FZ107" s="5"/>
+      <c r="GA107" s="5"/>
+      <c r="GB107" s="5"/>
+      <c r="GC107" s="5"/>
+      <c r="GD107" s="5"/>
+      <c r="GE107" s="5"/>
+      <c r="GF107" s="5"/>
+      <c r="GG107" s="5"/>
+      <c r="GH107" s="5"/>
+      <c r="GI107" s="5"/>
+      <c r="GJ107" s="5"/>
+      <c r="GK107" s="5"/>
+      <c r="GL107" s="5"/>
+      <c r="GM107" s="5"/>
+      <c r="GN107" s="5"/>
+      <c r="GO107" s="5"/>
+      <c r="GP107" s="5"/>
+      <c r="GQ107" s="5"/>
+      <c r="GR107" s="5"/>
+      <c r="GS107" s="5"/>
+      <c r="GT107" s="5"/>
+      <c r="GU107" s="5"/>
+      <c r="GV107" s="5"/>
+      <c r="GW107" s="5"/>
+      <c r="GX107" s="5"/>
+      <c r="GY107" s="5"/>
+      <c r="GZ107" s="5"/>
+      <c r="HA107" s="5"/>
+      <c r="HB107" s="5"/>
+      <c r="HC107" s="5"/>
+      <c r="HD107" s="5"/>
+      <c r="HE107" s="5"/>
+      <c r="HF107" s="5"/>
+      <c r="HG107" s="5"/>
+      <c r="HH107" s="5"/>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>86</v>
       </c>
@@ -40649,8 +41713,11 @@
       <c r="AJ108">
         <v>0</v>
       </c>
+      <c r="AK108">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>87</v>
       </c>
@@ -40660,8 +41727,11 @@
       <c r="AJ109">
         <v>0</v>
       </c>
+      <c r="AK109">
+        <v>0</v>
+      </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>88</v>
       </c>
@@ -40671,8 +41741,11 @@
       <c r="AJ110">
         <v>0</v>
       </c>
+      <c r="AK110">
+        <v>0</v>
+      </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>89</v>
       </c>
@@ -40682,19 +41755,25 @@
       <c r="AJ111">
         <v>0</v>
       </c>
+      <c r="AK111">
+        <v>0</v>
+      </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>90</v>
       </c>
       <c r="AI112" s="24">
         <v>3</v>
       </c>
-      <c r="AJ112">
+      <c r="AJ112" s="24">
         <v>3</v>
       </c>
+      <c r="AK112" s="24">
+        <v>3</v>
+      </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>91</v>
       </c>
@@ -40704,8 +41783,11 @@
       <c r="AJ113">
         <v>11</v>
       </c>
+      <c r="AK113">
+        <v>11</v>
+      </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>92</v>
       </c>
@@ -40715,8 +41797,11 @@
       <c r="AJ114">
         <v>25</v>
       </c>
+      <c r="AK114">
+        <v>26</v>
+      </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>93</v>
       </c>
@@ -40726,8 +41811,11 @@
       <c r="AJ115">
         <v>96</v>
       </c>
+      <c r="AK115">
+        <v>105</v>
+      </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>94</v>
       </c>
@@ -40737,8 +41825,11 @@
       <c r="AJ116">
         <v>225</v>
       </c>
+      <c r="AK116">
+        <v>241</v>
+      </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>95</v>
       </c>
@@ -40748,8 +41839,11 @@
       <c r="AJ117">
         <v>1049</v>
       </c>
+      <c r="AK117">
+        <v>1101</v>
+      </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>96</v>
       </c>
@@ -40759,8 +41853,11 @@
       <c r="AJ118">
         <v>1</v>
       </c>
+      <c r="AK118">
+        <v>1</v>
+      </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>97</v>
       </c>
@@ -40769,6 +41866,9 @@
       </c>
       <c r="AJ119">
         <v>1410</v>
+      </c>
+      <c r="AK119">
+        <v>1488</v>
       </c>
     </row>
   </sheetData>
@@ -40780,245 +41880,283 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655ECF0F-EC0D-4FC9-B182-78DF99BFDAD7}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E13"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="1" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>303</v>
+      </c>
+      <c r="C22" t="s">
+        <v>304</v>
+      </c>
+      <c r="D22" t="s">
+        <v>313</v>
+      </c>
+      <c r="E22" t="s">
+        <v>307</v>
+      </c>
+      <c r="F22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>305</v>
+      </c>
+      <c r="F23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>86</v>
       </c>
-      <c r="B2">
-        <v>161</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B25">
+        <v>162</v>
+      </c>
+      <c r="C25" t="s">
         <v>296</v>
       </c>
-      <c r="D2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E2">
+      <c r="D25" t="s">
+        <v>314</v>
+      </c>
+      <c r="E25">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>87</v>
       </c>
-      <c r="B3">
-        <v>130</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B26">
+        <v>133</v>
+      </c>
+      <c r="C26" t="s">
         <v>291</v>
       </c>
-      <c r="D3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E3">
+      <c r="D26" t="s">
+        <v>315</v>
+      </c>
+      <c r="E26">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>88</v>
       </c>
-      <c r="B4">
-        <v>472</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B27">
+        <v>481</v>
+      </c>
+      <c r="C27" t="s">
+        <v>316</v>
+      </c>
+      <c r="D27" t="s">
+        <v>317</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28">
+        <v>1784</v>
+      </c>
+      <c r="C28" t="s">
+        <v>318</v>
+      </c>
+      <c r="D28" t="s">
+        <v>319</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29">
+        <v>2055</v>
+      </c>
+      <c r="C29" t="s">
+        <v>320</v>
+      </c>
+      <c r="D29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30">
+        <v>2364</v>
+      </c>
+      <c r="C30" t="s">
+        <v>300</v>
+      </c>
+      <c r="D30" t="s">
+        <v>322</v>
+      </c>
+      <c r="E30">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
         <v>297</v>
       </c>
-      <c r="D4" t="s">
-        <v>306</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5">
-        <v>1742</v>
-      </c>
-      <c r="C5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31">
+        <v>2159</v>
+      </c>
+      <c r="C31" t="s">
+        <v>301</v>
+      </c>
+      <c r="D31" t="s">
+        <v>323</v>
+      </c>
+      <c r="E31">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6">
-        <v>2001</v>
-      </c>
-      <c r="C6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32">
+        <v>1501</v>
+      </c>
+      <c r="C32" t="s">
+        <v>293</v>
+      </c>
+      <c r="D32" t="s">
+        <v>325</v>
+      </c>
+      <c r="E32">
+        <v>105</v>
+      </c>
+      <c r="F32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33">
+        <v>1615</v>
+      </c>
+      <c r="C33" t="s">
+        <v>298</v>
+      </c>
+      <c r="D33" t="s">
+        <v>327</v>
+      </c>
+      <c r="E33">
+        <v>241</v>
+      </c>
+      <c r="F33" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34">
+        <v>4655</v>
+      </c>
+      <c r="C34" t="s">
+        <v>302</v>
+      </c>
+      <c r="D34" t="s">
+        <v>329</v>
+      </c>
+      <c r="E34">
+        <v>1101</v>
+      </c>
+      <c r="F34" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" t="s">
+        <v>229</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36">
+        <v>16991</v>
+      </c>
+      <c r="C36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36" t="s">
         <v>310</v>
       </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>290</v>
+      <c r="E36">
+        <v>1488</v>
+      </c>
+      <c r="F36" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7">
-        <v>2310</v>
-      </c>
-      <c r="C7" t="s">
-        <v>311</v>
-      </c>
-      <c r="D7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E7">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8">
-        <v>2107</v>
-      </c>
-      <c r="C8" t="s">
-        <v>313</v>
-      </c>
-      <c r="D8" t="s">
-        <v>314</v>
-      </c>
-      <c r="E8">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1470</v>
-      </c>
-      <c r="C9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D9" t="s">
-        <v>316</v>
-      </c>
-      <c r="E9">
-        <v>96</v>
-      </c>
-      <c r="F9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10">
-        <v>1583</v>
-      </c>
-      <c r="C10" t="s">
-        <v>300</v>
-      </c>
-      <c r="D10" t="s">
-        <v>317</v>
-      </c>
-      <c r="E10">
-        <v>225</v>
-      </c>
-      <c r="F10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11">
-        <v>4549</v>
-      </c>
-      <c r="C11" t="s">
-        <v>319</v>
-      </c>
-      <c r="D11" t="s">
-        <v>320</v>
-      </c>
-      <c r="E11">
-        <v>1049</v>
-      </c>
-      <c r="F11" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12">
-        <v>81</v>
-      </c>
-      <c r="C12" t="s">
-        <v>229</v>
-      </c>
-      <c r="D12" t="s">
-        <v>229</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13">
-        <v>16606</v>
-      </c>
-      <c r="C13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" t="s">
-        <v>302</v>
-      </c>
-      <c r="E13">
-        <v>1410</v>
-      </c>
-      <c r="F13" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/app/data/covid19_MTL.xlsx
+++ b/app/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02498D2-DD8F-4510-BCDC-186931086F26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09595247-C6ED-4664-B793-E9E3F49E7BDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="5720" windowWidth="29390" windowHeight="14060" tabRatio="512" activeTab="2" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="18190" yWindow="6410" windowWidth="29390" windowHeight="14750" tabRatio="512" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="327">
   <si>
     <t>borough</t>
   </si>
@@ -976,97 +976,85 @@
     <t>3 MAI, 18h04</t>
   </si>
   <si>
-    <t>14,0</t>
-  </si>
-  <si>
-    <t>12,8</t>
-  </si>
-  <si>
     <t>27,5</t>
-  </si>
-  <si>
-    <t>NOMBRE DE CAS CONFIRMÉS¹</t>
-  </si>
-  <si>
-    <t>RÉPARTITION DES CAS (%)</t>
-  </si>
-  <si>
-    <t>100 000</t>
-  </si>
-  <si>
-    <t>PERSONNES</t>
-  </si>
-  <si>
-    <t>NOMBRE DE DÉCÈS</t>
-  </si>
-  <si>
-    <t>TAUX DE MORTALITÉ POUR</t>
   </si>
   <si>
     <t>&lt; 5</t>
   </si>
   <si>
-    <t> 822,5</t>
-  </si>
-  <si>
-    <t> 72,0</t>
-  </si>
-  <si>
     <t>4 MAI, 18h04</t>
-  </si>
-  <si>
-    <t>TAUX POUR</t>
-  </si>
-  <si>
-    <t> 146,1</t>
-  </si>
-  <si>
-    <t> 123,2</t>
-  </si>
-  <si>
-    <t>2,8</t>
-  </si>
-  <si>
-    <t> 241,8</t>
   </si>
   <si>
     <t>10,6</t>
   </si>
   <si>
-    <t> 553,9</t>
+    <t>5 MAI, 18h04</t>
   </si>
   <si>
-    <t>12,2</t>
+    <t> 844,4</t>
   </si>
   <si>
-    <t> 625,5</t>
+    <t>1 562</t>
   </si>
   <si>
-    <t> 849,3</t>
+    <t> 75,6</t>
   </si>
   <si>
-    <t> 841,2</t>
+    <t> 149,7</t>
   </si>
   <si>
-    <t>* 10,1</t>
+    <t> 127,8</t>
   </si>
   <si>
-    <t> 693,1</t>
+    <t>2,9</t>
   </si>
   <si>
-    <t> 48,5</t>
+    <t> 249,9</t>
   </si>
   <si>
-    <t> 1 116,1</t>
+    <t> 572,8</t>
   </si>
   <si>
-    <t> 166,5</t>
+    <t>12,1</t>
   </si>
   <si>
-    <t> 4 607,0</t>
+    <t> 641,6</t>
   </si>
   <si>
-    <t> 1089,7</t>
+    <t>13,9</t>
+  </si>
+  <si>
+    <t> 868,7</t>
+  </si>
+  <si>
+    <t>12,7</t>
+  </si>
+  <si>
+    <t> 861,0</t>
+  </si>
+  <si>
+    <t>* 10,5</t>
+  </si>
+  <si>
+    <t> 714,3</t>
+  </si>
+  <si>
+    <t> 51,3</t>
+  </si>
+  <si>
+    <t> 1146,5</t>
+  </si>
+  <si>
+    <t> 177,6</t>
+  </si>
+  <si>
+    <t> 4723,8</t>
+  </si>
+  <si>
+    <t>1 152</t>
+  </si>
+  <si>
+    <t> 1140,1</t>
   </si>
 </sst>
 </file>
@@ -1580,20 +1568,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:AL35"/>
+  <dimension ref="A1:AM35"/>
   <sheetViews>
     <sheetView topLeftCell="R1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AK1" sqref="AK1:AL1"/>
+      <selection activeCell="AL1" sqref="AL1:AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="38" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="39" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1708,8 +1696,11 @@
       <c r="AL1" s="19">
         <v>43955</v>
       </c>
+      <c r="AM1" s="19">
+        <v>43956</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1824,8 +1815,11 @@
       <c r="AL2">
         <v>1351</v>
       </c>
+      <c r="AM2">
+        <v>1392</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1940,8 +1934,11 @@
       <c r="AL3">
         <v>363</v>
       </c>
+      <c r="AM3">
+        <v>379</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2056,8 +2053,11 @@
       <c r="AL4">
         <v>9</v>
       </c>
+      <c r="AM4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2172,8 +2172,11 @@
       <c r="AL5">
         <v>42</v>
       </c>
+      <c r="AM5">
+        <v>45</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2288,8 +2291,11 @@
       <c r="AL6">
         <v>1427</v>
       </c>
+      <c r="AM6">
+        <v>1448</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -2404,8 +2410,11 @@
       <c r="AL7">
         <v>386</v>
       </c>
+      <c r="AM7">
+        <v>388</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -2520,8 +2529,11 @@
       <c r="AL8">
         <v>268</v>
       </c>
+      <c r="AM8">
+        <v>270</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -2636,8 +2648,11 @@
       <c r="AL9">
         <v>136</v>
       </c>
+      <c r="AM9">
+        <v>137</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -2752,8 +2767,11 @@
       <c r="AL10">
         <v>41</v>
       </c>
+      <c r="AM10">
+        <v>42</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -2868,8 +2886,11 @@
       <c r="AL11">
         <v>72</v>
       </c>
+      <c r="AM11">
+        <v>75</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2984,8 +3005,11 @@
       <c r="AL12">
         <v>343</v>
       </c>
+      <c r="AM12">
+        <v>354</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3100,8 +3124,11 @@
       <c r="AL13">
         <v>852</v>
       </c>
+      <c r="AM13">
+        <v>869</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3216,8 +3243,11 @@
       <c r="AL14">
         <v>115</v>
       </c>
+      <c r="AM14">
+        <v>118</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3332,8 +3362,11 @@
       <c r="AL15">
         <v>1226</v>
       </c>
+      <c r="AM15">
+        <v>1288</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -3448,8 +3481,11 @@
       <c r="AL16">
         <v>23</v>
       </c>
+      <c r="AM16">
+        <v>23</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3564,8 +3600,11 @@
       <c r="AL17">
         <v>1501</v>
       </c>
+      <c r="AM17">
+        <v>1544</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -3680,8 +3719,11 @@
       <c r="AL18">
         <v>14</v>
       </c>
+      <c r="AM18">
+        <v>14</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -3796,8 +3838,11 @@
       <c r="AL19">
         <v>192</v>
       </c>
+      <c r="AM19">
+        <v>197</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3912,8 +3957,11 @@
       <c r="AL20">
         <v>211</v>
       </c>
+      <c r="AM20">
+        <v>213</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4028,8 +4076,11 @@
       <c r="AL21">
         <v>297</v>
       </c>
+      <c r="AM21">
+        <v>313</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4144,8 +4195,11 @@
       <c r="AL22">
         <v>621</v>
       </c>
+      <c r="AM22">
+        <v>631</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -4260,8 +4314,11 @@
       <c r="AL23">
         <v>129</v>
       </c>
+      <c r="AM23">
+        <v>139</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4376,8 +4433,11 @@
       <c r="AL24">
         <v>1201</v>
       </c>
+      <c r="AM24">
+        <v>1247</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4492,8 +4552,11 @@
       <c r="AL25">
         <v>931</v>
       </c>
+      <c r="AM25">
+        <v>958</v>
+      </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -4608,8 +4671,11 @@
       <c r="AL26">
         <v>15</v>
       </c>
+      <c r="AM26">
+        <v>16</v>
+      </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4724,8 +4790,11 @@
       <c r="AL27">
         <v>607</v>
       </c>
+      <c r="AM27">
+        <v>627</v>
+      </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4840,8 +4909,11 @@
       <c r="AL28">
         <v>638</v>
       </c>
+      <c r="AM28">
+        <v>675</v>
+      </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -4956,8 +5028,11 @@
       <c r="AL29">
         <v>3</v>
       </c>
+      <c r="AM29">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5072,8 +5147,11 @@
       <c r="AL30">
         <v>684</v>
       </c>
+      <c r="AM30">
+        <v>688</v>
+      </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5188,8 +5266,11 @@
       <c r="AL31">
         <v>706</v>
       </c>
+      <c r="AM31">
+        <v>724</v>
+      </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5304,8 +5385,11 @@
       <c r="AL32">
         <v>439</v>
       </c>
+      <c r="AM32">
+        <v>456</v>
+      </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5420,8 +5504,11 @@
       <c r="AL33">
         <v>1212</v>
       </c>
+      <c r="AM33">
+        <v>1239</v>
+      </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -5536,8 +5623,11 @@
       <c r="AL34">
         <v>135</v>
       </c>
+      <c r="AM34">
+        <v>139</v>
+      </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5650,6 +5740,9 @@
         <v>775</v>
       </c>
       <c r="AL35">
+        <v>783</v>
+      </c>
+      <c r="AM35">
         <v>783</v>
       </c>
     </row>
@@ -5661,11 +5754,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:AL34"/>
+  <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK1" sqref="AK1:AL34"/>
+      <selection pane="topRight" activeCell="AQ21" sqref="AQ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5673,10 +5766,10 @@
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="27" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="38" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="39" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5812,8 +5905,11 @@
       <c r="AL1" s="1">
         <v>43955</v>
       </c>
+      <c r="AM1" s="1">
+        <v>43956</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5961,8 +6057,12 @@
         <f>cases!AL2/(population_2016!$B2/1000)</f>
         <v>10.063689522887257</v>
       </c>
+      <c r="AM2" s="3">
+        <f>cases!AM2/(population_2016!$B2/1000)</f>
+        <v>10.369101270065924</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6110,8 +6210,12 @@
         <f>cases!AL3/(population_2016!$B3/1000)</f>
         <v>8.4821011309468179</v>
       </c>
+      <c r="AM3" s="3">
+        <f>cases!AM3/(population_2016!$B3/1000)</f>
+        <v>8.8559678474623791</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -6259,8 +6363,12 @@
         <f>cases!AL4/(population_2016!$B4/1000)</f>
         <v>2.3541721161391576</v>
       </c>
+      <c r="AM4" s="3">
+        <f>cases!AM4/(population_2016!$B4/1000)</f>
+        <v>2.6157467957101752</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -6408,8 +6516,12 @@
         <f>cases!AL5/(population_2016!$B5/1000)</f>
         <v>2.1734630511281305</v>
       </c>
+      <c r="AM5" s="3">
+        <f>cases!AM5/(population_2016!$B5/1000)</f>
+        <v>2.3287104119229971</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6557,8 +6669,12 @@
         <f>cases!AL6/(population_2016!$B6/1000)</f>
         <v>8.5695411962527022</v>
       </c>
+      <c r="AM6" s="3">
+        <f>cases!AM6/(population_2016!$B6/1000)</f>
+        <v>8.695652173913043</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -6706,8 +6822,12 @@
         <f>cases!AL7/(population_2016!$B7/1000)</f>
         <v>11.895956607495069</v>
       </c>
+      <c r="AM7" s="3">
+        <f>cases!AM7/(population_2016!$B7/1000)</f>
+        <v>11.95759368836292</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -6855,8 +6975,12 @@
         <f>cases!AL8/(population_2016!$B8/1000)</f>
         <v>5.4806846765782531</v>
       </c>
+      <c r="AM8" s="3">
+        <f>cases!AM8/(population_2016!$B8/1000)</f>
+        <v>5.521585308493016</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -7004,8 +7128,12 @@
         <f>cases!AL9/(population_2016!$B9/1000)</f>
         <v>7.1654373024236033</v>
       </c>
+      <c r="AM9" s="3">
+        <f>cases!AM9/(population_2016!$B9/1000)</f>
+        <v>7.2181243414120129</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -7153,8 +7281,12 @@
         <f>cases!AL10/(population_2016!$B10/1000)</f>
         <v>5.8798221712318943</v>
       </c>
+      <c r="AM10" s="3">
+        <f>cases!AM10/(population_2016!$B10/1000)</f>
+        <v>6.0232324680912095</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -7302,8 +7434,12 @@
         <f>cases!AL11/(population_2016!$B11/1000)</f>
         <v>3.5730236712818222</v>
       </c>
+      <c r="AM11" s="3">
+        <f>cases!AM11/(population_2016!$B11/1000)</f>
+        <v>3.7218996575852317</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -7451,8 +7587,12 @@
         <f>cases!AL12/(population_2016!$B12/1000)</f>
         <v>7.709770954617996</v>
       </c>
+      <c r="AM12" s="3">
+        <f>cases!AM12/(population_2016!$B12/1000)</f>
+        <v>7.9570230843579317</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -7600,8 +7740,12 @@
         <f>cases!AL13/(population_2016!$B13/1000)</f>
         <v>11.086099436586732</v>
       </c>
+      <c r="AM13" s="3">
+        <f>cases!AM13/(population_2016!$B13/1000)</f>
+        <v>11.307300951166514</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -7749,8 +7893,12 @@
         <f>cases!AL14/(population_2016!$B14/1000)</f>
         <v>6.2455873567588114</v>
       </c>
+      <c r="AM14" s="3">
+        <f>cases!AM14/(population_2016!$B14/1000)</f>
+        <v>6.4085157225873024</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -7898,8 +8046,12 @@
         <f>cases!AL15/(population_2016!$B15/1000)</f>
         <v>9.0131153325883666</v>
       </c>
+      <c r="AM15" s="3">
+        <f>cases!AM15/(population_2016!$B15/1000)</f>
+        <v>9.4689172498970766</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -8047,8 +8199,12 @@
         <f>cases!AL16/(population_2016!$B16/1000)</f>
         <v>5.9740259740259738</v>
       </c>
+      <c r="AM16" s="3">
+        <f>cases!AM16/(population_2016!$B16/1000)</f>
+        <v>5.9740259740259738</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -8196,8 +8352,12 @@
         <f>cases!AL17/(population_2016!$B17/1000)</f>
         <v>17.819407840064581</v>
       </c>
+      <c r="AM17" s="3">
+        <f>cases!AM17/(population_2016!$B17/1000)</f>
+        <v>18.329890543011135</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -8345,8 +8505,12 @@
         <f>cases!AL18/(population_2016!$B18/1000)</f>
         <v>2.7722772277227725</v>
       </c>
+      <c r="AM18" s="3">
+        <f>cases!AM18/(population_2016!$B18/1000)</f>
+        <v>2.7722772277227725</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -8494,8 +8658,12 @@
         <f>cases!AL19/(population_2016!$B19/1000)</f>
         <v>9.4693233379364763</v>
       </c>
+      <c r="AM19" s="3">
+        <f>cases!AM19/(population_2016!$B19/1000)</f>
+        <v>9.7159202998619065</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -8643,8 +8811,12 @@
         <f>cases!AL20/(population_2016!$B20/1000)</f>
         <v>8.8085497202972363</v>
       </c>
+      <c r="AM20" s="3">
+        <f>cases!AM20/(population_2016!$B20/1000)</f>
+        <v>8.8920430825749346</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -8792,8 +8964,12 @@
         <f>cases!AL21/(population_2016!$B21/1000)</f>
         <v>4.2858998225031391</v>
       </c>
+      <c r="AM21" s="3">
+        <f>cases!AM21/(population_2016!$B21/1000)</f>
+        <v>4.516790048631254</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -8941,8 +9117,12 @@
         <f>cases!AL22/(population_2016!$B22/1000)</f>
         <v>5.9711538461538458</v>
       </c>
+      <c r="AM22" s="3">
+        <f>cases!AM22/(population_2016!$B22/1000)</f>
+        <v>6.0673076923076925</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -9090,8 +9270,12 @@
         <f>cases!AL23/(population_2016!$B23/1000)</f>
         <v>4.1108986615678775</v>
       </c>
+      <c r="AM23" s="3">
+        <f>cases!AM23/(population_2016!$B23/1000)</f>
+        <v>4.4295729764181004</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -9239,8 +9423,12 @@
         <f>cases!AL24/(population_2016!$B24/1000)</f>
         <v>11.25132327178363</v>
       </c>
+      <c r="AM24" s="3">
+        <f>cases!AM24/(population_2016!$B24/1000)</f>
+        <v>11.682264879195825</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -9388,8 +9576,12 @@
         <f>cases!AL25/(population_2016!$B25/1000)</f>
         <v>6.6695322014470948</v>
       </c>
+      <c r="AM25" s="3">
+        <f>cases!AM25/(population_2016!$B25/1000)</f>
+        <v>6.8629557991260119</v>
+      </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -9537,8 +9729,12 @@
         <f>cases!AL26/(population_2016!$B26/1000)</f>
         <v>3.0254134731746669</v>
       </c>
+      <c r="AM26" s="3">
+        <f>cases!AM26/(population_2016!$B26/1000)</f>
+        <v>3.227107704719645</v>
+      </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -9686,8 +9882,12 @@
         <f>cases!AL27/(population_2016!$B27/1000)</f>
         <v>6.1419840531023597</v>
       </c>
+      <c r="AM27" s="3">
+        <f>cases!AM27/(population_2016!$B27/1000)</f>
+        <v>6.3443558505686646</v>
+      </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -9835,8 +10035,12 @@
         <f>cases!AL28/(population_2016!$B28/1000)</f>
         <v>8.1476278653981229</v>
       </c>
+      <c r="AM28" s="3">
+        <f>cases!AM28/(population_2016!$B28/1000)</f>
+        <v>8.6201391992848464</v>
+      </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -9984,8 +10188,12 @@
         <f>cases!AL29/(population_2016!$B29/1000)</f>
         <v>3.2573289902280127</v>
       </c>
+      <c r="AM29" s="3">
+        <f>cases!AM29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -10133,8 +10341,12 @@
         <f>cases!AL30/(population_2016!$B30/1000)</f>
         <v>8.7522872388069253</v>
       </c>
+      <c r="AM30" s="3">
+        <f>cases!AM30/(population_2016!$B30/1000)</f>
+        <v>8.8034702051157385</v>
+      </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -10282,8 +10494,12 @@
         <f>cases!AL31/(population_2016!$B31/1000)</f>
         <v>10.198038394314521</v>
       </c>
+      <c r="AM31" s="3">
+        <f>cases!AM31/(population_2016!$B31/1000)</f>
+        <v>10.458045038928773</v>
+      </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -10431,8 +10647,12 @@
         <f>cases!AL32/(population_2016!$B32/1000)</f>
         <v>4.923180441852641</v>
       </c>
+      <c r="AM32" s="3">
+        <f>cases!AM32/(population_2016!$B32/1000)</f>
+        <v>5.1138275204665247</v>
+      </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -10580,8 +10800,12 @@
         <f>cases!AL33/(population_2016!$B33/1000)</f>
         <v>8.425267460532627</v>
       </c>
+      <c r="AM33" s="3">
+        <f>cases!AM33/(population_2016!$B33/1000)</f>
+        <v>8.6129590623761754</v>
+      </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -10728,6 +10952,10 @@
       <c r="AL34" s="3">
         <f>cases!AL34/(population_2016!$B34/1000)</f>
         <v>6.6463174478140994</v>
+      </c>
+      <c r="AM34" s="3">
+        <f>cases!AM34/(population_2016!$B34/1000)</f>
+        <v>6.8432453721937767</v>
       </c>
     </row>
   </sheetData>
@@ -10737,11 +10965,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AS52"/>
+  <dimension ref="A1:AS53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S56" sqref="S56"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AR56" sqref="AR56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13461,11 +13689,11 @@
       </c>
       <c r="B20" s="17">
         <f>mtl_newcases!C21</f>
-        <v>2955</v>
+        <v>2956</v>
       </c>
       <c r="C20" s="17">
         <f t="shared" si="0"/>
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>101</v>
@@ -13631,11 +13859,11 @@
       </c>
       <c r="B21" s="17">
         <f>mtl_newcases!C22</f>
-        <v>3304</v>
+        <v>3306</v>
       </c>
       <c r="C21" s="17">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>101</v>
@@ -13801,11 +14029,11 @@
       </c>
       <c r="B22" s="17">
         <f>mtl_newcases!C23</f>
-        <v>3647</v>
+        <v>3650</v>
       </c>
       <c r="C22" s="17">
         <f t="shared" si="0"/>
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>101</v>
@@ -13971,7 +14199,7 @@
       </c>
       <c r="B23" s="17">
         <f>mtl_newcases!C24</f>
-        <v>3907</v>
+        <v>3910</v>
       </c>
       <c r="C23" s="17">
         <f t="shared" si="0"/>
@@ -14141,11 +14369,11 @@
       </c>
       <c r="B24" s="17">
         <f>mtl_newcases!C25</f>
-        <v>4368</v>
+        <v>4372</v>
       </c>
       <c r="C24" s="17">
         <f t="shared" si="0"/>
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D24">
         <v>63</v>
@@ -14311,7 +14539,7 @@
       </c>
       <c r="B25" s="17">
         <f>mtl_newcases!C26</f>
-        <v>4791</v>
+        <v>4795</v>
       </c>
       <c r="C25" s="17">
         <f t="shared" si="0"/>
@@ -14482,7 +14710,7 @@
       </c>
       <c r="B26" s="17">
         <f>mtl_newcases!C27</f>
-        <v>5169</v>
+        <v>5173</v>
       </c>
       <c r="C26" s="17">
         <f t="shared" si="0"/>
@@ -14653,7 +14881,7 @@
       </c>
       <c r="B27" s="17">
         <f>mtl_newcases!C28</f>
-        <v>5522</v>
+        <v>5526</v>
       </c>
       <c r="C27" s="17">
         <f t="shared" si="0"/>
@@ -14824,7 +15052,7 @@
       </c>
       <c r="B28" s="17">
         <f>mtl_newcases!C29</f>
-        <v>5832</v>
+        <v>5836</v>
       </c>
       <c r="C28" s="17">
         <f t="shared" si="0"/>
@@ -14995,7 +15223,7 @@
       </c>
       <c r="B29" s="17">
         <f>mtl_newcases!C30</f>
-        <v>6094</v>
+        <v>6098</v>
       </c>
       <c r="C29" s="17">
         <f t="shared" si="0"/>
@@ -15166,7 +15394,7 @@
       </c>
       <c r="B30" s="17">
         <f>mtl_newcases!C31</f>
-        <v>6433</v>
+        <v>6437</v>
       </c>
       <c r="C30" s="17">
         <f t="shared" si="0"/>
@@ -15337,7 +15565,7 @@
       </c>
       <c r="B31" s="17">
         <f>mtl_newcases!C32</f>
-        <v>6973</v>
+        <v>6977</v>
       </c>
       <c r="C31" s="17">
         <f t="shared" si="0"/>
@@ -15508,11 +15736,11 @@
       </c>
       <c r="B32" s="17">
         <f>mtl_newcases!C33</f>
-        <v>7453</v>
+        <v>7455</v>
       </c>
       <c r="C32" s="17">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D32">
         <v>242</v>
@@ -15679,11 +15907,11 @@
       </c>
       <c r="B33" s="17">
         <f>mtl_newcases!C34</f>
-        <v>8091</v>
+        <v>8092</v>
       </c>
       <c r="C33" s="17">
         <f t="shared" si="0"/>
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D33">
         <v>332</v>
@@ -15850,11 +16078,11 @@
       </c>
       <c r="B34" s="17">
         <f>mtl_newcases!C35</f>
-        <v>8589</v>
+        <v>8591</v>
       </c>
       <c r="C34" s="17">
         <f t="shared" si="0"/>
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D34">
         <v>391</v>
@@ -16021,11 +16249,11 @@
       </c>
       <c r="B35" s="17">
         <f>mtl_newcases!C36</f>
-        <v>9168</v>
+        <v>9169</v>
       </c>
       <c r="C35" s="17">
         <f t="shared" si="0"/>
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D35">
         <v>454</v>
@@ -16192,7 +16420,7 @@
       </c>
       <c r="B36" s="17">
         <f>mtl_newcases!C37</f>
-        <v>9493</v>
+        <v>9494</v>
       </c>
       <c r="C36" s="17">
         <f t="shared" si="0"/>
@@ -16367,7 +16595,7 @@
       </c>
       <c r="C37" s="17">
         <f t="shared" si="0"/>
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D37">
         <v>525</v>
@@ -16503,11 +16731,11 @@
       </c>
       <c r="B38" s="17">
         <f>mtl_newcases!C39</f>
-        <v>10440</v>
+        <v>10438</v>
       </c>
       <c r="C38" s="17">
         <f t="shared" si="0"/>
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D38">
         <v>583</v>
@@ -16674,11 +16902,11 @@
       </c>
       <c r="B39" s="17">
         <f>mtl_newcases!C40</f>
-        <v>10925</v>
+        <v>10922</v>
       </c>
       <c r="C39" s="17">
         <f t="shared" si="0"/>
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D39">
         <v>647</v>
@@ -16845,11 +17073,11 @@
       </c>
       <c r="B40" s="17">
         <f>mtl_newcases!C41</f>
-        <v>11490</v>
+        <v>11483</v>
       </c>
       <c r="C40" s="17">
         <f t="shared" si="0"/>
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D40">
         <v>741</v>
@@ -17016,11 +17244,11 @@
       </c>
       <c r="B41" s="17">
         <f>mtl_newcases!C42</f>
-        <v>12057</v>
+        <v>12045</v>
       </c>
       <c r="C41" s="17">
         <f t="shared" si="0"/>
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D41">
         <v>808</v>
@@ -17187,11 +17415,11 @@
       </c>
       <c r="B42" s="17">
         <f>mtl_newcases!C43</f>
-        <v>12589</v>
+        <v>12575</v>
       </c>
       <c r="C42" s="17">
         <f t="shared" si="0"/>
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D42">
         <v>895</v>
@@ -17358,11 +17586,11 @@
       </c>
       <c r="B43" s="17">
         <f>mtl_newcases!C44</f>
-        <v>12922</v>
+        <v>12906</v>
       </c>
       <c r="C43" s="17">
         <f t="shared" si="0"/>
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D43">
         <v>938</v>
@@ -17529,11 +17757,11 @@
       </c>
       <c r="B44" s="17">
         <f>mtl_newcases!C45</f>
-        <v>13252</v>
+        <v>13235</v>
       </c>
       <c r="C44" s="17">
         <f>B44-B43</f>
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D44">
         <v>983</v>
@@ -17700,11 +17928,11 @@
       </c>
       <c r="B45" s="17">
         <f>mtl_newcases!C46</f>
-        <v>13750</v>
+        <v>13732</v>
       </c>
       <c r="C45" s="17">
         <f>B45-B44</f>
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D45">
         <v>1039</v>
@@ -17871,11 +18099,11 @@
       </c>
       <c r="B46" s="17">
         <f>mtl_newcases!C47</f>
-        <v>14226</v>
+        <v>14209</v>
       </c>
       <c r="C46" s="17">
         <f t="shared" ref="C46:C47" si="438">B46-B45</f>
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D46">
         <v>1078</v>
@@ -18011,11 +18239,11 @@
       </c>
       <c r="B47" s="17">
         <f>mtl_newcases!C48</f>
-        <v>14772</v>
+        <v>14752</v>
       </c>
       <c r="C47" s="17">
         <f t="shared" si="438"/>
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D47">
         <v>1146</v>
@@ -18151,11 +18379,11 @@
       </c>
       <c r="B48" s="17">
         <f>mtl_newcases!C49</f>
-        <v>15375</v>
+        <v>15362</v>
       </c>
       <c r="C48" s="17">
         <f t="shared" ref="C48" si="439">B48-B47</f>
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="D48">
         <v>1245</v>
@@ -18322,11 +18550,11 @@
       </c>
       <c r="B49" s="17">
         <f>mtl_newcases!C50</f>
-        <v>15982</v>
+        <v>15989</v>
       </c>
       <c r="C49" s="17">
         <f t="shared" ref="C49" si="461">B49-B48</f>
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="D49">
         <v>1312</v>
@@ -18493,11 +18721,11 @@
       </c>
       <c r="B50" s="17">
         <f>mtl_newcases!C51</f>
-        <v>16402</v>
+        <v>16433</v>
       </c>
       <c r="C50" s="17">
         <f t="shared" ref="C50" si="483">B50-B49</f>
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="D50">
         <v>1365</v>
@@ -18664,11 +18892,11 @@
       </c>
       <c r="B51" s="17">
         <f>mtl_newcases!C52</f>
-        <v>16728</v>
+        <v>16781</v>
       </c>
       <c r="C51" s="17">
         <f t="shared" ref="C51" si="505">B51-B50</f>
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="D51">
         <v>1410</v>
@@ -18835,11 +19063,11 @@
       </c>
       <c r="B52" s="17">
         <f>mtl_newcases!C53</f>
-        <v>16991</v>
+        <v>17142</v>
       </c>
       <c r="C52" s="17">
         <f t="shared" ref="C52" si="527">B52-B51</f>
-        <v>263</v>
+        <v>361</v>
       </c>
       <c r="D52">
         <v>1488</v>
@@ -18998,6 +19226,177 @@
       <c r="AS52" s="3">
         <f t="shared" ref="AS52" si="548">Y52*100/SUM($P52:$Y52)</f>
         <v>45.844935329259975</v>
+      </c>
+    </row>
+    <row r="53" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A53" s="19">
+        <v>43956</v>
+      </c>
+      <c r="B53" s="17">
+        <f>mtl_newcases!C54</f>
+        <v>17442</v>
+      </c>
+      <c r="C53" s="17">
+        <f t="shared" ref="C53" si="549">B53-B52</f>
+        <v>300</v>
+      </c>
+      <c r="D53">
+        <v>1562</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ref="E53" si="550">D53-D52</f>
+        <v>74</v>
+      </c>
+      <c r="F53" cm="1">
+        <f t="array" ref="F53:O53">TRANSPOSE(santemontreal!AL$57:AL$66)</f>
+        <v>166</v>
+      </c>
+      <c r="G53">
+        <v>138</v>
+      </c>
+      <c r="H53">
+        <v>497</v>
+      </c>
+      <c r="I53">
+        <v>1845</v>
+      </c>
+      <c r="J53">
+        <v>2108</v>
+      </c>
+      <c r="K53">
+        <v>2418</v>
+      </c>
+      <c r="L53">
+        <v>2210</v>
+      </c>
+      <c r="M53">
+        <v>1547</v>
+      </c>
+      <c r="N53">
+        <v>1659</v>
+      </c>
+      <c r="O53">
+        <v>4773</v>
+      </c>
+      <c r="P53" s="18">
+        <f>F53/(age_distribution_2016!$B$2/100000)</f>
+        <v>151.26663021687625</v>
+      </c>
+      <c r="Q53" s="18">
+        <f>G53/(age_distribution_2016!$B$3/100000)</f>
+        <v>132.20290271590747</v>
+      </c>
+      <c r="R53" s="18">
+        <f>H53/(age_distribution_2016!$B$4/100000)</f>
+        <v>264.10181470361613</v>
+      </c>
+      <c r="S53" s="18">
+        <f>I53/(age_distribution_2016!$B$5/100000)</f>
+        <v>629.2096512916703</v>
+      </c>
+      <c r="T53" s="18">
+        <f>J53/(age_distribution_2016!$B$6/100000)</f>
+        <v>703.42871444064406</v>
+      </c>
+      <c r="U53" s="18">
+        <f>K53/(age_distribution_2016!$B$7/100000)</f>
+        <v>950.19157088122608</v>
+      </c>
+      <c r="V53" s="18">
+        <f>L53/(age_distribution_2016!$B$8/100000)</f>
+        <v>853.69386769676487</v>
+      </c>
+      <c r="W53" s="18">
+        <f>M53/(age_distribution_2016!$B$9/100000)</f>
+        <v>754.61574107948582</v>
+      </c>
+      <c r="X53" s="18">
+        <f>N53/(age_distribution_2016!$B$10/100000)</f>
+        <v>1279.3028994447873</v>
+      </c>
+      <c r="Y53" s="18">
+        <f>O53/(age_distribution_2016!$B$11/100000)</f>
+        <v>4830.7271899195384</v>
+      </c>
+      <c r="Z53" s="3">
+        <f t="shared" ref="Z53" si="551">F53*100/SUM($F53:$O53)</f>
+        <v>0.95616611946316454</v>
+      </c>
+      <c r="AA53" s="3">
+        <f t="shared" ref="AA53" si="552">G53*100/SUM($F53:$O53)</f>
+        <v>0.79488508726455853</v>
+      </c>
+      <c r="AB53" s="3">
+        <f t="shared" ref="AB53" si="553">H53*100/SUM($F53:$O53)</f>
+        <v>2.8627383215252578</v>
+      </c>
+      <c r="AC53" s="3">
+        <f t="shared" ref="AC53" si="554">I53*100/SUM($F53:$O53)</f>
+        <v>10.627268014515293</v>
+      </c>
+      <c r="AD53" s="3">
+        <f t="shared" ref="AD53" si="555">J53*100/SUM($F53:$O53)</f>
+        <v>12.142157709809343</v>
+      </c>
+      <c r="AE53" s="3">
+        <f t="shared" ref="AE53" si="556">K53*100/SUM($F53:$O53)</f>
+        <v>13.927769137722482</v>
+      </c>
+      <c r="AF53" s="3">
+        <f t="shared" ref="AF53" si="557">L53*100/SUM($F53:$O53)</f>
+        <v>12.729681469961408</v>
+      </c>
+      <c r="AG53" s="3">
+        <f t="shared" ref="AG53" si="558">M53*100/SUM($F53:$O53)</f>
+        <v>8.9107770289729853</v>
+      </c>
+      <c r="AH53" s="3">
+        <f t="shared" ref="AH53" si="559">N53*100/SUM($F53:$O53)</f>
+        <v>9.5559011577674102</v>
+      </c>
+      <c r="AI53" s="3">
+        <f t="shared" ref="AI53" si="560">O53*100/SUM($F53:$O53)</f>
+        <v>27.492655952998099</v>
+      </c>
+      <c r="AJ53" s="3">
+        <f t="shared" ref="AJ53" si="561">P53*100/SUM($P53:$Y53)</f>
+        <v>1.4339780497918413</v>
+      </c>
+      <c r="AK53" s="3">
+        <f t="shared" ref="AK53" si="562">Q53*100/SUM($P53:$Y53)</f>
+        <v>1.2532576440790391</v>
+      </c>
+      <c r="AL53" s="3">
+        <f t="shared" ref="AL53" si="563">R53*100/SUM($P53:$Y53)</f>
+        <v>2.5036335155493252</v>
+      </c>
+      <c r="AM53" s="3">
+        <f t="shared" ref="AM53" si="564">S53*100/SUM($P53:$Y53)</f>
+        <v>5.9647843504929927</v>
+      </c>
+      <c r="AN53" s="3">
+        <f t="shared" ref="AN53" si="565">T53*100/SUM($P53:$Y53)</f>
+        <v>6.6683665435989852</v>
+      </c>
+      <c r="AO53" s="3">
+        <f t="shared" ref="AO53" si="566">U53*100/SUM($P53:$Y53)</f>
+        <v>9.0076301282534406</v>
+      </c>
+      <c r="AP53" s="3">
+        <f t="shared" ref="AP53" si="567">V53*100/SUM($P53:$Y53)</f>
+        <v>8.0928507878037212</v>
+      </c>
+      <c r="AQ53" s="3">
+        <f t="shared" ref="AQ53" si="568">W53*100/SUM($P53:$Y53)</f>
+        <v>7.1536095382301967</v>
+      </c>
+      <c r="AR53" s="3">
+        <f t="shared" ref="AR53" si="569">X53*100/SUM($P53:$Y53)</f>
+        <v>12.127541112066215</v>
+      </c>
+      <c r="AS53" s="3">
+        <f t="shared" ref="AS53" si="570">Y53*100/SUM($P53:$Y53)</f>
+        <v>45.794348330134248</v>
       </c>
     </row>
   </sheetData>
@@ -19007,11 +19406,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19152,7 +19551,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F64" si="1">E4-E3</f>
+        <f t="shared" ref="F4:F65" si="1">E4-E3</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -19165,7 +19564,7 @@
         <v>260</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J64" si="2">I4-I3</f>
+        <f t="shared" ref="J4:J65" si="2">I4-I3</f>
         <v>18</v>
       </c>
       <c r="K4" t="s">
@@ -21194,7 +21593,7 @@
         <v>26594</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:C64" si="3">B58-B57</f>
+        <f t="shared" ref="C58:C63" si="3">B58-B57</f>
         <v>837</v>
       </c>
       <c r="D58">
@@ -21450,6 +21849,44 @@
       </c>
       <c r="K64">
         <v>7923</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B65">
+        <v>34327</v>
+      </c>
+      <c r="C65">
+        <f>B65-B64</f>
+        <v>910</v>
+      </c>
+      <c r="D65">
+        <v>23533</v>
+      </c>
+      <c r="E65">
+        <v>2510</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="G65">
+        <v>1840</v>
+      </c>
+      <c r="H65">
+        <v>213</v>
+      </c>
+      <c r="I65">
+        <v>220604</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="2"/>
+        <v>10658</v>
+      </c>
+      <c r="K65">
+        <v>8284</v>
       </c>
     </row>
   </sheetData>
@@ -21459,11 +21896,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21764,11 +22201,11 @@
         <v>43923</v>
       </c>
       <c r="B21">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>2955</v>
+        <v>2956</v>
       </c>
       <c r="E21" s="19">
         <v>43923</v>
@@ -21778,7 +22215,7 @@
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G26" si="2">C21-F21</f>
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -21786,11 +22223,11 @@
         <v>43924</v>
       </c>
       <c r="B22">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>3304</v>
+        <v>3306</v>
       </c>
       <c r="E22" s="19">
         <v>43924</v>
@@ -21800,7 +22237,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -21808,11 +22245,11 @@
         <v>43925</v>
       </c>
       <c r="B23">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3647</v>
+        <v>3650</v>
       </c>
       <c r="E23" s="19">
         <v>43925</v>
@@ -21822,7 +22259,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>-66</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -21834,7 +22271,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>3907</v>
+        <v>3910</v>
       </c>
       <c r="E24" s="19">
         <v>43926</v>
@@ -21844,7 +22281,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>-70</v>
+        <v>-67</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -21852,11 +22289,11 @@
         <v>43927</v>
       </c>
       <c r="B25">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>4368</v>
+        <v>4372</v>
       </c>
       <c r="E25" s="19">
         <v>43927</v>
@@ -21866,7 +22303,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>-39</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -21878,7 +22315,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>4791</v>
+        <v>4795</v>
       </c>
       <c r="E26" s="19">
         <v>43928</v>
@@ -21888,7 +22325,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -21900,7 +22337,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>5169</v>
+        <v>5173</v>
       </c>
       <c r="E27" s="19">
         <v>43929</v>
@@ -21910,7 +22347,7 @@
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="3">C27-F27</f>
-        <v>-93</v>
+        <v>-89</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -21922,7 +22359,7 @@
       </c>
       <c r="C28">
         <f t="shared" ref="C28:C37" si="4">C27+B28</f>
-        <v>5522</v>
+        <v>5526</v>
       </c>
       <c r="E28" s="19">
         <v>43930</v>
@@ -21932,7 +22369,7 @@
       </c>
       <c r="G28">
         <f t="shared" ref="G28:G33" si="5">C28-F28</f>
-        <v>-95</v>
+        <v>-91</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -21944,7 +22381,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
-        <v>5832</v>
+        <v>5836</v>
       </c>
       <c r="E29" s="19">
         <v>43931</v>
@@ -21954,7 +22391,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>-29</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -21966,7 +22403,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
-        <v>6094</v>
+        <v>6098</v>
       </c>
       <c r="E30" s="19">
         <v>43932</v>
@@ -21976,7 +22413,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -21988,7 +22425,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
-        <v>6433</v>
+        <v>6437</v>
       </c>
       <c r="E31" s="19">
         <v>43933</v>
@@ -21998,7 +22435,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -22010,7 +22447,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
-        <v>6973</v>
+        <v>6977</v>
       </c>
       <c r="E32" s="19">
         <v>43934</v>
@@ -22020,7 +22457,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -22028,11 +22465,11 @@
         <v>43935</v>
       </c>
       <c r="B33">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>7453</v>
+        <v>7455</v>
       </c>
       <c r="E33" s="19">
         <v>43935</v>
@@ -22042,7 +22479,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -22050,11 +22487,11 @@
         <v>43936</v>
       </c>
       <c r="B34">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>8091</v>
+        <v>8092</v>
       </c>
       <c r="E34" s="19">
         <v>43936</v>
@@ -22064,7 +22501,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G36" si="6">C34-F34</f>
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -22072,11 +22509,11 @@
         <v>43937</v>
       </c>
       <c r="B35">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>8589</v>
+        <v>8591</v>
       </c>
       <c r="E35" s="19">
         <v>43937</v>
@@ -22086,7 +22523,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -22094,11 +22531,11 @@
         <v>43938</v>
       </c>
       <c r="B36">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
-        <v>9168</v>
+        <v>9169</v>
       </c>
       <c r="E36" s="19">
         <v>43938</v>
@@ -22108,7 +22545,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -22120,7 +22557,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
-        <v>9493</v>
+        <v>9494</v>
       </c>
       <c r="E37" s="19">
         <v>43939</v>
@@ -22130,7 +22567,7 @@
       </c>
       <c r="G37">
         <f t="shared" ref="G37" si="7">C37-F37</f>
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -22138,7 +22575,7 @@
         <v>43940</v>
       </c>
       <c r="B38" s="23">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C39" si="8">C37+B38</f>
@@ -22160,11 +22597,11 @@
         <v>43941</v>
       </c>
       <c r="B39">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C39">
         <f t="shared" si="8"/>
-        <v>10440</v>
+        <v>10438</v>
       </c>
       <c r="E39" s="19">
         <v>43941</v>
@@ -22174,7 +22611,7 @@
       </c>
       <c r="G39">
         <f t="shared" ref="G39" si="10">C39-F39</f>
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -22182,11 +22619,11 @@
         <v>43942</v>
       </c>
       <c r="B40">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40" si="11">C39+B40</f>
-        <v>10925</v>
+        <v>10922</v>
       </c>
       <c r="E40" s="19">
         <v>43942</v>
@@ -22196,7 +22633,7 @@
       </c>
       <c r="G40">
         <f t="shared" ref="G40" si="12">C40-F40</f>
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -22204,11 +22641,11 @@
         <v>43943</v>
       </c>
       <c r="B41">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C41">
         <f t="shared" ref="C41:C52" si="13">C40+B41</f>
-        <v>11490</v>
+        <v>11483</v>
       </c>
       <c r="E41" s="19">
         <v>43943</v>
@@ -22218,7 +22655,7 @@
       </c>
       <c r="G41">
         <f t="shared" ref="G41" si="14">C41-F41</f>
-        <v>1115</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -22226,11 +22663,11 @@
         <v>43944</v>
       </c>
       <c r="B42" s="23">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C42">
         <f t="shared" si="13"/>
-        <v>12057</v>
+        <v>12045</v>
       </c>
       <c r="E42" s="19">
         <v>43944</v>
@@ -22240,7 +22677,7 @@
       </c>
       <c r="G42">
         <f t="shared" ref="G42:G44" si="15">C42-F42</f>
-        <v>1160</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -22248,11 +22685,11 @@
         <v>43945</v>
       </c>
       <c r="B43" s="23">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C43">
         <f t="shared" si="13"/>
-        <v>12589</v>
+        <v>12575</v>
       </c>
       <c r="E43" s="19">
         <v>43945</v>
@@ -22262,7 +22699,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="15"/>
-        <v>1428</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -22270,11 +22707,11 @@
         <v>43946</v>
       </c>
       <c r="B44" s="23">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C44">
         <f t="shared" si="13"/>
-        <v>12922</v>
+        <v>12906</v>
       </c>
       <c r="E44" s="19">
         <v>43946</v>
@@ -22284,7 +22721,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="15"/>
-        <v>1301</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -22292,11 +22729,11 @@
         <v>43947</v>
       </c>
       <c r="B45" s="23">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C45">
         <f t="shared" si="13"/>
-        <v>13252</v>
+        <v>13235</v>
       </c>
       <c r="E45" s="19">
         <v>43947</v>
@@ -22306,7 +22743,7 @@
       </c>
       <c r="G45">
         <f>C45-F45</f>
-        <v>1218</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -22314,11 +22751,11 @@
         <v>43948</v>
       </c>
       <c r="B46" s="23">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C46">
         <f t="shared" si="13"/>
-        <v>13750</v>
+        <v>13732</v>
       </c>
       <c r="E46" s="19">
         <v>43948</v>
@@ -22328,7 +22765,7 @@
       </c>
       <c r="G46">
         <f>C46-F46</f>
-        <v>1263</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -22336,11 +22773,11 @@
         <v>43949</v>
       </c>
       <c r="B47" s="23">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C47">
         <f t="shared" si="13"/>
-        <v>14226</v>
+        <v>14209</v>
       </c>
       <c r="E47" s="19">
         <v>43949</v>
@@ -22350,7 +22787,7 @@
       </c>
       <c r="G47">
         <f t="shared" ref="G47:G52" si="16">C47-F47</f>
-        <v>1415</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -22358,11 +22795,11 @@
         <v>43950</v>
       </c>
       <c r="B48" s="23">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C48">
         <f t="shared" si="13"/>
-        <v>14772</v>
+        <v>14752</v>
       </c>
       <c r="E48" s="19">
         <v>43950</v>
@@ -22372,7 +22809,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="16"/>
-        <v>1448</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -22380,11 +22817,11 @@
         <v>43951</v>
       </c>
       <c r="B49" s="23">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="C49">
         <f t="shared" si="13"/>
-        <v>15375</v>
+        <v>15362</v>
       </c>
       <c r="E49" s="19">
         <v>43951</v>
@@ -22394,7 +22831,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="16"/>
-        <v>1396</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -22402,11 +22839,11 @@
         <v>43952</v>
       </c>
       <c r="B50" s="23">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="C50">
         <f t="shared" si="13"/>
-        <v>15982</v>
+        <v>15989</v>
       </c>
       <c r="E50" s="19">
         <v>43952</v>
@@ -22416,7 +22853,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="16"/>
-        <v>1383</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -22424,11 +22861,11 @@
         <v>43953</v>
       </c>
       <c r="B51" s="23">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="C51">
         <f t="shared" si="13"/>
-        <v>16402</v>
+        <v>16433</v>
       </c>
       <c r="E51" s="19">
         <v>43953</v>
@@ -22438,7 +22875,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="16"/>
-        <v>151</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -22446,11 +22883,11 @@
         <v>43954</v>
       </c>
       <c r="B52" s="23">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="C52">
         <f t="shared" si="13"/>
-        <v>16728</v>
+        <v>16781</v>
       </c>
       <c r="E52" s="19">
         <v>43954</v>
@@ -22460,19 +22897,19 @@
       </c>
       <c r="G52">
         <f t="shared" si="16"/>
-        <v>122</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="19">
         <v>43955</v>
       </c>
-      <c r="B53" s="24">
-        <v>263</v>
+      <c r="B53" s="23">
+        <v>361</v>
       </c>
       <c r="C53">
         <f t="shared" ref="C53" si="17">C52+B53</f>
-        <v>16991</v>
+        <v>17142</v>
       </c>
       <c r="E53" s="19">
         <v>43955</v>
@@ -22482,6 +22919,28 @@
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="18">C53-F53</f>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="19">
+        <v>43956</v>
+      </c>
+      <c r="B54" s="24">
+        <v>300</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ref="C54" si="19">C53+B54</f>
+        <v>17442</v>
+      </c>
+      <c r="E54" s="19">
+        <v>43956</v>
+      </c>
+      <c r="F54">
+        <v>17442</v>
+      </c>
+      <c r="G54">
+        <f t="shared" ref="G54" si="20">C54-F54</f>
         <v>0</v>
       </c>
     </row>
@@ -22495,9 +22954,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH119"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK2" sqref="AK2:AK35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL2" sqref="AL2:AL35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22618,9 +23077,11 @@
         <v>299</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="AL1" s="5"/>
+        <v>302</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="AM1" s="5"/>
       <c r="AN1" s="5"/>
       <c r="AO1" s="5"/>
@@ -22912,7 +23373,9 @@
       <c r="AK2" s="7">
         <v>1351</v>
       </c>
-      <c r="AL2" s="7"/>
+      <c r="AL2" s="7">
+        <v>1392</v>
+      </c>
       <c r="AM2" s="7"/>
       <c r="AN2" s="7"/>
       <c r="AO2" s="7"/>
@@ -23204,7 +23667,9 @@
       <c r="AK3" s="9">
         <v>363</v>
       </c>
-      <c r="AL3" s="9"/>
+      <c r="AL3" s="9">
+        <v>379</v>
+      </c>
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
       <c r="AO3" s="9"/>
@@ -23496,7 +23961,9 @@
       <c r="AK4" s="7">
         <v>9</v>
       </c>
-      <c r="AL4" s="7"/>
+      <c r="AL4" s="7">
+        <v>10</v>
+      </c>
       <c r="AM4" s="7"/>
       <c r="AN4" s="7"/>
       <c r="AO4" s="7"/>
@@ -23788,7 +24255,9 @@
       <c r="AK5" s="9">
         <v>42</v>
       </c>
-      <c r="AL5" s="9"/>
+      <c r="AL5" s="9">
+        <v>45</v>
+      </c>
       <c r="AM5" s="9"/>
       <c r="AN5" s="9"/>
       <c r="AO5" s="9"/>
@@ -24080,7 +24549,9 @@
       <c r="AK6" s="7">
         <v>1427</v>
       </c>
-      <c r="AL6" s="7"/>
+      <c r="AL6" s="7">
+        <v>1448</v>
+      </c>
       <c r="AM6" s="7"/>
       <c r="AN6" s="7"/>
       <c r="AO6" s="7"/>
@@ -24372,7 +24843,9 @@
       <c r="AK7" s="9">
         <v>386</v>
       </c>
-      <c r="AL7" s="9"/>
+      <c r="AL7" s="9">
+        <v>388</v>
+      </c>
       <c r="AM7" s="9"/>
       <c r="AN7" s="9"/>
       <c r="AO7" s="9"/>
@@ -24664,7 +25137,9 @@
       <c r="AK8" s="7">
         <v>268</v>
       </c>
-      <c r="AL8" s="7"/>
+      <c r="AL8" s="7">
+        <v>270</v>
+      </c>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
       <c r="AO8" s="7"/>
@@ -24956,7 +25431,9 @@
       <c r="AK9" s="9">
         <v>136</v>
       </c>
-      <c r="AL9" s="9"/>
+      <c r="AL9" s="9">
+        <v>137</v>
+      </c>
       <c r="AM9" s="9"/>
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
@@ -25248,7 +25725,9 @@
       <c r="AK10" s="7">
         <v>41</v>
       </c>
-      <c r="AL10" s="7"/>
+      <c r="AL10" s="7">
+        <v>42</v>
+      </c>
       <c r="AM10" s="7"/>
       <c r="AN10" s="7"/>
       <c r="AO10" s="7"/>
@@ -25540,7 +26019,9 @@
       <c r="AK11" s="9">
         <v>72</v>
       </c>
-      <c r="AL11" s="9"/>
+      <c r="AL11" s="9">
+        <v>75</v>
+      </c>
       <c r="AM11" s="9"/>
       <c r="AN11" s="9"/>
       <c r="AO11" s="9"/>
@@ -25832,7 +26313,9 @@
       <c r="AK12" s="7">
         <v>343</v>
       </c>
-      <c r="AL12" s="7"/>
+      <c r="AL12" s="7">
+        <v>354</v>
+      </c>
       <c r="AM12" s="7"/>
       <c r="AN12" s="7"/>
       <c r="AO12" s="7"/>
@@ -26124,7 +26607,9 @@
       <c r="AK13" s="9">
         <v>852</v>
       </c>
-      <c r="AL13" s="9"/>
+      <c r="AL13" s="9">
+        <v>869</v>
+      </c>
       <c r="AM13" s="9"/>
       <c r="AN13" s="9"/>
       <c r="AO13" s="9"/>
@@ -26416,7 +26901,9 @@
       <c r="AK14" s="7">
         <v>115</v>
       </c>
-      <c r="AL14" s="7"/>
+      <c r="AL14" s="7">
+        <v>118</v>
+      </c>
       <c r="AM14" s="7"/>
       <c r="AN14" s="7"/>
       <c r="AO14" s="7"/>
@@ -26708,7 +27195,9 @@
       <c r="AK15" s="9">
         <v>1226</v>
       </c>
-      <c r="AL15" s="9"/>
+      <c r="AL15" s="9">
+        <v>1288</v>
+      </c>
       <c r="AM15" s="9"/>
       <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
@@ -27000,7 +27489,9 @@
       <c r="AK16" s="7">
         <v>23</v>
       </c>
-      <c r="AL16" s="7"/>
+      <c r="AL16" s="7">
+        <v>23</v>
+      </c>
       <c r="AM16" s="7"/>
       <c r="AN16" s="7"/>
       <c r="AO16" s="7"/>
@@ -27292,7 +27783,9 @@
       <c r="AK17" s="9">
         <v>1501</v>
       </c>
-      <c r="AL17" s="9"/>
+      <c r="AL17" s="9">
+        <v>1544</v>
+      </c>
       <c r="AM17" s="9"/>
       <c r="AN17" s="9"/>
       <c r="AO17" s="9"/>
@@ -27584,7 +28077,9 @@
       <c r="AK18" s="7">
         <v>14</v>
       </c>
-      <c r="AL18" s="7"/>
+      <c r="AL18" s="7">
+        <v>14</v>
+      </c>
       <c r="AM18" s="7"/>
       <c r="AN18" s="7"/>
       <c r="AO18" s="7"/>
@@ -27876,7 +28371,9 @@
       <c r="AK19" s="9">
         <v>192</v>
       </c>
-      <c r="AL19" s="9"/>
+      <c r="AL19" s="9">
+        <v>197</v>
+      </c>
       <c r="AM19" s="9"/>
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
@@ -28168,7 +28665,9 @@
       <c r="AK20" s="7">
         <v>211</v>
       </c>
-      <c r="AL20" s="7"/>
+      <c r="AL20" s="7">
+        <v>213</v>
+      </c>
       <c r="AM20" s="7"/>
       <c r="AN20" s="7"/>
       <c r="AO20" s="7"/>
@@ -28460,7 +28959,9 @@
       <c r="AK21" s="9">
         <v>297</v>
       </c>
-      <c r="AL21" s="9"/>
+      <c r="AL21" s="9">
+        <v>313</v>
+      </c>
       <c r="AM21" s="9"/>
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
@@ -28752,7 +29253,9 @@
       <c r="AK22" s="7">
         <v>621</v>
       </c>
-      <c r="AL22" s="7"/>
+      <c r="AL22" s="7">
+        <v>631</v>
+      </c>
       <c r="AM22" s="7"/>
       <c r="AN22" s="7"/>
       <c r="AO22" s="7"/>
@@ -29044,7 +29547,9 @@
       <c r="AK23" s="9">
         <v>129</v>
       </c>
-      <c r="AL23" s="9"/>
+      <c r="AL23" s="9">
+        <v>139</v>
+      </c>
       <c r="AM23" s="9"/>
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
@@ -29336,7 +29841,9 @@
       <c r="AK24" s="7">
         <v>1201</v>
       </c>
-      <c r="AL24" s="7"/>
+      <c r="AL24" s="7">
+        <v>1247</v>
+      </c>
       <c r="AM24" s="7"/>
       <c r="AN24" s="7"/>
       <c r="AO24" s="7"/>
@@ -29628,7 +30135,9 @@
       <c r="AK25" s="9">
         <v>931</v>
       </c>
-      <c r="AL25" s="9"/>
+      <c r="AL25" s="9">
+        <v>958</v>
+      </c>
       <c r="AM25" s="9"/>
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
@@ -29920,7 +30429,9 @@
       <c r="AK26" s="7">
         <v>15</v>
       </c>
-      <c r="AL26" s="7"/>
+      <c r="AL26" s="7">
+        <v>16</v>
+      </c>
       <c r="AM26" s="7"/>
       <c r="AN26" s="7"/>
       <c r="AO26" s="7"/>
@@ -30212,7 +30723,9 @@
       <c r="AK27" s="9">
         <v>607</v>
       </c>
-      <c r="AL27" s="9"/>
+      <c r="AL27" s="9">
+        <v>627</v>
+      </c>
       <c r="AM27" s="9"/>
       <c r="AN27" s="9"/>
       <c r="AO27" s="9"/>
@@ -30504,7 +31017,9 @@
       <c r="AK28" s="7">
         <v>638</v>
       </c>
-      <c r="AL28" s="7"/>
+      <c r="AL28" s="7">
+        <v>675</v>
+      </c>
       <c r="AM28" s="7"/>
       <c r="AN28" s="7"/>
       <c r="AO28" s="7"/>
@@ -30791,12 +31306,14 @@
         <v>2</v>
       </c>
       <c r="AJ29" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK29" s="20">
-        <v>3</v>
-      </c>
-      <c r="AL29" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="AL29" s="20">
+        <v>2</v>
+      </c>
       <c r="AM29" s="22"/>
       <c r="AN29" s="22"/>
       <c r="AO29" s="22"/>
@@ -31088,7 +31605,9 @@
       <c r="AK30" s="7">
         <v>684</v>
       </c>
-      <c r="AL30" s="7"/>
+      <c r="AL30" s="7">
+        <v>688</v>
+      </c>
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
       <c r="AO30" s="7"/>
@@ -31380,7 +31899,9 @@
       <c r="AK31" s="9">
         <v>706</v>
       </c>
-      <c r="AL31" s="9"/>
+      <c r="AL31" s="9">
+        <v>724</v>
+      </c>
       <c r="AM31" s="9"/>
       <c r="AN31" s="9"/>
       <c r="AO31" s="9"/>
@@ -31672,7 +32193,9 @@
       <c r="AK32" s="7">
         <v>439</v>
       </c>
-      <c r="AL32" s="7"/>
+      <c r="AL32" s="7">
+        <v>456</v>
+      </c>
       <c r="AM32" s="7"/>
       <c r="AN32" s="7"/>
       <c r="AO32" s="7"/>
@@ -31964,7 +32487,9 @@
       <c r="AK33" s="9">
         <v>1212</v>
       </c>
-      <c r="AL33" s="9"/>
+      <c r="AL33" s="9">
+        <v>1239</v>
+      </c>
       <c r="AM33" s="9"/>
       <c r="AN33" s="9"/>
       <c r="AO33" s="9"/>
@@ -32256,7 +32781,9 @@
       <c r="AK34" s="7">
         <v>135</v>
       </c>
-      <c r="AL34" s="7"/>
+      <c r="AL34" s="7">
+        <v>139</v>
+      </c>
       <c r="AM34" s="7"/>
       <c r="AN34" s="7"/>
       <c r="AO34" s="7"/>
@@ -32548,7 +33075,9 @@
       <c r="AK35" s="9">
         <v>783</v>
       </c>
-      <c r="AL35" s="9"/>
+      <c r="AL35" s="9">
+        <v>783</v>
+      </c>
       <c r="AM35" s="9"/>
       <c r="AN35" s="9"/>
       <c r="AO35" s="9"/>
@@ -32840,7 +33369,9 @@
       <c r="AK36" s="11">
         <v>16991</v>
       </c>
-      <c r="AL36" s="11"/>
+      <c r="AL36" s="11">
+        <v>17442</v>
+      </c>
       <c r="AM36" s="11"/>
       <c r="AN36" s="11"/>
       <c r="AO36" s="11"/>
@@ -37287,7 +37818,9 @@
       <c r="AK57" s="7">
         <v>162</v>
       </c>
-      <c r="AL57" s="7"/>
+      <c r="AL57" s="7">
+        <v>166</v>
+      </c>
       <c r="AM57" s="7"/>
       <c r="AN57" s="7"/>
       <c r="AO57" s="7"/>
@@ -37577,7 +38110,9 @@
       <c r="AK58" s="9">
         <v>133</v>
       </c>
-      <c r="AL58" s="9"/>
+      <c r="AL58" s="9">
+        <v>138</v>
+      </c>
       <c r="AM58" s="9"/>
       <c r="AN58" s="9"/>
       <c r="AO58" s="9"/>
@@ -37867,7 +38402,9 @@
       <c r="AK59" s="7">
         <v>481</v>
       </c>
-      <c r="AL59" s="7"/>
+      <c r="AL59" s="7">
+        <v>497</v>
+      </c>
       <c r="AM59" s="7"/>
       <c r="AN59" s="7"/>
       <c r="AO59" s="7"/>
@@ -38157,7 +38694,9 @@
       <c r="AK60" s="9">
         <v>1784</v>
       </c>
-      <c r="AL60" s="9"/>
+      <c r="AL60" s="9">
+        <v>1845</v>
+      </c>
       <c r="AM60" s="9"/>
       <c r="AN60" s="9"/>
       <c r="AO60" s="9"/>
@@ -38447,7 +38986,9 @@
       <c r="AK61" s="7">
         <v>2055</v>
       </c>
-      <c r="AL61" s="7"/>
+      <c r="AL61" s="7">
+        <v>2108</v>
+      </c>
       <c r="AM61" s="7"/>
       <c r="AN61" s="7"/>
       <c r="AO61" s="7"/>
@@ -38737,7 +39278,9 @@
       <c r="AK62" s="9">
         <v>2364</v>
       </c>
-      <c r="AL62" s="9"/>
+      <c r="AL62" s="9">
+        <v>2418</v>
+      </c>
       <c r="AM62" s="9"/>
       <c r="AN62" s="9"/>
       <c r="AO62" s="9"/>
@@ -39027,7 +39570,9 @@
       <c r="AK63" s="7">
         <v>2159</v>
       </c>
-      <c r="AL63" s="7"/>
+      <c r="AL63" s="7">
+        <v>2210</v>
+      </c>
       <c r="AM63" s="7"/>
       <c r="AN63" s="7"/>
       <c r="AO63" s="7"/>
@@ -39317,7 +39862,9 @@
       <c r="AK64" s="9">
         <v>1501</v>
       </c>
-      <c r="AL64" s="9"/>
+      <c r="AL64" s="9">
+        <v>1547</v>
+      </c>
       <c r="AM64" s="9"/>
       <c r="AN64" s="9"/>
       <c r="AO64" s="9"/>
@@ -39607,7 +40154,9 @@
       <c r="AK65" s="7">
         <v>1615</v>
       </c>
-      <c r="AL65" s="7"/>
+      <c r="AL65" s="7">
+        <v>1659</v>
+      </c>
       <c r="AM65" s="7"/>
       <c r="AN65" s="7"/>
       <c r="AO65" s="7"/>
@@ -39897,7 +40446,9 @@
       <c r="AK66" s="9">
         <v>4655</v>
       </c>
-      <c r="AL66" s="9"/>
+      <c r="AL66" s="9">
+        <v>4773</v>
+      </c>
       <c r="AM66" s="9"/>
       <c r="AN66" s="9"/>
       <c r="AO66" s="9"/>
@@ -40187,7 +40738,9 @@
       <c r="AK67" s="7">
         <v>82</v>
       </c>
-      <c r="AL67" s="7"/>
+      <c r="AL67" s="7">
+        <v>81</v>
+      </c>
       <c r="AM67" s="7"/>
       <c r="AN67" s="7"/>
       <c r="AO67" s="7"/>
@@ -40477,7 +41030,9 @@
       <c r="AK68" s="15">
         <v>16991</v>
       </c>
-      <c r="AL68" s="15"/>
+      <c r="AL68" s="15">
+        <v>17442</v>
+      </c>
       <c r="AM68" s="15"/>
       <c r="AN68" s="15"/>
       <c r="AO68" s="15"/>
@@ -40988,10 +41543,225 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="71" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:216" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="5"/>
+      <c r="AG71" s="5"/>
+      <c r="AH71" s="5"/>
+      <c r="AI71" s="5"/>
+      <c r="AJ71" s="5"/>
+      <c r="AK71" s="5"/>
+      <c r="AL71" s="5"/>
+      <c r="AM71" s="5"/>
+      <c r="AN71" s="5"/>
+      <c r="AO71" s="5"/>
+      <c r="AP71" s="5"/>
+      <c r="AQ71" s="5"/>
+      <c r="AR71" s="5"/>
+      <c r="AS71" s="5"/>
+      <c r="AT71" s="5"/>
+      <c r="AU71" s="5"/>
+      <c r="AV71" s="5"/>
+      <c r="AW71" s="5"/>
+      <c r="AX71" s="5"/>
+      <c r="AY71" s="5"/>
+      <c r="AZ71" s="5"/>
+      <c r="BA71" s="5"/>
+      <c r="BB71" s="5"/>
+      <c r="BC71" s="5"/>
+      <c r="BD71" s="5"/>
+      <c r="BE71" s="5"/>
+      <c r="BF71" s="5"/>
+      <c r="BG71" s="5"/>
+      <c r="BH71" s="5"/>
+      <c r="BI71" s="5"/>
+      <c r="BJ71" s="5"/>
+      <c r="BK71" s="5"/>
+      <c r="BL71" s="5"/>
+      <c r="BM71" s="5"/>
+      <c r="BN71" s="5"/>
+      <c r="BO71" s="5"/>
+      <c r="BP71" s="5"/>
+      <c r="BQ71" s="5"/>
+      <c r="BR71" s="5"/>
+      <c r="BS71" s="5"/>
+      <c r="BT71" s="5"/>
+      <c r="BU71" s="5"/>
+      <c r="BV71" s="5"/>
+      <c r="BW71" s="5"/>
+      <c r="BX71" s="5"/>
+      <c r="BY71" s="5"/>
+      <c r="BZ71" s="5"/>
+      <c r="CA71" s="5"/>
+      <c r="CB71" s="5"/>
+      <c r="CC71" s="5"/>
+      <c r="CD71" s="5"/>
+      <c r="CE71" s="5"/>
+      <c r="CF71" s="5"/>
+      <c r="CG71" s="5"/>
+      <c r="CH71" s="5"/>
+      <c r="CI71" s="5"/>
+      <c r="CJ71" s="5"/>
+      <c r="CK71" s="5"/>
+      <c r="CL71" s="5"/>
+      <c r="CM71" s="5"/>
+      <c r="CN71" s="5"/>
+      <c r="CO71" s="5"/>
+      <c r="CP71" s="5"/>
+      <c r="CQ71" s="5"/>
+      <c r="CR71" s="5"/>
+      <c r="CS71" s="5"/>
+      <c r="CT71" s="5"/>
+      <c r="CU71" s="5"/>
+      <c r="CV71" s="5"/>
+      <c r="CW71" s="5"/>
+      <c r="CX71" s="5"/>
+      <c r="CY71" s="5"/>
+      <c r="CZ71" s="5"/>
+      <c r="DA71" s="5"/>
+      <c r="DB71" s="5"/>
+      <c r="DC71" s="5"/>
+      <c r="DD71" s="5"/>
+      <c r="DE71" s="5"/>
+      <c r="DF71" s="5"/>
+      <c r="DG71" s="5"/>
+      <c r="DH71" s="5"/>
+      <c r="DI71" s="5"/>
+      <c r="DJ71" s="5"/>
+      <c r="DK71" s="5"/>
+      <c r="DL71" s="5"/>
+      <c r="DM71" s="5"/>
+      <c r="DN71" s="5"/>
+      <c r="DO71" s="5"/>
+      <c r="DP71" s="5"/>
+      <c r="DQ71" s="5"/>
+      <c r="DR71" s="5"/>
+      <c r="DS71" s="5"/>
+      <c r="DT71" s="5"/>
+      <c r="DU71" s="5"/>
+      <c r="DV71" s="5"/>
+      <c r="DW71" s="5"/>
+      <c r="DX71" s="5"/>
+      <c r="DY71" s="5"/>
+      <c r="DZ71" s="5"/>
+      <c r="EA71" s="5"/>
+      <c r="EB71" s="5"/>
+      <c r="EC71" s="5"/>
+      <c r="ED71" s="5"/>
+      <c r="EE71" s="5"/>
+      <c r="EF71" s="5"/>
+      <c r="EG71" s="5"/>
+      <c r="EH71" s="5"/>
+      <c r="EI71" s="5"/>
+      <c r="EJ71" s="5"/>
+      <c r="EK71" s="5"/>
+      <c r="EL71" s="5"/>
+      <c r="EM71" s="5"/>
+      <c r="EN71" s="5"/>
+      <c r="EO71" s="5"/>
+      <c r="EP71" s="5"/>
+      <c r="EQ71" s="5"/>
+      <c r="ER71" s="5"/>
+      <c r="ES71" s="5"/>
+      <c r="ET71" s="5"/>
+      <c r="EU71" s="5"/>
+      <c r="EV71" s="5"/>
+      <c r="EW71" s="5"/>
+      <c r="EX71" s="5"/>
+      <c r="EY71" s="5"/>
+      <c r="EZ71" s="5"/>
+      <c r="FA71" s="5"/>
+      <c r="FB71" s="5"/>
+      <c r="FC71" s="5"/>
+      <c r="FD71" s="5"/>
+      <c r="FE71" s="5"/>
+      <c r="FF71" s="5"/>
+      <c r="FG71" s="5"/>
+      <c r="FH71" s="5"/>
+      <c r="FI71" s="5"/>
+      <c r="FJ71" s="5"/>
+      <c r="FK71" s="5"/>
+      <c r="FL71" s="5"/>
+      <c r="FM71" s="5"/>
+      <c r="FN71" s="5"/>
+      <c r="FO71" s="5"/>
+      <c r="FP71" s="5"/>
+      <c r="FQ71" s="5"/>
+      <c r="FR71" s="5"/>
+      <c r="FS71" s="5"/>
+      <c r="FT71" s="5"/>
+      <c r="FU71" s="5"/>
+      <c r="FV71" s="5"/>
+      <c r="FW71" s="5"/>
+      <c r="FX71" s="5"/>
+      <c r="FY71" s="5"/>
+      <c r="FZ71" s="5"/>
+      <c r="GA71" s="5"/>
+      <c r="GB71" s="5"/>
+      <c r="GC71" s="5"/>
+      <c r="GD71" s="5"/>
+      <c r="GE71" s="5"/>
+      <c r="GF71" s="5"/>
+      <c r="GG71" s="5"/>
+      <c r="GH71" s="5"/>
+      <c r="GI71" s="5"/>
+      <c r="GJ71" s="5"/>
+      <c r="GK71" s="5"/>
+      <c r="GL71" s="5"/>
+      <c r="GM71" s="5"/>
+      <c r="GN71" s="5"/>
+      <c r="GO71" s="5"/>
+      <c r="GP71" s="5"/>
+      <c r="GQ71" s="5"/>
+      <c r="GR71" s="5"/>
+      <c r="GS71" s="5"/>
+      <c r="GT71" s="5"/>
+      <c r="GU71" s="5"/>
+      <c r="GV71" s="5"/>
+      <c r="GW71" s="5"/>
+      <c r="GX71" s="5"/>
+      <c r="GY71" s="5"/>
+      <c r="GZ71" s="5"/>
+      <c r="HA71" s="5"/>
+      <c r="HB71" s="5"/>
+      <c r="HC71" s="5"/>
+      <c r="HD71" s="5"/>
+      <c r="HE71" s="5"/>
+      <c r="HF71" s="5"/>
+      <c r="HG71" s="5"/>
+      <c r="HH71" s="5"/>
     </row>
     <row r="72" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="6" t="s">
@@ -41006,6 +41776,9 @@
       <c r="AK72">
         <v>186</v>
       </c>
+      <c r="AL72">
+        <v>191</v>
+      </c>
     </row>
     <row r="73" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="8" t="s">
@@ -41020,6 +41793,9 @@
       <c r="AK73">
         <v>16</v>
       </c>
+      <c r="AL73">
+        <v>17</v>
+      </c>
     </row>
     <row r="74" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="6" t="s">
@@ -41034,19 +41810,25 @@
       <c r="AK74">
         <v>0</v>
       </c>
+      <c r="AL74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="8" t="s">
         <v>40</v>
       </c>
       <c r="AI75" s="24" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="AJ75" s="24" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="AK75" s="24">
         <v>2</v>
+      </c>
+      <c r="AL75">
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -41062,6 +41844,9 @@
       <c r="AK76">
         <v>142</v>
       </c>
+      <c r="AL76">
+        <v>144</v>
+      </c>
     </row>
     <row r="77" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="8" t="s">
@@ -41076,6 +41861,9 @@
       <c r="AK77">
         <v>15</v>
       </c>
+      <c r="AL77">
+        <v>15</v>
+      </c>
     </row>
     <row r="78" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="6" t="s">
@@ -41090,6 +41878,9 @@
       <c r="AK78">
         <v>16</v>
       </c>
+      <c r="AL78">
+        <v>18</v>
+      </c>
     </row>
     <row r="79" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="8" t="s">
@@ -41104,6 +41895,9 @@
       <c r="AK79">
         <v>26</v>
       </c>
+      <c r="AL79">
+        <v>26</v>
+      </c>
     </row>
     <row r="80" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="6" t="s">
@@ -41113,13 +41907,16 @@
         <v>0</v>
       </c>
       <c r="AJ80" s="24" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="AK80">
         <v>0</v>
       </c>
+      <c r="AL80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="8" t="s">
         <v>46</v>
       </c>
@@ -41132,8 +41929,11 @@
       <c r="AK81">
         <v>8</v>
       </c>
+      <c r="AL81">
+        <v>8</v>
+      </c>
     </row>
-    <row r="82" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="6" t="s">
         <v>47</v>
       </c>
@@ -41146,8 +41946,11 @@
       <c r="AK82">
         <v>23</v>
       </c>
+      <c r="AL82">
+        <v>24</v>
+      </c>
     </row>
-    <row r="83" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="8" t="s">
         <v>48</v>
       </c>
@@ -41160,8 +41963,11 @@
       <c r="AK83">
         <v>92</v>
       </c>
+      <c r="AL83">
+        <v>94</v>
+      </c>
     </row>
-    <row r="84" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
         <v>49</v>
       </c>
@@ -41174,8 +41980,11 @@
       <c r="AK84">
         <v>14</v>
       </c>
+      <c r="AL84">
+        <v>15</v>
+      </c>
     </row>
-    <row r="85" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="8" t="s">
         <v>50</v>
       </c>
@@ -41188,8 +41997,11 @@
       <c r="AK85">
         <v>140</v>
       </c>
+      <c r="AL85">
+        <v>153</v>
+      </c>
     </row>
-    <row r="86" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
         <v>51</v>
       </c>
@@ -41197,13 +42009,16 @@
         <v>0</v>
       </c>
       <c r="AJ86" s="24" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="AK86" s="24" t="s">
-        <v>309</v>
+        <v>301</v>
+      </c>
+      <c r="AL86" s="24" t="s">
+        <v>301</v>
       </c>
     </row>
-    <row r="87" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="8" t="s">
         <v>52</v>
       </c>
@@ -41216,22 +42031,28 @@
       <c r="AK87">
         <v>93</v>
       </c>
+      <c r="AL87">
+        <v>99</v>
+      </c>
     </row>
-    <row r="88" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
         <v>53</v>
       </c>
       <c r="AI88" s="24" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="AJ88" s="24" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="AK88" s="24" t="s">
-        <v>309</v>
+        <v>301</v>
+      </c>
+      <c r="AL88" s="24" t="s">
+        <v>301</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="8" t="s">
         <v>54</v>
       </c>
@@ -41244,8 +42065,11 @@
       <c r="AK89">
         <v>47</v>
       </c>
+      <c r="AL89">
+        <v>53</v>
+      </c>
     </row>
-    <row r="90" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="6" t="s">
         <v>55</v>
       </c>
@@ -41258,8 +42082,11 @@
       <c r="AK90">
         <v>7</v>
       </c>
+      <c r="AL90">
+        <v>8</v>
+      </c>
     </row>
-    <row r="91" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="8" t="s">
         <v>56</v>
       </c>
@@ -41272,8 +42099,11 @@
       <c r="AK91">
         <v>18</v>
       </c>
+      <c r="AL91">
+        <v>19</v>
+      </c>
     </row>
-    <row r="92" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
         <v>57</v>
       </c>
@@ -41286,8 +42116,11 @@
       <c r="AK92">
         <v>49</v>
       </c>
+      <c r="AL92">
+        <v>51</v>
+      </c>
     </row>
-    <row r="93" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="8" t="s">
         <v>58</v>
       </c>
@@ -41300,8 +42133,11 @@
       <c r="AK93">
         <v>14</v>
       </c>
+      <c r="AL93">
+        <v>15</v>
+      </c>
     </row>
-    <row r="94" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
         <v>59</v>
       </c>
@@ -41314,8 +42150,11 @@
       <c r="AK94">
         <v>52</v>
       </c>
+      <c r="AL94">
+        <v>57</v>
+      </c>
     </row>
-    <row r="95" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="8" t="s">
         <v>60</v>
       </c>
@@ -41328,19 +42167,25 @@
       <c r="AK95">
         <v>80</v>
       </c>
+      <c r="AL95">
+        <v>91</v>
+      </c>
     </row>
-    <row r="96" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="6" t="s">
         <v>61</v>
       </c>
       <c r="AI96" s="24" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="AJ96" s="24" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="AK96" s="24" t="s">
-        <v>309</v>
+        <v>301</v>
+      </c>
+      <c r="AL96" s="24" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="97" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -41356,6 +42201,9 @@
       <c r="AK97">
         <v>56</v>
       </c>
+      <c r="AL97">
+        <v>56</v>
+      </c>
     </row>
     <row r="98" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="6" t="s">
@@ -41370,6 +42218,9 @@
       <c r="AK98">
         <v>29</v>
       </c>
+      <c r="AL98">
+        <v>30</v>
+      </c>
     </row>
     <row r="99" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="8" t="s">
@@ -41384,6 +42235,9 @@
       <c r="AK99">
         <v>0</v>
       </c>
+      <c r="AL99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="6" t="s">
@@ -41398,6 +42252,9 @@
       <c r="AK100">
         <v>124</v>
       </c>
+      <c r="AL100">
+        <v>127</v>
+      </c>
     </row>
     <row r="101" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="8" t="s">
@@ -41412,6 +42269,9 @@
       <c r="AK101">
         <v>89</v>
       </c>
+      <c r="AL101">
+        <v>91</v>
+      </c>
     </row>
     <row r="102" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="6" t="s">
@@ -41426,6 +42286,9 @@
       <c r="AK102">
         <v>25</v>
       </c>
+      <c r="AL102">
+        <v>26</v>
+      </c>
     </row>
     <row r="103" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="8" t="s">
@@ -41440,6 +42303,9 @@
       <c r="AK103">
         <v>69</v>
       </c>
+      <c r="AL103">
+        <v>72</v>
+      </c>
     </row>
     <row r="104" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="6" t="s">
@@ -41454,6 +42320,9 @@
       <c r="AK104">
         <v>14</v>
       </c>
+      <c r="AL104">
+        <v>14</v>
+      </c>
     </row>
     <row r="105" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="8" t="s">
@@ -41468,6 +42337,9 @@
       <c r="AK105">
         <v>37</v>
       </c>
+      <c r="AL105">
+        <v>38</v>
+      </c>
     </row>
     <row r="106" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="10" t="s">
@@ -41481,6 +42353,9 @@
       </c>
       <c r="AK106">
         <v>1488</v>
+      </c>
+      <c r="AL106">
+        <v>1562</v>
       </c>
     </row>
     <row r="107" spans="1:216" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -41716,6 +42591,9 @@
       <c r="AK108">
         <v>0</v>
       </c>
+      <c r="AL108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
@@ -41730,6 +42608,9 @@
       <c r="AK109">
         <v>0</v>
       </c>
+      <c r="AL109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
@@ -41744,6 +42625,9 @@
       <c r="AK110">
         <v>0</v>
       </c>
+      <c r="AL110">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
@@ -41758,6 +42642,9 @@
       <c r="AK111">
         <v>0</v>
       </c>
+      <c r="AL111">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
@@ -41772,8 +42659,11 @@
       <c r="AK112" s="24">
         <v>3</v>
       </c>
+      <c r="AL112" s="24">
+        <v>3</v>
+      </c>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>91</v>
       </c>
@@ -41786,8 +42676,11 @@
       <c r="AK113">
         <v>11</v>
       </c>
+      <c r="AL113">
+        <v>11</v>
+      </c>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>92</v>
       </c>
@@ -41800,8 +42693,11 @@
       <c r="AK114">
         <v>26</v>
       </c>
+      <c r="AL114">
+        <v>27</v>
+      </c>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>93</v>
       </c>
@@ -41814,8 +42710,11 @@
       <c r="AK115">
         <v>105</v>
       </c>
+      <c r="AL115">
+        <v>111</v>
+      </c>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>94</v>
       </c>
@@ -41828,8 +42727,11 @@
       <c r="AK116">
         <v>241</v>
       </c>
+      <c r="AL116">
+        <v>257</v>
+      </c>
     </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>95</v>
       </c>
@@ -41842,8 +42744,11 @@
       <c r="AK117">
         <v>1101</v>
       </c>
+      <c r="AL117">
+        <v>1152</v>
+      </c>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>96</v>
       </c>
@@ -41856,8 +42761,11 @@
       <c r="AK118">
         <v>1</v>
       </c>
+      <c r="AL118" s="24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>97</v>
       </c>
@@ -41869,6 +42777,9 @@
       </c>
       <c r="AK119">
         <v>1488</v>
+      </c>
+      <c r="AL119">
+        <v>1562</v>
       </c>
     </row>
   </sheetData>
@@ -41880,283 +42791,244 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655ECF0F-EC0D-4FC9-B182-78DF99BFDAD7}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="2"/>
+    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1">
+        <v>166</v>
+      </c>
+      <c r="C1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3">
+        <v>497</v>
+      </c>
+      <c r="C3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4">
+        <v>1845</v>
+      </c>
+      <c r="C4" t="s">
         <v>303</v>
       </c>
-      <c r="C22" t="s">
-        <v>304</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="D4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <v>2108</v>
+      </c>
+      <c r="C5" t="s">
         <v>313</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6">
+        <v>2418</v>
+      </c>
+      <c r="C6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7">
+        <v>2210</v>
+      </c>
+      <c r="C7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8">
+        <v>1547</v>
+      </c>
+      <c r="C8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E8">
+        <v>111</v>
+      </c>
+      <c r="F8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1659</v>
+      </c>
+      <c r="C9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E9">
+        <v>257</v>
+      </c>
+      <c r="F9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10">
+        <v>4773</v>
+      </c>
+      <c r="C10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D10" t="s">
+        <v>324</v>
+      </c>
+      <c r="E10" t="s">
+        <v>325</v>
+      </c>
+      <c r="F10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12">
+        <v>17442</v>
+      </c>
+      <c r="C12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" t="s">
+        <v>305</v>
+      </c>
+      <c r="E12" t="s">
+        <v>306</v>
+      </c>
+      <c r="F12" t="s">
         <v>307</v>
       </c>
-      <c r="F22" t="s">
-        <v>308</v>
-      </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D23" t="s">
-        <v>305</v>
-      </c>
-      <c r="F23" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D24" t="s">
-        <v>306</v>
-      </c>
-      <c r="F24" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25">
-        <v>162</v>
-      </c>
-      <c r="C25" t="s">
-        <v>296</v>
-      </c>
-      <c r="D25" t="s">
-        <v>314</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26">
-        <v>133</v>
-      </c>
-      <c r="C26" t="s">
-        <v>291</v>
-      </c>
-      <c r="D26" t="s">
-        <v>315</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27">
-        <v>481</v>
-      </c>
-      <c r="C27" t="s">
-        <v>316</v>
-      </c>
-      <c r="D27" t="s">
-        <v>317</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28">
-        <v>1784</v>
-      </c>
-      <c r="C28" t="s">
-        <v>318</v>
-      </c>
-      <c r="D28" t="s">
-        <v>319</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29">
-        <v>2055</v>
-      </c>
-      <c r="C29" t="s">
-        <v>320</v>
-      </c>
-      <c r="D29" t="s">
-        <v>321</v>
-      </c>
-      <c r="E29" t="s">
-        <v>309</v>
-      </c>
-      <c r="F29" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30">
-        <v>2364</v>
-      </c>
-      <c r="C30" t="s">
-        <v>300</v>
-      </c>
-      <c r="D30" t="s">
-        <v>322</v>
-      </c>
-      <c r="E30">
-        <v>11</v>
-      </c>
-      <c r="F30" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31">
-        <v>2159</v>
-      </c>
-      <c r="C31" t="s">
-        <v>301</v>
-      </c>
-      <c r="D31" t="s">
-        <v>323</v>
-      </c>
-      <c r="E31">
-        <v>26</v>
-      </c>
-      <c r="F31" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32">
-        <v>1501</v>
-      </c>
-      <c r="C32" t="s">
-        <v>293</v>
-      </c>
-      <c r="D32" t="s">
-        <v>325</v>
-      </c>
-      <c r="E32">
-        <v>105</v>
-      </c>
-      <c r="F32" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B33">
-        <v>1615</v>
-      </c>
-      <c r="C33" t="s">
-        <v>298</v>
-      </c>
-      <c r="D33" t="s">
-        <v>327</v>
-      </c>
-      <c r="E33">
-        <v>241</v>
-      </c>
-      <c r="F33" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34">
-        <v>4655</v>
-      </c>
-      <c r="C34" t="s">
-        <v>302</v>
-      </c>
-      <c r="D34" t="s">
-        <v>329</v>
-      </c>
-      <c r="E34">
-        <v>1101</v>
-      </c>
-      <c r="F34" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35">
-        <v>82</v>
-      </c>
-      <c r="C35" t="s">
-        <v>229</v>
-      </c>
-      <c r="D35" t="s">
-        <v>229</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36">
-        <v>16991</v>
-      </c>
-      <c r="C36" t="s">
-        <v>229</v>
-      </c>
-      <c r="D36" t="s">
-        <v>310</v>
-      </c>
-      <c r="E36">
-        <v>1488</v>
-      </c>
-      <c r="F36" t="s">
-        <v>311</v>
-      </c>
-    </row>
+    <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/app/data/covid19_MTL.xlsx
+++ b/app/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09595247-C6ED-4664-B793-E9E3F49E7BDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393486B2-75E3-4D98-ACD2-C537B5939A9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18190" yWindow="6410" windowWidth="29390" windowHeight="14750" tabRatio="512" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="17980" yWindow="6120" windowWidth="25460" windowHeight="11480" tabRatio="585" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="328">
   <si>
     <t>borough</t>
   </si>
@@ -955,28 +955,16 @@
     <t>1er MAI, 18h00</t>
   </si>
   <si>
-    <t>8,9</t>
-  </si>
-  <si>
     <t>1 365</t>
   </si>
   <si>
     <t>2 MAI, 18h20</t>
   </si>
   <si>
-    <t>1,0</t>
-  </si>
-  <si>
-    <t>* 4,0</t>
-  </si>
-  <si>
     <t>9,6</t>
   </si>
   <si>
     <t>3 MAI, 18h04</t>
-  </si>
-  <si>
-    <t>27,5</t>
   </si>
   <si>
     <t>&lt; 5</t>
@@ -991,70 +979,85 @@
     <t>5 MAI, 18h04</t>
   </si>
   <si>
-    <t> 844,4</t>
-  </si>
-  <si>
-    <t>1 562</t>
-  </si>
-  <si>
-    <t> 75,6</t>
-  </si>
-  <si>
-    <t> 149,7</t>
-  </si>
-  <si>
-    <t> 127,8</t>
-  </si>
-  <si>
     <t>2,9</t>
-  </si>
-  <si>
-    <t> 249,9</t>
-  </si>
-  <si>
-    <t> 572,8</t>
-  </si>
-  <si>
-    <t>12,1</t>
-  </si>
-  <si>
-    <t> 641,6</t>
   </si>
   <si>
     <t>13,9</t>
   </si>
   <si>
-    <t> 868,7</t>
-  </si>
-  <si>
     <t>12,7</t>
   </si>
   <si>
-    <t> 861,0</t>
+    <t> 867,4</t>
   </si>
   <si>
-    <t>* 10,5</t>
+    <t>1 666</t>
   </si>
   <si>
-    <t> 714,3</t>
+    <t>6 MAI, 18h04</t>
   </si>
   <si>
-    <t> 51,3</t>
+    <t>0,9</t>
   </si>
   <si>
-    <t> 1146,5</t>
+    <t> 150,6</t>
   </si>
   <si>
-    <t> 177,6</t>
+    <t> 129,7</t>
   </si>
   <si>
-    <t> 4723,8</t>
+    <t> 257,4</t>
   </si>
   <si>
-    <t>1 152</t>
+    <t> 587,7</t>
   </si>
   <si>
-    <t> 1140,1</t>
+    <t>12,2</t>
+  </si>
+  <si>
+    <t> 660,2</t>
+  </si>
+  <si>
+    <t> 892,8</t>
+  </si>
+  <si>
+    <t>* 4,3</t>
+  </si>
+  <si>
+    <t> 885,2</t>
+  </si>
+  <si>
+    <t>* 11,3</t>
+  </si>
+  <si>
+    <t>8,8</t>
+  </si>
+  <si>
+    <t> 725,9</t>
+  </si>
+  <si>
+    <t> 54,9</t>
+  </si>
+  <si>
+    <t> 1 182,4</t>
+  </si>
+  <si>
+    <t> 189,4</t>
+  </si>
+  <si>
+    <t>27,6</t>
+  </si>
+  <si>
+    <t> 4 878,2</t>
+  </si>
+  <si>
+    <t>1 228</t>
+  </si>
+  <si>
+    <t> 1 215,3</t>
+  </si>
+  <si>
+    <t> 80,7</t>
   </si>
 </sst>
 </file>
@@ -1568,20 +1571,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:AM35"/>
+  <dimension ref="A1:AN35"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1:AM1"/>
+    <sheetView topLeftCell="R10" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AN36" sqref="AN36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="39" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="40" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1699,8 +1702,11 @@
       <c r="AM1" s="19">
         <v>43956</v>
       </c>
+      <c r="AN1" s="19">
+        <v>43957</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1818,8 +1824,11 @@
       <c r="AM2">
         <v>1392</v>
       </c>
+      <c r="AN2">
+        <v>1442</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1937,8 +1946,11 @@
       <c r="AM3">
         <v>379</v>
       </c>
+      <c r="AN3">
+        <v>398</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2056,8 +2068,11 @@
       <c r="AM4">
         <v>10</v>
       </c>
+      <c r="AN4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2175,8 +2190,11 @@
       <c r="AM5">
         <v>45</v>
       </c>
+      <c r="AN5">
+        <v>46</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2294,8 +2312,11 @@
       <c r="AM6">
         <v>1448</v>
       </c>
+      <c r="AN6">
+        <v>1478</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -2413,8 +2434,11 @@
       <c r="AM7">
         <v>388</v>
       </c>
+      <c r="AN7">
+        <v>390</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -2532,8 +2556,11 @@
       <c r="AM8">
         <v>270</v>
       </c>
+      <c r="AN8">
+        <v>271</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -2651,8 +2678,11 @@
       <c r="AM9">
         <v>137</v>
       </c>
+      <c r="AN9">
+        <v>137</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -2770,8 +2800,11 @@
       <c r="AM10">
         <v>42</v>
       </c>
+      <c r="AN10">
+        <v>42</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -2889,8 +2922,11 @@
       <c r="AM11">
         <v>75</v>
       </c>
+      <c r="AN11">
+        <v>77</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3008,8 +3044,11 @@
       <c r="AM12">
         <v>354</v>
       </c>
+      <c r="AN12">
+        <v>378</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3127,8 +3166,11 @@
       <c r="AM13">
         <v>869</v>
       </c>
+      <c r="AN13">
+        <v>888</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3246,8 +3288,11 @@
       <c r="AM14">
         <v>118</v>
       </c>
+      <c r="AN14">
+        <v>118</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3365,8 +3410,11 @@
       <c r="AM15">
         <v>1288</v>
       </c>
+      <c r="AN15">
+        <v>1341</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -3484,8 +3532,11 @@
       <c r="AM16">
         <v>23</v>
       </c>
+      <c r="AN16">
+        <v>24</v>
+      </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3603,8 +3654,11 @@
       <c r="AM17">
         <v>1544</v>
       </c>
+      <c r="AN17">
+        <v>1615</v>
+      </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -3722,8 +3776,11 @@
       <c r="AM18">
         <v>14</v>
       </c>
+      <c r="AN18">
+        <v>14</v>
+      </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -3841,8 +3898,11 @@
       <c r="AM19">
         <v>197</v>
       </c>
+      <c r="AN19">
+        <v>202</v>
+      </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3960,8 +4020,11 @@
       <c r="AM20">
         <v>213</v>
       </c>
+      <c r="AN20">
+        <v>215</v>
+      </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4079,8 +4142,11 @@
       <c r="AM21">
         <v>313</v>
       </c>
+      <c r="AN21">
+        <v>324</v>
+      </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4198,8 +4264,11 @@
       <c r="AM22">
         <v>631</v>
       </c>
+      <c r="AN22">
+        <v>649</v>
+      </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -4317,8 +4386,11 @@
       <c r="AM23">
         <v>139</v>
       </c>
+      <c r="AN23">
+        <v>142</v>
+      </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4436,8 +4508,11 @@
       <c r="AM24">
         <v>1247</v>
       </c>
+      <c r="AN24">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4555,8 +4630,11 @@
       <c r="AM25">
         <v>958</v>
       </c>
+      <c r="AN25">
+        <v>978</v>
+      </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -4674,8 +4752,11 @@
       <c r="AM26">
         <v>16</v>
       </c>
+      <c r="AN26">
+        <v>16</v>
+      </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4793,8 +4874,11 @@
       <c r="AM27">
         <v>627</v>
       </c>
+      <c r="AN27">
+        <v>645</v>
+      </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4912,8 +4996,11 @@
       <c r="AM28">
         <v>675</v>
       </c>
+      <c r="AN28">
+        <v>694</v>
+      </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -5031,8 +5118,11 @@
       <c r="AM29">
         <v>2</v>
       </c>
+      <c r="AN29">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5150,8 +5240,11 @@
       <c r="AM30">
         <v>688</v>
       </c>
+      <c r="AN30">
+        <v>694</v>
+      </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5269,8 +5362,11 @@
       <c r="AM31">
         <v>724</v>
       </c>
+      <c r="AN31">
+        <v>738</v>
+      </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5388,8 +5484,11 @@
       <c r="AM32">
         <v>456</v>
       </c>
+      <c r="AN32">
+        <v>475</v>
+      </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5507,8 +5606,11 @@
       <c r="AM33">
         <v>1239</v>
       </c>
+      <c r="AN33">
+        <v>1268</v>
+      </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -5626,8 +5728,11 @@
       <c r="AM34">
         <v>139</v>
       </c>
+      <c r="AN34">
+        <v>143</v>
+      </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5744,6 +5849,9 @@
       </c>
       <c r="AM35">
         <v>783</v>
+      </c>
+      <c r="AN35">
+        <v>765</v>
       </c>
     </row>
   </sheetData>
@@ -5754,11 +5862,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:AM34"/>
+  <dimension ref="A1:AN34"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ21" sqref="AQ21"/>
+      <selection pane="topRight" activeCell="AP11" sqref="AP11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5766,10 +5874,10 @@
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="27" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="39" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="40" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5908,8 +6016,11 @@
       <c r="AM1" s="1">
         <v>43956</v>
       </c>
+      <c r="AN1" s="1">
+        <v>43957</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6061,8 +6172,12 @@
         <f>cases!AM2/(population_2016!$B2/1000)</f>
         <v>10.369101270065924</v>
       </c>
+      <c r="AN2" s="3">
+        <f>cases!AN2/(population_2016!$B2/1000)</f>
+        <v>10.741554620283809</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6214,8 +6329,12 @@
         <f>cases!AM3/(population_2016!$B3/1000)</f>
         <v>8.8559678474623791</v>
       </c>
+      <c r="AN3" s="3">
+        <f>cases!AN3/(population_2016!$B3/1000)</f>
+        <v>9.2999345733246095</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -6367,8 +6486,12 @@
         <f>cases!AM4/(population_2016!$B4/1000)</f>
         <v>2.6157467957101752</v>
       </c>
+      <c r="AN4" s="3">
+        <f>cases!AN4/(population_2016!$B4/1000)</f>
+        <v>2.6157467957101752</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -6520,8 +6643,12 @@
         <f>cases!AM5/(population_2016!$B5/1000)</f>
         <v>2.3287104119229971</v>
       </c>
+      <c r="AN5" s="3">
+        <f>cases!AN5/(population_2016!$B5/1000)</f>
+        <v>2.3804595321879525</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6673,8 +6800,12 @@
         <f>cases!AM6/(population_2016!$B6/1000)</f>
         <v>8.695652173913043</v>
       </c>
+      <c r="AN6" s="3">
+        <f>cases!AN6/(population_2016!$B6/1000)</f>
+        <v>8.8758107134278159</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -6826,8 +6957,12 @@
         <f>cases!AM7/(population_2016!$B7/1000)</f>
         <v>11.95759368836292</v>
       </c>
+      <c r="AN7" s="3">
+        <f>cases!AN7/(population_2016!$B7/1000)</f>
+        <v>12.019230769230768</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -6979,8 +7114,12 @@
         <f>cases!AM8/(population_2016!$B8/1000)</f>
         <v>5.521585308493016</v>
       </c>
+      <c r="AN8" s="3">
+        <f>cases!AN8/(population_2016!$B8/1000)</f>
+        <v>5.5420356244503974</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -7132,8 +7271,12 @@
         <f>cases!AM9/(population_2016!$B9/1000)</f>
         <v>7.2181243414120129</v>
       </c>
+      <c r="AN9" s="3">
+        <f>cases!AN9/(population_2016!$B9/1000)</f>
+        <v>7.2181243414120129</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -7285,8 +7428,12 @@
         <f>cases!AM10/(population_2016!$B10/1000)</f>
         <v>6.0232324680912095</v>
       </c>
+      <c r="AN10" s="3">
+        <f>cases!AN10/(population_2016!$B10/1000)</f>
+        <v>6.0232324680912095</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -7438,8 +7585,12 @@
         <f>cases!AM11/(population_2016!$B11/1000)</f>
         <v>3.7218996575852317</v>
       </c>
+      <c r="AN11" s="3">
+        <f>cases!AN11/(population_2016!$B11/1000)</f>
+        <v>3.8211503151208377</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -7591,8 +7742,12 @@
         <f>cases!AM12/(population_2016!$B12/1000)</f>
         <v>7.9570230843579317</v>
       </c>
+      <c r="AN12" s="3">
+        <f>cases!AN12/(population_2016!$B12/1000)</f>
+        <v>8.4964822765177921</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -7744,8 +7899,12 @@
         <f>cases!AM13/(population_2016!$B13/1000)</f>
         <v>11.307300951166514</v>
       </c>
+      <c r="AN13" s="3">
+        <f>cases!AN13/(population_2016!$B13/1000)</f>
+        <v>11.554526173343918</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -7897,8 +8056,12 @@
         <f>cases!AM14/(population_2016!$B14/1000)</f>
         <v>6.4085157225873024</v>
       </c>
+      <c r="AN14" s="3">
+        <f>cases!AN14/(population_2016!$B14/1000)</f>
+        <v>6.4085157225873024</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -8050,8 +8213,12 @@
         <f>cases!AM15/(population_2016!$B15/1000)</f>
         <v>9.4689172498970766</v>
       </c>
+      <c r="AN15" s="3">
+        <f>cases!AN15/(population_2016!$B15/1000)</f>
+        <v>9.858554372757748</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -8203,8 +8370,12 @@
         <f>cases!AM16/(population_2016!$B16/1000)</f>
         <v>5.9740259740259738</v>
       </c>
+      <c r="AN16" s="3">
+        <f>cases!AN16/(population_2016!$B16/1000)</f>
+        <v>6.2337662337662341</v>
+      </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -8356,8 +8527,12 @@
         <f>cases!AM17/(population_2016!$B17/1000)</f>
         <v>18.329890543011135</v>
       </c>
+      <c r="AN17" s="3">
+        <f>cases!AN17/(population_2016!$B17/1000)</f>
+        <v>19.17278058741126</v>
+      </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -8509,8 +8684,12 @@
         <f>cases!AM18/(population_2016!$B18/1000)</f>
         <v>2.7722772277227725</v>
       </c>
+      <c r="AN18" s="3">
+        <f>cases!AN18/(population_2016!$B18/1000)</f>
+        <v>2.7722772277227725</v>
+      </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -8662,8 +8841,12 @@
         <f>cases!AM19/(population_2016!$B19/1000)</f>
         <v>9.7159202998619065</v>
       </c>
+      <c r="AN19" s="3">
+        <f>cases!AN19/(population_2016!$B19/1000)</f>
+        <v>9.962517261787335</v>
+      </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -8815,8 +8998,12 @@
         <f>cases!AM20/(population_2016!$B20/1000)</f>
         <v>8.8920430825749346</v>
       </c>
+      <c r="AN20" s="3">
+        <f>cases!AN20/(population_2016!$B20/1000)</f>
+        <v>8.9755364448526347</v>
+      </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -8968,8 +9155,12 @@
         <f>cases!AM21/(population_2016!$B21/1000)</f>
         <v>4.516790048631254</v>
       </c>
+      <c r="AN21" s="3">
+        <f>cases!AN21/(population_2016!$B21/1000)</f>
+        <v>4.6755270790943335</v>
+      </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -9121,8 +9312,12 @@
         <f>cases!AM22/(population_2016!$B22/1000)</f>
         <v>6.0673076923076925</v>
       </c>
+      <c r="AN22" s="3">
+        <f>cases!AN22/(population_2016!$B22/1000)</f>
+        <v>6.240384615384615</v>
+      </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -9274,8 +9469,12 @@
         <f>cases!AM23/(population_2016!$B23/1000)</f>
         <v>4.4295729764181004</v>
       </c>
+      <c r="AN23" s="3">
+        <f>cases!AN23/(population_2016!$B23/1000)</f>
+        <v>4.5251752708731674</v>
+      </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -9427,8 +9626,12 @@
         <f>cases!AM24/(population_2016!$B24/1000)</f>
         <v>11.682264879195825</v>
       </c>
+      <c r="AN24" s="3">
+        <f>cases!AN24/(population_2016!$B24/1000)</f>
+        <v>12.178784557301181</v>
+      </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -9580,8 +9783,12 @@
         <f>cases!AM25/(population_2016!$B25/1000)</f>
         <v>6.8629557991260119</v>
       </c>
+      <c r="AN25" s="3">
+        <f>cases!AN25/(population_2016!$B25/1000)</f>
+        <v>7.0062325381474313</v>
+      </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -9733,8 +9940,12 @@
         <f>cases!AM26/(population_2016!$B26/1000)</f>
         <v>3.227107704719645</v>
       </c>
+      <c r="AN26" s="3">
+        <f>cases!AN26/(population_2016!$B26/1000)</f>
+        <v>3.227107704719645</v>
+      </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -9886,8 +10097,12 @@
         <f>cases!AM27/(population_2016!$B27/1000)</f>
         <v>6.3443558505686646</v>
       </c>
+      <c r="AN27" s="3">
+        <f>cases!AN27/(population_2016!$B27/1000)</f>
+        <v>6.5264904682883396</v>
+      </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -10039,8 +10254,12 @@
         <f>cases!AM28/(population_2016!$B28/1000)</f>
         <v>8.6201391992848464</v>
       </c>
+      <c r="AN28" s="3">
+        <f>cases!AN28/(population_2016!$B28/1000)</f>
+        <v>8.8627801545239766</v>
+      </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -10192,8 +10411,12 @@
         <f>cases!AM29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
+      <c r="AN29" s="3">
+        <f>cases!AN29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -10345,8 +10568,12 @@
         <f>cases!AM30/(population_2016!$B30/1000)</f>
         <v>8.8034702051157385</v>
       </c>
+      <c r="AN30" s="3">
+        <f>cases!AN30/(population_2016!$B30/1000)</f>
+        <v>8.8802446545789557</v>
+      </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -10498,8 +10725,12 @@
         <f>cases!AM31/(population_2016!$B31/1000)</f>
         <v>10.458045038928773</v>
       </c>
+      <c r="AN31" s="3">
+        <f>cases!AN31/(population_2016!$B31/1000)</f>
+        <v>10.660272429184301</v>
+      </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -10651,8 +10882,12 @@
         <f>cases!AM32/(population_2016!$B32/1000)</f>
         <v>5.1138275204665247</v>
       </c>
+      <c r="AN32" s="3">
+        <f>cases!AN32/(population_2016!$B32/1000)</f>
+        <v>5.3269036671526298</v>
+      </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -10804,8 +11039,12 @@
         <f>cases!AM33/(population_2016!$B33/1000)</f>
         <v>8.6129590623761754</v>
       </c>
+      <c r="AN33" s="3">
+        <f>cases!AN33/(population_2016!$B33/1000)</f>
+        <v>8.814553745837765</v>
+      </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -10956,6 +11195,10 @@
       <c r="AM34" s="3">
         <f>cases!AM34/(population_2016!$B34/1000)</f>
         <v>6.8432453721937767</v>
+      </c>
+      <c r="AN34" s="3">
+        <f>cases!AN34/(population_2016!$B34/1000)</f>
+        <v>7.040173296573454</v>
       </c>
     </row>
   </sheetData>
@@ -10965,11 +11208,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AS53"/>
+  <dimension ref="A1:AS54"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AR56" sqref="AR56"/>
+      <selection pane="bottomLeft" activeCell="AR61" sqref="AR61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13519,11 +13762,11 @@
       </c>
       <c r="B19" s="17">
         <f>mtl_newcases!C20</f>
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="C19" s="17">
         <f t="shared" si="0"/>
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>101</v>
@@ -13693,7 +13936,7 @@
       </c>
       <c r="C20" s="17">
         <f t="shared" si="0"/>
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>101</v>
@@ -13859,11 +14102,11 @@
       </c>
       <c r="B21" s="17">
         <f>mtl_newcases!C22</f>
-        <v>3306</v>
+        <v>3304</v>
       </c>
       <c r="C21" s="17">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>101</v>
@@ -14029,11 +14272,11 @@
       </c>
       <c r="B22" s="17">
         <f>mtl_newcases!C23</f>
-        <v>3650</v>
+        <v>3646</v>
       </c>
       <c r="C22" s="17">
         <f t="shared" si="0"/>
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>101</v>
@@ -14199,11 +14442,11 @@
       </c>
       <c r="B23" s="17">
         <f>mtl_newcases!C24</f>
-        <v>3910</v>
+        <v>3907</v>
       </c>
       <c r="C23" s="17">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>101</v>
@@ -14369,11 +14612,11 @@
       </c>
       <c r="B24" s="17">
         <f>mtl_newcases!C25</f>
-        <v>4372</v>
+        <v>4370</v>
       </c>
       <c r="C24" s="17">
         <f t="shared" si="0"/>
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D24">
         <v>63</v>
@@ -14539,11 +14782,11 @@
       </c>
       <c r="B25" s="17">
         <f>mtl_newcases!C26</f>
-        <v>4795</v>
+        <v>4792</v>
       </c>
       <c r="C25" s="17">
         <f t="shared" si="0"/>
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D25">
         <v>74</v>
@@ -14710,11 +14953,11 @@
       </c>
       <c r="B26" s="17">
         <f>mtl_newcases!C27</f>
-        <v>5173</v>
+        <v>5169</v>
       </c>
       <c r="C26" s="17">
         <f t="shared" si="0"/>
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D26">
         <v>91</v>
@@ -14881,11 +15124,11 @@
       </c>
       <c r="B27" s="17">
         <f>mtl_newcases!C28</f>
-        <v>5526</v>
+        <v>5521</v>
       </c>
       <c r="C27" s="17">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -15052,11 +15295,11 @@
       </c>
       <c r="B28" s="17">
         <f>mtl_newcases!C29</f>
-        <v>5836</v>
+        <v>5828</v>
       </c>
       <c r="C28" s="17">
         <f t="shared" si="0"/>
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D28">
         <v>135</v>
@@ -15223,7 +15466,7 @@
       </c>
       <c r="B29" s="17">
         <f>mtl_newcases!C30</f>
-        <v>6098</v>
+        <v>6090</v>
       </c>
       <c r="C29" s="17">
         <f t="shared" si="0"/>
@@ -15394,11 +15637,11 @@
       </c>
       <c r="B30" s="17">
         <f>mtl_newcases!C31</f>
-        <v>6437</v>
+        <v>6427</v>
       </c>
       <c r="C30" s="17">
         <f t="shared" si="0"/>
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D30">
         <v>162</v>
@@ -15565,11 +15808,11 @@
       </c>
       <c r="B31" s="17">
         <f>mtl_newcases!C32</f>
-        <v>6977</v>
+        <v>6968</v>
       </c>
       <c r="C31" s="17">
         <f t="shared" si="0"/>
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D31">
         <v>218</v>
@@ -15736,11 +15979,11 @@
       </c>
       <c r="B32" s="17">
         <f>mtl_newcases!C33</f>
-        <v>7455</v>
+        <v>7443</v>
       </c>
       <c r="C32" s="17">
         <f t="shared" si="0"/>
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D32">
         <v>242</v>
@@ -15907,11 +16150,11 @@
       </c>
       <c r="B33" s="17">
         <f>mtl_newcases!C34</f>
-        <v>8092</v>
+        <v>8075</v>
       </c>
       <c r="C33" s="17">
         <f t="shared" si="0"/>
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D33">
         <v>332</v>
@@ -16078,11 +16321,11 @@
       </c>
       <c r="B34" s="17">
         <f>mtl_newcases!C35</f>
-        <v>8591</v>
+        <v>8570</v>
       </c>
       <c r="C34" s="17">
         <f t="shared" si="0"/>
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D34">
         <v>391</v>
@@ -16249,11 +16492,11 @@
       </c>
       <c r="B35" s="17">
         <f>mtl_newcases!C36</f>
-        <v>9169</v>
+        <v>9145</v>
       </c>
       <c r="C35" s="17">
         <f t="shared" si="0"/>
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D35">
         <v>454</v>
@@ -16420,11 +16663,11 @@
       </c>
       <c r="B36" s="17">
         <f>mtl_newcases!C37</f>
-        <v>9494</v>
+        <v>9469</v>
       </c>
       <c r="C36" s="17">
         <f t="shared" si="0"/>
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D36">
         <v>513</v>
@@ -16591,11 +16834,11 @@
       </c>
       <c r="B37" s="17">
         <f>mtl_newcases!C38</f>
-        <v>9928</v>
+        <v>9900</v>
       </c>
       <c r="C37" s="17">
         <f t="shared" si="0"/>
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D37">
         <v>525</v>
@@ -16731,11 +16974,11 @@
       </c>
       <c r="B38" s="17">
         <f>mtl_newcases!C39</f>
-        <v>10438</v>
+        <v>10402</v>
       </c>
       <c r="C38" s="17">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D38">
         <v>583</v>
@@ -16902,11 +17145,11 @@
       </c>
       <c r="B39" s="17">
         <f>mtl_newcases!C40</f>
-        <v>10922</v>
+        <v>10880</v>
       </c>
       <c r="C39" s="17">
         <f t="shared" si="0"/>
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D39">
         <v>647</v>
@@ -17073,11 +17316,11 @@
       </c>
       <c r="B40" s="17">
         <f>mtl_newcases!C41</f>
-        <v>11483</v>
+        <v>11436</v>
       </c>
       <c r="C40" s="17">
         <f t="shared" si="0"/>
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D40">
         <v>741</v>
@@ -17244,11 +17487,11 @@
       </c>
       <c r="B41" s="17">
         <f>mtl_newcases!C42</f>
-        <v>12045</v>
+        <v>11990</v>
       </c>
       <c r="C41" s="17">
         <f t="shared" si="0"/>
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D41">
         <v>808</v>
@@ -17415,11 +17658,11 @@
       </c>
       <c r="B42" s="17">
         <f>mtl_newcases!C43</f>
-        <v>12575</v>
+        <v>12512</v>
       </c>
       <c r="C42" s="17">
         <f t="shared" si="0"/>
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D42">
         <v>895</v>
@@ -17586,11 +17829,11 @@
       </c>
       <c r="B43" s="17">
         <f>mtl_newcases!C44</f>
-        <v>12906</v>
+        <v>12837</v>
       </c>
       <c r="C43" s="17">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D43">
         <v>938</v>
@@ -17757,11 +18000,11 @@
       </c>
       <c r="B44" s="17">
         <f>mtl_newcases!C45</f>
-        <v>13235</v>
+        <v>13154</v>
       </c>
       <c r="C44" s="17">
         <f>B44-B43</f>
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D44">
         <v>983</v>
@@ -17928,11 +18171,11 @@
       </c>
       <c r="B45" s="17">
         <f>mtl_newcases!C46</f>
-        <v>13732</v>
+        <v>13644</v>
       </c>
       <c r="C45" s="17">
         <f>B45-B44</f>
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="D45">
         <v>1039</v>
@@ -18099,7 +18342,7 @@
       </c>
       <c r="B46" s="17">
         <f>mtl_newcases!C47</f>
-        <v>14209</v>
+        <v>14121</v>
       </c>
       <c r="C46" s="17">
         <f t="shared" ref="C46:C47" si="438">B46-B45</f>
@@ -18239,11 +18482,11 @@
       </c>
       <c r="B47" s="17">
         <f>mtl_newcases!C48</f>
-        <v>14752</v>
+        <v>14652</v>
       </c>
       <c r="C47" s="17">
         <f t="shared" si="438"/>
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="D47">
         <v>1146</v>
@@ -18379,11 +18622,11 @@
       </c>
       <c r="B48" s="17">
         <f>mtl_newcases!C49</f>
-        <v>15362</v>
+        <v>15256</v>
       </c>
       <c r="C48" s="17">
         <f t="shared" ref="C48" si="439">B48-B47</f>
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D48">
         <v>1245</v>
@@ -18550,7 +18793,7 @@
       </c>
       <c r="B49" s="17">
         <f>mtl_newcases!C50</f>
-        <v>15989</v>
+        <v>15883</v>
       </c>
       <c r="C49" s="17">
         <f t="shared" ref="C49" si="461">B49-B48</f>
@@ -18721,11 +18964,11 @@
       </c>
       <c r="B50" s="17">
         <f>mtl_newcases!C51</f>
-        <v>16433</v>
+        <v>16336</v>
       </c>
       <c r="C50" s="17">
         <f t="shared" ref="C50" si="483">B50-B49</f>
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="D50">
         <v>1365</v>
@@ -18892,11 +19135,11 @@
       </c>
       <c r="B51" s="17">
         <f>mtl_newcases!C52</f>
-        <v>16781</v>
+        <v>16687</v>
       </c>
       <c r="C51" s="17">
         <f t="shared" ref="C51" si="505">B51-B50</f>
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D51">
         <v>1410</v>
@@ -19063,11 +19306,11 @@
       </c>
       <c r="B52" s="17">
         <f>mtl_newcases!C53</f>
-        <v>17142</v>
+        <v>17088</v>
       </c>
       <c r="C52" s="17">
         <f t="shared" ref="C52" si="527">B52-B51</f>
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="D52">
         <v>1488</v>
@@ -19234,11 +19477,11 @@
       </c>
       <c r="B53" s="17">
         <f>mtl_newcases!C54</f>
-        <v>17442</v>
+        <v>17573</v>
       </c>
       <c r="C53" s="17">
         <f t="shared" ref="C53" si="549">B53-B52</f>
-        <v>300</v>
+        <v>485</v>
       </c>
       <c r="D53">
         <v>1562</v>
@@ -19397,6 +19640,177 @@
       <c r="AS53" s="3">
         <f t="shared" ref="AS53" si="570">Y53*100/SUM($P53:$Y53)</f>
         <v>45.794348330134248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A54" s="19">
+        <v>43957</v>
+      </c>
+      <c r="B54" s="17">
+        <f>mtl_newcases!C55</f>
+        <v>17918</v>
+      </c>
+      <c r="C54" s="17">
+        <f t="shared" ref="C54" si="571">B54-B53</f>
+        <v>345</v>
+      </c>
+      <c r="D54">
+        <v>1666</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ref="E54" si="572">D54-D53</f>
+        <v>104</v>
+      </c>
+      <c r="F54" cm="1">
+        <f t="array" ref="F54:O54">TRANSPOSE(santemontreal!AM$57:AM$66)</f>
+        <v>167</v>
+      </c>
+      <c r="G54">
+        <v>140</v>
+      </c>
+      <c r="H54">
+        <v>512</v>
+      </c>
+      <c r="I54">
+        <v>1893</v>
+      </c>
+      <c r="J54">
+        <v>2169</v>
+      </c>
+      <c r="K54">
+        <v>2485</v>
+      </c>
+      <c r="L54">
+        <v>2272</v>
+      </c>
+      <c r="M54">
+        <v>1572</v>
+      </c>
+      <c r="N54">
+        <v>1711</v>
+      </c>
+      <c r="O54">
+        <v>4929</v>
+      </c>
+      <c r="P54" s="18">
+        <f>F54/(age_distribution_2016!$B$2/100000)</f>
+        <v>152.17787497721889</v>
+      </c>
+      <c r="Q54" s="18">
+        <f>G54/(age_distribution_2016!$B$3/100000)</f>
+        <v>134.11888681323947</v>
+      </c>
+      <c r="R54" s="18">
+        <f>H54/(age_distribution_2016!$B$4/100000)</f>
+        <v>272.07269442304113</v>
+      </c>
+      <c r="S54" s="18">
+        <f>I54/(age_distribution_2016!$B$5/100000)</f>
+        <v>645.57933327649425</v>
+      </c>
+      <c r="T54" s="18">
+        <f>J54/(age_distribution_2016!$B$6/100000)</f>
+        <v>723.78409944106113</v>
+      </c>
+      <c r="U54" s="18">
+        <f>K54/(age_distribution_2016!$B$7/100000)</f>
+        <v>976.52028686511437</v>
+      </c>
+      <c r="V54" s="18">
+        <f>L54/(age_distribution_2016!$B$8/100000)</f>
+        <v>877.6436504104297</v>
+      </c>
+      <c r="W54" s="18">
+        <f>M54/(age_distribution_2016!$B$9/100000)</f>
+        <v>766.81056559596107</v>
+      </c>
+      <c r="X54" s="18">
+        <f>N54/(age_distribution_2016!$B$10/100000)</f>
+        <v>1319.4016039481801</v>
+      </c>
+      <c r="Y54" s="18">
+        <f>O54/(age_distribution_2016!$B$11/100000)</f>
+        <v>4988.613936541673</v>
+      </c>
+      <c r="Z54" s="3">
+        <f t="shared" ref="Z54" si="573">F54*100/SUM($F54:$O54)</f>
+        <v>0.93557422969187676</v>
+      </c>
+      <c r="AA54" s="3">
+        <f t="shared" ref="AA54" si="574">G54*100/SUM($F54:$O54)</f>
+        <v>0.78431372549019607</v>
+      </c>
+      <c r="AB54" s="3">
+        <f t="shared" ref="AB54" si="575">H54*100/SUM($F54:$O54)</f>
+        <v>2.8683473389355743</v>
+      </c>
+      <c r="AC54" s="3">
+        <f t="shared" ref="AC54" si="576">I54*100/SUM($F54:$O54)</f>
+        <v>10.605042016806722</v>
+      </c>
+      <c r="AD54" s="3">
+        <f t="shared" ref="AD54" si="577">J54*100/SUM($F54:$O54)</f>
+        <v>12.15126050420168</v>
+      </c>
+      <c r="AE54" s="3">
+        <f t="shared" ref="AE54" si="578">K54*100/SUM($F54:$O54)</f>
+        <v>13.921568627450981</v>
+      </c>
+      <c r="AF54" s="3">
+        <f t="shared" ref="AF54" si="579">L54*100/SUM($F54:$O54)</f>
+        <v>12.72829131652661</v>
+      </c>
+      <c r="AG54" s="3">
+        <f t="shared" ref="AG54" si="580">M54*100/SUM($F54:$O54)</f>
+        <v>8.8067226890756309</v>
+      </c>
+      <c r="AH54" s="3">
+        <f t="shared" ref="AH54" si="581">N54*100/SUM($F54:$O54)</f>
+        <v>9.5854341736694675</v>
+      </c>
+      <c r="AI54" s="3">
+        <f t="shared" ref="AI54" si="582">O54*100/SUM($F54:$O54)</f>
+        <v>27.613445378151262</v>
+      </c>
+      <c r="AJ54" s="3">
+        <f t="shared" ref="AJ54" si="583">P54*100/SUM($P54:$Y54)</f>
+        <v>1.4016925358256913</v>
+      </c>
+      <c r="AK54" s="3">
+        <f t="shared" ref="AK54" si="584">Q54*100/SUM($P54:$Y54)</f>
+        <v>1.2353533165547963</v>
+      </c>
+      <c r="AL54" s="3">
+        <f t="shared" ref="AL54" si="585">R54*100/SUM($P54:$Y54)</f>
+        <v>2.5060296382233691</v>
+      </c>
+      <c r="AM54" s="3">
+        <f t="shared" ref="AM54" si="586">S54*100/SUM($P54:$Y54)</f>
+        <v>5.9463554269794674</v>
+      </c>
+      <c r="AN54" s="3">
+        <f t="shared" ref="AN54" si="587">T54*100/SUM($P54:$Y54)</f>
+        <v>6.6666903443600454</v>
+      </c>
+      <c r="AO54" s="3">
+        <f t="shared" ref="AO54" si="588">U54*100/SUM($P54:$Y54)</f>
+        <v>8.9946136873451596</v>
+      </c>
+      <c r="AP54" s="3">
+        <f t="shared" ref="AP54" si="589">V54*100/SUM($P54:$Y54)</f>
+        <v>8.0838726002664405</v>
+      </c>
+      <c r="AQ54" s="3">
+        <f t="shared" ref="AQ54" si="590">W54*100/SUM($P54:$Y54)</f>
+        <v>7.063002071418321</v>
+      </c>
+      <c r="AR54" s="3">
+        <f t="shared" ref="AR54" si="591">X54*100/SUM($P54:$Y54)</f>
+        <v>12.152853233674502</v>
+      </c>
+      <c r="AS54" s="3">
+        <f t="shared" ref="AS54" si="592">Y54*100/SUM($P54:$Y54)</f>
+        <v>45.949537145352195</v>
       </c>
     </row>
   </sheetData>
@@ -19406,11 +19820,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19551,7 +19965,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F65" si="1">E4-E3</f>
+        <f t="shared" ref="F4:F66" si="1">E4-E3</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -19564,7 +19978,7 @@
         <v>260</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J65" si="2">I4-I3</f>
+        <f t="shared" ref="J4:J66" si="2">I4-I3</f>
         <v>18</v>
       </c>
       <c r="K4" t="s">
@@ -21887,6 +22301,44 @@
       </c>
       <c r="K65">
         <v>8284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B66">
+        <v>35238</v>
+      </c>
+      <c r="C66">
+        <f>B66-B65</f>
+        <v>911</v>
+      </c>
+      <c r="D66">
+        <v>23934</v>
+      </c>
+      <c r="E66">
+        <v>2631</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="G66">
+        <v>1836</v>
+      </c>
+      <c r="H66">
+        <v>224</v>
+      </c>
+      <c r="I66">
+        <v>228905</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="2"/>
+        <v>8301</v>
+      </c>
+      <c r="K66">
+        <v>8673</v>
       </c>
     </row>
   </sheetData>
@@ -21896,18 +22348,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
@@ -22179,11 +22631,11 @@
         <v>43922</v>
       </c>
       <c r="B20">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="E20" s="19">
         <v>43922</v>
@@ -22193,7 +22645,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>-80</v>
+        <v>-83</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -22201,7 +22653,7 @@
         <v>43923</v>
       </c>
       <c r="B21">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -22223,11 +22675,11 @@
         <v>43924</v>
       </c>
       <c r="B22">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>3306</v>
+        <v>3304</v>
       </c>
       <c r="E22" s="19">
         <v>43924</v>
@@ -22237,7 +22689,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -22245,11 +22697,11 @@
         <v>43925</v>
       </c>
       <c r="B23">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3650</v>
+        <v>3646</v>
       </c>
       <c r="E23" s="19">
         <v>43925</v>
@@ -22259,7 +22711,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>-63</v>
+        <v>-67</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -22267,11 +22719,11 @@
         <v>43926</v>
       </c>
       <c r="B24">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>3910</v>
+        <v>3907</v>
       </c>
       <c r="E24" s="19">
         <v>43926</v>
@@ -22281,7 +22733,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>-67</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -22289,11 +22741,11 @@
         <v>43927</v>
       </c>
       <c r="B25">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>4372</v>
+        <v>4370</v>
       </c>
       <c r="E25" s="19">
         <v>43927</v>
@@ -22303,7 +22755,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>-35</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -22311,11 +22763,11 @@
         <v>43928</v>
       </c>
       <c r="B26">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>4795</v>
+        <v>4792</v>
       </c>
       <c r="E26" s="19">
         <v>43928</v>
@@ -22325,7 +22777,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -22333,11 +22785,11 @@
         <v>43929</v>
       </c>
       <c r="B27">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>5173</v>
+        <v>5169</v>
       </c>
       <c r="E27" s="19">
         <v>43929</v>
@@ -22347,7 +22799,7 @@
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="3">C27-F27</f>
-        <v>-89</v>
+        <v>-93</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -22355,11 +22807,11 @@
         <v>43930</v>
       </c>
       <c r="B28">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C28">
         <f t="shared" ref="C28:C37" si="4">C27+B28</f>
-        <v>5526</v>
+        <v>5521</v>
       </c>
       <c r="E28" s="19">
         <v>43930</v>
@@ -22369,7 +22821,7 @@
       </c>
       <c r="G28">
         <f t="shared" ref="G28:G33" si="5">C28-F28</f>
-        <v>-91</v>
+        <v>-96</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -22377,11 +22829,11 @@
         <v>43931</v>
       </c>
       <c r="B29">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
-        <v>5836</v>
+        <v>5828</v>
       </c>
       <c r="E29" s="19">
         <v>43931</v>
@@ -22391,7 +22843,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>-25</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -22403,7 +22855,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
-        <v>6098</v>
+        <v>6090</v>
       </c>
       <c r="E30" s="19">
         <v>43932</v>
@@ -22413,7 +22865,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -22421,11 +22873,11 @@
         <v>43933</v>
       </c>
       <c r="B31">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
-        <v>6437</v>
+        <v>6427</v>
       </c>
       <c r="E31" s="19">
         <v>43933</v>
@@ -22435,7 +22887,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -22443,11 +22895,11 @@
         <v>43934</v>
       </c>
       <c r="B32">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
-        <v>6977</v>
+        <v>6968</v>
       </c>
       <c r="E32" s="19">
         <v>43934</v>
@@ -22457,7 +22909,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -22465,11 +22917,11 @@
         <v>43935</v>
       </c>
       <c r="B33">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>7455</v>
+        <v>7443</v>
       </c>
       <c r="E33" s="19">
         <v>43935</v>
@@ -22479,7 +22931,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>625</v>
+        <v>613</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -22487,11 +22939,11 @@
         <v>43936</v>
       </c>
       <c r="B34">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>8092</v>
+        <v>8075</v>
       </c>
       <c r="E34" s="19">
         <v>43936</v>
@@ -22501,7 +22953,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G36" si="6">C34-F34</f>
-        <v>811</v>
+        <v>794</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -22509,11 +22961,11 @@
         <v>43937</v>
       </c>
       <c r="B35">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>8591</v>
+        <v>8570</v>
       </c>
       <c r="E35" s="19">
         <v>43937</v>
@@ -22523,7 +22975,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>831</v>
+        <v>810</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -22531,11 +22983,11 @@
         <v>43938</v>
       </c>
       <c r="B36">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
-        <v>9169</v>
+        <v>9145</v>
       </c>
       <c r="E36" s="19">
         <v>43938</v>
@@ -22545,7 +22997,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>1117</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -22553,11 +23005,11 @@
         <v>43939</v>
       </c>
       <c r="B37" s="23">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
-        <v>9494</v>
+        <v>9469</v>
       </c>
       <c r="E37" s="19">
         <v>43939</v>
@@ -22567,7 +23019,7 @@
       </c>
       <c r="G37">
         <f t="shared" ref="G37" si="7">C37-F37</f>
-        <v>1037</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -22575,11 +23027,11 @@
         <v>43940</v>
       </c>
       <c r="B38" s="23">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C39" si="8">C37+B38</f>
-        <v>9928</v>
+        <v>9900</v>
       </c>
       <c r="E38" s="19">
         <v>43940</v>
@@ -22589,7 +23041,7 @@
       </c>
       <c r="G38">
         <f t="shared" ref="G38" si="9">C38-F38</f>
-        <v>964</v>
+        <v>936</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -22597,11 +23049,11 @@
         <v>43941</v>
       </c>
       <c r="B39">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C39">
         <f t="shared" si="8"/>
-        <v>10438</v>
+        <v>10402</v>
       </c>
       <c r="E39" s="19">
         <v>43941</v>
@@ -22611,7 +23063,7 @@
       </c>
       <c r="G39">
         <f t="shared" ref="G39" si="10">C39-F39</f>
-        <v>1090</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -22619,11 +23071,11 @@
         <v>43942</v>
       </c>
       <c r="B40">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40" si="11">C39+B40</f>
-        <v>10922</v>
+        <v>10880</v>
       </c>
       <c r="E40" s="19">
         <v>43942</v>
@@ -22633,7 +23085,7 @@
       </c>
       <c r="G40">
         <f t="shared" ref="G40" si="12">C40-F40</f>
-        <v>1066</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -22641,11 +23093,11 @@
         <v>43943</v>
       </c>
       <c r="B41">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C41">
         <f t="shared" ref="C41:C52" si="13">C40+B41</f>
-        <v>11483</v>
+        <v>11436</v>
       </c>
       <c r="E41" s="19">
         <v>43943</v>
@@ -22655,7 +23107,7 @@
       </c>
       <c r="G41">
         <f t="shared" ref="G41" si="14">C41-F41</f>
-        <v>1108</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -22663,11 +23115,11 @@
         <v>43944</v>
       </c>
       <c r="B42" s="23">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C42">
         <f t="shared" si="13"/>
-        <v>12045</v>
+        <v>11990</v>
       </c>
       <c r="E42" s="19">
         <v>43944</v>
@@ -22677,7 +23129,7 @@
       </c>
       <c r="G42">
         <f t="shared" ref="G42:G44" si="15">C42-F42</f>
-        <v>1148</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -22685,11 +23137,11 @@
         <v>43945</v>
       </c>
       <c r="B43" s="23">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C43">
         <f t="shared" si="13"/>
-        <v>12575</v>
+        <v>12512</v>
       </c>
       <c r="E43" s="19">
         <v>43945</v>
@@ -22699,7 +23151,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="15"/>
-        <v>1414</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -22707,11 +23159,11 @@
         <v>43946</v>
       </c>
       <c r="B44" s="23">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C44">
         <f t="shared" si="13"/>
-        <v>12906</v>
+        <v>12837</v>
       </c>
       <c r="E44" s="19">
         <v>43946</v>
@@ -22721,7 +23173,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="15"/>
-        <v>1285</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -22729,11 +23181,11 @@
         <v>43947</v>
       </c>
       <c r="B45" s="23">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C45">
         <f t="shared" si="13"/>
-        <v>13235</v>
+        <v>13154</v>
       </c>
       <c r="E45" s="19">
         <v>43947</v>
@@ -22743,7 +23195,7 @@
       </c>
       <c r="G45">
         <f>C45-F45</f>
-        <v>1201</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -22751,11 +23203,11 @@
         <v>43948</v>
       </c>
       <c r="B46" s="23">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C46">
         <f t="shared" si="13"/>
-        <v>13732</v>
+        <v>13644</v>
       </c>
       <c r="E46" s="19">
         <v>43948</v>
@@ -22765,7 +23217,7 @@
       </c>
       <c r="G46">
         <f>C46-F46</f>
-        <v>1245</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -22777,7 +23229,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="13"/>
-        <v>14209</v>
+        <v>14121</v>
       </c>
       <c r="E47" s="19">
         <v>43949</v>
@@ -22787,7 +23239,7 @@
       </c>
       <c r="G47">
         <f t="shared" ref="G47:G52" si="16">C47-F47</f>
-        <v>1398</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -22795,11 +23247,11 @@
         <v>43950</v>
       </c>
       <c r="B48" s="23">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="C48">
         <f t="shared" si="13"/>
-        <v>14752</v>
+        <v>14652</v>
       </c>
       <c r="E48" s="19">
         <v>43950</v>
@@ -22809,7 +23261,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="16"/>
-        <v>1428</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -22817,11 +23269,11 @@
         <v>43951</v>
       </c>
       <c r="B49" s="23">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C49">
         <f t="shared" si="13"/>
-        <v>15362</v>
+        <v>15256</v>
       </c>
       <c r="E49" s="19">
         <v>43951</v>
@@ -22831,7 +23283,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="16"/>
-        <v>1383</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -22843,7 +23295,7 @@
       </c>
       <c r="C50">
         <f t="shared" si="13"/>
-        <v>15989</v>
+        <v>15883</v>
       </c>
       <c r="E50" s="19">
         <v>43952</v>
@@ -22853,7 +23305,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="16"/>
-        <v>1390</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -22861,11 +23313,11 @@
         <v>43953</v>
       </c>
       <c r="B51" s="23">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="C51">
         <f t="shared" si="13"/>
-        <v>16433</v>
+        <v>16336</v>
       </c>
       <c r="E51" s="19">
         <v>43953</v>
@@ -22875,7 +23327,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="16"/>
-        <v>182</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -22883,11 +23335,11 @@
         <v>43954</v>
       </c>
       <c r="B52" s="23">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C52">
         <f t="shared" si="13"/>
-        <v>16781</v>
+        <v>16687</v>
       </c>
       <c r="E52" s="19">
         <v>43954</v>
@@ -22897,7 +23349,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="16"/>
-        <v>175</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -22905,11 +23357,11 @@
         <v>43955</v>
       </c>
       <c r="B53" s="23">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="C53">
         <f t="shared" ref="C53" si="17">C52+B53</f>
-        <v>17142</v>
+        <v>17088</v>
       </c>
       <c r="E53" s="19">
         <v>43955</v>
@@ -22919,19 +23371,19 @@
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="18">C53-F53</f>
-        <v>151</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="19">
         <v>43956</v>
       </c>
-      <c r="B54" s="24">
-        <v>300</v>
+      <c r="B54" s="23">
+        <v>485</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54" si="19">C53+B54</f>
-        <v>17442</v>
+        <f t="shared" ref="C54:C55" si="19">C53+B54</f>
+        <v>17573</v>
       </c>
       <c r="E54" s="19">
         <v>43956</v>
@@ -22941,6 +23393,28 @@
       </c>
       <c r="G54">
         <f t="shared" ref="G54" si="20">C54-F54</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="19">
+        <v>43957</v>
+      </c>
+      <c r="B55" s="24">
+        <v>345</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="19"/>
+        <v>17918</v>
+      </c>
+      <c r="E55" s="19">
+        <v>43957</v>
+      </c>
+      <c r="F55">
+        <v>17918</v>
+      </c>
+      <c r="G55">
+        <f t="shared" ref="G55" si="21">C55-F55</f>
         <v>0</v>
       </c>
     </row>
@@ -22954,9 +23428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH119"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL2" sqref="AL2:AL35"/>
+      <selection pane="topRight" activeCell="AM2" sqref="AM2:AM36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23071,18 +23545,20 @@
         <v>292</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AM1" s="5"/>
+        <v>300</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="AN1" s="5"/>
       <c r="AO1" s="5"/>
       <c r="AP1" s="5"/>
@@ -23376,7 +23852,9 @@
       <c r="AL2" s="7">
         <v>1392</v>
       </c>
-      <c r="AM2" s="7"/>
+      <c r="AM2" s="7">
+        <v>1442</v>
+      </c>
       <c r="AN2" s="7"/>
       <c r="AO2" s="7"/>
       <c r="AP2" s="7"/>
@@ -23670,7 +24148,9 @@
       <c r="AL3" s="9">
         <v>379</v>
       </c>
-      <c r="AM3" s="9"/>
+      <c r="AM3" s="9">
+        <v>398</v>
+      </c>
       <c r="AN3" s="9"/>
       <c r="AO3" s="9"/>
       <c r="AP3" s="9"/>
@@ -23964,7 +24444,9 @@
       <c r="AL4" s="7">
         <v>10</v>
       </c>
-      <c r="AM4" s="7"/>
+      <c r="AM4" s="7">
+        <v>10</v>
+      </c>
       <c r="AN4" s="7"/>
       <c r="AO4" s="7"/>
       <c r="AP4" s="7"/>
@@ -24258,7 +24740,9 @@
       <c r="AL5" s="9">
         <v>45</v>
       </c>
-      <c r="AM5" s="9"/>
+      <c r="AM5" s="9">
+        <v>46</v>
+      </c>
       <c r="AN5" s="9"/>
       <c r="AO5" s="9"/>
       <c r="AP5" s="9"/>
@@ -24552,7 +25036,9 @@
       <c r="AL6" s="7">
         <v>1448</v>
       </c>
-      <c r="AM6" s="7"/>
+      <c r="AM6" s="7">
+        <v>1478</v>
+      </c>
       <c r="AN6" s="7"/>
       <c r="AO6" s="7"/>
       <c r="AP6" s="7"/>
@@ -24846,7 +25332,9 @@
       <c r="AL7" s="9">
         <v>388</v>
       </c>
-      <c r="AM7" s="9"/>
+      <c r="AM7" s="9">
+        <v>390</v>
+      </c>
       <c r="AN7" s="9"/>
       <c r="AO7" s="9"/>
       <c r="AP7" s="9"/>
@@ -25140,7 +25628,9 @@
       <c r="AL8" s="7">
         <v>270</v>
       </c>
-      <c r="AM8" s="7"/>
+      <c r="AM8" s="7">
+        <v>271</v>
+      </c>
       <c r="AN8" s="7"/>
       <c r="AO8" s="7"/>
       <c r="AP8" s="7"/>
@@ -25434,7 +25924,9 @@
       <c r="AL9" s="9">
         <v>137</v>
       </c>
-      <c r="AM9" s="9"/>
+      <c r="AM9" s="9">
+        <v>137</v>
+      </c>
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
       <c r="AP9" s="9"/>
@@ -25728,7 +26220,9 @@
       <c r="AL10" s="7">
         <v>42</v>
       </c>
-      <c r="AM10" s="7"/>
+      <c r="AM10" s="7">
+        <v>42</v>
+      </c>
       <c r="AN10" s="7"/>
       <c r="AO10" s="7"/>
       <c r="AP10" s="7"/>
@@ -26022,7 +26516,9 @@
       <c r="AL11" s="9">
         <v>75</v>
       </c>
-      <c r="AM11" s="9"/>
+      <c r="AM11" s="9">
+        <v>77</v>
+      </c>
       <c r="AN11" s="9"/>
       <c r="AO11" s="9"/>
       <c r="AP11" s="9"/>
@@ -26316,7 +26812,9 @@
       <c r="AL12" s="7">
         <v>354</v>
       </c>
-      <c r="AM12" s="7"/>
+      <c r="AM12" s="7">
+        <v>378</v>
+      </c>
       <c r="AN12" s="7"/>
       <c r="AO12" s="7"/>
       <c r="AP12" s="7"/>
@@ -26610,7 +27108,9 @@
       <c r="AL13" s="9">
         <v>869</v>
       </c>
-      <c r="AM13" s="9"/>
+      <c r="AM13" s="9">
+        <v>888</v>
+      </c>
       <c r="AN13" s="9"/>
       <c r="AO13" s="9"/>
       <c r="AP13" s="9"/>
@@ -26904,7 +27404,9 @@
       <c r="AL14" s="7">
         <v>118</v>
       </c>
-      <c r="AM14" s="7"/>
+      <c r="AM14" s="7">
+        <v>118</v>
+      </c>
       <c r="AN14" s="7"/>
       <c r="AO14" s="7"/>
       <c r="AP14" s="7"/>
@@ -27198,7 +27700,9 @@
       <c r="AL15" s="9">
         <v>1288</v>
       </c>
-      <c r="AM15" s="9"/>
+      <c r="AM15" s="9">
+        <v>1341</v>
+      </c>
       <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
       <c r="AP15" s="9"/>
@@ -27492,7 +27996,9 @@
       <c r="AL16" s="7">
         <v>23</v>
       </c>
-      <c r="AM16" s="7"/>
+      <c r="AM16" s="7">
+        <v>24</v>
+      </c>
       <c r="AN16" s="7"/>
       <c r="AO16" s="7"/>
       <c r="AP16" s="7"/>
@@ -27786,7 +28292,9 @@
       <c r="AL17" s="9">
         <v>1544</v>
       </c>
-      <c r="AM17" s="9"/>
+      <c r="AM17" s="9">
+        <v>1615</v>
+      </c>
       <c r="AN17" s="9"/>
       <c r="AO17" s="9"/>
       <c r="AP17" s="9"/>
@@ -28080,7 +28588,9 @@
       <c r="AL18" s="7">
         <v>14</v>
       </c>
-      <c r="AM18" s="7"/>
+      <c r="AM18" s="7">
+        <v>14</v>
+      </c>
       <c r="AN18" s="7"/>
       <c r="AO18" s="7"/>
       <c r="AP18" s="7"/>
@@ -28374,7 +28884,9 @@
       <c r="AL19" s="9">
         <v>197</v>
       </c>
-      <c r="AM19" s="9"/>
+      <c r="AM19" s="9">
+        <v>202</v>
+      </c>
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
       <c r="AP19" s="9"/>
@@ -28668,7 +29180,9 @@
       <c r="AL20" s="7">
         <v>213</v>
       </c>
-      <c r="AM20" s="7"/>
+      <c r="AM20" s="7">
+        <v>215</v>
+      </c>
       <c r="AN20" s="7"/>
       <c r="AO20" s="7"/>
       <c r="AP20" s="7"/>
@@ -28962,7 +29476,9 @@
       <c r="AL21" s="9">
         <v>313</v>
       </c>
-      <c r="AM21" s="9"/>
+      <c r="AM21" s="9">
+        <v>324</v>
+      </c>
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
       <c r="AP21" s="9"/>
@@ -29256,7 +29772,9 @@
       <c r="AL22" s="7">
         <v>631</v>
       </c>
-      <c r="AM22" s="7"/>
+      <c r="AM22" s="7">
+        <v>649</v>
+      </c>
       <c r="AN22" s="7"/>
       <c r="AO22" s="7"/>
       <c r="AP22" s="7"/>
@@ -29550,7 +30068,9 @@
       <c r="AL23" s="9">
         <v>139</v>
       </c>
-      <c r="AM23" s="9"/>
+      <c r="AM23" s="9">
+        <v>142</v>
+      </c>
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
       <c r="AP23" s="9"/>
@@ -29844,7 +30364,9 @@
       <c r="AL24" s="7">
         <v>1247</v>
       </c>
-      <c r="AM24" s="7"/>
+      <c r="AM24" s="7">
+        <v>1300</v>
+      </c>
       <c r="AN24" s="7"/>
       <c r="AO24" s="7"/>
       <c r="AP24" s="7"/>
@@ -30138,7 +30660,9 @@
       <c r="AL25" s="9">
         <v>958</v>
       </c>
-      <c r="AM25" s="9"/>
+      <c r="AM25" s="9">
+        <v>978</v>
+      </c>
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
       <c r="AP25" s="9"/>
@@ -30432,7 +30956,9 @@
       <c r="AL26" s="7">
         <v>16</v>
       </c>
-      <c r="AM26" s="7"/>
+      <c r="AM26" s="7">
+        <v>16</v>
+      </c>
       <c r="AN26" s="7"/>
       <c r="AO26" s="7"/>
       <c r="AP26" s="7"/>
@@ -30726,7 +31252,9 @@
       <c r="AL27" s="9">
         <v>627</v>
       </c>
-      <c r="AM27" s="9"/>
+      <c r="AM27" s="9">
+        <v>645</v>
+      </c>
       <c r="AN27" s="9"/>
       <c r="AO27" s="9"/>
       <c r="AP27" s="9"/>
@@ -31020,7 +31548,9 @@
       <c r="AL28" s="7">
         <v>675</v>
       </c>
-      <c r="AM28" s="7"/>
+      <c r="AM28" s="7">
+        <v>694</v>
+      </c>
       <c r="AN28" s="7"/>
       <c r="AO28" s="7"/>
       <c r="AP28" s="7"/>
@@ -31314,7 +31844,9 @@
       <c r="AL29" s="20">
         <v>2</v>
       </c>
-      <c r="AM29" s="22"/>
+      <c r="AM29" s="20">
+        <v>2</v>
+      </c>
       <c r="AN29" s="22"/>
       <c r="AO29" s="22"/>
       <c r="AP29" s="22"/>
@@ -31608,7 +32140,9 @@
       <c r="AL30" s="7">
         <v>688</v>
       </c>
-      <c r="AM30" s="7"/>
+      <c r="AM30" s="7">
+        <v>694</v>
+      </c>
       <c r="AN30" s="7"/>
       <c r="AO30" s="7"/>
       <c r="AP30" s="7"/>
@@ -31902,7 +32436,9 @@
       <c r="AL31" s="9">
         <v>724</v>
       </c>
-      <c r="AM31" s="9"/>
+      <c r="AM31" s="9">
+        <v>738</v>
+      </c>
       <c r="AN31" s="9"/>
       <c r="AO31" s="9"/>
       <c r="AP31" s="9"/>
@@ -32196,7 +32732,9 @@
       <c r="AL32" s="7">
         <v>456</v>
       </c>
-      <c r="AM32" s="7"/>
+      <c r="AM32" s="7">
+        <v>475</v>
+      </c>
       <c r="AN32" s="7"/>
       <c r="AO32" s="7"/>
       <c r="AP32" s="7"/>
@@ -32490,7 +33028,9 @@
       <c r="AL33" s="9">
         <v>1239</v>
       </c>
-      <c r="AM33" s="9"/>
+      <c r="AM33" s="9">
+        <v>1268</v>
+      </c>
       <c r="AN33" s="9"/>
       <c r="AO33" s="9"/>
       <c r="AP33" s="9"/>
@@ -32784,7 +33324,9 @@
       <c r="AL34" s="7">
         <v>139</v>
       </c>
-      <c r="AM34" s="7"/>
+      <c r="AM34" s="7">
+        <v>143</v>
+      </c>
       <c r="AN34" s="7"/>
       <c r="AO34" s="7"/>
       <c r="AP34" s="7"/>
@@ -33078,7 +33620,9 @@
       <c r="AL35" s="9">
         <v>783</v>
       </c>
-      <c r="AM35" s="9"/>
+      <c r="AM35" s="9">
+        <v>765</v>
+      </c>
       <c r="AN35" s="9"/>
       <c r="AO35" s="9"/>
       <c r="AP35" s="9"/>
@@ -33372,7 +33916,9 @@
       <c r="AL36" s="11">
         <v>17442</v>
       </c>
-      <c r="AM36" s="11"/>
+      <c r="AM36" s="11">
+        <v>17918</v>
+      </c>
       <c r="AN36" s="11"/>
       <c r="AO36" s="11"/>
       <c r="AP36" s="11"/>
@@ -37821,7 +38367,9 @@
       <c r="AL57" s="7">
         <v>166</v>
       </c>
-      <c r="AM57" s="7"/>
+      <c r="AM57" s="7">
+        <v>167</v>
+      </c>
       <c r="AN57" s="7"/>
       <c r="AO57" s="7"/>
       <c r="AP57" s="7"/>
@@ -38113,7 +38661,9 @@
       <c r="AL58" s="9">
         <v>138</v>
       </c>
-      <c r="AM58" s="9"/>
+      <c r="AM58" s="9">
+        <v>140</v>
+      </c>
       <c r="AN58" s="9"/>
       <c r="AO58" s="9"/>
       <c r="AP58" s="9"/>
@@ -38405,7 +38955,9 @@
       <c r="AL59" s="7">
         <v>497</v>
       </c>
-      <c r="AM59" s="7"/>
+      <c r="AM59" s="7">
+        <v>512</v>
+      </c>
       <c r="AN59" s="7"/>
       <c r="AO59" s="7"/>
       <c r="AP59" s="7"/>
@@ -38697,7 +39249,9 @@
       <c r="AL60" s="9">
         <v>1845</v>
       </c>
-      <c r="AM60" s="9"/>
+      <c r="AM60" s="9">
+        <v>1893</v>
+      </c>
       <c r="AN60" s="9"/>
       <c r="AO60" s="9"/>
       <c r="AP60" s="9"/>
@@ -38989,7 +39543,9 @@
       <c r="AL61" s="7">
         <v>2108</v>
       </c>
-      <c r="AM61" s="7"/>
+      <c r="AM61" s="7">
+        <v>2169</v>
+      </c>
       <c r="AN61" s="7"/>
       <c r="AO61" s="7"/>
       <c r="AP61" s="7"/>
@@ -39281,7 +39837,9 @@
       <c r="AL62" s="9">
         <v>2418</v>
       </c>
-      <c r="AM62" s="9"/>
+      <c r="AM62" s="9">
+        <v>2485</v>
+      </c>
       <c r="AN62" s="9"/>
       <c r="AO62" s="9"/>
       <c r="AP62" s="9"/>
@@ -39573,7 +40131,9 @@
       <c r="AL63" s="7">
         <v>2210</v>
       </c>
-      <c r="AM63" s="7"/>
+      <c r="AM63" s="7">
+        <v>2272</v>
+      </c>
       <c r="AN63" s="7"/>
       <c r="AO63" s="7"/>
       <c r="AP63" s="7"/>
@@ -39865,7 +40425,9 @@
       <c r="AL64" s="9">
         <v>1547</v>
       </c>
-      <c r="AM64" s="9"/>
+      <c r="AM64" s="9">
+        <v>1572</v>
+      </c>
       <c r="AN64" s="9"/>
       <c r="AO64" s="9"/>
       <c r="AP64" s="9"/>
@@ -40157,7 +40719,9 @@
       <c r="AL65" s="7">
         <v>1659</v>
       </c>
-      <c r="AM65" s="7"/>
+      <c r="AM65" s="7">
+        <v>1711</v>
+      </c>
       <c r="AN65" s="7"/>
       <c r="AO65" s="7"/>
       <c r="AP65" s="7"/>
@@ -40449,7 +41013,9 @@
       <c r="AL66" s="9">
         <v>4773</v>
       </c>
-      <c r="AM66" s="9"/>
+      <c r="AM66" s="9">
+        <v>4929</v>
+      </c>
       <c r="AN66" s="9"/>
       <c r="AO66" s="9"/>
       <c r="AP66" s="9"/>
@@ -40741,7 +41307,9 @@
       <c r="AL67" s="7">
         <v>81</v>
       </c>
-      <c r="AM67" s="7"/>
+      <c r="AM67" s="7">
+        <v>68</v>
+      </c>
       <c r="AN67" s="7"/>
       <c r="AO67" s="7"/>
       <c r="AP67" s="7"/>
@@ -41033,7 +41601,9 @@
       <c r="AL68" s="15">
         <v>17442</v>
       </c>
-      <c r="AM68" s="15"/>
+      <c r="AM68" s="15">
+        <v>17918</v>
+      </c>
       <c r="AN68" s="15"/>
       <c r="AO68" s="15"/>
       <c r="AP68" s="15"/>
@@ -41779,6 +42349,9 @@
       <c r="AL72">
         <v>191</v>
       </c>
+      <c r="AM72">
+        <v>195</v>
+      </c>
     </row>
     <row r="73" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="8" t="s">
@@ -41796,6 +42369,9 @@
       <c r="AL73">
         <v>17</v>
       </c>
+      <c r="AM73">
+        <v>17</v>
+      </c>
     </row>
     <row r="74" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="6" t="s">
@@ -41813,21 +42389,27 @@
       <c r="AL74">
         <v>0</v>
       </c>
+      <c r="AM74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="8" t="s">
         <v>40</v>
       </c>
       <c r="AI75" s="24" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AJ75" s="24" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AK75" s="24">
         <v>2</v>
       </c>
       <c r="AL75">
+        <v>5</v>
+      </c>
+      <c r="AM75">
         <v>5</v>
       </c>
     </row>
@@ -41847,6 +42429,9 @@
       <c r="AL76">
         <v>144</v>
       </c>
+      <c r="AM76">
+        <v>147</v>
+      </c>
     </row>
     <row r="77" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="8" t="s">
@@ -41864,6 +42449,9 @@
       <c r="AL77">
         <v>15</v>
       </c>
+      <c r="AM77">
+        <v>17</v>
+      </c>
     </row>
     <row r="78" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="6" t="s">
@@ -41881,6 +42469,9 @@
       <c r="AL78">
         <v>18</v>
       </c>
+      <c r="AM78">
+        <v>19</v>
+      </c>
     </row>
     <row r="79" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="8" t="s">
@@ -41898,6 +42489,9 @@
       <c r="AL79">
         <v>26</v>
       </c>
+      <c r="AM79">
+        <v>27</v>
+      </c>
     </row>
     <row r="80" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="6" t="s">
@@ -41907,7 +42501,7 @@
         <v>0</v>
       </c>
       <c r="AJ80" s="24" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AK80">
         <v>0</v>
@@ -41915,8 +42509,11 @@
       <c r="AL80">
         <v>0</v>
       </c>
+      <c r="AM80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="8" t="s">
         <v>46</v>
       </c>
@@ -41932,8 +42529,11 @@
       <c r="AL81">
         <v>8</v>
       </c>
+      <c r="AM81">
+        <v>8</v>
+      </c>
     </row>
-    <row r="82" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="6" t="s">
         <v>47</v>
       </c>
@@ -41949,8 +42549,11 @@
       <c r="AL82">
         <v>24</v>
       </c>
+      <c r="AM82">
+        <v>41</v>
+      </c>
     </row>
-    <row r="83" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="8" t="s">
         <v>48</v>
       </c>
@@ -41966,8 +42569,11 @@
       <c r="AL83">
         <v>94</v>
       </c>
+      <c r="AM83">
+        <v>112</v>
+      </c>
     </row>
-    <row r="84" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
         <v>49</v>
       </c>
@@ -41983,8 +42589,11 @@
       <c r="AL84">
         <v>15</v>
       </c>
+      <c r="AM84">
+        <v>17</v>
+      </c>
     </row>
-    <row r="85" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="8" t="s">
         <v>50</v>
       </c>
@@ -42000,8 +42609,11 @@
       <c r="AL85">
         <v>153</v>
       </c>
+      <c r="AM85">
+        <v>166</v>
+      </c>
     </row>
-    <row r="86" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
         <v>51</v>
       </c>
@@ -42009,16 +42621,19 @@
         <v>0</v>
       </c>
       <c r="AJ86" s="24" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AK86" s="24" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AL86" s="24" t="s">
-        <v>301</v>
+        <v>297</v>
+      </c>
+      <c r="AM86" s="24" t="s">
+        <v>297</v>
       </c>
     </row>
-    <row r="87" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="8" t="s">
         <v>52</v>
       </c>
@@ -42034,25 +42649,31 @@
       <c r="AL87">
         <v>99</v>
       </c>
+      <c r="AM87">
+        <v>102</v>
+      </c>
     </row>
-    <row r="88" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
         <v>53</v>
       </c>
       <c r="AI88" s="24" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AJ88" s="24" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AK88" s="24" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AL88" s="24" t="s">
-        <v>301</v>
+        <v>297</v>
+      </c>
+      <c r="AM88" s="24" t="s">
+        <v>297</v>
       </c>
     </row>
-    <row r="89" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="8" t="s">
         <v>54</v>
       </c>
@@ -42068,8 +42689,11 @@
       <c r="AL89">
         <v>53</v>
       </c>
+      <c r="AM89">
+        <v>55</v>
+      </c>
     </row>
-    <row r="90" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="6" t="s">
         <v>55</v>
       </c>
@@ -42085,8 +42709,11 @@
       <c r="AL90">
         <v>8</v>
       </c>
+      <c r="AM90">
+        <v>8</v>
+      </c>
     </row>
-    <row r="91" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="8" t="s">
         <v>56</v>
       </c>
@@ -42102,8 +42729,11 @@
       <c r="AL91">
         <v>19</v>
       </c>
+      <c r="AM91">
+        <v>21</v>
+      </c>
     </row>
-    <row r="92" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
         <v>57</v>
       </c>
@@ -42119,8 +42749,11 @@
       <c r="AL92">
         <v>51</v>
       </c>
+      <c r="AM92">
+        <v>56</v>
+      </c>
     </row>
-    <row r="93" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="8" t="s">
         <v>58</v>
       </c>
@@ -42136,8 +42769,11 @@
       <c r="AL93">
         <v>15</v>
       </c>
+      <c r="AM93">
+        <v>16</v>
+      </c>
     </row>
-    <row r="94" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
         <v>59</v>
       </c>
@@ -42153,8 +42789,11 @@
       <c r="AL94">
         <v>57</v>
       </c>
+      <c r="AM94">
+        <v>64</v>
+      </c>
     </row>
-    <row r="95" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="8" t="s">
         <v>60</v>
       </c>
@@ -42170,22 +42809,28 @@
       <c r="AL95">
         <v>91</v>
       </c>
+      <c r="AM95">
+        <v>96</v>
+      </c>
     </row>
-    <row r="96" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="6" t="s">
         <v>61</v>
       </c>
       <c r="AI96" s="24" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AJ96" s="24" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AK96" s="24" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AL96" s="24" t="s">
-        <v>301</v>
+        <v>297</v>
+      </c>
+      <c r="AM96" s="24" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="97" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -42204,6 +42849,9 @@
       <c r="AL97">
         <v>56</v>
       </c>
+      <c r="AM97">
+        <v>60</v>
+      </c>
     </row>
     <row r="98" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="6" t="s">
@@ -42221,6 +42869,9 @@
       <c r="AL98">
         <v>30</v>
       </c>
+      <c r="AM98">
+        <v>32</v>
+      </c>
     </row>
     <row r="99" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="8" t="s">
@@ -42238,6 +42889,9 @@
       <c r="AL99">
         <v>0</v>
       </c>
+      <c r="AM99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="6" t="s">
@@ -42255,6 +42909,9 @@
       <c r="AL100">
         <v>127</v>
       </c>
+      <c r="AM100">
+        <v>129</v>
+      </c>
     </row>
     <row r="101" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="8" t="s">
@@ -42272,6 +42929,9 @@
       <c r="AL101">
         <v>91</v>
       </c>
+      <c r="AM101">
+        <v>93</v>
+      </c>
     </row>
     <row r="102" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="6" t="s">
@@ -42289,6 +42949,9 @@
       <c r="AL102">
         <v>26</v>
       </c>
+      <c r="AM102">
+        <v>31</v>
+      </c>
     </row>
     <row r="103" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="8" t="s">
@@ -42306,6 +42969,9 @@
       <c r="AL103">
         <v>72</v>
       </c>
+      <c r="AM103">
+        <v>74</v>
+      </c>
     </row>
     <row r="104" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="6" t="s">
@@ -42323,6 +42989,9 @@
       <c r="AL104">
         <v>14</v>
       </c>
+      <c r="AM104">
+        <v>14</v>
+      </c>
     </row>
     <row r="105" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="8" t="s">
@@ -42340,6 +43009,9 @@
       <c r="AL105">
         <v>38</v>
       </c>
+      <c r="AM105">
+        <v>39</v>
+      </c>
     </row>
     <row r="106" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="10" t="s">
@@ -42356,6 +43028,9 @@
       </c>
       <c r="AL106">
         <v>1562</v>
+      </c>
+      <c r="AM106">
+        <v>1666</v>
       </c>
     </row>
     <row r="107" spans="1:216" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -42594,6 +43269,9 @@
       <c r="AL108">
         <v>0</v>
       </c>
+      <c r="AM108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
@@ -42611,6 +43289,9 @@
       <c r="AL109">
         <v>0</v>
       </c>
+      <c r="AM109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
@@ -42628,6 +43309,9 @@
       <c r="AL110">
         <v>0</v>
       </c>
+      <c r="AM110">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
@@ -42645,6 +43329,9 @@
       <c r="AL111">
         <v>0</v>
       </c>
+      <c r="AM111">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
@@ -42662,8 +43349,11 @@
       <c r="AL112" s="24">
         <v>3</v>
       </c>
+      <c r="AM112" s="24">
+        <v>3</v>
+      </c>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>91</v>
       </c>
@@ -42679,8 +43369,11 @@
       <c r="AL113">
         <v>11</v>
       </c>
+      <c r="AM113">
+        <v>12</v>
+      </c>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>92</v>
       </c>
@@ -42696,8 +43389,11 @@
       <c r="AL114">
         <v>27</v>
       </c>
+      <c r="AM114">
+        <v>29</v>
+      </c>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>93</v>
       </c>
@@ -42713,8 +43409,11 @@
       <c r="AL115">
         <v>111</v>
       </c>
+      <c r="AM115">
+        <v>119</v>
+      </c>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>94</v>
       </c>
@@ -42730,8 +43429,11 @@
       <c r="AL116">
         <v>257</v>
       </c>
+      <c r="AM116">
+        <v>274</v>
+      </c>
     </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>95</v>
       </c>
@@ -42747,8 +43449,11 @@
       <c r="AL117">
         <v>1152</v>
       </c>
+      <c r="AM117">
+        <v>1228</v>
+      </c>
     </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>96</v>
       </c>
@@ -42764,13 +43469,16 @@
       <c r="AL118" s="24">
         <v>1</v>
       </c>
+      <c r="AM118" s="24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>97</v>
       </c>
       <c r="AI119" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AJ119">
         <v>1410</v>
@@ -42780,6 +43488,9 @@
       </c>
       <c r="AL119">
         <v>1562</v>
+      </c>
+      <c r="AM119" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -42804,10 +43515,10 @@
         <v>86</v>
       </c>
       <c r="B1">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C1" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="D1" t="s">
         <v>308</v>
@@ -42821,7 +43532,7 @@
         <v>87</v>
       </c>
       <c r="B2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
         <v>291</v>
@@ -42838,13 +43549,13 @@
         <v>88</v>
       </c>
       <c r="B3">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="C3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" t="s">
         <v>310</v>
-      </c>
-      <c r="D3" t="s">
-        <v>311</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -42855,13 +43566,13 @@
         <v>89</v>
       </c>
       <c r="B4">
-        <v>1845</v>
+        <v>1893</v>
       </c>
       <c r="C4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -42872,16 +43583,16 @@
         <v>90</v>
       </c>
       <c r="B5">
-        <v>2108</v>
+        <v>2169</v>
       </c>
       <c r="C5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" t="s">
         <v>313</v>
       </c>
-      <c r="D5" t="s">
-        <v>314</v>
-      </c>
       <c r="E5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F5" t="s">
         <v>290</v>
@@ -42892,19 +43603,19 @@
         <v>91</v>
       </c>
       <c r="B6">
-        <v>2418</v>
+        <v>2485</v>
       </c>
       <c r="C6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
         <v>315</v>
-      </c>
-      <c r="D6" t="s">
-        <v>316</v>
-      </c>
-      <c r="E6">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -42912,19 +43623,19 @@
         <v>92</v>
       </c>
       <c r="B7">
-        <v>2210</v>
+        <v>2272</v>
       </c>
       <c r="C7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
         <v>317</v>
-      </c>
-      <c r="D7" t="s">
-        <v>318</v>
-      </c>
-      <c r="E7">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -42932,19 +43643,19 @@
         <v>93</v>
       </c>
       <c r="B8">
-        <v>1547</v>
+        <v>1572</v>
       </c>
       <c r="C8" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="D8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E8">
+        <v>119</v>
+      </c>
+      <c r="F8" t="s">
         <v>320</v>
-      </c>
-      <c r="E8">
-        <v>111</v>
-      </c>
-      <c r="F8" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -42952,19 +43663,19 @@
         <v>94</v>
       </c>
       <c r="B9" s="2">
-        <v>1659</v>
+        <v>1711</v>
       </c>
       <c r="C9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E9">
+        <v>274</v>
+      </c>
+      <c r="F9" t="s">
         <v>322</v>
-      </c>
-      <c r="E9">
-        <v>257</v>
-      </c>
-      <c r="F9" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -42972,10 +43683,10 @@
         <v>95</v>
       </c>
       <c r="B10">
-        <v>4773</v>
+        <v>4929</v>
       </c>
       <c r="C10" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="D10" t="s">
         <v>324</v>
@@ -42992,7 +43703,7 @@
         <v>96</v>
       </c>
       <c r="B11">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
         <v>229</v>
@@ -43001,7 +43712,7 @@
         <v>229</v>
       </c>
       <c r="E11" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F11" t="s">
         <v>229</v>
@@ -43012,19 +43723,19 @@
         <v>97</v>
       </c>
       <c r="B12">
-        <v>17442</v>
+        <v>17918</v>
       </c>
       <c r="C12" t="s">
         <v>229</v>
       </c>
       <c r="D12" t="s">
+        <v>304</v>
+      </c>
+      <c r="E12" t="s">
         <v>305</v>
       </c>
-      <c r="E12" t="s">
-        <v>306</v>
-      </c>
       <c r="F12" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/app/data/covid19_MTL.xlsx
+++ b/app/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393486B2-75E3-4D98-ACD2-C537B5939A9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6358AB96-6C1F-4DF6-9B4A-522D573600DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17980" yWindow="6120" windowWidth="25460" windowHeight="11480" tabRatio="585" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="7220" yWindow="5850" windowWidth="31170" windowHeight="11480" tabRatio="585" activeTab="2" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="328">
   <si>
     <t>borough</t>
   </si>
@@ -11208,11 +11208,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AS54"/>
+  <dimension ref="A1:AS55"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AR61" sqref="AR61"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19651,14 +19651,14 @@
         <v>17918</v>
       </c>
       <c r="C54" s="17">
-        <f t="shared" ref="C54" si="571">B54-B53</f>
+        <f t="shared" ref="C54:C55" si="571">B54-B53</f>
         <v>345</v>
       </c>
       <c r="D54">
         <v>1666</v>
       </c>
       <c r="E54">
-        <f t="shared" ref="E54" si="572">D54-D53</f>
+        <f t="shared" ref="E54:E55" si="572">D54-D53</f>
         <v>104</v>
       </c>
       <c r="F54" cm="1">
@@ -19811,6 +19811,146 @@
       <c r="AS54" s="3">
         <f t="shared" ref="AS54" si="592">Y54*100/SUM($P54:$Y54)</f>
         <v>45.949537145352195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A55" s="19">
+        <v>43958</v>
+      </c>
+      <c r="B55" s="17">
+        <f>mtl_newcases!C56</f>
+        <v>18435</v>
+      </c>
+      <c r="C55" s="17">
+        <f t="shared" si="571"/>
+        <v>517</v>
+      </c>
+      <c r="D55">
+        <v>1727</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="572"/>
+        <v>61</v>
+      </c>
+      <c r="F55" t="s">
+        <v>101</v>
+      </c>
+      <c r="G55" t="s">
+        <v>101</v>
+      </c>
+      <c r="H55" t="s">
+        <v>101</v>
+      </c>
+      <c r="I55" t="s">
+        <v>101</v>
+      </c>
+      <c r="J55" t="s">
+        <v>101</v>
+      </c>
+      <c r="K55" t="s">
+        <v>101</v>
+      </c>
+      <c r="L55" t="s">
+        <v>101</v>
+      </c>
+      <c r="M55" t="s">
+        <v>101</v>
+      </c>
+      <c r="N55" t="s">
+        <v>101</v>
+      </c>
+      <c r="O55" t="s">
+        <v>101</v>
+      </c>
+      <c r="P55" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>101</v>
+      </c>
+      <c r="R55" t="s">
+        <v>101</v>
+      </c>
+      <c r="S55" t="s">
+        <v>101</v>
+      </c>
+      <c r="T55" t="s">
+        <v>101</v>
+      </c>
+      <c r="U55" t="s">
+        <v>101</v>
+      </c>
+      <c r="V55" t="s">
+        <v>101</v>
+      </c>
+      <c r="W55" t="s">
+        <v>101</v>
+      </c>
+      <c r="X55" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -19820,11 +19960,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K67" sqref="K67"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19965,7 +20105,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F66" si="1">E4-E3</f>
+        <f t="shared" ref="F4:F67" si="1">E4-E3</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -19978,7 +20118,7 @@
         <v>260</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J66" si="2">I4-I3</f>
+        <f t="shared" ref="J4:J67" si="2">I4-I3</f>
         <v>18</v>
       </c>
       <c r="K4" t="s">
@@ -22339,6 +22479,44 @@
       </c>
       <c r="K66">
         <v>8673</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B67">
+        <v>36150</v>
+      </c>
+      <c r="C67">
+        <f>B67-B66</f>
+        <v>912</v>
+      </c>
+      <c r="D67">
+        <v>24497</v>
+      </c>
+      <c r="E67">
+        <v>2725</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="G67">
+        <v>1827</v>
+      </c>
+      <c r="H67">
+        <v>207</v>
+      </c>
+      <c r="I67">
+        <v>234769</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="2"/>
+        <v>5864</v>
+      </c>
+      <c r="K67">
+        <v>8928</v>
       </c>
     </row>
   </sheetData>
@@ -22348,11 +22526,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23382,7 +23560,7 @@
         <v>485</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:C55" si="19">C53+B54</f>
+        <f t="shared" ref="C54:C56" si="19">C53+B54</f>
         <v>17573</v>
       </c>
       <c r="E54" s="19">
@@ -23414,7 +23592,29 @@
         <v>17918</v>
       </c>
       <c r="G55">
-        <f t="shared" ref="G55" si="21">C55-F55</f>
+        <f t="shared" ref="G55:G56" si="21">C55-F55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="19">
+        <v>43958</v>
+      </c>
+      <c r="B56" s="24">
+        <v>517</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="19"/>
+        <v>18435</v>
+      </c>
+      <c r="E56" s="19">
+        <v>43958</v>
+      </c>
+      <c r="F56">
+        <v>18435</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>

--- a/app/data/covid19_MTL.xlsx
+++ b/app/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6358AB96-6C1F-4DF6-9B4A-522D573600DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DFE295-1854-492E-9791-DBEA89258BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7220" yWindow="5850" windowWidth="31170" windowHeight="11480" tabRatio="585" activeTab="2" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="7980" yWindow="7460" windowWidth="31170" windowHeight="11480" tabRatio="585" activeTab="1" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="335">
   <si>
     <t>borough</t>
   </si>
@@ -985,79 +985,100 @@
     <t>13,9</t>
   </si>
   <si>
-    <t>12,7</t>
-  </si>
-  <si>
-    <t> 867,4</t>
-  </si>
-  <si>
     <t>1 666</t>
   </si>
   <si>
     <t>6 MAI, 18h04</t>
   </si>
   <si>
-    <t>0,9</t>
-  </si>
-  <si>
-    <t> 150,6</t>
-  </si>
-  <si>
-    <t> 129,7</t>
-  </si>
-  <si>
-    <t> 257,4</t>
-  </si>
-  <si>
-    <t> 587,7</t>
-  </si>
-  <si>
     <t>12,2</t>
-  </si>
-  <si>
-    <t> 660,2</t>
-  </si>
-  <si>
-    <t> 892,8</t>
   </si>
   <si>
     <t>* 4,3</t>
   </si>
   <si>
-    <t> 885,2</t>
-  </si>
-  <si>
-    <t>* 11,3</t>
-  </si>
-  <si>
     <t>8,8</t>
-  </si>
-  <si>
-    <t> 725,9</t>
-  </si>
-  <si>
-    <t> 54,9</t>
-  </si>
-  <si>
-    <t> 1 182,4</t>
-  </si>
-  <si>
-    <t> 189,4</t>
   </si>
   <si>
     <t>27,6</t>
   </si>
   <si>
-    <t> 4 878,2</t>
+    <t> 892,4</t>
   </si>
   <si>
-    <t>1 228</t>
+    <t>7 MAI, 18h04</t>
   </si>
   <si>
-    <t> 1 215,3</t>
+    <t>100 000</t>
   </si>
   <si>
-    <t> 80,7</t>
+    <t>NOMBRE DE CAS CONFIRMÉS¹</t>
+  </si>
+  <si>
+    <t>RÉPARTITION DES CAS (%)</t>
+  </si>
+  <si>
+    <t>TAUX POUR</t>
+  </si>
+  <si>
+    <t>PERSONNES</t>
+  </si>
+  <si>
+    <t>NOMBRE DE DÉCÈS</t>
+  </si>
+  <si>
+    <t>TAUX DE MORTALITÉ POUR</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t> 157,8</t>
+  </si>
+  <si>
+    <t> 133,4</t>
+  </si>
+  <si>
+    <t> 265,5</t>
+  </si>
+  <si>
+    <t> 603,2</t>
+  </si>
+  <si>
+    <t> 680,3</t>
+  </si>
+  <si>
+    <t>914,3</t>
+  </si>
+  <si>
+    <t>12,8</t>
+  </si>
+  <si>
+    <t>912,5</t>
+  </si>
+  <si>
+    <t>* 12,1</t>
+  </si>
+  <si>
+    <t> 749</t>
+  </si>
+  <si>
+    <t> 56,8</t>
+  </si>
+  <si>
+    <t> 1 219,1</t>
+  </si>
+  <si>
+    <t> 196,3</t>
+  </si>
+  <si>
+    <t>5 015,8</t>
+  </si>
+  <si>
+    <t> 1 259,9</t>
+  </si>
+  <si>
+    <t> 83,6</t>
   </si>
 </sst>
 </file>
@@ -1571,20 +1592,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:AN35"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView topLeftCell="R10" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AN36" sqref="AN36"/>
+      <selection activeCell="AN1" sqref="AN1:AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="40" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="41" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1705,8 +1726,11 @@
       <c r="AN1" s="19">
         <v>43957</v>
       </c>
+      <c r="AO1" s="19">
+        <v>43958</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1827,8 +1851,11 @@
       <c r="AN2">
         <v>1442</v>
       </c>
+      <c r="AO2">
+        <v>1502</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1949,8 +1976,11 @@
       <c r="AN3">
         <v>398</v>
       </c>
+      <c r="AO3">
+        <v>409</v>
+      </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2071,8 +2101,11 @@
       <c r="AN4">
         <v>10</v>
       </c>
+      <c r="AO4">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2193,8 +2226,11 @@
       <c r="AN5">
         <v>46</v>
       </c>
+      <c r="AO5">
+        <v>45</v>
+      </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2315,8 +2351,11 @@
       <c r="AN6">
         <v>1478</v>
       </c>
+      <c r="AO6">
+        <v>1512</v>
+      </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -2437,8 +2476,11 @@
       <c r="AN7">
         <v>390</v>
       </c>
+      <c r="AO7">
+        <v>393</v>
+      </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -2559,8 +2601,11 @@
       <c r="AN8">
         <v>271</v>
       </c>
+      <c r="AO8">
+        <v>274</v>
+      </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -2681,8 +2726,11 @@
       <c r="AN9">
         <v>137</v>
       </c>
+      <c r="AO9">
+        <v>141</v>
+      </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -2803,8 +2851,11 @@
       <c r="AN10">
         <v>42</v>
       </c>
+      <c r="AO10">
+        <v>42</v>
+      </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -2925,8 +2976,11 @@
       <c r="AN11">
         <v>77</v>
       </c>
+      <c r="AO11">
+        <v>77</v>
+      </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3047,8 +3101,11 @@
       <c r="AN12">
         <v>378</v>
       </c>
+      <c r="AO12">
+        <v>386</v>
+      </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3169,8 +3226,11 @@
       <c r="AN13">
         <v>888</v>
       </c>
+      <c r="AO13">
+        <v>902</v>
+      </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3291,8 +3351,11 @@
       <c r="AN14">
         <v>118</v>
       </c>
+      <c r="AO14">
+        <v>125</v>
+      </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3413,8 +3476,11 @@
       <c r="AN15">
         <v>1341</v>
       </c>
+      <c r="AO15">
+        <v>1402</v>
+      </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -3535,8 +3601,11 @@
       <c r="AN16">
         <v>24</v>
       </c>
+      <c r="AO16">
+        <v>24</v>
+      </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3657,8 +3726,11 @@
       <c r="AN17">
         <v>1615</v>
       </c>
+      <c r="AO17">
+        <v>1676</v>
+      </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -3779,8 +3851,11 @@
       <c r="AN18">
         <v>14</v>
       </c>
+      <c r="AO18">
+        <v>15</v>
+      </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -3901,8 +3976,11 @@
       <c r="AN19">
         <v>202</v>
       </c>
+      <c r="AO19">
+        <v>207</v>
+      </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4023,8 +4101,11 @@
       <c r="AN20">
         <v>215</v>
       </c>
+      <c r="AO20">
+        <v>217</v>
+      </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4145,8 +4226,11 @@
       <c r="AN21">
         <v>324</v>
       </c>
+      <c r="AO21">
+        <v>337</v>
+      </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4267,8 +4351,11 @@
       <c r="AN22">
         <v>649</v>
       </c>
+      <c r="AO22">
+        <v>657</v>
+      </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -4389,8 +4476,11 @@
       <c r="AN23">
         <v>142</v>
       </c>
+      <c r="AO23">
+        <v>142</v>
+      </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4511,8 +4601,11 @@
       <c r="AN24">
         <v>1300</v>
       </c>
+      <c r="AO24">
+        <v>1361</v>
+      </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4633,8 +4726,11 @@
       <c r="AN25">
         <v>978</v>
       </c>
+      <c r="AO25">
+        <v>1016</v>
+      </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -4755,8 +4851,11 @@
       <c r="AN26">
         <v>16</v>
       </c>
+      <c r="AO26">
+        <v>15</v>
+      </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4877,8 +4976,11 @@
       <c r="AN27">
         <v>645</v>
       </c>
+      <c r="AO27">
+        <v>654</v>
+      </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4999,8 +5101,11 @@
       <c r="AN28">
         <v>694</v>
       </c>
+      <c r="AO28">
+        <v>716</v>
+      </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -5121,8 +5226,11 @@
       <c r="AN29">
         <v>2</v>
       </c>
+      <c r="AO29">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5243,8 +5351,11 @@
       <c r="AN30">
         <v>694</v>
       </c>
+      <c r="AO30">
+        <v>708</v>
+      </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5365,8 +5476,11 @@
       <c r="AN31">
         <v>738</v>
       </c>
+      <c r="AO31">
+        <v>746</v>
+      </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5487,8 +5601,11 @@
       <c r="AN32">
         <v>475</v>
       </c>
+      <c r="AO32">
+        <v>495</v>
+      </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5609,8 +5726,11 @@
       <c r="AN33">
         <v>1268</v>
       </c>
+      <c r="AO33">
+        <v>1307</v>
+      </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -5731,8 +5851,11 @@
       <c r="AN34">
         <v>143</v>
       </c>
+      <c r="AO34">
+        <v>143</v>
+      </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5852,6 +5975,9 @@
       </c>
       <c r="AN35">
         <v>765</v>
+      </c>
+      <c r="AO35">
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -5862,11 +5988,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP11" sqref="AP11"/>
+      <selection pane="topRight" activeCell="AP1" sqref="AP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5874,10 +6000,10 @@
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="27" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="40" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="41" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6019,8 +6145,11 @@
       <c r="AN1" s="1">
         <v>43957</v>
       </c>
+      <c r="AO1" s="1">
+        <v>43958</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6176,8 +6305,12 @@
         <f>cases!AN2/(population_2016!$B2/1000)</f>
         <v>10.741554620283809</v>
       </c>
+      <c r="AO2" s="3">
+        <f>cases!AO2/(population_2016!$B2/1000)</f>
+        <v>11.188498640545271</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6333,8 +6466,12 @@
         <f>cases!AN3/(population_2016!$B3/1000)</f>
         <v>9.2999345733246095</v>
       </c>
+      <c r="AO3" s="3">
+        <f>cases!AO3/(population_2016!$B3/1000)</f>
+        <v>9.5569679409290593</v>
+      </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -6490,8 +6627,12 @@
         <f>cases!AN4/(population_2016!$B4/1000)</f>
         <v>2.6157467957101752</v>
       </c>
+      <c r="AO4" s="3">
+        <f>cases!AO4/(population_2016!$B4/1000)</f>
+        <v>2.8773214752811929</v>
+      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -6647,8 +6788,12 @@
         <f>cases!AN5/(population_2016!$B5/1000)</f>
         <v>2.3804595321879525</v>
       </c>
+      <c r="AO5" s="3">
+        <f>cases!AO5/(population_2016!$B5/1000)</f>
+        <v>2.3287104119229971</v>
+      </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6804,8 +6949,12 @@
         <f>cases!AN6/(population_2016!$B6/1000)</f>
         <v>8.8758107134278159</v>
       </c>
+      <c r="AO6" s="3">
+        <f>cases!AO6/(population_2016!$B6/1000)</f>
+        <v>9.079990391544559</v>
+      </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -6961,8 +7110,12 @@
         <f>cases!AN7/(population_2016!$B7/1000)</f>
         <v>12.019230769230768</v>
       </c>
+      <c r="AO7" s="3">
+        <f>cases!AO7/(population_2016!$B7/1000)</f>
+        <v>12.111686390532544</v>
+      </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -7118,8 +7271,12 @@
         <f>cases!AN8/(population_2016!$B8/1000)</f>
         <v>5.5420356244503974</v>
       </c>
+      <c r="AO8" s="3">
+        <f>cases!AO8/(population_2016!$B8/1000)</f>
+        <v>5.6033865723225427</v>
+      </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -7275,8 +7432,12 @@
         <f>cases!AN9/(population_2016!$B9/1000)</f>
         <v>7.2181243414120129</v>
       </c>
+      <c r="AO9" s="3">
+        <f>cases!AO9/(population_2016!$B9/1000)</f>
+        <v>7.4288724973656475</v>
+      </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -7432,8 +7593,12 @@
         <f>cases!AN10/(population_2016!$B10/1000)</f>
         <v>6.0232324680912095</v>
       </c>
+      <c r="AO10" s="3">
+        <f>cases!AO10/(population_2016!$B10/1000)</f>
+        <v>6.0232324680912095</v>
+      </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -7589,8 +7754,12 @@
         <f>cases!AN11/(population_2016!$B11/1000)</f>
         <v>3.8211503151208377</v>
       </c>
+      <c r="AO11" s="3">
+        <f>cases!AO11/(population_2016!$B11/1000)</f>
+        <v>3.8211503151208377</v>
+      </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -7746,8 +7915,12 @@
         <f>cases!AN12/(population_2016!$B12/1000)</f>
         <v>8.4964822765177921</v>
       </c>
+      <c r="AO12" s="3">
+        <f>cases!AO12/(population_2016!$B12/1000)</f>
+        <v>8.6763020072377444</v>
+      </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -7903,8 +8076,12 @@
         <f>cases!AN13/(population_2016!$B13/1000)</f>
         <v>11.554526173343918</v>
       </c>
+      <c r="AO13" s="3">
+        <f>cases!AO13/(population_2016!$B13/1000)</f>
+        <v>11.736692126527267</v>
+      </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -8060,8 +8237,12 @@
         <f>cases!AN14/(population_2016!$B14/1000)</f>
         <v>6.4085157225873024</v>
       </c>
+      <c r="AO14" s="3">
+        <f>cases!AO14/(population_2016!$B14/1000)</f>
+        <v>6.7886819095204478</v>
+      </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -8217,8 +8398,12 @@
         <f>cases!AN15/(population_2016!$B15/1000)</f>
         <v>9.858554372757748</v>
       </c>
+      <c r="AO15" s="3">
+        <f>cases!AO15/(population_2016!$B15/1000)</f>
+        <v>10.3070046462389</v>
+      </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -8374,8 +8559,12 @@
         <f>cases!AN16/(population_2016!$B16/1000)</f>
         <v>6.2337662337662341</v>
       </c>
+      <c r="AO16" s="3">
+        <f>cases!AO16/(population_2016!$B16/1000)</f>
+        <v>6.2337662337662341</v>
+      </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -8531,8 +8720,12 @@
         <f>cases!AN17/(population_2016!$B17/1000)</f>
         <v>19.17278058741126</v>
       </c>
+      <c r="AO17" s="3">
+        <f>cases!AO17/(population_2016!$B17/1000)</f>
+        <v>19.896953724149395</v>
+      </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -8688,8 +8881,12 @@
         <f>cases!AN18/(population_2016!$B18/1000)</f>
         <v>2.7722772277227725</v>
       </c>
+      <c r="AO18" s="3">
+        <f>cases!AO18/(population_2016!$B18/1000)</f>
+        <v>2.9702970297029703</v>
+      </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -8845,8 +9042,12 @@
         <f>cases!AN19/(population_2016!$B19/1000)</f>
         <v>9.962517261787335</v>
       </c>
+      <c r="AO19" s="3">
+        <f>cases!AO19/(population_2016!$B19/1000)</f>
+        <v>10.209114223712763</v>
+      </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -9002,8 +9203,12 @@
         <f>cases!AN20/(population_2016!$B20/1000)</f>
         <v>8.9755364448526347</v>
       </c>
+      <c r="AO20" s="3">
+        <f>cases!AO20/(population_2016!$B20/1000)</f>
+        <v>9.059029807130333</v>
+      </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -9159,8 +9364,12 @@
         <f>cases!AN21/(population_2016!$B21/1000)</f>
         <v>4.6755270790943335</v>
       </c>
+      <c r="AO21" s="3">
+        <f>cases!AO21/(population_2016!$B21/1000)</f>
+        <v>4.8631253878234268</v>
+      </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -9316,8 +9525,12 @@
         <f>cases!AN22/(population_2016!$B22/1000)</f>
         <v>6.240384615384615</v>
       </c>
+      <c r="AO22" s="3">
+        <f>cases!AO22/(population_2016!$B22/1000)</f>
+        <v>6.3173076923076925</v>
+      </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -9473,8 +9686,12 @@
         <f>cases!AN23/(population_2016!$B23/1000)</f>
         <v>4.5251752708731674</v>
       </c>
+      <c r="AO23" s="3">
+        <f>cases!AO23/(population_2016!$B23/1000)</f>
+        <v>4.5251752708731674</v>
+      </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -9630,8 +9847,12 @@
         <f>cases!AN24/(population_2016!$B24/1000)</f>
         <v>12.178784557301181</v>
       </c>
+      <c r="AO24" s="3">
+        <f>cases!AO24/(population_2016!$B24/1000)</f>
+        <v>12.750250601913006</v>
+      </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -9787,8 +10008,12 @@
         <f>cases!AN25/(population_2016!$B25/1000)</f>
         <v>7.0062325381474313</v>
       </c>
+      <c r="AO25" s="3">
+        <f>cases!AO25/(population_2016!$B25/1000)</f>
+        <v>7.278458342288129</v>
+      </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -9944,8 +10169,12 @@
         <f>cases!AN26/(population_2016!$B26/1000)</f>
         <v>3.227107704719645</v>
       </c>
+      <c r="AO26" s="3">
+        <f>cases!AO26/(population_2016!$B26/1000)</f>
+        <v>3.0254134731746669</v>
+      </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -10101,8 +10330,12 @@
         <f>cases!AN27/(population_2016!$B27/1000)</f>
         <v>6.5264904682883396</v>
       </c>
+      <c r="AO27" s="3">
+        <f>cases!AO27/(population_2016!$B27/1000)</f>
+        <v>6.6175577771481766</v>
+      </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -10258,8 +10491,12 @@
         <f>cases!AN28/(population_2016!$B28/1000)</f>
         <v>8.8627801545239766</v>
       </c>
+      <c r="AO28" s="3">
+        <f>cases!AO28/(population_2016!$B28/1000)</f>
+        <v>9.1437328395377051</v>
+      </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -10415,8 +10652,12 @@
         <f>cases!AN29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
+      <c r="AO29" s="3">
+        <f>cases!AO29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -10572,8 +10813,12 @@
         <f>cases!AN30/(population_2016!$B30/1000)</f>
         <v>8.8802446545789557</v>
       </c>
+      <c r="AO30" s="3">
+        <f>cases!AO30/(population_2016!$B30/1000)</f>
+        <v>9.0593850366597994</v>
+      </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -10729,8 +10974,12 @@
         <f>cases!AN31/(population_2016!$B31/1000)</f>
         <v>10.660272429184301</v>
       </c>
+      <c r="AO31" s="3">
+        <f>cases!AO31/(population_2016!$B31/1000)</f>
+        <v>10.775830937901747</v>
+      </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -10886,8 +11135,12 @@
         <f>cases!AN32/(population_2016!$B32/1000)</f>
         <v>5.3269036671526298</v>
       </c>
+      <c r="AO32" s="3">
+        <f>cases!AO32/(population_2016!$B32/1000)</f>
+        <v>5.551194347874846</v>
+      </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -11043,8 +11296,12 @@
         <f>cases!AN33/(population_2016!$B33/1000)</f>
         <v>8.814553745837765</v>
       </c>
+      <c r="AO33" s="3">
+        <f>cases!AO33/(population_2016!$B33/1000)</f>
+        <v>9.0856638373895571</v>
+      </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -11198,6 +11455,10 @@
       </c>
       <c r="AN34" s="3">
         <f>cases!AN34/(population_2016!$B34/1000)</f>
+        <v>7.040173296573454</v>
+      </c>
+      <c r="AO34" s="3">
+        <f>cases!AO34/(population_2016!$B34/1000)</f>
         <v>7.040173296573454</v>
       </c>
     </row>
@@ -11210,9 +11471,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
   <dimension ref="A1:AS55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+      <selection pane="bottomLeft" activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13762,11 +14023,11 @@
       </c>
       <c r="B19" s="17">
         <f>mtl_newcases!C20</f>
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="C19" s="17">
         <f t="shared" si="0"/>
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>101</v>
@@ -13932,11 +14193,11 @@
       </c>
       <c r="B20" s="17">
         <f>mtl_newcases!C21</f>
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="C20" s="17">
         <f t="shared" si="0"/>
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>101</v>
@@ -14106,7 +14367,7 @@
       </c>
       <c r="C21" s="17">
         <f t="shared" si="0"/>
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>101</v>
@@ -14272,11 +14533,11 @@
       </c>
       <c r="B22" s="17">
         <f>mtl_newcases!C23</f>
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="C22" s="17">
         <f t="shared" si="0"/>
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>101</v>
@@ -14442,7 +14703,7 @@
       </c>
       <c r="B23" s="17">
         <f>mtl_newcases!C24</f>
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="C23" s="17">
         <f t="shared" si="0"/>
@@ -14612,11 +14873,11 @@
       </c>
       <c r="B24" s="17">
         <f>mtl_newcases!C25</f>
-        <v>4370</v>
+        <v>4368</v>
       </c>
       <c r="C24" s="17">
         <f t="shared" si="0"/>
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D24">
         <v>63</v>
@@ -14782,7 +15043,7 @@
       </c>
       <c r="B25" s="17">
         <f>mtl_newcases!C26</f>
-        <v>4792</v>
+        <v>4790</v>
       </c>
       <c r="C25" s="17">
         <f t="shared" si="0"/>
@@ -14953,11 +15214,11 @@
       </c>
       <c r="B26" s="17">
         <f>mtl_newcases!C27</f>
-        <v>5169</v>
+        <v>5168</v>
       </c>
       <c r="C26" s="17">
         <f t="shared" si="0"/>
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D26">
         <v>91</v>
@@ -15124,7 +15385,7 @@
       </c>
       <c r="B27" s="17">
         <f>mtl_newcases!C28</f>
-        <v>5521</v>
+        <v>5520</v>
       </c>
       <c r="C27" s="17">
         <f t="shared" si="0"/>
@@ -15295,7 +15556,7 @@
       </c>
       <c r="B28" s="17">
         <f>mtl_newcases!C29</f>
-        <v>5828</v>
+        <v>5827</v>
       </c>
       <c r="C28" s="17">
         <f t="shared" si="0"/>
@@ -15466,7 +15727,7 @@
       </c>
       <c r="B29" s="17">
         <f>mtl_newcases!C30</f>
-        <v>6090</v>
+        <v>6089</v>
       </c>
       <c r="C29" s="17">
         <f t="shared" si="0"/>
@@ -15637,11 +15898,11 @@
       </c>
       <c r="B30" s="17">
         <f>mtl_newcases!C31</f>
-        <v>6427</v>
+        <v>6424</v>
       </c>
       <c r="C30" s="17">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D30">
         <v>162</v>
@@ -15808,11 +16069,11 @@
       </c>
       <c r="B31" s="17">
         <f>mtl_newcases!C32</f>
-        <v>6968</v>
+        <v>6963</v>
       </c>
       <c r="C31" s="17">
         <f t="shared" si="0"/>
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D31">
         <v>218</v>
@@ -15979,7 +16240,7 @@
       </c>
       <c r="B32" s="17">
         <f>mtl_newcases!C33</f>
-        <v>7443</v>
+        <v>7438</v>
       </c>
       <c r="C32" s="17">
         <f t="shared" si="0"/>
@@ -16150,11 +16411,11 @@
       </c>
       <c r="B33" s="17">
         <f>mtl_newcases!C34</f>
-        <v>8075</v>
+        <v>8068</v>
       </c>
       <c r="C33" s="17">
         <f t="shared" si="0"/>
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D33">
         <v>332</v>
@@ -16321,11 +16582,11 @@
       </c>
       <c r="B34" s="17">
         <f>mtl_newcases!C35</f>
-        <v>8570</v>
+        <v>8562</v>
       </c>
       <c r="C34" s="17">
         <f t="shared" si="0"/>
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D34">
         <v>391</v>
@@ -16492,11 +16753,11 @@
       </c>
       <c r="B35" s="17">
         <f>mtl_newcases!C36</f>
-        <v>9145</v>
+        <v>9138</v>
       </c>
       <c r="C35" s="17">
         <f t="shared" si="0"/>
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D35">
         <v>454</v>
@@ -16663,11 +16924,11 @@
       </c>
       <c r="B36" s="17">
         <f>mtl_newcases!C37</f>
-        <v>9469</v>
+        <v>9460</v>
       </c>
       <c r="C36" s="17">
         <f t="shared" si="0"/>
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D36">
         <v>513</v>
@@ -16834,11 +17095,11 @@
       </c>
       <c r="B37" s="17">
         <f>mtl_newcases!C38</f>
-        <v>9900</v>
+        <v>9889</v>
       </c>
       <c r="C37" s="17">
         <f t="shared" si="0"/>
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D37">
         <v>525</v>
@@ -16974,11 +17235,11 @@
       </c>
       <c r="B38" s="17">
         <f>mtl_newcases!C39</f>
-        <v>10402</v>
+        <v>10388</v>
       </c>
       <c r="C38" s="17">
         <f t="shared" si="0"/>
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D38">
         <v>583</v>
@@ -17145,11 +17406,11 @@
       </c>
       <c r="B39" s="17">
         <f>mtl_newcases!C40</f>
-        <v>10880</v>
+        <v>10865</v>
       </c>
       <c r="C39" s="17">
         <f t="shared" si="0"/>
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D39">
         <v>647</v>
@@ -17316,11 +17577,11 @@
       </c>
       <c r="B40" s="17">
         <f>mtl_newcases!C41</f>
-        <v>11436</v>
+        <v>11418</v>
       </c>
       <c r="C40" s="17">
         <f t="shared" si="0"/>
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D40">
         <v>741</v>
@@ -17487,11 +17748,11 @@
       </c>
       <c r="B41" s="17">
         <f>mtl_newcases!C42</f>
-        <v>11990</v>
+        <v>11967</v>
       </c>
       <c r="C41" s="17">
         <f t="shared" si="0"/>
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D41">
         <v>808</v>
@@ -17658,11 +17919,11 @@
       </c>
       <c r="B42" s="17">
         <f>mtl_newcases!C43</f>
-        <v>12512</v>
+        <v>12479</v>
       </c>
       <c r="C42" s="17">
         <f t="shared" si="0"/>
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="D42">
         <v>895</v>
@@ -17829,11 +18090,11 @@
       </c>
       <c r="B43" s="17">
         <f>mtl_newcases!C44</f>
-        <v>12837</v>
+        <v>12803</v>
       </c>
       <c r="C43" s="17">
         <f t="shared" si="0"/>
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D43">
         <v>938</v>
@@ -18000,11 +18261,11 @@
       </c>
       <c r="B44" s="17">
         <f>mtl_newcases!C45</f>
-        <v>13154</v>
+        <v>13117</v>
       </c>
       <c r="C44" s="17">
         <f>B44-B43</f>
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D44">
         <v>983</v>
@@ -18171,11 +18432,11 @@
       </c>
       <c r="B45" s="17">
         <f>mtl_newcases!C46</f>
-        <v>13644</v>
+        <v>13601</v>
       </c>
       <c r="C45" s="17">
         <f>B45-B44</f>
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D45">
         <v>1039</v>
@@ -18342,7 +18603,7 @@
       </c>
       <c r="B46" s="17">
         <f>mtl_newcases!C47</f>
-        <v>14121</v>
+        <v>14078</v>
       </c>
       <c r="C46" s="17">
         <f t="shared" ref="C46:C47" si="438">B46-B45</f>
@@ -18482,11 +18743,11 @@
       </c>
       <c r="B47" s="17">
         <f>mtl_newcases!C48</f>
-        <v>14652</v>
+        <v>14607</v>
       </c>
       <c r="C47" s="17">
         <f t="shared" si="438"/>
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D47">
         <v>1146</v>
@@ -18622,11 +18883,11 @@
       </c>
       <c r="B48" s="17">
         <f>mtl_newcases!C49</f>
-        <v>15256</v>
+        <v>15209</v>
       </c>
       <c r="C48" s="17">
         <f t="shared" ref="C48" si="439">B48-B47</f>
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D48">
         <v>1245</v>
@@ -18793,11 +19054,11 @@
       </c>
       <c r="B49" s="17">
         <f>mtl_newcases!C50</f>
-        <v>15883</v>
+        <v>15831</v>
       </c>
       <c r="C49" s="17">
         <f t="shared" ref="C49" si="461">B49-B48</f>
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D49">
         <v>1312</v>
@@ -18964,11 +19225,11 @@
       </c>
       <c r="B50" s="17">
         <f>mtl_newcases!C51</f>
-        <v>16336</v>
+        <v>16317</v>
       </c>
       <c r="C50" s="17">
         <f t="shared" ref="C50" si="483">B50-B49</f>
-        <v>453</v>
+        <v>486</v>
       </c>
       <c r="D50">
         <v>1365</v>
@@ -19135,11 +19396,11 @@
       </c>
       <c r="B51" s="17">
         <f>mtl_newcases!C52</f>
-        <v>16687</v>
+        <v>16673</v>
       </c>
       <c r="C51" s="17">
         <f t="shared" ref="C51" si="505">B51-B50</f>
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D51">
         <v>1410</v>
@@ -19310,7 +19571,7 @@
       </c>
       <c r="C52" s="17">
         <f t="shared" ref="C52" si="527">B52-B51</f>
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="D52">
         <v>1488</v>
@@ -19477,11 +19738,11 @@
       </c>
       <c r="B53" s="17">
         <f>mtl_newcases!C54</f>
-        <v>17573</v>
+        <v>17604</v>
       </c>
       <c r="C53" s="17">
         <f t="shared" ref="C53" si="549">B53-B52</f>
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="D53">
         <v>1562</v>
@@ -19648,11 +19909,11 @@
       </c>
       <c r="B54" s="17">
         <f>mtl_newcases!C55</f>
-        <v>17918</v>
+        <v>18138</v>
       </c>
       <c r="C54" s="17">
         <f t="shared" ref="C54:C55" si="571">B54-B53</f>
-        <v>345</v>
+        <v>534</v>
       </c>
       <c r="D54">
         <v>1666</v>
@@ -19823,7 +20084,7 @@
       </c>
       <c r="C55" s="17">
         <f t="shared" si="571"/>
-        <v>517</v>
+        <v>297</v>
       </c>
       <c r="D55">
         <v>1727</v>
@@ -19832,125 +20093,156 @@
         <f t="shared" si="572"/>
         <v>61</v>
       </c>
-      <c r="F55" t="s">
-        <v>101</v>
-      </c>
-      <c r="G55" t="s">
-        <v>101</v>
-      </c>
-      <c r="H55" t="s">
-        <v>101</v>
-      </c>
-      <c r="I55" t="s">
-        <v>101</v>
-      </c>
-      <c r="J55" t="s">
-        <v>101</v>
-      </c>
-      <c r="K55" t="s">
-        <v>101</v>
-      </c>
-      <c r="L55" t="s">
-        <v>101</v>
-      </c>
-      <c r="M55" t="s">
-        <v>101</v>
-      </c>
-      <c r="N55" t="s">
-        <v>101</v>
-      </c>
-      <c r="O55" t="s">
-        <v>101</v>
-      </c>
-      <c r="P55" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>101</v>
-      </c>
-      <c r="R55" t="s">
-        <v>101</v>
-      </c>
-      <c r="S55" t="s">
-        <v>101</v>
-      </c>
-      <c r="T55" t="s">
-        <v>101</v>
-      </c>
-      <c r="U55" t="s">
-        <v>101</v>
-      </c>
-      <c r="V55" t="s">
-        <v>101</v>
-      </c>
-      <c r="W55" t="s">
-        <v>101</v>
-      </c>
-      <c r="X55" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD55" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE55" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF55" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG55" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH55" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI55" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ55" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK55" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL55" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM55" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN55" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO55" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP55" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ55" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR55" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS55" t="s">
-        <v>101</v>
+      <c r="F55" cm="1">
+        <f t="array" ref="F55:O55">TRANSPOSE(santemontreal!AN$57:AN$66)</f>
+        <v>175</v>
+      </c>
+      <c r="G55">
+        <v>144</v>
+      </c>
+      <c r="H55">
+        <v>528</v>
+      </c>
+      <c r="I55">
+        <v>1943</v>
+      </c>
+      <c r="J55">
+        <v>2235</v>
+      </c>
+      <c r="K55">
+        <v>2545</v>
+      </c>
+      <c r="L55">
+        <v>2342</v>
+      </c>
+      <c r="M55">
+        <v>1622</v>
+      </c>
+      <c r="N55">
+        <v>1764</v>
+      </c>
+      <c r="O55">
+        <v>5068</v>
+      </c>
+      <c r="P55" s="18">
+        <f>F55/(age_distribution_2016!$B$2/100000)</f>
+        <v>159.46783305995993</v>
+      </c>
+      <c r="Q55" s="18">
+        <f>G55/(age_distribution_2016!$B$3/100000)</f>
+        <v>137.95085500790344</v>
+      </c>
+      <c r="R55" s="18">
+        <f>H55/(age_distribution_2016!$B$4/100000)</f>
+        <v>280.57496612376121</v>
+      </c>
+      <c r="S55" s="18">
+        <f>I55/(age_distribution_2016!$B$5/100000)</f>
+        <v>662.6310853440192</v>
+      </c>
+      <c r="T55" s="18">
+        <f>J55/(age_distribution_2016!$B$6/100000)</f>
+        <v>745.80795862184027</v>
+      </c>
+      <c r="U55" s="18">
+        <f>K55/(age_distribution_2016!$B$7/100000)</f>
+        <v>1000.0982414775518</v>
+      </c>
+      <c r="V55" s="18">
+        <f>L55/(age_distribution_2016!$B$8/100000)</f>
+        <v>904.68372766779328</v>
+      </c>
+      <c r="W55" s="18">
+        <f>M55/(age_distribution_2016!$B$9/100000)</f>
+        <v>791.20021462891145</v>
+      </c>
+      <c r="X55" s="18">
+        <f>N55/(age_distribution_2016!$B$10/100000)</f>
+        <v>1360.2714373843307</v>
+      </c>
+      <c r="Y55" s="18">
+        <f>O55/(age_distribution_2016!$B$11/100000)</f>
+        <v>5129.2950761601132</v>
+      </c>
+      <c r="Z55" s="3">
+        <f t="shared" ref="Z55" si="593">F55*100/SUM($F55:$O55)</f>
+        <v>0.9528476532723511</v>
+      </c>
+      <c r="AA55" s="3">
+        <f t="shared" ref="AA55" si="594">G55*100/SUM($F55:$O55)</f>
+        <v>0.78405749754982035</v>
+      </c>
+      <c r="AB55" s="3">
+        <f t="shared" ref="AB55" si="595">H55*100/SUM($F55:$O55)</f>
+        <v>2.874877491016008</v>
+      </c>
+      <c r="AC55" s="3">
+        <f t="shared" ref="AC55" si="596">I55*100/SUM($F55:$O55)</f>
+        <v>10.579331373189589</v>
+      </c>
+      <c r="AD55" s="3">
+        <f t="shared" ref="AD55" si="597">J55*100/SUM($F55:$O55)</f>
+        <v>12.169225743221169</v>
+      </c>
+      <c r="AE55" s="3">
+        <f t="shared" ref="AE55" si="598">K55*100/SUM($F55:$O55)</f>
+        <v>13.857127300446477</v>
+      </c>
+      <c r="AF55" s="3">
+        <f t="shared" ref="AF55" si="599">L55*100/SUM($F55:$O55)</f>
+        <v>12.751824022650551</v>
+      </c>
+      <c r="AG55" s="3">
+        <f t="shared" ref="AG55" si="600">M55*100/SUM($F55:$O55)</f>
+        <v>8.8315365349014492</v>
+      </c>
+      <c r="AH55" s="3">
+        <f t="shared" ref="AH55" si="601">N55*100/SUM($F55:$O55)</f>
+        <v>9.6047043449852989</v>
+      </c>
+      <c r="AI55" s="3">
+        <f t="shared" ref="AI55" si="602">O55*100/SUM($F55:$O55)</f>
+        <v>27.594468038767289</v>
+      </c>
+      <c r="AJ55" s="3">
+        <f t="shared" ref="AJ55" si="603">P55*100/SUM($P55:$Y55)</f>
+        <v>1.4273907860653299</v>
+      </c>
+      <c r="AK55" s="3">
+        <f t="shared" ref="AK55" si="604">Q55*100/SUM($P55:$Y55)</f>
+        <v>1.2347930964489719</v>
+      </c>
+      <c r="AL55" s="3">
+        <f t="shared" ref="AL55" si="605">R55*100/SUM($P55:$Y55)</f>
+        <v>2.5114163387111712</v>
+      </c>
+      <c r="AM55" s="3">
+        <f t="shared" ref="AM55" si="606">S55*100/SUM($P55:$Y55)</f>
+        <v>5.9311867956773998</v>
+      </c>
+      <c r="AN55" s="3">
+        <f t="shared" ref="AN55" si="607">T55*100/SUM($P55:$Y55)</f>
+        <v>6.6756999696028547</v>
+      </c>
+      <c r="AO55" s="3">
+        <f t="shared" ref="AO55" si="608">U55*100/SUM($P55:$Y55)</f>
+        <v>8.9518430623462777</v>
+      </c>
+      <c r="AP55" s="3">
+        <f t="shared" ref="AP55" si="609">V55*100/SUM($P55:$Y55)</f>
+        <v>8.097791212166916</v>
+      </c>
+      <c r="AQ55" s="3">
+        <f t="shared" ref="AQ55" si="610">W55*100/SUM($P55:$Y55)</f>
+        <v>7.0820044056758658</v>
+      </c>
+      <c r="AR55" s="3">
+        <f t="shared" ref="AR55" si="611">X55*100/SUM($P55:$Y55)</f>
+        <v>12.17574026694261</v>
+      </c>
+      <c r="AS55" s="3">
+        <f t="shared" ref="AS55" si="612">Y55*100/SUM($P55:$Y55)</f>
+        <v>45.912134066362597</v>
       </c>
     </row>
   </sheetData>
@@ -22529,8 +22821,8 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22809,11 +23101,11 @@
         <v>43922</v>
       </c>
       <c r="B20">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="E20" s="19">
         <v>43922</v>
@@ -22823,7 +23115,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>-83</v>
+        <v>-84</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -22831,11 +23123,11 @@
         <v>43923</v>
       </c>
       <c r="B21">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="E21" s="19">
         <v>43923</v>
@@ -22845,7 +23137,7 @@
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G26" si="2">C21-F21</f>
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -22853,7 +23145,7 @@
         <v>43924</v>
       </c>
       <c r="B22">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -22875,11 +23167,11 @@
         <v>43925</v>
       </c>
       <c r="B23">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="E23" s="19">
         <v>43925</v>
@@ -22889,7 +23181,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>-67</v>
+        <v>-68</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -22901,7 +23193,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="E24" s="19">
         <v>43926</v>
@@ -22911,7 +23203,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>-70</v>
+        <v>-71</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -22919,11 +23211,11 @@
         <v>43927</v>
       </c>
       <c r="B25">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>4370</v>
+        <v>4368</v>
       </c>
       <c r="E25" s="19">
         <v>43927</v>
@@ -22933,7 +23225,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>-37</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -22945,7 +23237,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>4792</v>
+        <v>4790</v>
       </c>
       <c r="E26" s="19">
         <v>43928</v>
@@ -22955,7 +23247,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -22963,11 +23255,11 @@
         <v>43929</v>
       </c>
       <c r="B27">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>5169</v>
+        <v>5168</v>
       </c>
       <c r="E27" s="19">
         <v>43929</v>
@@ -22977,7 +23269,7 @@
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="3">C27-F27</f>
-        <v>-93</v>
+        <v>-94</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -22989,7 +23281,7 @@
       </c>
       <c r="C28">
         <f t="shared" ref="C28:C37" si="4">C27+B28</f>
-        <v>5521</v>
+        <v>5520</v>
       </c>
       <c r="E28" s="19">
         <v>43930</v>
@@ -22999,7 +23291,7 @@
       </c>
       <c r="G28">
         <f t="shared" ref="G28:G33" si="5">C28-F28</f>
-        <v>-96</v>
+        <v>-97</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -23011,7 +23303,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
-        <v>5828</v>
+        <v>5827</v>
       </c>
       <c r="E29" s="19">
         <v>43931</v>
@@ -23021,7 +23313,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>-33</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -23033,7 +23325,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
-        <v>6090</v>
+        <v>6089</v>
       </c>
       <c r="E30" s="19">
         <v>43932</v>
@@ -23043,7 +23335,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -23051,11 +23343,11 @@
         <v>43933</v>
       </c>
       <c r="B31">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
-        <v>6427</v>
+        <v>6424</v>
       </c>
       <c r="E31" s="19">
         <v>43933</v>
@@ -23065,7 +23357,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -23073,11 +23365,11 @@
         <v>43934</v>
       </c>
       <c r="B32">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
-        <v>6968</v>
+        <v>6963</v>
       </c>
       <c r="E32" s="19">
         <v>43934</v>
@@ -23087,7 +23379,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -23099,7 +23391,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>7443</v>
+        <v>7438</v>
       </c>
       <c r="E33" s="19">
         <v>43935</v>
@@ -23109,7 +23401,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -23117,11 +23409,11 @@
         <v>43936</v>
       </c>
       <c r="B34">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>8075</v>
+        <v>8068</v>
       </c>
       <c r="E34" s="19">
         <v>43936</v>
@@ -23131,7 +23423,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G36" si="6">C34-F34</f>
-        <v>794</v>
+        <v>787</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -23139,11 +23431,11 @@
         <v>43937</v>
       </c>
       <c r="B35">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>8570</v>
+        <v>8562</v>
       </c>
       <c r="E35" s="19">
         <v>43937</v>
@@ -23153,7 +23445,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>810</v>
+        <v>802</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -23161,11 +23453,11 @@
         <v>43938</v>
       </c>
       <c r="B36">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
-        <v>9145</v>
+        <v>9138</v>
       </c>
       <c r="E36" s="19">
         <v>43938</v>
@@ -23175,7 +23467,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>1093</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -23183,11 +23475,11 @@
         <v>43939</v>
       </c>
       <c r="B37" s="23">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
-        <v>9469</v>
+        <v>9460</v>
       </c>
       <c r="E37" s="19">
         <v>43939</v>
@@ -23197,7 +23489,7 @@
       </c>
       <c r="G37">
         <f t="shared" ref="G37" si="7">C37-F37</f>
-        <v>1012</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -23205,11 +23497,11 @@
         <v>43940</v>
       </c>
       <c r="B38" s="23">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C39" si="8">C37+B38</f>
-        <v>9900</v>
+        <v>9889</v>
       </c>
       <c r="E38" s="19">
         <v>43940</v>
@@ -23219,7 +23511,7 @@
       </c>
       <c r="G38">
         <f t="shared" ref="G38" si="9">C38-F38</f>
-        <v>936</v>
+        <v>925</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -23227,11 +23519,11 @@
         <v>43941</v>
       </c>
       <c r="B39">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C39">
         <f t="shared" si="8"/>
-        <v>10402</v>
+        <v>10388</v>
       </c>
       <c r="E39" s="19">
         <v>43941</v>
@@ -23241,7 +23533,7 @@
       </c>
       <c r="G39">
         <f t="shared" ref="G39" si="10">C39-F39</f>
-        <v>1054</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -23249,11 +23541,11 @@
         <v>43942</v>
       </c>
       <c r="B40">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40" si="11">C39+B40</f>
-        <v>10880</v>
+        <v>10865</v>
       </c>
       <c r="E40" s="19">
         <v>43942</v>
@@ -23263,7 +23555,7 @@
       </c>
       <c r="G40">
         <f t="shared" ref="G40" si="12">C40-F40</f>
-        <v>1024</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -23271,11 +23563,11 @@
         <v>43943</v>
       </c>
       <c r="B41">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C41">
         <f t="shared" ref="C41:C52" si="13">C40+B41</f>
-        <v>11436</v>
+        <v>11418</v>
       </c>
       <c r="E41" s="19">
         <v>43943</v>
@@ -23285,7 +23577,7 @@
       </c>
       <c r="G41">
         <f t="shared" ref="G41" si="14">C41-F41</f>
-        <v>1061</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -23293,11 +23585,11 @@
         <v>43944</v>
       </c>
       <c r="B42" s="23">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C42">
         <f t="shared" si="13"/>
-        <v>11990</v>
+        <v>11967</v>
       </c>
       <c r="E42" s="19">
         <v>43944</v>
@@ -23307,7 +23599,7 @@
       </c>
       <c r="G42">
         <f t="shared" ref="G42:G44" si="15">C42-F42</f>
-        <v>1093</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -23315,11 +23607,11 @@
         <v>43945</v>
       </c>
       <c r="B43" s="23">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C43">
         <f t="shared" si="13"/>
-        <v>12512</v>
+        <v>12479</v>
       </c>
       <c r="E43" s="19">
         <v>43945</v>
@@ -23329,7 +23621,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="15"/>
-        <v>1351</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -23337,11 +23629,11 @@
         <v>43946</v>
       </c>
       <c r="B44" s="23">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C44">
         <f t="shared" si="13"/>
-        <v>12837</v>
+        <v>12803</v>
       </c>
       <c r="E44" s="19">
         <v>43946</v>
@@ -23351,7 +23643,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="15"/>
-        <v>1216</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -23359,11 +23651,11 @@
         <v>43947</v>
       </c>
       <c r="B45" s="23">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C45">
         <f t="shared" si="13"/>
-        <v>13154</v>
+        <v>13117</v>
       </c>
       <c r="E45" s="19">
         <v>43947</v>
@@ -23373,7 +23665,7 @@
       </c>
       <c r="G45">
         <f>C45-F45</f>
-        <v>1120</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -23381,11 +23673,11 @@
         <v>43948</v>
       </c>
       <c r="B46" s="23">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C46">
         <f t="shared" si="13"/>
-        <v>13644</v>
+        <v>13601</v>
       </c>
       <c r="E46" s="19">
         <v>43948</v>
@@ -23395,7 +23687,7 @@
       </c>
       <c r="G46">
         <f>C46-F46</f>
-        <v>1157</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -23407,7 +23699,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="13"/>
-        <v>14121</v>
+        <v>14078</v>
       </c>
       <c r="E47" s="19">
         <v>43949</v>
@@ -23417,7 +23709,7 @@
       </c>
       <c r="G47">
         <f t="shared" ref="G47:G52" si="16">C47-F47</f>
-        <v>1310</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -23425,11 +23717,11 @@
         <v>43950</v>
       </c>
       <c r="B48" s="23">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C48">
         <f t="shared" si="13"/>
-        <v>14652</v>
+        <v>14607</v>
       </c>
       <c r="E48" s="19">
         <v>43950</v>
@@ -23439,7 +23731,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="16"/>
-        <v>1328</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -23447,11 +23739,11 @@
         <v>43951</v>
       </c>
       <c r="B49" s="23">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C49">
         <f t="shared" si="13"/>
-        <v>15256</v>
+        <v>15209</v>
       </c>
       <c r="E49" s="19">
         <v>43951</v>
@@ -23461,7 +23753,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="16"/>
-        <v>1277</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -23469,11 +23761,11 @@
         <v>43952</v>
       </c>
       <c r="B50" s="23">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C50">
         <f t="shared" si="13"/>
-        <v>15883</v>
+        <v>15831</v>
       </c>
       <c r="E50" s="19">
         <v>43952</v>
@@ -23483,7 +23775,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="16"/>
-        <v>1284</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -23491,11 +23783,11 @@
         <v>43953</v>
       </c>
       <c r="B51" s="23">
-        <v>453</v>
+        <v>486</v>
       </c>
       <c r="C51">
         <f t="shared" si="13"/>
-        <v>16336</v>
+        <v>16317</v>
       </c>
       <c r="E51" s="19">
         <v>43953</v>
@@ -23505,7 +23797,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="16"/>
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -23513,11 +23805,11 @@
         <v>43954</v>
       </c>
       <c r="B52" s="23">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C52">
         <f t="shared" si="13"/>
-        <v>16687</v>
+        <v>16673</v>
       </c>
       <c r="E52" s="19">
         <v>43954</v>
@@ -23527,7 +23819,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="16"/>
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -23535,7 +23827,7 @@
         <v>43955</v>
       </c>
       <c r="B53" s="23">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="C53">
         <f t="shared" ref="C53" si="17">C52+B53</f>
@@ -23557,11 +23849,11 @@
         <v>43956</v>
       </c>
       <c r="B54" s="23">
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="C54">
         <f t="shared" ref="C54:C56" si="19">C53+B54</f>
-        <v>17573</v>
+        <v>17604</v>
       </c>
       <c r="E54" s="19">
         <v>43956</v>
@@ -23571,19 +23863,19 @@
       </c>
       <c r="G54">
         <f t="shared" ref="G54" si="20">C54-F54</f>
-        <v>131</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="19">
         <v>43957</v>
       </c>
-      <c r="B55" s="24">
-        <v>345</v>
+      <c r="B55" s="23">
+        <v>534</v>
       </c>
       <c r="C55">
         <f t="shared" si="19"/>
-        <v>17918</v>
+        <v>18138</v>
       </c>
       <c r="E55" s="19">
         <v>43957</v>
@@ -23593,7 +23885,7 @@
       </c>
       <c r="G55">
         <f t="shared" ref="G55:G56" si="21">C55-F55</f>
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -23601,7 +23893,7 @@
         <v>43958</v>
       </c>
       <c r="B56" s="24">
-        <v>517</v>
+        <v>297</v>
       </c>
       <c r="C56">
         <f t="shared" si="19"/>
@@ -23628,9 +23920,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH119"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM2" sqref="AM2:AM36"/>
+      <selection pane="topRight" activeCell="AN35" sqref="AN2:AN35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23757,9 +24049,11 @@
         <v>300</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="AN1" s="5"/>
+        <v>304</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="AO1" s="5"/>
       <c r="AP1" s="5"/>
       <c r="AQ1" s="5"/>
@@ -24055,7 +24349,9 @@
       <c r="AM2" s="7">
         <v>1442</v>
       </c>
-      <c r="AN2" s="7"/>
+      <c r="AN2" s="7">
+        <v>1502</v>
+      </c>
       <c r="AO2" s="7"/>
       <c r="AP2" s="7"/>
       <c r="AQ2" s="7"/>
@@ -24351,7 +24647,9 @@
       <c r="AM3" s="9">
         <v>398</v>
       </c>
-      <c r="AN3" s="9"/>
+      <c r="AN3" s="9">
+        <v>409</v>
+      </c>
       <c r="AO3" s="9"/>
       <c r="AP3" s="9"/>
       <c r="AQ3" s="9"/>
@@ -24647,7 +24945,9 @@
       <c r="AM4" s="7">
         <v>10</v>
       </c>
-      <c r="AN4" s="7"/>
+      <c r="AN4" s="7">
+        <v>11</v>
+      </c>
       <c r="AO4" s="7"/>
       <c r="AP4" s="7"/>
       <c r="AQ4" s="7"/>
@@ -24943,7 +25243,9 @@
       <c r="AM5" s="9">
         <v>46</v>
       </c>
-      <c r="AN5" s="9"/>
+      <c r="AN5" s="9">
+        <v>45</v>
+      </c>
       <c r="AO5" s="9"/>
       <c r="AP5" s="9"/>
       <c r="AQ5" s="9"/>
@@ -25239,7 +25541,9 @@
       <c r="AM6" s="7">
         <v>1478</v>
       </c>
-      <c r="AN6" s="7"/>
+      <c r="AN6" s="7">
+        <v>1512</v>
+      </c>
       <c r="AO6" s="7"/>
       <c r="AP6" s="7"/>
       <c r="AQ6" s="7"/>
@@ -25535,7 +25839,9 @@
       <c r="AM7" s="9">
         <v>390</v>
       </c>
-      <c r="AN7" s="9"/>
+      <c r="AN7" s="9">
+        <v>393</v>
+      </c>
       <c r="AO7" s="9"/>
       <c r="AP7" s="9"/>
       <c r="AQ7" s="9"/>
@@ -25831,7 +26137,9 @@
       <c r="AM8" s="7">
         <v>271</v>
       </c>
-      <c r="AN8" s="7"/>
+      <c r="AN8" s="7">
+        <v>274</v>
+      </c>
       <c r="AO8" s="7"/>
       <c r="AP8" s="7"/>
       <c r="AQ8" s="7"/>
@@ -26127,7 +26435,9 @@
       <c r="AM9" s="9">
         <v>137</v>
       </c>
-      <c r="AN9" s="9"/>
+      <c r="AN9" s="9">
+        <v>141</v>
+      </c>
       <c r="AO9" s="9"/>
       <c r="AP9" s="9"/>
       <c r="AQ9" s="9"/>
@@ -26423,7 +26733,9 @@
       <c r="AM10" s="7">
         <v>42</v>
       </c>
-      <c r="AN10" s="7"/>
+      <c r="AN10" s="7">
+        <v>42</v>
+      </c>
       <c r="AO10" s="7"/>
       <c r="AP10" s="7"/>
       <c r="AQ10" s="7"/>
@@ -26719,7 +27031,9 @@
       <c r="AM11" s="9">
         <v>77</v>
       </c>
-      <c r="AN11" s="9"/>
+      <c r="AN11" s="9">
+        <v>77</v>
+      </c>
       <c r="AO11" s="9"/>
       <c r="AP11" s="9"/>
       <c r="AQ11" s="9"/>
@@ -27015,7 +27329,9 @@
       <c r="AM12" s="7">
         <v>378</v>
       </c>
-      <c r="AN12" s="7"/>
+      <c r="AN12" s="7">
+        <v>386</v>
+      </c>
       <c r="AO12" s="7"/>
       <c r="AP12" s="7"/>
       <c r="AQ12" s="7"/>
@@ -27311,7 +27627,9 @@
       <c r="AM13" s="9">
         <v>888</v>
       </c>
-      <c r="AN13" s="9"/>
+      <c r="AN13" s="9">
+        <v>902</v>
+      </c>
       <c r="AO13" s="9"/>
       <c r="AP13" s="9"/>
       <c r="AQ13" s="9"/>
@@ -27607,7 +27925,9 @@
       <c r="AM14" s="7">
         <v>118</v>
       </c>
-      <c r="AN14" s="7"/>
+      <c r="AN14" s="7">
+        <v>125</v>
+      </c>
       <c r="AO14" s="7"/>
       <c r="AP14" s="7"/>
       <c r="AQ14" s="7"/>
@@ -27903,7 +28223,9 @@
       <c r="AM15" s="9">
         <v>1341</v>
       </c>
-      <c r="AN15" s="9"/>
+      <c r="AN15" s="9">
+        <v>1402</v>
+      </c>
       <c r="AO15" s="9"/>
       <c r="AP15" s="9"/>
       <c r="AQ15" s="9"/>
@@ -28199,7 +28521,9 @@
       <c r="AM16" s="7">
         <v>24</v>
       </c>
-      <c r="AN16" s="7"/>
+      <c r="AN16" s="7">
+        <v>24</v>
+      </c>
       <c r="AO16" s="7"/>
       <c r="AP16" s="7"/>
       <c r="AQ16" s="7"/>
@@ -28495,7 +28819,9 @@
       <c r="AM17" s="9">
         <v>1615</v>
       </c>
-      <c r="AN17" s="9"/>
+      <c r="AN17" s="9">
+        <v>1676</v>
+      </c>
       <c r="AO17" s="9"/>
       <c r="AP17" s="9"/>
       <c r="AQ17" s="9"/>
@@ -28791,7 +29117,9 @@
       <c r="AM18" s="7">
         <v>14</v>
       </c>
-      <c r="AN18" s="7"/>
+      <c r="AN18" s="7">
+        <v>15</v>
+      </c>
       <c r="AO18" s="7"/>
       <c r="AP18" s="7"/>
       <c r="AQ18" s="7"/>
@@ -29087,7 +29415,9 @@
       <c r="AM19" s="9">
         <v>202</v>
       </c>
-      <c r="AN19" s="9"/>
+      <c r="AN19" s="9">
+        <v>207</v>
+      </c>
       <c r="AO19" s="9"/>
       <c r="AP19" s="9"/>
       <c r="AQ19" s="9"/>
@@ -29383,7 +29713,9 @@
       <c r="AM20" s="7">
         <v>215</v>
       </c>
-      <c r="AN20" s="7"/>
+      <c r="AN20" s="7">
+        <v>217</v>
+      </c>
       <c r="AO20" s="7"/>
       <c r="AP20" s="7"/>
       <c r="AQ20" s="7"/>
@@ -29679,7 +30011,9 @@
       <c r="AM21" s="9">
         <v>324</v>
       </c>
-      <c r="AN21" s="9"/>
+      <c r="AN21" s="9">
+        <v>337</v>
+      </c>
       <c r="AO21" s="9"/>
       <c r="AP21" s="9"/>
       <c r="AQ21" s="9"/>
@@ -29975,7 +30309,9 @@
       <c r="AM22" s="7">
         <v>649</v>
       </c>
-      <c r="AN22" s="7"/>
+      <c r="AN22" s="7">
+        <v>657</v>
+      </c>
       <c r="AO22" s="7"/>
       <c r="AP22" s="7"/>
       <c r="AQ22" s="7"/>
@@ -30271,7 +30607,9 @@
       <c r="AM23" s="9">
         <v>142</v>
       </c>
-      <c r="AN23" s="9"/>
+      <c r="AN23" s="9">
+        <v>142</v>
+      </c>
       <c r="AO23" s="9"/>
       <c r="AP23" s="9"/>
       <c r="AQ23" s="9"/>
@@ -30567,7 +30905,9 @@
       <c r="AM24" s="7">
         <v>1300</v>
       </c>
-      <c r="AN24" s="7"/>
+      <c r="AN24" s="7">
+        <v>1361</v>
+      </c>
       <c r="AO24" s="7"/>
       <c r="AP24" s="7"/>
       <c r="AQ24" s="7"/>
@@ -30863,7 +31203,9 @@
       <c r="AM25" s="9">
         <v>978</v>
       </c>
-      <c r="AN25" s="9"/>
+      <c r="AN25" s="9">
+        <v>1016</v>
+      </c>
       <c r="AO25" s="9"/>
       <c r="AP25" s="9"/>
       <c r="AQ25" s="9"/>
@@ -31159,7 +31501,9 @@
       <c r="AM26" s="7">
         <v>16</v>
       </c>
-      <c r="AN26" s="7"/>
+      <c r="AN26" s="7">
+        <v>15</v>
+      </c>
       <c r="AO26" s="7"/>
       <c r="AP26" s="7"/>
       <c r="AQ26" s="7"/>
@@ -31455,7 +31799,9 @@
       <c r="AM27" s="9">
         <v>645</v>
       </c>
-      <c r="AN27" s="9"/>
+      <c r="AN27" s="9">
+        <v>654</v>
+      </c>
       <c r="AO27" s="9"/>
       <c r="AP27" s="9"/>
       <c r="AQ27" s="9"/>
@@ -31751,7 +32097,9 @@
       <c r="AM28" s="7">
         <v>694</v>
       </c>
-      <c r="AN28" s="7"/>
+      <c r="AN28" s="7">
+        <v>716</v>
+      </c>
       <c r="AO28" s="7"/>
       <c r="AP28" s="7"/>
       <c r="AQ28" s="7"/>
@@ -32047,7 +32395,9 @@
       <c r="AM29" s="20">
         <v>2</v>
       </c>
-      <c r="AN29" s="22"/>
+      <c r="AN29" s="20">
+        <v>2</v>
+      </c>
       <c r="AO29" s="22"/>
       <c r="AP29" s="22"/>
       <c r="AQ29" s="22"/>
@@ -32343,7 +32693,9 @@
       <c r="AM30" s="7">
         <v>694</v>
       </c>
-      <c r="AN30" s="7"/>
+      <c r="AN30" s="7">
+        <v>708</v>
+      </c>
       <c r="AO30" s="7"/>
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7"/>
@@ -32639,7 +32991,9 @@
       <c r="AM31" s="9">
         <v>738</v>
       </c>
-      <c r="AN31" s="9"/>
+      <c r="AN31" s="9">
+        <v>746</v>
+      </c>
       <c r="AO31" s="9"/>
       <c r="AP31" s="9"/>
       <c r="AQ31" s="9"/>
@@ -32935,7 +33289,9 @@
       <c r="AM32" s="7">
         <v>475</v>
       </c>
-      <c r="AN32" s="7"/>
+      <c r="AN32" s="7">
+        <v>495</v>
+      </c>
       <c r="AO32" s="7"/>
       <c r="AP32" s="7"/>
       <c r="AQ32" s="7"/>
@@ -33231,7 +33587,9 @@
       <c r="AM33" s="9">
         <v>1268</v>
       </c>
-      <c r="AN33" s="9"/>
+      <c r="AN33" s="9">
+        <v>1307</v>
+      </c>
       <c r="AO33" s="9"/>
       <c r="AP33" s="9"/>
       <c r="AQ33" s="9"/>
@@ -33527,7 +33885,9 @@
       <c r="AM34" s="7">
         <v>143</v>
       </c>
-      <c r="AN34" s="7"/>
+      <c r="AN34" s="7">
+        <v>143</v>
+      </c>
       <c r="AO34" s="7"/>
       <c r="AP34" s="7"/>
       <c r="AQ34" s="7"/>
@@ -33823,7 +34183,9 @@
       <c r="AM35" s="9">
         <v>765</v>
       </c>
-      <c r="AN35" s="9"/>
+      <c r="AN35" s="9">
+        <v>777</v>
+      </c>
       <c r="AO35" s="9"/>
       <c r="AP35" s="9"/>
       <c r="AQ35" s="9"/>
@@ -34119,7 +34481,9 @@
       <c r="AM36" s="11">
         <v>17918</v>
       </c>
-      <c r="AN36" s="11"/>
+      <c r="AN36" s="11">
+        <v>18435</v>
+      </c>
       <c r="AO36" s="11"/>
       <c r="AP36" s="11"/>
       <c r="AQ36" s="11"/>
@@ -38570,7 +38934,9 @@
       <c r="AM57" s="7">
         <v>167</v>
       </c>
-      <c r="AN57" s="7"/>
+      <c r="AN57" s="7">
+        <v>175</v>
+      </c>
       <c r="AO57" s="7"/>
       <c r="AP57" s="7"/>
       <c r="AQ57" s="7"/>
@@ -38864,7 +39230,9 @@
       <c r="AM58" s="9">
         <v>140</v>
       </c>
-      <c r="AN58" s="9"/>
+      <c r="AN58" s="9">
+        <v>144</v>
+      </c>
       <c r="AO58" s="9"/>
       <c r="AP58" s="9"/>
       <c r="AQ58" s="9"/>
@@ -39158,7 +39526,9 @@
       <c r="AM59" s="7">
         <v>512</v>
       </c>
-      <c r="AN59" s="7"/>
+      <c r="AN59" s="7">
+        <v>528</v>
+      </c>
       <c r="AO59" s="7"/>
       <c r="AP59" s="7"/>
       <c r="AQ59" s="7"/>
@@ -39452,7 +39822,9 @@
       <c r="AM60" s="9">
         <v>1893</v>
       </c>
-      <c r="AN60" s="9"/>
+      <c r="AN60" s="9">
+        <v>1943</v>
+      </c>
       <c r="AO60" s="9"/>
       <c r="AP60" s="9"/>
       <c r="AQ60" s="9"/>
@@ -39746,7 +40118,9 @@
       <c r="AM61" s="7">
         <v>2169</v>
       </c>
-      <c r="AN61" s="7"/>
+      <c r="AN61" s="7">
+        <v>2235</v>
+      </c>
       <c r="AO61" s="7"/>
       <c r="AP61" s="7"/>
       <c r="AQ61" s="7"/>
@@ -40040,7 +40414,9 @@
       <c r="AM62" s="9">
         <v>2485</v>
       </c>
-      <c r="AN62" s="9"/>
+      <c r="AN62" s="9">
+        <v>2545</v>
+      </c>
       <c r="AO62" s="9"/>
       <c r="AP62" s="9"/>
       <c r="AQ62" s="9"/>
@@ -40334,7 +40710,9 @@
       <c r="AM63" s="7">
         <v>2272</v>
       </c>
-      <c r="AN63" s="7"/>
+      <c r="AN63" s="7">
+        <v>2342</v>
+      </c>
       <c r="AO63" s="7"/>
       <c r="AP63" s="7"/>
       <c r="AQ63" s="7"/>
@@ -40628,7 +41006,9 @@
       <c r="AM64" s="9">
         <v>1572</v>
       </c>
-      <c r="AN64" s="9"/>
+      <c r="AN64" s="9">
+        <v>1622</v>
+      </c>
       <c r="AO64" s="9"/>
       <c r="AP64" s="9"/>
       <c r="AQ64" s="9"/>
@@ -40922,7 +41302,9 @@
       <c r="AM65" s="7">
         <v>1711</v>
       </c>
-      <c r="AN65" s="7"/>
+      <c r="AN65" s="7">
+        <v>1764</v>
+      </c>
       <c r="AO65" s="7"/>
       <c r="AP65" s="7"/>
       <c r="AQ65" s="7"/>
@@ -41216,7 +41598,9 @@
       <c r="AM66" s="9">
         <v>4929</v>
       </c>
-      <c r="AN66" s="9"/>
+      <c r="AN66" s="9">
+        <v>5068</v>
+      </c>
       <c r="AO66" s="9"/>
       <c r="AP66" s="9"/>
       <c r="AQ66" s="9"/>
@@ -41510,7 +41894,9 @@
       <c r="AM67" s="7">
         <v>68</v>
       </c>
-      <c r="AN67" s="7"/>
+      <c r="AN67" s="7">
+        <v>69</v>
+      </c>
       <c r="AO67" s="7"/>
       <c r="AP67" s="7"/>
       <c r="AQ67" s="7"/>
@@ -41804,7 +42190,9 @@
       <c r="AM68" s="15">
         <v>17918</v>
       </c>
-      <c r="AN68" s="15"/>
+      <c r="AN68" s="15">
+        <v>18435</v>
+      </c>
       <c r="AO68" s="15"/>
       <c r="AP68" s="15"/>
       <c r="AQ68" s="15"/>
@@ -42552,6 +42940,9 @@
       <c r="AM72">
         <v>195</v>
       </c>
+      <c r="AN72">
+        <v>201</v>
+      </c>
     </row>
     <row r="73" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="8" t="s">
@@ -42572,6 +42963,9 @@
       <c r="AM73">
         <v>17</v>
       </c>
+      <c r="AN73">
+        <v>18</v>
+      </c>
     </row>
     <row r="74" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="6" t="s">
@@ -42592,6 +42986,9 @@
       <c r="AM74">
         <v>0</v>
       </c>
+      <c r="AN74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="8" t="s">
@@ -42612,6 +43009,9 @@
       <c r="AM75">
         <v>5</v>
       </c>
+      <c r="AN75">
+        <v>6</v>
+      </c>
     </row>
     <row r="76" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="6" t="s">
@@ -42632,6 +43032,9 @@
       <c r="AM76">
         <v>147</v>
       </c>
+      <c r="AN76">
+        <v>154</v>
+      </c>
     </row>
     <row r="77" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="8" t="s">
@@ -42652,6 +43055,9 @@
       <c r="AM77">
         <v>17</v>
       </c>
+      <c r="AN77">
+        <v>19</v>
+      </c>
     </row>
     <row r="78" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="6" t="s">
@@ -42672,6 +43078,9 @@
       <c r="AM78">
         <v>19</v>
       </c>
+      <c r="AN78">
+        <v>19</v>
+      </c>
     </row>
     <row r="79" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="8" t="s">
@@ -42692,6 +43101,9 @@
       <c r="AM79">
         <v>27</v>
       </c>
+      <c r="AN79">
+        <v>27</v>
+      </c>
     </row>
     <row r="80" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="6" t="s">
@@ -42712,8 +43124,11 @@
       <c r="AM80">
         <v>0</v>
       </c>
+      <c r="AN80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="8" t="s">
         <v>46</v>
       </c>
@@ -42732,8 +43147,11 @@
       <c r="AM81">
         <v>8</v>
       </c>
+      <c r="AN81">
+        <v>8</v>
+      </c>
     </row>
-    <row r="82" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="6" t="s">
         <v>47</v>
       </c>
@@ -42752,8 +43170,11 @@
       <c r="AM82">
         <v>41</v>
       </c>
+      <c r="AN82">
+        <v>42</v>
+      </c>
     </row>
-    <row r="83" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="8" t="s">
         <v>48</v>
       </c>
@@ -42772,8 +43193,11 @@
       <c r="AM83">
         <v>112</v>
       </c>
+      <c r="AN83">
+        <v>114</v>
+      </c>
     </row>
-    <row r="84" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
         <v>49</v>
       </c>
@@ -42792,8 +43216,11 @@
       <c r="AM84">
         <v>17</v>
       </c>
+      <c r="AN84">
+        <v>17</v>
+      </c>
     </row>
-    <row r="85" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="8" t="s">
         <v>50</v>
       </c>
@@ -42812,8 +43239,11 @@
       <c r="AM85">
         <v>166</v>
       </c>
+      <c r="AN85">
+        <v>178</v>
+      </c>
     </row>
-    <row r="86" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
         <v>51</v>
       </c>
@@ -42832,8 +43262,11 @@
       <c r="AM86" s="24" t="s">
         <v>297</v>
       </c>
+      <c r="AN86" s="24" t="s">
+        <v>297</v>
+      </c>
     </row>
-    <row r="87" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="8" t="s">
         <v>52</v>
       </c>
@@ -42852,8 +43285,11 @@
       <c r="AM87">
         <v>102</v>
       </c>
+      <c r="AN87">
+        <v>107</v>
+      </c>
     </row>
-    <row r="88" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
         <v>53</v>
       </c>
@@ -42872,8 +43308,11 @@
       <c r="AM88" s="24" t="s">
         <v>297</v>
       </c>
+      <c r="AN88" s="24" t="s">
+        <v>297</v>
+      </c>
     </row>
-    <row r="89" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="8" t="s">
         <v>54</v>
       </c>
@@ -42892,8 +43331,11 @@
       <c r="AM89">
         <v>55</v>
       </c>
+      <c r="AN89">
+        <v>56</v>
+      </c>
     </row>
-    <row r="90" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="6" t="s">
         <v>55</v>
       </c>
@@ -42912,8 +43354,11 @@
       <c r="AM90">
         <v>8</v>
       </c>
+      <c r="AN90">
+        <v>8</v>
+      </c>
     </row>
-    <row r="91" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="8" t="s">
         <v>56</v>
       </c>
@@ -42932,8 +43377,11 @@
       <c r="AM91">
         <v>21</v>
       </c>
+      <c r="AN91">
+        <v>21</v>
+      </c>
     </row>
-    <row r="92" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
         <v>57</v>
       </c>
@@ -42952,8 +43400,11 @@
       <c r="AM92">
         <v>56</v>
       </c>
+      <c r="AN92">
+        <v>57</v>
+      </c>
     </row>
-    <row r="93" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="8" t="s">
         <v>58</v>
       </c>
@@ -42972,8 +43423,11 @@
       <c r="AM93">
         <v>16</v>
       </c>
+      <c r="AN93">
+        <v>19</v>
+      </c>
     </row>
-    <row r="94" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
         <v>59</v>
       </c>
@@ -42992,8 +43446,11 @@
       <c r="AM94">
         <v>64</v>
       </c>
+      <c r="AN94">
+        <v>66</v>
+      </c>
     </row>
-    <row r="95" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="8" t="s">
         <v>60</v>
       </c>
@@ -43012,8 +43469,11 @@
       <c r="AM95">
         <v>96</v>
       </c>
+      <c r="AN95">
+        <v>100</v>
+      </c>
     </row>
-    <row r="96" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="6" t="s">
         <v>61</v>
       </c>
@@ -43030,6 +43490,9 @@
         <v>297</v>
       </c>
       <c r="AM96" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="AN96" s="24" t="s">
         <v>297</v>
       </c>
     </row>
@@ -43052,6 +43515,9 @@
       <c r="AM97">
         <v>60</v>
       </c>
+      <c r="AN97">
+        <v>65</v>
+      </c>
     </row>
     <row r="98" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="6" t="s">
@@ -43072,6 +43538,9 @@
       <c r="AM98">
         <v>32</v>
       </c>
+      <c r="AN98">
+        <v>32</v>
+      </c>
     </row>
     <row r="99" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="8" t="s">
@@ -43092,6 +43561,9 @@
       <c r="AM99">
         <v>0</v>
       </c>
+      <c r="AN99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="6" t="s">
@@ -43112,6 +43584,9 @@
       <c r="AM100">
         <v>129</v>
       </c>
+      <c r="AN100">
+        <v>132</v>
+      </c>
     </row>
     <row r="101" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="8" t="s">
@@ -43132,6 +43607,9 @@
       <c r="AM101">
         <v>93</v>
       </c>
+      <c r="AN101">
+        <v>96</v>
+      </c>
     </row>
     <row r="102" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="6" t="s">
@@ -43152,6 +43630,9 @@
       <c r="AM102">
         <v>31</v>
       </c>
+      <c r="AN102">
+        <v>31</v>
+      </c>
     </row>
     <row r="103" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="8" t="s">
@@ -43172,6 +43653,9 @@
       <c r="AM103">
         <v>74</v>
       </c>
+      <c r="AN103">
+        <v>75</v>
+      </c>
     </row>
     <row r="104" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="6" t="s">
@@ -43192,6 +43676,9 @@
       <c r="AM104">
         <v>14</v>
       </c>
+      <c r="AN104">
+        <v>15</v>
+      </c>
     </row>
     <row r="105" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="8" t="s">
@@ -43212,6 +43699,9 @@
       <c r="AM105">
         <v>39</v>
       </c>
+      <c r="AN105">
+        <v>39</v>
+      </c>
     </row>
     <row r="106" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="10" t="s">
@@ -43231,6 +43721,9 @@
       </c>
       <c r="AM106">
         <v>1666</v>
+      </c>
+      <c r="AN106">
+        <v>1727</v>
       </c>
     </row>
     <row r="107" spans="1:216" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -43472,6 +43965,9 @@
       <c r="AM108">
         <v>0</v>
       </c>
+      <c r="AN108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
@@ -43492,6 +43988,9 @@
       <c r="AM109">
         <v>0</v>
       </c>
+      <c r="AN109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
@@ -43512,6 +44011,9 @@
       <c r="AM110">
         <v>0</v>
       </c>
+      <c r="AN110">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
@@ -43532,6 +44034,9 @@
       <c r="AM111">
         <v>0</v>
       </c>
+      <c r="AN111">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
@@ -43552,8 +44057,11 @@
       <c r="AM112" s="24">
         <v>3</v>
       </c>
+      <c r="AN112" s="24">
+        <v>3</v>
+      </c>
     </row>
-    <row r="113" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>91</v>
       </c>
@@ -43572,8 +44080,11 @@
       <c r="AM113">
         <v>12</v>
       </c>
+      <c r="AN113">
+        <v>12</v>
+      </c>
     </row>
-    <row r="114" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>92</v>
       </c>
@@ -43592,8 +44103,11 @@
       <c r="AM114">
         <v>29</v>
       </c>
+      <c r="AN114">
+        <v>31</v>
+      </c>
     </row>
-    <row r="115" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>93</v>
       </c>
@@ -43612,8 +44126,11 @@
       <c r="AM115">
         <v>119</v>
       </c>
+      <c r="AN115">
+        <v>123</v>
+      </c>
     </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>94</v>
       </c>
@@ -43632,8 +44149,11 @@
       <c r="AM116">
         <v>274</v>
       </c>
+      <c r="AN116">
+        <v>284</v>
+      </c>
     </row>
-    <row r="117" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>95</v>
       </c>
@@ -43652,8 +44172,11 @@
       <c r="AM117">
         <v>1228</v>
       </c>
+      <c r="AN117">
+        <v>1273</v>
+      </c>
     </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>96</v>
       </c>
@@ -43672,8 +44195,11 @@
       <c r="AM118" s="24">
         <v>1</v>
       </c>
+      <c r="AN118" s="24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>97</v>
       </c>
@@ -43690,7 +44216,10 @@
         <v>1562</v>
       </c>
       <c r="AM119" t="s">
-        <v>305</v>
+        <v>303</v>
+      </c>
+      <c r="AN119">
+        <v>1727</v>
       </c>
     </row>
   </sheetData>
@@ -43705,237 +44234,285 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E12"/>
+      <selection activeCell="E4" sqref="E4:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1">
-        <v>167</v>
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>312</v>
       </c>
       <c r="C1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
+        <v>314</v>
+      </c>
+      <c r="E1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>291</v>
-      </c>
       <c r="D2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>311</v>
+      </c>
+      <c r="F2" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3">
-        <v>512</v>
-      </c>
-      <c r="C3" t="s">
-        <v>301</v>
-      </c>
       <c r="D3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>315</v>
+      </c>
+      <c r="F3" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4">
-        <v>1893</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="D4" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B5">
-        <v>2169</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="D5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E5" t="s">
-        <v>297</v>
-      </c>
-      <c r="F5" t="s">
-        <v>290</v>
+        <v>320</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B6">
-        <v>2485</v>
+        <v>528</v>
       </c>
       <c r="C6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D6" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>315</v>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B7">
-        <v>2272</v>
+        <v>1943</v>
       </c>
       <c r="C7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="E7">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>317</v>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B8">
-        <v>1572</v>
+        <v>2235</v>
       </c>
       <c r="C8" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="D8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E8">
-        <v>119</v>
+        <v>323</v>
+      </c>
+      <c r="E8" t="s">
+        <v>297</v>
       </c>
       <c r="F8" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2">
-        <v>1711</v>
+        <v>2545</v>
       </c>
       <c r="C9" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E9">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B10">
-        <v>4929</v>
+        <v>2342</v>
       </c>
       <c r="C10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D10" t="s">
-        <v>324</v>
-      </c>
-      <c r="E10" t="s">
-        <v>325</v>
+        <v>326</v>
+      </c>
+      <c r="E10">
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>1622</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
       <c r="D11" t="s">
-        <v>229</v>
-      </c>
-      <c r="E11" t="s">
-        <v>297</v>
+        <v>328</v>
+      </c>
+      <c r="E11">
+        <v>123</v>
       </c>
       <c r="F11" t="s">
-        <v>229</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12">
+        <v>1764</v>
+      </c>
+      <c r="C12" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" t="s">
+        <v>330</v>
+      </c>
+      <c r="E12">
+        <v>284</v>
+      </c>
+      <c r="F12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13">
+        <v>5068</v>
+      </c>
+      <c r="C13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" t="s">
+        <v>332</v>
+      </c>
+      <c r="E13">
+        <v>1273</v>
+      </c>
+      <c r="F13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>97</v>
       </c>
-      <c r="B12">
-        <v>17918</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B15">
+        <v>18435</v>
+      </c>
+      <c r="C15" t="s">
         <v>229</v>
       </c>
-      <c r="D12" t="s">
-        <v>304</v>
-      </c>
-      <c r="E12" t="s">
-        <v>305</v>
-      </c>
-      <c r="F12" t="s">
-        <v>327</v>
+      <c r="D15" t="s">
+        <v>309</v>
+      </c>
+      <c r="E15">
+        <v>1727</v>
+      </c>
+      <c r="F15" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/app/data/covid19_MTL.xlsx
+++ b/app/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DFE295-1854-492E-9791-DBEA89258BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67779E53-9E73-4558-B9E9-24F07A20AEB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="7460" windowWidth="31170" windowHeight="11480" tabRatio="585" activeTab="1" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="18050" yWindow="6550" windowWidth="31170" windowHeight="11480" tabRatio="585" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="337">
   <si>
     <t>borough</t>
   </si>
@@ -955,9 +955,6 @@
     <t>1er MAI, 18h00</t>
   </si>
   <si>
-    <t>1 365</t>
-  </si>
-  <si>
     <t>2 MAI, 18h20</t>
   </si>
   <si>
@@ -971,9 +968,6 @@
   </si>
   <si>
     <t>4 MAI, 18h04</t>
-  </si>
-  <si>
-    <t>10,6</t>
   </si>
   <si>
     <t>5 MAI, 18h04</t>
@@ -991,19 +985,10 @@
     <t>6 MAI, 18h04</t>
   </si>
   <si>
-    <t>12,2</t>
-  </si>
-  <si>
     <t>* 4,3</t>
   </si>
   <si>
     <t>8,8</t>
-  </si>
-  <si>
-    <t>27,6</t>
-  </si>
-  <si>
-    <t> 892,4</t>
   </si>
   <si>
     <t>7 MAI, 18h04</t>
@@ -1030,55 +1015,76 @@
     <t>TAUX DE MORTALITÉ POUR</t>
   </si>
   <si>
-    <t>1,0</t>
-  </si>
-  <si>
     <t> 157,8</t>
-  </si>
-  <si>
-    <t> 133,4</t>
-  </si>
-  <si>
-    <t> 265,5</t>
-  </si>
-  <si>
-    <t> 603,2</t>
-  </si>
-  <si>
-    <t> 680,3</t>
-  </si>
-  <si>
-    <t>914,3</t>
-  </si>
-  <si>
-    <t>12,8</t>
-  </si>
-  <si>
-    <t>912,5</t>
   </si>
   <si>
     <t>* 12,1</t>
   </si>
   <si>
-    <t> 749</t>
+    <t> 912,8</t>
   </si>
   <si>
-    <t> 56,8</t>
+    <t>1 760</t>
   </si>
   <si>
-    <t> 1 219,1</t>
+    <t>8 MAI, 18h04</t>
   </si>
   <si>
-    <t> 196,3</t>
+    <t>0,9</t>
   </si>
   <si>
-    <t>5 015,8</t>
+    <t> 138,9</t>
   </si>
   <si>
-    <t> 1 259,9</t>
+    <t> 274,0</t>
   </si>
   <si>
-    <t> 83,6</t>
+    <t>10,7</t>
+  </si>
+  <si>
+    <t> 623,7</t>
+  </si>
+  <si>
+    <t>12,3</t>
+  </si>
+  <si>
+    <t>701,6</t>
+  </si>
+  <si>
+    <t>939,9</t>
+  </si>
+  <si>
+    <t>12,7</t>
+  </si>
+  <si>
+    <t>930,8</t>
+  </si>
+  <si>
+    <t>760,5</t>
+  </si>
+  <si>
+    <t> 56,9</t>
+  </si>
+  <si>
+    <t> 1 219,2</t>
+  </si>
+  <si>
+    <t> 199,7</t>
+  </si>
+  <si>
+    <t>27,4</t>
+  </si>
+  <si>
+    <t>5 098,9</t>
+  </si>
+  <si>
+    <t>1 295</t>
+  </si>
+  <si>
+    <t> 1 281,7</t>
+  </si>
+  <si>
+    <t> 85,2</t>
   </si>
 </sst>
 </file>
@@ -1592,20 +1598,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:AO35"/>
+  <dimension ref="A1:AP35"/>
   <sheetViews>
-    <sheetView topLeftCell="R10" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AN1" sqref="AN1:AO1"/>
+    <sheetView topLeftCell="R1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AP36" sqref="AP36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="41" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="42" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1729,8 +1735,11 @@
       <c r="AO1" s="19">
         <v>43958</v>
       </c>
+      <c r="AP1" s="19">
+        <v>43959</v>
+      </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1854,8 +1863,11 @@
       <c r="AO2">
         <v>1502</v>
       </c>
+      <c r="AP2">
+        <v>1536</v>
+      </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1979,8 +1991,11 @@
       <c r="AO3">
         <v>409</v>
       </c>
+      <c r="AP3">
+        <v>423</v>
+      </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2104,8 +2119,11 @@
       <c r="AO4">
         <v>11</v>
       </c>
+      <c r="AP4">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2229,8 +2247,11 @@
       <c r="AO5">
         <v>45</v>
       </c>
+      <c r="AP5">
+        <v>45</v>
+      </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2354,8 +2375,11 @@
       <c r="AO6">
         <v>1512</v>
       </c>
+      <c r="AP6">
+        <v>1530</v>
+      </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -2479,8 +2503,11 @@
       <c r="AO7">
         <v>393</v>
       </c>
+      <c r="AP7">
+        <v>397</v>
+      </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -2604,8 +2631,11 @@
       <c r="AO8">
         <v>274</v>
       </c>
+      <c r="AP8">
+        <v>280</v>
+      </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -2729,8 +2759,11 @@
       <c r="AO9">
         <v>141</v>
       </c>
+      <c r="AP9">
+        <v>145</v>
+      </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -2854,8 +2887,11 @@
       <c r="AO10">
         <v>42</v>
       </c>
+      <c r="AP10">
+        <v>46</v>
+      </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -2979,8 +3015,11 @@
       <c r="AO11">
         <v>77</v>
       </c>
+      <c r="AP11">
+        <v>81</v>
+      </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3104,8 +3143,11 @@
       <c r="AO12">
         <v>386</v>
       </c>
+      <c r="AP12">
+        <v>399</v>
+      </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3229,8 +3271,11 @@
       <c r="AO13">
         <v>902</v>
       </c>
+      <c r="AP13">
+        <v>914</v>
+      </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3354,8 +3399,11 @@
       <c r="AO14">
         <v>125</v>
       </c>
+      <c r="AP14">
+        <v>132</v>
+      </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3479,8 +3527,11 @@
       <c r="AO15">
         <v>1402</v>
       </c>
+      <c r="AP15">
+        <v>1432</v>
+      </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -3604,8 +3655,11 @@
       <c r="AO16">
         <v>24</v>
       </c>
+      <c r="AP16">
+        <v>26</v>
+      </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3729,8 +3783,11 @@
       <c r="AO17">
         <v>1676</v>
       </c>
+      <c r="AP17">
+        <v>1729</v>
+      </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -3854,8 +3911,11 @@
       <c r="AO18">
         <v>15</v>
       </c>
+      <c r="AP18">
+        <v>15</v>
+      </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -3979,8 +4039,11 @@
       <c r="AO19">
         <v>207</v>
       </c>
+      <c r="AP19">
+        <v>215</v>
+      </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4104,8 +4167,11 @@
       <c r="AO20">
         <v>217</v>
       </c>
+      <c r="AP20">
+        <v>220</v>
+      </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4229,8 +4295,11 @@
       <c r="AO21">
         <v>337</v>
       </c>
+      <c r="AP21">
+        <v>352</v>
+      </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4354,8 +4423,11 @@
       <c r="AO22">
         <v>657</v>
       </c>
+      <c r="AP22">
+        <v>672</v>
+      </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -4479,8 +4551,11 @@
       <c r="AO23">
         <v>142</v>
       </c>
+      <c r="AP23">
+        <v>140</v>
+      </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4604,8 +4679,11 @@
       <c r="AO24">
         <v>1361</v>
       </c>
+      <c r="AP24">
+        <v>1407</v>
+      </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4729,8 +4807,11 @@
       <c r="AO25">
         <v>1016</v>
       </c>
+      <c r="AP25">
+        <v>1049</v>
+      </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -4854,8 +4935,11 @@
       <c r="AO26">
         <v>15</v>
       </c>
+      <c r="AP26">
+        <v>15</v>
+      </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4979,8 +5063,11 @@
       <c r="AO27">
         <v>654</v>
       </c>
+      <c r="AP27">
+        <v>662</v>
+      </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5104,8 +5191,11 @@
       <c r="AO28">
         <v>716</v>
       </c>
+      <c r="AP28">
+        <v>736</v>
+      </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -5229,8 +5319,11 @@
       <c r="AO29">
         <v>2</v>
       </c>
+      <c r="AP29">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5354,8 +5447,11 @@
       <c r="AO30">
         <v>708</v>
       </c>
+      <c r="AP30">
+        <v>712</v>
+      </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5479,8 +5575,11 @@
       <c r="AO31">
         <v>746</v>
       </c>
+      <c r="AP31">
+        <v>759</v>
+      </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5604,8 +5703,11 @@
       <c r="AO32">
         <v>495</v>
       </c>
+      <c r="AP32">
+        <v>508</v>
+      </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5729,8 +5831,11 @@
       <c r="AO33">
         <v>1307</v>
       </c>
+      <c r="AP33">
+        <v>1333</v>
+      </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -5854,8 +5959,11 @@
       <c r="AO34">
         <v>143</v>
       </c>
+      <c r="AP34">
+        <v>145</v>
+      </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5978,6 +6086,9 @@
       </c>
       <c r="AO35">
         <v>777</v>
+      </c>
+      <c r="AP35">
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -5988,11 +6099,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:AO34"/>
+  <dimension ref="A1:AP34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP1" sqref="AP1"/>
+      <selection pane="topRight" activeCell="AP34" sqref="AP34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6000,10 +6111,10 @@
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="27" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="41" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="42" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6148,8 +6259,11 @@
       <c r="AO1" s="1">
         <v>43958</v>
       </c>
+      <c r="AP1" s="1">
+        <v>43959</v>
+      </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6309,8 +6423,12 @@
         <f>cases!AO2/(population_2016!$B2/1000)</f>
         <v>11.188498640545271</v>
       </c>
+      <c r="AP2" s="3">
+        <f>cases!AP2/(population_2016!$B2/1000)</f>
+        <v>11.441766918693434</v>
+      </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6470,8 +6588,12 @@
         <f>cases!AO3/(population_2016!$B3/1000)</f>
         <v>9.5569679409290593</v>
       </c>
+      <c r="AP3" s="3">
+        <f>cases!AP3/(population_2016!$B3/1000)</f>
+        <v>9.8841013178801767</v>
+      </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -6631,8 +6753,12 @@
         <f>cases!AO4/(population_2016!$B4/1000)</f>
         <v>2.8773214752811929</v>
       </c>
+      <c r="AP4" s="3">
+        <f>cases!AP4/(population_2016!$B4/1000)</f>
+        <v>2.8773214752811929</v>
+      </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -6792,8 +6918,12 @@
         <f>cases!AO5/(population_2016!$B5/1000)</f>
         <v>2.3287104119229971</v>
       </c>
+      <c r="AP5" s="3">
+        <f>cases!AP5/(population_2016!$B5/1000)</f>
+        <v>2.3287104119229971</v>
+      </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6953,8 +7083,12 @@
         <f>cases!AO6/(population_2016!$B6/1000)</f>
         <v>9.079990391544559</v>
       </c>
+      <c r="AP6" s="3">
+        <f>cases!AP6/(population_2016!$B6/1000)</f>
+        <v>9.1880855152534231</v>
+      </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -7114,8 +7248,12 @@
         <f>cases!AO7/(population_2016!$B7/1000)</f>
         <v>12.111686390532544</v>
       </c>
+      <c r="AP7" s="3">
+        <f>cases!AP7/(population_2016!$B7/1000)</f>
+        <v>12.234960552268245</v>
+      </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -7275,8 +7413,12 @@
         <f>cases!AO8/(population_2016!$B8/1000)</f>
         <v>5.6033865723225427</v>
       </c>
+      <c r="AP8" s="3">
+        <f>cases!AP8/(population_2016!$B8/1000)</f>
+        <v>5.7260884680668314</v>
+      </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -7436,8 +7578,12 @@
         <f>cases!AO9/(population_2016!$B9/1000)</f>
         <v>7.4288724973656475</v>
       </c>
+      <c r="AP9" s="3">
+        <f>cases!AP9/(population_2016!$B9/1000)</f>
+        <v>7.639620653319283</v>
+      </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -7597,8 +7743,12 @@
         <f>cases!AO10/(population_2016!$B10/1000)</f>
         <v>6.0232324680912095</v>
       </c>
+      <c r="AP10" s="3">
+        <f>cases!AP10/(population_2016!$B10/1000)</f>
+        <v>6.5968736555284675</v>
+      </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -7758,8 +7908,12 @@
         <f>cases!AO11/(population_2016!$B11/1000)</f>
         <v>3.8211503151208377</v>
       </c>
+      <c r="AP11" s="3">
+        <f>cases!AP11/(population_2016!$B11/1000)</f>
+        <v>4.0196516301920502</v>
+      </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -7919,8 +8073,12 @@
         <f>cases!AO12/(population_2016!$B12/1000)</f>
         <v>8.6763020072377444</v>
       </c>
+      <c r="AP12" s="3">
+        <f>cases!AP12/(population_2016!$B12/1000)</f>
+        <v>8.968509069657669</v>
+      </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -8080,8 +8238,12 @@
         <f>cases!AO13/(population_2016!$B13/1000)</f>
         <v>11.736692126527267</v>
       </c>
+      <c r="AP13" s="3">
+        <f>cases!AP13/(population_2016!$B13/1000)</f>
+        <v>11.892834372112995</v>
+      </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -8241,8 +8403,12 @@
         <f>cases!AO14/(population_2016!$B14/1000)</f>
         <v>6.7886819095204478</v>
       </c>
+      <c r="AP14" s="3">
+        <f>cases!AP14/(population_2016!$B14/1000)</f>
+        <v>7.1688480964535923</v>
+      </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -8402,8 +8568,12 @@
         <f>cases!AO15/(population_2016!$B15/1000)</f>
         <v>10.3070046462389</v>
       </c>
+      <c r="AP15" s="3">
+        <f>cases!AP15/(population_2016!$B15/1000)</f>
+        <v>10.527553961065694</v>
+      </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -8563,8 +8733,12 @@
         <f>cases!AO16/(population_2016!$B16/1000)</f>
         <v>6.2337662337662341</v>
       </c>
+      <c r="AP16" s="3">
+        <f>cases!AP16/(population_2016!$B16/1000)</f>
+        <v>6.7532467532467528</v>
+      </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -8724,8 +8898,12 @@
         <f>cases!AO17/(population_2016!$B17/1000)</f>
         <v>19.896953724149395</v>
       </c>
+      <c r="AP17" s="3">
+        <f>cases!AP17/(population_2016!$B17/1000)</f>
+        <v>20.526153334757936</v>
+      </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -8885,8 +9063,12 @@
         <f>cases!AO18/(population_2016!$B18/1000)</f>
         <v>2.9702970297029703</v>
       </c>
+      <c r="AP18" s="3">
+        <f>cases!AP18/(population_2016!$B18/1000)</f>
+        <v>2.9702970297029703</v>
+      </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -9046,8 +9228,12 @@
         <f>cases!AO19/(population_2016!$B19/1000)</f>
         <v>10.209114223712763</v>
       </c>
+      <c r="AP19" s="3">
+        <f>cases!AP19/(population_2016!$B19/1000)</f>
+        <v>10.60366936279345</v>
+      </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -9207,8 +9393,12 @@
         <f>cases!AO20/(population_2016!$B20/1000)</f>
         <v>9.059029807130333</v>
       </c>
+      <c r="AP20" s="3">
+        <f>cases!AP20/(population_2016!$B20/1000)</f>
+        <v>9.1842698505468814</v>
+      </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -9368,8 +9558,12 @@
         <f>cases!AO21/(population_2016!$B21/1000)</f>
         <v>4.8631253878234268</v>
       </c>
+      <c r="AP21" s="3">
+        <f>cases!AP21/(population_2016!$B21/1000)</f>
+        <v>5.0795849748185349</v>
+      </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -9529,8 +9723,12 @@
         <f>cases!AO22/(population_2016!$B22/1000)</f>
         <v>6.3173076923076925</v>
       </c>
+      <c r="AP22" s="3">
+        <f>cases!AP22/(population_2016!$B22/1000)</f>
+        <v>6.4615384615384617</v>
+      </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -9690,8 +9888,12 @@
         <f>cases!AO23/(population_2016!$B23/1000)</f>
         <v>4.5251752708731674</v>
       </c>
+      <c r="AP23" s="3">
+        <f>cases!AP23/(population_2016!$B23/1000)</f>
+        <v>4.4614404079031234</v>
+      </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -9851,8 +10053,12 @@
         <f>cases!AO24/(population_2016!$B24/1000)</f>
         <v>12.750250601913006</v>
       </c>
+      <c r="AP24" s="3">
+        <f>cases!AP24/(population_2016!$B24/1000)</f>
+        <v>13.181192209325202</v>
+      </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -10012,8 +10218,12 @@
         <f>cases!AO25/(population_2016!$B25/1000)</f>
         <v>7.278458342288129</v>
       </c>
+      <c r="AP25" s="3">
+        <f>cases!AP25/(population_2016!$B25/1000)</f>
+        <v>7.5148649616734717</v>
+      </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -10173,8 +10383,12 @@
         <f>cases!AO26/(population_2016!$B26/1000)</f>
         <v>3.0254134731746669</v>
       </c>
+      <c r="AP26" s="3">
+        <f>cases!AP26/(population_2016!$B26/1000)</f>
+        <v>3.0254134731746669</v>
+      </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -10334,8 +10548,12 @@
         <f>cases!AO27/(population_2016!$B27/1000)</f>
         <v>6.6175577771481766</v>
       </c>
+      <c r="AP27" s="3">
+        <f>cases!AP27/(population_2016!$B27/1000)</f>
+        <v>6.6985064961346987</v>
+      </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -10495,8 +10713,12 @@
         <f>cases!AO28/(population_2016!$B28/1000)</f>
         <v>9.1437328395377051</v>
       </c>
+      <c r="AP28" s="3">
+        <f>cases!AP28/(population_2016!$B28/1000)</f>
+        <v>9.3991443713683669</v>
+      </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -10656,8 +10878,12 @@
         <f>cases!AO29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
+      <c r="AP29" s="3">
+        <f>cases!AP29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -10817,8 +11043,12 @@
         <f>cases!AO30/(population_2016!$B30/1000)</f>
         <v>9.0593850366597994</v>
       </c>
+      <c r="AP30" s="3">
+        <f>cases!AP30/(population_2016!$B30/1000)</f>
+        <v>9.1105680029686127</v>
+      </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -10978,8 +11208,12 @@
         <f>cases!AO31/(population_2016!$B31/1000)</f>
         <v>10.775830937901747</v>
       </c>
+      <c r="AP31" s="3">
+        <f>cases!AP31/(population_2016!$B31/1000)</f>
+        <v>10.963613514567594</v>
+      </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -11139,8 +11373,12 @@
         <f>cases!AO32/(population_2016!$B32/1000)</f>
         <v>5.551194347874846</v>
       </c>
+      <c r="AP32" s="3">
+        <f>cases!AP32/(population_2016!$B32/1000)</f>
+        <v>5.6969832903442859</v>
+      </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -11300,8 +11538,12 @@
         <f>cases!AO33/(population_2016!$B33/1000)</f>
         <v>9.0856638373895571</v>
       </c>
+      <c r="AP33" s="3">
+        <f>cases!AP33/(population_2016!$B33/1000)</f>
+        <v>9.2664038984240857</v>
+      </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -11460,6 +11702,10 @@
       <c r="AO34" s="3">
         <f>cases!AO34/(population_2016!$B34/1000)</f>
         <v>7.040173296573454</v>
+      </c>
+      <c r="AP34" s="3">
+        <f>cases!AP34/(population_2016!$B34/1000)</f>
+        <v>7.1386372587632918</v>
       </c>
     </row>
   </sheetData>
@@ -11469,11 +11715,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AS55"/>
+  <dimension ref="A1:AS56"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L55" sqref="L55"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14023,11 +14269,11 @@
       </c>
       <c r="B19" s="17">
         <f>mtl_newcases!C20</f>
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="C19" s="17">
         <f t="shared" si="0"/>
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>101</v>
@@ -14193,11 +14439,11 @@
       </c>
       <c r="B20" s="17">
         <f>mtl_newcases!C21</f>
-        <v>2954</v>
+        <v>2958</v>
       </c>
       <c r="C20" s="17">
         <f t="shared" si="0"/>
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>101</v>
@@ -14363,7 +14609,7 @@
       </c>
       <c r="B21" s="17">
         <f>mtl_newcases!C22</f>
-        <v>3304</v>
+        <v>3308</v>
       </c>
       <c r="C21" s="17">
         <f t="shared" si="0"/>
@@ -14533,11 +14779,11 @@
       </c>
       <c r="B22" s="17">
         <f>mtl_newcases!C23</f>
-        <v>3645</v>
+        <v>3650</v>
       </c>
       <c r="C22" s="17">
         <f t="shared" si="0"/>
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>101</v>
@@ -14703,11 +14949,11 @@
       </c>
       <c r="B23" s="17">
         <f>mtl_newcases!C24</f>
-        <v>3906</v>
+        <v>3910</v>
       </c>
       <c r="C23" s="17">
         <f t="shared" si="0"/>
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>101</v>
@@ -14873,11 +15119,11 @@
       </c>
       <c r="B24" s="17">
         <f>mtl_newcases!C25</f>
-        <v>4368</v>
+        <v>4370</v>
       </c>
       <c r="C24" s="17">
         <f t="shared" si="0"/>
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D24">
         <v>63</v>
@@ -15043,7 +15289,7 @@
       </c>
       <c r="B25" s="17">
         <f>mtl_newcases!C26</f>
-        <v>4790</v>
+        <v>4792</v>
       </c>
       <c r="C25" s="17">
         <f t="shared" si="0"/>
@@ -15218,7 +15464,7 @@
       </c>
       <c r="C26" s="17">
         <f t="shared" si="0"/>
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D26">
         <v>91</v>
@@ -15385,11 +15631,11 @@
       </c>
       <c r="B27" s="17">
         <f>mtl_newcases!C28</f>
-        <v>5520</v>
+        <v>5519</v>
       </c>
       <c r="C27" s="17">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -15556,7 +15802,7 @@
       </c>
       <c r="B28" s="17">
         <f>mtl_newcases!C29</f>
-        <v>5827</v>
+        <v>5826</v>
       </c>
       <c r="C28" s="17">
         <f t="shared" si="0"/>
@@ -15727,7 +15973,7 @@
       </c>
       <c r="B29" s="17">
         <f>mtl_newcases!C30</f>
-        <v>6089</v>
+        <v>6088</v>
       </c>
       <c r="C29" s="17">
         <f t="shared" si="0"/>
@@ -15898,11 +16144,11 @@
       </c>
       <c r="B30" s="17">
         <f>mtl_newcases!C31</f>
-        <v>6424</v>
+        <v>6422</v>
       </c>
       <c r="C30" s="17">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D30">
         <v>162</v>
@@ -16069,11 +16315,11 @@
       </c>
       <c r="B31" s="17">
         <f>mtl_newcases!C32</f>
-        <v>6963</v>
+        <v>6957</v>
       </c>
       <c r="C31" s="17">
         <f t="shared" si="0"/>
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D31">
         <v>218</v>
@@ -16240,11 +16486,11 @@
       </c>
       <c r="B32" s="17">
         <f>mtl_newcases!C33</f>
-        <v>7438</v>
+        <v>7433</v>
       </c>
       <c r="C32" s="17">
         <f t="shared" si="0"/>
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D32">
         <v>242</v>
@@ -16411,11 +16657,11 @@
       </c>
       <c r="B33" s="17">
         <f>mtl_newcases!C34</f>
-        <v>8068</v>
+        <v>8064</v>
       </c>
       <c r="C33" s="17">
         <f t="shared" si="0"/>
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D33">
         <v>332</v>
@@ -16582,11 +16828,11 @@
       </c>
       <c r="B34" s="17">
         <f>mtl_newcases!C35</f>
-        <v>8562</v>
+        <v>8557</v>
       </c>
       <c r="C34" s="17">
         <f t="shared" si="0"/>
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D34">
         <v>391</v>
@@ -16753,11 +16999,11 @@
       </c>
       <c r="B35" s="17">
         <f>mtl_newcases!C36</f>
-        <v>9138</v>
+        <v>9131</v>
       </c>
       <c r="C35" s="17">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D35">
         <v>454</v>
@@ -16924,7 +17170,7 @@
       </c>
       <c r="B36" s="17">
         <f>mtl_newcases!C37</f>
-        <v>9460</v>
+        <v>9453</v>
       </c>
       <c r="C36" s="17">
         <f t="shared" si="0"/>
@@ -17095,11 +17341,11 @@
       </c>
       <c r="B37" s="17">
         <f>mtl_newcases!C38</f>
-        <v>9889</v>
+        <v>9881</v>
       </c>
       <c r="C37" s="17">
         <f t="shared" si="0"/>
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D37">
         <v>525</v>
@@ -17235,11 +17481,11 @@
       </c>
       <c r="B38" s="17">
         <f>mtl_newcases!C39</f>
-        <v>10388</v>
+        <v>10379</v>
       </c>
       <c r="C38" s="17">
         <f t="shared" si="0"/>
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D38">
         <v>583</v>
@@ -17406,11 +17652,11 @@
       </c>
       <c r="B39" s="17">
         <f>mtl_newcases!C40</f>
-        <v>10865</v>
+        <v>10848</v>
       </c>
       <c r="C39" s="17">
         <f t="shared" si="0"/>
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D39">
         <v>647</v>
@@ -17577,11 +17823,11 @@
       </c>
       <c r="B40" s="17">
         <f>mtl_newcases!C41</f>
-        <v>11418</v>
+        <v>11396</v>
       </c>
       <c r="C40" s="17">
         <f t="shared" si="0"/>
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D40">
         <v>741</v>
@@ -17748,11 +17994,11 @@
       </c>
       <c r="B41" s="17">
         <f>mtl_newcases!C42</f>
-        <v>11967</v>
+        <v>11939</v>
       </c>
       <c r="C41" s="17">
         <f t="shared" si="0"/>
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D41">
         <v>808</v>
@@ -17919,11 +18165,11 @@
       </c>
       <c r="B42" s="17">
         <f>mtl_newcases!C43</f>
-        <v>12479</v>
+        <v>12447</v>
       </c>
       <c r="C42" s="17">
         <f t="shared" si="0"/>
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D42">
         <v>895</v>
@@ -18090,11 +18336,11 @@
       </c>
       <c r="B43" s="17">
         <f>mtl_newcases!C44</f>
-        <v>12803</v>
+        <v>12769</v>
       </c>
       <c r="C43" s="17">
         <f t="shared" si="0"/>
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D43">
         <v>938</v>
@@ -18261,11 +18507,11 @@
       </c>
       <c r="B44" s="17">
         <f>mtl_newcases!C45</f>
-        <v>13117</v>
+        <v>13074</v>
       </c>
       <c r="C44" s="17">
         <f>B44-B43</f>
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D44">
         <v>983</v>
@@ -18432,11 +18678,11 @@
       </c>
       <c r="B45" s="17">
         <f>mtl_newcases!C46</f>
-        <v>13601</v>
+        <v>13549</v>
       </c>
       <c r="C45" s="17">
         <f>B45-B44</f>
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="D45">
         <v>1039</v>
@@ -18603,11 +18849,11 @@
       </c>
       <c r="B46" s="17">
         <f>mtl_newcases!C47</f>
-        <v>14078</v>
+        <v>14028</v>
       </c>
       <c r="C46" s="17">
         <f t="shared" ref="C46:C47" si="438">B46-B45</f>
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D46">
         <v>1078</v>
@@ -18743,11 +18989,11 @@
       </c>
       <c r="B47" s="17">
         <f>mtl_newcases!C48</f>
-        <v>14607</v>
+        <v>14556</v>
       </c>
       <c r="C47" s="17">
         <f t="shared" si="438"/>
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D47">
         <v>1146</v>
@@ -18883,11 +19129,11 @@
       </c>
       <c r="B48" s="17">
         <f>mtl_newcases!C49</f>
-        <v>15209</v>
+        <v>15159</v>
       </c>
       <c r="C48" s="17">
         <f t="shared" ref="C48" si="439">B48-B47</f>
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D48">
         <v>1245</v>
@@ -19054,11 +19300,11 @@
       </c>
       <c r="B49" s="17">
         <f>mtl_newcases!C50</f>
-        <v>15831</v>
+        <v>15780</v>
       </c>
       <c r="C49" s="17">
         <f t="shared" ref="C49" si="461">B49-B48</f>
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D49">
         <v>1312</v>
@@ -19225,11 +19471,11 @@
       </c>
       <c r="B50" s="17">
         <f>mtl_newcases!C51</f>
-        <v>16317</v>
+        <v>16294</v>
       </c>
       <c r="C50" s="17">
         <f t="shared" ref="C50" si="483">B50-B49</f>
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="D50">
         <v>1365</v>
@@ -19396,11 +19642,11 @@
       </c>
       <c r="B51" s="17">
         <f>mtl_newcases!C52</f>
-        <v>16673</v>
+        <v>16649</v>
       </c>
       <c r="C51" s="17">
         <f t="shared" ref="C51" si="505">B51-B50</f>
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D51">
         <v>1410</v>
@@ -19567,11 +19813,11 @@
       </c>
       <c r="B52" s="17">
         <f>mtl_newcases!C53</f>
-        <v>17088</v>
+        <v>17070</v>
       </c>
       <c r="C52" s="17">
         <f t="shared" ref="C52" si="527">B52-B51</f>
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D52">
         <v>1488</v>
@@ -19738,11 +19984,11 @@
       </c>
       <c r="B53" s="17">
         <f>mtl_newcases!C54</f>
-        <v>17604</v>
+        <v>17582</v>
       </c>
       <c r="C53" s="17">
         <f t="shared" ref="C53" si="549">B53-B52</f>
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D53">
         <v>1562</v>
@@ -19909,11 +20155,11 @@
       </c>
       <c r="B54" s="17">
         <f>mtl_newcases!C55</f>
-        <v>18138</v>
+        <v>18139</v>
       </c>
       <c r="C54" s="17">
         <f t="shared" ref="C54:C55" si="571">B54-B53</f>
-        <v>534</v>
+        <v>557</v>
       </c>
       <c r="D54">
         <v>1666</v>
@@ -20080,11 +20326,11 @@
       </c>
       <c r="B55" s="17">
         <f>mtl_newcases!C56</f>
-        <v>18435</v>
+        <v>18584</v>
       </c>
       <c r="C55" s="17">
         <f t="shared" si="571"/>
-        <v>297</v>
+        <v>445</v>
       </c>
       <c r="D55">
         <v>1727</v>
@@ -20243,6 +20489,177 @@
       <c r="AS55" s="3">
         <f t="shared" ref="AS55" si="612">Y55*100/SUM($P55:$Y55)</f>
         <v>45.912134066362597</v>
+      </c>
+    </row>
+    <row r="56" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A56" s="19">
+        <v>43959</v>
+      </c>
+      <c r="B56" s="17">
+        <f>mtl_newcases!C57</f>
+        <v>18855</v>
+      </c>
+      <c r="C56" s="17">
+        <f t="shared" ref="C56" si="613">B56-B55</f>
+        <v>271</v>
+      </c>
+      <c r="D56">
+        <v>1760</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ref="E56" si="614">D56-D55</f>
+        <v>33</v>
+      </c>
+      <c r="F56" cm="1">
+        <f t="array" ref="F56:O56">TRANSPOSE(santemontreal!AO$57:AO$66)</f>
+        <v>175</v>
+      </c>
+      <c r="G56">
+        <v>150</v>
+      </c>
+      <c r="H56">
+        <v>545</v>
+      </c>
+      <c r="I56">
+        <v>2009</v>
+      </c>
+      <c r="J56">
+        <v>2305</v>
+      </c>
+      <c r="K56">
+        <v>2616</v>
+      </c>
+      <c r="L56">
+        <v>2389</v>
+      </c>
+      <c r="M56">
+        <v>1647</v>
+      </c>
+      <c r="N56">
+        <v>1796</v>
+      </c>
+      <c r="O56">
+        <v>5152</v>
+      </c>
+      <c r="P56" s="18">
+        <f>F56/(age_distribution_2016!$B$2/100000)</f>
+        <v>159.46783305995993</v>
+      </c>
+      <c r="Q56" s="18">
+        <f>G56/(age_distribution_2016!$B$3/100000)</f>
+        <v>143.69880729989941</v>
+      </c>
+      <c r="R56" s="18">
+        <f>H56/(age_distribution_2016!$B$4/100000)</f>
+        <v>289.60862980577622</v>
+      </c>
+      <c r="S56" s="18">
+        <f>I56/(age_distribution_2016!$B$5/100000)</f>
+        <v>685.13939807315205</v>
+      </c>
+      <c r="T56" s="18">
+        <f>J56/(age_distribution_2016!$B$6/100000)</f>
+        <v>769.16659714690911</v>
+      </c>
+      <c r="U56" s="18">
+        <f>K56/(age_distribution_2016!$B$7/100000)</f>
+        <v>1027.9988211022694</v>
+      </c>
+      <c r="V56" s="18">
+        <f>L56/(age_distribution_2016!$B$8/100000)</f>
+        <v>922.83920811202313</v>
+      </c>
+      <c r="W56" s="18">
+        <f>M56/(age_distribution_2016!$B$9/100000)</f>
+        <v>803.39503914538659</v>
+      </c>
+      <c r="X56" s="18">
+        <f>N56/(age_distribution_2016!$B$10/100000)</f>
+        <v>1384.9475632325725</v>
+      </c>
+      <c r="Y56" s="18">
+        <f>O56/(age_distribution_2016!$B$11/100000)</f>
+        <v>5214.311016648955</v>
+      </c>
+      <c r="Z56" s="3">
+        <f t="shared" ref="Z56" si="615">F56*100/SUM($F56:$O56)</f>
+        <v>0.93164395229982966</v>
+      </c>
+      <c r="AA56" s="3">
+        <f t="shared" ref="AA56" si="616">G56*100/SUM($F56:$O56)</f>
+        <v>0.79855195911413968</v>
+      </c>
+      <c r="AB56" s="3">
+        <f t="shared" ref="AB56" si="617">H56*100/SUM($F56:$O56)</f>
+        <v>2.9014054514480407</v>
+      </c>
+      <c r="AC56" s="3">
+        <f t="shared" ref="AC56" si="618">I56*100/SUM($F56:$O56)</f>
+        <v>10.695272572402045</v>
+      </c>
+      <c r="AD56" s="3">
+        <f t="shared" ref="AD56" si="619">J56*100/SUM($F56:$O56)</f>
+        <v>12.271081771720613</v>
+      </c>
+      <c r="AE56" s="3">
+        <f t="shared" ref="AE56" si="620">K56*100/SUM($F56:$O56)</f>
+        <v>13.926746166950597</v>
+      </c>
+      <c r="AF56" s="3">
+        <f t="shared" ref="AF56" si="621">L56*100/SUM($F56:$O56)</f>
+        <v>12.718270868824531</v>
+      </c>
+      <c r="AG56" s="3">
+        <f t="shared" ref="AG56" si="622">M56*100/SUM($F56:$O56)</f>
+        <v>8.7681005110732535</v>
+      </c>
+      <c r="AH56" s="3">
+        <f t="shared" ref="AH56" si="623">N56*100/SUM($F56:$O56)</f>
+        <v>9.5613287904599655</v>
+      </c>
+      <c r="AI56" s="3">
+        <f t="shared" ref="AI56" si="624">O56*100/SUM($F56:$O56)</f>
+        <v>27.427597955706986</v>
+      </c>
+      <c r="AJ56" s="3">
+        <f t="shared" ref="AJ56" si="625">P56*100/SUM($P56:$Y56)</f>
+        <v>1.398770344860045</v>
+      </c>
+      <c r="AK56" s="3">
+        <f t="shared" ref="AK56" si="626">Q56*100/SUM($P56:$Y56)</f>
+        <v>1.2604525087343528</v>
+      </c>
+      <c r="AL56" s="3">
+        <f t="shared" ref="AL56" si="627">R56*100/SUM($P56:$Y56)</f>
+        <v>2.5402989130450817</v>
+      </c>
+      <c r="AM56" s="3">
+        <f t="shared" ref="AM56" si="628">S56*100/SUM($P56:$Y56)</f>
+        <v>6.0096926993398467</v>
+      </c>
+      <c r="AN56" s="3">
+        <f t="shared" ref="AN56" si="629">T56*100/SUM($P56:$Y56)</f>
+        <v>6.7467363524120598</v>
+      </c>
+      <c r="AO56" s="3">
+        <f t="shared" ref="AO56" si="630">U56*100/SUM($P56:$Y56)</f>
+        <v>9.0170803598257816</v>
+      </c>
+      <c r="AP56" s="3">
+        <f t="shared" ref="AP56" si="631">V56*100/SUM($P56:$Y56)</f>
+        <v>8.0946739703666104</v>
+      </c>
+      <c r="AQ56" s="3">
+        <f t="shared" ref="AQ56" si="632">W56*100/SUM($P56:$Y56)</f>
+        <v>7.0469707551723353</v>
+      </c>
+      <c r="AR56" s="3">
+        <f t="shared" ref="AR56" si="633">X56*100/SUM($P56:$Y56)</f>
+        <v>12.148052327941951</v>
+      </c>
+      <c r="AS56" s="3">
+        <f t="shared" ref="AS56" si="634">Y56*100/SUM($P56:$Y56)</f>
+        <v>45.73727176830193</v>
       </c>
     </row>
   </sheetData>
@@ -20252,11 +20669,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20397,7 +20814,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F67" si="1">E4-E3</f>
+        <f t="shared" ref="F4:F68" si="1">E4-E3</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -20410,7 +20827,7 @@
         <v>260</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J67" si="2">I4-I3</f>
+        <f t="shared" ref="J4:J68" si="2">I4-I3</f>
         <v>18</v>
       </c>
       <c r="K4" t="s">
@@ -22809,6 +23226,44 @@
       </c>
       <c r="K67">
         <v>8928</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B68">
+        <v>36986</v>
+      </c>
+      <c r="C68">
+        <f>B68-B67</f>
+        <v>836</v>
+      </c>
+      <c r="D68">
+        <v>24932</v>
+      </c>
+      <c r="E68">
+        <v>2786</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="G68">
+        <v>1835</v>
+      </c>
+      <c r="H68">
+        <v>205</v>
+      </c>
+      <c r="I68">
+        <v>244384</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="2"/>
+        <v>9615</v>
+      </c>
+      <c r="K68">
+        <v>9268</v>
       </c>
     </row>
   </sheetData>
@@ -22818,11 +23273,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23101,11 +23556,11 @@
         <v>43922</v>
       </c>
       <c r="B20">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="E20" s="19">
         <v>43922</v>
@@ -23115,7 +23570,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>-84</v>
+        <v>-83</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -23123,11 +23578,11 @@
         <v>43923</v>
       </c>
       <c r="B21">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>2954</v>
+        <v>2958</v>
       </c>
       <c r="E21" s="19">
         <v>43923</v>
@@ -23137,7 +23592,7 @@
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G26" si="2">C21-F21</f>
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -23149,7 +23604,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>3304</v>
+        <v>3308</v>
       </c>
       <c r="E22" s="19">
         <v>43924</v>
@@ -23159,7 +23614,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -23167,11 +23622,11 @@
         <v>43925</v>
       </c>
       <c r="B23">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3645</v>
+        <v>3650</v>
       </c>
       <c r="E23" s="19">
         <v>43925</v>
@@ -23181,7 +23636,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>-68</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -23189,11 +23644,11 @@
         <v>43926</v>
       </c>
       <c r="B24">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>3906</v>
+        <v>3910</v>
       </c>
       <c r="E24" s="19">
         <v>43926</v>
@@ -23203,7 +23658,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>-71</v>
+        <v>-67</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -23211,11 +23666,11 @@
         <v>43927</v>
       </c>
       <c r="B25">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>4368</v>
+        <v>4370</v>
       </c>
       <c r="E25" s="19">
         <v>43927</v>
@@ -23225,7 +23680,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>-39</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -23237,7 +23692,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>4790</v>
+        <v>4792</v>
       </c>
       <c r="E26" s="19">
         <v>43928</v>
@@ -23247,7 +23702,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -23255,7 +23710,7 @@
         <v>43929</v>
       </c>
       <c r="B27">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -23277,11 +23732,11 @@
         <v>43930</v>
       </c>
       <c r="B28">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C28">
         <f t="shared" ref="C28:C37" si="4">C27+B28</f>
-        <v>5520</v>
+        <v>5519</v>
       </c>
       <c r="E28" s="19">
         <v>43930</v>
@@ -23291,7 +23746,7 @@
       </c>
       <c r="G28">
         <f t="shared" ref="G28:G33" si="5">C28-F28</f>
-        <v>-97</v>
+        <v>-98</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -23303,7 +23758,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
-        <v>5827</v>
+        <v>5826</v>
       </c>
       <c r="E29" s="19">
         <v>43931</v>
@@ -23313,7 +23768,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>-34</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -23325,7 +23780,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
-        <v>6089</v>
+        <v>6088</v>
       </c>
       <c r="E30" s="19">
         <v>43932</v>
@@ -23335,7 +23790,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -23343,11 +23798,11 @@
         <v>43933</v>
       </c>
       <c r="B31">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
-        <v>6424</v>
+        <v>6422</v>
       </c>
       <c r="E31" s="19">
         <v>43933</v>
@@ -23357,7 +23812,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -23365,11 +23820,11 @@
         <v>43934</v>
       </c>
       <c r="B32">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
-        <v>6963</v>
+        <v>6957</v>
       </c>
       <c r="E32" s="19">
         <v>43934</v>
@@ -23379,7 +23834,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -23387,11 +23842,11 @@
         <v>43935</v>
       </c>
       <c r="B33">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>7438</v>
+        <v>7433</v>
       </c>
       <c r="E33" s="19">
         <v>43935</v>
@@ -23401,7 +23856,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -23409,11 +23864,11 @@
         <v>43936</v>
       </c>
       <c r="B34">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>8068</v>
+        <v>8064</v>
       </c>
       <c r="E34" s="19">
         <v>43936</v>
@@ -23423,7 +23878,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G36" si="6">C34-F34</f>
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -23431,11 +23886,11 @@
         <v>43937</v>
       </c>
       <c r="B35">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>8562</v>
+        <v>8557</v>
       </c>
       <c r="E35" s="19">
         <v>43937</v>
@@ -23445,7 +23900,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -23453,11 +23908,11 @@
         <v>43938</v>
       </c>
       <c r="B36">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
-        <v>9138</v>
+        <v>9131</v>
       </c>
       <c r="E36" s="19">
         <v>43938</v>
@@ -23467,7 +23922,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -23479,7 +23934,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
-        <v>9460</v>
+        <v>9453</v>
       </c>
       <c r="E37" s="19">
         <v>43939</v>
@@ -23489,7 +23944,7 @@
       </c>
       <c r="G37">
         <f t="shared" ref="G37" si="7">C37-F37</f>
-        <v>1003</v>
+        <v>996</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -23497,11 +23952,11 @@
         <v>43940</v>
       </c>
       <c r="B38" s="23">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C39" si="8">C37+B38</f>
-        <v>9889</v>
+        <v>9881</v>
       </c>
       <c r="E38" s="19">
         <v>43940</v>
@@ -23511,7 +23966,7 @@
       </c>
       <c r="G38">
         <f t="shared" ref="G38" si="9">C38-F38</f>
-        <v>925</v>
+        <v>917</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -23519,11 +23974,11 @@
         <v>43941</v>
       </c>
       <c r="B39">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C39">
         <f t="shared" si="8"/>
-        <v>10388</v>
+        <v>10379</v>
       </c>
       <c r="E39" s="19">
         <v>43941</v>
@@ -23533,7 +23988,7 @@
       </c>
       <c r="G39">
         <f t="shared" ref="G39" si="10">C39-F39</f>
-        <v>1040</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -23541,11 +23996,11 @@
         <v>43942</v>
       </c>
       <c r="B40">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40" si="11">C39+B40</f>
-        <v>10865</v>
+        <v>10848</v>
       </c>
       <c r="E40" s="19">
         <v>43942</v>
@@ -23555,7 +24010,7 @@
       </c>
       <c r="G40">
         <f t="shared" ref="G40" si="12">C40-F40</f>
-        <v>1009</v>
+        <v>992</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -23563,11 +24018,11 @@
         <v>43943</v>
       </c>
       <c r="B41">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C41">
         <f t="shared" ref="C41:C52" si="13">C40+B41</f>
-        <v>11418</v>
+        <v>11396</v>
       </c>
       <c r="E41" s="19">
         <v>43943</v>
@@ -23577,7 +24032,7 @@
       </c>
       <c r="G41">
         <f t="shared" ref="G41" si="14">C41-F41</f>
-        <v>1043</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -23585,11 +24040,11 @@
         <v>43944</v>
       </c>
       <c r="B42" s="23">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C42">
         <f t="shared" si="13"/>
-        <v>11967</v>
+        <v>11939</v>
       </c>
       <c r="E42" s="19">
         <v>43944</v>
@@ -23599,7 +24054,7 @@
       </c>
       <c r="G42">
         <f t="shared" ref="G42:G44" si="15">C42-F42</f>
-        <v>1070</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -23607,11 +24062,11 @@
         <v>43945</v>
       </c>
       <c r="B43" s="23">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C43">
         <f t="shared" si="13"/>
-        <v>12479</v>
+        <v>12447</v>
       </c>
       <c r="E43" s="19">
         <v>43945</v>
@@ -23621,7 +24076,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="15"/>
-        <v>1318</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -23629,11 +24084,11 @@
         <v>43946</v>
       </c>
       <c r="B44" s="23">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C44">
         <f t="shared" si="13"/>
-        <v>12803</v>
+        <v>12769</v>
       </c>
       <c r="E44" s="19">
         <v>43946</v>
@@ -23643,7 +24098,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="15"/>
-        <v>1182</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -23651,11 +24106,11 @@
         <v>43947</v>
       </c>
       <c r="B45" s="23">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C45">
         <f t="shared" si="13"/>
-        <v>13117</v>
+        <v>13074</v>
       </c>
       <c r="E45" s="19">
         <v>43947</v>
@@ -23665,7 +24120,7 @@
       </c>
       <c r="G45">
         <f>C45-F45</f>
-        <v>1083</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -23673,11 +24128,11 @@
         <v>43948</v>
       </c>
       <c r="B46" s="23">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="C46">
         <f t="shared" si="13"/>
-        <v>13601</v>
+        <v>13549</v>
       </c>
       <c r="E46" s="19">
         <v>43948</v>
@@ -23687,7 +24142,7 @@
       </c>
       <c r="G46">
         <f>C46-F46</f>
-        <v>1114</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -23695,11 +24150,11 @@
         <v>43949</v>
       </c>
       <c r="B47" s="23">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C47">
         <f t="shared" si="13"/>
-        <v>14078</v>
+        <v>14028</v>
       </c>
       <c r="E47" s="19">
         <v>43949</v>
@@ -23709,7 +24164,7 @@
       </c>
       <c r="G47">
         <f t="shared" ref="G47:G52" si="16">C47-F47</f>
-        <v>1267</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -23717,11 +24172,11 @@
         <v>43950</v>
       </c>
       <c r="B48" s="23">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C48">
         <f t="shared" si="13"/>
-        <v>14607</v>
+        <v>14556</v>
       </c>
       <c r="E48" s="19">
         <v>43950</v>
@@ -23731,7 +24186,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="16"/>
-        <v>1283</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -23739,11 +24194,11 @@
         <v>43951</v>
       </c>
       <c r="B49" s="23">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C49">
         <f t="shared" si="13"/>
-        <v>15209</v>
+        <v>15159</v>
       </c>
       <c r="E49" s="19">
         <v>43951</v>
@@ -23753,7 +24208,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="16"/>
-        <v>1230</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -23761,11 +24216,11 @@
         <v>43952</v>
       </c>
       <c r="B50" s="23">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C50">
         <f t="shared" si="13"/>
-        <v>15831</v>
+        <v>15780</v>
       </c>
       <c r="E50" s="19">
         <v>43952</v>
@@ -23775,7 +24230,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="16"/>
-        <v>1232</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -23783,11 +24238,11 @@
         <v>43953</v>
       </c>
       <c r="B51" s="23">
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="C51">
         <f t="shared" si="13"/>
-        <v>16317</v>
+        <v>16294</v>
       </c>
       <c r="E51" s="19">
         <v>43953</v>
@@ -23797,7 +24252,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="16"/>
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -23805,11 +24260,11 @@
         <v>43954</v>
       </c>
       <c r="B52" s="23">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C52">
         <f t="shared" si="13"/>
-        <v>16673</v>
+        <v>16649</v>
       </c>
       <c r="E52" s="19">
         <v>43954</v>
@@ -23819,7 +24274,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="16"/>
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -23827,11 +24282,11 @@
         <v>43955</v>
       </c>
       <c r="B53" s="23">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C53">
         <f t="shared" ref="C53" si="17">C52+B53</f>
-        <v>17088</v>
+        <v>17070</v>
       </c>
       <c r="E53" s="19">
         <v>43955</v>
@@ -23841,7 +24296,7 @@
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="18">C53-F53</f>
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -23849,11 +24304,11 @@
         <v>43956</v>
       </c>
       <c r="B54" s="23">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:C56" si="19">C53+B54</f>
-        <v>17604</v>
+        <f t="shared" ref="C54:C57" si="19">C53+B54</f>
+        <v>17582</v>
       </c>
       <c r="E54" s="19">
         <v>43956</v>
@@ -23863,7 +24318,7 @@
       </c>
       <c r="G54">
         <f t="shared" ref="G54" si="20">C54-F54</f>
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -23871,11 +24326,11 @@
         <v>43957</v>
       </c>
       <c r="B55" s="23">
-        <v>534</v>
+        <v>557</v>
       </c>
       <c r="C55">
         <f t="shared" si="19"/>
-        <v>18138</v>
+        <v>18139</v>
       </c>
       <c r="E55" s="19">
         <v>43957</v>
@@ -23884,8 +24339,8 @@
         <v>17918</v>
       </c>
       <c r="G55">
-        <f t="shared" ref="G55:G56" si="21">C55-F55</f>
-        <v>220</v>
+        <f t="shared" ref="G55:G57" si="21">C55-F55</f>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -23893,11 +24348,11 @@
         <v>43958</v>
       </c>
       <c r="B56" s="24">
-        <v>297</v>
+        <v>445</v>
       </c>
       <c r="C56">
         <f t="shared" si="19"/>
-        <v>18435</v>
+        <v>18584</v>
       </c>
       <c r="E56" s="19">
         <v>43958</v>
@@ -23906,6 +24361,25 @@
         <v>18435</v>
       </c>
       <c r="G56">
+        <f t="shared" si="21"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="19">
+        <v>43959</v>
+      </c>
+      <c r="B57" s="24">
+        <v>271</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="19"/>
+        <v>18855</v>
+      </c>
+      <c r="F57">
+        <v>18855</v>
+      </c>
+      <c r="G57">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -23920,9 +24394,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN35" sqref="AN2:AN35"/>
+      <selection pane="topRight" activeCell="AO2" sqref="AO2:AO36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24037,24 +24511,26 @@
         <v>292</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AK1" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="AL1" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="AL1" s="5" t="s">
-        <v>300</v>
-      </c>
       <c r="AM1" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="AO1" s="5"/>
+        <v>305</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>317</v>
+      </c>
       <c r="AP1" s="5"/>
       <c r="AQ1" s="5"/>
       <c r="AR1" s="5"/>
@@ -24352,7 +24828,9 @@
       <c r="AN2" s="7">
         <v>1502</v>
       </c>
-      <c r="AO2" s="7"/>
+      <c r="AO2" s="7">
+        <v>1536</v>
+      </c>
       <c r="AP2" s="7"/>
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7"/>
@@ -24650,7 +25128,9 @@
       <c r="AN3" s="9">
         <v>409</v>
       </c>
-      <c r="AO3" s="9"/>
+      <c r="AO3" s="9">
+        <v>423</v>
+      </c>
       <c r="AP3" s="9"/>
       <c r="AQ3" s="9"/>
       <c r="AR3" s="9"/>
@@ -24948,7 +25428,9 @@
       <c r="AN4" s="7">
         <v>11</v>
       </c>
-      <c r="AO4" s="7"/>
+      <c r="AO4" s="7">
+        <v>11</v>
+      </c>
       <c r="AP4" s="7"/>
       <c r="AQ4" s="7"/>
       <c r="AR4" s="7"/>
@@ -25246,7 +25728,9 @@
       <c r="AN5" s="9">
         <v>45</v>
       </c>
-      <c r="AO5" s="9"/>
+      <c r="AO5" s="9">
+        <v>45</v>
+      </c>
       <c r="AP5" s="9"/>
       <c r="AQ5" s="9"/>
       <c r="AR5" s="9"/>
@@ -25544,7 +26028,9 @@
       <c r="AN6" s="7">
         <v>1512</v>
       </c>
-      <c r="AO6" s="7"/>
+      <c r="AO6" s="7">
+        <v>1530</v>
+      </c>
       <c r="AP6" s="7"/>
       <c r="AQ6" s="7"/>
       <c r="AR6" s="7"/>
@@ -25842,7 +26328,9 @@
       <c r="AN7" s="9">
         <v>393</v>
       </c>
-      <c r="AO7" s="9"/>
+      <c r="AO7" s="9">
+        <v>397</v>
+      </c>
       <c r="AP7" s="9"/>
       <c r="AQ7" s="9"/>
       <c r="AR7" s="9"/>
@@ -26140,7 +26628,9 @@
       <c r="AN8" s="7">
         <v>274</v>
       </c>
-      <c r="AO8" s="7"/>
+      <c r="AO8" s="7">
+        <v>280</v>
+      </c>
       <c r="AP8" s="7"/>
       <c r="AQ8" s="7"/>
       <c r="AR8" s="7"/>
@@ -26438,7 +26928,9 @@
       <c r="AN9" s="9">
         <v>141</v>
       </c>
-      <c r="AO9" s="9"/>
+      <c r="AO9" s="9">
+        <v>145</v>
+      </c>
       <c r="AP9" s="9"/>
       <c r="AQ9" s="9"/>
       <c r="AR9" s="9"/>
@@ -26736,7 +27228,9 @@
       <c r="AN10" s="7">
         <v>42</v>
       </c>
-      <c r="AO10" s="7"/>
+      <c r="AO10" s="7">
+        <v>46</v>
+      </c>
       <c r="AP10" s="7"/>
       <c r="AQ10" s="7"/>
       <c r="AR10" s="7"/>
@@ -27034,7 +27528,9 @@
       <c r="AN11" s="9">
         <v>77</v>
       </c>
-      <c r="AO11" s="9"/>
+      <c r="AO11" s="9">
+        <v>81</v>
+      </c>
       <c r="AP11" s="9"/>
       <c r="AQ11" s="9"/>
       <c r="AR11" s="9"/>
@@ -27332,7 +27828,9 @@
       <c r="AN12" s="7">
         <v>386</v>
       </c>
-      <c r="AO12" s="7"/>
+      <c r="AO12" s="7">
+        <v>399</v>
+      </c>
       <c r="AP12" s="7"/>
       <c r="AQ12" s="7"/>
       <c r="AR12" s="7"/>
@@ -27630,7 +28128,9 @@
       <c r="AN13" s="9">
         <v>902</v>
       </c>
-      <c r="AO13" s="9"/>
+      <c r="AO13" s="9">
+        <v>914</v>
+      </c>
       <c r="AP13" s="9"/>
       <c r="AQ13" s="9"/>
       <c r="AR13" s="9"/>
@@ -27928,7 +28428,9 @@
       <c r="AN14" s="7">
         <v>125</v>
       </c>
-      <c r="AO14" s="7"/>
+      <c r="AO14" s="7">
+        <v>132</v>
+      </c>
       <c r="AP14" s="7"/>
       <c r="AQ14" s="7"/>
       <c r="AR14" s="7"/>
@@ -28226,7 +28728,9 @@
       <c r="AN15" s="9">
         <v>1402</v>
       </c>
-      <c r="AO15" s="9"/>
+      <c r="AO15" s="9">
+        <v>1432</v>
+      </c>
       <c r="AP15" s="9"/>
       <c r="AQ15" s="9"/>
       <c r="AR15" s="9"/>
@@ -28524,7 +29028,9 @@
       <c r="AN16" s="7">
         <v>24</v>
       </c>
-      <c r="AO16" s="7"/>
+      <c r="AO16" s="7">
+        <v>26</v>
+      </c>
       <c r="AP16" s="7"/>
       <c r="AQ16" s="7"/>
       <c r="AR16" s="7"/>
@@ -28822,7 +29328,9 @@
       <c r="AN17" s="9">
         <v>1676</v>
       </c>
-      <c r="AO17" s="9"/>
+      <c r="AO17" s="9">
+        <v>1729</v>
+      </c>
       <c r="AP17" s="9"/>
       <c r="AQ17" s="9"/>
       <c r="AR17" s="9"/>
@@ -29120,7 +29628,9 @@
       <c r="AN18" s="7">
         <v>15</v>
       </c>
-      <c r="AO18" s="7"/>
+      <c r="AO18" s="7">
+        <v>15</v>
+      </c>
       <c r="AP18" s="7"/>
       <c r="AQ18" s="7"/>
       <c r="AR18" s="7"/>
@@ -29418,7 +29928,9 @@
       <c r="AN19" s="9">
         <v>207</v>
       </c>
-      <c r="AO19" s="9"/>
+      <c r="AO19" s="9">
+        <v>215</v>
+      </c>
       <c r="AP19" s="9"/>
       <c r="AQ19" s="9"/>
       <c r="AR19" s="9"/>
@@ -29716,7 +30228,9 @@
       <c r="AN20" s="7">
         <v>217</v>
       </c>
-      <c r="AO20" s="7"/>
+      <c r="AO20" s="7">
+        <v>220</v>
+      </c>
       <c r="AP20" s="7"/>
       <c r="AQ20" s="7"/>
       <c r="AR20" s="7"/>
@@ -30014,7 +30528,9 @@
       <c r="AN21" s="9">
         <v>337</v>
       </c>
-      <c r="AO21" s="9"/>
+      <c r="AO21" s="9">
+        <v>352</v>
+      </c>
       <c r="AP21" s="9"/>
       <c r="AQ21" s="9"/>
       <c r="AR21" s="9"/>
@@ -30312,7 +30828,9 @@
       <c r="AN22" s="7">
         <v>657</v>
       </c>
-      <c r="AO22" s="7"/>
+      <c r="AO22" s="7">
+        <v>672</v>
+      </c>
       <c r="AP22" s="7"/>
       <c r="AQ22" s="7"/>
       <c r="AR22" s="7"/>
@@ -30610,7 +31128,9 @@
       <c r="AN23" s="9">
         <v>142</v>
       </c>
-      <c r="AO23" s="9"/>
+      <c r="AO23" s="9">
+        <v>140</v>
+      </c>
       <c r="AP23" s="9"/>
       <c r="AQ23" s="9"/>
       <c r="AR23" s="9"/>
@@ -30908,7 +31428,9 @@
       <c r="AN24" s="7">
         <v>1361</v>
       </c>
-      <c r="AO24" s="7"/>
+      <c r="AO24" s="7">
+        <v>1407</v>
+      </c>
       <c r="AP24" s="7"/>
       <c r="AQ24" s="7"/>
       <c r="AR24" s="7"/>
@@ -31206,7 +31728,9 @@
       <c r="AN25" s="9">
         <v>1016</v>
       </c>
-      <c r="AO25" s="9"/>
+      <c r="AO25" s="9">
+        <v>1049</v>
+      </c>
       <c r="AP25" s="9"/>
       <c r="AQ25" s="9"/>
       <c r="AR25" s="9"/>
@@ -31504,7 +32028,9 @@
       <c r="AN26" s="7">
         <v>15</v>
       </c>
-      <c r="AO26" s="7"/>
+      <c r="AO26" s="7">
+        <v>15</v>
+      </c>
       <c r="AP26" s="7"/>
       <c r="AQ26" s="7"/>
       <c r="AR26" s="7"/>
@@ -31802,7 +32328,9 @@
       <c r="AN27" s="9">
         <v>654</v>
       </c>
-      <c r="AO27" s="9"/>
+      <c r="AO27" s="9">
+        <v>662</v>
+      </c>
       <c r="AP27" s="9"/>
       <c r="AQ27" s="9"/>
       <c r="AR27" s="9"/>
@@ -32100,7 +32628,9 @@
       <c r="AN28" s="7">
         <v>716</v>
       </c>
-      <c r="AO28" s="7"/>
+      <c r="AO28" s="7">
+        <v>736</v>
+      </c>
       <c r="AP28" s="7"/>
       <c r="AQ28" s="7"/>
       <c r="AR28" s="7"/>
@@ -32398,7 +32928,9 @@
       <c r="AN29" s="20">
         <v>2</v>
       </c>
-      <c r="AO29" s="22"/>
+      <c r="AO29" s="20">
+        <v>2</v>
+      </c>
       <c r="AP29" s="22"/>
       <c r="AQ29" s="22"/>
       <c r="AR29" s="22"/>
@@ -32696,7 +33228,9 @@
       <c r="AN30" s="7">
         <v>708</v>
       </c>
-      <c r="AO30" s="7"/>
+      <c r="AO30" s="7">
+        <v>712</v>
+      </c>
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7"/>
       <c r="AR30" s="7"/>
@@ -32994,7 +33528,9 @@
       <c r="AN31" s="9">
         <v>746</v>
       </c>
-      <c r="AO31" s="9"/>
+      <c r="AO31" s="9">
+        <v>759</v>
+      </c>
       <c r="AP31" s="9"/>
       <c r="AQ31" s="9"/>
       <c r="AR31" s="9"/>
@@ -33292,7 +33828,9 @@
       <c r="AN32" s="7">
         <v>495</v>
       </c>
-      <c r="AO32" s="7"/>
+      <c r="AO32" s="7">
+        <v>508</v>
+      </c>
       <c r="AP32" s="7"/>
       <c r="AQ32" s="7"/>
       <c r="AR32" s="7"/>
@@ -33590,7 +34128,9 @@
       <c r="AN33" s="9">
         <v>1307</v>
       </c>
-      <c r="AO33" s="9"/>
+      <c r="AO33" s="9">
+        <v>1333</v>
+      </c>
       <c r="AP33" s="9"/>
       <c r="AQ33" s="9"/>
       <c r="AR33" s="9"/>
@@ -33888,7 +34428,9 @@
       <c r="AN34" s="7">
         <v>143</v>
       </c>
-      <c r="AO34" s="7"/>
+      <c r="AO34" s="7">
+        <v>145</v>
+      </c>
       <c r="AP34" s="7"/>
       <c r="AQ34" s="7"/>
       <c r="AR34" s="7"/>
@@ -34186,7 +34728,9 @@
       <c r="AN35" s="9">
         <v>777</v>
       </c>
-      <c r="AO35" s="9"/>
+      <c r="AO35" s="9">
+        <v>788</v>
+      </c>
       <c r="AP35" s="9"/>
       <c r="AQ35" s="9"/>
       <c r="AR35" s="9"/>
@@ -34484,7 +35028,9 @@
       <c r="AN36" s="11">
         <v>18435</v>
       </c>
-      <c r="AO36" s="11"/>
+      <c r="AO36" s="11">
+        <v>18855</v>
+      </c>
       <c r="AP36" s="11"/>
       <c r="AQ36" s="11"/>
       <c r="AR36" s="11"/>
@@ -38937,7 +39483,9 @@
       <c r="AN57" s="7">
         <v>175</v>
       </c>
-      <c r="AO57" s="7"/>
+      <c r="AO57" s="7">
+        <v>175</v>
+      </c>
       <c r="AP57" s="7"/>
       <c r="AQ57" s="7"/>
       <c r="AR57" s="7"/>
@@ -39233,7 +39781,9 @@
       <c r="AN58" s="9">
         <v>144</v>
       </c>
-      <c r="AO58" s="9"/>
+      <c r="AO58" s="9">
+        <v>150</v>
+      </c>
       <c r="AP58" s="9"/>
       <c r="AQ58" s="9"/>
       <c r="AR58" s="9"/>
@@ -39529,7 +40079,9 @@
       <c r="AN59" s="7">
         <v>528</v>
       </c>
-      <c r="AO59" s="7"/>
+      <c r="AO59" s="7">
+        <v>545</v>
+      </c>
       <c r="AP59" s="7"/>
       <c r="AQ59" s="7"/>
       <c r="AR59" s="7"/>
@@ -39825,7 +40377,9 @@
       <c r="AN60" s="9">
         <v>1943</v>
       </c>
-      <c r="AO60" s="9"/>
+      <c r="AO60" s="9">
+        <v>2009</v>
+      </c>
       <c r="AP60" s="9"/>
       <c r="AQ60" s="9"/>
       <c r="AR60" s="9"/>
@@ -40121,7 +40675,9 @@
       <c r="AN61" s="7">
         <v>2235</v>
       </c>
-      <c r="AO61" s="7"/>
+      <c r="AO61" s="7">
+        <v>2305</v>
+      </c>
       <c r="AP61" s="7"/>
       <c r="AQ61" s="7"/>
       <c r="AR61" s="7"/>
@@ -40417,7 +40973,9 @@
       <c r="AN62" s="9">
         <v>2545</v>
       </c>
-      <c r="AO62" s="9"/>
+      <c r="AO62" s="9">
+        <v>2616</v>
+      </c>
       <c r="AP62" s="9"/>
       <c r="AQ62" s="9"/>
       <c r="AR62" s="9"/>
@@ -40713,7 +41271,9 @@
       <c r="AN63" s="7">
         <v>2342</v>
       </c>
-      <c r="AO63" s="7"/>
+      <c r="AO63" s="7">
+        <v>2389</v>
+      </c>
       <c r="AP63" s="7"/>
       <c r="AQ63" s="7"/>
       <c r="AR63" s="7"/>
@@ -41009,7 +41569,9 @@
       <c r="AN64" s="9">
         <v>1622</v>
       </c>
-      <c r="AO64" s="9"/>
+      <c r="AO64" s="9">
+        <v>1647</v>
+      </c>
       <c r="AP64" s="9"/>
       <c r="AQ64" s="9"/>
       <c r="AR64" s="9"/>
@@ -41305,7 +41867,9 @@
       <c r="AN65" s="7">
         <v>1764</v>
       </c>
-      <c r="AO65" s="7"/>
+      <c r="AO65" s="7">
+        <v>1796</v>
+      </c>
       <c r="AP65" s="7"/>
       <c r="AQ65" s="7"/>
       <c r="AR65" s="7"/>
@@ -41601,7 +42165,9 @@
       <c r="AN66" s="9">
         <v>5068</v>
       </c>
-      <c r="AO66" s="9"/>
+      <c r="AO66" s="9">
+        <v>5152</v>
+      </c>
       <c r="AP66" s="9"/>
       <c r="AQ66" s="9"/>
       <c r="AR66" s="9"/>
@@ -41897,7 +42463,9 @@
       <c r="AN67" s="7">
         <v>69</v>
       </c>
-      <c r="AO67" s="7"/>
+      <c r="AO67" s="7">
+        <v>71</v>
+      </c>
       <c r="AP67" s="7"/>
       <c r="AQ67" s="7"/>
       <c r="AR67" s="7"/>
@@ -42193,7 +42761,9 @@
       <c r="AN68" s="15">
         <v>18435</v>
       </c>
-      <c r="AO68" s="15"/>
+      <c r="AO68" s="15">
+        <v>18855</v>
+      </c>
       <c r="AP68" s="15"/>
       <c r="AQ68" s="15"/>
       <c r="AR68" s="15"/>
@@ -42943,6 +43513,9 @@
       <c r="AN72">
         <v>201</v>
       </c>
+      <c r="AO72">
+        <v>204</v>
+      </c>
     </row>
     <row r="73" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="8" t="s">
@@ -42966,6 +43539,9 @@
       <c r="AN73">
         <v>18</v>
       </c>
+      <c r="AO73">
+        <v>19</v>
+      </c>
     </row>
     <row r="74" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="6" t="s">
@@ -42989,16 +43565,19 @@
       <c r="AN74">
         <v>0</v>
       </c>
+      <c r="AO74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="8" t="s">
         <v>40</v>
       </c>
       <c r="AI75" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AJ75" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AK75" s="24">
         <v>2</v>
@@ -43010,6 +43589,9 @@
         <v>5</v>
       </c>
       <c r="AN75">
+        <v>6</v>
+      </c>
+      <c r="AO75">
         <v>6</v>
       </c>
     </row>
@@ -43035,6 +43617,9 @@
       <c r="AN76">
         <v>154</v>
       </c>
+      <c r="AO76">
+        <v>156</v>
+      </c>
     </row>
     <row r="77" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="8" t="s">
@@ -43058,6 +43643,9 @@
       <c r="AN77">
         <v>19</v>
       </c>
+      <c r="AO77">
+        <v>19</v>
+      </c>
     </row>
     <row r="78" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="6" t="s">
@@ -43081,6 +43669,9 @@
       <c r="AN78">
         <v>19</v>
       </c>
+      <c r="AO78">
+        <v>19</v>
+      </c>
     </row>
     <row r="79" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="8" t="s">
@@ -43104,6 +43695,9 @@
       <c r="AN79">
         <v>27</v>
       </c>
+      <c r="AO79">
+        <v>27</v>
+      </c>
     </row>
     <row r="80" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="6" t="s">
@@ -43113,7 +43707,7 @@
         <v>0</v>
       </c>
       <c r="AJ80" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AK80">
         <v>0</v>
@@ -43127,8 +43721,11 @@
       <c r="AN80">
         <v>0</v>
       </c>
+      <c r="AO80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="8" t="s">
         <v>46</v>
       </c>
@@ -43150,8 +43747,11 @@
       <c r="AN81">
         <v>8</v>
       </c>
+      <c r="AO81">
+        <v>8</v>
+      </c>
     </row>
-    <row r="82" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="6" t="s">
         <v>47</v>
       </c>
@@ -43173,8 +43773,11 @@
       <c r="AN82">
         <v>42</v>
       </c>
+      <c r="AO82">
+        <v>42</v>
+      </c>
     </row>
-    <row r="83" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="8" t="s">
         <v>48</v>
       </c>
@@ -43196,8 +43799,11 @@
       <c r="AN83">
         <v>114</v>
       </c>
+      <c r="AO83">
+        <v>114</v>
+      </c>
     </row>
-    <row r="84" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
         <v>49</v>
       </c>
@@ -43219,8 +43825,11 @@
       <c r="AN84">
         <v>17</v>
       </c>
+      <c r="AO84">
+        <v>17</v>
+      </c>
     </row>
-    <row r="85" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="8" t="s">
         <v>50</v>
       </c>
@@ -43242,8 +43851,11 @@
       <c r="AN85">
         <v>178</v>
       </c>
+      <c r="AO85">
+        <v>184</v>
+      </c>
     </row>
-    <row r="86" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
         <v>51</v>
       </c>
@@ -43251,22 +43863,25 @@
         <v>0</v>
       </c>
       <c r="AJ86" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AK86" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AL86" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM86" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AN86" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
+      </c>
+      <c r="AO86" s="24" t="s">
+        <v>296</v>
       </c>
     </row>
-    <row r="87" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="8" t="s">
         <v>52</v>
       </c>
@@ -43288,31 +43903,37 @@
       <c r="AN87">
         <v>107</v>
       </c>
+      <c r="AO87">
+        <v>114</v>
+      </c>
     </row>
-    <row r="88" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
         <v>53</v>
       </c>
       <c r="AI88" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AJ88" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AK88" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AL88" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM88" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AN88" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
+      </c>
+      <c r="AO88" s="24" t="s">
+        <v>296</v>
       </c>
     </row>
-    <row r="89" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="8" t="s">
         <v>54</v>
       </c>
@@ -43334,8 +43955,11 @@
       <c r="AN89">
         <v>56</v>
       </c>
+      <c r="AO89">
+        <v>56</v>
+      </c>
     </row>
-    <row r="90" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="6" t="s">
         <v>55</v>
       </c>
@@ -43357,8 +43981,11 @@
       <c r="AN90">
         <v>8</v>
       </c>
+      <c r="AO90">
+        <v>8</v>
+      </c>
     </row>
-    <row r="91" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="8" t="s">
         <v>56</v>
       </c>
@@ -43380,8 +44007,11 @@
       <c r="AN91">
         <v>21</v>
       </c>
+      <c r="AO91">
+        <v>21</v>
+      </c>
     </row>
-    <row r="92" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
         <v>57</v>
       </c>
@@ -43403,8 +44033,11 @@
       <c r="AN92">
         <v>57</v>
       </c>
+      <c r="AO92">
+        <v>57</v>
+      </c>
     </row>
-    <row r="93" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="8" t="s">
         <v>58</v>
       </c>
@@ -43426,8 +44059,11 @@
       <c r="AN93">
         <v>19</v>
       </c>
+      <c r="AO93">
+        <v>19</v>
+      </c>
     </row>
-    <row r="94" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
         <v>59</v>
       </c>
@@ -43449,8 +44085,11 @@
       <c r="AN94">
         <v>66</v>
       </c>
+      <c r="AO94">
+        <v>67</v>
+      </c>
     </row>
-    <row r="95" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="8" t="s">
         <v>60</v>
       </c>
@@ -43472,28 +44111,34 @@
       <c r="AN95">
         <v>100</v>
       </c>
+      <c r="AO95">
+        <v>100</v>
+      </c>
     </row>
-    <row r="96" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="6" t="s">
         <v>61</v>
       </c>
       <c r="AI96" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AJ96" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AK96" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AL96" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM96" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AN96" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
+      </c>
+      <c r="AO96" s="24" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="97" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -43518,6 +44163,9 @@
       <c r="AN97">
         <v>65</v>
       </c>
+      <c r="AO97">
+        <v>67</v>
+      </c>
     </row>
     <row r="98" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="6" t="s">
@@ -43541,6 +44189,9 @@
       <c r="AN98">
         <v>32</v>
       </c>
+      <c r="AO98">
+        <v>32</v>
+      </c>
     </row>
     <row r="99" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="8" t="s">
@@ -43564,6 +44215,9 @@
       <c r="AN99">
         <v>0</v>
       </c>
+      <c r="AO99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="6" t="s">
@@ -43587,6 +44241,9 @@
       <c r="AN100">
         <v>132</v>
       </c>
+      <c r="AO100">
+        <v>132</v>
+      </c>
     </row>
     <row r="101" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="8" t="s">
@@ -43610,6 +44267,9 @@
       <c r="AN101">
         <v>96</v>
       </c>
+      <c r="AO101">
+        <v>99</v>
+      </c>
     </row>
     <row r="102" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="6" t="s">
@@ -43633,6 +44293,9 @@
       <c r="AN102">
         <v>31</v>
       </c>
+      <c r="AO102">
+        <v>35</v>
+      </c>
     </row>
     <row r="103" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="8" t="s">
@@ -43656,6 +44319,9 @@
       <c r="AN103">
         <v>75</v>
       </c>
+      <c r="AO103">
+        <v>76</v>
+      </c>
     </row>
     <row r="104" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="6" t="s">
@@ -43679,6 +44345,9 @@
       <c r="AN104">
         <v>15</v>
       </c>
+      <c r="AO104">
+        <v>15</v>
+      </c>
     </row>
     <row r="105" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="8" t="s">
@@ -43702,6 +44371,9 @@
       <c r="AN105">
         <v>39</v>
       </c>
+      <c r="AO105">
+        <v>39</v>
+      </c>
     </row>
     <row r="106" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="10" t="s">
@@ -43724,6 +44396,9 @@
       </c>
       <c r="AN106">
         <v>1727</v>
+      </c>
+      <c r="AO106">
+        <v>1760</v>
       </c>
     </row>
     <row r="107" spans="1:216" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -43968,6 +44643,9 @@
       <c r="AN108">
         <v>0</v>
       </c>
+      <c r="AO108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
@@ -43991,6 +44669,9 @@
       <c r="AN109">
         <v>0</v>
       </c>
+      <c r="AO109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
@@ -44014,6 +44695,9 @@
       <c r="AN110">
         <v>0</v>
       </c>
+      <c r="AO110">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
@@ -44037,6 +44721,9 @@
       <c r="AN111">
         <v>0</v>
       </c>
+      <c r="AO111">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
@@ -44060,8 +44747,12 @@
       <c r="AN112" s="24">
         <v>3</v>
       </c>
+      <c r="AO112" s="24">
+        <v>3</v>
+      </c>
+      <c r="AP112" s="24"/>
     </row>
-    <row r="113" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>91</v>
       </c>
@@ -44083,8 +44774,11 @@
       <c r="AN113">
         <v>12</v>
       </c>
+      <c r="AO113">
+        <v>12</v>
+      </c>
     </row>
-    <row r="114" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>92</v>
       </c>
@@ -44106,8 +44800,11 @@
       <c r="AN114">
         <v>31</v>
       </c>
+      <c r="AO114">
+        <v>31</v>
+      </c>
     </row>
-    <row r="115" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>93</v>
       </c>
@@ -44129,8 +44826,11 @@
       <c r="AN115">
         <v>123</v>
       </c>
+      <c r="AO115">
+        <v>129</v>
+      </c>
     </row>
-    <row r="116" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>94</v>
       </c>
@@ -44152,8 +44852,11 @@
       <c r="AN116">
         <v>284</v>
       </c>
+      <c r="AO116">
+        <v>289</v>
+      </c>
     </row>
-    <row r="117" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>95</v>
       </c>
@@ -44175,8 +44878,11 @@
       <c r="AN117">
         <v>1273</v>
       </c>
+      <c r="AO117">
+        <v>1295</v>
+      </c>
     </row>
-    <row r="118" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>96</v>
       </c>
@@ -44198,13 +44904,17 @@
       <c r="AN118" s="24">
         <v>1</v>
       </c>
+      <c r="AO118" s="24">
+        <v>1</v>
+      </c>
+      <c r="AP118" s="24"/>
     </row>
-    <row r="119" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>97</v>
       </c>
-      <c r="AI119" t="s">
-        <v>293</v>
+      <c r="AI119">
+        <v>1365</v>
       </c>
       <c r="AJ119">
         <v>1410</v>
@@ -44216,10 +44926,13 @@
         <v>1562</v>
       </c>
       <c r="AM119" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AN119">
         <v>1727</v>
+      </c>
+      <c r="AO119">
+        <v>1760</v>
       </c>
     </row>
   </sheetData>
@@ -44238,41 +44951,44 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="21.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>85</v>
       </c>
       <c r="B1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F1" t="s">
         <v>312</v>
-      </c>
-      <c r="C1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -44286,7 +45002,7 @@
         <v>318</v>
       </c>
       <c r="D4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -44300,13 +45016,13 @@
         <v>87</v>
       </c>
       <c r="B5">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
         <v>291</v>
       </c>
       <c r="D5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -44320,13 +45036,13 @@
         <v>88</v>
       </c>
       <c r="B6">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="C6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -44340,10 +45056,10 @@
         <v>89</v>
       </c>
       <c r="B7">
-        <v>1943</v>
+        <v>2009</v>
       </c>
       <c r="C7" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="D7" t="s">
         <v>322</v>
@@ -44360,16 +45076,16 @@
         <v>90</v>
       </c>
       <c r="B8">
-        <v>2235</v>
+        <v>2305</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="D8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F8" t="s">
         <v>290</v>
@@ -44380,19 +45096,19 @@
         <v>91</v>
       </c>
       <c r="B9" s="2">
-        <v>2545</v>
+        <v>2616</v>
       </c>
       <c r="C9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E9">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -44400,19 +45116,19 @@
         <v>92</v>
       </c>
       <c r="B10">
-        <v>2342</v>
+        <v>2389</v>
       </c>
       <c r="C10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E10">
         <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -44420,16 +45136,16 @@
         <v>93</v>
       </c>
       <c r="B11">
-        <v>1622</v>
+        <v>1647</v>
       </c>
       <c r="C11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D11" t="s">
         <v>328</v>
       </c>
       <c r="E11">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
         <v>329</v>
@@ -44440,16 +45156,16 @@
         <v>94</v>
       </c>
       <c r="B12">
-        <v>1764</v>
+        <v>1796</v>
       </c>
       <c r="C12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D12" t="s">
         <v>330</v>
       </c>
       <c r="E12">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F12" t="s">
         <v>331</v>
@@ -44460,19 +45176,19 @@
         <v>95</v>
       </c>
       <c r="B13">
-        <v>5068</v>
+        <v>5152</v>
       </c>
       <c r="C13" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="D13" t="s">
-        <v>332</v>
-      </c>
-      <c r="E13">
-        <v>1273</v>
+        <v>333</v>
+      </c>
+      <c r="E13" t="s">
+        <v>334</v>
       </c>
       <c r="F13" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -44480,7 +45196,7 @@
         <v>96</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
         <v>229</v>
@@ -44489,7 +45205,7 @@
         <v>229</v>
       </c>
       <c r="E14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F14" t="s">
         <v>229</v>
@@ -44500,19 +45216,19 @@
         <v>97</v>
       </c>
       <c r="B15">
-        <v>18435</v>
+        <v>18855</v>
       </c>
       <c r="C15" t="s">
         <v>229</v>
       </c>
       <c r="D15" t="s">
-        <v>309</v>
-      </c>
-      <c r="E15">
-        <v>1727</v>
+        <v>315</v>
+      </c>
+      <c r="E15" t="s">
+        <v>316</v>
       </c>
       <c r="F15" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -44527,8 +45243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A02BFA-EB0E-4C22-93E8-2DC42761463D}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B34" sqref="B2:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/app/data/covid19_MTL.xlsx
+++ b/app/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67779E53-9E73-4558-B9E9-24F07A20AEB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633D458D-F248-4561-9A53-D5F49CC9476E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18050" yWindow="6550" windowWidth="31170" windowHeight="11480" tabRatio="585" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="8450" yWindow="2520" windowWidth="32190" windowHeight="17150" tabRatio="585" activeTab="1" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="339">
   <si>
     <t>borough</t>
   </si>
@@ -976,9 +976,6 @@
     <t>2,9</t>
   </si>
   <si>
-    <t>13,9</t>
-  </si>
-  <si>
     <t>1 666</t>
   </si>
   <si>
@@ -988,43 +985,7 @@
     <t>* 4,3</t>
   </si>
   <si>
-    <t>8,8</t>
-  </si>
-  <si>
     <t>7 MAI, 18h04</t>
-  </si>
-  <si>
-    <t>100 000</t>
-  </si>
-  <si>
-    <t>NOMBRE DE CAS CONFIRMÉS¹</t>
-  </si>
-  <si>
-    <t>RÉPARTITION DES CAS (%)</t>
-  </si>
-  <si>
-    <t>TAUX POUR</t>
-  </si>
-  <si>
-    <t>PERSONNES</t>
-  </si>
-  <si>
-    <t>NOMBRE DE DÉCÈS</t>
-  </si>
-  <si>
-    <t>TAUX DE MORTALITÉ POUR</t>
-  </si>
-  <si>
-    <t> 157,8</t>
-  </si>
-  <si>
-    <t>* 12,1</t>
-  </si>
-  <si>
-    <t> 912,8</t>
-  </si>
-  <si>
-    <t>1 760</t>
   </si>
   <si>
     <t>8 MAI, 18h04</t>
@@ -1033,58 +994,103 @@
     <t>0,9</t>
   </si>
   <si>
-    <t> 138,9</t>
-  </si>
-  <si>
-    <t> 274,0</t>
-  </si>
-  <si>
     <t>10,7</t>
-  </si>
-  <si>
-    <t> 623,7</t>
   </si>
   <si>
     <t>12,3</t>
   </si>
   <si>
-    <t>701,6</t>
-  </si>
-  <si>
-    <t>939,9</t>
-  </si>
-  <si>
-    <t>12,7</t>
-  </si>
-  <si>
-    <t>930,8</t>
-  </si>
-  <si>
-    <t>760,5</t>
-  </si>
-  <si>
-    <t> 56,9</t>
-  </si>
-  <si>
-    <t> 1 219,2</t>
-  </si>
-  <si>
-    <t> 199,7</t>
-  </si>
-  <si>
     <t>27,4</t>
   </si>
   <si>
-    <t>5 098,9</t>
+    <t>19 197</t>
   </si>
   <si>
-    <t>1 295</t>
+    <t> 929,3</t>
   </si>
   <si>
-    <t> 1 281,7</t>
+    <t>1 863</t>
   </si>
   <si>
-    <t> 85,2</t>
+    <t>9 MAI, 18h04</t>
+  </si>
+  <si>
+    <t> 158,7</t>
+  </si>
+  <si>
+    <t> 143,6</t>
+  </si>
+  <si>
+    <t> 279,6</t>
+  </si>
+  <si>
+    <t>2 045</t>
+  </si>
+  <si>
+    <t> 634,9</t>
+  </si>
+  <si>
+    <t>2 347</t>
+  </si>
+  <si>
+    <t>714,4</t>
+  </si>
+  <si>
+    <t>2 668</t>
+  </si>
+  <si>
+    <t>14,0</t>
+  </si>
+  <si>
+    <t>958,5</t>
+  </si>
+  <si>
+    <t>2 441</t>
+  </si>
+  <si>
+    <t>12,8</t>
+  </si>
+  <si>
+    <t>951,0</t>
+  </si>
+  <si>
+    <t>* 12,5</t>
+  </si>
+  <si>
+    <t>1 673</t>
+  </si>
+  <si>
+    <t>8,7</t>
+  </si>
+  <si>
+    <t>772,5</t>
+  </si>
+  <si>
+    <t>62,8</t>
+  </si>
+  <si>
+    <t>1 830</t>
+  </si>
+  <si>
+    <t> 1 264,7</t>
+  </si>
+  <si>
+    <t> 213,5</t>
+  </si>
+  <si>
+    <t>5 234</t>
+  </si>
+  <si>
+    <t>5 180,1</t>
+  </si>
+  <si>
+    <t>1 370</t>
+  </si>
+  <si>
+    <t> 1 355,9</t>
+  </si>
+  <si>
+    <t> 90,2</t>
   </si>
 </sst>
 </file>
@@ -1598,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:AP35"/>
+  <dimension ref="A1:AQ35"/>
   <sheetViews>
     <sheetView topLeftCell="R1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AP36" sqref="AP36"/>
+      <selection activeCell="AQ30" sqref="AQ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1611,7 +1617,7 @@
     <col min="18" max="42" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1738,8 +1744,11 @@
       <c r="AP1" s="19">
         <v>43959</v>
       </c>
+      <c r="AQ1" s="19">
+        <v>43960</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1866,8 +1875,11 @@
       <c r="AP2">
         <v>1536</v>
       </c>
+      <c r="AQ2">
+        <v>1585</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1994,8 +2006,11 @@
       <c r="AP3">
         <v>423</v>
       </c>
+      <c r="AQ3">
+        <v>436</v>
+      </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2122,8 +2137,11 @@
       <c r="AP4">
         <v>11</v>
       </c>
+      <c r="AQ4">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2250,8 +2268,11 @@
       <c r="AP5">
         <v>45</v>
       </c>
+      <c r="AQ5">
+        <v>45</v>
+      </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2378,8 +2399,11 @@
       <c r="AP6">
         <v>1530</v>
       </c>
+      <c r="AQ6">
+        <v>1559</v>
+      </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -2506,8 +2530,11 @@
       <c r="AP7">
         <v>397</v>
       </c>
+      <c r="AQ7">
+        <v>400</v>
+      </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -2634,8 +2661,11 @@
       <c r="AP8">
         <v>280</v>
       </c>
+      <c r="AQ8">
+        <v>282</v>
+      </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -2762,8 +2792,11 @@
       <c r="AP9">
         <v>145</v>
       </c>
+      <c r="AQ9">
+        <v>145</v>
+      </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -2890,8 +2923,11 @@
       <c r="AP10">
         <v>46</v>
       </c>
+      <c r="AQ10">
+        <v>48</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -3018,8 +3054,11 @@
       <c r="AP11">
         <v>81</v>
       </c>
+      <c r="AQ11">
+        <v>82</v>
+      </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3146,8 +3185,11 @@
       <c r="AP12">
         <v>399</v>
       </c>
+      <c r="AQ12">
+        <v>407</v>
+      </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3274,8 +3316,11 @@
       <c r="AP13">
         <v>914</v>
       </c>
+      <c r="AQ13">
+        <v>927</v>
+      </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3402,8 +3447,11 @@
       <c r="AP14">
         <v>132</v>
       </c>
+      <c r="AQ14">
+        <v>136</v>
+      </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3530,8 +3578,11 @@
       <c r="AP15">
         <v>1432</v>
       </c>
+      <c r="AQ15">
+        <v>1463</v>
+      </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -3658,8 +3709,11 @@
       <c r="AP16">
         <v>26</v>
       </c>
+      <c r="AQ16">
+        <v>26</v>
+      </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3786,8 +3840,11 @@
       <c r="AP17">
         <v>1729</v>
       </c>
+      <c r="AQ17">
+        <v>1762</v>
+      </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -3914,8 +3971,11 @@
       <c r="AP18">
         <v>15</v>
       </c>
+      <c r="AQ18">
+        <v>16</v>
+      </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -4042,8 +4102,11 @@
       <c r="AP19">
         <v>215</v>
       </c>
+      <c r="AQ19">
+        <v>222</v>
+      </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4170,8 +4233,11 @@
       <c r="AP20">
         <v>220</v>
       </c>
+      <c r="AQ20">
+        <v>221</v>
+      </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4298,8 +4364,11 @@
       <c r="AP21">
         <v>352</v>
       </c>
+      <c r="AQ21">
+        <v>357</v>
+      </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4426,8 +4495,11 @@
       <c r="AP22">
         <v>672</v>
       </c>
+      <c r="AQ22">
+        <v>685</v>
+      </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -4554,8 +4626,11 @@
       <c r="AP23">
         <v>140</v>
       </c>
+      <c r="AQ23">
+        <v>143</v>
+      </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4682,8 +4757,11 @@
       <c r="AP24">
         <v>1407</v>
       </c>
+      <c r="AQ24">
+        <v>1443</v>
+      </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4810,8 +4888,11 @@
       <c r="AP25">
         <v>1049</v>
       </c>
+      <c r="AQ25">
+        <v>1075</v>
+      </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -4938,8 +5019,11 @@
       <c r="AP26">
         <v>15</v>
       </c>
+      <c r="AQ26">
+        <v>15</v>
+      </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5066,8 +5150,11 @@
       <c r="AP27">
         <v>662</v>
       </c>
+      <c r="AQ27">
+        <v>678</v>
+      </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5194,8 +5281,11 @@
       <c r="AP28">
         <v>736</v>
       </c>
+      <c r="AQ28">
+        <v>743</v>
+      </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -5322,8 +5412,11 @@
       <c r="AP29">
         <v>2</v>
       </c>
+      <c r="AQ29">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5450,8 +5543,11 @@
       <c r="AP30">
         <v>712</v>
       </c>
+      <c r="AQ30">
+        <v>717</v>
+      </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5578,8 +5674,11 @@
       <c r="AP31">
         <v>759</v>
       </c>
+      <c r="AQ31">
+        <v>762</v>
+      </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5706,8 +5805,11 @@
       <c r="AP32">
         <v>508</v>
       </c>
+      <c r="AQ32">
+        <v>523</v>
+      </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5834,8 +5936,11 @@
       <c r="AP33">
         <v>1333</v>
       </c>
+      <c r="AQ33">
+        <v>1364</v>
+      </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -5962,8 +6067,11 @@
       <c r="AP34">
         <v>145</v>
       </c>
+      <c r="AQ34">
+        <v>143</v>
+      </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -6099,11 +6207,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:AP34"/>
+  <dimension ref="A1:AQ34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP34" sqref="AP34"/>
+      <selection pane="topRight" activeCell="AT36" sqref="AT36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6114,7 +6222,7 @@
     <col min="28" max="42" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6262,8 +6370,11 @@
       <c r="AP1" s="1">
         <v>43959</v>
       </c>
+      <c r="AQ1" s="1">
+        <v>43960</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6427,8 +6538,12 @@
         <f>cases!AP2/(population_2016!$B2/1000)</f>
         <v>11.441766918693434</v>
       </c>
+      <c r="AQ2" s="3">
+        <f>cases!AQ2/(population_2016!$B2/1000)</f>
+        <v>11.80677120190696</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6592,8 +6707,12 @@
         <f>cases!AP3/(population_2016!$B3/1000)</f>
         <v>9.8841013178801767</v>
       </c>
+      <c r="AQ3" s="3">
+        <f>cases!AQ3/(population_2016!$B3/1000)</f>
+        <v>10.18786802504907</v>
+      </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -6757,8 +6876,12 @@
         <f>cases!AP4/(population_2016!$B4/1000)</f>
         <v>2.8773214752811929</v>
       </c>
+      <c r="AQ4" s="3">
+        <f>cases!AQ4/(population_2016!$B4/1000)</f>
+        <v>2.8773214752811929</v>
+      </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -6922,8 +7045,12 @@
         <f>cases!AP5/(population_2016!$B5/1000)</f>
         <v>2.3287104119229971</v>
       </c>
+      <c r="AQ5" s="3">
+        <f>cases!AQ5/(population_2016!$B5/1000)</f>
+        <v>2.3287104119229971</v>
+      </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7087,8 +7214,12 @@
         <f>cases!AP6/(population_2016!$B6/1000)</f>
         <v>9.1880855152534231</v>
       </c>
+      <c r="AQ6" s="3">
+        <f>cases!AQ6/(population_2016!$B6/1000)</f>
+        <v>9.3622387701177026</v>
+      </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -7252,8 +7383,12 @@
         <f>cases!AP7/(population_2016!$B7/1000)</f>
         <v>12.234960552268245</v>
       </c>
+      <c r="AQ7" s="3">
+        <f>cases!AQ7/(population_2016!$B7/1000)</f>
+        <v>12.32741617357002</v>
+      </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -7417,8 +7552,12 @@
         <f>cases!AP8/(population_2016!$B8/1000)</f>
         <v>5.7260884680668314</v>
       </c>
+      <c r="AQ8" s="3">
+        <f>cases!AQ8/(population_2016!$B8/1000)</f>
+        <v>5.7669890999815943</v>
+      </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -7582,8 +7721,12 @@
         <f>cases!AP9/(population_2016!$B9/1000)</f>
         <v>7.639620653319283</v>
       </c>
+      <c r="AQ9" s="3">
+        <f>cases!AQ9/(population_2016!$B9/1000)</f>
+        <v>7.639620653319283</v>
+      </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -7747,8 +7890,12 @@
         <f>cases!AP10/(population_2016!$B10/1000)</f>
         <v>6.5968736555284675</v>
       </c>
+      <c r="AQ10" s="3">
+        <f>cases!AQ10/(population_2016!$B10/1000)</f>
+        <v>6.8836942492470961</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -7912,8 +8059,12 @@
         <f>cases!AP11/(population_2016!$B11/1000)</f>
         <v>4.0196516301920502</v>
       </c>
+      <c r="AQ11" s="3">
+        <f>cases!AQ11/(population_2016!$B11/1000)</f>
+        <v>4.0692769589598532</v>
+      </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -8077,8 +8228,12 @@
         <f>cases!AP12/(population_2016!$B12/1000)</f>
         <v>8.968509069657669</v>
       </c>
+      <c r="AQ12" s="3">
+        <f>cases!AQ12/(population_2016!$B12/1000)</f>
+        <v>9.1483288003776213</v>
+      </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -8242,8 +8397,12 @@
         <f>cases!AP13/(population_2016!$B13/1000)</f>
         <v>11.892834372112995</v>
       </c>
+      <c r="AQ13" s="3">
+        <f>cases!AQ13/(population_2016!$B13/1000)</f>
+        <v>12.061988471497536</v>
+      </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -8407,8 +8566,12 @@
         <f>cases!AP14/(population_2016!$B14/1000)</f>
         <v>7.1688480964535923</v>
       </c>
+      <c r="AQ14" s="3">
+        <f>cases!AQ14/(population_2016!$B14/1000)</f>
+        <v>7.3860859175582467</v>
+      </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -8572,8 +8735,12 @@
         <f>cases!AP15/(population_2016!$B15/1000)</f>
         <v>10.527553961065694</v>
       </c>
+      <c r="AQ15" s="3">
+        <f>cases!AQ15/(population_2016!$B15/1000)</f>
+        <v>10.75545491972005</v>
+      </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -8737,8 +8904,12 @@
         <f>cases!AP16/(population_2016!$B16/1000)</f>
         <v>6.7532467532467528</v>
       </c>
+      <c r="AQ16" s="3">
+        <f>cases!AQ16/(population_2016!$B16/1000)</f>
+        <v>6.7532467532467528</v>
+      </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -8902,8 +9073,12 @@
         <f>cases!AP17/(population_2016!$B17/1000)</f>
         <v>20.526153334757936</v>
       </c>
+      <c r="AQ17" s="3">
+        <f>cases!AQ17/(population_2016!$B17/1000)</f>
+        <v>20.917919130042502</v>
+      </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -9067,8 +9242,12 @@
         <f>cases!AP18/(population_2016!$B18/1000)</f>
         <v>2.9702970297029703</v>
       </c>
+      <c r="AQ18" s="3">
+        <f>cases!AQ18/(population_2016!$B18/1000)</f>
+        <v>3.1683168316831685</v>
+      </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -9232,8 +9411,12 @@
         <f>cases!AP19/(population_2016!$B19/1000)</f>
         <v>10.60366936279345</v>
       </c>
+      <c r="AQ19" s="3">
+        <f>cases!AQ19/(population_2016!$B19/1000)</f>
+        <v>10.948905109489051</v>
+      </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -9397,8 +9580,12 @@
         <f>cases!AP20/(population_2016!$B20/1000)</f>
         <v>9.1842698505468814</v>
       </c>
+      <c r="AQ20" s="3">
+        <f>cases!AQ20/(population_2016!$B20/1000)</f>
+        <v>9.2260165316857314</v>
+      </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -9562,8 +9749,12 @@
         <f>cases!AP21/(population_2016!$B21/1000)</f>
         <v>5.0795849748185349</v>
       </c>
+      <c r="AQ21" s="3">
+        <f>cases!AQ21/(population_2016!$B21/1000)</f>
+        <v>5.1517381704835712</v>
+      </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -9727,8 +9918,12 @@
         <f>cases!AP22/(population_2016!$B22/1000)</f>
         <v>6.4615384615384617</v>
       </c>
+      <c r="AQ22" s="3">
+        <f>cases!AQ22/(population_2016!$B22/1000)</f>
+        <v>6.5865384615384617</v>
+      </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -9892,8 +10087,12 @@
         <f>cases!AP23/(population_2016!$B23/1000)</f>
         <v>4.4614404079031234</v>
       </c>
+      <c r="AQ23" s="3">
+        <f>cases!AQ23/(population_2016!$B23/1000)</f>
+        <v>4.5570427023581903</v>
+      </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -10057,8 +10256,12 @@
         <f>cases!AP24/(population_2016!$B24/1000)</f>
         <v>13.181192209325202</v>
       </c>
+      <c r="AQ24" s="3">
+        <f>cases!AQ24/(population_2016!$B24/1000)</f>
+        <v>13.518450858604313</v>
+      </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -10222,8 +10425,12 @@
         <f>cases!AP25/(population_2016!$B25/1000)</f>
         <v>7.5148649616734717</v>
       </c>
+      <c r="AQ25" s="3">
+        <f>cases!AQ25/(population_2016!$B25/1000)</f>
+        <v>7.7011247224013184</v>
+      </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -10387,8 +10594,12 @@
         <f>cases!AP26/(population_2016!$B26/1000)</f>
         <v>3.0254134731746669</v>
       </c>
+      <c r="AQ26" s="3">
+        <f>cases!AQ26/(population_2016!$B26/1000)</f>
+        <v>3.0254134731746669</v>
+      </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -10552,8 +10763,12 @@
         <f>cases!AP27/(population_2016!$B27/1000)</f>
         <v>6.6985064961346987</v>
       </c>
+      <c r="AQ27" s="3">
+        <f>cases!AQ27/(population_2016!$B27/1000)</f>
+        <v>6.860403934107743</v>
+      </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -10717,8 +10932,12 @@
         <f>cases!AP28/(population_2016!$B28/1000)</f>
         <v>9.3991443713683669</v>
       </c>
+      <c r="AQ28" s="3">
+        <f>cases!AQ28/(population_2016!$B28/1000)</f>
+        <v>9.4885384075090986</v>
+      </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -10882,8 +11101,12 @@
         <f>cases!AP29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
+      <c r="AQ29" s="3">
+        <f>cases!AQ29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -11047,8 +11270,12 @@
         <f>cases!AP30/(population_2016!$B30/1000)</f>
         <v>9.1105680029686127</v>
       </c>
+      <c r="AQ30" s="3">
+        <f>cases!AQ30/(population_2016!$B30/1000)</f>
+        <v>9.1745467108546279</v>
+      </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -11212,8 +11439,12 @@
         <f>cases!AP31/(population_2016!$B31/1000)</f>
         <v>10.963613514567594</v>
       </c>
+      <c r="AQ31" s="3">
+        <f>cases!AQ31/(population_2016!$B31/1000)</f>
+        <v>11.006947955336637</v>
+      </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -11377,8 +11608,12 @@
         <f>cases!AP32/(population_2016!$B32/1000)</f>
         <v>5.6969832903442859</v>
       </c>
+      <c r="AQ32" s="3">
+        <f>cases!AQ32/(population_2016!$B32/1000)</f>
+        <v>5.865201300885948</v>
+      </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -11542,8 +11777,12 @@
         <f>cases!AP33/(population_2016!$B33/1000)</f>
         <v>9.2664038984240857</v>
       </c>
+      <c r="AQ33" s="3">
+        <f>cases!AQ33/(population_2016!$B33/1000)</f>
+        <v>9.4819016635037148</v>
+      </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -11706,6 +11945,10 @@
       <c r="AP34" s="3">
         <f>cases!AP34/(population_2016!$B34/1000)</f>
         <v>7.1386372587632918</v>
+      </c>
+      <c r="AQ34" s="3">
+        <f>cases!AQ34/(population_2016!$B34/1000)</f>
+        <v>7.040173296573454</v>
       </c>
     </row>
   </sheetData>
@@ -11715,11 +11958,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AS56"/>
+  <dimension ref="A1:AS57"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
+      <selection pane="bottomLeft" activeCell="AK63" sqref="AK63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14269,11 +14512,11 @@
       </c>
       <c r="B19" s="17">
         <f>mtl_newcases!C20</f>
-        <v>2559</v>
+        <v>2560</v>
       </c>
       <c r="C19" s="17">
         <f t="shared" si="0"/>
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>101</v>
@@ -14439,7 +14682,7 @@
       </c>
       <c r="B20" s="17">
         <f>mtl_newcases!C21</f>
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="C20" s="17">
         <f t="shared" si="0"/>
@@ -14609,11 +14852,11 @@
       </c>
       <c r="B21" s="17">
         <f>mtl_newcases!C22</f>
-        <v>3308</v>
+        <v>3311</v>
       </c>
       <c r="C21" s="17">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>101</v>
@@ -14779,11 +15022,11 @@
       </c>
       <c r="B22" s="17">
         <f>mtl_newcases!C23</f>
-        <v>3650</v>
+        <v>3655</v>
       </c>
       <c r="C22" s="17">
         <f t="shared" si="0"/>
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>101</v>
@@ -14949,11 +15192,11 @@
       </c>
       <c r="B23" s="17">
         <f>mtl_newcases!C24</f>
-        <v>3910</v>
+        <v>3914</v>
       </c>
       <c r="C23" s="17">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>101</v>
@@ -15119,7 +15362,7 @@
       </c>
       <c r="B24" s="17">
         <f>mtl_newcases!C25</f>
-        <v>4370</v>
+        <v>4374</v>
       </c>
       <c r="C24" s="17">
         <f t="shared" si="0"/>
@@ -15289,11 +15532,11 @@
       </c>
       <c r="B25" s="17">
         <f>mtl_newcases!C26</f>
-        <v>4792</v>
+        <v>4795</v>
       </c>
       <c r="C25" s="17">
         <f t="shared" si="0"/>
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D25">
         <v>74</v>
@@ -15460,7 +15703,7 @@
       </c>
       <c r="B26" s="17">
         <f>mtl_newcases!C27</f>
-        <v>5168</v>
+        <v>5171</v>
       </c>
       <c r="C26" s="17">
         <f t="shared" si="0"/>
@@ -15631,7 +15874,7 @@
       </c>
       <c r="B27" s="17">
         <f>mtl_newcases!C28</f>
-        <v>5519</v>
+        <v>5522</v>
       </c>
       <c r="C27" s="17">
         <f t="shared" si="0"/>
@@ -15802,7 +16045,7 @@
       </c>
       <c r="B28" s="17">
         <f>mtl_newcases!C29</f>
-        <v>5826</v>
+        <v>5829</v>
       </c>
       <c r="C28" s="17">
         <f t="shared" si="0"/>
@@ -15973,7 +16216,7 @@
       </c>
       <c r="B29" s="17">
         <f>mtl_newcases!C30</f>
-        <v>6088</v>
+        <v>6091</v>
       </c>
       <c r="C29" s="17">
         <f t="shared" si="0"/>
@@ -16144,7 +16387,7 @@
       </c>
       <c r="B30" s="17">
         <f>mtl_newcases!C31</f>
-        <v>6422</v>
+        <v>6425</v>
       </c>
       <c r="C30" s="17">
         <f t="shared" si="0"/>
@@ -16315,7 +16558,7 @@
       </c>
       <c r="B31" s="17">
         <f>mtl_newcases!C32</f>
-        <v>6957</v>
+        <v>6960</v>
       </c>
       <c r="C31" s="17">
         <f t="shared" si="0"/>
@@ -16486,11 +16729,11 @@
       </c>
       <c r="B32" s="17">
         <f>mtl_newcases!C33</f>
-        <v>7433</v>
+        <v>7435</v>
       </c>
       <c r="C32" s="17">
         <f t="shared" si="0"/>
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D32">
         <v>242</v>
@@ -16657,11 +16900,11 @@
       </c>
       <c r="B33" s="17">
         <f>mtl_newcases!C34</f>
-        <v>8064</v>
+        <v>8065</v>
       </c>
       <c r="C33" s="17">
         <f t="shared" si="0"/>
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D33">
         <v>332</v>
@@ -16828,11 +17071,11 @@
       </c>
       <c r="B34" s="17">
         <f>mtl_newcases!C35</f>
-        <v>8557</v>
+        <v>8556</v>
       </c>
       <c r="C34" s="17">
         <f t="shared" si="0"/>
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D34">
         <v>391</v>
@@ -17003,7 +17246,7 @@
       </c>
       <c r="C35" s="17">
         <f t="shared" si="0"/>
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D35">
         <v>454</v>
@@ -17481,11 +17724,11 @@
       </c>
       <c r="B38" s="17">
         <f>mtl_newcases!C39</f>
-        <v>10379</v>
+        <v>10373</v>
       </c>
       <c r="C38" s="17">
         <f t="shared" si="0"/>
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D38">
         <v>583</v>
@@ -17652,11 +17895,11 @@
       </c>
       <c r="B39" s="17">
         <f>mtl_newcases!C40</f>
-        <v>10848</v>
+        <v>10840</v>
       </c>
       <c r="C39" s="17">
         <f t="shared" si="0"/>
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D39">
         <v>647</v>
@@ -17823,11 +18066,11 @@
       </c>
       <c r="B40" s="17">
         <f>mtl_newcases!C41</f>
-        <v>11396</v>
+        <v>11387</v>
       </c>
       <c r="C40" s="17">
         <f t="shared" si="0"/>
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D40">
         <v>741</v>
@@ -17994,11 +18237,11 @@
       </c>
       <c r="B41" s="17">
         <f>mtl_newcases!C42</f>
-        <v>11939</v>
+        <v>11927</v>
       </c>
       <c r="C41" s="17">
         <f t="shared" si="0"/>
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D41">
         <v>808</v>
@@ -18165,11 +18408,11 @@
       </c>
       <c r="B42" s="17">
         <f>mtl_newcases!C43</f>
-        <v>12447</v>
+        <v>12433</v>
       </c>
       <c r="C42" s="17">
         <f t="shared" si="0"/>
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D42">
         <v>895</v>
@@ -18336,11 +18579,11 @@
       </c>
       <c r="B43" s="17">
         <f>mtl_newcases!C44</f>
-        <v>12769</v>
+        <v>12754</v>
       </c>
       <c r="C43" s="17">
         <f t="shared" si="0"/>
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D43">
         <v>938</v>
@@ -18507,7 +18750,7 @@
       </c>
       <c r="B44" s="17">
         <f>mtl_newcases!C45</f>
-        <v>13074</v>
+        <v>13059</v>
       </c>
       <c r="C44" s="17">
         <f>B44-B43</f>
@@ -18678,11 +18921,11 @@
       </c>
       <c r="B45" s="17">
         <f>mtl_newcases!C46</f>
-        <v>13549</v>
+        <v>13533</v>
       </c>
       <c r="C45" s="17">
         <f>B45-B44</f>
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D45">
         <v>1039</v>
@@ -18849,11 +19092,11 @@
       </c>
       <c r="B46" s="17">
         <f>mtl_newcases!C47</f>
-        <v>14028</v>
+        <v>14010</v>
       </c>
       <c r="C46" s="17">
         <f t="shared" ref="C46:C47" si="438">B46-B45</f>
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D46">
         <v>1078</v>
@@ -18989,11 +19232,11 @@
       </c>
       <c r="B47" s="17">
         <f>mtl_newcases!C48</f>
-        <v>14556</v>
+        <v>14535</v>
       </c>
       <c r="C47" s="17">
         <f t="shared" si="438"/>
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D47">
         <v>1146</v>
@@ -19129,11 +19372,11 @@
       </c>
       <c r="B48" s="17">
         <f>mtl_newcases!C49</f>
-        <v>15159</v>
+        <v>15139</v>
       </c>
       <c r="C48" s="17">
         <f t="shared" ref="C48" si="439">B48-B47</f>
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D48">
         <v>1245</v>
@@ -19300,7 +19543,7 @@
       </c>
       <c r="B49" s="17">
         <f>mtl_newcases!C50</f>
-        <v>15780</v>
+        <v>15760</v>
       </c>
       <c r="C49" s="17">
         <f t="shared" ref="C49" si="461">B49-B48</f>
@@ -19471,11 +19714,11 @@
       </c>
       <c r="B50" s="17">
         <f>mtl_newcases!C51</f>
-        <v>16294</v>
+        <v>16283</v>
       </c>
       <c r="C50" s="17">
         <f t="shared" ref="C50" si="483">B50-B49</f>
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="D50">
         <v>1365</v>
@@ -19642,11 +19885,11 @@
       </c>
       <c r="B51" s="17">
         <f>mtl_newcases!C52</f>
-        <v>16649</v>
+        <v>16633</v>
       </c>
       <c r="C51" s="17">
         <f t="shared" ref="C51" si="505">B51-B50</f>
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D51">
         <v>1410</v>
@@ -19813,11 +20056,11 @@
       </c>
       <c r="B52" s="17">
         <f>mtl_newcases!C53</f>
-        <v>17070</v>
+        <v>17053</v>
       </c>
       <c r="C52" s="17">
         <f t="shared" ref="C52" si="527">B52-B51</f>
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D52">
         <v>1488</v>
@@ -19984,11 +20227,11 @@
       </c>
       <c r="B53" s="17">
         <f>mtl_newcases!C54</f>
-        <v>17582</v>
+        <v>17566</v>
       </c>
       <c r="C53" s="17">
         <f t="shared" ref="C53" si="549">B53-B52</f>
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D53">
         <v>1562</v>
@@ -20155,11 +20398,11 @@
       </c>
       <c r="B54" s="17">
         <f>mtl_newcases!C55</f>
-        <v>18139</v>
+        <v>18130</v>
       </c>
       <c r="C54" s="17">
         <f t="shared" ref="C54:C55" si="571">B54-B53</f>
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="D54">
         <v>1666</v>
@@ -20326,7 +20569,7 @@
       </c>
       <c r="B55" s="17">
         <f>mtl_newcases!C56</f>
-        <v>18584</v>
+        <v>18575</v>
       </c>
       <c r="C55" s="17">
         <f t="shared" si="571"/>
@@ -20497,11 +20740,11 @@
       </c>
       <c r="B56" s="17">
         <f>mtl_newcases!C57</f>
-        <v>18855</v>
+        <v>18969</v>
       </c>
       <c r="C56" s="17">
         <f t="shared" ref="C56" si="613">B56-B55</f>
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="D56">
         <v>1760</v>
@@ -20660,6 +20903,177 @@
       <c r="AS56" s="3">
         <f t="shared" ref="AS56" si="634">Y56*100/SUM($P56:$Y56)</f>
         <v>45.73727176830193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A57" s="19">
+        <v>43960</v>
+      </c>
+      <c r="B57" s="17">
+        <f>mtl_newcases!C58</f>
+        <v>19197</v>
+      </c>
+      <c r="C57" s="17">
+        <f t="shared" ref="C57" si="635">B57-B56</f>
+        <v>228</v>
+      </c>
+      <c r="D57">
+        <v>1863</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ref="E57" si="636">D57-D56</f>
+        <v>103</v>
+      </c>
+      <c r="F57" cm="1">
+        <f t="array" ref="F57:O57">TRANSPOSE(santemontreal!AP$57:AP$66)</f>
+        <v>176</v>
+      </c>
+      <c r="G57">
+        <v>155</v>
+      </c>
+      <c r="H57">
+        <v>556</v>
+      </c>
+      <c r="I57">
+        <v>2045</v>
+      </c>
+      <c r="J57">
+        <v>2347</v>
+      </c>
+      <c r="K57">
+        <v>2668</v>
+      </c>
+      <c r="L57">
+        <v>2441</v>
+      </c>
+      <c r="M57">
+        <v>1673</v>
+      </c>
+      <c r="N57">
+        <v>1830</v>
+      </c>
+      <c r="O57">
+        <v>5234</v>
+      </c>
+      <c r="P57" s="18">
+        <f>F57/(age_distribution_2016!$B$2/100000)</f>
+        <v>160.37907782030254</v>
+      </c>
+      <c r="Q57" s="18">
+        <f>G57/(age_distribution_2016!$B$3/100000)</f>
+        <v>148.48876754322939</v>
+      </c>
+      <c r="R57" s="18">
+        <f>H57/(age_distribution_2016!$B$4/100000)</f>
+        <v>295.45394160002127</v>
+      </c>
+      <c r="S57" s="18">
+        <f>I57/(age_distribution_2016!$B$5/100000)</f>
+        <v>697.41665956177008</v>
+      </c>
+      <c r="T57" s="18">
+        <f>J57/(age_distribution_2016!$B$6/100000)</f>
+        <v>783.18178026195039</v>
+      </c>
+      <c r="U57" s="18">
+        <f>K57/(age_distribution_2016!$B$7/100000)</f>
+        <v>1048.4330484330485</v>
+      </c>
+      <c r="V57" s="18">
+        <f>L57/(age_distribution_2016!$B$8/100000)</f>
+        <v>942.92612264606464</v>
+      </c>
+      <c r="W57" s="18">
+        <f>M57/(age_distribution_2016!$B$9/100000)</f>
+        <v>816.07765664252088</v>
+      </c>
+      <c r="X57" s="18">
+        <f>N57/(age_distribution_2016!$B$10/100000)</f>
+        <v>1411.1659469463295</v>
+      </c>
+      <c r="Y57" s="18">
+        <f>O57/(age_distribution_2016!$B$11/100000)</f>
+        <v>5297.302768078539</v>
+      </c>
+      <c r="Z57" s="3">
+        <f t="shared" ref="Z57" si="637">F57*100/SUM($F57:$O57)</f>
+        <v>0.92026143790849668</v>
+      </c>
+      <c r="AA57" s="3">
+        <f t="shared" ref="AA57" si="638">G57*100/SUM($F57:$O57)</f>
+        <v>0.81045751633986929</v>
+      </c>
+      <c r="AB57" s="3">
+        <f t="shared" ref="AB57" si="639">H57*100/SUM($F57:$O57)</f>
+        <v>2.90718954248366</v>
+      </c>
+      <c r="AC57" s="3">
+        <f t="shared" ref="AC57" si="640">I57*100/SUM($F57:$O57)</f>
+        <v>10.692810457516339</v>
+      </c>
+      <c r="AD57" s="3">
+        <f t="shared" ref="AD57" si="641">J57*100/SUM($F57:$O57)</f>
+        <v>12.271895424836602</v>
+      </c>
+      <c r="AE57" s="3">
+        <f t="shared" ref="AE57" si="642">K57*100/SUM($F57:$O57)</f>
+        <v>13.950326797385621</v>
+      </c>
+      <c r="AF57" s="3">
+        <f t="shared" ref="AF57" si="643">L57*100/SUM($F57:$O57)</f>
+        <v>12.763398692810458</v>
+      </c>
+      <c r="AG57" s="3">
+        <f t="shared" ref="AG57" si="644">M57*100/SUM($F57:$O57)</f>
+        <v>8.7477124183006527</v>
+      </c>
+      <c r="AH57" s="3">
+        <f t="shared" ref="AH57" si="645">N57*100/SUM($F57:$O57)</f>
+        <v>9.5686274509803919</v>
+      </c>
+      <c r="AI57" s="3">
+        <f t="shared" ref="AI57" si="646">O57*100/SUM($F57:$O57)</f>
+        <v>27.367320261437907</v>
+      </c>
+      <c r="AJ57" s="3">
+        <f t="shared" ref="AJ57" si="647">P57*100/SUM($P57:$Y57)</f>
+        <v>1.3824798424392506</v>
+      </c>
+      <c r="AK57" s="3">
+        <f t="shared" ref="AK57" si="648">Q57*100/SUM($P57:$Y57)</f>
+        <v>1.2799844639783515</v>
+      </c>
+      <c r="AL57" s="3">
+        <f t="shared" ref="AL57" si="649">R57*100/SUM($P57:$Y57)</f>
+        <v>2.5468354362837329</v>
+      </c>
+      <c r="AM57" s="3">
+        <f t="shared" ref="AM57" si="650">S57*100/SUM($P57:$Y57)</f>
+        <v>6.0117846213442308</v>
+      </c>
+      <c r="AN57" s="3">
+        <f t="shared" ref="AN57" si="651">T57*100/SUM($P57:$Y57)</f>
+        <v>6.7510864814361016</v>
+      </c>
+      <c r="AO57" s="3">
+        <f t="shared" ref="AO57" si="652">U57*100/SUM($P57:$Y57)</f>
+        <v>9.0375725768285875</v>
+      </c>
+      <c r="AP57" s="3">
+        <f t="shared" ref="AP57" si="653">V57*100/SUM($P57:$Y57)</f>
+        <v>8.1280948561643616</v>
+      </c>
+      <c r="AQ57" s="3">
+        <f t="shared" ref="AQ57" si="654">W57*100/SUM($P57:$Y57)</f>
+        <v>7.0346514365013011</v>
+      </c>
+      <c r="AR57" s="3">
+        <f t="shared" ref="AR57" si="655">X57*100/SUM($P57:$Y57)</f>
+        <v>12.164357736087632</v>
+      </c>
+      <c r="AS57" s="3">
+        <f t="shared" ref="AS57" si="656">Y57*100/SUM($P57:$Y57)</f>
+        <v>45.663152548936452</v>
       </c>
     </row>
   </sheetData>
@@ -20669,11 +21083,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20814,7 +21228,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F68" si="1">E4-E3</f>
+        <f t="shared" ref="F4:F69" si="1">E4-E3</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -20827,7 +21241,7 @@
         <v>260</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J68" si="2">I4-I3</f>
+        <f t="shared" ref="J4:J69" si="2">I4-I3</f>
         <v>18</v>
       </c>
       <c r="K4" t="s">
@@ -23264,6 +23678,44 @@
       </c>
       <c r="K68">
         <v>9268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B69">
+        <v>37721</v>
+      </c>
+      <c r="C69">
+        <f>B69-B68</f>
+        <v>735</v>
+      </c>
+      <c r="D69">
+        <v>25267</v>
+      </c>
+      <c r="E69">
+        <v>2928</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+      <c r="G69">
+        <v>1831</v>
+      </c>
+      <c r="H69">
+        <v>199</v>
+      </c>
+      <c r="I69">
+        <v>245302</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="2"/>
+        <v>918</v>
+      </c>
+      <c r="K69">
+        <v>9526</v>
       </c>
     </row>
   </sheetData>
@@ -23273,11 +23725,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23556,11 +24008,11 @@
         <v>43922</v>
       </c>
       <c r="B20">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2559</v>
+        <v>2560</v>
       </c>
       <c r="E20" s="19">
         <v>43922</v>
@@ -23570,7 +24022,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>-83</v>
+        <v>-82</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -23582,7 +24034,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="E21" s="19">
         <v>43923</v>
@@ -23592,7 +24044,7 @@
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G26" si="2">C21-F21</f>
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -23600,11 +24052,11 @@
         <v>43924</v>
       </c>
       <c r="B22">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>3308</v>
+        <v>3311</v>
       </c>
       <c r="E22" s="19">
         <v>43924</v>
@@ -23614,7 +24066,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -23622,11 +24074,11 @@
         <v>43925</v>
       </c>
       <c r="B23">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3650</v>
+        <v>3655</v>
       </c>
       <c r="E23" s="19">
         <v>43925</v>
@@ -23636,7 +24088,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>-63</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -23644,11 +24096,11 @@
         <v>43926</v>
       </c>
       <c r="B24">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>3910</v>
+        <v>3914</v>
       </c>
       <c r="E24" s="19">
         <v>43926</v>
@@ -23658,7 +24110,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>-67</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -23670,7 +24122,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>4370</v>
+        <v>4374</v>
       </c>
       <c r="E25" s="19">
         <v>43927</v>
@@ -23680,7 +24132,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>-37</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -23688,11 +24140,11 @@
         <v>43928</v>
       </c>
       <c r="B26">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>4792</v>
+        <v>4795</v>
       </c>
       <c r="E26" s="19">
         <v>43928</v>
@@ -23702,7 +24154,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -23714,7 +24166,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>5168</v>
+        <v>5171</v>
       </c>
       <c r="E27" s="19">
         <v>43929</v>
@@ -23724,7 +24176,7 @@
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="3">C27-F27</f>
-        <v>-94</v>
+        <v>-91</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -23736,7 +24188,7 @@
       </c>
       <c r="C28">
         <f t="shared" ref="C28:C37" si="4">C27+B28</f>
-        <v>5519</v>
+        <v>5522</v>
       </c>
       <c r="E28" s="19">
         <v>43930</v>
@@ -23746,7 +24198,7 @@
       </c>
       <c r="G28">
         <f t="shared" ref="G28:G33" si="5">C28-F28</f>
-        <v>-98</v>
+        <v>-95</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -23758,7 +24210,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
-        <v>5826</v>
+        <v>5829</v>
       </c>
       <c r="E29" s="19">
         <v>43931</v>
@@ -23768,7 +24220,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>-35</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -23780,7 +24232,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
-        <v>6088</v>
+        <v>6091</v>
       </c>
       <c r="E30" s="19">
         <v>43932</v>
@@ -23790,7 +24242,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -23802,7 +24254,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
-        <v>6422</v>
+        <v>6425</v>
       </c>
       <c r="E31" s="19">
         <v>43933</v>
@@ -23812,7 +24264,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -23824,7 +24276,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
-        <v>6957</v>
+        <v>6960</v>
       </c>
       <c r="E32" s="19">
         <v>43934</v>
@@ -23834,7 +24286,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -23842,11 +24294,11 @@
         <v>43935</v>
       </c>
       <c r="B33">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>7433</v>
+        <v>7435</v>
       </c>
       <c r="E33" s="19">
         <v>43935</v>
@@ -23856,7 +24308,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -23864,11 +24316,11 @@
         <v>43936</v>
       </c>
       <c r="B34">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>8064</v>
+        <v>8065</v>
       </c>
       <c r="E34" s="19">
         <v>43936</v>
@@ -23878,7 +24330,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G36" si="6">C34-F34</f>
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -23886,11 +24338,11 @@
         <v>43937</v>
       </c>
       <c r="B35">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>8557</v>
+        <v>8556</v>
       </c>
       <c r="E35" s="19">
         <v>43937</v>
@@ -23900,7 +24352,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -23908,7 +24360,7 @@
         <v>43938</v>
       </c>
       <c r="B36">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
@@ -23974,11 +24426,11 @@
         <v>43941</v>
       </c>
       <c r="B39">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C39">
         <f t="shared" si="8"/>
-        <v>10379</v>
+        <v>10373</v>
       </c>
       <c r="E39" s="19">
         <v>43941</v>
@@ -23988,7 +24440,7 @@
       </c>
       <c r="G39">
         <f t="shared" ref="G39" si="10">C39-F39</f>
-        <v>1031</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -23996,11 +24448,11 @@
         <v>43942</v>
       </c>
       <c r="B40">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40" si="11">C39+B40</f>
-        <v>10848</v>
+        <v>10840</v>
       </c>
       <c r="E40" s="19">
         <v>43942</v>
@@ -24010,7 +24462,7 @@
       </c>
       <c r="G40">
         <f t="shared" ref="G40" si="12">C40-F40</f>
-        <v>992</v>
+        <v>984</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -24018,11 +24470,11 @@
         <v>43943</v>
       </c>
       <c r="B41">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C41">
         <f t="shared" ref="C41:C52" si="13">C40+B41</f>
-        <v>11396</v>
+        <v>11387</v>
       </c>
       <c r="E41" s="19">
         <v>43943</v>
@@ -24032,7 +24484,7 @@
       </c>
       <c r="G41">
         <f t="shared" ref="G41" si="14">C41-F41</f>
-        <v>1021</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -24040,11 +24492,11 @@
         <v>43944</v>
       </c>
       <c r="B42" s="23">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C42">
         <f t="shared" si="13"/>
-        <v>11939</v>
+        <v>11927</v>
       </c>
       <c r="E42" s="19">
         <v>43944</v>
@@ -24054,7 +24506,7 @@
       </c>
       <c r="G42">
         <f t="shared" ref="G42:G44" si="15">C42-F42</f>
-        <v>1042</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -24062,11 +24514,11 @@
         <v>43945</v>
       </c>
       <c r="B43" s="23">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C43">
         <f t="shared" si="13"/>
-        <v>12447</v>
+        <v>12433</v>
       </c>
       <c r="E43" s="19">
         <v>43945</v>
@@ -24076,7 +24528,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="15"/>
-        <v>1286</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -24084,11 +24536,11 @@
         <v>43946</v>
       </c>
       <c r="B44" s="23">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C44">
         <f t="shared" si="13"/>
-        <v>12769</v>
+        <v>12754</v>
       </c>
       <c r="E44" s="19">
         <v>43946</v>
@@ -24098,7 +24550,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="15"/>
-        <v>1148</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -24110,7 +24562,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="13"/>
-        <v>13074</v>
+        <v>13059</v>
       </c>
       <c r="E45" s="19">
         <v>43947</v>
@@ -24120,7 +24572,7 @@
       </c>
       <c r="G45">
         <f>C45-F45</f>
-        <v>1040</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -24128,11 +24580,11 @@
         <v>43948</v>
       </c>
       <c r="B46" s="23">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C46">
         <f t="shared" si="13"/>
-        <v>13549</v>
+        <v>13533</v>
       </c>
       <c r="E46" s="19">
         <v>43948</v>
@@ -24142,7 +24594,7 @@
       </c>
       <c r="G46">
         <f>C46-F46</f>
-        <v>1062</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -24150,11 +24602,11 @@
         <v>43949</v>
       </c>
       <c r="B47" s="23">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C47">
         <f t="shared" si="13"/>
-        <v>14028</v>
+        <v>14010</v>
       </c>
       <c r="E47" s="19">
         <v>43949</v>
@@ -24164,7 +24616,7 @@
       </c>
       <c r="G47">
         <f t="shared" ref="G47:G52" si="16">C47-F47</f>
-        <v>1217</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -24172,11 +24624,11 @@
         <v>43950</v>
       </c>
       <c r="B48" s="23">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C48">
         <f t="shared" si="13"/>
-        <v>14556</v>
+        <v>14535</v>
       </c>
       <c r="E48" s="19">
         <v>43950</v>
@@ -24186,7 +24638,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="16"/>
-        <v>1232</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -24194,11 +24646,11 @@
         <v>43951</v>
       </c>
       <c r="B49" s="23">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C49">
         <f t="shared" si="13"/>
-        <v>15159</v>
+        <v>15139</v>
       </c>
       <c r="E49" s="19">
         <v>43951</v>
@@ -24208,7 +24660,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="16"/>
-        <v>1180</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -24220,7 +24672,7 @@
       </c>
       <c r="C50">
         <f t="shared" si="13"/>
-        <v>15780</v>
+        <v>15760</v>
       </c>
       <c r="E50" s="19">
         <v>43952</v>
@@ -24230,7 +24682,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="16"/>
-        <v>1181</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -24238,11 +24690,11 @@
         <v>43953</v>
       </c>
       <c r="B51" s="23">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="C51">
         <f t="shared" si="13"/>
-        <v>16294</v>
+        <v>16283</v>
       </c>
       <c r="E51" s="19">
         <v>43953</v>
@@ -24252,7 +24704,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="16"/>
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -24260,11 +24712,11 @@
         <v>43954</v>
       </c>
       <c r="B52" s="23">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C52">
         <f t="shared" si="13"/>
-        <v>16649</v>
+        <v>16633</v>
       </c>
       <c r="E52" s="19">
         <v>43954</v>
@@ -24274,7 +24726,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="16"/>
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -24282,11 +24734,11 @@
         <v>43955</v>
       </c>
       <c r="B53" s="23">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C53">
         <f t="shared" ref="C53" si="17">C52+B53</f>
-        <v>17070</v>
+        <v>17053</v>
       </c>
       <c r="E53" s="19">
         <v>43955</v>
@@ -24296,7 +24748,7 @@
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="18">C53-F53</f>
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -24304,11 +24756,11 @@
         <v>43956</v>
       </c>
       <c r="B54" s="23">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:C57" si="19">C53+B54</f>
-        <v>17582</v>
+        <f t="shared" ref="C54:C58" si="19">C53+B54</f>
+        <v>17566</v>
       </c>
       <c r="E54" s="19">
         <v>43956</v>
@@ -24318,7 +24770,7 @@
       </c>
       <c r="G54">
         <f t="shared" ref="G54" si="20">C54-F54</f>
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -24326,11 +24778,11 @@
         <v>43957</v>
       </c>
       <c r="B55" s="23">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="C55">
         <f t="shared" si="19"/>
-        <v>18139</v>
+        <v>18130</v>
       </c>
       <c r="E55" s="19">
         <v>43957</v>
@@ -24339,20 +24791,20 @@
         <v>17918</v>
       </c>
       <c r="G55">
-        <f t="shared" ref="G55:G57" si="21">C55-F55</f>
-        <v>221</v>
+        <f t="shared" ref="G55:G58" si="21">C55-F55</f>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="19">
         <v>43958</v>
       </c>
-      <c r="B56" s="24">
+      <c r="B56" s="23">
         <v>445</v>
       </c>
       <c r="C56">
         <f t="shared" si="19"/>
-        <v>18584</v>
+        <v>18575</v>
       </c>
       <c r="E56" s="19">
         <v>43958</v>
@@ -24362,24 +24814,49 @@
       </c>
       <c r="G56">
         <f t="shared" si="21"/>
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="19">
         <v>43959</v>
       </c>
-      <c r="B57" s="24">
-        <v>271</v>
+      <c r="B57" s="23">
+        <v>394</v>
       </c>
       <c r="C57">
         <f t="shared" si="19"/>
-        <v>18855</v>
+        <v>18969</v>
+      </c>
+      <c r="E57" s="19">
+        <v>43959</v>
       </c>
       <c r="F57">
         <v>18855</v>
       </c>
       <c r="G57">
+        <f t="shared" si="21"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="19">
+        <v>43960</v>
+      </c>
+      <c r="B58" s="24">
+        <v>228</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="19"/>
+        <v>19197</v>
+      </c>
+      <c r="E58" s="19">
+        <v>43960</v>
+      </c>
+      <c r="F58">
+        <v>19197</v>
+      </c>
+      <c r="G58">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -24394,9 +24871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH119"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO2" sqref="AO2:AO36"/>
+      <selection pane="topRight" activeCell="AP35" sqref="AP2:AP35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24523,15 +25000,17 @@
         <v>298</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="AP1" s="5"/>
+        <v>304</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>312</v>
+      </c>
       <c r="AQ1" s="5"/>
       <c r="AR1" s="5"/>
       <c r="AS1" s="5"/>
@@ -24831,7 +25310,9 @@
       <c r="AO2" s="7">
         <v>1536</v>
       </c>
-      <c r="AP2" s="7"/>
+      <c r="AP2" s="7">
+        <v>1585</v>
+      </c>
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7"/>
       <c r="AS2" s="7"/>
@@ -25131,7 +25612,9 @@
       <c r="AO3" s="9">
         <v>423</v>
       </c>
-      <c r="AP3" s="9"/>
+      <c r="AP3" s="9">
+        <v>436</v>
+      </c>
       <c r="AQ3" s="9"/>
       <c r="AR3" s="9"/>
       <c r="AS3" s="9"/>
@@ -25431,7 +25914,9 @@
       <c r="AO4" s="7">
         <v>11</v>
       </c>
-      <c r="AP4" s="7"/>
+      <c r="AP4" s="7">
+        <v>11</v>
+      </c>
       <c r="AQ4" s="7"/>
       <c r="AR4" s="7"/>
       <c r="AS4" s="7"/>
@@ -25731,7 +26216,9 @@
       <c r="AO5" s="9">
         <v>45</v>
       </c>
-      <c r="AP5" s="9"/>
+      <c r="AP5" s="9">
+        <v>45</v>
+      </c>
       <c r="AQ5" s="9"/>
       <c r="AR5" s="9"/>
       <c r="AS5" s="9"/>
@@ -26031,7 +26518,9 @@
       <c r="AO6" s="7">
         <v>1530</v>
       </c>
-      <c r="AP6" s="7"/>
+      <c r="AP6" s="7">
+        <v>1559</v>
+      </c>
       <c r="AQ6" s="7"/>
       <c r="AR6" s="7"/>
       <c r="AS6" s="7"/>
@@ -26331,7 +26820,9 @@
       <c r="AO7" s="9">
         <v>397</v>
       </c>
-      <c r="AP7" s="9"/>
+      <c r="AP7" s="9">
+        <v>400</v>
+      </c>
       <c r="AQ7" s="9"/>
       <c r="AR7" s="9"/>
       <c r="AS7" s="9"/>
@@ -26631,7 +27122,9 @@
       <c r="AO8" s="7">
         <v>280</v>
       </c>
-      <c r="AP8" s="7"/>
+      <c r="AP8" s="7">
+        <v>282</v>
+      </c>
       <c r="AQ8" s="7"/>
       <c r="AR8" s="7"/>
       <c r="AS8" s="7"/>
@@ -26931,7 +27424,9 @@
       <c r="AO9" s="9">
         <v>145</v>
       </c>
-      <c r="AP9" s="9"/>
+      <c r="AP9" s="9">
+        <v>145</v>
+      </c>
       <c r="AQ9" s="9"/>
       <c r="AR9" s="9"/>
       <c r="AS9" s="9"/>
@@ -27231,7 +27726,9 @@
       <c r="AO10" s="7">
         <v>46</v>
       </c>
-      <c r="AP10" s="7"/>
+      <c r="AP10" s="7">
+        <v>48</v>
+      </c>
       <c r="AQ10" s="7"/>
       <c r="AR10" s="7"/>
       <c r="AS10" s="7"/>
@@ -27531,7 +28028,9 @@
       <c r="AO11" s="9">
         <v>81</v>
       </c>
-      <c r="AP11" s="9"/>
+      <c r="AP11" s="9">
+        <v>82</v>
+      </c>
       <c r="AQ11" s="9"/>
       <c r="AR11" s="9"/>
       <c r="AS11" s="9"/>
@@ -27831,7 +28330,9 @@
       <c r="AO12" s="7">
         <v>399</v>
       </c>
-      <c r="AP12" s="7"/>
+      <c r="AP12" s="7">
+        <v>407</v>
+      </c>
       <c r="AQ12" s="7"/>
       <c r="AR12" s="7"/>
       <c r="AS12" s="7"/>
@@ -28131,7 +28632,9 @@
       <c r="AO13" s="9">
         <v>914</v>
       </c>
-      <c r="AP13" s="9"/>
+      <c r="AP13" s="9">
+        <v>927</v>
+      </c>
       <c r="AQ13" s="9"/>
       <c r="AR13" s="9"/>
       <c r="AS13" s="9"/>
@@ -28431,7 +28934,9 @@
       <c r="AO14" s="7">
         <v>132</v>
       </c>
-      <c r="AP14" s="7"/>
+      <c r="AP14" s="7">
+        <v>136</v>
+      </c>
       <c r="AQ14" s="7"/>
       <c r="AR14" s="7"/>
       <c r="AS14" s="7"/>
@@ -28731,7 +29236,9 @@
       <c r="AO15" s="9">
         <v>1432</v>
       </c>
-      <c r="AP15" s="9"/>
+      <c r="AP15" s="9">
+        <v>1463</v>
+      </c>
       <c r="AQ15" s="9"/>
       <c r="AR15" s="9"/>
       <c r="AS15" s="9"/>
@@ -29031,7 +29538,9 @@
       <c r="AO16" s="7">
         <v>26</v>
       </c>
-      <c r="AP16" s="7"/>
+      <c r="AP16" s="7">
+        <v>26</v>
+      </c>
       <c r="AQ16" s="7"/>
       <c r="AR16" s="7"/>
       <c r="AS16" s="7"/>
@@ -29331,7 +29840,9 @@
       <c r="AO17" s="9">
         <v>1729</v>
       </c>
-      <c r="AP17" s="9"/>
+      <c r="AP17" s="9">
+        <v>1762</v>
+      </c>
       <c r="AQ17" s="9"/>
       <c r="AR17" s="9"/>
       <c r="AS17" s="9"/>
@@ -29631,7 +30142,9 @@
       <c r="AO18" s="7">
         <v>15</v>
       </c>
-      <c r="AP18" s="7"/>
+      <c r="AP18" s="7">
+        <v>16</v>
+      </c>
       <c r="AQ18" s="7"/>
       <c r="AR18" s="7"/>
       <c r="AS18" s="7"/>
@@ -29931,7 +30444,9 @@
       <c r="AO19" s="9">
         <v>215</v>
       </c>
-      <c r="AP19" s="9"/>
+      <c r="AP19" s="9">
+        <v>222</v>
+      </c>
       <c r="AQ19" s="9"/>
       <c r="AR19" s="9"/>
       <c r="AS19" s="9"/>
@@ -30231,7 +30746,9 @@
       <c r="AO20" s="7">
         <v>220</v>
       </c>
-      <c r="AP20" s="7"/>
+      <c r="AP20" s="7">
+        <v>221</v>
+      </c>
       <c r="AQ20" s="7"/>
       <c r="AR20" s="7"/>
       <c r="AS20" s="7"/>
@@ -30531,7 +31048,9 @@
       <c r="AO21" s="9">
         <v>352</v>
       </c>
-      <c r="AP21" s="9"/>
+      <c r="AP21" s="9">
+        <v>357</v>
+      </c>
       <c r="AQ21" s="9"/>
       <c r="AR21" s="9"/>
       <c r="AS21" s="9"/>
@@ -30831,7 +31350,9 @@
       <c r="AO22" s="7">
         <v>672</v>
       </c>
-      <c r="AP22" s="7"/>
+      <c r="AP22" s="7">
+        <v>685</v>
+      </c>
       <c r="AQ22" s="7"/>
       <c r="AR22" s="7"/>
       <c r="AS22" s="7"/>
@@ -31131,7 +31652,9 @@
       <c r="AO23" s="9">
         <v>140</v>
       </c>
-      <c r="AP23" s="9"/>
+      <c r="AP23" s="9">
+        <v>143</v>
+      </c>
       <c r="AQ23" s="9"/>
       <c r="AR23" s="9"/>
       <c r="AS23" s="9"/>
@@ -31431,7 +31954,9 @@
       <c r="AO24" s="7">
         <v>1407</v>
       </c>
-      <c r="AP24" s="7"/>
+      <c r="AP24" s="7">
+        <v>1443</v>
+      </c>
       <c r="AQ24" s="7"/>
       <c r="AR24" s="7"/>
       <c r="AS24" s="7"/>
@@ -31731,7 +32256,9 @@
       <c r="AO25" s="9">
         <v>1049</v>
       </c>
-      <c r="AP25" s="9"/>
+      <c r="AP25" s="9">
+        <v>1075</v>
+      </c>
       <c r="AQ25" s="9"/>
       <c r="AR25" s="9"/>
       <c r="AS25" s="9"/>
@@ -32031,7 +32558,9 @@
       <c r="AO26" s="7">
         <v>15</v>
       </c>
-      <c r="AP26" s="7"/>
+      <c r="AP26" s="7">
+        <v>15</v>
+      </c>
       <c r="AQ26" s="7"/>
       <c r="AR26" s="7"/>
       <c r="AS26" s="7"/>
@@ -32331,7 +32860,9 @@
       <c r="AO27" s="9">
         <v>662</v>
       </c>
-      <c r="AP27" s="9"/>
+      <c r="AP27" s="9">
+        <v>678</v>
+      </c>
       <c r="AQ27" s="9"/>
       <c r="AR27" s="9"/>
       <c r="AS27" s="9"/>
@@ -32631,7 +33162,9 @@
       <c r="AO28" s="7">
         <v>736</v>
       </c>
-      <c r="AP28" s="7"/>
+      <c r="AP28" s="7">
+        <v>743</v>
+      </c>
       <c r="AQ28" s="7"/>
       <c r="AR28" s="7"/>
       <c r="AS28" s="7"/>
@@ -32931,7 +33464,9 @@
       <c r="AO29" s="20">
         <v>2</v>
       </c>
-      <c r="AP29" s="22"/>
+      <c r="AP29" s="20">
+        <v>2</v>
+      </c>
       <c r="AQ29" s="22"/>
       <c r="AR29" s="22"/>
       <c r="AS29" s="22"/>
@@ -33231,7 +33766,9 @@
       <c r="AO30" s="7">
         <v>712</v>
       </c>
-      <c r="AP30" s="7"/>
+      <c r="AP30" s="7">
+        <v>717</v>
+      </c>
       <c r="AQ30" s="7"/>
       <c r="AR30" s="7"/>
       <c r="AS30" s="7"/>
@@ -33531,7 +34068,9 @@
       <c r="AO31" s="9">
         <v>759</v>
       </c>
-      <c r="AP31" s="9"/>
+      <c r="AP31" s="9">
+        <v>762</v>
+      </c>
       <c r="AQ31" s="9"/>
       <c r="AR31" s="9"/>
       <c r="AS31" s="9"/>
@@ -33831,7 +34370,9 @@
       <c r="AO32" s="7">
         <v>508</v>
       </c>
-      <c r="AP32" s="7"/>
+      <c r="AP32" s="7">
+        <v>523</v>
+      </c>
       <c r="AQ32" s="7"/>
       <c r="AR32" s="7"/>
       <c r="AS32" s="7"/>
@@ -34131,7 +34672,9 @@
       <c r="AO33" s="9">
         <v>1333</v>
       </c>
-      <c r="AP33" s="9"/>
+      <c r="AP33" s="9">
+        <v>1364</v>
+      </c>
       <c r="AQ33" s="9"/>
       <c r="AR33" s="9"/>
       <c r="AS33" s="9"/>
@@ -34431,7 +34974,9 @@
       <c r="AO34" s="7">
         <v>145</v>
       </c>
-      <c r="AP34" s="7"/>
+      <c r="AP34" s="7">
+        <v>143</v>
+      </c>
       <c r="AQ34" s="7"/>
       <c r="AR34" s="7"/>
       <c r="AS34" s="7"/>
@@ -34731,7 +35276,9 @@
       <c r="AO35" s="9">
         <v>788</v>
       </c>
-      <c r="AP35" s="9"/>
+      <c r="AP35" s="9">
+        <v>775</v>
+      </c>
       <c r="AQ35" s="9"/>
       <c r="AR35" s="9"/>
       <c r="AS35" s="9"/>
@@ -35031,7 +35578,9 @@
       <c r="AO36" s="11">
         <v>18855</v>
       </c>
-      <c r="AP36" s="11"/>
+      <c r="AP36" s="11">
+        <v>19197</v>
+      </c>
       <c r="AQ36" s="11"/>
       <c r="AR36" s="11"/>
       <c r="AS36" s="11"/>
@@ -39486,7 +40035,9 @@
       <c r="AO57" s="7">
         <v>175</v>
       </c>
-      <c r="AP57" s="7"/>
+      <c r="AP57" s="7">
+        <v>176</v>
+      </c>
       <c r="AQ57" s="7"/>
       <c r="AR57" s="7"/>
       <c r="AS57" s="7"/>
@@ -39784,7 +40335,9 @@
       <c r="AO58" s="9">
         <v>150</v>
       </c>
-      <c r="AP58" s="9"/>
+      <c r="AP58" s="9">
+        <v>155</v>
+      </c>
       <c r="AQ58" s="9"/>
       <c r="AR58" s="9"/>
       <c r="AS58" s="9"/>
@@ -40082,7 +40635,9 @@
       <c r="AO59" s="7">
         <v>545</v>
       </c>
-      <c r="AP59" s="7"/>
+      <c r="AP59" s="7">
+        <v>556</v>
+      </c>
       <c r="AQ59" s="7"/>
       <c r="AR59" s="7"/>
       <c r="AS59" s="7"/>
@@ -40380,7 +40935,9 @@
       <c r="AO60" s="9">
         <v>2009</v>
       </c>
-      <c r="AP60" s="9"/>
+      <c r="AP60" s="9">
+        <v>2045</v>
+      </c>
       <c r="AQ60" s="9"/>
       <c r="AR60" s="9"/>
       <c r="AS60" s="9"/>
@@ -40678,7 +41235,9 @@
       <c r="AO61" s="7">
         <v>2305</v>
       </c>
-      <c r="AP61" s="7"/>
+      <c r="AP61" s="7">
+        <v>2347</v>
+      </c>
       <c r="AQ61" s="7"/>
       <c r="AR61" s="7"/>
       <c r="AS61" s="7"/>
@@ -40976,7 +41535,9 @@
       <c r="AO62" s="9">
         <v>2616</v>
       </c>
-      <c r="AP62" s="9"/>
+      <c r="AP62" s="9">
+        <v>2668</v>
+      </c>
       <c r="AQ62" s="9"/>
       <c r="AR62" s="9"/>
       <c r="AS62" s="9"/>
@@ -41274,7 +41835,9 @@
       <c r="AO63" s="7">
         <v>2389</v>
       </c>
-      <c r="AP63" s="7"/>
+      <c r="AP63" s="7">
+        <v>2441</v>
+      </c>
       <c r="AQ63" s="7"/>
       <c r="AR63" s="7"/>
       <c r="AS63" s="7"/>
@@ -41572,7 +42135,9 @@
       <c r="AO64" s="9">
         <v>1647</v>
       </c>
-      <c r="AP64" s="9"/>
+      <c r="AP64" s="9">
+        <v>1673</v>
+      </c>
       <c r="AQ64" s="9"/>
       <c r="AR64" s="9"/>
       <c r="AS64" s="9"/>
@@ -41870,7 +42435,9 @@
       <c r="AO65" s="7">
         <v>1796</v>
       </c>
-      <c r="AP65" s="7"/>
+      <c r="AP65" s="7">
+        <v>1830</v>
+      </c>
       <c r="AQ65" s="7"/>
       <c r="AR65" s="7"/>
       <c r="AS65" s="7"/>
@@ -42168,7 +42735,9 @@
       <c r="AO66" s="9">
         <v>5152</v>
       </c>
-      <c r="AP66" s="9"/>
+      <c r="AP66" s="9">
+        <v>5234</v>
+      </c>
       <c r="AQ66" s="9"/>
       <c r="AR66" s="9"/>
       <c r="AS66" s="9"/>
@@ -42466,7 +43035,9 @@
       <c r="AO67" s="7">
         <v>71</v>
       </c>
-      <c r="AP67" s="7"/>
+      <c r="AP67" s="7">
+        <v>72</v>
+      </c>
       <c r="AQ67" s="7"/>
       <c r="AR67" s="7"/>
       <c r="AS67" s="7"/>
@@ -42764,7 +43335,9 @@
       <c r="AO68" s="15">
         <v>18855</v>
       </c>
-      <c r="AP68" s="15"/>
+      <c r="AP68" s="15">
+        <v>19197</v>
+      </c>
       <c r="AQ68" s="15"/>
       <c r="AR68" s="15"/>
       <c r="AS68" s="15"/>
@@ -43516,6 +44089,9 @@
       <c r="AO72">
         <v>204</v>
       </c>
+      <c r="AP72">
+        <v>210</v>
+      </c>
     </row>
     <row r="73" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="8" t="s">
@@ -43542,6 +44118,9 @@
       <c r="AO73">
         <v>19</v>
       </c>
+      <c r="AP73">
+        <v>20</v>
+      </c>
     </row>
     <row r="74" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="6" t="s">
@@ -43568,6 +44147,9 @@
       <c r="AO74">
         <v>0</v>
       </c>
+      <c r="AP74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="8" t="s">
@@ -43594,6 +44176,9 @@
       <c r="AO75">
         <v>6</v>
       </c>
+      <c r="AP75">
+        <v>6</v>
+      </c>
     </row>
     <row r="76" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="6" t="s">
@@ -43620,6 +44205,9 @@
       <c r="AO76">
         <v>156</v>
       </c>
+      <c r="AP76">
+        <v>164</v>
+      </c>
     </row>
     <row r="77" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="8" t="s">
@@ -43646,6 +44234,9 @@
       <c r="AO77">
         <v>19</v>
       </c>
+      <c r="AP77">
+        <v>20</v>
+      </c>
     </row>
     <row r="78" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="6" t="s">
@@ -43672,6 +44263,9 @@
       <c r="AO78">
         <v>19</v>
       </c>
+      <c r="AP78">
+        <v>19</v>
+      </c>
     </row>
     <row r="79" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="8" t="s">
@@ -43698,6 +44292,9 @@
       <c r="AO79">
         <v>27</v>
       </c>
+      <c r="AP79">
+        <v>27</v>
+      </c>
     </row>
     <row r="80" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="6" t="s">
@@ -43724,8 +44321,11 @@
       <c r="AO80">
         <v>0</v>
       </c>
+      <c r="AP80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="8" t="s">
         <v>46</v>
       </c>
@@ -43750,8 +44350,11 @@
       <c r="AO81">
         <v>8</v>
       </c>
+      <c r="AP81">
+        <v>9</v>
+      </c>
     </row>
-    <row r="82" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="6" t="s">
         <v>47</v>
       </c>
@@ -43776,8 +44379,11 @@
       <c r="AO82">
         <v>42</v>
       </c>
+      <c r="AP82">
+        <v>50</v>
+      </c>
     </row>
-    <row r="83" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="8" t="s">
         <v>48</v>
       </c>
@@ -43802,8 +44408,11 @@
       <c r="AO83">
         <v>114</v>
       </c>
+      <c r="AP83">
+        <v>121</v>
+      </c>
     </row>
-    <row r="84" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
         <v>49</v>
       </c>
@@ -43828,8 +44437,11 @@
       <c r="AO84">
         <v>17</v>
       </c>
+      <c r="AP84">
+        <v>17</v>
+      </c>
     </row>
-    <row r="85" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="8" t="s">
         <v>50</v>
       </c>
@@ -43854,8 +44466,11 @@
       <c r="AO85">
         <v>184</v>
       </c>
+      <c r="AP85">
+        <v>191</v>
+      </c>
     </row>
-    <row r="86" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
         <v>51</v>
       </c>
@@ -43880,8 +44495,11 @@
       <c r="AO86" s="24" t="s">
         <v>296</v>
       </c>
+      <c r="AP86" s="24" t="s">
+        <v>296</v>
+      </c>
     </row>
-    <row r="87" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="8" t="s">
         <v>52</v>
       </c>
@@ -43906,8 +44524,11 @@
       <c r="AO87">
         <v>114</v>
       </c>
+      <c r="AP87">
+        <v>124</v>
+      </c>
     </row>
-    <row r="88" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
         <v>53</v>
       </c>
@@ -43932,8 +44553,11 @@
       <c r="AO88" s="24" t="s">
         <v>296</v>
       </c>
+      <c r="AP88" s="24" t="s">
+        <v>296</v>
+      </c>
     </row>
-    <row r="89" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="8" t="s">
         <v>54</v>
       </c>
@@ -43958,8 +44582,11 @@
       <c r="AO89">
         <v>56</v>
       </c>
+      <c r="AP89">
+        <v>58</v>
+      </c>
     </row>
-    <row r="90" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="6" t="s">
         <v>55</v>
       </c>
@@ -43984,8 +44611,11 @@
       <c r="AO90">
         <v>8</v>
       </c>
+      <c r="AP90">
+        <v>8</v>
+      </c>
     </row>
-    <row r="91" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="8" t="s">
         <v>56</v>
       </c>
@@ -44010,8 +44640,11 @@
       <c r="AO91">
         <v>21</v>
       </c>
+      <c r="AP91">
+        <v>21</v>
+      </c>
     </row>
-    <row r="92" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
         <v>57</v>
       </c>
@@ -44036,8 +44669,11 @@
       <c r="AO92">
         <v>57</v>
       </c>
+      <c r="AP92">
+        <v>62</v>
+      </c>
     </row>
-    <row r="93" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="8" t="s">
         <v>58</v>
       </c>
@@ -44062,8 +44698,11 @@
       <c r="AO93">
         <v>19</v>
       </c>
+      <c r="AP93">
+        <v>21</v>
+      </c>
     </row>
-    <row r="94" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
         <v>59</v>
       </c>
@@ -44088,8 +44727,11 @@
       <c r="AO94">
         <v>67</v>
       </c>
+      <c r="AP94">
+        <v>90</v>
+      </c>
     </row>
-    <row r="95" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="8" t="s">
         <v>60</v>
       </c>
@@ -44114,8 +44756,11 @@
       <c r="AO95">
         <v>100</v>
       </c>
+      <c r="AP95">
+        <v>106</v>
+      </c>
     </row>
-    <row r="96" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="6" t="s">
         <v>61</v>
       </c>
@@ -44138,6 +44783,9 @@
         <v>296</v>
       </c>
       <c r="AO96" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="AP96" s="24" t="s">
         <v>296</v>
       </c>
     </row>
@@ -44166,6 +44814,9 @@
       <c r="AO97">
         <v>67</v>
       </c>
+      <c r="AP97">
+        <v>71</v>
+      </c>
     </row>
     <row r="98" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="6" t="s">
@@ -44192,6 +44843,9 @@
       <c r="AO98">
         <v>32</v>
       </c>
+      <c r="AP98">
+        <v>33</v>
+      </c>
     </row>
     <row r="99" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="8" t="s">
@@ -44218,6 +44872,9 @@
       <c r="AO99">
         <v>0</v>
       </c>
+      <c r="AP99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="6" t="s">
@@ -44244,6 +44901,9 @@
       <c r="AO100">
         <v>132</v>
       </c>
+      <c r="AP100">
+        <v>134</v>
+      </c>
     </row>
     <row r="101" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="8" t="s">
@@ -44270,6 +44930,9 @@
       <c r="AO101">
         <v>99</v>
       </c>
+      <c r="AP101">
+        <v>104</v>
+      </c>
     </row>
     <row r="102" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="6" t="s">
@@ -44296,6 +44959,9 @@
       <c r="AO102">
         <v>35</v>
       </c>
+      <c r="AP102">
+        <v>37</v>
+      </c>
     </row>
     <row r="103" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="8" t="s">
@@ -44322,6 +44988,9 @@
       <c r="AO103">
         <v>76</v>
       </c>
+      <c r="AP103">
+        <v>77</v>
+      </c>
     </row>
     <row r="104" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="6" t="s">
@@ -44348,6 +45017,9 @@
       <c r="AO104">
         <v>15</v>
       </c>
+      <c r="AP104">
+        <v>15</v>
+      </c>
     </row>
     <row r="105" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="8" t="s">
@@ -44374,6 +45046,9 @@
       <c r="AO105">
         <v>39</v>
       </c>
+      <c r="AP105">
+        <v>43</v>
+      </c>
     </row>
     <row r="106" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="10" t="s">
@@ -44399,6 +45074,9 @@
       </c>
       <c r="AO106">
         <v>1760</v>
+      </c>
+      <c r="AP106">
+        <v>1863</v>
       </c>
     </row>
     <row r="107" spans="1:216" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -44646,6 +45324,9 @@
       <c r="AO108">
         <v>0</v>
       </c>
+      <c r="AP108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
@@ -44672,6 +45353,9 @@
       <c r="AO109">
         <v>0</v>
       </c>
+      <c r="AP109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
@@ -44698,6 +45382,9 @@
       <c r="AO110">
         <v>0</v>
       </c>
+      <c r="AP110">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
@@ -44724,6 +45411,9 @@
       <c r="AO111">
         <v>0</v>
       </c>
+      <c r="AP111">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
@@ -44750,7 +45440,9 @@
       <c r="AO112" s="24">
         <v>3</v>
       </c>
-      <c r="AP112" s="24"/>
+      <c r="AP112" s="24">
+        <v>3</v>
+      </c>
     </row>
     <row r="113" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
@@ -44777,6 +45469,9 @@
       <c r="AO113">
         <v>12</v>
       </c>
+      <c r="AP113">
+        <v>12</v>
+      </c>
     </row>
     <row r="114" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
@@ -44803,6 +45498,9 @@
       <c r="AO114">
         <v>31</v>
       </c>
+      <c r="AP114">
+        <v>32</v>
+      </c>
     </row>
     <row r="115" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
@@ -44829,6 +45527,9 @@
       <c r="AO115">
         <v>129</v>
       </c>
+      <c r="AP115">
+        <v>136</v>
+      </c>
     </row>
     <row r="116" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
@@ -44855,6 +45556,9 @@
       <c r="AO116">
         <v>289</v>
       </c>
+      <c r="AP116">
+        <v>309</v>
+      </c>
     </row>
     <row r="117" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
@@ -44881,6 +45585,9 @@
       <c r="AO117">
         <v>1295</v>
       </c>
+      <c r="AP117">
+        <v>1370</v>
+      </c>
     </row>
     <row r="118" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
@@ -44907,7 +45614,9 @@
       <c r="AO118" s="24">
         <v>1</v>
       </c>
-      <c r="AP118" s="24"/>
+      <c r="AP118" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
@@ -44926,13 +45635,16 @@
         <v>1562</v>
       </c>
       <c r="AM119" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AN119">
         <v>1727</v>
       </c>
       <c r="AO119">
         <v>1760</v>
+      </c>
+      <c r="AP119">
+        <v>1863</v>
       </c>
     </row>
   </sheetData>
@@ -44947,7 +45659,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E15"/>
+      <selection activeCell="E1" sqref="E1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -44957,52 +45669,76 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" t="s">
-        <v>307</v>
+        <v>86</v>
+      </c>
+      <c r="B1">
+        <v>176</v>
       </c>
       <c r="C1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F1" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2">
+        <v>155</v>
+      </c>
+      <c r="C2" t="s">
+        <v>291</v>
+      </c>
       <c r="D2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F2" t="s">
-        <v>306</v>
+        <v>314</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3">
+        <v>556</v>
+      </c>
+      <c r="C3" t="s">
+        <v>299</v>
+      </c>
       <c r="D3" t="s">
-        <v>310</v>
-      </c>
-      <c r="F3" t="s">
-        <v>310</v>
+        <v>315</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4">
-        <v>175</v>
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>316</v>
       </c>
       <c r="C4" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="D4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -45013,222 +45749,162 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5">
-        <v>150</v>
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>318</v>
       </c>
       <c r="C5" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="D5" t="s">
         <v>319</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6">
-        <v>545</v>
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>320</v>
       </c>
       <c r="C6" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="D6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7">
-        <v>2009</v>
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>323</v>
       </c>
       <c r="C7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8">
-        <v>2305</v>
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>327</v>
       </c>
       <c r="C8" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D8" t="s">
-        <v>324</v>
-      </c>
-      <c r="E8" t="s">
-        <v>296</v>
+        <v>329</v>
+      </c>
+      <c r="E8">
+        <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2616</v>
+        <v>94</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="C9" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D9" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="F9" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10">
-        <v>2389</v>
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>334</v>
       </c>
       <c r="C10" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="D10" t="s">
-        <v>327</v>
-      </c>
-      <c r="E10">
-        <v>31</v>
+        <v>335</v>
+      </c>
+      <c r="E10" t="s">
+        <v>336</v>
       </c>
       <c r="F10" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B11">
-        <v>1647</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>304</v>
+        <v>229</v>
       </c>
       <c r="D11" t="s">
-        <v>328</v>
-      </c>
-      <c r="E11">
-        <v>129</v>
+        <v>229</v>
+      </c>
+      <c r="E11" t="s">
+        <v>296</v>
       </c>
       <c r="F11" t="s">
-        <v>329</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12">
-        <v>1796</v>
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
+        <v>309</v>
       </c>
       <c r="C12" t="s">
-        <v>294</v>
+        <v>229</v>
       </c>
       <c r="D12" t="s">
-        <v>330</v>
-      </c>
-      <c r="E12">
-        <v>289</v>
+        <v>310</v>
+      </c>
+      <c r="E12" t="s">
+        <v>311</v>
       </c>
       <c r="F12" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13">
-        <v>5152</v>
-      </c>
-      <c r="C13" t="s">
-        <v>332</v>
-      </c>
-      <c r="D13" t="s">
-        <v>333</v>
-      </c>
-      <c r="E13" t="s">
-        <v>334</v>
-      </c>
-      <c r="F13" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14">
-        <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D14" t="s">
-        <v>229</v>
-      </c>
-      <c r="E14" t="s">
-        <v>296</v>
-      </c>
-      <c r="F14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15">
-        <v>18855</v>
-      </c>
-      <c r="C15" t="s">
-        <v>229</v>
-      </c>
-      <c r="D15" t="s">
-        <v>315</v>
-      </c>
-      <c r="E15" t="s">
-        <v>316</v>
-      </c>
-      <c r="F15" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/app/data/covid19_MTL.xlsx
+++ b/app/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633D458D-F248-4561-9A53-D5F49CC9476E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E992CAF-9B91-4928-A68A-ECEFB897D485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8450" yWindow="2520" windowWidth="32190" windowHeight="17150" tabRatio="585" activeTab="1" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="-110" yWindow="390" windowWidth="38620" windowHeight="20740" tabRatio="585" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="333">
   <si>
     <t>borough</t>
   </si>
@@ -730,9 +730,6 @@
     <t>6 AVRIL, 16H 55</t>
   </si>
   <si>
-    <t>Deaths</t>
-  </si>
-  <si>
     <t>265,3</t>
   </si>
   <si>
@@ -958,9 +955,6 @@
     <t>2 MAI, 18h20</t>
   </si>
   <si>
-    <t>9,6</t>
-  </si>
-  <si>
     <t>3 MAI, 18h04</t>
   </si>
   <si>
@@ -982,9 +976,6 @@
     <t>6 MAI, 18h04</t>
   </si>
   <si>
-    <t>* 4,3</t>
-  </si>
-  <si>
     <t>7 MAI, 18h04</t>
   </si>
   <si>
@@ -997,100 +988,91 @@
     <t>10,7</t>
   </si>
   <si>
-    <t>12,3</t>
-  </si>
-  <si>
-    <t>27,4</t>
-  </si>
-  <si>
-    <t>19 197</t>
-  </si>
-  <si>
-    <t> 929,3</t>
-  </si>
-  <si>
-    <t>1 863</t>
-  </si>
-  <si>
     <t>9 MAI, 18h04</t>
-  </si>
-  <si>
-    <t> 158,7</t>
-  </si>
-  <si>
-    <t> 143,6</t>
-  </si>
-  <si>
-    <t> 279,6</t>
-  </si>
-  <si>
-    <t>2 045</t>
-  </si>
-  <si>
-    <t> 634,9</t>
-  </si>
-  <si>
-    <t>2 347</t>
-  </si>
-  <si>
-    <t>714,4</t>
-  </si>
-  <si>
-    <t>2 668</t>
-  </si>
-  <si>
-    <t>14,0</t>
-  </si>
-  <si>
-    <t>958,5</t>
-  </si>
-  <si>
-    <t>2 441</t>
   </si>
   <si>
     <t>12,8</t>
   </si>
   <si>
-    <t>951,0</t>
-  </si>
-  <si>
-    <t>* 12,5</t>
-  </si>
-  <si>
-    <t>1 673</t>
-  </si>
-  <si>
     <t>8,7</t>
   </si>
   <si>
-    <t>772,5</t>
+    <t> 286,1</t>
   </si>
   <si>
-    <t>62,8</t>
+    <t>1 919</t>
   </si>
   <si>
-    <t>1 830</t>
+    <t>10 MAI, 18h05</t>
   </si>
   <si>
-    <t> 1 264,7</t>
+    <t>Total deaths</t>
   </si>
   <si>
-    <t> 213,5</t>
+    <t> 166,0</t>
   </si>
   <si>
-    <t>5 234</t>
+    <t>150,0</t>
   </si>
   <si>
-    <t>5 180,1</t>
+    <t> 646,1</t>
   </si>
   <si>
-    <t>1 370</t>
+    <t>12,4</t>
   </si>
   <si>
-    <t> 1 355,9</t>
+    <t>730,8</t>
   </si>
   <si>
-    <t> 90,2</t>
+    <t>13,9</t>
+  </si>
+  <si>
+    <t>971,8</t>
+  </si>
+  <si>
+    <t>4,3</t>
+  </si>
+  <si>
+    <t>966,2</t>
+  </si>
+  <si>
+    <t>* 12,9</t>
+  </si>
+  <si>
+    <t>783,6</t>
+  </si>
+  <si>
+    <t>63,7</t>
+  </si>
+  <si>
+    <t>9,5</t>
+  </si>
+  <si>
+    <t> 1 276,4</t>
+  </si>
+  <si>
+    <t> 221,1</t>
+  </si>
+  <si>
+    <t>27,3</t>
+  </si>
+  <si>
+    <t>5 237,5</t>
+  </si>
+  <si>
+    <t>1 412</t>
+  </si>
+  <si>
+    <t> 1 397,5</t>
+  </si>
+  <si>
+    <t>943,6</t>
+  </si>
+  <si>
+    <t> 92,9</t>
+  </si>
+  <si>
+    <t>¹Source : Fichier V10 en date du 10 mai 18 h 05</t>
   </si>
 </sst>
 </file>
@@ -1604,20 +1586,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:AQ35"/>
+  <dimension ref="A1:AR35"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AQ30" sqref="AQ30"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AC60" sqref="AC60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="42" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="44" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1747,8 +1729,11 @@
       <c r="AQ1" s="19">
         <v>43960</v>
       </c>
+      <c r="AR1" s="19">
+        <v>43961</v>
+      </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1878,8 +1863,11 @@
       <c r="AQ2">
         <v>1585</v>
       </c>
+      <c r="AR2">
+        <v>1610</v>
+      </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2009,8 +1997,11 @@
       <c r="AQ3">
         <v>436</v>
       </c>
+      <c r="AR3">
+        <v>453</v>
+      </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2140,8 +2131,11 @@
       <c r="AQ4">
         <v>11</v>
       </c>
+      <c r="AR4">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2271,8 +2265,11 @@
       <c r="AQ5">
         <v>45</v>
       </c>
+      <c r="AR5">
+        <v>49</v>
+      </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2402,8 +2399,11 @@
       <c r="AQ6">
         <v>1559</v>
       </c>
+      <c r="AR6">
+        <v>1588</v>
+      </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -2533,8 +2533,11 @@
       <c r="AQ7">
         <v>400</v>
       </c>
+      <c r="AR7">
+        <v>401</v>
+      </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -2664,8 +2667,11 @@
       <c r="AQ8">
         <v>282</v>
       </c>
+      <c r="AR8">
+        <v>283</v>
+      </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -2795,8 +2801,11 @@
       <c r="AQ9">
         <v>145</v>
       </c>
+      <c r="AR9">
+        <v>146</v>
+      </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -2926,8 +2935,11 @@
       <c r="AQ10">
         <v>48</v>
       </c>
+      <c r="AR10">
+        <v>48</v>
+      </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -3057,8 +3069,11 @@
       <c r="AQ11">
         <v>82</v>
       </c>
+      <c r="AR11">
+        <v>83</v>
+      </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3188,8 +3203,11 @@
       <c r="AQ12">
         <v>407</v>
       </c>
+      <c r="AR12">
+        <v>409</v>
+      </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3319,8 +3337,11 @@
       <c r="AQ13">
         <v>927</v>
       </c>
+      <c r="AR13">
+        <v>938</v>
+      </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3450,8 +3471,11 @@
       <c r="AQ14">
         <v>136</v>
       </c>
+      <c r="AR14">
+        <v>139</v>
+      </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3581,8 +3605,11 @@
       <c r="AQ15">
         <v>1463</v>
       </c>
+      <c r="AR15">
+        <v>1502</v>
+      </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -3712,8 +3739,11 @@
       <c r="AQ16">
         <v>26</v>
       </c>
+      <c r="AR16">
+        <v>25</v>
+      </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3843,8 +3873,11 @@
       <c r="AQ17">
         <v>1762</v>
       </c>
+      <c r="AR17">
+        <v>1791</v>
+      </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -3974,8 +4007,11 @@
       <c r="AQ18">
         <v>16</v>
       </c>
+      <c r="AR18">
+        <v>16</v>
+      </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -4105,8 +4141,11 @@
       <c r="AQ19">
         <v>222</v>
       </c>
+      <c r="AR19">
+        <v>225</v>
+      </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4236,8 +4275,11 @@
       <c r="AQ20">
         <v>221</v>
       </c>
+      <c r="AR20">
+        <v>220</v>
+      </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4367,8 +4409,11 @@
       <c r="AQ21">
         <v>357</v>
       </c>
+      <c r="AR21">
+        <v>368</v>
+      </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4498,8 +4543,11 @@
       <c r="AQ22">
         <v>685</v>
       </c>
+      <c r="AR22">
+        <v>696</v>
+      </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -4629,8 +4677,11 @@
       <c r="AQ23">
         <v>143</v>
       </c>
+      <c r="AR23">
+        <v>143</v>
+      </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4760,8 +4811,11 @@
       <c r="AQ24">
         <v>1443</v>
       </c>
+      <c r="AR24">
+        <v>1466</v>
+      </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4891,8 +4945,11 @@
       <c r="AQ25">
         <v>1075</v>
       </c>
+      <c r="AR25">
+        <v>1092</v>
+      </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -5022,8 +5079,11 @@
       <c r="AQ26">
         <v>15</v>
       </c>
+      <c r="AR26">
+        <v>16</v>
+      </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5153,8 +5213,11 @@
       <c r="AQ27">
         <v>678</v>
       </c>
+      <c r="AR27">
+        <v>688</v>
+      </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5284,8 +5347,11 @@
       <c r="AQ28">
         <v>743</v>
       </c>
+      <c r="AR28">
+        <v>766</v>
+      </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -5415,8 +5481,11 @@
       <c r="AQ29">
         <v>2</v>
       </c>
+      <c r="AR29">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5546,8 +5615,11 @@
       <c r="AQ30">
         <v>717</v>
       </c>
+      <c r="AR30">
+        <v>719</v>
+      </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5677,8 +5749,11 @@
       <c r="AQ31">
         <v>762</v>
       </c>
+      <c r="AR31">
+        <v>762</v>
+      </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5808,8 +5883,11 @@
       <c r="AQ32">
         <v>523</v>
       </c>
+      <c r="AR32">
+        <v>527</v>
+      </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5939,8 +6017,11 @@
       <c r="AQ33">
         <v>1364</v>
       </c>
+      <c r="AR33">
+        <v>1387</v>
+      </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -6070,8 +6151,11 @@
       <c r="AQ34">
         <v>143</v>
       </c>
+      <c r="AR34">
+        <v>143</v>
+      </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -6197,6 +6281,12 @@
       </c>
       <c r="AP35">
         <v>788</v>
+      </c>
+      <c r="AQ35">
+        <v>775</v>
+      </c>
+      <c r="AR35">
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -6207,11 +6297,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:AQ34"/>
+  <dimension ref="A1:AR34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT36" sqref="AT36"/>
+      <selection pane="topRight" activeCell="AR1" sqref="AR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6222,7 +6312,7 @@
     <col min="28" max="42" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6373,8 +6463,11 @@
       <c r="AQ1" s="1">
         <v>43960</v>
       </c>
+      <c r="AR1" s="1">
+        <v>43961</v>
+      </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6542,8 +6635,12 @@
         <f>cases!AQ2/(population_2016!$B2/1000)</f>
         <v>11.80677120190696</v>
       </c>
+      <c r="AR2" s="3">
+        <f>cases!AR2/(population_2016!$B2/1000)</f>
+        <v>11.992997877015902</v>
+      </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6711,8 +6808,12 @@
         <f>cases!AQ3/(population_2016!$B3/1000)</f>
         <v>10.18786802504907</v>
       </c>
+      <c r="AR3" s="3">
+        <f>cases!AR3/(population_2016!$B3/1000)</f>
+        <v>10.585101411346855</v>
+      </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -6880,8 +6981,12 @@
         <f>cases!AQ4/(population_2016!$B4/1000)</f>
         <v>2.8773214752811929</v>
       </c>
+      <c r="AR4" s="3">
+        <f>cases!AR4/(population_2016!$B4/1000)</f>
+        <v>2.8773214752811929</v>
+      </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -7049,8 +7154,12 @@
         <f>cases!AQ5/(population_2016!$B5/1000)</f>
         <v>2.3287104119229971</v>
       </c>
+      <c r="AR5" s="3">
+        <f>cases!AR5/(population_2016!$B5/1000)</f>
+        <v>2.535706892982819</v>
+      </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7218,8 +7327,12 @@
         <f>cases!AQ6/(population_2016!$B6/1000)</f>
         <v>9.3622387701177026</v>
       </c>
+      <c r="AR6" s="3">
+        <f>cases!AR6/(population_2016!$B6/1000)</f>
+        <v>9.5363920249819838</v>
+      </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -7387,8 +7500,12 @@
         <f>cases!AQ7/(population_2016!$B7/1000)</f>
         <v>12.32741617357002</v>
       </c>
+      <c r="AR7" s="3">
+        <f>cases!AR7/(population_2016!$B7/1000)</f>
+        <v>12.358234714003945</v>
+      </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -7556,8 +7673,12 @@
         <f>cases!AQ8/(population_2016!$B8/1000)</f>
         <v>5.7669890999815943</v>
       </c>
+      <c r="AR8" s="3">
+        <f>cases!AR8/(population_2016!$B8/1000)</f>
+        <v>5.7874394159389757</v>
+      </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -7725,8 +7846,12 @@
         <f>cases!AQ9/(population_2016!$B9/1000)</f>
         <v>7.639620653319283</v>
       </c>
+      <c r="AR9" s="3">
+        <f>cases!AR9/(population_2016!$B9/1000)</f>
+        <v>7.6923076923076925</v>
+      </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -7894,8 +8019,12 @@
         <f>cases!AQ10/(population_2016!$B10/1000)</f>
         <v>6.8836942492470961</v>
       </c>
+      <c r="AR10" s="3">
+        <f>cases!AR10/(population_2016!$B10/1000)</f>
+        <v>6.8836942492470961</v>
+      </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -8063,8 +8192,12 @@
         <f>cases!AQ11/(population_2016!$B11/1000)</f>
         <v>4.0692769589598532</v>
       </c>
+      <c r="AR11" s="3">
+        <f>cases!AR11/(population_2016!$B11/1000)</f>
+        <v>4.1189022877276562</v>
+      </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -8232,8 +8365,12 @@
         <f>cases!AQ12/(population_2016!$B12/1000)</f>
         <v>9.1483288003776213</v>
       </c>
+      <c r="AR12" s="3">
+        <f>cases!AR12/(population_2016!$B12/1000)</f>
+        <v>9.1932837330576103</v>
+      </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -8401,8 +8538,12 @@
         <f>cases!AQ13/(population_2016!$B13/1000)</f>
         <v>12.061988471497536</v>
       </c>
+      <c r="AR13" s="3">
+        <f>cases!AR13/(population_2016!$B13/1000)</f>
+        <v>12.205118863284453</v>
+      </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -8570,8 +8711,12 @@
         <f>cases!AQ14/(population_2016!$B14/1000)</f>
         <v>7.3860859175582467</v>
       </c>
+      <c r="AR14" s="3">
+        <f>cases!AR14/(population_2016!$B14/1000)</f>
+        <v>7.5490142833867377</v>
+      </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -8739,8 +8884,12 @@
         <f>cases!AQ15/(population_2016!$B15/1000)</f>
         <v>10.75545491972005</v>
       </c>
+      <c r="AR15" s="3">
+        <f>cases!AR15/(population_2016!$B15/1000)</f>
+        <v>11.042169028994882</v>
+      </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -8908,8 +9057,12 @@
         <f>cases!AQ16/(population_2016!$B16/1000)</f>
         <v>6.7532467532467528</v>
       </c>
+      <c r="AR16" s="3">
+        <f>cases!AR16/(population_2016!$B16/1000)</f>
+        <v>6.4935064935064934</v>
+      </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -9077,8 +9230,12 @@
         <f>cases!AQ17/(population_2016!$B17/1000)</f>
         <v>20.917919130042502</v>
       </c>
+      <c r="AR17" s="3">
+        <f>cases!AR17/(population_2016!$B17/1000)</f>
+        <v>21.262198162262269</v>
+      </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -9246,8 +9403,12 @@
         <f>cases!AQ18/(population_2016!$B18/1000)</f>
         <v>3.1683168316831685</v>
       </c>
+      <c r="AR18" s="3">
+        <f>cases!AR18/(population_2016!$B18/1000)</f>
+        <v>3.1683168316831685</v>
+      </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -9415,8 +9576,12 @@
         <f>cases!AQ19/(population_2016!$B19/1000)</f>
         <v>10.948905109489051</v>
       </c>
+      <c r="AR19" s="3">
+        <f>cases!AR19/(population_2016!$B19/1000)</f>
+        <v>11.096863286644309</v>
+      </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -9584,8 +9749,12 @@
         <f>cases!AQ20/(population_2016!$B20/1000)</f>
         <v>9.2260165316857314</v>
       </c>
+      <c r="AR20" s="3">
+        <f>cases!AR20/(population_2016!$B20/1000)</f>
+        <v>9.1842698505468814</v>
+      </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -9753,8 +9922,12 @@
         <f>cases!AQ21/(population_2016!$B21/1000)</f>
         <v>5.1517381704835712</v>
       </c>
+      <c r="AR21" s="3">
+        <f>cases!AR21/(population_2016!$B21/1000)</f>
+        <v>5.3104752009466498</v>
+      </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -9922,8 +10095,12 @@
         <f>cases!AQ22/(population_2016!$B22/1000)</f>
         <v>6.5865384615384617</v>
       </c>
+      <c r="AR22" s="3">
+        <f>cases!AR22/(population_2016!$B22/1000)</f>
+        <v>6.6923076923076925</v>
+      </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -10091,8 +10268,12 @@
         <f>cases!AQ23/(population_2016!$B23/1000)</f>
         <v>4.5570427023581903</v>
       </c>
+      <c r="AR23" s="3">
+        <f>cases!AR23/(population_2016!$B23/1000)</f>
+        <v>4.5570427023581903</v>
+      </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -10260,8 +10441,12 @@
         <f>cases!AQ24/(population_2016!$B24/1000)</f>
         <v>13.518450858604313</v>
       </c>
+      <c r="AR24" s="3">
+        <f>cases!AR24/(population_2016!$B24/1000)</f>
+        <v>13.73392166231041</v>
+      </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -10429,8 +10614,12 @@
         <f>cases!AQ25/(population_2016!$B25/1000)</f>
         <v>7.7011247224013184</v>
       </c>
+      <c r="AR25" s="3">
+        <f>cases!AR25/(population_2016!$B25/1000)</f>
+        <v>7.8229099505695245</v>
+      </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -10598,8 +10787,12 @@
         <f>cases!AQ26/(population_2016!$B26/1000)</f>
         <v>3.0254134731746669</v>
       </c>
+      <c r="AR26" s="3">
+        <f>cases!AR26/(population_2016!$B26/1000)</f>
+        <v>3.227107704719645</v>
+      </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -10767,8 +10960,12 @@
         <f>cases!AQ27/(population_2016!$B27/1000)</f>
         <v>6.860403934107743</v>
       </c>
+      <c r="AR27" s="3">
+        <f>cases!AR27/(population_2016!$B27/1000)</f>
+        <v>6.9615898328408949</v>
+      </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -10936,8 +11133,12 @@
         <f>cases!AQ28/(population_2016!$B28/1000)</f>
         <v>9.4885384075090986</v>
       </c>
+      <c r="AR28" s="3">
+        <f>cases!AR28/(population_2016!$B28/1000)</f>
+        <v>9.7822616691143605</v>
+      </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -11105,8 +11306,12 @@
         <f>cases!AQ29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
+      <c r="AR29" s="3">
+        <f>cases!AR29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -11274,8 +11479,12 @@
         <f>cases!AQ30/(population_2016!$B30/1000)</f>
         <v>9.1745467108546279</v>
       </c>
+      <c r="AR30" s="3">
+        <f>cases!AR30/(population_2016!$B30/1000)</f>
+        <v>9.2001381940090337</v>
+      </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -11443,8 +11652,12 @@
         <f>cases!AQ31/(population_2016!$B31/1000)</f>
         <v>11.006947955336637</v>
       </c>
+      <c r="AR31" s="3">
+        <f>cases!AR31/(population_2016!$B31/1000)</f>
+        <v>11.006947955336637</v>
+      </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -11612,8 +11825,12 @@
         <f>cases!AQ32/(population_2016!$B32/1000)</f>
         <v>5.865201300885948</v>
       </c>
+      <c r="AR32" s="3">
+        <f>cases!AR32/(population_2016!$B32/1000)</f>
+        <v>5.9100594370303909</v>
+      </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -11781,8 +11998,12 @@
         <f>cases!AQ33/(population_2016!$B33/1000)</f>
         <v>9.4819016635037148</v>
       </c>
+      <c r="AR33" s="3">
+        <f>cases!AR33/(population_2016!$B33/1000)</f>
+        <v>9.6417871021111825</v>
+      </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -11948,6 +12169,10 @@
       </c>
       <c r="AQ34" s="3">
         <f>cases!AQ34/(population_2016!$B34/1000)</f>
+        <v>7.040173296573454</v>
+      </c>
+      <c r="AR34" s="3">
+        <f>cases!AR34/(population_2016!$B34/1000)</f>
         <v>7.040173296573454</v>
       </c>
     </row>
@@ -11958,11 +12183,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AS57"/>
+  <dimension ref="A1:AS58"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK63" sqref="AK63"/>
+      <selection pane="bottomLeft" activeCell="AT45" sqref="AT45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11986,10 +12211,10 @@
         <v>181</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>144</v>
@@ -14682,11 +14907,11 @@
       </c>
       <c r="B20" s="17">
         <f>mtl_newcases!C21</f>
-        <v>2959</v>
+        <v>2962</v>
       </c>
       <c r="C20" s="17">
         <f t="shared" si="0"/>
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>101</v>
@@ -14852,7 +15077,7 @@
       </c>
       <c r="B21" s="17">
         <f>mtl_newcases!C22</f>
-        <v>3311</v>
+        <v>3314</v>
       </c>
       <c r="C21" s="17">
         <f t="shared" si="0"/>
@@ -15022,7 +15247,7 @@
       </c>
       <c r="B22" s="17">
         <f>mtl_newcases!C23</f>
-        <v>3655</v>
+        <v>3658</v>
       </c>
       <c r="C22" s="17">
         <f t="shared" si="0"/>
@@ -15192,7 +15417,7 @@
       </c>
       <c r="B23" s="17">
         <f>mtl_newcases!C24</f>
-        <v>3914</v>
+        <v>3917</v>
       </c>
       <c r="C23" s="17">
         <f t="shared" si="0"/>
@@ -15362,11 +15587,11 @@
       </c>
       <c r="B24" s="17">
         <f>mtl_newcases!C25</f>
-        <v>4374</v>
+        <v>4373</v>
       </c>
       <c r="C24" s="17">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D24">
         <v>63</v>
@@ -15532,7 +15757,7 @@
       </c>
       <c r="B25" s="17">
         <f>mtl_newcases!C26</f>
-        <v>4795</v>
+        <v>4794</v>
       </c>
       <c r="C25" s="17">
         <f t="shared" si="0"/>
@@ -15703,7 +15928,7 @@
       </c>
       <c r="B26" s="17">
         <f>mtl_newcases!C27</f>
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="C26" s="17">
         <f t="shared" si="0"/>
@@ -15874,7 +16099,7 @@
       </c>
       <c r="B27" s="17">
         <f>mtl_newcases!C28</f>
-        <v>5522</v>
+        <v>5521</v>
       </c>
       <c r="C27" s="17">
         <f t="shared" si="0"/>
@@ -16045,11 +16270,11 @@
       </c>
       <c r="B28" s="17">
         <f>mtl_newcases!C29</f>
-        <v>5829</v>
+        <v>5827</v>
       </c>
       <c r="C28" s="17">
         <f t="shared" si="0"/>
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D28">
         <v>135</v>
@@ -16216,11 +16441,11 @@
       </c>
       <c r="B29" s="17">
         <f>mtl_newcases!C30</f>
-        <v>6091</v>
+        <v>6090</v>
       </c>
       <c r="C29" s="17">
         <f t="shared" si="0"/>
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D29">
         <v>147</v>
@@ -16387,7 +16612,7 @@
       </c>
       <c r="B30" s="17">
         <f>mtl_newcases!C31</f>
-        <v>6425</v>
+        <v>6424</v>
       </c>
       <c r="C30" s="17">
         <f t="shared" si="0"/>
@@ -16558,11 +16783,11 @@
       </c>
       <c r="B31" s="17">
         <f>mtl_newcases!C32</f>
-        <v>6960</v>
+        <v>6958</v>
       </c>
       <c r="C31" s="17">
         <f t="shared" si="0"/>
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D31">
         <v>218</v>
@@ -16729,11 +16954,11 @@
       </c>
       <c r="B32" s="17">
         <f>mtl_newcases!C33</f>
-        <v>7435</v>
+        <v>7431</v>
       </c>
       <c r="C32" s="17">
         <f t="shared" si="0"/>
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D32">
         <v>242</v>
@@ -16900,11 +17125,11 @@
       </c>
       <c r="B33" s="17">
         <f>mtl_newcases!C34</f>
-        <v>8065</v>
+        <v>8063</v>
       </c>
       <c r="C33" s="17">
         <f t="shared" si="0"/>
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D33">
         <v>332</v>
@@ -17071,11 +17296,11 @@
       </c>
       <c r="B34" s="17">
         <f>mtl_newcases!C35</f>
-        <v>8556</v>
+        <v>8555</v>
       </c>
       <c r="C34" s="17">
         <f t="shared" si="0"/>
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D34">
         <v>391</v>
@@ -17242,11 +17467,11 @@
       </c>
       <c r="B35" s="17">
         <f>mtl_newcases!C36</f>
-        <v>9131</v>
+        <v>9126</v>
       </c>
       <c r="C35" s="17">
         <f t="shared" si="0"/>
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D35">
         <v>454</v>
@@ -17413,7 +17638,7 @@
       </c>
       <c r="B36" s="17">
         <f>mtl_newcases!C37</f>
-        <v>9453</v>
+        <v>9448</v>
       </c>
       <c r="C36" s="17">
         <f t="shared" si="0"/>
@@ -17584,7 +17809,7 @@
       </c>
       <c r="B37" s="17">
         <f>mtl_newcases!C38</f>
-        <v>9881</v>
+        <v>9876</v>
       </c>
       <c r="C37" s="17">
         <f t="shared" si="0"/>
@@ -17724,7 +17949,7 @@
       </c>
       <c r="B38" s="17">
         <f>mtl_newcases!C39</f>
-        <v>10373</v>
+        <v>10368</v>
       </c>
       <c r="C38" s="17">
         <f t="shared" si="0"/>
@@ -17895,11 +18120,11 @@
       </c>
       <c r="B39" s="17">
         <f>mtl_newcases!C40</f>
-        <v>10840</v>
+        <v>10831</v>
       </c>
       <c r="C39" s="17">
         <f t="shared" si="0"/>
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D39">
         <v>647</v>
@@ -18066,11 +18291,11 @@
       </c>
       <c r="B40" s="17">
         <f>mtl_newcases!C41</f>
-        <v>11387</v>
+        <v>11377</v>
       </c>
       <c r="C40" s="17">
         <f t="shared" si="0"/>
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D40">
         <v>741</v>
@@ -18237,11 +18462,11 @@
       </c>
       <c r="B41" s="17">
         <f>mtl_newcases!C42</f>
-        <v>11927</v>
+        <v>11909</v>
       </c>
       <c r="C41" s="17">
         <f t="shared" si="0"/>
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D41">
         <v>808</v>
@@ -18408,11 +18633,11 @@
       </c>
       <c r="B42" s="17">
         <f>mtl_newcases!C43</f>
-        <v>12433</v>
+        <v>12413</v>
       </c>
       <c r="C42" s="17">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D42">
         <v>895</v>
@@ -18579,11 +18804,11 @@
       </c>
       <c r="B43" s="17">
         <f>mtl_newcases!C44</f>
-        <v>12754</v>
+        <v>12733</v>
       </c>
       <c r="C43" s="17">
         <f t="shared" si="0"/>
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D43">
         <v>938</v>
@@ -18750,11 +18975,11 @@
       </c>
       <c r="B44" s="17">
         <f>mtl_newcases!C45</f>
-        <v>13059</v>
+        <v>13036</v>
       </c>
       <c r="C44" s="17">
         <f>B44-B43</f>
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D44">
         <v>983</v>
@@ -18921,11 +19146,11 @@
       </c>
       <c r="B45" s="17">
         <f>mtl_newcases!C46</f>
-        <v>13533</v>
+        <v>13508</v>
       </c>
       <c r="C45" s="17">
         <f>B45-B44</f>
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D45">
         <v>1039</v>
@@ -19092,11 +19317,11 @@
       </c>
       <c r="B46" s="17">
         <f>mtl_newcases!C47</f>
-        <v>14010</v>
+        <v>13983</v>
       </c>
       <c r="C46" s="17">
         <f t="shared" ref="C46:C47" si="438">B46-B45</f>
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D46">
         <v>1078</v>
@@ -19232,11 +19457,11 @@
       </c>
       <c r="B47" s="17">
         <f>mtl_newcases!C48</f>
-        <v>14535</v>
+        <v>14509</v>
       </c>
       <c r="C47" s="17">
         <f t="shared" si="438"/>
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D47">
         <v>1146</v>
@@ -19372,7 +19597,7 @@
       </c>
       <c r="B48" s="17">
         <f>mtl_newcases!C49</f>
-        <v>15139</v>
+        <v>15113</v>
       </c>
       <c r="C48" s="17">
         <f t="shared" ref="C48" si="439">B48-B47</f>
@@ -19543,7 +19768,7 @@
       </c>
       <c r="B49" s="17">
         <f>mtl_newcases!C50</f>
-        <v>15760</v>
+        <v>15734</v>
       </c>
       <c r="C49" s="17">
         <f t="shared" ref="C49" si="461">B49-B48</f>
@@ -19714,11 +19939,11 @@
       </c>
       <c r="B50" s="17">
         <f>mtl_newcases!C51</f>
-        <v>16283</v>
+        <v>16268</v>
       </c>
       <c r="C50" s="17">
         <f t="shared" ref="C50" si="483">B50-B49</f>
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="D50">
         <v>1365</v>
@@ -19885,11 +20110,11 @@
       </c>
       <c r="B51" s="17">
         <f>mtl_newcases!C52</f>
-        <v>16633</v>
+        <v>16619</v>
       </c>
       <c r="C51" s="17">
         <f t="shared" ref="C51" si="505">B51-B50</f>
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D51">
         <v>1410</v>
@@ -20056,11 +20281,11 @@
       </c>
       <c r="B52" s="17">
         <f>mtl_newcases!C53</f>
-        <v>17053</v>
+        <v>17043</v>
       </c>
       <c r="C52" s="17">
         <f t="shared" ref="C52" si="527">B52-B51</f>
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D52">
         <v>1488</v>
@@ -20227,11 +20452,11 @@
       </c>
       <c r="B53" s="17">
         <f>mtl_newcases!C54</f>
-        <v>17566</v>
+        <v>17552</v>
       </c>
       <c r="C53" s="17">
         <f t="shared" ref="C53" si="549">B53-B52</f>
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D53">
         <v>1562</v>
@@ -20398,11 +20623,11 @@
       </c>
       <c r="B54" s="17">
         <f>mtl_newcases!C55</f>
-        <v>18130</v>
+        <v>18119</v>
       </c>
       <c r="C54" s="17">
         <f t="shared" ref="C54:C55" si="571">B54-B53</f>
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="D54">
         <v>1666</v>
@@ -20569,7 +20794,7 @@
       </c>
       <c r="B55" s="17">
         <f>mtl_newcases!C56</f>
-        <v>18575</v>
+        <v>18564</v>
       </c>
       <c r="C55" s="17">
         <f t="shared" si="571"/>
@@ -20740,11 +20965,11 @@
       </c>
       <c r="B56" s="17">
         <f>mtl_newcases!C57</f>
-        <v>18969</v>
+        <v>19003</v>
       </c>
       <c r="C56" s="17">
         <f t="shared" ref="C56" si="613">B56-B55</f>
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="D56">
         <v>1760</v>
@@ -20911,11 +21136,11 @@
       </c>
       <c r="B57" s="17">
         <f>mtl_newcases!C58</f>
-        <v>19197</v>
+        <v>19333</v>
       </c>
       <c r="C57" s="17">
         <f t="shared" ref="C57" si="635">B57-B56</f>
-        <v>228</v>
+        <v>330</v>
       </c>
       <c r="D57">
         <v>1863</v>
@@ -21074,6 +21299,177 @@
       <c r="AS57" s="3">
         <f t="shared" ref="AS57" si="656">Y57*100/SUM($P57:$Y57)</f>
         <v>45.663152548936452</v>
+      </c>
+    </row>
+    <row r="58" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A58" s="19">
+        <v>43961</v>
+      </c>
+      <c r="B58" s="17">
+        <f>mtl_newcases!C59</f>
+        <v>19492</v>
+      </c>
+      <c r="C58" s="17">
+        <f t="shared" ref="C58" si="657">B58-B57</f>
+        <v>159</v>
+      </c>
+      <c r="D58">
+        <v>1919</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ref="E58" si="658">D58-D57</f>
+        <v>56</v>
+      </c>
+      <c r="F58" cm="1">
+        <f t="array" ref="F58:O58">TRANSPOSE(santemontreal!AQ$57:AQ$66)</f>
+        <v>184</v>
+      </c>
+      <c r="G58">
+        <v>162</v>
+      </c>
+      <c r="H58">
+        <v>569</v>
+      </c>
+      <c r="I58">
+        <v>2081</v>
+      </c>
+      <c r="J58">
+        <v>2401</v>
+      </c>
+      <c r="K58">
+        <v>2705</v>
+      </c>
+      <c r="L58">
+        <v>2480</v>
+      </c>
+      <c r="M58">
+        <v>1697</v>
+      </c>
+      <c r="N58">
+        <v>1847</v>
+      </c>
+      <c r="O58">
+        <v>5292</v>
+      </c>
+      <c r="P58" s="18">
+        <f>F58/(age_distribution_2016!$B$2/100000)</f>
+        <v>167.66903590304358</v>
+      </c>
+      <c r="Q58" s="18">
+        <f>G58/(age_distribution_2016!$B$3/100000)</f>
+        <v>155.19471188389136</v>
+      </c>
+      <c r="R58" s="18">
+        <f>H58/(age_distribution_2016!$B$4/100000)</f>
+        <v>302.36203735685626</v>
+      </c>
+      <c r="S58" s="18">
+        <f>I58/(age_distribution_2016!$B$5/100000)</f>
+        <v>709.69392105038798</v>
+      </c>
+      <c r="T58" s="18">
+        <f>J58/(age_distribution_2016!$B$6/100000)</f>
+        <v>801.20130140986066</v>
+      </c>
+      <c r="U58" s="18">
+        <f>K58/(age_distribution_2016!$B$7/100000)</f>
+        <v>1062.9727871107182</v>
+      </c>
+      <c r="V58" s="18">
+        <f>L58/(age_distribution_2016!$B$8/100000)</f>
+        <v>957.99130854659586</v>
+      </c>
+      <c r="W58" s="18">
+        <f>M58/(age_distribution_2016!$B$9/100000)</f>
+        <v>827.78468817833709</v>
+      </c>
+      <c r="X58" s="18">
+        <f>N58/(age_distribution_2016!$B$10/100000)</f>
+        <v>1424.2751388032079</v>
+      </c>
+      <c r="Y58" s="18">
+        <f>O58/(age_distribution_2016!$B$11/100000)</f>
+        <v>5356.0042507970247</v>
+      </c>
+      <c r="Z58" s="3">
+        <f t="shared" ref="Z58" si="659">F58*100/SUM($F58:$O58)</f>
+        <v>0.9475744154907817</v>
+      </c>
+      <c r="AA58" s="3">
+        <f t="shared" ref="AA58" si="660">G58*100/SUM($F58:$O58)</f>
+        <v>0.83427747450818823</v>
+      </c>
+      <c r="AB58" s="3">
+        <f t="shared" ref="AB58" si="661">H58*100/SUM($F58:$O58)</f>
+        <v>2.9302708826861674</v>
+      </c>
+      <c r="AC58" s="3">
+        <f t="shared" ref="AC58" si="662">I58*100/SUM($F58:$O58)</f>
+        <v>10.716860644762592</v>
+      </c>
+      <c r="AD58" s="3">
+        <f t="shared" ref="AD58" si="663">J58*100/SUM($F58:$O58)</f>
+        <v>12.364816149963952</v>
+      </c>
+      <c r="AE58" s="3">
+        <f t="shared" ref="AE58" si="664">K58*100/SUM($F58:$O58)</f>
+        <v>13.930373879905243</v>
+      </c>
+      <c r="AF58" s="3">
+        <f t="shared" ref="AF58" si="665">L58*100/SUM($F58:$O58)</f>
+        <v>12.771655165310536</v>
+      </c>
+      <c r="AG58" s="3">
+        <f t="shared" ref="AG58" si="666">M58*100/SUM($F58:$O58)</f>
+        <v>8.7393140385209591</v>
+      </c>
+      <c r="AH58" s="3">
+        <f t="shared" ref="AH58" si="667">N58*100/SUM($F58:$O58)</f>
+        <v>9.5117931815840979</v>
+      </c>
+      <c r="AI58" s="3">
+        <f t="shared" ref="AI58" si="668">O58*100/SUM($F58:$O58)</f>
+        <v>27.253064167267485</v>
+      </c>
+      <c r="AJ58" s="3">
+        <f t="shared" ref="AJ58" si="669">P58*100/SUM($P58:$Y58)</f>
+        <v>1.4251331056069387</v>
+      </c>
+      <c r="AK58" s="3">
+        <f t="shared" ref="AK58" si="670">Q58*100/SUM($P58:$Y58)</f>
+        <v>1.3191053466112843</v>
+      </c>
+      <c r="AL58" s="3">
+        <f t="shared" ref="AL58" si="671">R58*100/SUM($P58:$Y58)</f>
+        <v>2.5699804796706407</v>
+      </c>
+      <c r="AM58" s="3">
+        <f t="shared" ref="AM58" si="672">S58*100/SUM($P58:$Y58)</f>
+        <v>6.0321710343808661</v>
+      </c>
+      <c r="AN58" s="3">
+        <f t="shared" ref="AN58" si="673">T58*100/SUM($P58:$Y58)</f>
+        <v>6.8099544602548105</v>
+      </c>
+      <c r="AO58" s="3">
+        <f t="shared" ref="AO58" si="674">U58*100/SUM($P58:$Y58)</f>
+        <v>9.034928250835506</v>
+      </c>
+      <c r="AP58" s="3">
+        <f t="shared" ref="AP58" si="675">V58*100/SUM($P58:$Y58)</f>
+        <v>8.1426193055880898</v>
+      </c>
+      <c r="AQ58" s="3">
+        <f t="shared" ref="AQ58" si="676">W58*100/SUM($P58:$Y58)</f>
+        <v>7.0359047338927923</v>
+      </c>
+      <c r="AR58" s="3">
+        <f t="shared" ref="AR58" si="677">X58*100/SUM($P58:$Y58)</f>
+        <v>12.105882525471861</v>
+      </c>
+      <c r="AS58" s="3">
+        <f t="shared" ref="AS58" si="678">Y58*100/SUM($P58:$Y58)</f>
+        <v>45.524320757687214</v>
       </c>
     </row>
   </sheetData>
@@ -21083,11 +21479,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21110,16 +21506,16 @@
         <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E1" t="s">
         <v>163</v>
       </c>
       <c r="F1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G1" t="s">
         <v>165</v>
@@ -21131,7 +21527,7 @@
         <v>167</v>
       </c>
       <c r="J1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K1" t="s">
         <v>164</v>
@@ -21228,7 +21624,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F69" si="1">E4-E3</f>
+        <f t="shared" ref="F4:F70" si="1">E4-E3</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -21241,7 +21637,7 @@
         <v>260</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J69" si="2">I4-I3</f>
+        <f t="shared" ref="J4:J70" si="2">I4-I3</f>
         <v>18</v>
       </c>
       <c r="K4" t="s">
@@ -23498,7 +23894,7 @@
         <v>33417</v>
       </c>
       <c r="C64">
-        <f>B64-B63</f>
+        <f t="shared" ref="C64:C70" si="4">B64-B63</f>
         <v>794</v>
       </c>
       <c r="D64">
@@ -23536,7 +23932,7 @@
         <v>34327</v>
       </c>
       <c r="C65">
-        <f>B65-B64</f>
+        <f t="shared" si="4"/>
         <v>910</v>
       </c>
       <c r="D65">
@@ -23574,7 +23970,7 @@
         <v>35238</v>
       </c>
       <c r="C66">
-        <f>B66-B65</f>
+        <f t="shared" si="4"/>
         <v>911</v>
       </c>
       <c r="D66">
@@ -23612,7 +24008,7 @@
         <v>36150</v>
       </c>
       <c r="C67">
-        <f>B67-B66</f>
+        <f t="shared" si="4"/>
         <v>912</v>
       </c>
       <c r="D67">
@@ -23650,7 +24046,7 @@
         <v>36986</v>
       </c>
       <c r="C68">
-        <f>B68-B67</f>
+        <f t="shared" si="4"/>
         <v>836</v>
       </c>
       <c r="D68">
@@ -23688,7 +24084,7 @@
         <v>37721</v>
       </c>
       <c r="C69">
-        <f>B69-B68</f>
+        <f t="shared" si="4"/>
         <v>735</v>
       </c>
       <c r="D69">
@@ -23716,6 +24112,44 @@
       </c>
       <c r="K69">
         <v>9526</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B70">
+        <v>38469</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="4"/>
+        <v>748</v>
+      </c>
+      <c r="D70">
+        <v>25753</v>
+      </c>
+      <c r="E70">
+        <v>3013</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="G70">
+        <v>1838</v>
+      </c>
+      <c r="H70">
+        <v>193</v>
+      </c>
+      <c r="I70">
+        <v>250528</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="2"/>
+        <v>5226</v>
+      </c>
+      <c r="K70">
+        <v>9703</v>
       </c>
     </row>
   </sheetData>
@@ -23725,11 +24159,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24030,11 +24464,11 @@
         <v>43923</v>
       </c>
       <c r="B21">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>2959</v>
+        <v>2962</v>
       </c>
       <c r="E21" s="19">
         <v>43923</v>
@@ -24044,7 +24478,7 @@
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G26" si="2">C21-F21</f>
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -24056,7 +24490,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>3311</v>
+        <v>3314</v>
       </c>
       <c r="E22" s="19">
         <v>43924</v>
@@ -24066,7 +24500,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -24078,7 +24512,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3655</v>
+        <v>3658</v>
       </c>
       <c r="E23" s="19">
         <v>43925</v>
@@ -24088,7 +24522,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>-58</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -24100,7 +24534,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>3914</v>
+        <v>3917</v>
       </c>
       <c r="E24" s="19">
         <v>43926</v>
@@ -24110,7 +24544,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>-63</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -24118,11 +24552,11 @@
         <v>43927</v>
       </c>
       <c r="B25">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>4374</v>
+        <v>4373</v>
       </c>
       <c r="E25" s="19">
         <v>43927</v>
@@ -24132,7 +24566,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>-33</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -24144,7 +24578,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>4795</v>
+        <v>4794</v>
       </c>
       <c r="E26" s="19">
         <v>43928</v>
@@ -24154,7 +24588,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -24166,7 +24600,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="E27" s="19">
         <v>43929</v>
@@ -24176,7 +24610,7 @@
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="3">C27-F27</f>
-        <v>-91</v>
+        <v>-92</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -24188,7 +24622,7 @@
       </c>
       <c r="C28">
         <f t="shared" ref="C28:C37" si="4">C27+B28</f>
-        <v>5522</v>
+        <v>5521</v>
       </c>
       <c r="E28" s="19">
         <v>43930</v>
@@ -24198,7 +24632,7 @@
       </c>
       <c r="G28">
         <f t="shared" ref="G28:G33" si="5">C28-F28</f>
-        <v>-95</v>
+        <v>-96</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -24206,11 +24640,11 @@
         <v>43931</v>
       </c>
       <c r="B29">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
-        <v>5829</v>
+        <v>5827</v>
       </c>
       <c r="E29" s="19">
         <v>43931</v>
@@ -24220,7 +24654,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>-32</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -24228,11 +24662,11 @@
         <v>43932</v>
       </c>
       <c r="B30">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
-        <v>6091</v>
+        <v>6090</v>
       </c>
       <c r="E30" s="19">
         <v>43932</v>
@@ -24242,7 +24676,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -24254,7 +24688,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
-        <v>6425</v>
+        <v>6424</v>
       </c>
       <c r="E31" s="19">
         <v>43933</v>
@@ -24264,7 +24698,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -24272,11 +24706,11 @@
         <v>43934</v>
       </c>
       <c r="B32">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
-        <v>6960</v>
+        <v>6958</v>
       </c>
       <c r="E32" s="19">
         <v>43934</v>
@@ -24286,7 +24720,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -24294,11 +24728,11 @@
         <v>43935</v>
       </c>
       <c r="B33">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>7435</v>
+        <v>7431</v>
       </c>
       <c r="E33" s="19">
         <v>43935</v>
@@ -24308,7 +24742,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -24316,11 +24750,11 @@
         <v>43936</v>
       </c>
       <c r="B34">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>8065</v>
+        <v>8063</v>
       </c>
       <c r="E34" s="19">
         <v>43936</v>
@@ -24330,7 +24764,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G36" si="6">C34-F34</f>
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -24338,11 +24772,11 @@
         <v>43937</v>
       </c>
       <c r="B35">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>8556</v>
+        <v>8555</v>
       </c>
       <c r="E35" s="19">
         <v>43937</v>
@@ -24352,7 +24786,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -24360,11 +24794,11 @@
         <v>43938</v>
       </c>
       <c r="B36">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
-        <v>9131</v>
+        <v>9126</v>
       </c>
       <c r="E36" s="19">
         <v>43938</v>
@@ -24374,7 +24808,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>1079</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -24386,7 +24820,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
-        <v>9453</v>
+        <v>9448</v>
       </c>
       <c r="E37" s="19">
         <v>43939</v>
@@ -24396,7 +24830,7 @@
       </c>
       <c r="G37">
         <f t="shared" ref="G37" si="7">C37-F37</f>
-        <v>996</v>
+        <v>991</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -24408,7 +24842,7 @@
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C39" si="8">C37+B38</f>
-        <v>9881</v>
+        <v>9876</v>
       </c>
       <c r="E38" s="19">
         <v>43940</v>
@@ -24418,7 +24852,7 @@
       </c>
       <c r="G38">
         <f t="shared" ref="G38" si="9">C38-F38</f>
-        <v>917</v>
+        <v>912</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -24430,7 +24864,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="8"/>
-        <v>10373</v>
+        <v>10368</v>
       </c>
       <c r="E39" s="19">
         <v>43941</v>
@@ -24440,7 +24874,7 @@
       </c>
       <c r="G39">
         <f t="shared" ref="G39" si="10">C39-F39</f>
-        <v>1025</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -24448,11 +24882,11 @@
         <v>43942</v>
       </c>
       <c r="B40">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40" si="11">C39+B40</f>
-        <v>10840</v>
+        <v>10831</v>
       </c>
       <c r="E40" s="19">
         <v>43942</v>
@@ -24462,7 +24896,7 @@
       </c>
       <c r="G40">
         <f t="shared" ref="G40" si="12">C40-F40</f>
-        <v>984</v>
+        <v>975</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -24470,11 +24904,11 @@
         <v>43943</v>
       </c>
       <c r="B41">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C41">
         <f t="shared" ref="C41:C52" si="13">C40+B41</f>
-        <v>11387</v>
+        <v>11377</v>
       </c>
       <c r="E41" s="19">
         <v>43943</v>
@@ -24484,7 +24918,7 @@
       </c>
       <c r="G41">
         <f t="shared" ref="G41" si="14">C41-F41</f>
-        <v>1012</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -24492,11 +24926,11 @@
         <v>43944</v>
       </c>
       <c r="B42" s="23">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C42">
         <f t="shared" si="13"/>
-        <v>11927</v>
+        <v>11909</v>
       </c>
       <c r="E42" s="19">
         <v>43944</v>
@@ -24506,7 +24940,7 @@
       </c>
       <c r="G42">
         <f t="shared" ref="G42:G44" si="15">C42-F42</f>
-        <v>1030</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -24514,11 +24948,11 @@
         <v>43945</v>
       </c>
       <c r="B43" s="23">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C43">
         <f t="shared" si="13"/>
-        <v>12433</v>
+        <v>12413</v>
       </c>
       <c r="E43" s="19">
         <v>43945</v>
@@ -24528,7 +24962,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="15"/>
-        <v>1272</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -24536,11 +24970,11 @@
         <v>43946</v>
       </c>
       <c r="B44" s="23">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C44">
         <f t="shared" si="13"/>
-        <v>12754</v>
+        <v>12733</v>
       </c>
       <c r="E44" s="19">
         <v>43946</v>
@@ -24550,7 +24984,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="15"/>
-        <v>1133</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -24558,11 +24992,11 @@
         <v>43947</v>
       </c>
       <c r="B45" s="23">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C45">
         <f t="shared" si="13"/>
-        <v>13059</v>
+        <v>13036</v>
       </c>
       <c r="E45" s="19">
         <v>43947</v>
@@ -24572,7 +25006,7 @@
       </c>
       <c r="G45">
         <f>C45-F45</f>
-        <v>1025</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -24580,11 +25014,11 @@
         <v>43948</v>
       </c>
       <c r="B46" s="23">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C46">
         <f t="shared" si="13"/>
-        <v>13533</v>
+        <v>13508</v>
       </c>
       <c r="E46" s="19">
         <v>43948</v>
@@ -24594,7 +25028,7 @@
       </c>
       <c r="G46">
         <f>C46-F46</f>
-        <v>1046</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -24602,11 +25036,11 @@
         <v>43949</v>
       </c>
       <c r="B47" s="23">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C47">
         <f t="shared" si="13"/>
-        <v>14010</v>
+        <v>13983</v>
       </c>
       <c r="E47" s="19">
         <v>43949</v>
@@ -24616,7 +25050,7 @@
       </c>
       <c r="G47">
         <f t="shared" ref="G47:G52" si="16">C47-F47</f>
-        <v>1199</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -24624,11 +25058,11 @@
         <v>43950</v>
       </c>
       <c r="B48" s="23">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C48">
         <f t="shared" si="13"/>
-        <v>14535</v>
+        <v>14509</v>
       </c>
       <c r="E48" s="19">
         <v>43950</v>
@@ -24638,7 +25072,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="16"/>
-        <v>1211</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -24650,7 +25084,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="13"/>
-        <v>15139</v>
+        <v>15113</v>
       </c>
       <c r="E49" s="19">
         <v>43951</v>
@@ -24660,7 +25094,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="16"/>
-        <v>1160</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -24672,7 +25106,7 @@
       </c>
       <c r="C50">
         <f t="shared" si="13"/>
-        <v>15760</v>
+        <v>15734</v>
       </c>
       <c r="E50" s="19">
         <v>43952</v>
@@ -24682,7 +25116,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="16"/>
-        <v>1161</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -24690,11 +25124,11 @@
         <v>43953</v>
       </c>
       <c r="B51" s="23">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="C51">
         <f t="shared" si="13"/>
-        <v>16283</v>
+        <v>16268</v>
       </c>
       <c r="E51" s="19">
         <v>43953</v>
@@ -24704,7 +25138,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="16"/>
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -24712,11 +25146,11 @@
         <v>43954</v>
       </c>
       <c r="B52" s="23">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C52">
         <f t="shared" si="13"/>
-        <v>16633</v>
+        <v>16619</v>
       </c>
       <c r="E52" s="19">
         <v>43954</v>
@@ -24726,7 +25160,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="16"/>
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -24734,11 +25168,11 @@
         <v>43955</v>
       </c>
       <c r="B53" s="23">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C53">
         <f t="shared" ref="C53" si="17">C52+B53</f>
-        <v>17053</v>
+        <v>17043</v>
       </c>
       <c r="E53" s="19">
         <v>43955</v>
@@ -24748,7 +25182,7 @@
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="18">C53-F53</f>
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -24756,11 +25190,11 @@
         <v>43956</v>
       </c>
       <c r="B54" s="23">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:C58" si="19">C53+B54</f>
-        <v>17566</v>
+        <f t="shared" ref="C54:C59" si="19">C53+B54</f>
+        <v>17552</v>
       </c>
       <c r="E54" s="19">
         <v>43956</v>
@@ -24770,7 +25204,7 @@
       </c>
       <c r="G54">
         <f t="shared" ref="G54" si="20">C54-F54</f>
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -24778,11 +25212,11 @@
         <v>43957</v>
       </c>
       <c r="B55" s="23">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C55">
         <f t="shared" si="19"/>
-        <v>18130</v>
+        <v>18119</v>
       </c>
       <c r="E55" s="19">
         <v>43957</v>
@@ -24792,7 +25226,7 @@
       </c>
       <c r="G55">
         <f t="shared" ref="G55:G58" si="21">C55-F55</f>
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -24804,7 +25238,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="19"/>
-        <v>18575</v>
+        <v>18564</v>
       </c>
       <c r="E56" s="19">
         <v>43958</v>
@@ -24814,7 +25248,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="21"/>
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -24822,11 +25256,11 @@
         <v>43959</v>
       </c>
       <c r="B57" s="23">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="C57">
         <f t="shared" si="19"/>
-        <v>18969</v>
+        <v>19003</v>
       </c>
       <c r="E57" s="19">
         <v>43959</v>
@@ -24836,19 +25270,19 @@
       </c>
       <c r="G57">
         <f t="shared" si="21"/>
-        <v>114</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="19">
         <v>43960</v>
       </c>
-      <c r="B58" s="24">
-        <v>228</v>
+      <c r="B58" s="23">
+        <v>330</v>
       </c>
       <c r="C58">
         <f t="shared" si="19"/>
-        <v>19197</v>
+        <v>19333</v>
       </c>
       <c r="E58" s="19">
         <v>43960</v>
@@ -24858,6 +25292,28 @@
       </c>
       <c r="G58">
         <f t="shared" si="21"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="19">
+        <v>43961</v>
+      </c>
+      <c r="B59" s="24">
+        <v>159</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="19"/>
+        <v>19492</v>
+      </c>
+      <c r="E59" s="19">
+        <v>43961</v>
+      </c>
+      <c r="F59">
+        <v>19492</v>
+      </c>
+      <c r="G59">
+        <f t="shared" ref="G59" si="22">C59-F59</f>
         <v>0</v>
       </c>
     </row>
@@ -24869,11 +25325,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
-  <dimension ref="A1:HH119"/>
+  <dimension ref="A1:HH118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP35" sqref="AP2:AP35"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AQ105" sqref="AQ105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24913,105 +25369,107 @@
         <v>217</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="AA1" s="5" t="s">
-        <v>278</v>
-      </c>
       <c r="AB1" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AC1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="AG1" s="5" t="s">
-        <v>289</v>
-      </c>
       <c r="AH1" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="AK1" s="5" t="s">
-        <v>297</v>
-      </c>
       <c r="AL1" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AM1" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO1" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AN1" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="AP1" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="AQ1" s="5"/>
+      <c r="AQ1" s="5" t="s">
+        <v>309</v>
+      </c>
       <c r="AR1" s="5"/>
       <c r="AS1" s="5"/>
       <c r="AT1" s="5"/>
@@ -25313,7 +25771,9 @@
       <c r="AP2" s="7">
         <v>1585</v>
       </c>
-      <c r="AQ2" s="7"/>
+      <c r="AQ2" s="7">
+        <v>1610</v>
+      </c>
       <c r="AR2" s="7"/>
       <c r="AS2" s="7"/>
       <c r="AT2" s="7"/>
@@ -25615,7 +26075,9 @@
       <c r="AP3" s="9">
         <v>436</v>
       </c>
-      <c r="AQ3" s="9"/>
+      <c r="AQ3" s="9">
+        <v>453</v>
+      </c>
       <c r="AR3" s="9"/>
       <c r="AS3" s="9"/>
       <c r="AT3" s="9"/>
@@ -25917,7 +26379,9 @@
       <c r="AP4" s="7">
         <v>11</v>
       </c>
-      <c r="AQ4" s="7"/>
+      <c r="AQ4" s="7">
+        <v>11</v>
+      </c>
       <c r="AR4" s="7"/>
       <c r="AS4" s="7"/>
       <c r="AT4" s="7"/>
@@ -26219,7 +26683,9 @@
       <c r="AP5" s="9">
         <v>45</v>
       </c>
-      <c r="AQ5" s="9"/>
+      <c r="AQ5" s="9">
+        <v>49</v>
+      </c>
       <c r="AR5" s="9"/>
       <c r="AS5" s="9"/>
       <c r="AT5" s="9"/>
@@ -26521,7 +26987,9 @@
       <c r="AP6" s="7">
         <v>1559</v>
       </c>
-      <c r="AQ6" s="7"/>
+      <c r="AQ6" s="7">
+        <v>1588</v>
+      </c>
       <c r="AR6" s="7"/>
       <c r="AS6" s="7"/>
       <c r="AT6" s="7"/>
@@ -26823,7 +27291,9 @@
       <c r="AP7" s="9">
         <v>400</v>
       </c>
-      <c r="AQ7" s="9"/>
+      <c r="AQ7" s="9">
+        <v>401</v>
+      </c>
       <c r="AR7" s="9"/>
       <c r="AS7" s="9"/>
       <c r="AT7" s="9"/>
@@ -27125,7 +27595,9 @@
       <c r="AP8" s="7">
         <v>282</v>
       </c>
-      <c r="AQ8" s="7"/>
+      <c r="AQ8" s="7">
+        <v>283</v>
+      </c>
       <c r="AR8" s="7"/>
       <c r="AS8" s="7"/>
       <c r="AT8" s="7"/>
@@ -27427,7 +27899,9 @@
       <c r="AP9" s="9">
         <v>145</v>
       </c>
-      <c r="AQ9" s="9"/>
+      <c r="AQ9" s="9">
+        <v>146</v>
+      </c>
       <c r="AR9" s="9"/>
       <c r="AS9" s="9"/>
       <c r="AT9" s="9"/>
@@ -27729,7 +28203,9 @@
       <c r="AP10" s="7">
         <v>48</v>
       </c>
-      <c r="AQ10" s="7"/>
+      <c r="AQ10" s="7">
+        <v>48</v>
+      </c>
       <c r="AR10" s="7"/>
       <c r="AS10" s="7"/>
       <c r="AT10" s="7"/>
@@ -28031,7 +28507,9 @@
       <c r="AP11" s="9">
         <v>82</v>
       </c>
-      <c r="AQ11" s="9"/>
+      <c r="AQ11" s="9">
+        <v>83</v>
+      </c>
       <c r="AR11" s="9"/>
       <c r="AS11" s="9"/>
       <c r="AT11" s="9"/>
@@ -28333,7 +28811,9 @@
       <c r="AP12" s="7">
         <v>407</v>
       </c>
-      <c r="AQ12" s="7"/>
+      <c r="AQ12" s="7">
+        <v>409</v>
+      </c>
       <c r="AR12" s="7"/>
       <c r="AS12" s="7"/>
       <c r="AT12" s="7"/>
@@ -28635,7 +29115,9 @@
       <c r="AP13" s="9">
         <v>927</v>
       </c>
-      <c r="AQ13" s="9"/>
+      <c r="AQ13" s="9">
+        <v>938</v>
+      </c>
       <c r="AR13" s="9"/>
       <c r="AS13" s="9"/>
       <c r="AT13" s="9"/>
@@ -28937,7 +29419,9 @@
       <c r="AP14" s="7">
         <v>136</v>
       </c>
-      <c r="AQ14" s="7"/>
+      <c r="AQ14" s="7">
+        <v>139</v>
+      </c>
       <c r="AR14" s="7"/>
       <c r="AS14" s="7"/>
       <c r="AT14" s="7"/>
@@ -29239,7 +29723,9 @@
       <c r="AP15" s="9">
         <v>1463</v>
       </c>
-      <c r="AQ15" s="9"/>
+      <c r="AQ15" s="9">
+        <v>1502</v>
+      </c>
       <c r="AR15" s="9"/>
       <c r="AS15" s="9"/>
       <c r="AT15" s="9"/>
@@ -29541,7 +30027,9 @@
       <c r="AP16" s="7">
         <v>26</v>
       </c>
-      <c r="AQ16" s="7"/>
+      <c r="AQ16" s="7">
+        <v>25</v>
+      </c>
       <c r="AR16" s="7"/>
       <c r="AS16" s="7"/>
       <c r="AT16" s="7"/>
@@ -29843,7 +30331,9 @@
       <c r="AP17" s="9">
         <v>1762</v>
       </c>
-      <c r="AQ17" s="9"/>
+      <c r="AQ17" s="9">
+        <v>1791</v>
+      </c>
       <c r="AR17" s="9"/>
       <c r="AS17" s="9"/>
       <c r="AT17" s="9"/>
@@ -30145,7 +30635,9 @@
       <c r="AP18" s="7">
         <v>16</v>
       </c>
-      <c r="AQ18" s="7"/>
+      <c r="AQ18" s="7">
+        <v>16</v>
+      </c>
       <c r="AR18" s="7"/>
       <c r="AS18" s="7"/>
       <c r="AT18" s="7"/>
@@ -30447,7 +30939,9 @@
       <c r="AP19" s="9">
         <v>222</v>
       </c>
-      <c r="AQ19" s="9"/>
+      <c r="AQ19" s="9">
+        <v>225</v>
+      </c>
       <c r="AR19" s="9"/>
       <c r="AS19" s="9"/>
       <c r="AT19" s="9"/>
@@ -30749,7 +31243,9 @@
       <c r="AP20" s="7">
         <v>221</v>
       </c>
-      <c r="AQ20" s="7"/>
+      <c r="AQ20" s="7">
+        <v>220</v>
+      </c>
       <c r="AR20" s="7"/>
       <c r="AS20" s="7"/>
       <c r="AT20" s="7"/>
@@ -31051,7 +31547,9 @@
       <c r="AP21" s="9">
         <v>357</v>
       </c>
-      <c r="AQ21" s="9"/>
+      <c r="AQ21" s="9">
+        <v>368</v>
+      </c>
       <c r="AR21" s="9"/>
       <c r="AS21" s="9"/>
       <c r="AT21" s="9"/>
@@ -31353,7 +31851,9 @@
       <c r="AP22" s="7">
         <v>685</v>
       </c>
-      <c r="AQ22" s="7"/>
+      <c r="AQ22" s="7">
+        <v>696</v>
+      </c>
       <c r="AR22" s="7"/>
       <c r="AS22" s="7"/>
       <c r="AT22" s="7"/>
@@ -31655,7 +32155,9 @@
       <c r="AP23" s="9">
         <v>143</v>
       </c>
-      <c r="AQ23" s="9"/>
+      <c r="AQ23" s="9">
+        <v>143</v>
+      </c>
       <c r="AR23" s="9"/>
       <c r="AS23" s="9"/>
       <c r="AT23" s="9"/>
@@ -31957,7 +32459,9 @@
       <c r="AP24" s="7">
         <v>1443</v>
       </c>
-      <c r="AQ24" s="7"/>
+      <c r="AQ24" s="7">
+        <v>1466</v>
+      </c>
       <c r="AR24" s="7"/>
       <c r="AS24" s="7"/>
       <c r="AT24" s="7"/>
@@ -32259,7 +32763,9 @@
       <c r="AP25" s="9">
         <v>1075</v>
       </c>
-      <c r="AQ25" s="9"/>
+      <c r="AQ25" s="9">
+        <v>1092</v>
+      </c>
       <c r="AR25" s="9"/>
       <c r="AS25" s="9"/>
       <c r="AT25" s="9"/>
@@ -32561,7 +33067,9 @@
       <c r="AP26" s="7">
         <v>15</v>
       </c>
-      <c r="AQ26" s="7"/>
+      <c r="AQ26" s="7">
+        <v>16</v>
+      </c>
       <c r="AR26" s="7"/>
       <c r="AS26" s="7"/>
       <c r="AT26" s="7"/>
@@ -32863,7 +33371,9 @@
       <c r="AP27" s="9">
         <v>678</v>
       </c>
-      <c r="AQ27" s="9"/>
+      <c r="AQ27" s="9">
+        <v>688</v>
+      </c>
       <c r="AR27" s="9"/>
       <c r="AS27" s="9"/>
       <c r="AT27" s="9"/>
@@ -33165,7 +33675,9 @@
       <c r="AP28" s="7">
         <v>743</v>
       </c>
-      <c r="AQ28" s="7"/>
+      <c r="AQ28" s="7">
+        <v>766</v>
+      </c>
       <c r="AR28" s="7"/>
       <c r="AS28" s="7"/>
       <c r="AT28" s="7"/>
@@ -33467,7 +33979,9 @@
       <c r="AP29" s="20">
         <v>2</v>
       </c>
-      <c r="AQ29" s="22"/>
+      <c r="AQ29" s="20">
+        <v>2</v>
+      </c>
       <c r="AR29" s="22"/>
       <c r="AS29" s="22"/>
       <c r="AT29" s="22"/>
@@ -33769,7 +34283,9 @@
       <c r="AP30" s="7">
         <v>717</v>
       </c>
-      <c r="AQ30" s="7"/>
+      <c r="AQ30" s="7">
+        <v>719</v>
+      </c>
       <c r="AR30" s="7"/>
       <c r="AS30" s="7"/>
       <c r="AT30" s="7"/>
@@ -34071,7 +34587,9 @@
       <c r="AP31" s="9">
         <v>762</v>
       </c>
-      <c r="AQ31" s="9"/>
+      <c r="AQ31" s="9">
+        <v>762</v>
+      </c>
       <c r="AR31" s="9"/>
       <c r="AS31" s="9"/>
       <c r="AT31" s="9"/>
@@ -34373,7 +34891,9 @@
       <c r="AP32" s="7">
         <v>523</v>
       </c>
-      <c r="AQ32" s="7"/>
+      <c r="AQ32" s="7">
+        <v>527</v>
+      </c>
       <c r="AR32" s="7"/>
       <c r="AS32" s="7"/>
       <c r="AT32" s="7"/>
@@ -34675,7 +35195,9 @@
       <c r="AP33" s="9">
         <v>1364</v>
       </c>
-      <c r="AQ33" s="9"/>
+      <c r="AQ33" s="9">
+        <v>1387</v>
+      </c>
       <c r="AR33" s="9"/>
       <c r="AS33" s="9"/>
       <c r="AT33" s="9"/>
@@ -34977,7 +35499,9 @@
       <c r="AP34" s="7">
         <v>143</v>
       </c>
-      <c r="AQ34" s="7"/>
+      <c r="AQ34" s="7">
+        <v>143</v>
+      </c>
       <c r="AR34" s="7"/>
       <c r="AS34" s="7"/>
       <c r="AT34" s="7"/>
@@ -35279,7 +35803,9 @@
       <c r="AP35" s="9">
         <v>775</v>
       </c>
-      <c r="AQ35" s="9"/>
+      <c r="AQ35" s="9">
+        <v>781</v>
+      </c>
       <c r="AR35" s="9"/>
       <c r="AS35" s="9"/>
       <c r="AT35" s="9"/>
@@ -35581,7 +36107,9 @@
       <c r="AP36" s="11">
         <v>19197</v>
       </c>
-      <c r="AQ36" s="11"/>
+      <c r="AQ36" s="11">
+        <v>19492</v>
+      </c>
       <c r="AR36" s="11"/>
       <c r="AS36" s="11"/>
       <c r="AT36" s="11"/>
@@ -35786,22 +36314,22 @@
         <v>217</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
@@ -37769,22 +38297,22 @@
         <v>217</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
@@ -38012,25 +38540,25 @@
         <v>211</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
@@ -38258,25 +38786,25 @@
         <v>212</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
@@ -38504,25 +39032,25 @@
         <v>213</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L50" s="7">
         <v>167.4</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
@@ -38750,25 +39278,25 @@
         <v>214</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
@@ -38996,25 +39524,25 @@
         <v>215</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
@@ -39232,19 +39760,19 @@
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
@@ -39476,19 +40004,19 @@
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
@@ -40038,7 +40566,9 @@
       <c r="AP57" s="7">
         <v>176</v>
       </c>
-      <c r="AQ57" s="7"/>
+      <c r="AQ57" s="7">
+        <v>184</v>
+      </c>
       <c r="AR57" s="7"/>
       <c r="AS57" s="7"/>
       <c r="AT57" s="7"/>
@@ -40338,7 +40868,9 @@
       <c r="AP58" s="9">
         <v>155</v>
       </c>
-      <c r="AQ58" s="9"/>
+      <c r="AQ58" s="9">
+        <v>162</v>
+      </c>
       <c r="AR58" s="9"/>
       <c r="AS58" s="9"/>
       <c r="AT58" s="9"/>
@@ -40638,7 +41170,9 @@
       <c r="AP59" s="7">
         <v>556</v>
       </c>
-      <c r="AQ59" s="7"/>
+      <c r="AQ59" s="7">
+        <v>569</v>
+      </c>
       <c r="AR59" s="7"/>
       <c r="AS59" s="7"/>
       <c r="AT59" s="7"/>
@@ -40938,7 +41472,9 @@
       <c r="AP60" s="9">
         <v>2045</v>
       </c>
-      <c r="AQ60" s="9"/>
+      <c r="AQ60" s="9">
+        <v>2081</v>
+      </c>
       <c r="AR60" s="9"/>
       <c r="AS60" s="9"/>
       <c r="AT60" s="9"/>
@@ -41238,7 +41774,9 @@
       <c r="AP61" s="7">
         <v>2347</v>
       </c>
-      <c r="AQ61" s="7"/>
+      <c r="AQ61" s="7">
+        <v>2401</v>
+      </c>
       <c r="AR61" s="7"/>
       <c r="AS61" s="7"/>
       <c r="AT61" s="7"/>
@@ -41538,7 +42076,9 @@
       <c r="AP62" s="9">
         <v>2668</v>
       </c>
-      <c r="AQ62" s="9"/>
+      <c r="AQ62" s="9">
+        <v>2705</v>
+      </c>
       <c r="AR62" s="9"/>
       <c r="AS62" s="9"/>
       <c r="AT62" s="9"/>
@@ -41838,7 +42378,9 @@
       <c r="AP63" s="7">
         <v>2441</v>
       </c>
-      <c r="AQ63" s="7"/>
+      <c r="AQ63" s="7">
+        <v>2480</v>
+      </c>
       <c r="AR63" s="7"/>
       <c r="AS63" s="7"/>
       <c r="AT63" s="7"/>
@@ -42138,7 +42680,9 @@
       <c r="AP64" s="9">
         <v>1673</v>
       </c>
-      <c r="AQ64" s="9"/>
+      <c r="AQ64" s="9">
+        <v>1697</v>
+      </c>
       <c r="AR64" s="9"/>
       <c r="AS64" s="9"/>
       <c r="AT64" s="9"/>
@@ -42438,7 +42982,9 @@
       <c r="AP65" s="7">
         <v>1830</v>
       </c>
-      <c r="AQ65" s="7"/>
+      <c r="AQ65" s="7">
+        <v>1847</v>
+      </c>
       <c r="AR65" s="7"/>
       <c r="AS65" s="7"/>
       <c r="AT65" s="7"/>
@@ -42738,7 +43284,9 @@
       <c r="AP66" s="9">
         <v>5234</v>
       </c>
-      <c r="AQ66" s="9"/>
+      <c r="AQ66" s="9">
+        <v>5292</v>
+      </c>
       <c r="AR66" s="9"/>
       <c r="AS66" s="9"/>
       <c r="AT66" s="9"/>
@@ -43038,7 +43586,9 @@
       <c r="AP67" s="7">
         <v>72</v>
       </c>
-      <c r="AQ67" s="7"/>
+      <c r="AQ67" s="7">
+        <v>74</v>
+      </c>
       <c r="AR67" s="7"/>
       <c r="AS67" s="7"/>
       <c r="AT67" s="7"/>
@@ -43246,7 +43796,7 @@
         <v>5262</v>
       </c>
       <c r="L68" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M68" s="15">
         <v>5861</v>
@@ -43338,7 +43888,9 @@
       <c r="AP68" s="15">
         <v>19197</v>
       </c>
-      <c r="AQ68" s="15"/>
+      <c r="AQ68" s="15">
+        <v>19492</v>
+      </c>
       <c r="AR68" s="15"/>
       <c r="AS68" s="15"/>
       <c r="AT68" s="15"/>
@@ -43513,7 +44065,7 @@
       <c r="HG68" s="15"/>
       <c r="HH68" s="15"/>
     </row>
-    <row r="69" spans="1:216" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:216" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="12"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -43731,502 +44283,436 @@
       <c r="HG69" s="5"/>
       <c r="HH69" s="5"/>
     </row>
-    <row r="70" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
-        <v>218</v>
-      </c>
-      <c r="B70" t="s">
-        <v>101</v>
-      </c>
-      <c r="C70" t="s">
-        <v>101</v>
-      </c>
-      <c r="D70" t="s">
-        <v>101</v>
-      </c>
-      <c r="E70" t="s">
-        <v>101</v>
-      </c>
-      <c r="F70" t="s">
-        <v>101</v>
-      </c>
-      <c r="G70" t="s">
-        <v>101</v>
-      </c>
-      <c r="H70" t="s">
-        <v>101</v>
-      </c>
-      <c r="I70">
-        <v>63</v>
-      </c>
-      <c r="J70">
-        <v>74</v>
-      </c>
-      <c r="K70">
-        <v>91</v>
-      </c>
-      <c r="L70">
-        <v>100</v>
-      </c>
-      <c r="M70">
-        <v>135</v>
-      </c>
-      <c r="N70">
-        <v>147</v>
-      </c>
-      <c r="O70">
-        <v>162</v>
-      </c>
-      <c r="P70">
-        <v>218</v>
-      </c>
-      <c r="Q70">
-        <v>242</v>
-      </c>
-      <c r="R70">
-        <v>332</v>
-      </c>
-      <c r="S70">
-        <v>391</v>
-      </c>
-      <c r="T70">
-        <v>454</v>
-      </c>
-      <c r="U70">
-        <v>513</v>
-      </c>
-      <c r="V70">
-        <v>525</v>
-      </c>
-      <c r="W70">
-        <v>583</v>
-      </c>
-      <c r="X70">
-        <v>647</v>
-      </c>
-      <c r="Y70">
-        <v>741</v>
-      </c>
-      <c r="Z70">
-        <v>808</v>
-      </c>
-      <c r="AA70">
-        <v>895</v>
-      </c>
-      <c r="AB70">
-        <v>938</v>
-      </c>
-      <c r="AC70">
-        <v>983</v>
-      </c>
-      <c r="AD70">
-        <v>1039</v>
-      </c>
-      <c r="AE70" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF70" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG70">
-        <v>1245</v>
-      </c>
-      <c r="AH70">
-        <v>1312</v>
-      </c>
-      <c r="AI70">
-        <v>1365</v>
-      </c>
-      <c r="AJ70">
-        <v>1410</v>
-      </c>
-      <c r="AK70">
-        <v>1488</v>
-      </c>
+    <row r="70" spans="1:216" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
+      <c r="AA70" s="5"/>
+      <c r="AB70" s="5"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="5"/>
+      <c r="AG70" s="5"/>
+      <c r="AH70" s="5"/>
+      <c r="AI70" s="5"/>
+      <c r="AJ70" s="5"/>
+      <c r="AK70" s="5"/>
+      <c r="AL70" s="5"/>
+      <c r="AM70" s="5"/>
+      <c r="AN70" s="5"/>
+      <c r="AO70" s="5"/>
+      <c r="AP70" s="5"/>
+      <c r="AQ70" s="5"/>
+      <c r="AR70" s="5"/>
+      <c r="AS70" s="5"/>
+      <c r="AT70" s="5"/>
+      <c r="AU70" s="5"/>
+      <c r="AV70" s="5"/>
+      <c r="AW70" s="5"/>
+      <c r="AX70" s="5"/>
+      <c r="AY70" s="5"/>
+      <c r="AZ70" s="5"/>
+      <c r="BA70" s="5"/>
+      <c r="BB70" s="5"/>
+      <c r="BC70" s="5"/>
+      <c r="BD70" s="5"/>
+      <c r="BE70" s="5"/>
+      <c r="BF70" s="5"/>
+      <c r="BG70" s="5"/>
+      <c r="BH70" s="5"/>
+      <c r="BI70" s="5"/>
+      <c r="BJ70" s="5"/>
+      <c r="BK70" s="5"/>
+      <c r="BL70" s="5"/>
+      <c r="BM70" s="5"/>
+      <c r="BN70" s="5"/>
+      <c r="BO70" s="5"/>
+      <c r="BP70" s="5"/>
+      <c r="BQ70" s="5"/>
+      <c r="BR70" s="5"/>
+      <c r="BS70" s="5"/>
+      <c r="BT70" s="5"/>
+      <c r="BU70" s="5"/>
+      <c r="BV70" s="5"/>
+      <c r="BW70" s="5"/>
+      <c r="BX70" s="5"/>
+      <c r="BY70" s="5"/>
+      <c r="BZ70" s="5"/>
+      <c r="CA70" s="5"/>
+      <c r="CB70" s="5"/>
+      <c r="CC70" s="5"/>
+      <c r="CD70" s="5"/>
+      <c r="CE70" s="5"/>
+      <c r="CF70" s="5"/>
+      <c r="CG70" s="5"/>
+      <c r="CH70" s="5"/>
+      <c r="CI70" s="5"/>
+      <c r="CJ70" s="5"/>
+      <c r="CK70" s="5"/>
+      <c r="CL70" s="5"/>
+      <c r="CM70" s="5"/>
+      <c r="CN70" s="5"/>
+      <c r="CO70" s="5"/>
+      <c r="CP70" s="5"/>
+      <c r="CQ70" s="5"/>
+      <c r="CR70" s="5"/>
+      <c r="CS70" s="5"/>
+      <c r="CT70" s="5"/>
+      <c r="CU70" s="5"/>
+      <c r="CV70" s="5"/>
+      <c r="CW70" s="5"/>
+      <c r="CX70" s="5"/>
+      <c r="CY70" s="5"/>
+      <c r="CZ70" s="5"/>
+      <c r="DA70" s="5"/>
+      <c r="DB70" s="5"/>
+      <c r="DC70" s="5"/>
+      <c r="DD70" s="5"/>
+      <c r="DE70" s="5"/>
+      <c r="DF70" s="5"/>
+      <c r="DG70" s="5"/>
+      <c r="DH70" s="5"/>
+      <c r="DI70" s="5"/>
+      <c r="DJ70" s="5"/>
+      <c r="DK70" s="5"/>
+      <c r="DL70" s="5"/>
+      <c r="DM70" s="5"/>
+      <c r="DN70" s="5"/>
+      <c r="DO70" s="5"/>
+      <c r="DP70" s="5"/>
+      <c r="DQ70" s="5"/>
+      <c r="DR70" s="5"/>
+      <c r="DS70" s="5"/>
+      <c r="DT70" s="5"/>
+      <c r="DU70" s="5"/>
+      <c r="DV70" s="5"/>
+      <c r="DW70" s="5"/>
+      <c r="DX70" s="5"/>
+      <c r="DY70" s="5"/>
+      <c r="DZ70" s="5"/>
+      <c r="EA70" s="5"/>
+      <c r="EB70" s="5"/>
+      <c r="EC70" s="5"/>
+      <c r="ED70" s="5"/>
+      <c r="EE70" s="5"/>
+      <c r="EF70" s="5"/>
+      <c r="EG70" s="5"/>
+      <c r="EH70" s="5"/>
+      <c r="EI70" s="5"/>
+      <c r="EJ70" s="5"/>
+      <c r="EK70" s="5"/>
+      <c r="EL70" s="5"/>
+      <c r="EM70" s="5"/>
+      <c r="EN70" s="5"/>
+      <c r="EO70" s="5"/>
+      <c r="EP70" s="5"/>
+      <c r="EQ70" s="5"/>
+      <c r="ER70" s="5"/>
+      <c r="ES70" s="5"/>
+      <c r="ET70" s="5"/>
+      <c r="EU70" s="5"/>
+      <c r="EV70" s="5"/>
+      <c r="EW70" s="5"/>
+      <c r="EX70" s="5"/>
+      <c r="EY70" s="5"/>
+      <c r="EZ70" s="5"/>
+      <c r="FA70" s="5"/>
+      <c r="FB70" s="5"/>
+      <c r="FC70" s="5"/>
+      <c r="FD70" s="5"/>
+      <c r="FE70" s="5"/>
+      <c r="FF70" s="5"/>
+      <c r="FG70" s="5"/>
+      <c r="FH70" s="5"/>
+      <c r="FI70" s="5"/>
+      <c r="FJ70" s="5"/>
+      <c r="FK70" s="5"/>
+      <c r="FL70" s="5"/>
+      <c r="FM70" s="5"/>
+      <c r="FN70" s="5"/>
+      <c r="FO70" s="5"/>
+      <c r="FP70" s="5"/>
+      <c r="FQ70" s="5"/>
+      <c r="FR70" s="5"/>
+      <c r="FS70" s="5"/>
+      <c r="FT70" s="5"/>
+      <c r="FU70" s="5"/>
+      <c r="FV70" s="5"/>
+      <c r="FW70" s="5"/>
+      <c r="FX70" s="5"/>
+      <c r="FY70" s="5"/>
+      <c r="FZ70" s="5"/>
+      <c r="GA70" s="5"/>
+      <c r="GB70" s="5"/>
+      <c r="GC70" s="5"/>
+      <c r="GD70" s="5"/>
+      <c r="GE70" s="5"/>
+      <c r="GF70" s="5"/>
+      <c r="GG70" s="5"/>
+      <c r="GH70" s="5"/>
+      <c r="GI70" s="5"/>
+      <c r="GJ70" s="5"/>
+      <c r="GK70" s="5"/>
+      <c r="GL70" s="5"/>
+      <c r="GM70" s="5"/>
+      <c r="GN70" s="5"/>
+      <c r="GO70" s="5"/>
+      <c r="GP70" s="5"/>
+      <c r="GQ70" s="5"/>
+      <c r="GR70" s="5"/>
+      <c r="GS70" s="5"/>
+      <c r="GT70" s="5"/>
+      <c r="GU70" s="5"/>
+      <c r="GV70" s="5"/>
+      <c r="GW70" s="5"/>
+      <c r="GX70" s="5"/>
+      <c r="GY70" s="5"/>
+      <c r="GZ70" s="5"/>
+      <c r="HA70" s="5"/>
+      <c r="HB70" s="5"/>
+      <c r="HC70" s="5"/>
+      <c r="HD70" s="5"/>
+      <c r="HE70" s="5"/>
+      <c r="HF70" s="5"/>
+      <c r="HG70" s="5"/>
+      <c r="HH70" s="5"/>
     </row>
-    <row r="71" spans="1:216" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="5"/>
-      <c r="X71" s="5"/>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-      <c r="AA71" s="5"/>
-      <c r="AB71" s="5"/>
-      <c r="AC71" s="5"/>
-      <c r="AD71" s="5"/>
-      <c r="AE71" s="5"/>
-      <c r="AF71" s="5"/>
-      <c r="AG71" s="5"/>
-      <c r="AH71" s="5"/>
-      <c r="AI71" s="5"/>
-      <c r="AJ71" s="5"/>
-      <c r="AK71" s="5"/>
-      <c r="AL71" s="5"/>
-      <c r="AM71" s="5"/>
-      <c r="AN71" s="5"/>
-      <c r="AO71" s="5"/>
-      <c r="AP71" s="5"/>
-      <c r="AQ71" s="5"/>
-      <c r="AR71" s="5"/>
-      <c r="AS71" s="5"/>
-      <c r="AT71" s="5"/>
-      <c r="AU71" s="5"/>
-      <c r="AV71" s="5"/>
-      <c r="AW71" s="5"/>
-      <c r="AX71" s="5"/>
-      <c r="AY71" s="5"/>
-      <c r="AZ71" s="5"/>
-      <c r="BA71" s="5"/>
-      <c r="BB71" s="5"/>
-      <c r="BC71" s="5"/>
-      <c r="BD71" s="5"/>
-      <c r="BE71" s="5"/>
-      <c r="BF71" s="5"/>
-      <c r="BG71" s="5"/>
-      <c r="BH71" s="5"/>
-      <c r="BI71" s="5"/>
-      <c r="BJ71" s="5"/>
-      <c r="BK71" s="5"/>
-      <c r="BL71" s="5"/>
-      <c r="BM71" s="5"/>
-      <c r="BN71" s="5"/>
-      <c r="BO71" s="5"/>
-      <c r="BP71" s="5"/>
-      <c r="BQ71" s="5"/>
-      <c r="BR71" s="5"/>
-      <c r="BS71" s="5"/>
-      <c r="BT71" s="5"/>
-      <c r="BU71" s="5"/>
-      <c r="BV71" s="5"/>
-      <c r="BW71" s="5"/>
-      <c r="BX71" s="5"/>
-      <c r="BY71" s="5"/>
-      <c r="BZ71" s="5"/>
-      <c r="CA71" s="5"/>
-      <c r="CB71" s="5"/>
-      <c r="CC71" s="5"/>
-      <c r="CD71" s="5"/>
-      <c r="CE71" s="5"/>
-      <c r="CF71" s="5"/>
-      <c r="CG71" s="5"/>
-      <c r="CH71" s="5"/>
-      <c r="CI71" s="5"/>
-      <c r="CJ71" s="5"/>
-      <c r="CK71" s="5"/>
-      <c r="CL71" s="5"/>
-      <c r="CM71" s="5"/>
-      <c r="CN71" s="5"/>
-      <c r="CO71" s="5"/>
-      <c r="CP71" s="5"/>
-      <c r="CQ71" s="5"/>
-      <c r="CR71" s="5"/>
-      <c r="CS71" s="5"/>
-      <c r="CT71" s="5"/>
-      <c r="CU71" s="5"/>
-      <c r="CV71" s="5"/>
-      <c r="CW71" s="5"/>
-      <c r="CX71" s="5"/>
-      <c r="CY71" s="5"/>
-      <c r="CZ71" s="5"/>
-      <c r="DA71" s="5"/>
-      <c r="DB71" s="5"/>
-      <c r="DC71" s="5"/>
-      <c r="DD71" s="5"/>
-      <c r="DE71" s="5"/>
-      <c r="DF71" s="5"/>
-      <c r="DG71" s="5"/>
-      <c r="DH71" s="5"/>
-      <c r="DI71" s="5"/>
-      <c r="DJ71" s="5"/>
-      <c r="DK71" s="5"/>
-      <c r="DL71" s="5"/>
-      <c r="DM71" s="5"/>
-      <c r="DN71" s="5"/>
-      <c r="DO71" s="5"/>
-      <c r="DP71" s="5"/>
-      <c r="DQ71" s="5"/>
-      <c r="DR71" s="5"/>
-      <c r="DS71" s="5"/>
-      <c r="DT71" s="5"/>
-      <c r="DU71" s="5"/>
-      <c r="DV71" s="5"/>
-      <c r="DW71" s="5"/>
-      <c r="DX71" s="5"/>
-      <c r="DY71" s="5"/>
-      <c r="DZ71" s="5"/>
-      <c r="EA71" s="5"/>
-      <c r="EB71" s="5"/>
-      <c r="EC71" s="5"/>
-      <c r="ED71" s="5"/>
-      <c r="EE71" s="5"/>
-      <c r="EF71" s="5"/>
-      <c r="EG71" s="5"/>
-      <c r="EH71" s="5"/>
-      <c r="EI71" s="5"/>
-      <c r="EJ71" s="5"/>
-      <c r="EK71" s="5"/>
-      <c r="EL71" s="5"/>
-      <c r="EM71" s="5"/>
-      <c r="EN71" s="5"/>
-      <c r="EO71" s="5"/>
-      <c r="EP71" s="5"/>
-      <c r="EQ71" s="5"/>
-      <c r="ER71" s="5"/>
-      <c r="ES71" s="5"/>
-      <c r="ET71" s="5"/>
-      <c r="EU71" s="5"/>
-      <c r="EV71" s="5"/>
-      <c r="EW71" s="5"/>
-      <c r="EX71" s="5"/>
-      <c r="EY71" s="5"/>
-      <c r="EZ71" s="5"/>
-      <c r="FA71" s="5"/>
-      <c r="FB71" s="5"/>
-      <c r="FC71" s="5"/>
-      <c r="FD71" s="5"/>
-      <c r="FE71" s="5"/>
-      <c r="FF71" s="5"/>
-      <c r="FG71" s="5"/>
-      <c r="FH71" s="5"/>
-      <c r="FI71" s="5"/>
-      <c r="FJ71" s="5"/>
-      <c r="FK71" s="5"/>
-      <c r="FL71" s="5"/>
-      <c r="FM71" s="5"/>
-      <c r="FN71" s="5"/>
-      <c r="FO71" s="5"/>
-      <c r="FP71" s="5"/>
-      <c r="FQ71" s="5"/>
-      <c r="FR71" s="5"/>
-      <c r="FS71" s="5"/>
-      <c r="FT71" s="5"/>
-      <c r="FU71" s="5"/>
-      <c r="FV71" s="5"/>
-      <c r="FW71" s="5"/>
-      <c r="FX71" s="5"/>
-      <c r="FY71" s="5"/>
-      <c r="FZ71" s="5"/>
-      <c r="GA71" s="5"/>
-      <c r="GB71" s="5"/>
-      <c r="GC71" s="5"/>
-      <c r="GD71" s="5"/>
-      <c r="GE71" s="5"/>
-      <c r="GF71" s="5"/>
-      <c r="GG71" s="5"/>
-      <c r="GH71" s="5"/>
-      <c r="GI71" s="5"/>
-      <c r="GJ71" s="5"/>
-      <c r="GK71" s="5"/>
-      <c r="GL71" s="5"/>
-      <c r="GM71" s="5"/>
-      <c r="GN71" s="5"/>
-      <c r="GO71" s="5"/>
-      <c r="GP71" s="5"/>
-      <c r="GQ71" s="5"/>
-      <c r="GR71" s="5"/>
-      <c r="GS71" s="5"/>
-      <c r="GT71" s="5"/>
-      <c r="GU71" s="5"/>
-      <c r="GV71" s="5"/>
-      <c r="GW71" s="5"/>
-      <c r="GX71" s="5"/>
-      <c r="GY71" s="5"/>
-      <c r="GZ71" s="5"/>
-      <c r="HA71" s="5"/>
-      <c r="HB71" s="5"/>
-      <c r="HC71" s="5"/>
-      <c r="HD71" s="5"/>
-      <c r="HE71" s="5"/>
-      <c r="HF71" s="5"/>
-      <c r="HG71" s="5"/>
-      <c r="HH71" s="5"/>
+    <row r="71" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI71">
+        <v>152</v>
+      </c>
+      <c r="AJ71">
+        <v>155</v>
+      </c>
+      <c r="AK71">
+        <v>186</v>
+      </c>
+      <c r="AL71">
+        <v>191</v>
+      </c>
+      <c r="AM71">
+        <v>195</v>
+      </c>
+      <c r="AN71">
+        <v>201</v>
+      </c>
+      <c r="AO71">
+        <v>204</v>
+      </c>
+      <c r="AP71">
+        <v>210</v>
+      </c>
+      <c r="AQ71">
+        <v>216</v>
+      </c>
     </row>
     <row r="72" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="6" t="s">
-        <v>37</v>
+      <c r="A72" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="AI72">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="AJ72">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="AK72">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="AL72">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="AM72">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="AN72">
-        <v>201</v>
+        <v>18</v>
       </c>
       <c r="AO72">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="AP72">
-        <v>210</v>
+        <v>20</v>
+      </c>
+      <c r="AQ72">
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="8" t="s">
-        <v>38</v>
+      <c r="A73" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="AI73">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AJ73">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AK73">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AL73">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AM73">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AN73">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AO73">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AP73">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="AQ73">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI74">
-        <v>0</v>
-      </c>
-      <c r="AJ74">
-        <v>0</v>
-      </c>
-      <c r="AK74">
-        <v>0</v>
+      <c r="A74" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI74" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AJ74" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AK74" s="24">
+        <v>2</v>
       </c>
       <c r="AL74">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM74">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN74">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AO74">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AP74">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AQ74">
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI75" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AJ75" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AK75" s="24">
-        <v>2</v>
+      <c r="A75" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI75">
+        <v>133</v>
+      </c>
+      <c r="AJ75">
+        <v>138</v>
+      </c>
+      <c r="AK75">
+        <v>142</v>
       </c>
       <c r="AL75">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="AM75">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="AN75">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="AO75">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="AP75">
-        <v>6</v>
+        <v>164</v>
+      </c>
+      <c r="AQ75">
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="6" t="s">
-        <v>41</v>
+      <c r="A76" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="AI76">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="AJ76">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="AK76">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="AL76">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="AM76">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="AN76">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="AO76">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="AP76">
-        <v>164</v>
+        <v>20</v>
+      </c>
+      <c r="AQ76">
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="8" t="s">
-        <v>42</v>
+      <c r="A77" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="AI77">
         <v>14</v>
       </c>
       <c r="AJ77">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK77">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL77">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AM77">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN77">
         <v>19</v>
@@ -44235,1073 +44721,1163 @@
         <v>19</v>
       </c>
       <c r="AP77">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="AQ77">
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="6" t="s">
-        <v>43</v>
+      <c r="A78" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="AI78">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AJ78">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AK78">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AL78">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AM78">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AN78">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AO78">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AP78">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="AQ78">
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="8" t="s">
-        <v>44</v>
+      <c r="A79" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="AI79">
-        <v>26</v>
-      </c>
-      <c r="AJ79">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="AJ79" s="24" t="s">
+        <v>294</v>
       </c>
       <c r="AK79">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AL79">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AM79">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AN79">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AO79">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AP79">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="AQ79">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="6" t="s">
-        <v>45</v>
+      <c r="A80" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="AI80">
+        <v>7</v>
+      </c>
+      <c r="AJ80">
+        <v>7</v>
+      </c>
+      <c r="AK80">
+        <v>8</v>
+      </c>
+      <c r="AL80">
+        <v>8</v>
+      </c>
+      <c r="AM80">
+        <v>8</v>
+      </c>
+      <c r="AN80">
+        <v>8</v>
+      </c>
+      <c r="AO80">
+        <v>8</v>
+      </c>
+      <c r="AP80">
+        <v>9</v>
+      </c>
+      <c r="AQ80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI81">
+        <v>22</v>
+      </c>
+      <c r="AJ81">
+        <v>23</v>
+      </c>
+      <c r="AK81">
+        <v>23</v>
+      </c>
+      <c r="AL81">
+        <v>24</v>
+      </c>
+      <c r="AM81">
+        <v>41</v>
+      </c>
+      <c r="AN81">
+        <v>42</v>
+      </c>
+      <c r="AO81">
+        <v>42</v>
+      </c>
+      <c r="AP81">
+        <v>50</v>
+      </c>
+      <c r="AQ81">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI82">
+        <v>92</v>
+      </c>
+      <c r="AJ82">
+        <v>92</v>
+      </c>
+      <c r="AK82">
+        <v>92</v>
+      </c>
+      <c r="AL82">
+        <v>94</v>
+      </c>
+      <c r="AM82">
+        <v>112</v>
+      </c>
+      <c r="AN82">
+        <v>114</v>
+      </c>
+      <c r="AO82">
+        <v>114</v>
+      </c>
+      <c r="AP82">
+        <v>121</v>
+      </c>
+      <c r="AQ82">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI83">
+        <v>9</v>
+      </c>
+      <c r="AJ83">
+        <v>10</v>
+      </c>
+      <c r="AK83">
+        <v>14</v>
+      </c>
+      <c r="AL83">
+        <v>15</v>
+      </c>
+      <c r="AM83">
+        <v>17</v>
+      </c>
+      <c r="AN83">
+        <v>17</v>
+      </c>
+      <c r="AO83">
+        <v>17</v>
+      </c>
+      <c r="AP83">
+        <v>17</v>
+      </c>
+      <c r="AQ83">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI84">
+        <v>125</v>
+      </c>
+      <c r="AJ84">
+        <v>130</v>
+      </c>
+      <c r="AK84">
+        <v>140</v>
+      </c>
+      <c r="AL84">
+        <v>153</v>
+      </c>
+      <c r="AM84">
+        <v>166</v>
+      </c>
+      <c r="AN84">
+        <v>178</v>
+      </c>
+      <c r="AO84">
+        <v>184</v>
+      </c>
+      <c r="AP84">
+        <v>191</v>
+      </c>
+      <c r="AQ84">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI85">
         <v>0</v>
       </c>
-      <c r="AJ80" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AK80">
-        <v>0</v>
-      </c>
-      <c r="AL80">
-        <v>0</v>
-      </c>
-      <c r="AM80">
-        <v>0</v>
-      </c>
-      <c r="AN80">
-        <v>0</v>
-      </c>
-      <c r="AO80">
-        <v>0</v>
-      </c>
-      <c r="AP80">
-        <v>0</v>
+      <c r="AJ85" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AK85" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AL85" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AM85" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AN85" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO85" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AP85" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ85" s="24" t="s">
+        <v>294</v>
       </c>
     </row>
-    <row r="81" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="8" t="s">
+    <row r="86" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI86">
+        <v>82</v>
+      </c>
+      <c r="AJ86">
+        <v>86</v>
+      </c>
+      <c r="AK86">
+        <v>93</v>
+      </c>
+      <c r="AL86">
+        <v>99</v>
+      </c>
+      <c r="AM86">
+        <v>102</v>
+      </c>
+      <c r="AN86">
+        <v>107</v>
+      </c>
+      <c r="AO86">
+        <v>114</v>
+      </c>
+      <c r="AP86">
+        <v>124</v>
+      </c>
+      <c r="AQ86">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI87" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AJ87" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AK87" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AL87" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AM87" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AN87" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO87" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AP87" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ87" s="24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="88" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI88">
         <v>46</v>
       </c>
-      <c r="AI81">
+      <c r="AJ88">
+        <v>47</v>
+      </c>
+      <c r="AK88">
+        <v>47</v>
+      </c>
+      <c r="AL88">
+        <v>53</v>
+      </c>
+      <c r="AM88">
+        <v>55</v>
+      </c>
+      <c r="AN88">
+        <v>56</v>
+      </c>
+      <c r="AO88">
+        <v>56</v>
+      </c>
+      <c r="AP88">
+        <v>58</v>
+      </c>
+      <c r="AQ88">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI89">
         <v>7</v>
       </c>
-      <c r="AJ81">
+      <c r="AJ89">
         <v>7</v>
       </c>
-      <c r="AK81">
+      <c r="AK89">
+        <v>7</v>
+      </c>
+      <c r="AL89">
         <v>8</v>
       </c>
-      <c r="AL81">
+      <c r="AM89">
         <v>8</v>
       </c>
-      <c r="AM81">
+      <c r="AN89">
         <v>8</v>
       </c>
-      <c r="AN81">
+      <c r="AO89">
         <v>8</v>
       </c>
-      <c r="AO81">
+      <c r="AP89">
         <v>8</v>
       </c>
-      <c r="AP81">
-        <v>9</v>
+      <c r="AQ89">
+        <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="6" t="s">
+    <row r="90" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI90">
+        <v>18</v>
+      </c>
+      <c r="AJ90">
+        <v>18</v>
+      </c>
+      <c r="AK90">
+        <v>18</v>
+      </c>
+      <c r="AL90">
+        <v>19</v>
+      </c>
+      <c r="AM90">
+        <v>21</v>
+      </c>
+      <c r="AN90">
+        <v>21</v>
+      </c>
+      <c r="AO90">
+        <v>21</v>
+      </c>
+      <c r="AP90">
+        <v>21</v>
+      </c>
+      <c r="AQ90">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI91">
+        <v>44</v>
+      </c>
+      <c r="AJ91">
         <v>47</v>
       </c>
-      <c r="AI82">
-        <v>22</v>
-      </c>
-      <c r="AJ82">
-        <v>23</v>
-      </c>
-      <c r="AK82">
-        <v>23</v>
-      </c>
-      <c r="AL82">
-        <v>24</v>
-      </c>
-      <c r="AM82">
-        <v>41</v>
-      </c>
-      <c r="AN82">
-        <v>42</v>
-      </c>
-      <c r="AO82">
-        <v>42</v>
-      </c>
-      <c r="AP82">
-        <v>50</v>
+      <c r="AK91">
+        <v>49</v>
+      </c>
+      <c r="AL91">
+        <v>51</v>
+      </c>
+      <c r="AM91">
+        <v>56</v>
+      </c>
+      <c r="AN91">
+        <v>57</v>
+      </c>
+      <c r="AO91">
+        <v>57</v>
+      </c>
+      <c r="AP91">
+        <v>62</v>
+      </c>
+      <c r="AQ91">
+        <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI83">
-        <v>92</v>
-      </c>
-      <c r="AJ83">
-        <v>92</v>
-      </c>
-      <c r="AK83">
-        <v>92</v>
-      </c>
-      <c r="AL83">
-        <v>94</v>
-      </c>
-      <c r="AM83">
-        <v>112</v>
-      </c>
-      <c r="AN83">
-        <v>114</v>
-      </c>
-      <c r="AO83">
-        <v>114</v>
-      </c>
-      <c r="AP83">
-        <v>121</v>
+    <row r="92" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI92">
+        <v>13</v>
+      </c>
+      <c r="AJ92">
+        <v>13</v>
+      </c>
+      <c r="AK92">
+        <v>14</v>
+      </c>
+      <c r="AL92">
+        <v>15</v>
+      </c>
+      <c r="AM92">
+        <v>16</v>
+      </c>
+      <c r="AN92">
+        <v>19</v>
+      </c>
+      <c r="AO92">
+        <v>19</v>
+      </c>
+      <c r="AP92">
+        <v>21</v>
+      </c>
+      <c r="AQ92">
+        <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI84">
-        <v>9</v>
-      </c>
-      <c r="AJ84">
-        <v>10</v>
-      </c>
-      <c r="AK84">
-        <v>14</v>
-      </c>
-      <c r="AL84">
-        <v>15</v>
-      </c>
-      <c r="AM84">
-        <v>17</v>
-      </c>
-      <c r="AN84">
-        <v>17</v>
-      </c>
-      <c r="AO84">
-        <v>17</v>
-      </c>
-      <c r="AP84">
-        <v>17</v>
+    <row r="93" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI93">
+        <v>43</v>
+      </c>
+      <c r="AJ93">
+        <v>46</v>
+      </c>
+      <c r="AK93">
+        <v>52</v>
+      </c>
+      <c r="AL93">
+        <v>57</v>
+      </c>
+      <c r="AM93">
+        <v>64</v>
+      </c>
+      <c r="AN93">
+        <v>66</v>
+      </c>
+      <c r="AO93">
+        <v>67</v>
+      </c>
+      <c r="AP93">
+        <v>90</v>
+      </c>
+      <c r="AQ93">
+        <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI85">
-        <v>125</v>
-      </c>
-      <c r="AJ85">
-        <v>130</v>
-      </c>
-      <c r="AK85">
-        <v>140</v>
-      </c>
-      <c r="AL85">
-        <v>153</v>
-      </c>
-      <c r="AM85">
-        <v>166</v>
-      </c>
-      <c r="AN85">
-        <v>178</v>
-      </c>
-      <c r="AO85">
-        <v>184</v>
-      </c>
-      <c r="AP85">
-        <v>191</v>
+    <row r="94" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI94">
+        <v>73</v>
+      </c>
+      <c r="AJ94">
+        <v>75</v>
+      </c>
+      <c r="AK94">
+        <v>80</v>
+      </c>
+      <c r="AL94">
+        <v>91</v>
+      </c>
+      <c r="AM94">
+        <v>96</v>
+      </c>
+      <c r="AN94">
+        <v>100</v>
+      </c>
+      <c r="AO94">
+        <v>100</v>
+      </c>
+      <c r="AP94">
+        <v>106</v>
+      </c>
+      <c r="AQ94">
+        <v>107</v>
       </c>
     </row>
-    <row r="86" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI86">
-        <v>0</v>
-      </c>
-      <c r="AJ86" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AK86" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AL86" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AM86" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AN86" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AO86" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AP86" s="24" t="s">
-        <v>296</v>
+    <row r="95" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI95" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AJ95" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AK95" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AL95" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AM95" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AN95" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO95" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AP95" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ95" s="24" t="s">
+        <v>294</v>
       </c>
     </row>
-    <row r="87" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI87">
-        <v>82</v>
-      </c>
-      <c r="AJ87">
-        <v>86</v>
-      </c>
-      <c r="AK87">
-        <v>93</v>
-      </c>
-      <c r="AL87">
-        <v>99</v>
-      </c>
-      <c r="AM87">
-        <v>102</v>
-      </c>
-      <c r="AN87">
-        <v>107</v>
-      </c>
-      <c r="AO87">
-        <v>114</v>
-      </c>
-      <c r="AP87">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="88" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI88" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AJ88" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AK88" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AL88" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AM88" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AN88" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AO88" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AP88" s="24" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="89" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="8" t="s">
+    <row r="96" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI96">
         <v>54</v>
       </c>
-      <c r="AI89">
-        <v>46</v>
-      </c>
-      <c r="AJ89">
-        <v>47</v>
-      </c>
-      <c r="AK89">
-        <v>47</v>
-      </c>
-      <c r="AL89">
-        <v>53</v>
-      </c>
-      <c r="AM89">
+      <c r="AJ96">
         <v>55</v>
       </c>
-      <c r="AN89">
+      <c r="AK96">
         <v>56</v>
       </c>
-      <c r="AO89">
+      <c r="AL96">
         <v>56</v>
       </c>
-      <c r="AP89">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI90">
-        <v>7</v>
-      </c>
-      <c r="AJ90">
-        <v>7</v>
-      </c>
-      <c r="AK90">
-        <v>7</v>
-      </c>
-      <c r="AL90">
-        <v>8</v>
-      </c>
-      <c r="AM90">
-        <v>8</v>
-      </c>
-      <c r="AN90">
-        <v>8</v>
-      </c>
-      <c r="AO90">
-        <v>8</v>
-      </c>
-      <c r="AP90">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI91">
-        <v>18</v>
-      </c>
-      <c r="AJ91">
-        <v>18</v>
-      </c>
-      <c r="AK91">
-        <v>18</v>
-      </c>
-      <c r="AL91">
-        <v>19</v>
-      </c>
-      <c r="AM91">
-        <v>21</v>
-      </c>
-      <c r="AN91">
-        <v>21</v>
-      </c>
-      <c r="AO91">
-        <v>21</v>
-      </c>
-      <c r="AP91">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI92">
-        <v>44</v>
-      </c>
-      <c r="AJ92">
-        <v>47</v>
-      </c>
-      <c r="AK92">
-        <v>49</v>
-      </c>
-      <c r="AL92">
-        <v>51</v>
-      </c>
-      <c r="AM92">
-        <v>56</v>
-      </c>
-      <c r="AN92">
-        <v>57</v>
-      </c>
-      <c r="AO92">
-        <v>57</v>
-      </c>
-      <c r="AP92">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="93" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI93">
-        <v>13</v>
-      </c>
-      <c r="AJ93">
-        <v>13</v>
-      </c>
-      <c r="AK93">
-        <v>14</v>
-      </c>
-      <c r="AL93">
-        <v>15</v>
-      </c>
-      <c r="AM93">
-        <v>16</v>
-      </c>
-      <c r="AN93">
-        <v>19</v>
-      </c>
-      <c r="AO93">
-        <v>19</v>
-      </c>
-      <c r="AP93">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="94" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI94">
-        <v>43</v>
-      </c>
-      <c r="AJ94">
-        <v>46</v>
-      </c>
-      <c r="AK94">
-        <v>52</v>
-      </c>
-      <c r="AL94">
-        <v>57</v>
-      </c>
-      <c r="AM94">
-        <v>64</v>
-      </c>
-      <c r="AN94">
-        <v>66</v>
-      </c>
-      <c r="AO94">
+      <c r="AM96">
+        <v>60</v>
+      </c>
+      <c r="AN96">
+        <v>65</v>
+      </c>
+      <c r="AO96">
         <v>67</v>
       </c>
-      <c r="AP94">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI95">
+      <c r="AP96">
+        <v>71</v>
+      </c>
+      <c r="AQ96">
         <v>73</v>
-      </c>
-      <c r="AJ95">
-        <v>75</v>
-      </c>
-      <c r="AK95">
-        <v>80</v>
-      </c>
-      <c r="AL95">
-        <v>91</v>
-      </c>
-      <c r="AM95">
-        <v>96</v>
-      </c>
-      <c r="AN95">
-        <v>100</v>
-      </c>
-      <c r="AO95">
-        <v>100</v>
-      </c>
-      <c r="AP95">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI96" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AJ96" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AK96" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AL96" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AM96" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AN96" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AO96" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AP96" s="24" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="97" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="8" t="s">
-        <v>62</v>
+      <c r="A97" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="AI97">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="AJ97">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AK97">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="AL97">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="AM97">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AN97">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AO97">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="AP97">
-        <v>71</v>
+        <v>33</v>
+      </c>
+      <c r="AQ97">
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="6" t="s">
-        <v>63</v>
+      <c r="A98" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="AI98">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AJ98">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AK98">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AL98">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AM98">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AN98">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AO98">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AP98">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="AQ98">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="8" t="s">
-        <v>64</v>
+      <c r="A99" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="AI99">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="AJ99">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="AK99">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="AL99">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="AM99">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="AN99">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="AO99">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="AP99">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="AQ99">
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="6" t="s">
-        <v>65</v>
+      <c r="A100" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="AI100">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="AJ100">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="AK100">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="AL100">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="AM100">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="AN100">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="AO100">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="AP100">
-        <v>134</v>
+        <v>104</v>
+      </c>
+      <c r="AQ100">
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="8" t="s">
-        <v>66</v>
+      <c r="A101" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="AI101">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="AJ101">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="AK101">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="AL101">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="AM101">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="AN101">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="AO101">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="AP101">
-        <v>104</v>
+        <v>37</v>
+      </c>
+      <c r="AQ101">
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI102">
         <v>67</v>
       </c>
-      <c r="AI102">
-        <v>25</v>
-      </c>
       <c r="AJ102">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="AK102">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="AL102">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="AM102">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="AN102">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="AO102">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AP102">
-        <v>37</v>
+        <v>77</v>
+      </c>
+      <c r="AQ102">
+        <v>79</v>
       </c>
     </row>
     <row r="103" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="8" t="s">
-        <v>68</v>
+      <c r="A103" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="AI103">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="AJ103">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="AK103">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="AL103">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="AM103">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="AN103">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AO103">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="AP103">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="AQ103">
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="6" t="s">
-        <v>69</v>
+      <c r="A104" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="AI104">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="AJ104">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="AK104">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="AL104">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="AM104">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="AN104">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="AO104">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="AP104">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="AQ104">
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="8" t="s">
-        <v>70</v>
+      <c r="A105" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="AI105">
-        <v>35</v>
+        <v>1365</v>
       </c>
       <c r="AJ105">
-        <v>36</v>
+        <v>1410</v>
       </c>
       <c r="AK105">
-        <v>37</v>
+        <v>1488</v>
       </c>
       <c r="AL105">
-        <v>38</v>
+        <v>1562</v>
       </c>
       <c r="AM105">
-        <v>39</v>
+        <v>1666</v>
       </c>
       <c r="AN105">
-        <v>39</v>
+        <v>1727</v>
       </c>
       <c r="AO105">
-        <v>39</v>
+        <v>1760</v>
       </c>
       <c r="AP105">
-        <v>43</v>
+        <v>1863</v>
+      </c>
+      <c r="AQ105">
+        <v>1919</v>
       </c>
     </row>
-    <row r="106" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI106">
-        <v>1365</v>
-      </c>
-      <c r="AJ106">
-        <v>1410</v>
-      </c>
-      <c r="AK106">
-        <v>1488</v>
-      </c>
-      <c r="AL106">
-        <v>1562</v>
-      </c>
-      <c r="AM106">
-        <v>1666</v>
-      </c>
-      <c r="AN106">
-        <v>1727</v>
-      </c>
-      <c r="AO106">
-        <v>1760</v>
-      </c>
-      <c r="AP106">
-        <v>1863</v>
-      </c>
+    <row r="106" spans="1:216" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5"/>
+      <c r="S106" s="5"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="5"/>
+      <c r="V106" s="5"/>
+      <c r="W106" s="5"/>
+      <c r="X106" s="5"/>
+      <c r="Y106" s="5"/>
+      <c r="Z106" s="5"/>
+      <c r="AA106" s="5"/>
+      <c r="AB106" s="5"/>
+      <c r="AC106" s="5"/>
+      <c r="AD106" s="5"/>
+      <c r="AE106" s="5"/>
+      <c r="AF106" s="5"/>
+      <c r="AG106" s="5"/>
+      <c r="AH106" s="5"/>
+      <c r="AI106" s="5"/>
+      <c r="AJ106" s="5"/>
+      <c r="AK106" s="5"/>
+      <c r="AL106" s="5"/>
+      <c r="AM106" s="5"/>
+      <c r="AN106" s="5"/>
+      <c r="AO106" s="5"/>
+      <c r="AP106" s="5"/>
+      <c r="AQ106" s="5"/>
+      <c r="AR106" s="5"/>
+      <c r="AS106" s="5"/>
+      <c r="AT106" s="5"/>
+      <c r="AU106" s="5"/>
+      <c r="AV106" s="5"/>
+      <c r="AW106" s="5"/>
+      <c r="AX106" s="5"/>
+      <c r="AY106" s="5"/>
+      <c r="AZ106" s="5"/>
+      <c r="BA106" s="5"/>
+      <c r="BB106" s="5"/>
+      <c r="BC106" s="5"/>
+      <c r="BD106" s="5"/>
+      <c r="BE106" s="5"/>
+      <c r="BF106" s="5"/>
+      <c r="BG106" s="5"/>
+      <c r="BH106" s="5"/>
+      <c r="BI106" s="5"/>
+      <c r="BJ106" s="5"/>
+      <c r="BK106" s="5"/>
+      <c r="BL106" s="5"/>
+      <c r="BM106" s="5"/>
+      <c r="BN106" s="5"/>
+      <c r="BO106" s="5"/>
+      <c r="BP106" s="5"/>
+      <c r="BQ106" s="5"/>
+      <c r="BR106" s="5"/>
+      <c r="BS106" s="5"/>
+      <c r="BT106" s="5"/>
+      <c r="BU106" s="5"/>
+      <c r="BV106" s="5"/>
+      <c r="BW106" s="5"/>
+      <c r="BX106" s="5"/>
+      <c r="BY106" s="5"/>
+      <c r="BZ106" s="5"/>
+      <c r="CA106" s="5"/>
+      <c r="CB106" s="5"/>
+      <c r="CC106" s="5"/>
+      <c r="CD106" s="5"/>
+      <c r="CE106" s="5"/>
+      <c r="CF106" s="5"/>
+      <c r="CG106" s="5"/>
+      <c r="CH106" s="5"/>
+      <c r="CI106" s="5"/>
+      <c r="CJ106" s="5"/>
+      <c r="CK106" s="5"/>
+      <c r="CL106" s="5"/>
+      <c r="CM106" s="5"/>
+      <c r="CN106" s="5"/>
+      <c r="CO106" s="5"/>
+      <c r="CP106" s="5"/>
+      <c r="CQ106" s="5"/>
+      <c r="CR106" s="5"/>
+      <c r="CS106" s="5"/>
+      <c r="CT106" s="5"/>
+      <c r="CU106" s="5"/>
+      <c r="CV106" s="5"/>
+      <c r="CW106" s="5"/>
+      <c r="CX106" s="5"/>
+      <c r="CY106" s="5"/>
+      <c r="CZ106" s="5"/>
+      <c r="DA106" s="5"/>
+      <c r="DB106" s="5"/>
+      <c r="DC106" s="5"/>
+      <c r="DD106" s="5"/>
+      <c r="DE106" s="5"/>
+      <c r="DF106" s="5"/>
+      <c r="DG106" s="5"/>
+      <c r="DH106" s="5"/>
+      <c r="DI106" s="5"/>
+      <c r="DJ106" s="5"/>
+      <c r="DK106" s="5"/>
+      <c r="DL106" s="5"/>
+      <c r="DM106" s="5"/>
+      <c r="DN106" s="5"/>
+      <c r="DO106" s="5"/>
+      <c r="DP106" s="5"/>
+      <c r="DQ106" s="5"/>
+      <c r="DR106" s="5"/>
+      <c r="DS106" s="5"/>
+      <c r="DT106" s="5"/>
+      <c r="DU106" s="5"/>
+      <c r="DV106" s="5"/>
+      <c r="DW106" s="5"/>
+      <c r="DX106" s="5"/>
+      <c r="DY106" s="5"/>
+      <c r="DZ106" s="5"/>
+      <c r="EA106" s="5"/>
+      <c r="EB106" s="5"/>
+      <c r="EC106" s="5"/>
+      <c r="ED106" s="5"/>
+      <c r="EE106" s="5"/>
+      <c r="EF106" s="5"/>
+      <c r="EG106" s="5"/>
+      <c r="EH106" s="5"/>
+      <c r="EI106" s="5"/>
+      <c r="EJ106" s="5"/>
+      <c r="EK106" s="5"/>
+      <c r="EL106" s="5"/>
+      <c r="EM106" s="5"/>
+      <c r="EN106" s="5"/>
+      <c r="EO106" s="5"/>
+      <c r="EP106" s="5"/>
+      <c r="EQ106" s="5"/>
+      <c r="ER106" s="5"/>
+      <c r="ES106" s="5"/>
+      <c r="ET106" s="5"/>
+      <c r="EU106" s="5"/>
+      <c r="EV106" s="5"/>
+      <c r="EW106" s="5"/>
+      <c r="EX106" s="5"/>
+      <c r="EY106" s="5"/>
+      <c r="EZ106" s="5"/>
+      <c r="FA106" s="5"/>
+      <c r="FB106" s="5"/>
+      <c r="FC106" s="5"/>
+      <c r="FD106" s="5"/>
+      <c r="FE106" s="5"/>
+      <c r="FF106" s="5"/>
+      <c r="FG106" s="5"/>
+      <c r="FH106" s="5"/>
+      <c r="FI106" s="5"/>
+      <c r="FJ106" s="5"/>
+      <c r="FK106" s="5"/>
+      <c r="FL106" s="5"/>
+      <c r="FM106" s="5"/>
+      <c r="FN106" s="5"/>
+      <c r="FO106" s="5"/>
+      <c r="FP106" s="5"/>
+      <c r="FQ106" s="5"/>
+      <c r="FR106" s="5"/>
+      <c r="FS106" s="5"/>
+      <c r="FT106" s="5"/>
+      <c r="FU106" s="5"/>
+      <c r="FV106" s="5"/>
+      <c r="FW106" s="5"/>
+      <c r="FX106" s="5"/>
+      <c r="FY106" s="5"/>
+      <c r="FZ106" s="5"/>
+      <c r="GA106" s="5"/>
+      <c r="GB106" s="5"/>
+      <c r="GC106" s="5"/>
+      <c r="GD106" s="5"/>
+      <c r="GE106" s="5"/>
+      <c r="GF106" s="5"/>
+      <c r="GG106" s="5"/>
+      <c r="GH106" s="5"/>
+      <c r="GI106" s="5"/>
+      <c r="GJ106" s="5"/>
+      <c r="GK106" s="5"/>
+      <c r="GL106" s="5"/>
+      <c r="GM106" s="5"/>
+      <c r="GN106" s="5"/>
+      <c r="GO106" s="5"/>
+      <c r="GP106" s="5"/>
+      <c r="GQ106" s="5"/>
+      <c r="GR106" s="5"/>
+      <c r="GS106" s="5"/>
+      <c r="GT106" s="5"/>
+      <c r="GU106" s="5"/>
+      <c r="GV106" s="5"/>
+      <c r="GW106" s="5"/>
+      <c r="GX106" s="5"/>
+      <c r="GY106" s="5"/>
+      <c r="GZ106" s="5"/>
+      <c r="HA106" s="5"/>
+      <c r="HB106" s="5"/>
+      <c r="HC106" s="5"/>
+      <c r="HD106" s="5"/>
+      <c r="HE106" s="5"/>
+      <c r="HF106" s="5"/>
+      <c r="HG106" s="5"/>
+      <c r="HH106" s="5"/>
     </row>
-    <row r="107" spans="1:216" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
-      <c r="O107" s="5"/>
-      <c r="P107" s="5"/>
-      <c r="Q107" s="5"/>
-      <c r="R107" s="5"/>
-      <c r="S107" s="5"/>
-      <c r="T107" s="5"/>
-      <c r="U107" s="5"/>
-      <c r="V107" s="5"/>
-      <c r="W107" s="5"/>
-      <c r="X107" s="5"/>
-      <c r="Y107" s="5"/>
-      <c r="Z107" s="5"/>
-      <c r="AA107" s="5"/>
-      <c r="AB107" s="5"/>
-      <c r="AC107" s="5"/>
-      <c r="AD107" s="5"/>
-      <c r="AE107" s="5"/>
-      <c r="AF107" s="5"/>
-      <c r="AG107" s="5"/>
-      <c r="AH107" s="5"/>
-      <c r="AI107" s="5"/>
-      <c r="AJ107" s="5"/>
-      <c r="AK107" s="5"/>
-      <c r="AL107" s="5"/>
-      <c r="AM107" s="5"/>
-      <c r="AN107" s="5"/>
-      <c r="AO107" s="5"/>
-      <c r="AP107" s="5"/>
-      <c r="AQ107" s="5"/>
-      <c r="AR107" s="5"/>
-      <c r="AS107" s="5"/>
-      <c r="AT107" s="5"/>
-      <c r="AU107" s="5"/>
-      <c r="AV107" s="5"/>
-      <c r="AW107" s="5"/>
-      <c r="AX107" s="5"/>
-      <c r="AY107" s="5"/>
-      <c r="AZ107" s="5"/>
-      <c r="BA107" s="5"/>
-      <c r="BB107" s="5"/>
-      <c r="BC107" s="5"/>
-      <c r="BD107" s="5"/>
-      <c r="BE107" s="5"/>
-      <c r="BF107" s="5"/>
-      <c r="BG107" s="5"/>
-      <c r="BH107" s="5"/>
-      <c r="BI107" s="5"/>
-      <c r="BJ107" s="5"/>
-      <c r="BK107" s="5"/>
-      <c r="BL107" s="5"/>
-      <c r="BM107" s="5"/>
-      <c r="BN107" s="5"/>
-      <c r="BO107" s="5"/>
-      <c r="BP107" s="5"/>
-      <c r="BQ107" s="5"/>
-      <c r="BR107" s="5"/>
-      <c r="BS107" s="5"/>
-      <c r="BT107" s="5"/>
-      <c r="BU107" s="5"/>
-      <c r="BV107" s="5"/>
-      <c r="BW107" s="5"/>
-      <c r="BX107" s="5"/>
-      <c r="BY107" s="5"/>
-      <c r="BZ107" s="5"/>
-      <c r="CA107" s="5"/>
-      <c r="CB107" s="5"/>
-      <c r="CC107" s="5"/>
-      <c r="CD107" s="5"/>
-      <c r="CE107" s="5"/>
-      <c r="CF107" s="5"/>
-      <c r="CG107" s="5"/>
-      <c r="CH107" s="5"/>
-      <c r="CI107" s="5"/>
-      <c r="CJ107" s="5"/>
-      <c r="CK107" s="5"/>
-      <c r="CL107" s="5"/>
-      <c r="CM107" s="5"/>
-      <c r="CN107" s="5"/>
-      <c r="CO107" s="5"/>
-      <c r="CP107" s="5"/>
-      <c r="CQ107" s="5"/>
-      <c r="CR107" s="5"/>
-      <c r="CS107" s="5"/>
-      <c r="CT107" s="5"/>
-      <c r="CU107" s="5"/>
-      <c r="CV107" s="5"/>
-      <c r="CW107" s="5"/>
-      <c r="CX107" s="5"/>
-      <c r="CY107" s="5"/>
-      <c r="CZ107" s="5"/>
-      <c r="DA107" s="5"/>
-      <c r="DB107" s="5"/>
-      <c r="DC107" s="5"/>
-      <c r="DD107" s="5"/>
-      <c r="DE107" s="5"/>
-      <c r="DF107" s="5"/>
-      <c r="DG107" s="5"/>
-      <c r="DH107" s="5"/>
-      <c r="DI107" s="5"/>
-      <c r="DJ107" s="5"/>
-      <c r="DK107" s="5"/>
-      <c r="DL107" s="5"/>
-      <c r="DM107" s="5"/>
-      <c r="DN107" s="5"/>
-      <c r="DO107" s="5"/>
-      <c r="DP107" s="5"/>
-      <c r="DQ107" s="5"/>
-      <c r="DR107" s="5"/>
-      <c r="DS107" s="5"/>
-      <c r="DT107" s="5"/>
-      <c r="DU107" s="5"/>
-      <c r="DV107" s="5"/>
-      <c r="DW107" s="5"/>
-      <c r="DX107" s="5"/>
-      <c r="DY107" s="5"/>
-      <c r="DZ107" s="5"/>
-      <c r="EA107" s="5"/>
-      <c r="EB107" s="5"/>
-      <c r="EC107" s="5"/>
-      <c r="ED107" s="5"/>
-      <c r="EE107" s="5"/>
-      <c r="EF107" s="5"/>
-      <c r="EG107" s="5"/>
-      <c r="EH107" s="5"/>
-      <c r="EI107" s="5"/>
-      <c r="EJ107" s="5"/>
-      <c r="EK107" s="5"/>
-      <c r="EL107" s="5"/>
-      <c r="EM107" s="5"/>
-      <c r="EN107" s="5"/>
-      <c r="EO107" s="5"/>
-      <c r="EP107" s="5"/>
-      <c r="EQ107" s="5"/>
-      <c r="ER107" s="5"/>
-      <c r="ES107" s="5"/>
-      <c r="ET107" s="5"/>
-      <c r="EU107" s="5"/>
-      <c r="EV107" s="5"/>
-      <c r="EW107" s="5"/>
-      <c r="EX107" s="5"/>
-      <c r="EY107" s="5"/>
-      <c r="EZ107" s="5"/>
-      <c r="FA107" s="5"/>
-      <c r="FB107" s="5"/>
-      <c r="FC107" s="5"/>
-      <c r="FD107" s="5"/>
-      <c r="FE107" s="5"/>
-      <c r="FF107" s="5"/>
-      <c r="FG107" s="5"/>
-      <c r="FH107" s="5"/>
-      <c r="FI107" s="5"/>
-      <c r="FJ107" s="5"/>
-      <c r="FK107" s="5"/>
-      <c r="FL107" s="5"/>
-      <c r="FM107" s="5"/>
-      <c r="FN107" s="5"/>
-      <c r="FO107" s="5"/>
-      <c r="FP107" s="5"/>
-      <c r="FQ107" s="5"/>
-      <c r="FR107" s="5"/>
-      <c r="FS107" s="5"/>
-      <c r="FT107" s="5"/>
-      <c r="FU107" s="5"/>
-      <c r="FV107" s="5"/>
-      <c r="FW107" s="5"/>
-      <c r="FX107" s="5"/>
-      <c r="FY107" s="5"/>
-      <c r="FZ107" s="5"/>
-      <c r="GA107" s="5"/>
-      <c r="GB107" s="5"/>
-      <c r="GC107" s="5"/>
-      <c r="GD107" s="5"/>
-      <c r="GE107" s="5"/>
-      <c r="GF107" s="5"/>
-      <c r="GG107" s="5"/>
-      <c r="GH107" s="5"/>
-      <c r="GI107" s="5"/>
-      <c r="GJ107" s="5"/>
-      <c r="GK107" s="5"/>
-      <c r="GL107" s="5"/>
-      <c r="GM107" s="5"/>
-      <c r="GN107" s="5"/>
-      <c r="GO107" s="5"/>
-      <c r="GP107" s="5"/>
-      <c r="GQ107" s="5"/>
-      <c r="GR107" s="5"/>
-      <c r="GS107" s="5"/>
-      <c r="GT107" s="5"/>
-      <c r="GU107" s="5"/>
-      <c r="GV107" s="5"/>
-      <c r="GW107" s="5"/>
-      <c r="GX107" s="5"/>
-      <c r="GY107" s="5"/>
-      <c r="GZ107" s="5"/>
-      <c r="HA107" s="5"/>
-      <c r="HB107" s="5"/>
-      <c r="HC107" s="5"/>
-      <c r="HD107" s="5"/>
-      <c r="HE107" s="5"/>
-      <c r="HF107" s="5"/>
-      <c r="HG107" s="5"/>
-      <c r="HH107" s="5"/>
+    <row r="107" spans="1:216" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI107">
+        <v>0</v>
+      </c>
+      <c r="AJ107">
+        <v>0</v>
+      </c>
+      <c r="AK107">
+        <v>0</v>
+      </c>
+      <c r="AL107">
+        <v>0</v>
+      </c>
+      <c r="AM107">
+        <v>0</v>
+      </c>
+      <c r="AN107">
+        <v>0</v>
+      </c>
+      <c r="AO107">
+        <v>0</v>
+      </c>
+      <c r="AP107">
+        <v>0</v>
+      </c>
+      <c r="AQ107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI108">
         <v>0</v>
@@ -45325,12 +45901,15 @@
         <v>0</v>
       </c>
       <c r="AP108">
+        <v>0</v>
+      </c>
+      <c r="AQ108">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI109">
         <v>0</v>
@@ -45354,12 +45933,15 @@
         <v>0</v>
       </c>
       <c r="AP109">
+        <v>0</v>
+      </c>
+      <c r="AQ109">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI110">
         <v>0</v>
@@ -45383,268 +45965,365 @@
         <v>0</v>
       </c>
       <c r="AP110">
+        <v>0</v>
+      </c>
+      <c r="AQ110">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI111">
-        <v>0</v>
-      </c>
-      <c r="AJ111">
-        <v>0</v>
-      </c>
-      <c r="AK111">
-        <v>0</v>
-      </c>
-      <c r="AL111">
-        <v>0</v>
-      </c>
-      <c r="AM111">
-        <v>0</v>
-      </c>
-      <c r="AN111">
-        <v>0</v>
-      </c>
-      <c r="AO111">
-        <v>0</v>
-      </c>
-      <c r="AP111">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="AI111" s="24">
+        <v>3</v>
+      </c>
+      <c r="AJ111" s="24">
+        <v>3</v>
+      </c>
+      <c r="AK111" s="24">
+        <v>3</v>
+      </c>
+      <c r="AL111" s="24">
+        <v>3</v>
+      </c>
+      <c r="AM111" s="24">
+        <v>3</v>
+      </c>
+      <c r="AN111" s="24">
+        <v>3</v>
+      </c>
+      <c r="AO111" s="24">
+        <v>3</v>
+      </c>
+      <c r="AP111" s="24">
+        <v>3</v>
+      </c>
+      <c r="AQ111" s="24">
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI112" s="24">
-        <v>3</v>
-      </c>
-      <c r="AJ112" s="24">
-        <v>3</v>
-      </c>
-      <c r="AK112" s="24">
-        <v>3</v>
-      </c>
-      <c r="AL112" s="24">
-        <v>3</v>
-      </c>
-      <c r="AM112" s="24">
-        <v>3</v>
-      </c>
-      <c r="AN112" s="24">
-        <v>3</v>
-      </c>
-      <c r="AO112" s="24">
-        <v>3</v>
-      </c>
-      <c r="AP112" s="24">
-        <v>3</v>
+        <v>91</v>
+      </c>
+      <c r="AI112">
+        <v>11</v>
+      </c>
+      <c r="AJ112">
+        <v>11</v>
+      </c>
+      <c r="AK112">
+        <v>11</v>
+      </c>
+      <c r="AL112">
+        <v>11</v>
+      </c>
+      <c r="AM112">
+        <v>12</v>
+      </c>
+      <c r="AN112">
+        <v>12</v>
+      </c>
+      <c r="AO112">
+        <v>12</v>
+      </c>
+      <c r="AP112">
+        <v>12</v>
+      </c>
+      <c r="AQ112">
+        <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI113">
+        <v>24</v>
+      </c>
+      <c r="AJ113">
+        <v>25</v>
+      </c>
+      <c r="AK113">
+        <v>26</v>
+      </c>
+      <c r="AL113">
+        <v>27</v>
+      </c>
+      <c r="AM113">
+        <v>29</v>
+      </c>
+      <c r="AN113">
+        <v>31</v>
+      </c>
+      <c r="AO113">
+        <v>31</v>
+      </c>
+      <c r="AP113">
+        <v>32</v>
+      </c>
+      <c r="AQ113">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI114">
+        <v>96</v>
+      </c>
+      <c r="AJ114">
+        <v>96</v>
+      </c>
+      <c r="AK114">
+        <v>105</v>
+      </c>
+      <c r="AL114">
+        <v>111</v>
+      </c>
+      <c r="AM114">
+        <v>119</v>
+      </c>
+      <c r="AN114">
+        <v>123</v>
+      </c>
+      <c r="AO114">
+        <v>129</v>
+      </c>
+      <c r="AP114">
+        <v>136</v>
+      </c>
+      <c r="AQ114">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI115">
+        <v>219</v>
+      </c>
+      <c r="AJ115">
+        <v>225</v>
+      </c>
+      <c r="AK115">
+        <v>241</v>
+      </c>
+      <c r="AL115">
+        <v>257</v>
+      </c>
+      <c r="AM115">
+        <v>274</v>
+      </c>
+      <c r="AN115">
+        <v>284</v>
+      </c>
+      <c r="AO115">
+        <v>289</v>
+      </c>
+      <c r="AP115">
+        <v>309</v>
+      </c>
+      <c r="AQ115">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="116" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI116">
+        <v>1011</v>
+      </c>
+      <c r="AJ116">
+        <v>1049</v>
+      </c>
+      <c r="AK116">
+        <v>1101</v>
+      </c>
+      <c r="AL116">
+        <v>1152</v>
+      </c>
+      <c r="AM116">
+        <v>1228</v>
+      </c>
+      <c r="AN116">
+        <v>1273</v>
+      </c>
+      <c r="AO116">
+        <v>1295</v>
+      </c>
+      <c r="AP116">
+        <v>1370</v>
+      </c>
+      <c r="AQ116">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="117" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI117">
+        <v>1</v>
+      </c>
+      <c r="AJ117">
+        <v>1</v>
+      </c>
+      <c r="AK117">
+        <v>1</v>
+      </c>
+      <c r="AL117" s="24">
+        <v>1</v>
+      </c>
+      <c r="AM117" s="24">
+        <v>1</v>
+      </c>
+      <c r="AN117" s="24">
+        <v>1</v>
+      </c>
+      <c r="AO117" s="24">
+        <v>1</v>
+      </c>
+      <c r="AP117" s="24">
+        <v>1</v>
+      </c>
+      <c r="AQ117" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>310</v>
+      </c>
+      <c r="B118" t="s">
+        <v>101</v>
+      </c>
+      <c r="C118" t="s">
+        <v>101</v>
+      </c>
+      <c r="D118" t="s">
+        <v>101</v>
+      </c>
+      <c r="E118" t="s">
+        <v>101</v>
+      </c>
+      <c r="F118" t="s">
+        <v>101</v>
+      </c>
+      <c r="G118" t="s">
+        <v>101</v>
+      </c>
+      <c r="H118" t="s">
+        <v>101</v>
+      </c>
+      <c r="I118">
+        <v>63</v>
+      </c>
+      <c r="J118">
+        <v>74</v>
+      </c>
+      <c r="K118">
         <v>91</v>
       </c>
-      <c r="AI113">
-        <v>11</v>
-      </c>
-      <c r="AJ113">
-        <v>11</v>
-      </c>
-      <c r="AK113">
-        <v>11</v>
-      </c>
-      <c r="AL113">
-        <v>11</v>
-      </c>
-      <c r="AM113">
-        <v>12</v>
-      </c>
-      <c r="AN113">
-        <v>12</v>
-      </c>
-      <c r="AO113">
-        <v>12</v>
-      </c>
-      <c r="AP113">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI114">
-        <v>24</v>
-      </c>
-      <c r="AJ114">
-        <v>25</v>
-      </c>
-      <c r="AK114">
-        <v>26</v>
-      </c>
-      <c r="AL114">
-        <v>27</v>
-      </c>
-      <c r="AM114">
-        <v>29</v>
-      </c>
-      <c r="AN114">
-        <v>31</v>
-      </c>
-      <c r="AO114">
-        <v>31</v>
-      </c>
-      <c r="AP114">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="115" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI115">
-        <v>96</v>
-      </c>
-      <c r="AJ115">
-        <v>96</v>
-      </c>
-      <c r="AK115">
-        <v>105</v>
-      </c>
-      <c r="AL115">
-        <v>111</v>
-      </c>
-      <c r="AM115">
-        <v>119</v>
-      </c>
-      <c r="AN115">
-        <v>123</v>
-      </c>
-      <c r="AO115">
-        <v>129</v>
-      </c>
-      <c r="AP115">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="116" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI116">
-        <v>219</v>
-      </c>
-      <c r="AJ116">
-        <v>225</v>
-      </c>
-      <c r="AK116">
-        <v>241</v>
-      </c>
-      <c r="AL116">
-        <v>257</v>
-      </c>
-      <c r="AM116">
-        <v>274</v>
-      </c>
-      <c r="AN116">
-        <v>284</v>
-      </c>
-      <c r="AO116">
-        <v>289</v>
-      </c>
-      <c r="AP116">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="117" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI117">
-        <v>1011</v>
-      </c>
-      <c r="AJ117">
-        <v>1049</v>
-      </c>
-      <c r="AK117">
-        <v>1101</v>
-      </c>
-      <c r="AL117">
-        <v>1152</v>
-      </c>
-      <c r="AM117">
-        <v>1228</v>
-      </c>
-      <c r="AN117">
-        <v>1273</v>
-      </c>
-      <c r="AO117">
-        <v>1295</v>
-      </c>
-      <c r="AP117">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="118" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>96</v>
+      <c r="L118">
+        <v>100</v>
+      </c>
+      <c r="M118">
+        <v>135</v>
+      </c>
+      <c r="N118">
+        <v>147</v>
+      </c>
+      <c r="O118">
+        <v>162</v>
+      </c>
+      <c r="P118">
+        <v>218</v>
+      </c>
+      <c r="Q118">
+        <v>242</v>
+      </c>
+      <c r="R118">
+        <v>332</v>
+      </c>
+      <c r="S118">
+        <v>391</v>
+      </c>
+      <c r="T118">
+        <v>454</v>
+      </c>
+      <c r="U118">
+        <v>513</v>
+      </c>
+      <c r="V118">
+        <v>525</v>
+      </c>
+      <c r="W118">
+        <v>583</v>
+      </c>
+      <c r="X118">
+        <v>647</v>
+      </c>
+      <c r="Y118">
+        <v>741</v>
+      </c>
+      <c r="Z118">
+        <v>808</v>
+      </c>
+      <c r="AA118">
+        <v>895</v>
+      </c>
+      <c r="AB118">
+        <v>938</v>
+      </c>
+      <c r="AC118">
+        <v>983</v>
+      </c>
+      <c r="AD118">
+        <v>1039</v>
+      </c>
+      <c r="AE118" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF118" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG118">
+        <v>1245</v>
+      </c>
+      <c r="AH118">
+        <v>1312</v>
       </c>
       <c r="AI118">
-        <v>1</v>
+        <v>1365</v>
       </c>
       <c r="AJ118">
-        <v>1</v>
+        <v>1410</v>
       </c>
       <c r="AK118">
-        <v>1</v>
-      </c>
-      <c r="AL118" s="24">
-        <v>1</v>
-      </c>
-      <c r="AM118" s="24">
-        <v>1</v>
-      </c>
-      <c r="AN118" s="24">
-        <v>1</v>
-      </c>
-      <c r="AO118" s="24">
-        <v>1</v>
-      </c>
-      <c r="AP118" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI119">
-        <v>1365</v>
-      </c>
-      <c r="AJ119">
-        <v>1410</v>
-      </c>
-      <c r="AK119">
         <v>1488</v>
       </c>
-      <c r="AL119">
+      <c r="AL118">
         <v>1562</v>
       </c>
-      <c r="AM119" t="s">
-        <v>300</v>
-      </c>
-      <c r="AN119">
+      <c r="AM118" t="s">
+        <v>298</v>
+      </c>
+      <c r="AN118">
         <v>1727</v>
       </c>
-      <c r="AO119">
+      <c r="AO118">
         <v>1760</v>
       </c>
-      <c r="AP119">
+      <c r="AP118">
         <v>1863</v>
+      </c>
+      <c r="AQ118">
+        <v>1919</v>
       </c>
     </row>
   </sheetData>
@@ -45672,13 +46351,13 @@
         <v>86</v>
       </c>
       <c r="B1">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E1">
         <v>0</v>
@@ -45692,13 +46371,13 @@
         <v>87</v>
       </c>
       <c r="B2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -45712,13 +46391,13 @@
         <v>88</v>
       </c>
       <c r="B3">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="C3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D3" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -45731,14 +46410,14 @@
       <c r="A4" t="s">
         <v>89</v>
       </c>
-      <c r="B4" t="s">
-        <v>316</v>
+      <c r="B4">
+        <v>2081</v>
       </c>
       <c r="C4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -45751,120 +46430,120 @@
       <c r="A5" t="s">
         <v>90</v>
       </c>
-      <c r="B5" t="s">
-        <v>318</v>
+      <c r="B5">
+        <v>2401</v>
       </c>
       <c r="C5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>91</v>
       </c>
-      <c r="B6" t="s">
-        <v>320</v>
+      <c r="B6">
+        <v>2705</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E6">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>92</v>
       </c>
-      <c r="B7" t="s">
-        <v>323</v>
+      <c r="B7">
+        <v>2480</v>
       </c>
       <c r="C7" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="D7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>93</v>
       </c>
-      <c r="B8" t="s">
-        <v>327</v>
+      <c r="B8">
+        <v>1697</v>
       </c>
       <c r="C8" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="D8" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F8" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>331</v>
+      <c r="B9" s="2">
+        <v>1847</v>
       </c>
       <c r="C9" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="D9" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E9">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="F9" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>95</v>
       </c>
-      <c r="B10" t="s">
-        <v>334</v>
+      <c r="B10">
+        <v>5292</v>
       </c>
       <c r="C10" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="D10" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E10" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F10" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -45872,39 +46551,44 @@
         <v>96</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>97</v>
       </c>
-      <c r="B12" t="s">
-        <v>309</v>
+      <c r="B12">
+        <v>19492</v>
       </c>
       <c r="C12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D12" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="E12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F12" t="s">
-        <v>338</v>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/app/data/covid19_MTL.xlsx
+++ b/app/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E992CAF-9B91-4928-A68A-ECEFB897D485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483947F8-06A0-4929-A606-F7752A75ED63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="390" windowWidth="38620" windowHeight="20740" tabRatio="585" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="-110" yWindow="390" windowWidth="38620" windowHeight="20740" tabRatio="585" activeTab="2" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="331">
   <si>
     <t>borough</t>
   </si>
@@ -943,9 +943,6 @@
     <t>30 AVRIL, 18h30</t>
   </si>
   <si>
-    <t>n.p.</t>
-  </si>
-  <si>
     <t>0,8</t>
   </si>
   <si>
@@ -967,9 +964,6 @@
     <t>5 MAI, 18h04</t>
   </si>
   <si>
-    <t>2,9</t>
-  </si>
-  <si>
     <t>1 666</t>
   </si>
   <si>
@@ -985,9 +979,6 @@
     <t>0,9</t>
   </si>
   <si>
-    <t>10,7</t>
-  </si>
-  <si>
     <t>9 MAI, 18h04</t>
   </si>
   <si>
@@ -997,82 +988,85 @@
     <t>8,7</t>
   </si>
   <si>
-    <t> 286,1</t>
-  </si>
-  <si>
-    <t>1 919</t>
-  </si>
-  <si>
     <t>10 MAI, 18h05</t>
   </si>
   <si>
     <t>Total deaths</t>
   </si>
   <si>
-    <t> 166,0</t>
-  </si>
-  <si>
-    <t>150,0</t>
-  </si>
-  <si>
-    <t> 646,1</t>
-  </si>
-  <si>
     <t>12,4</t>
-  </si>
-  <si>
-    <t>730,8</t>
-  </si>
-  <si>
-    <t>13,9</t>
-  </si>
-  <si>
-    <t>971,8</t>
   </si>
   <si>
     <t>4,3</t>
   </si>
   <si>
-    <t>966,2</t>
-  </si>
-  <si>
-    <t>* 12,9</t>
-  </si>
-  <si>
-    <t>783,6</t>
-  </si>
-  <si>
-    <t>63,7</t>
-  </si>
-  <si>
     <t>9,5</t>
   </si>
   <si>
-    <t> 1 276,4</t>
+    <t>2 003</t>
   </si>
   <si>
-    <t> 221,1</t>
+    <t>11 MAI, 18h05</t>
   </si>
   <si>
-    <t>27,3</t>
+    <t> 167,8</t>
   </si>
   <si>
-    <t>5 237,5</t>
+    <t>154,7</t>
   </si>
   <si>
-    <t>1 412</t>
+    <t> 295,1</t>
   </si>
   <si>
-    <t> 1 397,5</t>
+    <t>10,8</t>
   </si>
   <si>
-    <t>943,6</t>
+    <t> 661,9</t>
   </si>
   <si>
-    <t> 92,9</t>
+    <t>749,1</t>
   </si>
   <si>
-    <t>¹Source : Fichier V10 en date du 10 mai 18 h 05</t>
+    <t>992,7</t>
+  </si>
+  <si>
+    <t>984,9</t>
+  </si>
+  <si>
+    <t>13,2</t>
+  </si>
+  <si>
+    <t>798,4</t>
+  </si>
+  <si>
+    <t>65,1</t>
+  </si>
+  <si>
+    <t> 1 300,6</t>
+  </si>
+  <si>
+    <t> 234,3</t>
+  </si>
+  <si>
+    <t>27,1</t>
+  </si>
+  <si>
+    <t>5 310,7</t>
+  </si>
+  <si>
+    <t>1 474</t>
+  </si>
+  <si>
+    <t> 1 458,8</t>
+  </si>
+  <si>
+    <t>962,3</t>
+  </si>
+  <si>
+    <t> 97,0</t>
+  </si>
+  <si>
+    <t>¹Source : Fichier V10 en date du 11 mai 18 h 05</t>
   </si>
 </sst>
 </file>
@@ -1586,20 +1580,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:AR35"/>
+  <dimension ref="A1:AS35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AC60" sqref="AC60"/>
+    <sheetView topLeftCell="R1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AO43" sqref="AO43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="44" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="45" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1732,8 +1726,11 @@
       <c r="AR1" s="19">
         <v>43961</v>
       </c>
+      <c r="AS1" s="19">
+        <v>43962</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1866,8 +1863,11 @@
       <c r="AR2">
         <v>1610</v>
       </c>
+      <c r="AS2">
+        <v>1645</v>
+      </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2000,8 +2000,11 @@
       <c r="AR3">
         <v>453</v>
       </c>
+      <c r="AS3">
+        <v>455</v>
+      </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2134,8 +2137,11 @@
       <c r="AR4">
         <v>11</v>
       </c>
+      <c r="AS4">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2268,8 +2274,11 @@
       <c r="AR5">
         <v>49</v>
       </c>
+      <c r="AS5">
+        <v>51</v>
+      </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2402,8 +2411,11 @@
       <c r="AR6">
         <v>1588</v>
       </c>
+      <c r="AS6">
+        <v>1616</v>
+      </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -2536,8 +2548,11 @@
       <c r="AR7">
         <v>401</v>
       </c>
+      <c r="AS7">
+        <v>405</v>
+      </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -2670,8 +2685,11 @@
       <c r="AR8">
         <v>283</v>
       </c>
+      <c r="AS8">
+        <v>290</v>
+      </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -2804,8 +2822,11 @@
       <c r="AR9">
         <v>146</v>
       </c>
+      <c r="AS9">
+        <v>147</v>
+      </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -2938,8 +2959,11 @@
       <c r="AR10">
         <v>48</v>
       </c>
+      <c r="AS10">
+        <v>48</v>
+      </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -3072,8 +3096,11 @@
       <c r="AR11">
         <v>83</v>
       </c>
+      <c r="AS11">
+        <v>85</v>
+      </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3206,8 +3233,11 @@
       <c r="AR12">
         <v>409</v>
       </c>
+      <c r="AS12">
+        <v>417</v>
+      </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3340,8 +3370,11 @@
       <c r="AR13">
         <v>938</v>
       </c>
+      <c r="AS13">
+        <v>946</v>
+      </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3474,8 +3507,11 @@
       <c r="AR14">
         <v>139</v>
       </c>
+      <c r="AS14">
+        <v>143</v>
+      </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3608,8 +3644,11 @@
       <c r="AR15">
         <v>1502</v>
       </c>
+      <c r="AS15">
+        <v>1552</v>
+      </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -3742,8 +3781,11 @@
       <c r="AR16">
         <v>25</v>
       </c>
+      <c r="AS16">
+        <v>27</v>
+      </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3876,8 +3918,11 @@
       <c r="AR17">
         <v>1791</v>
       </c>
+      <c r="AS17">
+        <v>1820</v>
+      </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -4010,8 +4055,11 @@
       <c r="AR18">
         <v>16</v>
       </c>
+      <c r="AS18">
+        <v>16</v>
+      </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -4144,8 +4192,11 @@
       <c r="AR19">
         <v>225</v>
       </c>
+      <c r="AS19">
+        <v>226</v>
+      </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4278,8 +4329,11 @@
       <c r="AR20">
         <v>220</v>
       </c>
+      <c r="AS20">
+        <v>222</v>
+      </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4412,8 +4466,11 @@
       <c r="AR21">
         <v>368</v>
       </c>
+      <c r="AS21">
+        <v>377</v>
+      </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4546,8 +4603,11 @@
       <c r="AR22">
         <v>696</v>
       </c>
+      <c r="AS22">
+        <v>710</v>
+      </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -4680,8 +4740,11 @@
       <c r="AR23">
         <v>143</v>
       </c>
+      <c r="AS23">
+        <v>145</v>
+      </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4814,8 +4877,11 @@
       <c r="AR24">
         <v>1466</v>
       </c>
+      <c r="AS24">
+        <v>1525</v>
+      </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4948,8 +5014,11 @@
       <c r="AR25">
         <v>1092</v>
       </c>
+      <c r="AS25">
+        <v>1103</v>
+      </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -5082,8 +5151,11 @@
       <c r="AR26">
         <v>16</v>
       </c>
+      <c r="AS26">
+        <v>16</v>
+      </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5216,8 +5288,11 @@
       <c r="AR27">
         <v>688</v>
       </c>
+      <c r="AS27">
+        <v>710</v>
+      </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5350,8 +5425,11 @@
       <c r="AR28">
         <v>766</v>
       </c>
+      <c r="AS28">
+        <v>783</v>
+      </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -5484,8 +5562,11 @@
       <c r="AR29">
         <v>2</v>
       </c>
+      <c r="AS29">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5618,8 +5699,11 @@
       <c r="AR30">
         <v>719</v>
       </c>
+      <c r="AS30">
+        <v>727</v>
+      </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5752,8 +5836,11 @@
       <c r="AR31">
         <v>762</v>
       </c>
+      <c r="AS31">
+        <v>768</v>
+      </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5886,8 +5973,11 @@
       <c r="AR32">
         <v>527</v>
       </c>
+      <c r="AS32">
+        <v>539</v>
+      </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -6020,8 +6110,11 @@
       <c r="AR33">
         <v>1387</v>
       </c>
+      <c r="AS33">
+        <v>1411</v>
+      </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -6154,8 +6247,11 @@
       <c r="AR34">
         <v>143</v>
       </c>
+      <c r="AS34">
+        <v>149</v>
+      </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -6287,6 +6383,9 @@
       </c>
       <c r="AR35">
         <v>781</v>
+      </c>
+      <c r="AS35">
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -6297,11 +6396,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:AR34"/>
+  <dimension ref="A1:AS34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR1" sqref="AR1"/>
+      <selection pane="topRight" activeCell="AT8" sqref="AT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6309,10 +6408,10 @@
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="27" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="42" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="45" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6466,8 +6565,11 @@
       <c r="AR1" s="1">
         <v>43961</v>
       </c>
+      <c r="AS1" s="1">
+        <v>43962</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6639,8 +6741,12 @@
         <f>cases!AR2/(population_2016!$B2/1000)</f>
         <v>11.992997877015902</v>
       </c>
+      <c r="AS2" s="3">
+        <f>cases!AS2/(population_2016!$B2/1000)</f>
+        <v>12.253715222168424</v>
+      </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6812,8 +6918,12 @@
         <f>cases!AR3/(population_2016!$B3/1000)</f>
         <v>10.585101411346855</v>
       </c>
+      <c r="AS3" s="3">
+        <f>cases!AS3/(population_2016!$B3/1000)</f>
+        <v>10.631834750911301</v>
+      </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -6985,8 +7095,12 @@
         <f>cases!AR4/(population_2016!$B4/1000)</f>
         <v>2.8773214752811929</v>
       </c>
+      <c r="AS4" s="3">
+        <f>cases!AS4/(population_2016!$B4/1000)</f>
+        <v>2.8773214752811929</v>
+      </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -7158,8 +7272,12 @@
         <f>cases!AR5/(population_2016!$B5/1000)</f>
         <v>2.535706892982819</v>
       </c>
+      <c r="AS5" s="3">
+        <f>cases!AS5/(population_2016!$B5/1000)</f>
+        <v>2.6392051335127302</v>
+      </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7331,8 +7449,12 @@
         <f>cases!AR6/(population_2016!$B6/1000)</f>
         <v>9.5363920249819838</v>
       </c>
+      <c r="AS6" s="3">
+        <f>cases!AS6/(population_2016!$B6/1000)</f>
+        <v>9.7045399951957716</v>
+      </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -7504,8 +7626,12 @@
         <f>cases!AR7/(population_2016!$B7/1000)</f>
         <v>12.358234714003945</v>
       </c>
+      <c r="AS7" s="3">
+        <f>cases!AS7/(population_2016!$B7/1000)</f>
+        <v>12.481508875739644</v>
+      </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -7677,8 +7803,12 @@
         <f>cases!AR8/(population_2016!$B8/1000)</f>
         <v>5.7874394159389757</v>
       </c>
+      <c r="AS8" s="3">
+        <f>cases!AS8/(population_2016!$B8/1000)</f>
+        <v>5.9305916276406467</v>
+      </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -7850,8 +7980,12 @@
         <f>cases!AR9/(population_2016!$B9/1000)</f>
         <v>7.6923076923076925</v>
       </c>
+      <c r="AS9" s="3">
+        <f>cases!AS9/(population_2016!$B9/1000)</f>
+        <v>7.7449947312961012</v>
+      </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -8023,8 +8157,12 @@
         <f>cases!AR10/(population_2016!$B10/1000)</f>
         <v>6.8836942492470961</v>
       </c>
+      <c r="AS10" s="3">
+        <f>cases!AS10/(population_2016!$B10/1000)</f>
+        <v>6.8836942492470961</v>
+      </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -8196,8 +8334,12 @@
         <f>cases!AR11/(population_2016!$B11/1000)</f>
         <v>4.1189022877276562</v>
       </c>
+      <c r="AS11" s="3">
+        <f>cases!AS11/(population_2016!$B11/1000)</f>
+        <v>4.2181529452632622</v>
+      </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -8369,8 +8511,12 @@
         <f>cases!AR12/(population_2016!$B12/1000)</f>
         <v>9.1932837330576103</v>
       </c>
+      <c r="AS12" s="3">
+        <f>cases!AS12/(population_2016!$B12/1000)</f>
+        <v>9.3731034637775643</v>
+      </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -8542,8 +8688,12 @@
         <f>cases!AR13/(population_2016!$B13/1000)</f>
         <v>12.205118863284453</v>
       </c>
+      <c r="AS13" s="3">
+        <f>cases!AS13/(population_2016!$B13/1000)</f>
+        <v>12.309213693674939</v>
+      </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -8715,8 +8865,12 @@
         <f>cases!AR14/(population_2016!$B14/1000)</f>
         <v>7.5490142833867377</v>
       </c>
+      <c r="AS14" s="3">
+        <f>cases!AS14/(population_2016!$B14/1000)</f>
+        <v>7.7662521044913921</v>
+      </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -8888,8 +9042,12 @@
         <f>cases!AR15/(population_2016!$B15/1000)</f>
         <v>11.042169028994882</v>
       </c>
+      <c r="AS15" s="3">
+        <f>cases!AS15/(population_2016!$B15/1000)</f>
+        <v>11.409751220372875</v>
+      </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -9061,8 +9219,12 @@
         <f>cases!AR16/(population_2016!$B16/1000)</f>
         <v>6.4935064935064934</v>
       </c>
+      <c r="AS16" s="3">
+        <f>cases!AS16/(population_2016!$B16/1000)</f>
+        <v>7.0129870129870131</v>
+      </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -9234,8 +9396,12 @@
         <f>cases!AR17/(population_2016!$B17/1000)</f>
         <v>21.262198162262269</v>
       </c>
+      <c r="AS17" s="3">
+        <f>cases!AS17/(population_2016!$B17/1000)</f>
+        <v>21.606477194482039</v>
+      </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -9407,8 +9573,12 @@
         <f>cases!AR18/(population_2016!$B18/1000)</f>
         <v>3.1683168316831685</v>
       </c>
+      <c r="AS18" s="3">
+        <f>cases!AS18/(population_2016!$B18/1000)</f>
+        <v>3.1683168316831685</v>
+      </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -9580,8 +9750,12 @@
         <f>cases!AR19/(population_2016!$B19/1000)</f>
         <v>11.096863286644309</v>
       </c>
+      <c r="AS19" s="3">
+        <f>cases!AS19/(population_2016!$B19/1000)</f>
+        <v>11.146182679029394</v>
+      </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -9753,8 +9927,12 @@
         <f>cases!AR20/(population_2016!$B20/1000)</f>
         <v>9.1842698505468814</v>
       </c>
+      <c r="AS20" s="3">
+        <f>cases!AS20/(population_2016!$B20/1000)</f>
+        <v>9.2677632128245797</v>
+      </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -9926,8 +10104,12 @@
         <f>cases!AR21/(population_2016!$B21/1000)</f>
         <v>5.3104752009466498</v>
       </c>
+      <c r="AS21" s="3">
+        <f>cases!AS21/(population_2016!$B21/1000)</f>
+        <v>5.4403509531437146</v>
+      </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -10099,8 +10281,12 @@
         <f>cases!AR22/(population_2016!$B22/1000)</f>
         <v>6.6923076923076925</v>
       </c>
+      <c r="AS22" s="3">
+        <f>cases!AS22/(population_2016!$B22/1000)</f>
+        <v>6.8269230769230766</v>
+      </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -10272,8 +10458,12 @@
         <f>cases!AR23/(population_2016!$B23/1000)</f>
         <v>4.5570427023581903</v>
       </c>
+      <c r="AS23" s="3">
+        <f>cases!AS23/(population_2016!$B23/1000)</f>
+        <v>4.6207775653282344</v>
+      </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -10445,8 +10635,12 @@
         <f>cases!AR24/(population_2016!$B24/1000)</f>
         <v>13.73392166231041</v>
       </c>
+      <c r="AS24" s="3">
+        <f>cases!AS24/(population_2016!$B24/1000)</f>
+        <v>14.286651115295617</v>
+      </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -10618,8 +10812,12 @@
         <f>cases!AR25/(population_2016!$B25/1000)</f>
         <v>7.8229099505695245</v>
       </c>
+      <c r="AS25" s="3">
+        <f>cases!AS25/(population_2016!$B25/1000)</f>
+        <v>7.901712157031306</v>
+      </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -10791,8 +10989,12 @@
         <f>cases!AR26/(population_2016!$B26/1000)</f>
         <v>3.227107704719645</v>
       </c>
+      <c r="AS26" s="3">
+        <f>cases!AS26/(population_2016!$B26/1000)</f>
+        <v>3.227107704719645</v>
+      </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -10964,8 +11166,12 @@
         <f>cases!AR27/(population_2016!$B27/1000)</f>
         <v>6.9615898328408949</v>
       </c>
+      <c r="AS27" s="3">
+        <f>cases!AS27/(population_2016!$B27/1000)</f>
+        <v>7.1841988100538305</v>
+      </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -11137,8 +11343,12 @@
         <f>cases!AR28/(population_2016!$B28/1000)</f>
         <v>9.7822616691143605</v>
       </c>
+      <c r="AS28" s="3">
+        <f>cases!AS28/(population_2016!$B28/1000)</f>
+        <v>9.9993614711704222</v>
+      </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -11310,8 +11520,12 @@
         <f>cases!AR29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
+      <c r="AS29" s="3">
+        <f>cases!AS29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -11483,8 +11697,12 @@
         <f>cases!AR30/(population_2016!$B30/1000)</f>
         <v>9.2001381940090337</v>
       </c>
+      <c r="AS30" s="3">
+        <f>cases!AS30/(population_2016!$B30/1000)</f>
+        <v>9.3025041266266584</v>
+      </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -11656,8 +11874,12 @@
         <f>cases!AR31/(population_2016!$B31/1000)</f>
         <v>11.006947955336637</v>
       </c>
+      <c r="AS31" s="3">
+        <f>cases!AS31/(population_2016!$B31/1000)</f>
+        <v>11.09361683687472</v>
+      </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -11829,8 +12051,12 @@
         <f>cases!AR32/(population_2016!$B32/1000)</f>
         <v>5.9100594370303909</v>
       </c>
+      <c r="AS32" s="3">
+        <f>cases!AS32/(population_2016!$B32/1000)</f>
+        <v>6.0446338454637205</v>
+      </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -12002,8 +12228,12 @@
         <f>cases!AR33/(population_2016!$B33/1000)</f>
         <v>9.6417871021111825</v>
       </c>
+      <c r="AS33" s="3">
+        <f>cases!AS33/(population_2016!$B33/1000)</f>
+        <v>9.80862408152767</v>
+      </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -12174,6 +12404,10 @@
       <c r="AR34" s="3">
         <f>cases!AR34/(population_2016!$B34/1000)</f>
         <v>7.040173296573454</v>
+      </c>
+      <c r="AS34" s="3">
+        <f>cases!AS34/(population_2016!$B34/1000)</f>
+        <v>7.3355651831429691</v>
       </c>
     </row>
   </sheetData>
@@ -12183,11 +12417,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AS58"/>
+  <dimension ref="A1:AS59"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AT45" sqref="AT45"/>
+      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14907,11 +15141,11 @@
       </c>
       <c r="B20" s="17">
         <f>mtl_newcases!C21</f>
-        <v>2962</v>
+        <v>2963</v>
       </c>
       <c r="C20" s="17">
         <f t="shared" si="0"/>
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>101</v>
@@ -15081,7 +15315,7 @@
       </c>
       <c r="C21" s="17">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>101</v>
@@ -15417,11 +15651,11 @@
       </c>
       <c r="B23" s="17">
         <f>mtl_newcases!C24</f>
-        <v>3917</v>
+        <v>3919</v>
       </c>
       <c r="C23" s="17">
         <f t="shared" si="0"/>
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>101</v>
@@ -15587,11 +15821,11 @@
       </c>
       <c r="B24" s="17">
         <f>mtl_newcases!C25</f>
-        <v>4373</v>
+        <v>4377</v>
       </c>
       <c r="C24" s="17">
         <f t="shared" si="0"/>
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D24">
         <v>63</v>
@@ -15757,11 +15991,11 @@
       </c>
       <c r="B25" s="17">
         <f>mtl_newcases!C26</f>
-        <v>4794</v>
+        <v>4801</v>
       </c>
       <c r="C25" s="17">
         <f t="shared" si="0"/>
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D25">
         <v>74</v>
@@ -15928,11 +16162,11 @@
       </c>
       <c r="B26" s="17">
         <f>mtl_newcases!C27</f>
-        <v>5170</v>
+        <v>5178</v>
       </c>
       <c r="C26" s="17">
         <f t="shared" si="0"/>
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D26">
         <v>91</v>
@@ -16099,7 +16333,7 @@
       </c>
       <c r="B27" s="17">
         <f>mtl_newcases!C28</f>
-        <v>5521</v>
+        <v>5529</v>
       </c>
       <c r="C27" s="17">
         <f t="shared" si="0"/>
@@ -16270,7 +16504,7 @@
       </c>
       <c r="B28" s="17">
         <f>mtl_newcases!C29</f>
-        <v>5827</v>
+        <v>5835</v>
       </c>
       <c r="C28" s="17">
         <f t="shared" si="0"/>
@@ -16441,7 +16675,7 @@
       </c>
       <c r="B29" s="17">
         <f>mtl_newcases!C30</f>
-        <v>6090</v>
+        <v>6098</v>
       </c>
       <c r="C29" s="17">
         <f t="shared" si="0"/>
@@ -16612,11 +16846,11 @@
       </c>
       <c r="B30" s="17">
         <f>mtl_newcases!C31</f>
-        <v>6424</v>
+        <v>6431</v>
       </c>
       <c r="C30" s="17">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D30">
         <v>162</v>
@@ -16783,11 +17017,11 @@
       </c>
       <c r="B31" s="17">
         <f>mtl_newcases!C32</f>
-        <v>6958</v>
+        <v>6968</v>
       </c>
       <c r="C31" s="17">
         <f t="shared" si="0"/>
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D31">
         <v>218</v>
@@ -16954,11 +17188,11 @@
       </c>
       <c r="B32" s="17">
         <f>mtl_newcases!C33</f>
-        <v>7431</v>
+        <v>7438</v>
       </c>
       <c r="C32" s="17">
         <f t="shared" si="0"/>
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D32">
         <v>242</v>
@@ -17125,11 +17359,11 @@
       </c>
       <c r="B33" s="17">
         <f>mtl_newcases!C34</f>
-        <v>8063</v>
+        <v>8066</v>
       </c>
       <c r="C33" s="17">
         <f t="shared" si="0"/>
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D33">
         <v>332</v>
@@ -17296,11 +17530,11 @@
       </c>
       <c r="B34" s="17">
         <f>mtl_newcases!C35</f>
-        <v>8555</v>
+        <v>8556</v>
       </c>
       <c r="C34" s="17">
         <f t="shared" si="0"/>
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D34">
         <v>391</v>
@@ -17467,11 +17701,11 @@
       </c>
       <c r="B35" s="17">
         <f>mtl_newcases!C36</f>
-        <v>9126</v>
+        <v>9128</v>
       </c>
       <c r="C35" s="17">
         <f t="shared" si="0"/>
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D35">
         <v>454</v>
@@ -17638,7 +17872,7 @@
       </c>
       <c r="B36" s="17">
         <f>mtl_newcases!C37</f>
-        <v>9448</v>
+        <v>9450</v>
       </c>
       <c r="C36" s="17">
         <f t="shared" si="0"/>
@@ -17809,11 +18043,11 @@
       </c>
       <c r="B37" s="17">
         <f>mtl_newcases!C38</f>
-        <v>9876</v>
+        <v>9877</v>
       </c>
       <c r="C37" s="17">
         <f t="shared" si="0"/>
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D37">
         <v>525</v>
@@ -17949,7 +18183,7 @@
       </c>
       <c r="B38" s="17">
         <f>mtl_newcases!C39</f>
-        <v>10368</v>
+        <v>10369</v>
       </c>
       <c r="C38" s="17">
         <f t="shared" si="0"/>
@@ -18124,7 +18358,7 @@
       </c>
       <c r="C39" s="17">
         <f t="shared" si="0"/>
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D39">
         <v>647</v>
@@ -18633,11 +18867,11 @@
       </c>
       <c r="B42" s="17">
         <f>mtl_newcases!C43</f>
-        <v>12413</v>
+        <v>12414</v>
       </c>
       <c r="C42" s="17">
         <f t="shared" si="0"/>
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D42">
         <v>895</v>
@@ -18804,7 +19038,7 @@
       </c>
       <c r="B43" s="17">
         <f>mtl_newcases!C44</f>
-        <v>12733</v>
+        <v>12734</v>
       </c>
       <c r="C43" s="17">
         <f t="shared" si="0"/>
@@ -18975,7 +19209,7 @@
       </c>
       <c r="B44" s="17">
         <f>mtl_newcases!C45</f>
-        <v>13036</v>
+        <v>13037</v>
       </c>
       <c r="C44" s="17">
         <f>B44-B43</f>
@@ -19146,11 +19380,11 @@
       </c>
       <c r="B45" s="17">
         <f>mtl_newcases!C46</f>
-        <v>13508</v>
+        <v>13507</v>
       </c>
       <c r="C45" s="17">
         <f>B45-B44</f>
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D45">
         <v>1039</v>
@@ -19317,7 +19551,7 @@
       </c>
       <c r="B46" s="17">
         <f>mtl_newcases!C47</f>
-        <v>13983</v>
+        <v>13982</v>
       </c>
       <c r="C46" s="17">
         <f t="shared" ref="C46:C47" si="438">B46-B45</f>
@@ -19457,11 +19691,11 @@
       </c>
       <c r="B47" s="17">
         <f>mtl_newcases!C48</f>
-        <v>14509</v>
+        <v>14507</v>
       </c>
       <c r="C47" s="17">
         <f t="shared" si="438"/>
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D47">
         <v>1146</v>
@@ -19597,11 +19831,11 @@
       </c>
       <c r="B48" s="17">
         <f>mtl_newcases!C49</f>
-        <v>15113</v>
+        <v>15110</v>
       </c>
       <c r="C48" s="17">
         <f t="shared" ref="C48" si="439">B48-B47</f>
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D48">
         <v>1245</v>
@@ -19768,11 +20002,11 @@
       </c>
       <c r="B49" s="17">
         <f>mtl_newcases!C50</f>
-        <v>15734</v>
+        <v>15729</v>
       </c>
       <c r="C49" s="17">
         <f t="shared" ref="C49" si="461">B49-B48</f>
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D49">
         <v>1312</v>
@@ -19939,7 +20173,7 @@
       </c>
       <c r="B50" s="17">
         <f>mtl_newcases!C51</f>
-        <v>16268</v>
+        <v>16263</v>
       </c>
       <c r="C50" s="17">
         <f t="shared" ref="C50" si="483">B50-B49</f>
@@ -20110,11 +20344,11 @@
       </c>
       <c r="B51" s="17">
         <f>mtl_newcases!C52</f>
-        <v>16619</v>
+        <v>16616</v>
       </c>
       <c r="C51" s="17">
         <f t="shared" ref="C51" si="505">B51-B50</f>
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D51">
         <v>1410</v>
@@ -20281,11 +20515,11 @@
       </c>
       <c r="B52" s="17">
         <f>mtl_newcases!C53</f>
-        <v>17043</v>
+        <v>17042</v>
       </c>
       <c r="C52" s="17">
         <f t="shared" ref="C52" si="527">B52-B51</f>
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D52">
         <v>1488</v>
@@ -20452,11 +20686,11 @@
       </c>
       <c r="B53" s="17">
         <f>mtl_newcases!C54</f>
-        <v>17552</v>
+        <v>17540</v>
       </c>
       <c r="C53" s="17">
         <f t="shared" ref="C53" si="549">B53-B52</f>
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="D53">
         <v>1562</v>
@@ -20623,11 +20857,11 @@
       </c>
       <c r="B54" s="17">
         <f>mtl_newcases!C55</f>
-        <v>18119</v>
+        <v>18115</v>
       </c>
       <c r="C54" s="17">
         <f t="shared" ref="C54:C55" si="571">B54-B53</f>
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="D54">
         <v>1666</v>
@@ -20794,11 +21028,11 @@
       </c>
       <c r="B55" s="17">
         <f>mtl_newcases!C56</f>
-        <v>18564</v>
+        <v>18567</v>
       </c>
       <c r="C55" s="17">
         <f t="shared" si="571"/>
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="D55">
         <v>1727</v>
@@ -20965,11 +21199,11 @@
       </c>
       <c r="B56" s="17">
         <f>mtl_newcases!C57</f>
-        <v>19003</v>
+        <v>19007</v>
       </c>
       <c r="C56" s="17">
         <f t="shared" ref="C56" si="613">B56-B55</f>
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D56">
         <v>1760</v>
@@ -21136,11 +21370,11 @@
       </c>
       <c r="B57" s="17">
         <f>mtl_newcases!C58</f>
-        <v>19333</v>
+        <v>19354</v>
       </c>
       <c r="C57" s="17">
         <f t="shared" ref="C57" si="635">B57-B56</f>
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="D57">
         <v>1863</v>
@@ -21307,11 +21541,11 @@
       </c>
       <c r="B58" s="17">
         <f>mtl_newcases!C59</f>
-        <v>19492</v>
+        <v>19610</v>
       </c>
       <c r="C58" s="17">
         <f t="shared" ref="C58" si="657">B58-B57</f>
-        <v>159</v>
+        <v>256</v>
       </c>
       <c r="D58">
         <v>1919</v>
@@ -21470,6 +21704,177 @@
       <c r="AS58" s="3">
         <f t="shared" ref="AS58" si="678">Y58*100/SUM($P58:$Y58)</f>
         <v>45.524320757687214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A59" s="19">
+        <v>43962</v>
+      </c>
+      <c r="B59" s="17">
+        <f>mtl_newcases!C60</f>
+        <v>19878</v>
+      </c>
+      <c r="C59" s="17">
+        <f t="shared" ref="C59" si="679">B59-B58</f>
+        <v>268</v>
+      </c>
+      <c r="D59">
+        <v>2003</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ref="E59" si="680">D59-D58</f>
+        <v>84</v>
+      </c>
+      <c r="F59" cm="1">
+        <f t="array" ref="F59:O59">TRANSPOSE(santemontreal!AR$57:AR$66)</f>
+        <v>186</v>
+      </c>
+      <c r="G59">
+        <v>167</v>
+      </c>
+      <c r="H59">
+        <v>587</v>
+      </c>
+      <c r="I59">
+        <v>2132</v>
+      </c>
+      <c r="J59">
+        <v>2461</v>
+      </c>
+      <c r="K59">
+        <v>2763</v>
+      </c>
+      <c r="L59">
+        <v>2528</v>
+      </c>
+      <c r="M59">
+        <v>1729</v>
+      </c>
+      <c r="N59">
+        <v>1882</v>
+      </c>
+      <c r="O59">
+        <v>5366</v>
+      </c>
+      <c r="P59" s="18">
+        <f>F59/(age_distribution_2016!$B$2/100000)</f>
+        <v>169.49152542372883</v>
+      </c>
+      <c r="Q59" s="18">
+        <f>G59/(age_distribution_2016!$B$3/100000)</f>
+        <v>159.98467212722136</v>
+      </c>
+      <c r="R59" s="18">
+        <f>H59/(age_distribution_2016!$B$4/100000)</f>
+        <v>311.9270930201663</v>
+      </c>
+      <c r="S59" s="18">
+        <f>I59/(age_distribution_2016!$B$5/100000)</f>
+        <v>727.08670815926337</v>
+      </c>
+      <c r="T59" s="18">
+        <f>J59/(age_distribution_2016!$B$6/100000)</f>
+        <v>821.22299157420537</v>
+      </c>
+      <c r="U59" s="18">
+        <f>K59/(age_distribution_2016!$B$7/100000)</f>
+        <v>1085.7648099027408</v>
+      </c>
+      <c r="V59" s="18">
+        <f>L59/(age_distribution_2016!$B$8/100000)</f>
+        <v>976.533075808788</v>
+      </c>
+      <c r="W59" s="18">
+        <f>M59/(age_distribution_2016!$B$9/100000)</f>
+        <v>843.39406355942526</v>
+      </c>
+      <c r="X59" s="18">
+        <f>N59/(age_distribution_2016!$B$10/100000)</f>
+        <v>1451.2646514497224</v>
+      </c>
+      <c r="Y59" s="18">
+        <f>O59/(age_distribution_2016!$B$11/100000)</f>
+        <v>5430.8992459895753</v>
+      </c>
+      <c r="Z59" s="3">
+        <f t="shared" ref="Z59" si="681">F59*100/SUM($F59:$O59)</f>
+        <v>0.9393464976516338</v>
+      </c>
+      <c r="AA59" s="3">
+        <f t="shared" ref="AA59" si="682">G59*100/SUM($F59:$O59)</f>
+        <v>0.8433917478915206</v>
+      </c>
+      <c r="AB59" s="3">
+        <f t="shared" ref="AB59" si="683">H59*100/SUM($F59:$O59)</f>
+        <v>2.9644967425887581</v>
+      </c>
+      <c r="AC59" s="3">
+        <f t="shared" ref="AC59" si="684">I59*100/SUM($F59:$O59)</f>
+        <v>10.767132973082168</v>
+      </c>
+      <c r="AD59" s="3">
+        <f t="shared" ref="AD59" si="685">J59*100/SUM($F59:$O59)</f>
+        <v>12.428665218928337</v>
+      </c>
+      <c r="AE59" s="3">
+        <f t="shared" ref="AE59" si="686">K59*100/SUM($F59:$O59)</f>
+        <v>13.953840715115398</v>
+      </c>
+      <c r="AF59" s="3">
+        <f t="shared" ref="AF59" si="687">L59*100/SUM($F59:$O59)</f>
+        <v>12.767031968082421</v>
+      </c>
+      <c r="AG59" s="3">
+        <f t="shared" ref="AG59" si="688">M59*100/SUM($F59:$O59)</f>
+        <v>8.7318822281702939</v>
+      </c>
+      <c r="AH59" s="3">
+        <f t="shared" ref="AH59" si="689">N59*100/SUM($F59:$O59)</f>
+        <v>9.5045704762385732</v>
+      </c>
+      <c r="AI59" s="3">
+        <f t="shared" ref="AI59" si="690">O59*100/SUM($F59:$O59)</f>
+        <v>27.099641432250895</v>
+      </c>
+      <c r="AJ59" s="3">
+        <f t="shared" ref="AJ59" si="691">P59*100/SUM($P59:$Y59)</f>
+        <v>1.4150745258081194</v>
+      </c>
+      <c r="AK59" s="3">
+        <f t="shared" ref="AK59" si="692">Q59*100/SUM($P59:$Y59)</f>
+        <v>1.3357023808772719</v>
+      </c>
+      <c r="AL59" s="3">
+        <f t="shared" ref="AL59" si="693">R59*100/SUM($P59:$Y59)</f>
+        <v>2.6042604911290801</v>
+      </c>
+      <c r="AM59" s="3">
+        <f t="shared" ref="AM59" si="694">S59*100/SUM($P59:$Y59)</f>
+        <v>6.0704030847421517</v>
+      </c>
+      <c r="AN59" s="3">
+        <f t="shared" ref="AN59" si="695">T59*100/SUM($P59:$Y59)</f>
+        <v>6.8563412387691045</v>
+      </c>
+      <c r="AO59" s="3">
+        <f t="shared" ref="AO59" si="696">U59*100/SUM($P59:$Y59)</f>
+        <v>9.0649849287223567</v>
+      </c>
+      <c r="AP59" s="3">
+        <f t="shared" ref="AP59" si="697">V59*100/SUM($P59:$Y59)</f>
+        <v>8.1530157671977843</v>
+      </c>
+      <c r="AQ59" s="3">
+        <f t="shared" ref="AQ59" si="698">W59*100/SUM($P59:$Y59)</f>
+        <v>7.0414461819083467</v>
+      </c>
+      <c r="AR59" s="3">
+        <f t="shared" ref="AR59" si="699">X59*100/SUM($P59:$Y59)</f>
+        <v>12.116521066986579</v>
+      </c>
+      <c r="AS59" s="3">
+        <f t="shared" ref="AS59" si="700">Y59*100/SUM($P59:$Y59)</f>
+        <v>45.342250333859191</v>
       </c>
     </row>
   </sheetData>
@@ -21479,11 +21884,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21624,7 +22029,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F70" si="1">E4-E3</f>
+        <f t="shared" ref="F4:F71" si="1">E4-E3</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -21637,7 +22042,7 @@
         <v>260</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J70" si="2">I4-I3</f>
+        <f t="shared" ref="J4:J71" si="2">I4-I3</f>
         <v>18</v>
       </c>
       <c r="K4" t="s">
@@ -23894,7 +24299,7 @@
         <v>33417</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:C70" si="4">B64-B63</f>
+        <f t="shared" ref="C64:C71" si="4">B64-B63</f>
         <v>794</v>
       </c>
       <c r="D64">
@@ -24150,6 +24555,44 @@
       </c>
       <c r="K70">
         <v>9703</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B71">
+        <v>39225</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="4"/>
+        <v>756</v>
+      </c>
+      <c r="D71">
+        <v>26038</v>
+      </c>
+      <c r="E71">
+        <v>3131</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="G71">
+        <v>1841</v>
+      </c>
+      <c r="H71">
+        <v>186</v>
+      </c>
+      <c r="I71">
+        <v>256518</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="2"/>
+        <v>5990</v>
+      </c>
+      <c r="K71">
+        <v>10056</v>
       </c>
     </row>
   </sheetData>
@@ -24159,11 +24602,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
+      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24464,11 +24907,11 @@
         <v>43923</v>
       </c>
       <c r="B21">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>2962</v>
+        <v>2963</v>
       </c>
       <c r="E21" s="19">
         <v>43923</v>
@@ -24478,7 +24921,7 @@
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G26" si="2">C21-F21</f>
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -24486,7 +24929,7 @@
         <v>43924</v>
       </c>
       <c r="B22">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -24530,11 +24973,11 @@
         <v>43926</v>
       </c>
       <c r="B24">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>3917</v>
+        <v>3919</v>
       </c>
       <c r="E24" s="19">
         <v>43926</v>
@@ -24544,7 +24987,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>-60</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -24552,11 +24995,11 @@
         <v>43927</v>
       </c>
       <c r="B25">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>4373</v>
+        <v>4377</v>
       </c>
       <c r="E25" s="19">
         <v>43927</v>
@@ -24566,7 +25009,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>-34</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -24574,11 +25017,11 @@
         <v>43928</v>
       </c>
       <c r="B26">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>4794</v>
+        <v>4801</v>
       </c>
       <c r="E26" s="19">
         <v>43928</v>
@@ -24588,7 +25031,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -24596,11 +25039,11 @@
         <v>43929</v>
       </c>
       <c r="B27">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>5170</v>
+        <v>5178</v>
       </c>
       <c r="E27" s="19">
         <v>43929</v>
@@ -24610,7 +25053,7 @@
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="3">C27-F27</f>
-        <v>-92</v>
+        <v>-84</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -24622,7 +25065,7 @@
       </c>
       <c r="C28">
         <f t="shared" ref="C28:C37" si="4">C27+B28</f>
-        <v>5521</v>
+        <v>5529</v>
       </c>
       <c r="E28" s="19">
         <v>43930</v>
@@ -24632,7 +25075,7 @@
       </c>
       <c r="G28">
         <f t="shared" ref="G28:G33" si="5">C28-F28</f>
-        <v>-96</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -24644,7 +25087,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
-        <v>5827</v>
+        <v>5835</v>
       </c>
       <c r="E29" s="19">
         <v>43931</v>
@@ -24654,7 +25097,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>-34</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -24666,7 +25109,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
-        <v>6090</v>
+        <v>6098</v>
       </c>
       <c r="E30" s="19">
         <v>43932</v>
@@ -24676,7 +25119,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -24684,11 +25127,11 @@
         <v>43933</v>
       </c>
       <c r="B31">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
-        <v>6424</v>
+        <v>6431</v>
       </c>
       <c r="E31" s="19">
         <v>43933</v>
@@ -24698,7 +25141,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -24706,11 +25149,11 @@
         <v>43934</v>
       </c>
       <c r="B32">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
-        <v>6958</v>
+        <v>6968</v>
       </c>
       <c r="E32" s="19">
         <v>43934</v>
@@ -24720,7 +25163,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -24728,11 +25171,11 @@
         <v>43935</v>
       </c>
       <c r="B33">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>7431</v>
+        <v>7438</v>
       </c>
       <c r="E33" s="19">
         <v>43935</v>
@@ -24742,7 +25185,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>601</v>
+        <v>608</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -24750,11 +25193,11 @@
         <v>43936</v>
       </c>
       <c r="B34">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>8063</v>
+        <v>8066</v>
       </c>
       <c r="E34" s="19">
         <v>43936</v>
@@ -24764,7 +25207,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G36" si="6">C34-F34</f>
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -24772,11 +25215,11 @@
         <v>43937</v>
       </c>
       <c r="B35">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>8555</v>
+        <v>8556</v>
       </c>
       <c r="E35" s="19">
         <v>43937</v>
@@ -24786,7 +25229,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -24794,11 +25237,11 @@
         <v>43938</v>
       </c>
       <c r="B36">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
-        <v>9126</v>
+        <v>9128</v>
       </c>
       <c r="E36" s="19">
         <v>43938</v>
@@ -24808,7 +25251,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -24820,7 +25263,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
-        <v>9448</v>
+        <v>9450</v>
       </c>
       <c r="E37" s="19">
         <v>43939</v>
@@ -24830,7 +25273,7 @@
       </c>
       <c r="G37">
         <f t="shared" ref="G37" si="7">C37-F37</f>
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -24838,11 +25281,11 @@
         <v>43940</v>
       </c>
       <c r="B38" s="23">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C39" si="8">C37+B38</f>
-        <v>9876</v>
+        <v>9877</v>
       </c>
       <c r="E38" s="19">
         <v>43940</v>
@@ -24852,7 +25295,7 @@
       </c>
       <c r="G38">
         <f t="shared" ref="G38" si="9">C38-F38</f>
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -24864,7 +25307,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="8"/>
-        <v>10368</v>
+        <v>10369</v>
       </c>
       <c r="E39" s="19">
         <v>43941</v>
@@ -24874,7 +25317,7 @@
       </c>
       <c r="G39">
         <f t="shared" ref="G39" si="10">C39-F39</f>
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -24882,7 +25325,7 @@
         <v>43942</v>
       </c>
       <c r="B40">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40" si="11">C39+B40</f>
@@ -24948,11 +25391,11 @@
         <v>43945</v>
       </c>
       <c r="B43" s="23">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C43">
         <f t="shared" si="13"/>
-        <v>12413</v>
+        <v>12414</v>
       </c>
       <c r="E43" s="19">
         <v>43945</v>
@@ -24962,7 +25405,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="15"/>
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -24974,7 +25417,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="13"/>
-        <v>12733</v>
+        <v>12734</v>
       </c>
       <c r="E44" s="19">
         <v>43946</v>
@@ -24984,7 +25427,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="15"/>
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -24996,7 +25439,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="13"/>
-        <v>13036</v>
+        <v>13037</v>
       </c>
       <c r="E45" s="19">
         <v>43947</v>
@@ -25006,7 +25449,7 @@
       </c>
       <c r="G45">
         <f>C45-F45</f>
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -25014,11 +25457,11 @@
         <v>43948</v>
       </c>
       <c r="B46" s="23">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C46">
         <f t="shared" si="13"/>
-        <v>13508</v>
+        <v>13507</v>
       </c>
       <c r="E46" s="19">
         <v>43948</v>
@@ -25028,7 +25471,7 @@
       </c>
       <c r="G46">
         <f>C46-F46</f>
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -25040,7 +25483,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="13"/>
-        <v>13983</v>
+        <v>13982</v>
       </c>
       <c r="E47" s="19">
         <v>43949</v>
@@ -25050,7 +25493,7 @@
       </c>
       <c r="G47">
         <f t="shared" ref="G47:G52" si="16">C47-F47</f>
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -25058,11 +25501,11 @@
         <v>43950</v>
       </c>
       <c r="B48" s="23">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C48">
         <f t="shared" si="13"/>
-        <v>14509</v>
+        <v>14507</v>
       </c>
       <c r="E48" s="19">
         <v>43950</v>
@@ -25072,7 +25515,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="16"/>
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -25080,11 +25523,11 @@
         <v>43951</v>
       </c>
       <c r="B49" s="23">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C49">
         <f t="shared" si="13"/>
-        <v>15113</v>
+        <v>15110</v>
       </c>
       <c r="E49" s="19">
         <v>43951</v>
@@ -25094,7 +25537,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="16"/>
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -25102,11 +25545,11 @@
         <v>43952</v>
       </c>
       <c r="B50" s="23">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C50">
         <f t="shared" si="13"/>
-        <v>15734</v>
+        <v>15729</v>
       </c>
       <c r="E50" s="19">
         <v>43952</v>
@@ -25116,7 +25559,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="16"/>
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -25128,7 +25571,7 @@
       </c>
       <c r="C51">
         <f t="shared" si="13"/>
-        <v>16268</v>
+        <v>16263</v>
       </c>
       <c r="E51" s="19">
         <v>43953</v>
@@ -25138,7 +25581,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="16"/>
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -25146,11 +25589,11 @@
         <v>43954</v>
       </c>
       <c r="B52" s="23">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C52">
         <f t="shared" si="13"/>
-        <v>16619</v>
+        <v>16616</v>
       </c>
       <c r="E52" s="19">
         <v>43954</v>
@@ -25160,7 +25603,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="16"/>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -25168,11 +25611,11 @@
         <v>43955</v>
       </c>
       <c r="B53" s="23">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C53">
         <f t="shared" ref="C53" si="17">C52+B53</f>
-        <v>17043</v>
+        <v>17042</v>
       </c>
       <c r="E53" s="19">
         <v>43955</v>
@@ -25182,7 +25625,7 @@
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="18">C53-F53</f>
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -25190,11 +25633,11 @@
         <v>43956</v>
       </c>
       <c r="B54" s="23">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:C59" si="19">C53+B54</f>
-        <v>17552</v>
+        <f t="shared" ref="C54:C60" si="19">C53+B54</f>
+        <v>17540</v>
       </c>
       <c r="E54" s="19">
         <v>43956</v>
@@ -25204,7 +25647,7 @@
       </c>
       <c r="G54">
         <f t="shared" ref="G54" si="20">C54-F54</f>
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -25212,11 +25655,11 @@
         <v>43957</v>
       </c>
       <c r="B55" s="23">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="C55">
         <f t="shared" si="19"/>
-        <v>18119</v>
+        <v>18115</v>
       </c>
       <c r="E55" s="19">
         <v>43957</v>
@@ -25226,7 +25669,7 @@
       </c>
       <c r="G55">
         <f t="shared" ref="G55:G58" si="21">C55-F55</f>
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -25234,11 +25677,11 @@
         <v>43958</v>
       </c>
       <c r="B56" s="23">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="C56">
         <f t="shared" si="19"/>
-        <v>18564</v>
+        <v>18567</v>
       </c>
       <c r="E56" s="19">
         <v>43958</v>
@@ -25248,7 +25691,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="21"/>
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -25256,11 +25699,11 @@
         <v>43959</v>
       </c>
       <c r="B57" s="23">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C57">
         <f t="shared" si="19"/>
-        <v>19003</v>
+        <v>19007</v>
       </c>
       <c r="E57" s="19">
         <v>43959</v>
@@ -25270,7 +25713,7 @@
       </c>
       <c r="G57">
         <f t="shared" si="21"/>
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -25278,11 +25721,11 @@
         <v>43960</v>
       </c>
       <c r="B58" s="23">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="C58">
         <f t="shared" si="19"/>
-        <v>19333</v>
+        <v>19354</v>
       </c>
       <c r="E58" s="19">
         <v>43960</v>
@@ -25292,19 +25735,19 @@
       </c>
       <c r="G58">
         <f t="shared" si="21"/>
-        <v>136</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="19">
         <v>43961</v>
       </c>
-      <c r="B59" s="24">
-        <v>159</v>
+      <c r="B59" s="23">
+        <v>256</v>
       </c>
       <c r="C59">
         <f t="shared" si="19"/>
-        <v>19492</v>
+        <v>19610</v>
       </c>
       <c r="E59" s="19">
         <v>43961</v>
@@ -25314,6 +25757,28 @@
       </c>
       <c r="G59">
         <f t="shared" ref="G59" si="22">C59-F59</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="19">
+        <v>43962</v>
+      </c>
+      <c r="B60" s="24">
+        <v>268</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="19"/>
+        <v>19878</v>
+      </c>
+      <c r="E60" s="19">
+        <v>43962</v>
+      </c>
+      <c r="F60">
+        <v>19878</v>
+      </c>
+      <c r="G60">
+        <f t="shared" ref="G60" si="23">C60-F60</f>
         <v>0</v>
       </c>
     </row>
@@ -25327,9 +25792,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ105" sqref="AQ105"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR105" sqref="AR105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25441,36 +25906,38 @@
         <v>288</v>
       </c>
       <c r="AH1" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="AJ1" s="5" t="s">
-        <v>293</v>
-      </c>
       <c r="AK1" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="AL1" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="AL1" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="AM1" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AO1" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="AN1" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="AQ1" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="AR1" s="5"/>
+      <c r="AR1" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="AS1" s="5"/>
       <c r="AT1" s="5"/>
       <c r="AU1" s="5"/>
@@ -25774,7 +26241,9 @@
       <c r="AQ2" s="7">
         <v>1610</v>
       </c>
-      <c r="AR2" s="7"/>
+      <c r="AR2" s="7">
+        <v>1645</v>
+      </c>
       <c r="AS2" s="7"/>
       <c r="AT2" s="7"/>
       <c r="AU2" s="7"/>
@@ -26078,7 +26547,9 @@
       <c r="AQ3" s="9">
         <v>453</v>
       </c>
-      <c r="AR3" s="9"/>
+      <c r="AR3" s="9">
+        <v>455</v>
+      </c>
       <c r="AS3" s="9"/>
       <c r="AT3" s="9"/>
       <c r="AU3" s="9"/>
@@ -26382,7 +26853,9 @@
       <c r="AQ4" s="7">
         <v>11</v>
       </c>
-      <c r="AR4" s="7"/>
+      <c r="AR4" s="7">
+        <v>11</v>
+      </c>
       <c r="AS4" s="7"/>
       <c r="AT4" s="7"/>
       <c r="AU4" s="7"/>
@@ -26686,7 +27159,9 @@
       <c r="AQ5" s="9">
         <v>49</v>
       </c>
-      <c r="AR5" s="9"/>
+      <c r="AR5" s="9">
+        <v>51</v>
+      </c>
       <c r="AS5" s="9"/>
       <c r="AT5" s="9"/>
       <c r="AU5" s="9"/>
@@ -26990,7 +27465,9 @@
       <c r="AQ6" s="7">
         <v>1588</v>
       </c>
-      <c r="AR6" s="7"/>
+      <c r="AR6" s="7">
+        <v>1616</v>
+      </c>
       <c r="AS6" s="7"/>
       <c r="AT6" s="7"/>
       <c r="AU6" s="7"/>
@@ -27294,7 +27771,9 @@
       <c r="AQ7" s="9">
         <v>401</v>
       </c>
-      <c r="AR7" s="9"/>
+      <c r="AR7" s="9">
+        <v>405</v>
+      </c>
       <c r="AS7" s="9"/>
       <c r="AT7" s="9"/>
       <c r="AU7" s="9"/>
@@ -27598,7 +28077,9 @@
       <c r="AQ8" s="7">
         <v>283</v>
       </c>
-      <c r="AR8" s="7"/>
+      <c r="AR8" s="7">
+        <v>290</v>
+      </c>
       <c r="AS8" s="7"/>
       <c r="AT8" s="7"/>
       <c r="AU8" s="7"/>
@@ -27902,7 +28383,9 @@
       <c r="AQ9" s="9">
         <v>146</v>
       </c>
-      <c r="AR9" s="9"/>
+      <c r="AR9" s="9">
+        <v>147</v>
+      </c>
       <c r="AS9" s="9"/>
       <c r="AT9" s="9"/>
       <c r="AU9" s="9"/>
@@ -28206,7 +28689,9 @@
       <c r="AQ10" s="7">
         <v>48</v>
       </c>
-      <c r="AR10" s="7"/>
+      <c r="AR10" s="7">
+        <v>48</v>
+      </c>
       <c r="AS10" s="7"/>
       <c r="AT10" s="7"/>
       <c r="AU10" s="7"/>
@@ -28510,7 +28995,9 @@
       <c r="AQ11" s="9">
         <v>83</v>
       </c>
-      <c r="AR11" s="9"/>
+      <c r="AR11" s="9">
+        <v>85</v>
+      </c>
       <c r="AS11" s="9"/>
       <c r="AT11" s="9"/>
       <c r="AU11" s="9"/>
@@ -28814,7 +29301,9 @@
       <c r="AQ12" s="7">
         <v>409</v>
       </c>
-      <c r="AR12" s="7"/>
+      <c r="AR12" s="7">
+        <v>417</v>
+      </c>
       <c r="AS12" s="7"/>
       <c r="AT12" s="7"/>
       <c r="AU12" s="7"/>
@@ -29118,7 +29607,9 @@
       <c r="AQ13" s="9">
         <v>938</v>
       </c>
-      <c r="AR13" s="9"/>
+      <c r="AR13" s="9">
+        <v>946</v>
+      </c>
       <c r="AS13" s="9"/>
       <c r="AT13" s="9"/>
       <c r="AU13" s="9"/>
@@ -29422,7 +29913,9 @@
       <c r="AQ14" s="7">
         <v>139</v>
       </c>
-      <c r="AR14" s="7"/>
+      <c r="AR14" s="7">
+        <v>143</v>
+      </c>
       <c r="AS14" s="7"/>
       <c r="AT14" s="7"/>
       <c r="AU14" s="7"/>
@@ -29726,7 +30219,9 @@
       <c r="AQ15" s="9">
         <v>1502</v>
       </c>
-      <c r="AR15" s="9"/>
+      <c r="AR15" s="9">
+        <v>1552</v>
+      </c>
       <c r="AS15" s="9"/>
       <c r="AT15" s="9"/>
       <c r="AU15" s="9"/>
@@ -30030,7 +30525,9 @@
       <c r="AQ16" s="7">
         <v>25</v>
       </c>
-      <c r="AR16" s="7"/>
+      <c r="AR16" s="7">
+        <v>27</v>
+      </c>
       <c r="AS16" s="7"/>
       <c r="AT16" s="7"/>
       <c r="AU16" s="7"/>
@@ -30334,7 +30831,9 @@
       <c r="AQ17" s="9">
         <v>1791</v>
       </c>
-      <c r="AR17" s="9"/>
+      <c r="AR17" s="9">
+        <v>1820</v>
+      </c>
       <c r="AS17" s="9"/>
       <c r="AT17" s="9"/>
       <c r="AU17" s="9"/>
@@ -30638,7 +31137,9 @@
       <c r="AQ18" s="7">
         <v>16</v>
       </c>
-      <c r="AR18" s="7"/>
+      <c r="AR18" s="7">
+        <v>16</v>
+      </c>
       <c r="AS18" s="7"/>
       <c r="AT18" s="7"/>
       <c r="AU18" s="7"/>
@@ -30942,7 +31443,9 @@
       <c r="AQ19" s="9">
         <v>225</v>
       </c>
-      <c r="AR19" s="9"/>
+      <c r="AR19" s="9">
+        <v>226</v>
+      </c>
       <c r="AS19" s="9"/>
       <c r="AT19" s="9"/>
       <c r="AU19" s="9"/>
@@ -31246,7 +31749,9 @@
       <c r="AQ20" s="7">
         <v>220</v>
       </c>
-      <c r="AR20" s="7"/>
+      <c r="AR20" s="7">
+        <v>222</v>
+      </c>
       <c r="AS20" s="7"/>
       <c r="AT20" s="7"/>
       <c r="AU20" s="7"/>
@@ -31550,7 +32055,9 @@
       <c r="AQ21" s="9">
         <v>368</v>
       </c>
-      <c r="AR21" s="9"/>
+      <c r="AR21" s="9">
+        <v>377</v>
+      </c>
       <c r="AS21" s="9"/>
       <c r="AT21" s="9"/>
       <c r="AU21" s="9"/>
@@ -31854,7 +32361,9 @@
       <c r="AQ22" s="7">
         <v>696</v>
       </c>
-      <c r="AR22" s="7"/>
+      <c r="AR22" s="7">
+        <v>710</v>
+      </c>
       <c r="AS22" s="7"/>
       <c r="AT22" s="7"/>
       <c r="AU22" s="7"/>
@@ -32158,7 +32667,9 @@
       <c r="AQ23" s="9">
         <v>143</v>
       </c>
-      <c r="AR23" s="9"/>
+      <c r="AR23" s="9">
+        <v>145</v>
+      </c>
       <c r="AS23" s="9"/>
       <c r="AT23" s="9"/>
       <c r="AU23" s="9"/>
@@ -32462,7 +32973,9 @@
       <c r="AQ24" s="7">
         <v>1466</v>
       </c>
-      <c r="AR24" s="7"/>
+      <c r="AR24" s="7">
+        <v>1525</v>
+      </c>
       <c r="AS24" s="7"/>
       <c r="AT24" s="7"/>
       <c r="AU24" s="7"/>
@@ -32766,7 +33279,9 @@
       <c r="AQ25" s="9">
         <v>1092</v>
       </c>
-      <c r="AR25" s="9"/>
+      <c r="AR25" s="9">
+        <v>1103</v>
+      </c>
       <c r="AS25" s="9"/>
       <c r="AT25" s="9"/>
       <c r="AU25" s="9"/>
@@ -33070,7 +33585,9 @@
       <c r="AQ26" s="7">
         <v>16</v>
       </c>
-      <c r="AR26" s="7"/>
+      <c r="AR26" s="7">
+        <v>16</v>
+      </c>
       <c r="AS26" s="7"/>
       <c r="AT26" s="7"/>
       <c r="AU26" s="7"/>
@@ -33374,7 +33891,9 @@
       <c r="AQ27" s="9">
         <v>688</v>
       </c>
-      <c r="AR27" s="9"/>
+      <c r="AR27" s="9">
+        <v>710</v>
+      </c>
       <c r="AS27" s="9"/>
       <c r="AT27" s="9"/>
       <c r="AU27" s="9"/>
@@ -33678,7 +34197,9 @@
       <c r="AQ28" s="7">
         <v>766</v>
       </c>
-      <c r="AR28" s="7"/>
+      <c r="AR28" s="7">
+        <v>783</v>
+      </c>
       <c r="AS28" s="7"/>
       <c r="AT28" s="7"/>
       <c r="AU28" s="7"/>
@@ -33982,7 +34503,9 @@
       <c r="AQ29" s="20">
         <v>2</v>
       </c>
-      <c r="AR29" s="22"/>
+      <c r="AR29" s="20">
+        <v>2</v>
+      </c>
       <c r="AS29" s="22"/>
       <c r="AT29" s="22"/>
       <c r="AU29" s="22"/>
@@ -34286,7 +34809,9 @@
       <c r="AQ30" s="7">
         <v>719</v>
       </c>
-      <c r="AR30" s="7"/>
+      <c r="AR30" s="7">
+        <v>727</v>
+      </c>
       <c r="AS30" s="7"/>
       <c r="AT30" s="7"/>
       <c r="AU30" s="7"/>
@@ -34590,7 +35115,9 @@
       <c r="AQ31" s="9">
         <v>762</v>
       </c>
-      <c r="AR31" s="9"/>
+      <c r="AR31" s="9">
+        <v>768</v>
+      </c>
       <c r="AS31" s="9"/>
       <c r="AT31" s="9"/>
       <c r="AU31" s="9"/>
@@ -34894,7 +35421,9 @@
       <c r="AQ32" s="7">
         <v>527</v>
       </c>
-      <c r="AR32" s="7"/>
+      <c r="AR32" s="7">
+        <v>539</v>
+      </c>
       <c r="AS32" s="7"/>
       <c r="AT32" s="7"/>
       <c r="AU32" s="7"/>
@@ -35198,7 +35727,9 @@
       <c r="AQ33" s="9">
         <v>1387</v>
       </c>
-      <c r="AR33" s="9"/>
+      <c r="AR33" s="9">
+        <v>1411</v>
+      </c>
       <c r="AS33" s="9"/>
       <c r="AT33" s="9"/>
       <c r="AU33" s="9"/>
@@ -35502,7 +36033,9 @@
       <c r="AQ34" s="7">
         <v>143</v>
       </c>
-      <c r="AR34" s="7"/>
+      <c r="AR34" s="7">
+        <v>149</v>
+      </c>
       <c r="AS34" s="7"/>
       <c r="AT34" s="7"/>
       <c r="AU34" s="7"/>
@@ -35806,7 +36339,9 @@
       <c r="AQ35" s="9">
         <v>781</v>
       </c>
-      <c r="AR35" s="9"/>
+      <c r="AR35" s="9">
+        <v>792</v>
+      </c>
       <c r="AS35" s="9"/>
       <c r="AT35" s="9"/>
       <c r="AU35" s="9"/>
@@ -36110,7 +36645,9 @@
       <c r="AQ36" s="11">
         <v>19492</v>
       </c>
-      <c r="AR36" s="11"/>
+      <c r="AR36" s="11">
+        <v>19878</v>
+      </c>
       <c r="AS36" s="11"/>
       <c r="AT36" s="11"/>
       <c r="AU36" s="11"/>
@@ -40569,7 +41106,9 @@
       <c r="AQ57" s="7">
         <v>184</v>
       </c>
-      <c r="AR57" s="7"/>
+      <c r="AR57" s="7">
+        <v>186</v>
+      </c>
       <c r="AS57" s="7"/>
       <c r="AT57" s="7"/>
       <c r="AU57" s="7"/>
@@ -40871,7 +41410,9 @@
       <c r="AQ58" s="9">
         <v>162</v>
       </c>
-      <c r="AR58" s="9"/>
+      <c r="AR58" s="9">
+        <v>167</v>
+      </c>
       <c r="AS58" s="9"/>
       <c r="AT58" s="9"/>
       <c r="AU58" s="9"/>
@@ -41173,7 +41714,9 @@
       <c r="AQ59" s="7">
         <v>569</v>
       </c>
-      <c r="AR59" s="7"/>
+      <c r="AR59" s="7">
+        <v>587</v>
+      </c>
       <c r="AS59" s="7"/>
       <c r="AT59" s="7"/>
       <c r="AU59" s="7"/>
@@ -41475,7 +42018,9 @@
       <c r="AQ60" s="9">
         <v>2081</v>
       </c>
-      <c r="AR60" s="9"/>
+      <c r="AR60" s="9">
+        <v>2132</v>
+      </c>
       <c r="AS60" s="9"/>
       <c r="AT60" s="9"/>
       <c r="AU60" s="9"/>
@@ -41777,7 +42322,9 @@
       <c r="AQ61" s="7">
         <v>2401</v>
       </c>
-      <c r="AR61" s="7"/>
+      <c r="AR61" s="7">
+        <v>2461</v>
+      </c>
       <c r="AS61" s="7"/>
       <c r="AT61" s="7"/>
       <c r="AU61" s="7"/>
@@ -42079,7 +42626,9 @@
       <c r="AQ62" s="9">
         <v>2705</v>
       </c>
-      <c r="AR62" s="9"/>
+      <c r="AR62" s="9">
+        <v>2763</v>
+      </c>
       <c r="AS62" s="9"/>
       <c r="AT62" s="9"/>
       <c r="AU62" s="9"/>
@@ -42381,7 +42930,9 @@
       <c r="AQ63" s="7">
         <v>2480</v>
       </c>
-      <c r="AR63" s="7"/>
+      <c r="AR63" s="7">
+        <v>2528</v>
+      </c>
       <c r="AS63" s="7"/>
       <c r="AT63" s="7"/>
       <c r="AU63" s="7"/>
@@ -42683,7 +43234,9 @@
       <c r="AQ64" s="9">
         <v>1697</v>
       </c>
-      <c r="AR64" s="9"/>
+      <c r="AR64" s="9">
+        <v>1729</v>
+      </c>
       <c r="AS64" s="9"/>
       <c r="AT64" s="9"/>
       <c r="AU64" s="9"/>
@@ -42985,7 +43538,9 @@
       <c r="AQ65" s="7">
         <v>1847</v>
       </c>
-      <c r="AR65" s="7"/>
+      <c r="AR65" s="7">
+        <v>1882</v>
+      </c>
       <c r="AS65" s="7"/>
       <c r="AT65" s="7"/>
       <c r="AU65" s="7"/>
@@ -43287,7 +43842,9 @@
       <c r="AQ66" s="9">
         <v>5292</v>
       </c>
-      <c r="AR66" s="9"/>
+      <c r="AR66" s="9">
+        <v>5366</v>
+      </c>
       <c r="AS66" s="9"/>
       <c r="AT66" s="9"/>
       <c r="AU66" s="9"/>
@@ -43589,7 +44146,9 @@
       <c r="AQ67" s="7">
         <v>74</v>
       </c>
-      <c r="AR67" s="7"/>
+      <c r="AR67" s="7">
+        <v>77</v>
+      </c>
       <c r="AS67" s="7"/>
       <c r="AT67" s="7"/>
       <c r="AU67" s="7"/>
@@ -43891,7 +44450,9 @@
       <c r="AQ68" s="15">
         <v>19492</v>
       </c>
-      <c r="AR68" s="15"/>
+      <c r="AR68" s="15">
+        <v>19878</v>
+      </c>
       <c r="AS68" s="15"/>
       <c r="AT68" s="15"/>
       <c r="AU68" s="15"/>
@@ -44534,6 +45095,9 @@
       <c r="AQ71">
         <v>216</v>
       </c>
+      <c r="AR71">
+        <v>223</v>
+      </c>
     </row>
     <row r="72" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="8" t="s">
@@ -44566,6 +45130,9 @@
       <c r="AQ72">
         <v>21</v>
       </c>
+      <c r="AR72">
+        <v>23</v>
+      </c>
     </row>
     <row r="73" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
@@ -44598,16 +45165,19 @@
       <c r="AQ73">
         <v>0</v>
       </c>
+      <c r="AR73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="8" t="s">
         <v>40</v>
       </c>
       <c r="AI74" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AJ74" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AK74" s="24">
         <v>2</v>
@@ -44628,6 +45198,9 @@
         <v>6</v>
       </c>
       <c r="AQ74">
+        <v>6</v>
+      </c>
+      <c r="AR74">
         <v>6</v>
       </c>
     </row>
@@ -44662,6 +45235,9 @@
       <c r="AQ75">
         <v>169</v>
       </c>
+      <c r="AR75">
+        <v>175</v>
+      </c>
     </row>
     <row r="76" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="8" t="s">
@@ -44694,6 +45270,9 @@
       <c r="AQ76">
         <v>21</v>
       </c>
+      <c r="AR76">
+        <v>22</v>
+      </c>
     </row>
     <row r="77" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="6" t="s">
@@ -44726,6 +45305,9 @@
       <c r="AQ77">
         <v>21</v>
       </c>
+      <c r="AR77">
+        <v>22</v>
+      </c>
     </row>
     <row r="78" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="8" t="s">
@@ -44758,6 +45340,9 @@
       <c r="AQ78">
         <v>27</v>
       </c>
+      <c r="AR78">
+        <v>29</v>
+      </c>
     </row>
     <row r="79" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
@@ -44767,7 +45352,7 @@
         <v>0</v>
       </c>
       <c r="AJ79" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AK79">
         <v>0</v>
@@ -44788,6 +45373,9 @@
         <v>0</v>
       </c>
       <c r="AQ79">
+        <v>0</v>
+      </c>
+      <c r="AR79">
         <v>0</v>
       </c>
     </row>
@@ -44822,8 +45410,11 @@
       <c r="AQ80">
         <v>9</v>
       </c>
+      <c r="AR80">
+        <v>10</v>
+      </c>
     </row>
-    <row r="81" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
         <v>47</v>
       </c>
@@ -44854,8 +45445,11 @@
       <c r="AQ81">
         <v>54</v>
       </c>
+      <c r="AR81">
+        <v>59</v>
+      </c>
     </row>
-    <row r="82" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="8" t="s">
         <v>48</v>
       </c>
@@ -44886,8 +45480,11 @@
       <c r="AQ82">
         <v>125</v>
       </c>
+      <c r="AR82">
+        <v>129</v>
+      </c>
     </row>
-    <row r="83" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
         <v>49</v>
       </c>
@@ -44918,8 +45515,11 @@
       <c r="AQ83">
         <v>18</v>
       </c>
+      <c r="AR83">
+        <v>21</v>
+      </c>
     </row>
-    <row r="84" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="8" t="s">
         <v>50</v>
       </c>
@@ -44950,8 +45550,11 @@
       <c r="AQ84">
         <v>193</v>
       </c>
+      <c r="AR84">
+        <v>199</v>
+      </c>
     </row>
-    <row r="85" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
         <v>51</v>
       </c>
@@ -44959,31 +45562,34 @@
         <v>0</v>
       </c>
       <c r="AJ85" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AK85" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AL85" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AM85" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AN85" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AO85" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AP85" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AQ85" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
+      </c>
+      <c r="AR85" s="24" t="s">
+        <v>293</v>
       </c>
     </row>
-    <row r="86" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="8" t="s">
         <v>52</v>
       </c>
@@ -45014,40 +45620,46 @@
       <c r="AQ86">
         <v>132</v>
       </c>
+      <c r="AR86">
+        <v>140</v>
+      </c>
     </row>
-    <row r="87" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
         <v>53</v>
       </c>
       <c r="AI87" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AJ87" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AK87" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AL87" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AM87" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AN87" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AO87" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AP87" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AQ87" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
+      </c>
+      <c r="AR87" s="24" t="s">
+        <v>293</v>
       </c>
     </row>
-    <row r="88" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="8" t="s">
         <v>54</v>
       </c>
@@ -45078,8 +45690,11 @@
       <c r="AQ88">
         <v>58</v>
       </c>
+      <c r="AR88">
+        <v>59</v>
+      </c>
     </row>
-    <row r="89" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
         <v>55</v>
       </c>
@@ -45110,8 +45725,11 @@
       <c r="AQ89">
         <v>8</v>
       </c>
+      <c r="AR89">
+        <v>8</v>
+      </c>
     </row>
-    <row r="90" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="8" t="s">
         <v>56</v>
       </c>
@@ -45142,8 +45760,11 @@
       <c r="AQ90">
         <v>21</v>
       </c>
+      <c r="AR90">
+        <v>21</v>
+      </c>
     </row>
-    <row r="91" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
         <v>57</v>
       </c>
@@ -45174,8 +45795,11 @@
       <c r="AQ91">
         <v>65</v>
       </c>
+      <c r="AR91">
+        <v>71</v>
+      </c>
     </row>
-    <row r="92" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="8" t="s">
         <v>58</v>
       </c>
@@ -45206,8 +45830,11 @@
       <c r="AQ92">
         <v>21</v>
       </c>
+      <c r="AR92">
+        <v>21</v>
+      </c>
     </row>
-    <row r="93" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
         <v>59</v>
       </c>
@@ -45238,8 +45865,11 @@
       <c r="AQ93">
         <v>93</v>
       </c>
+      <c r="AR93">
+        <v>98</v>
+      </c>
     </row>
-    <row r="94" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="8" t="s">
         <v>60</v>
       </c>
@@ -45270,40 +45900,46 @@
       <c r="AQ94">
         <v>107</v>
       </c>
+      <c r="AR94">
+        <v>109</v>
+      </c>
     </row>
-    <row r="95" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
         <v>61</v>
       </c>
       <c r="AI95" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AJ95" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AK95" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AL95" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AM95" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AN95" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AO95" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AP95" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AQ95" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
+      </c>
+      <c r="AR95" s="24" t="s">
+        <v>293</v>
       </c>
     </row>
-    <row r="96" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="8" t="s">
         <v>62</v>
       </c>
@@ -45333,6 +45969,9 @@
       </c>
       <c r="AQ96">
         <v>73</v>
+      </c>
+      <c r="AR96">
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -45366,6 +46005,9 @@
       <c r="AQ97">
         <v>35</v>
       </c>
+      <c r="AR97">
+        <v>38</v>
+      </c>
     </row>
     <row r="98" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="8" t="s">
@@ -45398,6 +46040,9 @@
       <c r="AQ98">
         <v>0</v>
       </c>
+      <c r="AR98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="6" t="s">
@@ -45430,6 +46075,9 @@
       <c r="AQ99">
         <v>130</v>
       </c>
+      <c r="AR99">
+        <v>141</v>
+      </c>
     </row>
     <row r="100" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="8" t="s">
@@ -45462,6 +46110,9 @@
       <c r="AQ100">
         <v>106</v>
       </c>
+      <c r="AR100">
+        <v>108</v>
+      </c>
     </row>
     <row r="101" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="6" t="s">
@@ -45494,6 +46145,9 @@
       <c r="AQ101">
         <v>37</v>
       </c>
+      <c r="AR101">
+        <v>39</v>
+      </c>
     </row>
     <row r="102" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="8" t="s">
@@ -45526,6 +46180,9 @@
       <c r="AQ102">
         <v>79</v>
       </c>
+      <c r="AR102">
+        <v>87</v>
+      </c>
     </row>
     <row r="103" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
@@ -45558,6 +46215,9 @@
       <c r="AQ103">
         <v>15</v>
       </c>
+      <c r="AR103">
+        <v>17</v>
+      </c>
     </row>
     <row r="104" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="8" t="s">
@@ -45590,6 +46250,9 @@
       <c r="AQ104">
         <v>45</v>
       </c>
+      <c r="AR104">
+        <v>47</v>
+      </c>
     </row>
     <row r="105" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="10" t="s">
@@ -45621,6 +46284,9 @@
       </c>
       <c r="AQ105">
         <v>1919</v>
+      </c>
+      <c r="AR105">
+        <v>2003</v>
       </c>
     </row>
     <row r="106" spans="1:216" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -45874,6 +46540,9 @@
       <c r="AQ107">
         <v>0</v>
       </c>
+      <c r="AR107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
@@ -45906,6 +46575,9 @@
       <c r="AQ108">
         <v>0</v>
       </c>
+      <c r="AR108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
@@ -45938,6 +46610,9 @@
       <c r="AQ109">
         <v>0</v>
       </c>
+      <c r="AR109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
@@ -45970,6 +46645,9 @@
       <c r="AQ110">
         <v>0</v>
       </c>
+      <c r="AR110">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
@@ -46002,6 +46680,9 @@
       <c r="AQ111" s="24">
         <v>3</v>
       </c>
+      <c r="AR111" s="24">
+        <v>3</v>
+      </c>
     </row>
     <row r="112" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
@@ -46034,8 +46715,11 @@
       <c r="AQ112">
         <v>12</v>
       </c>
+      <c r="AR112">
+        <v>12</v>
+      </c>
     </row>
-    <row r="113" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -46066,8 +46750,11 @@
       <c r="AQ113">
         <v>33</v>
       </c>
+      <c r="AR113">
+        <v>34</v>
+      </c>
     </row>
-    <row r="114" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>93</v>
       </c>
@@ -46098,8 +46785,11 @@
       <c r="AQ114">
         <v>138</v>
       </c>
+      <c r="AR114">
+        <v>141</v>
+      </c>
     </row>
-    <row r="115" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>94</v>
       </c>
@@ -46130,8 +46820,11 @@
       <c r="AQ115">
         <v>320</v>
       </c>
+      <c r="AR115">
+        <v>339</v>
+      </c>
     </row>
-    <row r="116" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>95</v>
       </c>
@@ -46162,8 +46855,11 @@
       <c r="AQ116">
         <v>1412</v>
       </c>
+      <c r="AR116">
+        <v>1474</v>
+      </c>
     </row>
-    <row r="117" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -46194,10 +46890,13 @@
       <c r="AQ117" s="24">
         <v>1</v>
       </c>
+      <c r="AR117" s="24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="118" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B118" t="s">
         <v>101</v>
@@ -46311,7 +47010,7 @@
         <v>1562</v>
       </c>
       <c r="AM118" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AN118">
         <v>1727</v>
@@ -46324,6 +47023,9 @@
       </c>
       <c r="AQ118">
         <v>1919</v>
+      </c>
+      <c r="AR118">
+        <v>2003</v>
       </c>
     </row>
   </sheetData>
@@ -46351,10 +47053,10 @@
         <v>86</v>
       </c>
       <c r="B1">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D1" t="s">
         <v>311</v>
@@ -46371,10 +47073,10 @@
         <v>87</v>
       </c>
       <c r="B2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D2" t="s">
         <v>312</v>
@@ -46391,13 +47093,13 @@
         <v>88</v>
       </c>
       <c r="B3">
-        <v>569</v>
-      </c>
-      <c r="C3" t="s">
-        <v>297</v>
+        <v>587</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -46411,13 +47113,13 @@
         <v>89</v>
       </c>
       <c r="B4">
-        <v>2081</v>
+        <v>2132</v>
       </c>
       <c r="C4" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="D4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -46431,19 +47133,19 @@
         <v>90</v>
       </c>
       <c r="B5">
-        <v>2401</v>
+        <v>2461</v>
       </c>
       <c r="C5" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F5" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -46451,10 +47153,10 @@
         <v>91</v>
       </c>
       <c r="B6">
-        <v>2705</v>
-      </c>
-      <c r="C6" t="s">
-        <v>316</v>
+        <v>2763</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>317</v>
@@ -46463,7 +47165,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -46471,19 +47173,19 @@
         <v>92</v>
       </c>
       <c r="B7">
-        <v>2480</v>
+        <v>2528</v>
       </c>
       <c r="C7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
         <v>319</v>
-      </c>
-      <c r="E7">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -46491,19 +47193,19 @@
         <v>93</v>
       </c>
       <c r="B8">
-        <v>1697</v>
+        <v>1729</v>
       </c>
       <c r="C8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E8">
+        <v>141</v>
+      </c>
+      <c r="F8" t="s">
         <v>321</v>
-      </c>
-      <c r="E8">
-        <v>138</v>
-      </c>
-      <c r="F8" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -46511,19 +47213,19 @@
         <v>94</v>
       </c>
       <c r="B9" s="2">
-        <v>1847</v>
+        <v>1882</v>
       </c>
       <c r="C9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E9">
+        <v>339</v>
+      </c>
+      <c r="F9" t="s">
         <v>323</v>
-      </c>
-      <c r="D9" t="s">
-        <v>324</v>
-      </c>
-      <c r="E9">
-        <v>320</v>
-      </c>
-      <c r="F9" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -46531,19 +47233,19 @@
         <v>95</v>
       </c>
       <c r="B10">
-        <v>5292</v>
+        <v>5366</v>
       </c>
       <c r="C10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E10" t="s">
         <v>326</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>327</v>
-      </c>
-      <c r="E10" t="s">
-        <v>328</v>
-      </c>
-      <c r="F10" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -46551,7 +47253,7 @@
         <v>96</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
         <v>228</v>
@@ -46560,7 +47262,7 @@
         <v>228</v>
       </c>
       <c r="E11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F11" t="s">
         <v>228</v>
@@ -46571,24 +47273,24 @@
         <v>97</v>
       </c>
       <c r="B12">
-        <v>19492</v>
+        <v>19878</v>
       </c>
       <c r="C12" t="s">
         <v>228</v>
       </c>
       <c r="D12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/app/data/covid19_MTL.xlsx
+++ b/app/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483947F8-06A0-4929-A606-F7752A75ED63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6680846-BAB4-451C-943D-4423A8D06209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="390" windowWidth="38620" windowHeight="20740" tabRatio="585" activeTab="2" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="15150" yWindow="3470" windowWidth="26450" windowHeight="17150" tabRatio="585" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="334">
   <si>
     <t>borough</t>
   </si>
@@ -943,9 +943,6 @@
     <t>30 AVRIL, 18h30</t>
   </si>
   <si>
-    <t>0,8</t>
-  </si>
-  <si>
     <t>1er MAI, 18h00</t>
   </si>
   <si>
@@ -997,76 +994,88 @@
     <t>12,4</t>
   </si>
   <si>
-    <t>4,3</t>
-  </si>
-  <si>
     <t>9,5</t>
-  </si>
-  <si>
-    <t>2 003</t>
   </si>
   <si>
     <t>11 MAI, 18h05</t>
   </si>
   <si>
-    <t> 167,8</t>
-  </si>
-  <si>
-    <t>154,7</t>
-  </si>
-  <si>
-    <t> 295,1</t>
-  </si>
-  <si>
     <t>10,8</t>
-  </si>
-  <si>
-    <t> 661,9</t>
-  </si>
-  <si>
-    <t>749,1</t>
-  </si>
-  <si>
-    <t>992,7</t>
-  </si>
-  <si>
-    <t>984,9</t>
-  </si>
-  <si>
-    <t>13,2</t>
-  </si>
-  <si>
-    <t>798,4</t>
-  </si>
-  <si>
-    <t>65,1</t>
-  </si>
-  <si>
-    <t> 1 300,6</t>
-  </si>
-  <si>
-    <t> 234,3</t>
   </si>
   <si>
     <t>27,1</t>
   </si>
   <si>
-    <t>5 310,7</t>
+    <t>12 MAI, 18h05</t>
   </si>
   <si>
-    <t>1 474</t>
+    <t>0,0</t>
   </si>
   <si>
-    <t> 1 458,8</t>
+    <t>2 063</t>
   </si>
   <si>
-    <t>962,3</t>
+    <t>99,9</t>
   </si>
   <si>
-    <t> 97,0</t>
+    <t>171,4</t>
   </si>
   <si>
-    <t>¹Source : Fichier V10 en date du 11 mai 18 h 05</t>
+    <t>160,2</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>304,7</t>
+  </si>
+  <si>
+    <t>676,2</t>
+  </si>
+  <si>
+    <t>759,4</t>
+  </si>
+  <si>
+    <t>n.p</t>
+  </si>
+  <si>
+    <t>13,9</t>
+  </si>
+  <si>
+    <t>1 006,7</t>
+  </si>
+  <si>
+    <t>* 4,3</t>
+  </si>
+  <si>
+    <t>1 004,4</t>
+  </si>
+  <si>
+    <t>* 14</t>
+  </si>
+  <si>
+    <t>809,9</t>
+  </si>
+  <si>
+    <t>67,4</t>
+  </si>
+  <si>
+    <t>1 320,0</t>
+  </si>
+  <si>
+    <t>240,5</t>
+  </si>
+  <si>
+    <t>5 412,7</t>
+  </si>
+  <si>
+    <t>1 518</t>
+  </si>
+  <si>
+    <t>1502,4</t>
+  </si>
+  <si>
+    <t>979,4</t>
   </si>
 </sst>
 </file>
@@ -1580,20 +1589,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:AS35"/>
+  <dimension ref="A1:AT35"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AO43" sqref="AO43"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AQ40" sqref="AQ40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="45" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="46" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1729,8 +1738,11 @@
       <c r="AS1" s="19">
         <v>43962</v>
       </c>
+      <c r="AT1" s="19">
+        <v>43963</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1866,8 +1878,11 @@
       <c r="AS2">
         <v>1645</v>
       </c>
+      <c r="AT2">
+        <v>1671</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2003,8 +2018,11 @@
       <c r="AS3">
         <v>455</v>
       </c>
+      <c r="AT3">
+        <v>471</v>
+      </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2140,8 +2158,11 @@
       <c r="AS4">
         <v>11</v>
       </c>
+      <c r="AT4">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2277,8 +2298,11 @@
       <c r="AS5">
         <v>51</v>
       </c>
+      <c r="AT5">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2414,8 +2438,11 @@
       <c r="AS6">
         <v>1616</v>
       </c>
+      <c r="AT6">
+        <v>1633</v>
+      </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -2551,8 +2578,11 @@
       <c r="AS7">
         <v>405</v>
       </c>
+      <c r="AT7">
+        <v>408</v>
+      </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -2688,8 +2718,11 @@
       <c r="AS8">
         <v>290</v>
       </c>
+      <c r="AT8">
+        <v>310</v>
+      </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -2825,8 +2858,11 @@
       <c r="AS9">
         <v>147</v>
       </c>
+      <c r="AT9">
+        <v>150</v>
+      </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -2962,8 +2998,11 @@
       <c r="AS10">
         <v>48</v>
       </c>
+      <c r="AT10">
+        <v>48</v>
+      </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -3099,8 +3138,11 @@
       <c r="AS11">
         <v>85</v>
       </c>
+      <c r="AT11">
+        <v>88</v>
+      </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3236,8 +3278,11 @@
       <c r="AS12">
         <v>417</v>
       </c>
+      <c r="AT12">
+        <v>433</v>
+      </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3373,8 +3418,11 @@
       <c r="AS13">
         <v>946</v>
       </c>
+      <c r="AT13">
+        <v>953</v>
+      </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3510,8 +3558,11 @@
       <c r="AS14">
         <v>143</v>
       </c>
+      <c r="AT14">
+        <v>154</v>
+      </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3647,8 +3698,11 @@
       <c r="AS15">
         <v>1552</v>
       </c>
+      <c r="AT15">
+        <v>1951</v>
+      </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -3784,8 +3838,11 @@
       <c r="AS16">
         <v>27</v>
       </c>
+      <c r="AT16">
+        <v>28</v>
+      </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3921,8 +3978,11 @@
       <c r="AS17">
         <v>1820</v>
       </c>
+      <c r="AT17">
+        <v>1857</v>
+      </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -4058,8 +4118,11 @@
       <c r="AS18">
         <v>16</v>
       </c>
+      <c r="AT18">
+        <v>17</v>
+      </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -4195,8 +4258,11 @@
       <c r="AS19">
         <v>226</v>
       </c>
+      <c r="AT19">
+        <v>229</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4332,8 +4398,11 @@
       <c r="AS20">
         <v>222</v>
       </c>
+      <c r="AT20">
+        <v>224</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4469,8 +4538,11 @@
       <c r="AS21">
         <v>377</v>
       </c>
+      <c r="AT21">
+        <v>387</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4606,8 +4678,11 @@
       <c r="AS22">
         <v>710</v>
       </c>
+      <c r="AT22">
+        <v>721</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -4743,8 +4818,11 @@
       <c r="AS23">
         <v>145</v>
       </c>
+      <c r="AT23">
+        <v>148</v>
+      </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4880,8 +4958,11 @@
       <c r="AS24">
         <v>1525</v>
       </c>
+      <c r="AT24">
+        <v>1561</v>
+      </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5017,8 +5098,11 @@
       <c r="AS25">
         <v>1103</v>
       </c>
+      <c r="AT25">
+        <v>1126</v>
+      </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -5154,8 +5238,11 @@
       <c r="AS26">
         <v>16</v>
       </c>
+      <c r="AT26">
+        <v>16</v>
+      </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5291,8 +5378,11 @@
       <c r="AS27">
         <v>710</v>
       </c>
+      <c r="AT27">
+        <v>724</v>
+      </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5428,8 +5518,11 @@
       <c r="AS28">
         <v>783</v>
       </c>
+      <c r="AT28">
+        <v>801</v>
+      </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -5565,8 +5658,11 @@
       <c r="AS29">
         <v>2</v>
       </c>
+      <c r="AT29">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5702,8 +5798,11 @@
       <c r="AS30">
         <v>727</v>
       </c>
+      <c r="AT30">
+        <v>730</v>
+      </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5839,8 +5938,11 @@
       <c r="AS31">
         <v>768</v>
       </c>
+      <c r="AT31">
+        <v>780</v>
+      </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5976,8 +6078,11 @@
       <c r="AS32">
         <v>539</v>
       </c>
+      <c r="AT32">
+        <v>543</v>
+      </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -6113,8 +6218,11 @@
       <c r="AS33">
         <v>1411</v>
       </c>
+      <c r="AT33">
+        <v>1435</v>
+      </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -6250,8 +6358,11 @@
       <c r="AS34">
         <v>149</v>
       </c>
+      <c r="AT34">
+        <v>149</v>
+      </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -6386,6 +6497,9 @@
       </c>
       <c r="AS35">
         <v>792</v>
+      </c>
+      <c r="AT35">
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -6396,11 +6510,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:AS34"/>
+  <dimension ref="A1:AT34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT8" sqref="AT8"/>
+      <selection pane="topRight" activeCell="AU11" sqref="AU11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6408,10 +6522,10 @@
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="27" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="45" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="46" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6568,8 +6682,11 @@
       <c r="AS1" s="1">
         <v>43962</v>
       </c>
+      <c r="AT1" s="1">
+        <v>43963</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6745,8 +6862,12 @@
         <f>cases!AS2/(population_2016!$B2/1000)</f>
         <v>12.253715222168424</v>
       </c>
+      <c r="AT2" s="3">
+        <f>cases!AT2/(population_2016!$B2/1000)</f>
+        <v>12.447390964281723</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6922,8 +7043,12 @@
         <f>cases!AS3/(population_2016!$B3/1000)</f>
         <v>10.631834750911301</v>
       </c>
+      <c r="AT3" s="3">
+        <f>cases!AT3/(population_2016!$B3/1000)</f>
+        <v>11.005701467426862</v>
+      </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -7099,8 +7224,12 @@
         <f>cases!AS4/(population_2016!$B4/1000)</f>
         <v>2.8773214752811929</v>
       </c>
+      <c r="AT4" s="3">
+        <f>cases!AT4/(population_2016!$B4/1000)</f>
+        <v>3.6620455139942454</v>
+      </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -7276,8 +7405,12 @@
         <f>cases!AS5/(population_2016!$B5/1000)</f>
         <v>2.6392051335127302</v>
       </c>
+      <c r="AT5" s="3">
+        <f>cases!AT5/(population_2016!$B5/1000)</f>
+        <v>2.5874560132477744</v>
+      </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7453,8 +7586,12 @@
         <f>cases!AS6/(population_2016!$B6/1000)</f>
         <v>9.7045399951957716</v>
       </c>
+      <c r="AT6" s="3">
+        <f>cases!AT6/(population_2016!$B6/1000)</f>
+        <v>9.8066298342541423</v>
+      </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -7630,8 +7767,12 @@
         <f>cases!AS7/(population_2016!$B7/1000)</f>
         <v>12.481508875739644</v>
       </c>
+      <c r="AT7" s="3">
+        <f>cases!AT7/(population_2016!$B7/1000)</f>
+        <v>12.57396449704142</v>
+      </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -7807,8 +7948,12 @@
         <f>cases!AS8/(population_2016!$B8/1000)</f>
         <v>5.9305916276406467</v>
       </c>
+      <c r="AT8" s="3">
+        <f>cases!AT8/(population_2016!$B8/1000)</f>
+        <v>6.3395979467882775</v>
+      </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -7984,8 +8129,12 @@
         <f>cases!AS9/(population_2016!$B9/1000)</f>
         <v>7.7449947312961012</v>
       </c>
+      <c r="AT9" s="3">
+        <f>cases!AT9/(population_2016!$B9/1000)</f>
+        <v>7.9030558482613271</v>
+      </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -8161,8 +8310,12 @@
         <f>cases!AS10/(population_2016!$B10/1000)</f>
         <v>6.8836942492470961</v>
       </c>
+      <c r="AT10" s="3">
+        <f>cases!AT10/(population_2016!$B10/1000)</f>
+        <v>6.8836942492470961</v>
+      </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -8338,8 +8491,12 @@
         <f>cases!AS11/(population_2016!$B11/1000)</f>
         <v>4.2181529452632622</v>
       </c>
+      <c r="AT11" s="3">
+        <f>cases!AT11/(population_2016!$B11/1000)</f>
+        <v>4.3670289315666713</v>
+      </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -8515,8 +8672,12 @@
         <f>cases!AS12/(population_2016!$B12/1000)</f>
         <v>9.3731034637775643</v>
       </c>
+      <c r="AT12" s="3">
+        <f>cases!AT12/(population_2016!$B12/1000)</f>
+        <v>9.7327429252174706</v>
+      </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -8692,8 +8853,12 @@
         <f>cases!AS13/(population_2016!$B13/1000)</f>
         <v>12.309213693674939</v>
       </c>
+      <c r="AT13" s="3">
+        <f>cases!AT13/(population_2016!$B13/1000)</f>
+        <v>12.400296670266615</v>
+      </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -8869,8 +9034,12 @@
         <f>cases!AS14/(population_2016!$B14/1000)</f>
         <v>7.7662521044913921</v>
       </c>
+      <c r="AT14" s="3">
+        <f>cases!AT14/(population_2016!$B14/1000)</f>
+        <v>8.3636561125291919</v>
+      </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -9046,8 +9215,12 @@
         <f>cases!AS15/(population_2016!$B15/1000)</f>
         <v>11.409751220372875</v>
       </c>
+      <c r="AT15" s="3">
+        <f>cases!AT15/(population_2016!$B15/1000)</f>
+        <v>14.343057107569253</v>
+      </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -9223,8 +9396,12 @@
         <f>cases!AS16/(population_2016!$B16/1000)</f>
         <v>7.0129870129870131</v>
       </c>
+      <c r="AT16" s="3">
+        <f>cases!AT16/(population_2016!$B16/1000)</f>
+        <v>7.2727272727272725</v>
+      </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -9400,8 +9577,12 @@
         <f>cases!AS17/(population_2016!$B17/1000)</f>
         <v>21.606477194482039</v>
       </c>
+      <c r="AT17" s="3">
+        <f>cases!AT17/(population_2016!$B17/1000)</f>
+        <v>22.045729752831399</v>
+      </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -9577,8 +9758,12 @@
         <f>cases!AS18/(population_2016!$B18/1000)</f>
         <v>3.1683168316831685</v>
       </c>
+      <c r="AT18" s="3">
+        <f>cases!AT18/(population_2016!$B18/1000)</f>
+        <v>3.3663366336633667</v>
+      </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -9754,8 +9939,12 @@
         <f>cases!AS19/(population_2016!$B19/1000)</f>
         <v>11.146182679029394</v>
       </c>
+      <c r="AT19" s="3">
+        <f>cases!AT19/(population_2016!$B19/1000)</f>
+        <v>11.294140856184653</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -9931,8 +10120,12 @@
         <f>cases!AS20/(population_2016!$B20/1000)</f>
         <v>9.2677632128245797</v>
       </c>
+      <c r="AT20" s="3">
+        <f>cases!AT20/(population_2016!$B20/1000)</f>
+        <v>9.3512565751022798</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -10108,8 +10301,12 @@
         <f>cases!AS21/(population_2016!$B21/1000)</f>
         <v>5.4403509531437146</v>
       </c>
+      <c r="AT21" s="3">
+        <f>cases!AT21/(population_2016!$B21/1000)</f>
+        <v>5.5846573444737873</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -10285,8 +10482,12 @@
         <f>cases!AS22/(population_2016!$B22/1000)</f>
         <v>6.8269230769230766</v>
       </c>
+      <c r="AT22" s="3">
+        <f>cases!AT22/(population_2016!$B22/1000)</f>
+        <v>6.9326923076923075</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -10462,8 +10663,12 @@
         <f>cases!AS23/(population_2016!$B23/1000)</f>
         <v>4.6207775653282344</v>
       </c>
+      <c r="AT23" s="3">
+        <f>cases!AT23/(population_2016!$B23/1000)</f>
+        <v>4.7163798597833013</v>
+      </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -10639,8 +10844,12 @@
         <f>cases!AS24/(population_2016!$B24/1000)</f>
         <v>14.286651115295617</v>
       </c>
+      <c r="AT24" s="3">
+        <f>cases!AT24/(population_2016!$B24/1000)</f>
+        <v>14.623909764574726</v>
+      </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -10816,8 +11025,12 @@
         <f>cases!AS25/(population_2016!$B25/1000)</f>
         <v>7.901712157031306</v>
       </c>
+      <c r="AT25" s="3">
+        <f>cases!AT25/(population_2016!$B25/1000)</f>
+        <v>8.0664804069059386</v>
+      </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -10993,8 +11206,12 @@
         <f>cases!AS26/(population_2016!$B26/1000)</f>
         <v>3.227107704719645</v>
       </c>
+      <c r="AT26" s="3">
+        <f>cases!AT26/(population_2016!$B26/1000)</f>
+        <v>3.227107704719645</v>
+      </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -11170,8 +11387,12 @@
         <f>cases!AS27/(population_2016!$B27/1000)</f>
         <v>7.1841988100538305</v>
       </c>
+      <c r="AT27" s="3">
+        <f>cases!AT27/(population_2016!$B27/1000)</f>
+        <v>7.325859068280244</v>
+      </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -11347,8 +11568,12 @@
         <f>cases!AS28/(population_2016!$B28/1000)</f>
         <v>9.9993614711704222</v>
       </c>
+      <c r="AT28" s="3">
+        <f>cases!AT28/(population_2016!$B28/1000)</f>
+        <v>10.229231849818019</v>
+      </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -11524,8 +11749,12 @@
         <f>cases!AS29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
+      <c r="AT29" s="3">
+        <f>cases!AT29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -11701,8 +11930,12 @@
         <f>cases!AS30/(population_2016!$B30/1000)</f>
         <v>9.3025041266266584</v>
       </c>
+      <c r="AT30" s="3">
+        <f>cases!AT30/(population_2016!$B30/1000)</f>
+        <v>9.3408913513582679</v>
+      </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -11878,8 +12111,12 @@
         <f>cases!AS31/(population_2016!$B31/1000)</f>
         <v>11.09361683687472</v>
       </c>
+      <c r="AT31" s="3">
+        <f>cases!AT31/(population_2016!$B31/1000)</f>
+        <v>11.266954599950887</v>
+      </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -12055,8 +12292,12 @@
         <f>cases!AS32/(population_2016!$B32/1000)</f>
         <v>6.0446338454637205</v>
       </c>
+      <c r="AT32" s="3">
+        <f>cases!AT32/(population_2016!$B32/1000)</f>
+        <v>6.0894919816081643</v>
+      </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -12232,8 +12473,12 @@
         <f>cases!AS33/(population_2016!$B33/1000)</f>
         <v>9.80862408152767</v>
       </c>
+      <c r="AT33" s="3">
+        <f>cases!AT33/(population_2016!$B33/1000)</f>
+        <v>9.9754610609441574</v>
+      </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -12407,6 +12652,10 @@
       </c>
       <c r="AS34" s="3">
         <f>cases!AS34/(population_2016!$B34/1000)</f>
+        <v>7.3355651831429691</v>
+      </c>
+      <c r="AT34" s="3">
+        <f>cases!AT34/(population_2016!$B34/1000)</f>
         <v>7.3355651831429691</v>
       </c>
     </row>
@@ -12417,11 +12666,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AS59"/>
+  <dimension ref="A1:AS60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
+      <selection pane="bottomLeft" activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15141,11 +15390,11 @@
       </c>
       <c r="B20" s="17">
         <f>mtl_newcases!C21</f>
-        <v>2963</v>
+        <v>2966</v>
       </c>
       <c r="C20" s="17">
         <f t="shared" si="0"/>
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>101</v>
@@ -15311,11 +15560,11 @@
       </c>
       <c r="B21" s="17">
         <f>mtl_newcases!C22</f>
-        <v>3314</v>
+        <v>3318</v>
       </c>
       <c r="C21" s="17">
         <f t="shared" si="0"/>
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>101</v>
@@ -15481,11 +15730,11 @@
       </c>
       <c r="B22" s="17">
         <f>mtl_newcases!C23</f>
-        <v>3658</v>
+        <v>3661</v>
       </c>
       <c r="C22" s="17">
         <f t="shared" si="0"/>
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>101</v>
@@ -15651,11 +15900,11 @@
       </c>
       <c r="B23" s="17">
         <f>mtl_newcases!C24</f>
-        <v>3919</v>
+        <v>3923</v>
       </c>
       <c r="C23" s="17">
         <f t="shared" si="0"/>
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>101</v>
@@ -15821,7 +16070,7 @@
       </c>
       <c r="B24" s="17">
         <f>mtl_newcases!C25</f>
-        <v>4377</v>
+        <v>4381</v>
       </c>
       <c r="C24" s="17">
         <f t="shared" si="0"/>
@@ -15991,7 +16240,7 @@
       </c>
       <c r="B25" s="17">
         <f>mtl_newcases!C26</f>
-        <v>4801</v>
+        <v>4805</v>
       </c>
       <c r="C25" s="17">
         <f t="shared" si="0"/>
@@ -16162,11 +16411,11 @@
       </c>
       <c r="B26" s="17">
         <f>mtl_newcases!C27</f>
-        <v>5178</v>
+        <v>5181</v>
       </c>
       <c r="C26" s="17">
         <f t="shared" si="0"/>
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D26">
         <v>91</v>
@@ -16333,7 +16582,7 @@
       </c>
       <c r="B27" s="17">
         <f>mtl_newcases!C28</f>
-        <v>5529</v>
+        <v>5532</v>
       </c>
       <c r="C27" s="17">
         <f t="shared" si="0"/>
@@ -16504,7 +16753,7 @@
       </c>
       <c r="B28" s="17">
         <f>mtl_newcases!C29</f>
-        <v>5835</v>
+        <v>5838</v>
       </c>
       <c r="C28" s="17">
         <f t="shared" si="0"/>
@@ -16675,11 +16924,11 @@
       </c>
       <c r="B29" s="17">
         <f>mtl_newcases!C30</f>
-        <v>6098</v>
+        <v>6100</v>
       </c>
       <c r="C29" s="17">
         <f t="shared" si="0"/>
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D29">
         <v>147</v>
@@ -16850,7 +17099,7 @@
       </c>
       <c r="C30" s="17">
         <f t="shared" si="0"/>
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D30">
         <v>162</v>
@@ -17188,11 +17437,11 @@
       </c>
       <c r="B32" s="17">
         <f>mtl_newcases!C33</f>
-        <v>7438</v>
+        <v>7437</v>
       </c>
       <c r="C32" s="17">
         <f t="shared" si="0"/>
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D32">
         <v>242</v>
@@ -17359,11 +17608,11 @@
       </c>
       <c r="B33" s="17">
         <f>mtl_newcases!C34</f>
-        <v>8066</v>
+        <v>8063</v>
       </c>
       <c r="C33" s="17">
         <f t="shared" si="0"/>
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D33">
         <v>332</v>
@@ -17530,7 +17779,7 @@
       </c>
       <c r="B34" s="17">
         <f>mtl_newcases!C35</f>
-        <v>8556</v>
+        <v>8553</v>
       </c>
       <c r="C34" s="17">
         <f t="shared" si="0"/>
@@ -17701,7 +17950,7 @@
       </c>
       <c r="B35" s="17">
         <f>mtl_newcases!C36</f>
-        <v>9128</v>
+        <v>9125</v>
       </c>
       <c r="C35" s="17">
         <f t="shared" si="0"/>
@@ -17872,7 +18121,7 @@
       </c>
       <c r="B36" s="17">
         <f>mtl_newcases!C37</f>
-        <v>9450</v>
+        <v>9447</v>
       </c>
       <c r="C36" s="17">
         <f t="shared" si="0"/>
@@ -18043,11 +18292,11 @@
       </c>
       <c r="B37" s="17">
         <f>mtl_newcases!C38</f>
-        <v>9877</v>
+        <v>9876</v>
       </c>
       <c r="C37" s="17">
         <f t="shared" si="0"/>
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D37">
         <v>525</v>
@@ -18183,11 +18432,11 @@
       </c>
       <c r="B38" s="17">
         <f>mtl_newcases!C39</f>
-        <v>10369</v>
+        <v>10366</v>
       </c>
       <c r="C38" s="17">
         <f t="shared" si="0"/>
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D38">
         <v>583</v>
@@ -18354,7 +18603,7 @@
       </c>
       <c r="B39" s="17">
         <f>mtl_newcases!C40</f>
-        <v>10831</v>
+        <v>10828</v>
       </c>
       <c r="C39" s="17">
         <f t="shared" si="0"/>
@@ -18525,11 +18774,11 @@
       </c>
       <c r="B40" s="17">
         <f>mtl_newcases!C41</f>
-        <v>11377</v>
+        <v>11372</v>
       </c>
       <c r="C40" s="17">
         <f t="shared" si="0"/>
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D40">
         <v>741</v>
@@ -18696,7 +18945,7 @@
       </c>
       <c r="B41" s="17">
         <f>mtl_newcases!C42</f>
-        <v>11909</v>
+        <v>11904</v>
       </c>
       <c r="C41" s="17">
         <f t="shared" si="0"/>
@@ -18867,11 +19116,11 @@
       </c>
       <c r="B42" s="17">
         <f>mtl_newcases!C43</f>
-        <v>12414</v>
+        <v>12407</v>
       </c>
       <c r="C42" s="17">
         <f t="shared" si="0"/>
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D42">
         <v>895</v>
@@ -19038,7 +19287,7 @@
       </c>
       <c r="B43" s="17">
         <f>mtl_newcases!C44</f>
-        <v>12734</v>
+        <v>12727</v>
       </c>
       <c r="C43" s="17">
         <f t="shared" si="0"/>
@@ -19209,11 +19458,11 @@
       </c>
       <c r="B44" s="17">
         <f>mtl_newcases!C45</f>
-        <v>13037</v>
+        <v>13031</v>
       </c>
       <c r="C44" s="17">
         <f>B44-B43</f>
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D44">
         <v>983</v>
@@ -19380,11 +19629,11 @@
       </c>
       <c r="B45" s="17">
         <f>mtl_newcases!C46</f>
-        <v>13507</v>
+        <v>13499</v>
       </c>
       <c r="C45" s="17">
         <f>B45-B44</f>
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D45">
         <v>1039</v>
@@ -19551,7 +19800,7 @@
       </c>
       <c r="B46" s="17">
         <f>mtl_newcases!C47</f>
-        <v>13982</v>
+        <v>13974</v>
       </c>
       <c r="C46" s="17">
         <f t="shared" ref="C46:C47" si="438">B46-B45</f>
@@ -19691,11 +19940,11 @@
       </c>
       <c r="B47" s="17">
         <f>mtl_newcases!C48</f>
-        <v>14507</v>
+        <v>14500</v>
       </c>
       <c r="C47" s="17">
         <f t="shared" si="438"/>
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D47">
         <v>1146</v>
@@ -19831,11 +20080,11 @@
       </c>
       <c r="B48" s="17">
         <f>mtl_newcases!C49</f>
-        <v>15110</v>
+        <v>15101</v>
       </c>
       <c r="C48" s="17">
         <f t="shared" ref="C48" si="439">B48-B47</f>
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D48">
         <v>1245</v>
@@ -20002,11 +20251,11 @@
       </c>
       <c r="B49" s="17">
         <f>mtl_newcases!C50</f>
-        <v>15729</v>
+        <v>15721</v>
       </c>
       <c r="C49" s="17">
         <f t="shared" ref="C49" si="461">B49-B48</f>
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D49">
         <v>1312</v>
@@ -20173,11 +20422,11 @@
       </c>
       <c r="B50" s="17">
         <f>mtl_newcases!C51</f>
-        <v>16263</v>
+        <v>16256</v>
       </c>
       <c r="C50" s="17">
         <f t="shared" ref="C50" si="483">B50-B49</f>
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D50">
         <v>1365</v>
@@ -20344,11 +20593,11 @@
       </c>
       <c r="B51" s="17">
         <f>mtl_newcases!C52</f>
-        <v>16616</v>
+        <v>16606</v>
       </c>
       <c r="C51" s="17">
         <f t="shared" ref="C51" si="505">B51-B50</f>
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D51">
         <v>1410</v>
@@ -20515,11 +20764,11 @@
       </c>
       <c r="B52" s="17">
         <f>mtl_newcases!C53</f>
-        <v>17042</v>
+        <v>17039</v>
       </c>
       <c r="C52" s="17">
         <f t="shared" ref="C52" si="527">B52-B51</f>
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="D52">
         <v>1488</v>
@@ -20686,11 +20935,11 @@
       </c>
       <c r="B53" s="17">
         <f>mtl_newcases!C54</f>
-        <v>17540</v>
+        <v>17529</v>
       </c>
       <c r="C53" s="17">
         <f t="shared" ref="C53" si="549">B53-B52</f>
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D53">
         <v>1562</v>
@@ -20857,11 +21106,11 @@
       </c>
       <c r="B54" s="17">
         <f>mtl_newcases!C55</f>
-        <v>18115</v>
+        <v>18105</v>
       </c>
       <c r="C54" s="17">
         <f t="shared" ref="C54:C55" si="571">B54-B53</f>
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D54">
         <v>1666</v>
@@ -21028,11 +21277,11 @@
       </c>
       <c r="B55" s="17">
         <f>mtl_newcases!C56</f>
-        <v>18567</v>
+        <v>18552</v>
       </c>
       <c r="C55" s="17">
         <f t="shared" si="571"/>
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D55">
         <v>1727</v>
@@ -21199,11 +21448,11 @@
       </c>
       <c r="B56" s="17">
         <f>mtl_newcases!C57</f>
-        <v>19007</v>
+        <v>19010</v>
       </c>
       <c r="C56" s="17">
         <f t="shared" ref="C56" si="613">B56-B55</f>
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="D56">
         <v>1760</v>
@@ -21370,11 +21619,11 @@
       </c>
       <c r="B57" s="17">
         <f>mtl_newcases!C58</f>
-        <v>19354</v>
+        <v>19338</v>
       </c>
       <c r="C57" s="17">
         <f t="shared" ref="C57" si="635">B57-B56</f>
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="D57">
         <v>1863</v>
@@ -21541,11 +21790,11 @@
       </c>
       <c r="B58" s="17">
         <f>mtl_newcases!C59</f>
-        <v>19610</v>
+        <v>19635</v>
       </c>
       <c r="C58" s="17">
         <f t="shared" ref="C58" si="657">B58-B57</f>
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="D58">
         <v>1919</v>
@@ -21712,11 +21961,11 @@
       </c>
       <c r="B59" s="17">
         <f>mtl_newcases!C60</f>
-        <v>19878</v>
+        <v>20001</v>
       </c>
       <c r="C59" s="17">
         <f t="shared" ref="C59" si="679">B59-B58</f>
-        <v>268</v>
+        <v>366</v>
       </c>
       <c r="D59">
         <v>2003</v>
@@ -21875,6 +22124,177 @@
       <c r="AS59" s="3">
         <f t="shared" ref="AS59" si="700">Y59*100/SUM($P59:$Y59)</f>
         <v>45.342250333859191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A60" s="19">
+        <v>43963</v>
+      </c>
+      <c r="B60" s="17">
+        <f>mtl_newcases!C61</f>
+        <v>20232</v>
+      </c>
+      <c r="C60" s="17">
+        <f t="shared" ref="C60" si="701">B60-B59</f>
+        <v>231</v>
+      </c>
+      <c r="D60">
+        <v>2063</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ref="E60" si="702">D60-D59</f>
+        <v>60</v>
+      </c>
+      <c r="F60" cm="1">
+        <f t="array" ref="F60:O60">TRANSPOSE(santemontreal!AS$57:AS$66)</f>
+        <v>190</v>
+      </c>
+      <c r="G60">
+        <v>173</v>
+      </c>
+      <c r="H60">
+        <v>606</v>
+      </c>
+      <c r="I60">
+        <v>2178</v>
+      </c>
+      <c r="J60">
+        <v>2495</v>
+      </c>
+      <c r="K60">
+        <v>2802</v>
+      </c>
+      <c r="L60">
+        <v>2578</v>
+      </c>
+      <c r="M60">
+        <v>1754</v>
+      </c>
+      <c r="N60">
+        <v>1910</v>
+      </c>
+      <c r="O60">
+        <v>5469</v>
+      </c>
+      <c r="P60" s="18">
+        <f>F60/(age_distribution_2016!$B$2/100000)</f>
+        <v>173.13650446509934</v>
+      </c>
+      <c r="Q60" s="18">
+        <f>G60/(age_distribution_2016!$B$3/100000)</f>
+        <v>165.73262441921733</v>
+      </c>
+      <c r="R60" s="18">
+        <f>H60/(age_distribution_2016!$B$4/100000)</f>
+        <v>322.02354066477136</v>
+      </c>
+      <c r="S60" s="18">
+        <f>I60/(age_distribution_2016!$B$5/100000)</f>
+        <v>742.77432006138633</v>
+      </c>
+      <c r="T60" s="18">
+        <f>J60/(age_distribution_2016!$B$6/100000)</f>
+        <v>832.56861600066736</v>
+      </c>
+      <c r="U60" s="18">
+        <f>K60/(age_distribution_2016!$B$7/100000)</f>
+        <v>1101.0904804008253</v>
+      </c>
+      <c r="V60" s="18">
+        <f>L60/(age_distribution_2016!$B$8/100000)</f>
+        <v>995.84741670690482</v>
+      </c>
+      <c r="W60" s="18">
+        <f>M60/(age_distribution_2016!$B$9/100000)</f>
+        <v>855.58888807590051</v>
+      </c>
+      <c r="X60" s="18">
+        <f>N60/(age_distribution_2016!$B$10/100000)</f>
+        <v>1472.8562615669341</v>
+      </c>
+      <c r="Y60" s="18">
+        <f>O60/(age_distribution_2016!$B$11/100000)</f>
+        <v>5535.1449825413692</v>
+      </c>
+      <c r="Z60" s="3">
+        <f t="shared" ref="Z60" si="703">F60*100/SUM($F60:$O60)</f>
+        <v>0.94269412056561652</v>
+      </c>
+      <c r="AA60" s="3">
+        <f t="shared" ref="AA60" si="704">G60*100/SUM($F60:$O60)</f>
+        <v>0.85834780451500869</v>
+      </c>
+      <c r="AB60" s="3">
+        <f t="shared" ref="AB60" si="705">H60*100/SUM($F60:$O60)</f>
+        <v>3.006698089804019</v>
+      </c>
+      <c r="AC60" s="3">
+        <f t="shared" ref="AC60" si="706">I60*100/SUM($F60:$O60)</f>
+        <v>10.806251550483751</v>
+      </c>
+      <c r="AD60" s="3">
+        <f t="shared" ref="AD60" si="707">J60*100/SUM($F60:$O60)</f>
+        <v>12.379062267427438</v>
+      </c>
+      <c r="AE60" s="3">
+        <f t="shared" ref="AE60" si="708">K60*100/SUM($F60:$O60)</f>
+        <v>13.902257504341355</v>
+      </c>
+      <c r="AF60" s="3">
+        <f t="shared" ref="AF60" si="709">L60*100/SUM($F60:$O60)</f>
+        <v>12.790870751674522</v>
+      </c>
+      <c r="AG60" s="3">
+        <f t="shared" ref="AG60" si="710">M60*100/SUM($F60:$O60)</f>
+        <v>8.7025551972215336</v>
+      </c>
+      <c r="AH60" s="3">
+        <f t="shared" ref="AH60" si="711">N60*100/SUM($F60:$O60)</f>
+        <v>9.4765566856859333</v>
+      </c>
+      <c r="AI60" s="3">
+        <f t="shared" ref="AI60" si="712">O60*100/SUM($F60:$O60)</f>
+        <v>27.134706028280824</v>
+      </c>
+      <c r="AJ60" s="3">
+        <f t="shared" ref="AJ60" si="713">P60*100/SUM($P60:$Y60)</f>
+        <v>1.4195282424727846</v>
+      </c>
+      <c r="AK60" s="3">
+        <f t="shared" ref="AK60" si="714">Q60*100/SUM($P60:$Y60)</f>
+        <v>1.3588245979035434</v>
+      </c>
+      <c r="AL60" s="3">
+        <f t="shared" ref="AL60" si="715">R60*100/SUM($P60:$Y60)</f>
+        <v>2.6402376097807387</v>
+      </c>
+      <c r="AM60" s="3">
+        <f t="shared" ref="AM60" si="716">S60*100/SUM($P60:$Y60)</f>
+        <v>6.0899296099812377</v>
+      </c>
+      <c r="AN60" s="3">
+        <f t="shared" ref="AN60" si="717">T60*100/SUM($P60:$Y60)</f>
+        <v>6.8261437289653895</v>
+      </c>
+      <c r="AO60" s="3">
+        <f t="shared" ref="AO60" si="718">U60*100/SUM($P60:$Y60)</f>
+        <v>9.0277266442211843</v>
+      </c>
+      <c r="AP60" s="3">
+        <f t="shared" ref="AP60" si="719">V60*100/SUM($P60:$Y60)</f>
+        <v>8.1648496807556477</v>
+      </c>
+      <c r="AQ60" s="3">
+        <f t="shared" ref="AQ60" si="720">W60*100/SUM($P60:$Y60)</f>
+        <v>7.0148845520584651</v>
+      </c>
+      <c r="AR60" s="3">
+        <f t="shared" ref="AR60" si="721">X60*100/SUM($P60:$Y60)</f>
+        <v>12.075795724630671</v>
+      </c>
+      <c r="AS60" s="3">
+        <f t="shared" ref="AS60" si="722">Y60*100/SUM($P60:$Y60)</f>
+        <v>45.382079609230331</v>
       </c>
     </row>
   </sheetData>
@@ -21884,11 +22304,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
+      <selection pane="bottomLeft" activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22029,7 +22449,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F71" si="1">E4-E3</f>
+        <f t="shared" ref="F4:F72" si="1">E4-E3</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -22042,7 +22462,7 @@
         <v>260</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J71" si="2">I4-I3</f>
+        <f t="shared" ref="J4:J72" si="2">I4-I3</f>
         <v>18</v>
       </c>
       <c r="K4" t="s">
@@ -24299,7 +24719,7 @@
         <v>33417</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:C71" si="4">B64-B63</f>
+        <f t="shared" ref="C64:C72" si="4">B64-B63</f>
         <v>794</v>
       </c>
       <c r="D64">
@@ -24593,6 +25013,44 @@
       </c>
       <c r="K71">
         <v>10056</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B72">
+        <v>39931</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="4"/>
+        <v>706</v>
+      </c>
+      <c r="D72">
+        <v>26241</v>
+      </c>
+      <c r="E72">
+        <v>3220</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="G72">
+        <v>1876</v>
+      </c>
+      <c r="H72">
+        <v>194</v>
+      </c>
+      <c r="I72">
+        <v>261569</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="2"/>
+        <v>5051</v>
+      </c>
+      <c r="K72">
+        <v>10470</v>
       </c>
     </row>
   </sheetData>
@@ -24602,11 +25060,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24907,11 +25365,11 @@
         <v>43923</v>
       </c>
       <c r="B21">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>2963</v>
+        <v>2966</v>
       </c>
       <c r="E21" s="19">
         <v>43923</v>
@@ -24921,7 +25379,7 @@
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G26" si="2">C21-F21</f>
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -24929,11 +25387,11 @@
         <v>43924</v>
       </c>
       <c r="B22">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>3314</v>
+        <v>3318</v>
       </c>
       <c r="E22" s="19">
         <v>43924</v>
@@ -24943,7 +25401,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -24951,11 +25409,11 @@
         <v>43925</v>
       </c>
       <c r="B23">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3658</v>
+        <v>3661</v>
       </c>
       <c r="E23" s="19">
         <v>43925</v>
@@ -24965,7 +25423,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>-55</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -24973,11 +25431,11 @@
         <v>43926</v>
       </c>
       <c r="B24">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>3919</v>
+        <v>3923</v>
       </c>
       <c r="E24" s="19">
         <v>43926</v>
@@ -24987,7 +25445,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>-58</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -24999,7 +25457,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>4377</v>
+        <v>4381</v>
       </c>
       <c r="E25" s="19">
         <v>43927</v>
@@ -25009,7 +25467,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>-30</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -25021,7 +25479,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>4801</v>
+        <v>4805</v>
       </c>
       <c r="E26" s="19">
         <v>43928</v>
@@ -25031,7 +25489,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -25039,11 +25497,11 @@
         <v>43929</v>
       </c>
       <c r="B27">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>5178</v>
+        <v>5181</v>
       </c>
       <c r="E27" s="19">
         <v>43929</v>
@@ -25053,7 +25511,7 @@
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="3">C27-F27</f>
-        <v>-84</v>
+        <v>-81</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -25065,7 +25523,7 @@
       </c>
       <c r="C28">
         <f t="shared" ref="C28:C37" si="4">C27+B28</f>
-        <v>5529</v>
+        <v>5532</v>
       </c>
       <c r="E28" s="19">
         <v>43930</v>
@@ -25075,7 +25533,7 @@
       </c>
       <c r="G28">
         <f t="shared" ref="G28:G33" si="5">C28-F28</f>
-        <v>-88</v>
+        <v>-85</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -25087,7 +25545,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
-        <v>5835</v>
+        <v>5838</v>
       </c>
       <c r="E29" s="19">
         <v>43931</v>
@@ -25097,7 +25555,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -25105,11 +25563,11 @@
         <v>43932</v>
       </c>
       <c r="B30">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
-        <v>6098</v>
+        <v>6100</v>
       </c>
       <c r="E30" s="19">
         <v>43932</v>
@@ -25119,7 +25577,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -25127,7 +25585,7 @@
         <v>43933</v>
       </c>
       <c r="B31">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
@@ -25171,11 +25629,11 @@
         <v>43935</v>
       </c>
       <c r="B33">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>7438</v>
+        <v>7437</v>
       </c>
       <c r="E33" s="19">
         <v>43935</v>
@@ -25185,7 +25643,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -25193,11 +25651,11 @@
         <v>43936</v>
       </c>
       <c r="B34">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>8066</v>
+        <v>8063</v>
       </c>
       <c r="E34" s="19">
         <v>43936</v>
@@ -25207,7 +25665,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G36" si="6">C34-F34</f>
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -25219,7 +25677,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>8556</v>
+        <v>8553</v>
       </c>
       <c r="E35" s="19">
         <v>43937</v>
@@ -25229,7 +25687,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -25241,7 +25699,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
-        <v>9128</v>
+        <v>9125</v>
       </c>
       <c r="E36" s="19">
         <v>43938</v>
@@ -25251,7 +25709,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -25263,7 +25721,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
-        <v>9450</v>
+        <v>9447</v>
       </c>
       <c r="E37" s="19">
         <v>43939</v>
@@ -25273,7 +25731,7 @@
       </c>
       <c r="G37">
         <f t="shared" ref="G37" si="7">C37-F37</f>
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -25281,11 +25739,11 @@
         <v>43940</v>
       </c>
       <c r="B38" s="23">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C39" si="8">C37+B38</f>
-        <v>9877</v>
+        <v>9876</v>
       </c>
       <c r="E38" s="19">
         <v>43940</v>
@@ -25295,7 +25753,7 @@
       </c>
       <c r="G38">
         <f t="shared" ref="G38" si="9">C38-F38</f>
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -25303,11 +25761,11 @@
         <v>43941</v>
       </c>
       <c r="B39">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C39">
         <f t="shared" si="8"/>
-        <v>10369</v>
+        <v>10366</v>
       </c>
       <c r="E39" s="19">
         <v>43941</v>
@@ -25317,7 +25775,7 @@
       </c>
       <c r="G39">
         <f t="shared" ref="G39" si="10">C39-F39</f>
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -25329,7 +25787,7 @@
       </c>
       <c r="C40">
         <f t="shared" ref="C40" si="11">C39+B40</f>
-        <v>10831</v>
+        <v>10828</v>
       </c>
       <c r="E40" s="19">
         <v>43942</v>
@@ -25339,7 +25797,7 @@
       </c>
       <c r="G40">
         <f t="shared" ref="G40" si="12">C40-F40</f>
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -25347,11 +25805,11 @@
         <v>43943</v>
       </c>
       <c r="B41">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C41">
         <f t="shared" ref="C41:C52" si="13">C40+B41</f>
-        <v>11377</v>
+        <v>11372</v>
       </c>
       <c r="E41" s="19">
         <v>43943</v>
@@ -25361,7 +25819,7 @@
       </c>
       <c r="G41">
         <f t="shared" ref="G41" si="14">C41-F41</f>
-        <v>1002</v>
+        <v>997</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -25373,7 +25831,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="13"/>
-        <v>11909</v>
+        <v>11904</v>
       </c>
       <c r="E42" s="19">
         <v>43944</v>
@@ -25383,7 +25841,7 @@
       </c>
       <c r="G42">
         <f t="shared" ref="G42:G44" si="15">C42-F42</f>
-        <v>1012</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -25391,11 +25849,11 @@
         <v>43945</v>
       </c>
       <c r="B43" s="23">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C43">
         <f t="shared" si="13"/>
-        <v>12414</v>
+        <v>12407</v>
       </c>
       <c r="E43" s="19">
         <v>43945</v>
@@ -25405,7 +25863,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="15"/>
-        <v>1253</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -25417,7 +25875,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="13"/>
-        <v>12734</v>
+        <v>12727</v>
       </c>
       <c r="E44" s="19">
         <v>43946</v>
@@ -25427,7 +25885,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="15"/>
-        <v>1113</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -25435,11 +25893,11 @@
         <v>43947</v>
       </c>
       <c r="B45" s="23">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C45">
         <f t="shared" si="13"/>
-        <v>13037</v>
+        <v>13031</v>
       </c>
       <c r="E45" s="19">
         <v>43947</v>
@@ -25449,7 +25907,7 @@
       </c>
       <c r="G45">
         <f>C45-F45</f>
-        <v>1003</v>
+        <v>997</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -25457,11 +25915,11 @@
         <v>43948</v>
       </c>
       <c r="B46" s="23">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C46">
         <f t="shared" si="13"/>
-        <v>13507</v>
+        <v>13499</v>
       </c>
       <c r="E46" s="19">
         <v>43948</v>
@@ -25471,7 +25929,7 @@
       </c>
       <c r="G46">
         <f>C46-F46</f>
-        <v>1020</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -25483,7 +25941,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="13"/>
-        <v>13982</v>
+        <v>13974</v>
       </c>
       <c r="E47" s="19">
         <v>43949</v>
@@ -25493,7 +25951,7 @@
       </c>
       <c r="G47">
         <f t="shared" ref="G47:G52" si="16">C47-F47</f>
-        <v>1171</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -25501,11 +25959,11 @@
         <v>43950</v>
       </c>
       <c r="B48" s="23">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C48">
         <f t="shared" si="13"/>
-        <v>14507</v>
+        <v>14500</v>
       </c>
       <c r="E48" s="19">
         <v>43950</v>
@@ -25515,7 +25973,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="16"/>
-        <v>1183</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -25523,11 +25981,11 @@
         <v>43951</v>
       </c>
       <c r="B49" s="23">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C49">
         <f t="shared" si="13"/>
-        <v>15110</v>
+        <v>15101</v>
       </c>
       <c r="E49" s="19">
         <v>43951</v>
@@ -25537,7 +25995,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="16"/>
-        <v>1131</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -25545,11 +26003,11 @@
         <v>43952</v>
       </c>
       <c r="B50" s="23">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C50">
         <f t="shared" si="13"/>
-        <v>15729</v>
+        <v>15721</v>
       </c>
       <c r="E50" s="19">
         <v>43952</v>
@@ -25559,7 +26017,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="16"/>
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -25567,11 +26025,11 @@
         <v>43953</v>
       </c>
       <c r="B51" s="23">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C51">
         <f t="shared" si="13"/>
-        <v>16263</v>
+        <v>16256</v>
       </c>
       <c r="E51" s="19">
         <v>43953</v>
@@ -25581,7 +26039,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="16"/>
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -25589,11 +26047,11 @@
         <v>43954</v>
       </c>
       <c r="B52" s="23">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C52">
         <f t="shared" si="13"/>
-        <v>16616</v>
+        <v>16606</v>
       </c>
       <c r="E52" s="19">
         <v>43954</v>
@@ -25603,7 +26061,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -25611,11 +26069,11 @@
         <v>43955</v>
       </c>
       <c r="B53" s="23">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="C53">
         <f t="shared" ref="C53" si="17">C52+B53</f>
-        <v>17042</v>
+        <v>17039</v>
       </c>
       <c r="E53" s="19">
         <v>43955</v>
@@ -25625,7 +26083,7 @@
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="18">C53-F53</f>
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -25633,11 +26091,11 @@
         <v>43956</v>
       </c>
       <c r="B54" s="23">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:C60" si="19">C53+B54</f>
-        <v>17540</v>
+        <f t="shared" ref="C54:C61" si="19">C53+B54</f>
+        <v>17529</v>
       </c>
       <c r="E54" s="19">
         <v>43956</v>
@@ -25647,7 +26105,7 @@
       </c>
       <c r="G54">
         <f t="shared" ref="G54" si="20">C54-F54</f>
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -25655,11 +26113,11 @@
         <v>43957</v>
       </c>
       <c r="B55" s="23">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C55">
         <f t="shared" si="19"/>
-        <v>18115</v>
+        <v>18105</v>
       </c>
       <c r="E55" s="19">
         <v>43957</v>
@@ -25669,7 +26127,7 @@
       </c>
       <c r="G55">
         <f t="shared" ref="G55:G58" si="21">C55-F55</f>
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -25677,11 +26135,11 @@
         <v>43958</v>
       </c>
       <c r="B56" s="23">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C56">
         <f t="shared" si="19"/>
-        <v>18567</v>
+        <v>18552</v>
       </c>
       <c r="E56" s="19">
         <v>43958</v>
@@ -25691,7 +26149,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="21"/>
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -25699,11 +26157,11 @@
         <v>43959</v>
       </c>
       <c r="B57" s="23">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="C57">
         <f t="shared" si="19"/>
-        <v>19007</v>
+        <v>19010</v>
       </c>
       <c r="E57" s="19">
         <v>43959</v>
@@ -25713,7 +26171,7 @@
       </c>
       <c r="G57">
         <f t="shared" si="21"/>
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -25721,11 +26179,11 @@
         <v>43960</v>
       </c>
       <c r="B58" s="23">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="C58">
         <f t="shared" si="19"/>
-        <v>19354</v>
+        <v>19338</v>
       </c>
       <c r="E58" s="19">
         <v>43960</v>
@@ -25735,7 +26193,7 @@
       </c>
       <c r="G58">
         <f t="shared" si="21"/>
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -25743,11 +26201,11 @@
         <v>43961</v>
       </c>
       <c r="B59" s="23">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="C59">
         <f t="shared" si="19"/>
-        <v>19610</v>
+        <v>19635</v>
       </c>
       <c r="E59" s="19">
         <v>43961</v>
@@ -25757,19 +26215,19 @@
       </c>
       <c r="G59">
         <f t="shared" ref="G59" si="22">C59-F59</f>
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="19">
         <v>43962</v>
       </c>
-      <c r="B60" s="24">
-        <v>268</v>
+      <c r="B60" s="23">
+        <v>366</v>
       </c>
       <c r="C60">
         <f t="shared" si="19"/>
-        <v>19878</v>
+        <v>20001</v>
       </c>
       <c r="E60" s="19">
         <v>43962</v>
@@ -25778,7 +26236,29 @@
         <v>19878</v>
       </c>
       <c r="G60">
-        <f t="shared" ref="G60" si="23">C60-F60</f>
+        <f t="shared" ref="G60:G61" si="23">C60-F60</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="19">
+        <v>43963</v>
+      </c>
+      <c r="B61" s="23">
+        <v>231</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="19"/>
+        <v>20232</v>
+      </c>
+      <c r="E61" s="19">
+        <v>43963</v>
+      </c>
+      <c r="F61">
+        <v>20232</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -25792,9 +26272,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH118"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR105" sqref="AR105"/>
+      <selection pane="topRight" activeCell="AS2" sqref="AS2:AS35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25906,39 +26386,41 @@
         <v>288</v>
       </c>
       <c r="AH1" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="AJ1" s="5" t="s">
-        <v>292</v>
-      </c>
       <c r="AK1" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AL1" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AL1" s="5" t="s">
-        <v>295</v>
-      </c>
       <c r="AM1" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="AN1" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="AO1" s="5" t="s">
-        <v>299</v>
-      </c>
       <c r="AP1" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AR1" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS1" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="AS1" s="5"/>
       <c r="AT1" s="5"/>
       <c r="AU1" s="5"/>
       <c r="AV1" s="5"/>
@@ -26244,7 +26726,9 @@
       <c r="AR2" s="7">
         <v>1645</v>
       </c>
-      <c r="AS2" s="7"/>
+      <c r="AS2" s="7">
+        <v>1671</v>
+      </c>
       <c r="AT2" s="7"/>
       <c r="AU2" s="7"/>
       <c r="AV2" s="7"/>
@@ -26550,7 +27034,9 @@
       <c r="AR3" s="9">
         <v>455</v>
       </c>
-      <c r="AS3" s="9"/>
+      <c r="AS3" s="9">
+        <v>471</v>
+      </c>
       <c r="AT3" s="9"/>
       <c r="AU3" s="9"/>
       <c r="AV3" s="9"/>
@@ -26856,7 +27342,9 @@
       <c r="AR4" s="7">
         <v>11</v>
       </c>
-      <c r="AS4" s="7"/>
+      <c r="AS4" s="7">
+        <v>14</v>
+      </c>
       <c r="AT4" s="7"/>
       <c r="AU4" s="7"/>
       <c r="AV4" s="7"/>
@@ -27162,7 +27650,9 @@
       <c r="AR5" s="9">
         <v>51</v>
       </c>
-      <c r="AS5" s="9"/>
+      <c r="AS5" s="9">
+        <v>50</v>
+      </c>
       <c r="AT5" s="9"/>
       <c r="AU5" s="9"/>
       <c r="AV5" s="9"/>
@@ -27468,7 +27958,9 @@
       <c r="AR6" s="7">
         <v>1616</v>
       </c>
-      <c r="AS6" s="7"/>
+      <c r="AS6" s="7">
+        <v>1633</v>
+      </c>
       <c r="AT6" s="7"/>
       <c r="AU6" s="7"/>
       <c r="AV6" s="7"/>
@@ -27774,7 +28266,9 @@
       <c r="AR7" s="9">
         <v>405</v>
       </c>
-      <c r="AS7" s="9"/>
+      <c r="AS7" s="9">
+        <v>408</v>
+      </c>
       <c r="AT7" s="9"/>
       <c r="AU7" s="9"/>
       <c r="AV7" s="9"/>
@@ -28080,7 +28574,9 @@
       <c r="AR8" s="7">
         <v>290</v>
       </c>
-      <c r="AS8" s="7"/>
+      <c r="AS8" s="7">
+        <v>310</v>
+      </c>
       <c r="AT8" s="7"/>
       <c r="AU8" s="7"/>
       <c r="AV8" s="7"/>
@@ -28386,7 +28882,9 @@
       <c r="AR9" s="9">
         <v>147</v>
       </c>
-      <c r="AS9" s="9"/>
+      <c r="AS9" s="9">
+        <v>150</v>
+      </c>
       <c r="AT9" s="9"/>
       <c r="AU9" s="9"/>
       <c r="AV9" s="9"/>
@@ -28692,7 +29190,9 @@
       <c r="AR10" s="7">
         <v>48</v>
       </c>
-      <c r="AS10" s="7"/>
+      <c r="AS10" s="7">
+        <v>48</v>
+      </c>
       <c r="AT10" s="7"/>
       <c r="AU10" s="7"/>
       <c r="AV10" s="7"/>
@@ -28998,7 +29498,9 @@
       <c r="AR11" s="9">
         <v>85</v>
       </c>
-      <c r="AS11" s="9"/>
+      <c r="AS11" s="9">
+        <v>88</v>
+      </c>
       <c r="AT11" s="9"/>
       <c r="AU11" s="9"/>
       <c r="AV11" s="9"/>
@@ -29304,7 +29806,9 @@
       <c r="AR12" s="7">
         <v>417</v>
       </c>
-      <c r="AS12" s="7"/>
+      <c r="AS12" s="7">
+        <v>433</v>
+      </c>
       <c r="AT12" s="7"/>
       <c r="AU12" s="7"/>
       <c r="AV12" s="7"/>
@@ -29610,7 +30114,9 @@
       <c r="AR13" s="9">
         <v>946</v>
       </c>
-      <c r="AS13" s="9"/>
+      <c r="AS13" s="9">
+        <v>953</v>
+      </c>
       <c r="AT13" s="9"/>
       <c r="AU13" s="9"/>
       <c r="AV13" s="9"/>
@@ -29916,7 +30422,9 @@
       <c r="AR14" s="7">
         <v>143</v>
       </c>
-      <c r="AS14" s="7"/>
+      <c r="AS14" s="7">
+        <v>154</v>
+      </c>
       <c r="AT14" s="7"/>
       <c r="AU14" s="7"/>
       <c r="AV14" s="7"/>
@@ -30222,7 +30730,9 @@
       <c r="AR15" s="9">
         <v>1552</v>
       </c>
-      <c r="AS15" s="9"/>
+      <c r="AS15" s="9">
+        <v>1951</v>
+      </c>
       <c r="AT15" s="9"/>
       <c r="AU15" s="9"/>
       <c r="AV15" s="9"/>
@@ -30528,7 +31038,9 @@
       <c r="AR16" s="7">
         <v>27</v>
       </c>
-      <c r="AS16" s="7"/>
+      <c r="AS16" s="7">
+        <v>28</v>
+      </c>
       <c r="AT16" s="7"/>
       <c r="AU16" s="7"/>
       <c r="AV16" s="7"/>
@@ -30834,7 +31346,9 @@
       <c r="AR17" s="9">
         <v>1820</v>
       </c>
-      <c r="AS17" s="9"/>
+      <c r="AS17" s="9">
+        <v>1857</v>
+      </c>
       <c r="AT17" s="9"/>
       <c r="AU17" s="9"/>
       <c r="AV17" s="9"/>
@@ -31140,7 +31654,9 @@
       <c r="AR18" s="7">
         <v>16</v>
       </c>
-      <c r="AS18" s="7"/>
+      <c r="AS18" s="7">
+        <v>17</v>
+      </c>
       <c r="AT18" s="7"/>
       <c r="AU18" s="7"/>
       <c r="AV18" s="7"/>
@@ -31446,7 +31962,9 @@
       <c r="AR19" s="9">
         <v>226</v>
       </c>
-      <c r="AS19" s="9"/>
+      <c r="AS19" s="9">
+        <v>229</v>
+      </c>
       <c r="AT19" s="9"/>
       <c r="AU19" s="9"/>
       <c r="AV19" s="9"/>
@@ -31752,7 +32270,9 @@
       <c r="AR20" s="7">
         <v>222</v>
       </c>
-      <c r="AS20" s="7"/>
+      <c r="AS20" s="7">
+        <v>224</v>
+      </c>
       <c r="AT20" s="7"/>
       <c r="AU20" s="7"/>
       <c r="AV20" s="7"/>
@@ -32058,7 +32578,9 @@
       <c r="AR21" s="9">
         <v>377</v>
       </c>
-      <c r="AS21" s="9"/>
+      <c r="AS21" s="9">
+        <v>387</v>
+      </c>
       <c r="AT21" s="9"/>
       <c r="AU21" s="9"/>
       <c r="AV21" s="9"/>
@@ -32364,7 +32886,9 @@
       <c r="AR22" s="7">
         <v>710</v>
       </c>
-      <c r="AS22" s="7"/>
+      <c r="AS22" s="7">
+        <v>721</v>
+      </c>
       <c r="AT22" s="7"/>
       <c r="AU22" s="7"/>
       <c r="AV22" s="7"/>
@@ -32670,7 +33194,9 @@
       <c r="AR23" s="9">
         <v>145</v>
       </c>
-      <c r="AS23" s="9"/>
+      <c r="AS23" s="9">
+        <v>148</v>
+      </c>
       <c r="AT23" s="9"/>
       <c r="AU23" s="9"/>
       <c r="AV23" s="9"/>
@@ -32976,7 +33502,9 @@
       <c r="AR24" s="7">
         <v>1525</v>
       </c>
-      <c r="AS24" s="7"/>
+      <c r="AS24" s="7">
+        <v>1561</v>
+      </c>
       <c r="AT24" s="7"/>
       <c r="AU24" s="7"/>
       <c r="AV24" s="7"/>
@@ -33282,7 +33810,9 @@
       <c r="AR25" s="9">
         <v>1103</v>
       </c>
-      <c r="AS25" s="9"/>
+      <c r="AS25" s="9">
+        <v>1126</v>
+      </c>
       <c r="AT25" s="9"/>
       <c r="AU25" s="9"/>
       <c r="AV25" s="9"/>
@@ -33588,7 +34118,9 @@
       <c r="AR26" s="7">
         <v>16</v>
       </c>
-      <c r="AS26" s="7"/>
+      <c r="AS26" s="7">
+        <v>16</v>
+      </c>
       <c r="AT26" s="7"/>
       <c r="AU26" s="7"/>
       <c r="AV26" s="7"/>
@@ -33894,7 +34426,9 @@
       <c r="AR27" s="9">
         <v>710</v>
       </c>
-      <c r="AS27" s="9"/>
+      <c r="AS27" s="9">
+        <v>724</v>
+      </c>
       <c r="AT27" s="9"/>
       <c r="AU27" s="9"/>
       <c r="AV27" s="9"/>
@@ -34200,7 +34734,9 @@
       <c r="AR28" s="7">
         <v>783</v>
       </c>
-      <c r="AS28" s="7"/>
+      <c r="AS28" s="7">
+        <v>801</v>
+      </c>
       <c r="AT28" s="7"/>
       <c r="AU28" s="7"/>
       <c r="AV28" s="7"/>
@@ -34506,7 +35042,9 @@
       <c r="AR29" s="20">
         <v>2</v>
       </c>
-      <c r="AS29" s="22"/>
+      <c r="AS29" s="20">
+        <v>2</v>
+      </c>
       <c r="AT29" s="22"/>
       <c r="AU29" s="22"/>
       <c r="AV29" s="22"/>
@@ -34812,7 +35350,9 @@
       <c r="AR30" s="7">
         <v>727</v>
       </c>
-      <c r="AS30" s="7"/>
+      <c r="AS30" s="7">
+        <v>730</v>
+      </c>
       <c r="AT30" s="7"/>
       <c r="AU30" s="7"/>
       <c r="AV30" s="7"/>
@@ -35118,7 +35658,9 @@
       <c r="AR31" s="9">
         <v>768</v>
       </c>
-      <c r="AS31" s="9"/>
+      <c r="AS31" s="9">
+        <v>780</v>
+      </c>
       <c r="AT31" s="9"/>
       <c r="AU31" s="9"/>
       <c r="AV31" s="9"/>
@@ -35424,7 +35966,9 @@
       <c r="AR32" s="7">
         <v>539</v>
       </c>
-      <c r="AS32" s="7"/>
+      <c r="AS32" s="7">
+        <v>543</v>
+      </c>
       <c r="AT32" s="7"/>
       <c r="AU32" s="7"/>
       <c r="AV32" s="7"/>
@@ -35730,7 +36274,9 @@
       <c r="AR33" s="9">
         <v>1411</v>
       </c>
-      <c r="AS33" s="9"/>
+      <c r="AS33" s="9">
+        <v>1435</v>
+      </c>
       <c r="AT33" s="9"/>
       <c r="AU33" s="9"/>
       <c r="AV33" s="9"/>
@@ -36036,7 +36582,9 @@
       <c r="AR34" s="7">
         <v>149</v>
       </c>
-      <c r="AS34" s="7"/>
+      <c r="AS34" s="7">
+        <v>149</v>
+      </c>
       <c r="AT34" s="7"/>
       <c r="AU34" s="7"/>
       <c r="AV34" s="7"/>
@@ -36342,7 +36890,9 @@
       <c r="AR35" s="9">
         <v>792</v>
       </c>
-      <c r="AS35" s="9"/>
+      <c r="AS35" s="9">
+        <v>781</v>
+      </c>
       <c r="AT35" s="9"/>
       <c r="AU35" s="9"/>
       <c r="AV35" s="9"/>
@@ -36648,7 +37198,9 @@
       <c r="AR36" s="11">
         <v>19878</v>
       </c>
-      <c r="AS36" s="11"/>
+      <c r="AS36" s="11">
+        <v>20232</v>
+      </c>
       <c r="AT36" s="11"/>
       <c r="AU36" s="11"/>
       <c r="AV36" s="11"/>
@@ -41109,7 +41661,9 @@
       <c r="AR57" s="7">
         <v>186</v>
       </c>
-      <c r="AS57" s="7"/>
+      <c r="AS57" s="7">
+        <v>190</v>
+      </c>
       <c r="AT57" s="7"/>
       <c r="AU57" s="7"/>
       <c r="AV57" s="7"/>
@@ -41413,7 +41967,9 @@
       <c r="AR58" s="9">
         <v>167</v>
       </c>
-      <c r="AS58" s="9"/>
+      <c r="AS58" s="9">
+        <v>173</v>
+      </c>
       <c r="AT58" s="9"/>
       <c r="AU58" s="9"/>
       <c r="AV58" s="9"/>
@@ -41717,7 +42273,9 @@
       <c r="AR59" s="7">
         <v>587</v>
       </c>
-      <c r="AS59" s="7"/>
+      <c r="AS59" s="7">
+        <v>606</v>
+      </c>
       <c r="AT59" s="7"/>
       <c r="AU59" s="7"/>
       <c r="AV59" s="7"/>
@@ -42021,7 +42579,9 @@
       <c r="AR60" s="9">
         <v>2132</v>
       </c>
-      <c r="AS60" s="9"/>
+      <c r="AS60" s="9">
+        <v>2178</v>
+      </c>
       <c r="AT60" s="9"/>
       <c r="AU60" s="9"/>
       <c r="AV60" s="9"/>
@@ -42325,7 +42885,9 @@
       <c r="AR61" s="7">
         <v>2461</v>
       </c>
-      <c r="AS61" s="7"/>
+      <c r="AS61" s="7">
+        <v>2495</v>
+      </c>
       <c r="AT61" s="7"/>
       <c r="AU61" s="7"/>
       <c r="AV61" s="7"/>
@@ -42629,7 +43191,9 @@
       <c r="AR62" s="9">
         <v>2763</v>
       </c>
-      <c r="AS62" s="9"/>
+      <c r="AS62" s="9">
+        <v>2802</v>
+      </c>
       <c r="AT62" s="9"/>
       <c r="AU62" s="9"/>
       <c r="AV62" s="9"/>
@@ -42933,7 +43497,9 @@
       <c r="AR63" s="7">
         <v>2528</v>
       </c>
-      <c r="AS63" s="7"/>
+      <c r="AS63" s="7">
+        <v>2578</v>
+      </c>
       <c r="AT63" s="7"/>
       <c r="AU63" s="7"/>
       <c r="AV63" s="7"/>
@@ -43237,7 +43803,9 @@
       <c r="AR64" s="9">
         <v>1729</v>
       </c>
-      <c r="AS64" s="9"/>
+      <c r="AS64" s="9">
+        <v>1754</v>
+      </c>
       <c r="AT64" s="9"/>
       <c r="AU64" s="9"/>
       <c r="AV64" s="9"/>
@@ -43541,7 +44109,9 @@
       <c r="AR65" s="7">
         <v>1882</v>
       </c>
-      <c r="AS65" s="7"/>
+      <c r="AS65" s="7">
+        <v>1910</v>
+      </c>
       <c r="AT65" s="7"/>
       <c r="AU65" s="7"/>
       <c r="AV65" s="7"/>
@@ -43845,7 +44415,9 @@
       <c r="AR66" s="9">
         <v>5366</v>
       </c>
-      <c r="AS66" s="9"/>
+      <c r="AS66" s="9">
+        <v>5469</v>
+      </c>
       <c r="AT66" s="9"/>
       <c r="AU66" s="9"/>
       <c r="AV66" s="9"/>
@@ -44149,7 +44721,9 @@
       <c r="AR67" s="7">
         <v>77</v>
       </c>
-      <c r="AS67" s="7"/>
+      <c r="AS67" s="7">
+        <v>77</v>
+      </c>
       <c r="AT67" s="7"/>
       <c r="AU67" s="7"/>
       <c r="AV67" s="7"/>
@@ -44453,7 +45027,9 @@
       <c r="AR68" s="15">
         <v>19878</v>
       </c>
-      <c r="AS68" s="15"/>
+      <c r="AS68" s="15">
+        <v>20232</v>
+      </c>
       <c r="AT68" s="15"/>
       <c r="AU68" s="15"/>
       <c r="AV68" s="15"/>
@@ -45098,6 +45674,9 @@
       <c r="AR71">
         <v>223</v>
       </c>
+      <c r="AS71">
+        <v>227</v>
+      </c>
     </row>
     <row r="72" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="8" t="s">
@@ -45133,6 +45712,9 @@
       <c r="AR72">
         <v>23</v>
       </c>
+      <c r="AS72">
+        <v>24</v>
+      </c>
     </row>
     <row r="73" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
@@ -45168,16 +45750,19 @@
       <c r="AR73">
         <v>0</v>
       </c>
+      <c r="AS73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="8" t="s">
         <v>40</v>
       </c>
       <c r="AI74" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AJ74" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AK74" s="24">
         <v>2</v>
@@ -45201,6 +45786,9 @@
         <v>6</v>
       </c>
       <c r="AR74">
+        <v>6</v>
+      </c>
+      <c r="AS74">
         <v>6</v>
       </c>
     </row>
@@ -45238,6 +45826,9 @@
       <c r="AR75">
         <v>175</v>
       </c>
+      <c r="AS75">
+        <v>179</v>
+      </c>
     </row>
     <row r="76" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="8" t="s">
@@ -45273,6 +45864,9 @@
       <c r="AR76">
         <v>22</v>
       </c>
+      <c r="AS76">
+        <v>22</v>
+      </c>
     </row>
     <row r="77" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="6" t="s">
@@ -45308,6 +45902,9 @@
       <c r="AR77">
         <v>22</v>
       </c>
+      <c r="AS77">
+        <v>39</v>
+      </c>
     </row>
     <row r="78" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="8" t="s">
@@ -45343,6 +45940,9 @@
       <c r="AR78">
         <v>29</v>
       </c>
+      <c r="AS78">
+        <v>29</v>
+      </c>
     </row>
     <row r="79" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
@@ -45352,7 +45952,7 @@
         <v>0</v>
       </c>
       <c r="AJ79" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AK79">
         <v>0</v>
@@ -45376,6 +45976,9 @@
         <v>0</v>
       </c>
       <c r="AR79">
+        <v>0</v>
+      </c>
+      <c r="AS79">
         <v>0</v>
       </c>
     </row>
@@ -45413,8 +46016,11 @@
       <c r="AR80">
         <v>10</v>
       </c>
+      <c r="AS80">
+        <v>10</v>
+      </c>
     </row>
-    <row r="81" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
         <v>47</v>
       </c>
@@ -45448,8 +46054,11 @@
       <c r="AR81">
         <v>59</v>
       </c>
+      <c r="AS81">
+        <v>59</v>
+      </c>
     </row>
-    <row r="82" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="8" t="s">
         <v>48</v>
       </c>
@@ -45483,8 +46092,11 @@
       <c r="AR82">
         <v>129</v>
       </c>
+      <c r="AS82">
+        <v>129</v>
+      </c>
     </row>
-    <row r="83" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
         <v>49</v>
       </c>
@@ -45518,8 +46130,11 @@
       <c r="AR83">
         <v>21</v>
       </c>
+      <c r="AS83">
+        <v>21</v>
+      </c>
     </row>
-    <row r="84" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="8" t="s">
         <v>50</v>
       </c>
@@ -45553,8 +46168,11 @@
       <c r="AR84">
         <v>199</v>
       </c>
+      <c r="AS84">
+        <v>208</v>
+      </c>
     </row>
-    <row r="85" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
         <v>51</v>
       </c>
@@ -45562,34 +46180,37 @@
         <v>0</v>
       </c>
       <c r="AJ85" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AK85" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AL85" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AM85" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AN85" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AO85" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AP85" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AQ85" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AR85" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
+      </c>
+      <c r="AS85" s="24" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="86" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="8" t="s">
         <v>52</v>
       </c>
@@ -45623,43 +46244,49 @@
       <c r="AR86">
         <v>140</v>
       </c>
+      <c r="AS86">
+        <v>142</v>
+      </c>
     </row>
-    <row r="87" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
         <v>53</v>
       </c>
       <c r="AI87" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AJ87" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AK87" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AL87" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AM87" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AN87" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AO87" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AP87" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AQ87" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AR87" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
+      </c>
+      <c r="AS87" s="24" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="88" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="8" t="s">
         <v>54</v>
       </c>
@@ -45693,8 +46320,11 @@
       <c r="AR88">
         <v>59</v>
       </c>
+      <c r="AS88">
+        <v>59</v>
+      </c>
     </row>
-    <row r="89" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
         <v>55</v>
       </c>
@@ -45728,8 +46358,11 @@
       <c r="AR89">
         <v>8</v>
       </c>
+      <c r="AS89">
+        <v>8</v>
+      </c>
     </row>
-    <row r="90" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="8" t="s">
         <v>56</v>
       </c>
@@ -45763,8 +46396,11 @@
       <c r="AR90">
         <v>21</v>
       </c>
+      <c r="AS90">
+        <v>20</v>
+      </c>
     </row>
-    <row r="91" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
         <v>57</v>
       </c>
@@ -45798,8 +46434,11 @@
       <c r="AR91">
         <v>71</v>
       </c>
+      <c r="AS91">
+        <v>77</v>
+      </c>
     </row>
-    <row r="92" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="8" t="s">
         <v>58</v>
       </c>
@@ -45833,8 +46472,11 @@
       <c r="AR92">
         <v>21</v>
       </c>
+      <c r="AS92">
+        <v>23</v>
+      </c>
     </row>
-    <row r="93" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
         <v>59</v>
       </c>
@@ -45868,8 +46510,11 @@
       <c r="AR93">
         <v>98</v>
       </c>
+      <c r="AS93">
+        <v>101</v>
+      </c>
     </row>
-    <row r="94" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="8" t="s">
         <v>60</v>
       </c>
@@ -45903,43 +46548,49 @@
       <c r="AR94">
         <v>109</v>
       </c>
+      <c r="AS94">
+        <v>114</v>
+      </c>
     </row>
-    <row r="95" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
         <v>61</v>
       </c>
       <c r="AI95" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AJ95" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AK95" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AL95" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AM95" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AN95" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AO95" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AP95" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AQ95" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AR95" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
+      </c>
+      <c r="AS95" s="24" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="96" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="8" t="s">
         <v>62</v>
       </c>
@@ -45972,6 +46623,9 @@
       </c>
       <c r="AR96">
         <v>76</v>
+      </c>
+      <c r="AS96">
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46008,6 +46662,9 @@
       <c r="AR97">
         <v>38</v>
       </c>
+      <c r="AS97">
+        <v>40</v>
+      </c>
     </row>
     <row r="98" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="8" t="s">
@@ -46043,6 +46700,9 @@
       <c r="AR98">
         <v>0</v>
       </c>
+      <c r="AS98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="6" t="s">
@@ -46078,6 +46738,9 @@
       <c r="AR99">
         <v>141</v>
       </c>
+      <c r="AS99">
+        <v>142</v>
+      </c>
     </row>
     <row r="100" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="8" t="s">
@@ -46113,6 +46776,9 @@
       <c r="AR100">
         <v>108</v>
       </c>
+      <c r="AS100">
+        <v>108</v>
+      </c>
     </row>
     <row r="101" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="6" t="s">
@@ -46148,6 +46814,9 @@
       <c r="AR101">
         <v>39</v>
       </c>
+      <c r="AS101">
+        <v>39</v>
+      </c>
     </row>
     <row r="102" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="8" t="s">
@@ -46183,6 +46852,9 @@
       <c r="AR102">
         <v>87</v>
       </c>
+      <c r="AS102">
+        <v>89</v>
+      </c>
     </row>
     <row r="103" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
@@ -46218,6 +46890,9 @@
       <c r="AR103">
         <v>17</v>
       </c>
+      <c r="AS103">
+        <v>17</v>
+      </c>
     </row>
     <row r="104" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="8" t="s">
@@ -46253,6 +46928,9 @@
       <c r="AR104">
         <v>47</v>
       </c>
+      <c r="AS104">
+        <v>49</v>
+      </c>
     </row>
     <row r="105" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="10" t="s">
@@ -46287,6 +46965,9 @@
       </c>
       <c r="AR105">
         <v>2003</v>
+      </c>
+      <c r="AS105">
+        <v>2063</v>
       </c>
     </row>
     <row r="106" spans="1:216" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -46543,6 +47224,9 @@
       <c r="AR107">
         <v>0</v>
       </c>
+      <c r="AS107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
@@ -46578,6 +47262,9 @@
       <c r="AR108">
         <v>0</v>
       </c>
+      <c r="AS108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
@@ -46613,6 +47300,9 @@
       <c r="AR109">
         <v>0</v>
       </c>
+      <c r="AS109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
@@ -46648,6 +47338,9 @@
       <c r="AR110">
         <v>0</v>
       </c>
+      <c r="AS110">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
@@ -46683,6 +47376,9 @@
       <c r="AR111" s="24">
         <v>3</v>
       </c>
+      <c r="AS111" s="24">
+        <v>3</v>
+      </c>
     </row>
     <row r="112" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
@@ -46718,8 +47414,11 @@
       <c r="AR112">
         <v>12</v>
       </c>
+      <c r="AS112">
+        <v>12</v>
+      </c>
     </row>
-    <row r="113" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -46753,8 +47452,11 @@
       <c r="AR113">
         <v>34</v>
       </c>
+      <c r="AS113">
+        <v>36</v>
+      </c>
     </row>
-    <row r="114" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>93</v>
       </c>
@@ -46788,8 +47490,11 @@
       <c r="AR114">
         <v>141</v>
       </c>
+      <c r="AS114">
+        <v>146</v>
+      </c>
     </row>
-    <row r="115" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>94</v>
       </c>
@@ -46823,8 +47528,11 @@
       <c r="AR115">
         <v>339</v>
       </c>
+      <c r="AS115">
+        <v>348</v>
+      </c>
     </row>
-    <row r="116" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>95</v>
       </c>
@@ -46858,8 +47566,11 @@
       <c r="AR116">
         <v>1474</v>
       </c>
+      <c r="AS116">
+        <v>1518</v>
+      </c>
     </row>
-    <row r="117" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -46893,10 +47604,13 @@
       <c r="AR117" s="24">
         <v>1</v>
       </c>
+      <c r="AS117" s="24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="118" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B118" t="s">
         <v>101</v>
@@ -47010,7 +47724,7 @@
         <v>1562</v>
       </c>
       <c r="AM118" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AN118">
         <v>1727</v>
@@ -47026,6 +47740,9 @@
       </c>
       <c r="AR118">
         <v>2003</v>
+      </c>
+      <c r="AS118">
+        <v>2063</v>
       </c>
     </row>
   </sheetData>
@@ -47053,19 +47770,19 @@
         <v>86</v>
       </c>
       <c r="B1">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E1">
         <v>0</v>
       </c>
-      <c r="F1">
-        <v>0</v>
+      <c r="F1" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -47073,19 +47790,19 @@
         <v>87</v>
       </c>
       <c r="B2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="D2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="F2" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -47093,19 +47810,19 @@
         <v>88</v>
       </c>
       <c r="B3">
-        <v>587</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
+        <v>606</v>
+      </c>
+      <c r="C3" t="s">
+        <v>316</v>
       </c>
       <c r="D3" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
+      <c r="F3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -47113,19 +47830,19 @@
         <v>89</v>
       </c>
       <c r="B4">
-        <v>2132</v>
+        <v>2178</v>
       </c>
       <c r="C4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="F4" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -47133,19 +47850,19 @@
         <v>90</v>
       </c>
       <c r="B5">
-        <v>2461</v>
+        <v>2495</v>
       </c>
       <c r="C5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D5" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F5" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -47153,19 +47870,19 @@
         <v>91</v>
       </c>
       <c r="B6">
-        <v>2763</v>
-      </c>
-      <c r="C6">
-        <v>14</v>
+        <v>2802</v>
+      </c>
+      <c r="C6" t="s">
+        <v>321</v>
       </c>
       <c r="D6" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E6">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -47173,19 +47890,19 @@
         <v>92</v>
       </c>
       <c r="B7">
-        <v>2528</v>
+        <v>2578</v>
       </c>
       <c r="C7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -47193,19 +47910,19 @@
         <v>93</v>
       </c>
       <c r="B8">
-        <v>1729</v>
+        <v>1754</v>
       </c>
       <c r="C8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D8" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E8">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F8" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -47213,19 +47930,19 @@
         <v>94</v>
       </c>
       <c r="B9" s="2">
-        <v>1882</v>
+        <v>1910</v>
       </c>
       <c r="C9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D9" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="E9">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="F9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -47233,19 +47950,19 @@
         <v>95</v>
       </c>
       <c r="B10">
-        <v>5366</v>
+        <v>5469</v>
       </c>
       <c r="C10" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="D10" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E10" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F10" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -47255,17 +47972,8 @@
       <c r="B11">
         <v>77</v>
       </c>
-      <c r="C11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D11" t="s">
-        <v>228</v>
-      </c>
       <c r="E11" t="s">
-        <v>293</v>
-      </c>
-      <c r="F11" t="s">
-        <v>228</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -47273,24 +47981,16 @@
         <v>97</v>
       </c>
       <c r="B12">
-        <v>19878</v>
-      </c>
-      <c r="C12" t="s">
-        <v>228</v>
+        <v>20232</v>
       </c>
       <c r="D12" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E12" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F12" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/app/data/covid19_MTL.xlsx
+++ b/app/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6680846-BAB4-451C-943D-4423A8D06209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1F06F2-3D67-4272-AC5C-C911F3F13518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15150" yWindow="3470" windowWidth="26450" windowHeight="17150" tabRatio="585" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="19030" yWindow="4580" windowWidth="26450" windowHeight="17150" tabRatio="585" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="399">
   <si>
     <t>borough</t>
   </si>
@@ -973,16 +973,7 @@
     <t>8 MAI, 18h04</t>
   </si>
   <si>
-    <t>0,9</t>
-  </si>
-  <si>
     <t>9 MAI, 18h04</t>
-  </si>
-  <si>
-    <t>12,8</t>
-  </si>
-  <si>
-    <t>8,7</t>
   </si>
   <si>
     <t>10 MAI, 18h05</t>
@@ -991,19 +982,10 @@
     <t>Total deaths</t>
   </si>
   <si>
-    <t>12,4</t>
-  </si>
-  <si>
     <t>9,5</t>
   </si>
   <si>
     <t>11 MAI, 18h05</t>
-  </si>
-  <si>
-    <t>10,8</t>
-  </si>
-  <si>
-    <t>27,1</t>
   </si>
   <si>
     <t>12 MAI, 18h05</t>
@@ -1018,64 +1000,277 @@
     <t>99,9</t>
   </si>
   <si>
-    <t>171,4</t>
+    <t>100 000</t>
   </si>
   <si>
-    <t>160,2</t>
+    <t>RRONDISSEMENT OU VILLE LIÉE</t>
   </si>
   <si>
-    <t>3,0</t>
+    <t>NOMBRE DE CAS CONFIRMÉS¹</t>
   </si>
   <si>
-    <t>304,7</t>
+    <t>RÉPARTITION DES CAS (%)</t>
   </si>
   <si>
-    <t>676,2</t>
+    <t>TAUX DE CAS POUR</t>
   </si>
   <si>
-    <t>759,4</t>
+    <t>PERSONNES</t>
   </si>
   <si>
-    <t>n.p</t>
+    <t>NOMBRE DE DÉCÈS</t>
   </si>
   <si>
-    <t>13,9</t>
+    <t>TAUX DE MORTALITÉ POUR</t>
   </si>
   <si>
-    <t>1 006,7</t>
+    <t>8,6</t>
   </si>
   <si>
-    <t>* 4,3</t>
+    <t>1 244,7</t>
   </si>
   <si>
-    <t>1 004,4</t>
+    <t>169,1</t>
   </si>
   <si>
-    <t>* 14</t>
+    <t>2,4</t>
   </si>
   <si>
-    <t>809,9</t>
+    <t>1 100,6</t>
   </si>
   <si>
-    <t>67,4</t>
+    <t>*56,1</t>
   </si>
   <si>
-    <t>1 320,0</t>
+    <t>0,1</t>
   </si>
   <si>
-    <t>240,5</t>
+    <t>*366,2</t>
   </si>
   <si>
-    <t>5 412,7</t>
+    <t>0,3</t>
   </si>
   <si>
-    <t>1 518</t>
+    <t>258,7</t>
   </si>
   <si>
-    <t>1502,4</t>
+    <t>n.p.</t>
   </si>
   <si>
-    <t>979,4</t>
+    <t>8,4</t>
+  </si>
+  <si>
+    <t>980,7</t>
+  </si>
+  <si>
+    <t>107,5</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>1257,4</t>
+  </si>
+  <si>
+    <t>67,8</t>
+  </si>
+  <si>
+    <t>1,6</t>
+  </si>
+  <si>
+    <t>634,0</t>
+  </si>
+  <si>
+    <t>79,8</t>
+  </si>
+  <si>
+    <t>0,8</t>
+  </si>
+  <si>
+    <t>790,3</t>
+  </si>
+  <si>
+    <t>152,8</t>
+  </si>
+  <si>
+    <t>0,2</t>
+  </si>
+  <si>
+    <t>688,4</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>436,7</t>
+  </si>
+  <si>
+    <t>49,6</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>973,3</t>
+  </si>
+  <si>
+    <t>132,6</t>
+  </si>
+  <si>
+    <t>4,9</t>
+  </si>
+  <si>
+    <t>1 240,0</t>
+  </si>
+  <si>
+    <t>167,9</t>
+  </si>
+  <si>
+    <t>836,4</t>
+  </si>
+  <si>
+    <t>114,0</t>
+  </si>
+  <si>
+    <t>8,2</t>
+  </si>
+  <si>
+    <t>1 169,6</t>
+  </si>
+  <si>
+    <t>152,9</t>
+  </si>
+  <si>
+    <t>*727,3</t>
+  </si>
+  <si>
+    <t>2 204,6</t>
+  </si>
+  <si>
+    <t>168,6</t>
+  </si>
+  <si>
+    <t>*336,6</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1 129,4</t>
+  </si>
+  <si>
+    <t>291,0</t>
+  </si>
+  <si>
+    <t>935,1</t>
+  </si>
+  <si>
+    <t>2,0</t>
+  </si>
+  <si>
+    <t>558,5</t>
+  </si>
+  <si>
+    <t>*28,9</t>
+  </si>
+  <si>
+    <t>3,7</t>
+  </si>
+  <si>
+    <t>693,3</t>
+  </si>
+  <si>
+    <t>74,0</t>
+  </si>
+  <si>
+    <t>471,6</t>
+  </si>
+  <si>
+    <t>*73,3</t>
+  </si>
+  <si>
+    <t>8,0</t>
+  </si>
+  <si>
+    <t>1 462,4</t>
+  </si>
+  <si>
+    <t>94,6</t>
+  </si>
+  <si>
+    <t>5,8</t>
+  </si>
+  <si>
+    <t>806,6</t>
+  </si>
+  <si>
+    <t>81,7</t>
+  </si>
+  <si>
+    <t>*322,7</t>
+  </si>
+  <si>
+    <t>732,6</t>
+  </si>
+  <si>
+    <t>77,9</t>
+  </si>
+  <si>
+    <t>4,1</t>
+  </si>
+  <si>
+    <t>1 022,9</t>
+  </si>
+  <si>
+    <t>51,1</t>
+  </si>
+  <si>
+    <t>3,8</t>
+  </si>
+  <si>
+    <t>934,1</t>
+  </si>
+  <si>
+    <t>181,7</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>1 126,7</t>
+  </si>
+  <si>
+    <t>156,0</t>
+  </si>
+  <si>
+    <t>2,8</t>
+  </si>
+  <si>
+    <t>608,9</t>
+  </si>
+  <si>
+    <t>43,7</t>
+  </si>
+  <si>
+    <t>7,4</t>
+  </si>
+  <si>
+    <t>997,5</t>
+  </si>
+  <si>
+    <t>61,9</t>
+  </si>
+  <si>
+    <t>733,6</t>
+  </si>
+  <si>
+    <t>Territoire à confirmer²</t>
+  </si>
+  <si>
+    <t>Total à Montréal    </t>
+  </si>
+  <si>
+    <t>13 MAI, 18h05</t>
   </si>
 </sst>
 </file>
@@ -1589,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:AT35"/>
+  <dimension ref="A1:AU35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AQ40" sqref="AQ40"/>
+    <sheetView topLeftCell="AG1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AT1" sqref="AT1:AU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1602,7 +1797,7 @@
     <col min="18" max="46" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1741,8 +1936,11 @@
       <c r="AT1" s="19">
         <v>43963</v>
       </c>
+      <c r="AU1" s="19">
+        <v>43964</v>
+      </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1881,8 +2079,11 @@
       <c r="AT2">
         <v>1671</v>
       </c>
+      <c r="AU2" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2021,8 +2222,11 @@
       <c r="AT3">
         <v>471</v>
       </c>
+      <c r="AU3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2161,8 +2365,11 @@
       <c r="AT4">
         <v>14</v>
       </c>
+      <c r="AU4" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2301,8 +2508,11 @@
       <c r="AT5">
         <v>50</v>
       </c>
+      <c r="AU5" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2441,8 +2651,11 @@
       <c r="AT6">
         <v>1633</v>
       </c>
+      <c r="AU6" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -2581,8 +2794,11 @@
       <c r="AT7">
         <v>408</v>
       </c>
+      <c r="AU7" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -2721,8 +2937,11 @@
       <c r="AT8">
         <v>310</v>
       </c>
+      <c r="AU8" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -2861,8 +3080,11 @@
       <c r="AT9">
         <v>150</v>
       </c>
+      <c r="AU9" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -3001,8 +3223,11 @@
       <c r="AT10">
         <v>48</v>
       </c>
+      <c r="AU10" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -3141,8 +3366,11 @@
       <c r="AT11">
         <v>88</v>
       </c>
+      <c r="AU11" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3281,8 +3509,11 @@
       <c r="AT12">
         <v>433</v>
       </c>
+      <c r="AU12" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3421,8 +3652,11 @@
       <c r="AT13">
         <v>953</v>
       </c>
+      <c r="AU13" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3561,8 +3795,11 @@
       <c r="AT14">
         <v>154</v>
       </c>
+      <c r="AU14" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3701,8 +3938,11 @@
       <c r="AT15">
         <v>1951</v>
       </c>
+      <c r="AU15" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -3841,8 +4081,11 @@
       <c r="AT16">
         <v>28</v>
       </c>
+      <c r="AU16" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3981,8 +4224,11 @@
       <c r="AT17">
         <v>1857</v>
       </c>
+      <c r="AU17" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -4121,8 +4367,11 @@
       <c r="AT18">
         <v>17</v>
       </c>
+      <c r="AU18" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -4261,8 +4510,11 @@
       <c r="AT19">
         <v>229</v>
       </c>
+      <c r="AU19" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4401,8 +4653,11 @@
       <c r="AT20">
         <v>224</v>
       </c>
+      <c r="AU20" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4541,8 +4796,11 @@
       <c r="AT21">
         <v>387</v>
       </c>
+      <c r="AU21" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4681,8 +4939,11 @@
       <c r="AT22">
         <v>721</v>
       </c>
+      <c r="AU22" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -4821,8 +5082,11 @@
       <c r="AT23">
         <v>148</v>
       </c>
+      <c r="AU23" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4961,8 +5225,11 @@
       <c r="AT24">
         <v>1561</v>
       </c>
+      <c r="AU24" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5101,8 +5368,11 @@
       <c r="AT25">
         <v>1126</v>
       </c>
+      <c r="AU25" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -5241,8 +5511,11 @@
       <c r="AT26">
         <v>16</v>
       </c>
+      <c r="AU26" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5381,8 +5654,11 @@
       <c r="AT27">
         <v>724</v>
       </c>
+      <c r="AU27" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5521,8 +5797,11 @@
       <c r="AT28">
         <v>801</v>
       </c>
+      <c r="AU28" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -5661,8 +5940,11 @@
       <c r="AT29">
         <v>2</v>
       </c>
+      <c r="AU29" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5801,8 +6083,11 @@
       <c r="AT30">
         <v>730</v>
       </c>
+      <c r="AU30" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5941,8 +6226,11 @@
       <c r="AT31">
         <v>780</v>
       </c>
+      <c r="AU31" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -6081,8 +6369,11 @@
       <c r="AT32">
         <v>543</v>
       </c>
+      <c r="AU32" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -6221,8 +6512,11 @@
       <c r="AT33">
         <v>1435</v>
       </c>
+      <c r="AU33" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -6361,8 +6655,11 @@
       <c r="AT34">
         <v>149</v>
       </c>
+      <c r="AU34" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -6500,6 +6797,9 @@
       </c>
       <c r="AT35">
         <v>781</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -6510,11 +6810,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:AT34"/>
+  <dimension ref="A1:AU34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AU11" sqref="AU11"/>
+      <selection pane="topRight" activeCell="AT1" sqref="AT1:AU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6522,10 +6822,10 @@
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="27" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="46" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="47" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6685,8 +6985,11 @@
       <c r="AT1" s="1">
         <v>43963</v>
       </c>
+      <c r="AU1" s="1">
+        <v>43964</v>
+      </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6866,8 +7169,11 @@
         <f>cases!AT2/(population_2016!$B2/1000)</f>
         <v>12.447390964281723</v>
       </c>
+      <c r="AU2" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7047,8 +7353,11 @@
         <f>cases!AT3/(population_2016!$B3/1000)</f>
         <v>11.005701467426862</v>
       </c>
+      <c r="AU3" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -7228,8 +7537,11 @@
         <f>cases!AT4/(population_2016!$B4/1000)</f>
         <v>3.6620455139942454</v>
       </c>
+      <c r="AU4" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -7409,8 +7721,11 @@
         <f>cases!AT5/(population_2016!$B5/1000)</f>
         <v>2.5874560132477744</v>
       </c>
+      <c r="AU5" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7590,8 +7905,11 @@
         <f>cases!AT6/(population_2016!$B6/1000)</f>
         <v>9.8066298342541423</v>
       </c>
+      <c r="AU6" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -7771,8 +8089,11 @@
         <f>cases!AT7/(population_2016!$B7/1000)</f>
         <v>12.57396449704142</v>
       </c>
+      <c r="AU7" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -7952,8 +8273,11 @@
         <f>cases!AT8/(population_2016!$B8/1000)</f>
         <v>6.3395979467882775</v>
       </c>
+      <c r="AU8" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -8133,8 +8457,11 @@
         <f>cases!AT9/(population_2016!$B9/1000)</f>
         <v>7.9030558482613271</v>
       </c>
+      <c r="AU9" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -8314,8 +8641,11 @@
         <f>cases!AT10/(population_2016!$B10/1000)</f>
         <v>6.8836942492470961</v>
       </c>
+      <c r="AU10" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -8495,8 +8825,11 @@
         <f>cases!AT11/(population_2016!$B11/1000)</f>
         <v>4.3670289315666713</v>
       </c>
+      <c r="AU11" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -8676,8 +9009,11 @@
         <f>cases!AT12/(population_2016!$B12/1000)</f>
         <v>9.7327429252174706</v>
       </c>
+      <c r="AU12" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -8857,8 +9193,11 @@
         <f>cases!AT13/(population_2016!$B13/1000)</f>
         <v>12.400296670266615</v>
       </c>
+      <c r="AU13" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -9038,8 +9377,11 @@
         <f>cases!AT14/(population_2016!$B14/1000)</f>
         <v>8.3636561125291919</v>
       </c>
+      <c r="AU14" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -9219,8 +9561,11 @@
         <f>cases!AT15/(population_2016!$B15/1000)</f>
         <v>14.343057107569253</v>
       </c>
+      <c r="AU15" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -9400,8 +9745,11 @@
         <f>cases!AT16/(population_2016!$B16/1000)</f>
         <v>7.2727272727272725</v>
       </c>
+      <c r="AU16" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -9581,8 +9929,11 @@
         <f>cases!AT17/(population_2016!$B17/1000)</f>
         <v>22.045729752831399</v>
       </c>
+      <c r="AU17" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -9762,8 +10113,11 @@
         <f>cases!AT18/(population_2016!$B18/1000)</f>
         <v>3.3663366336633667</v>
       </c>
+      <c r="AU18" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -9943,8 +10297,11 @@
         <f>cases!AT19/(population_2016!$B19/1000)</f>
         <v>11.294140856184653</v>
       </c>
+      <c r="AU19" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -10124,8 +10481,11 @@
         <f>cases!AT20/(population_2016!$B20/1000)</f>
         <v>9.3512565751022798</v>
       </c>
+      <c r="AU20" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -10305,8 +10665,11 @@
         <f>cases!AT21/(population_2016!$B21/1000)</f>
         <v>5.5846573444737873</v>
       </c>
+      <c r="AU21" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -10486,8 +10849,11 @@
         <f>cases!AT22/(population_2016!$B22/1000)</f>
         <v>6.9326923076923075</v>
       </c>
+      <c r="AU22" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -10667,8 +11033,11 @@
         <f>cases!AT23/(population_2016!$B23/1000)</f>
         <v>4.7163798597833013</v>
       </c>
+      <c r="AU23" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -10848,8 +11217,11 @@
         <f>cases!AT24/(population_2016!$B24/1000)</f>
         <v>14.623909764574726</v>
       </c>
+      <c r="AU24" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -11029,8 +11401,11 @@
         <f>cases!AT25/(population_2016!$B25/1000)</f>
         <v>8.0664804069059386</v>
       </c>
+      <c r="AU25" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -11210,8 +11585,11 @@
         <f>cases!AT26/(population_2016!$B26/1000)</f>
         <v>3.227107704719645</v>
       </c>
+      <c r="AU26" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -11391,8 +11769,11 @@
         <f>cases!AT27/(population_2016!$B27/1000)</f>
         <v>7.325859068280244</v>
       </c>
+      <c r="AU27" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -11572,8 +11953,11 @@
         <f>cases!AT28/(population_2016!$B28/1000)</f>
         <v>10.229231849818019</v>
       </c>
+      <c r="AU28" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -11753,8 +12137,11 @@
         <f>cases!AT29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
+      <c r="AU29" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -11934,8 +12321,11 @@
         <f>cases!AT30/(population_2016!$B30/1000)</f>
         <v>9.3408913513582679</v>
       </c>
+      <c r="AU30" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -12115,8 +12505,11 @@
         <f>cases!AT31/(population_2016!$B31/1000)</f>
         <v>11.266954599950887</v>
       </c>
+      <c r="AU31" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -12296,8 +12689,11 @@
         <f>cases!AT32/(population_2016!$B32/1000)</f>
         <v>6.0894919816081643</v>
       </c>
+      <c r="AU32" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -12477,8 +12873,11 @@
         <f>cases!AT33/(population_2016!$B33/1000)</f>
         <v>9.9754610609441574</v>
       </c>
+      <c r="AU33" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -12657,6 +13056,9 @@
       <c r="AT34" s="3">
         <f>cases!AT34/(population_2016!$B34/1000)</f>
         <v>7.3355651831429691</v>
+      </c>
+      <c r="AU34" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -12666,11 +13068,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AS60"/>
+  <dimension ref="A1:AS61"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L66" sqref="L66"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I65" sqref="I65:J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22297,6 +22699,146 @@
         <v>45.382079609230331</v>
       </c>
     </row>
+    <row r="61" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A61" s="19">
+        <v>43964</v>
+      </c>
+      <c r="B61" s="17">
+        <f>mtl_newcases!C62</f>
+        <v>20633</v>
+      </c>
+      <c r="C61" s="17">
+        <f t="shared" ref="C61" si="723">B61-B60</f>
+        <v>401</v>
+      </c>
+      <c r="D61">
+        <v>2154</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ref="E61" si="724">D61-D60</f>
+        <v>91</v>
+      </c>
+      <c r="F61" t="s">
+        <v>101</v>
+      </c>
+      <c r="G61" t="s">
+        <v>101</v>
+      </c>
+      <c r="H61" t="s">
+        <v>101</v>
+      </c>
+      <c r="I61" t="s">
+        <v>101</v>
+      </c>
+      <c r="J61" t="s">
+        <v>101</v>
+      </c>
+      <c r="K61" t="s">
+        <v>101</v>
+      </c>
+      <c r="L61" t="s">
+        <v>101</v>
+      </c>
+      <c r="M61" t="s">
+        <v>101</v>
+      </c>
+      <c r="N61" t="s">
+        <v>101</v>
+      </c>
+      <c r="O61" t="s">
+        <v>101</v>
+      </c>
+      <c r="P61" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>101</v>
+      </c>
+      <c r="R61" t="s">
+        <v>101</v>
+      </c>
+      <c r="S61" t="s">
+        <v>101</v>
+      </c>
+      <c r="T61" t="s">
+        <v>101</v>
+      </c>
+      <c r="U61" t="s">
+        <v>101</v>
+      </c>
+      <c r="V61" t="s">
+        <v>101</v>
+      </c>
+      <c r="W61" t="s">
+        <v>101</v>
+      </c>
+      <c r="X61" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ61" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS61" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22304,11 +22846,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22449,7 +22991,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F72" si="1">E4-E3</f>
+        <f t="shared" ref="F4:F73" si="1">E4-E3</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -22462,7 +23004,7 @@
         <v>260</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J72" si="2">I4-I3</f>
+        <f t="shared" ref="J4:J73" si="2">I4-I3</f>
         <v>18</v>
       </c>
       <c r="K4" t="s">
@@ -24719,7 +25261,7 @@
         <v>33417</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:C72" si="4">B64-B63</f>
+        <f t="shared" ref="C64:C73" si="4">B64-B63</f>
         <v>794</v>
       </c>
       <c r="D64">
@@ -25051,6 +25593,44 @@
       </c>
       <c r="K72">
         <v>10470</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B73">
+        <v>40724</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="4"/>
+        <v>793</v>
+      </c>
+      <c r="D73">
+        <v>26544</v>
+      </c>
+      <c r="E73">
+        <v>3351</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="G73">
+        <v>1834</v>
+      </c>
+      <c r="H73">
+        <v>190</v>
+      </c>
+      <c r="I73">
+        <v>267311</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="2"/>
+        <v>5742</v>
+      </c>
+      <c r="K73">
+        <v>10829</v>
       </c>
     </row>
   </sheetData>
@@ -25060,11 +25640,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
+      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26236,7 +26816,7 @@
         <v>19878</v>
       </c>
       <c r="G60">
-        <f t="shared" ref="G60:G61" si="23">C60-F60</f>
+        <f t="shared" ref="G60:G62" si="23">C60-F60</f>
         <v>123</v>
       </c>
     </row>
@@ -26244,7 +26824,7 @@
       <c r="A61" s="19">
         <v>43963</v>
       </c>
-      <c r="B61" s="23">
+      <c r="B61" s="24">
         <v>231</v>
       </c>
       <c r="C61">
@@ -26258,6 +26838,28 @@
         <v>20232</v>
       </c>
       <c r="G61">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="19">
+        <v>43964</v>
+      </c>
+      <c r="B62" s="24">
+        <v>401</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62" si="24">C61+B62</f>
+        <v>20633</v>
+      </c>
+      <c r="E62" s="19">
+        <v>43964</v>
+      </c>
+      <c r="F62">
+        <v>20633</v>
+      </c>
+      <c r="G62">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -26273,8 +26875,8 @@
   <dimension ref="A1:HH118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS2" sqref="AS2:AS35"/>
+      <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AT2" sqref="AT2:AT35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26410,18 +27012,20 @@
         <v>298</v>
       </c>
       <c r="AP1" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="AR1" s="5" t="s">
-        <v>307</v>
-      </c>
       <c r="AS1" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="AT1" s="5"/>
+        <v>304</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>398</v>
+      </c>
       <c r="AU1" s="5"/>
       <c r="AV1" s="5"/>
       <c r="AW1" s="5"/>
@@ -26729,7 +27333,9 @@
       <c r="AS2" s="7">
         <v>1671</v>
       </c>
-      <c r="AT2" s="7"/>
+      <c r="AT2" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="AU2" s="7"/>
       <c r="AV2" s="7"/>
       <c r="AW2" s="7"/>
@@ -27037,7 +27643,9 @@
       <c r="AS3" s="9">
         <v>471</v>
       </c>
-      <c r="AT3" s="9"/>
+      <c r="AT3" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AU3" s="9"/>
       <c r="AV3" s="9"/>
       <c r="AW3" s="9"/>
@@ -27345,7 +27953,9 @@
       <c r="AS4" s="7">
         <v>14</v>
       </c>
-      <c r="AT4" s="7"/>
+      <c r="AT4" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="AU4" s="7"/>
       <c r="AV4" s="7"/>
       <c r="AW4" s="7"/>
@@ -27653,7 +28263,9 @@
       <c r="AS5" s="9">
         <v>50</v>
       </c>
-      <c r="AT5" s="9"/>
+      <c r="AT5" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AU5" s="9"/>
       <c r="AV5" s="9"/>
       <c r="AW5" s="9"/>
@@ -27961,7 +28573,9 @@
       <c r="AS6" s="7">
         <v>1633</v>
       </c>
-      <c r="AT6" s="7"/>
+      <c r="AT6" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="AU6" s="7"/>
       <c r="AV6" s="7"/>
       <c r="AW6" s="7"/>
@@ -28269,7 +28883,9 @@
       <c r="AS7" s="9">
         <v>408</v>
       </c>
-      <c r="AT7" s="9"/>
+      <c r="AT7" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AU7" s="9"/>
       <c r="AV7" s="9"/>
       <c r="AW7" s="9"/>
@@ -28577,7 +29193,9 @@
       <c r="AS8" s="7">
         <v>310</v>
       </c>
-      <c r="AT8" s="7"/>
+      <c r="AT8" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="AU8" s="7"/>
       <c r="AV8" s="7"/>
       <c r="AW8" s="7"/>
@@ -28885,7 +29503,9 @@
       <c r="AS9" s="9">
         <v>150</v>
       </c>
-      <c r="AT9" s="9"/>
+      <c r="AT9" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AU9" s="9"/>
       <c r="AV9" s="9"/>
       <c r="AW9" s="9"/>
@@ -29193,7 +29813,9 @@
       <c r="AS10" s="7">
         <v>48</v>
       </c>
-      <c r="AT10" s="7"/>
+      <c r="AT10" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="AU10" s="7"/>
       <c r="AV10" s="7"/>
       <c r="AW10" s="7"/>
@@ -29501,7 +30123,9 @@
       <c r="AS11" s="9">
         <v>88</v>
       </c>
-      <c r="AT11" s="9"/>
+      <c r="AT11" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AU11" s="9"/>
       <c r="AV11" s="9"/>
       <c r="AW11" s="9"/>
@@ -29809,7 +30433,9 @@
       <c r="AS12" s="7">
         <v>433</v>
       </c>
-      <c r="AT12" s="7"/>
+      <c r="AT12" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="AU12" s="7"/>
       <c r="AV12" s="7"/>
       <c r="AW12" s="7"/>
@@ -30117,7 +30743,9 @@
       <c r="AS13" s="9">
         <v>953</v>
       </c>
-      <c r="AT13" s="9"/>
+      <c r="AT13" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AU13" s="9"/>
       <c r="AV13" s="9"/>
       <c r="AW13" s="9"/>
@@ -30425,7 +31053,9 @@
       <c r="AS14" s="7">
         <v>154</v>
       </c>
-      <c r="AT14" s="7"/>
+      <c r="AT14" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="AU14" s="7"/>
       <c r="AV14" s="7"/>
       <c r="AW14" s="7"/>
@@ -30733,7 +31363,9 @@
       <c r="AS15" s="9">
         <v>1951</v>
       </c>
-      <c r="AT15" s="9"/>
+      <c r="AT15" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AU15" s="9"/>
       <c r="AV15" s="9"/>
       <c r="AW15" s="9"/>
@@ -31041,7 +31673,9 @@
       <c r="AS16" s="7">
         <v>28</v>
       </c>
-      <c r="AT16" s="7"/>
+      <c r="AT16" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="AU16" s="7"/>
       <c r="AV16" s="7"/>
       <c r="AW16" s="7"/>
@@ -31349,7 +31983,9 @@
       <c r="AS17" s="9">
         <v>1857</v>
       </c>
-      <c r="AT17" s="9"/>
+      <c r="AT17" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AU17" s="9"/>
       <c r="AV17" s="9"/>
       <c r="AW17" s="9"/>
@@ -31657,7 +32293,9 @@
       <c r="AS18" s="7">
         <v>17</v>
       </c>
-      <c r="AT18" s="7"/>
+      <c r="AT18" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="AU18" s="7"/>
       <c r="AV18" s="7"/>
       <c r="AW18" s="7"/>
@@ -31965,7 +32603,9 @@
       <c r="AS19" s="9">
         <v>229</v>
       </c>
-      <c r="AT19" s="9"/>
+      <c r="AT19" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AU19" s="9"/>
       <c r="AV19" s="9"/>
       <c r="AW19" s="9"/>
@@ -32273,7 +32913,9 @@
       <c r="AS20" s="7">
         <v>224</v>
       </c>
-      <c r="AT20" s="7"/>
+      <c r="AT20" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="AU20" s="7"/>
       <c r="AV20" s="7"/>
       <c r="AW20" s="7"/>
@@ -32581,7 +33223,9 @@
       <c r="AS21" s="9">
         <v>387</v>
       </c>
-      <c r="AT21" s="9"/>
+      <c r="AT21" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AU21" s="9"/>
       <c r="AV21" s="9"/>
       <c r="AW21" s="9"/>
@@ -32889,7 +33533,9 @@
       <c r="AS22" s="7">
         <v>721</v>
       </c>
-      <c r="AT22" s="7"/>
+      <c r="AT22" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="AU22" s="7"/>
       <c r="AV22" s="7"/>
       <c r="AW22" s="7"/>
@@ -33197,7 +33843,9 @@
       <c r="AS23" s="9">
         <v>148</v>
       </c>
-      <c r="AT23" s="9"/>
+      <c r="AT23" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AU23" s="9"/>
       <c r="AV23" s="9"/>
       <c r="AW23" s="9"/>
@@ -33505,7 +34153,9 @@
       <c r="AS24" s="7">
         <v>1561</v>
       </c>
-      <c r="AT24" s="7"/>
+      <c r="AT24" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="AU24" s="7"/>
       <c r="AV24" s="7"/>
       <c r="AW24" s="7"/>
@@ -33813,7 +34463,9 @@
       <c r="AS25" s="9">
         <v>1126</v>
       </c>
-      <c r="AT25" s="9"/>
+      <c r="AT25" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AU25" s="9"/>
       <c r="AV25" s="9"/>
       <c r="AW25" s="9"/>
@@ -34121,7 +34773,9 @@
       <c r="AS26" s="7">
         <v>16</v>
       </c>
-      <c r="AT26" s="7"/>
+      <c r="AT26" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="AU26" s="7"/>
       <c r="AV26" s="7"/>
       <c r="AW26" s="7"/>
@@ -34429,7 +35083,9 @@
       <c r="AS27" s="9">
         <v>724</v>
       </c>
-      <c r="AT27" s="9"/>
+      <c r="AT27" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AU27" s="9"/>
       <c r="AV27" s="9"/>
       <c r="AW27" s="9"/>
@@ -34737,7 +35393,9 @@
       <c r="AS28" s="7">
         <v>801</v>
       </c>
-      <c r="AT28" s="7"/>
+      <c r="AT28" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="AU28" s="7"/>
       <c r="AV28" s="7"/>
       <c r="AW28" s="7"/>
@@ -35045,7 +35703,9 @@
       <c r="AS29" s="20">
         <v>2</v>
       </c>
-      <c r="AT29" s="22"/>
+      <c r="AT29" s="22" t="s">
+        <v>101</v>
+      </c>
       <c r="AU29" s="22"/>
       <c r="AV29" s="22"/>
       <c r="AW29" s="22"/>
@@ -35353,7 +36013,9 @@
       <c r="AS30" s="7">
         <v>730</v>
       </c>
-      <c r="AT30" s="7"/>
+      <c r="AT30" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="AU30" s="7"/>
       <c r="AV30" s="7"/>
       <c r="AW30" s="7"/>
@@ -35661,7 +36323,9 @@
       <c r="AS31" s="9">
         <v>780</v>
       </c>
-      <c r="AT31" s="9"/>
+      <c r="AT31" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AU31" s="9"/>
       <c r="AV31" s="9"/>
       <c r="AW31" s="9"/>
@@ -35969,7 +36633,9 @@
       <c r="AS32" s="7">
         <v>543</v>
       </c>
-      <c r="AT32" s="7"/>
+      <c r="AT32" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="AU32" s="7"/>
       <c r="AV32" s="7"/>
       <c r="AW32" s="7"/>
@@ -36277,7 +36943,9 @@
       <c r="AS33" s="9">
         <v>1435</v>
       </c>
-      <c r="AT33" s="9"/>
+      <c r="AT33" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AU33" s="9"/>
       <c r="AV33" s="9"/>
       <c r="AW33" s="9"/>
@@ -36585,7 +37253,9 @@
       <c r="AS34" s="7">
         <v>149</v>
       </c>
-      <c r="AT34" s="7"/>
+      <c r="AT34" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="AU34" s="7"/>
       <c r="AV34" s="7"/>
       <c r="AW34" s="7"/>
@@ -36893,7 +37563,9 @@
       <c r="AS35" s="9">
         <v>781</v>
       </c>
-      <c r="AT35" s="9"/>
+      <c r="AT35" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AU35" s="9"/>
       <c r="AV35" s="9"/>
       <c r="AW35" s="9"/>
@@ -37201,7 +37873,9 @@
       <c r="AS36" s="11">
         <v>20232</v>
       </c>
-      <c r="AT36" s="11"/>
+      <c r="AT36" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="AU36" s="11"/>
       <c r="AV36" s="11"/>
       <c r="AW36" s="11"/>
@@ -41664,7 +42338,9 @@
       <c r="AS57" s="7">
         <v>190</v>
       </c>
-      <c r="AT57" s="7"/>
+      <c r="AT57" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="AU57" s="7"/>
       <c r="AV57" s="7"/>
       <c r="AW57" s="7"/>
@@ -41970,7 +42646,9 @@
       <c r="AS58" s="9">
         <v>173</v>
       </c>
-      <c r="AT58" s="9"/>
+      <c r="AT58" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AU58" s="9"/>
       <c r="AV58" s="9"/>
       <c r="AW58" s="9"/>
@@ -42276,7 +42954,9 @@
       <c r="AS59" s="7">
         <v>606</v>
       </c>
-      <c r="AT59" s="7"/>
+      <c r="AT59" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="AU59" s="7"/>
       <c r="AV59" s="7"/>
       <c r="AW59" s="7"/>
@@ -42582,7 +43262,9 @@
       <c r="AS60" s="9">
         <v>2178</v>
       </c>
-      <c r="AT60" s="9"/>
+      <c r="AT60" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AU60" s="9"/>
       <c r="AV60" s="9"/>
       <c r="AW60" s="9"/>
@@ -42888,7 +43570,9 @@
       <c r="AS61" s="7">
         <v>2495</v>
       </c>
-      <c r="AT61" s="7"/>
+      <c r="AT61" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="AU61" s="7"/>
       <c r="AV61" s="7"/>
       <c r="AW61" s="7"/>
@@ -43194,7 +43878,9 @@
       <c r="AS62" s="9">
         <v>2802</v>
       </c>
-      <c r="AT62" s="9"/>
+      <c r="AT62" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AU62" s="9"/>
       <c r="AV62" s="9"/>
       <c r="AW62" s="9"/>
@@ -43500,7 +44186,9 @@
       <c r="AS63" s="7">
         <v>2578</v>
       </c>
-      <c r="AT63" s="7"/>
+      <c r="AT63" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="AU63" s="7"/>
       <c r="AV63" s="7"/>
       <c r="AW63" s="7"/>
@@ -43806,7 +44494,9 @@
       <c r="AS64" s="9">
         <v>1754</v>
       </c>
-      <c r="AT64" s="9"/>
+      <c r="AT64" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AU64" s="9"/>
       <c r="AV64" s="9"/>
       <c r="AW64" s="9"/>
@@ -44112,7 +44802,9 @@
       <c r="AS65" s="7">
         <v>1910</v>
       </c>
-      <c r="AT65" s="7"/>
+      <c r="AT65" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="AU65" s="7"/>
       <c r="AV65" s="7"/>
       <c r="AW65" s="7"/>
@@ -44418,7 +45110,9 @@
       <c r="AS66" s="9">
         <v>5469</v>
       </c>
-      <c r="AT66" s="9"/>
+      <c r="AT66" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AU66" s="9"/>
       <c r="AV66" s="9"/>
       <c r="AW66" s="9"/>
@@ -44724,7 +45418,9 @@
       <c r="AS67" s="7">
         <v>77</v>
       </c>
-      <c r="AT67" s="7"/>
+      <c r="AT67" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="AU67" s="7"/>
       <c r="AV67" s="7"/>
       <c r="AW67" s="7"/>
@@ -45030,7 +45726,9 @@
       <c r="AS68" s="15">
         <v>20232</v>
       </c>
-      <c r="AT68" s="15"/>
+      <c r="AT68" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="AU68" s="15"/>
       <c r="AV68" s="15"/>
       <c r="AW68" s="15"/>
@@ -45677,6 +46375,9 @@
       <c r="AS71">
         <v>227</v>
       </c>
+      <c r="AT71" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="72" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="8" t="s">
@@ -45715,6 +46416,9 @@
       <c r="AS72">
         <v>24</v>
       </c>
+      <c r="AT72" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="73" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
@@ -45753,6 +46457,9 @@
       <c r="AS73">
         <v>0</v>
       </c>
+      <c r="AT73" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="74" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="8" t="s">
@@ -45791,6 +46498,9 @@
       <c r="AS74">
         <v>6</v>
       </c>
+      <c r="AT74" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="75" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="6" t="s">
@@ -45829,6 +46539,9 @@
       <c r="AS75">
         <v>179</v>
       </c>
+      <c r="AT75" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="76" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="8" t="s">
@@ -45867,6 +46580,9 @@
       <c r="AS76">
         <v>22</v>
       </c>
+      <c r="AT76" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="77" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="6" t="s">
@@ -45905,6 +46621,9 @@
       <c r="AS77">
         <v>39</v>
       </c>
+      <c r="AT77" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="78" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="8" t="s">
@@ -45943,6 +46662,9 @@
       <c r="AS78">
         <v>29</v>
       </c>
+      <c r="AT78" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="79" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
@@ -45981,6 +46703,9 @@
       <c r="AS79">
         <v>0</v>
       </c>
+      <c r="AT79" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="80" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="8" t="s">
@@ -46019,8 +46744,11 @@
       <c r="AS80">
         <v>10</v>
       </c>
+      <c r="AT80" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="81" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
         <v>47</v>
       </c>
@@ -46057,8 +46785,11 @@
       <c r="AS81">
         <v>59</v>
       </c>
+      <c r="AT81" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="82" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="8" t="s">
         <v>48</v>
       </c>
@@ -46095,8 +46826,11 @@
       <c r="AS82">
         <v>129</v>
       </c>
+      <c r="AT82" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="83" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
         <v>49</v>
       </c>
@@ -46133,8 +46867,11 @@
       <c r="AS83">
         <v>21</v>
       </c>
+      <c r="AT83" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="84" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="8" t="s">
         <v>50</v>
       </c>
@@ -46171,8 +46908,11 @@
       <c r="AS84">
         <v>208</v>
       </c>
+      <c r="AT84" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="85" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
         <v>51</v>
       </c>
@@ -46209,8 +46949,11 @@
       <c r="AS85" s="24" t="s">
         <v>292</v>
       </c>
+      <c r="AT85" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="86" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="8" t="s">
         <v>52</v>
       </c>
@@ -46247,8 +46990,11 @@
       <c r="AS86">
         <v>142</v>
       </c>
+      <c r="AT86" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="87" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
         <v>53</v>
       </c>
@@ -46285,8 +47031,11 @@
       <c r="AS87" s="24" t="s">
         <v>292</v>
       </c>
+      <c r="AT87" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="88" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="8" t="s">
         <v>54</v>
       </c>
@@ -46323,8 +47072,11 @@
       <c r="AS88">
         <v>59</v>
       </c>
+      <c r="AT88" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="89" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
         <v>55</v>
       </c>
@@ -46361,8 +47113,11 @@
       <c r="AS89">
         <v>8</v>
       </c>
+      <c r="AT89" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="90" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="8" t="s">
         <v>56</v>
       </c>
@@ -46399,8 +47154,11 @@
       <c r="AS90">
         <v>20</v>
       </c>
+      <c r="AT90" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="91" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
         <v>57</v>
       </c>
@@ -46437,8 +47195,11 @@
       <c r="AS91">
         <v>77</v>
       </c>
+      <c r="AT91" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="92" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="8" t="s">
         <v>58</v>
       </c>
@@ -46475,8 +47236,11 @@
       <c r="AS92">
         <v>23</v>
       </c>
+      <c r="AT92" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="93" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
         <v>59</v>
       </c>
@@ -46513,8 +47277,11 @@
       <c r="AS93">
         <v>101</v>
       </c>
+      <c r="AT93" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="94" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="8" t="s">
         <v>60</v>
       </c>
@@ -46551,8 +47318,11 @@
       <c r="AS94">
         <v>114</v>
       </c>
+      <c r="AT94" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="95" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
         <v>61</v>
       </c>
@@ -46589,8 +47359,11 @@
       <c r="AS95" s="24" t="s">
         <v>292</v>
       </c>
+      <c r="AT95" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="96" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="8" t="s">
         <v>62</v>
       </c>
@@ -46626,6 +47399,9 @@
       </c>
       <c r="AS96">
         <v>77</v>
+      </c>
+      <c r="AT96" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46665,6 +47441,9 @@
       <c r="AS97">
         <v>40</v>
       </c>
+      <c r="AT97" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="98" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="8" t="s">
@@ -46703,6 +47482,9 @@
       <c r="AS98">
         <v>0</v>
       </c>
+      <c r="AT98" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="99" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="6" t="s">
@@ -46741,6 +47523,9 @@
       <c r="AS99">
         <v>142</v>
       </c>
+      <c r="AT99" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="100" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="8" t="s">
@@ -46779,6 +47564,9 @@
       <c r="AS100">
         <v>108</v>
       </c>
+      <c r="AT100" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="101" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="6" t="s">
@@ -46817,6 +47605,9 @@
       <c r="AS101">
         <v>39</v>
       </c>
+      <c r="AT101" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="102" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="8" t="s">
@@ -46855,6 +47646,9 @@
       <c r="AS102">
         <v>89</v>
       </c>
+      <c r="AT102" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="103" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
@@ -46893,6 +47687,9 @@
       <c r="AS103">
         <v>17</v>
       </c>
+      <c r="AT103" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="104" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="8" t="s">
@@ -46931,6 +47728,9 @@
       <c r="AS104">
         <v>49</v>
       </c>
+      <c r="AT104" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="105" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="10" t="s">
@@ -46968,6 +47768,9 @@
       </c>
       <c r="AS105">
         <v>2063</v>
+      </c>
+      <c r="AT105" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:216" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -47227,6 +48030,9 @@
       <c r="AS107">
         <v>0</v>
       </c>
+      <c r="AT107" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="108" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
@@ -47265,6 +48071,9 @@
       <c r="AS108">
         <v>0</v>
       </c>
+      <c r="AT108" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="109" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
@@ -47303,6 +48112,9 @@
       <c r="AS109">
         <v>0</v>
       </c>
+      <c r="AT109" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="110" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
@@ -47341,6 +48153,9 @@
       <c r="AS110">
         <v>0</v>
       </c>
+      <c r="AT110" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="111" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
@@ -47379,6 +48194,9 @@
       <c r="AS111" s="24">
         <v>3</v>
       </c>
+      <c r="AT111" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="112" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
@@ -47417,8 +48235,11 @@
       <c r="AS112">
         <v>12</v>
       </c>
+      <c r="AT112" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="113" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -47455,8 +48276,11 @@
       <c r="AS113">
         <v>36</v>
       </c>
+      <c r="AT113" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="114" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>93</v>
       </c>
@@ -47493,8 +48317,11 @@
       <c r="AS114">
         <v>146</v>
       </c>
+      <c r="AT114" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="115" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>94</v>
       </c>
@@ -47531,8 +48358,11 @@
       <c r="AS115">
         <v>348</v>
       </c>
+      <c r="AT115" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="116" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>95</v>
       </c>
@@ -47569,8 +48399,11 @@
       <c r="AS116">
         <v>1518</v>
       </c>
+      <c r="AT116" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="117" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -47607,10 +48440,13 @@
       <c r="AS117" s="24">
         <v>1</v>
       </c>
+      <c r="AT117" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="118" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B118" t="s">
         <v>101</v>
@@ -47743,6 +48579,9 @@
       </c>
       <c r="AS118">
         <v>2063</v>
+      </c>
+      <c r="AT118" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -47754,10 +48593,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655ECF0F-EC0D-4FC9-B182-78DF99BFDAD7}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E12"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -47767,234 +48606,725 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1">
-        <v>190</v>
+        <v>309</v>
+      </c>
+      <c r="B1" t="s">
+        <v>310</v>
       </c>
       <c r="C1" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="D1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1" t="s">
         <v>314</v>
       </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
       <c r="F1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2">
-        <v>173</v>
-      </c>
-      <c r="C2" t="s">
-        <v>299</v>
-      </c>
       <c r="D2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="F2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3">
-        <v>606</v>
-      </c>
-      <c r="C3" t="s">
-        <v>316</v>
-      </c>
       <c r="D3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="F3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B4">
-        <v>2178</v>
+        <v>1671</v>
       </c>
       <c r="C4" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E4">
+        <v>227</v>
+      </c>
+      <c r="F4" t="s">
         <v>318</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>2495</v>
+        <v>471</v>
       </c>
       <c r="C5" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="D5" t="s">
-        <v>319</v>
-      </c>
-      <c r="E5" t="s">
-        <v>292</v>
+        <v>320</v>
+      </c>
+      <c r="E5">
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B6">
-        <v>2802</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B7">
-        <v>2578</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="D7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E7">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>1754</v>
+        <v>1633</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="D8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E8">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="F8" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B9" s="2">
-        <v>1910</v>
+        <v>408</v>
       </c>
       <c r="C9" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="D9" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E9">
-        <v>348</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B10">
-        <v>5469</v>
+        <v>310</v>
       </c>
       <c r="C10" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="D10" t="s">
-        <v>330</v>
-      </c>
-      <c r="E10" t="s">
-        <v>331</v>
+        <v>334</v>
+      </c>
+      <c r="E10">
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B11">
-        <v>77</v>
-      </c>
-      <c r="E11" t="s">
-        <v>292</v>
+        <v>150</v>
+      </c>
+      <c r="C11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E11">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B12">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>339</v>
+      </c>
+      <c r="D12" t="s">
+        <v>340</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>341</v>
+      </c>
+      <c r="D13" t="s">
+        <v>342</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>433</v>
+      </c>
+      <c r="C14" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" t="s">
+        <v>345</v>
+      </c>
+      <c r="E14">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>953</v>
+      </c>
+      <c r="C15" t="s">
+        <v>347</v>
+      </c>
+      <c r="D15" t="s">
+        <v>348</v>
+      </c>
+      <c r="E15">
+        <v>129</v>
+      </c>
+      <c r="F15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>154</v>
+      </c>
+      <c r="C16" t="s">
+        <v>336</v>
+      </c>
+      <c r="D16" t="s">
+        <v>350</v>
+      </c>
+      <c r="E16">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>1591</v>
+      </c>
+      <c r="C17" t="s">
+        <v>352</v>
+      </c>
+      <c r="D17" t="s">
+        <v>353</v>
+      </c>
+      <c r="E17">
+        <v>208</v>
+      </c>
+      <c r="F17" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>322</v>
+      </c>
+      <c r="D18" t="s">
+        <v>355</v>
+      </c>
+      <c r="E18" t="s">
+        <v>292</v>
+      </c>
+      <c r="F18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>1857</v>
+      </c>
+      <c r="C19" t="s">
+        <v>302</v>
+      </c>
+      <c r="D19" t="s">
+        <v>356</v>
+      </c>
+      <c r="E19">
+        <v>142</v>
+      </c>
+      <c r="F19" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" t="s">
+        <v>358</v>
+      </c>
+      <c r="E20" t="s">
+        <v>292</v>
+      </c>
+      <c r="F20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21">
+        <v>229</v>
+      </c>
+      <c r="C21" t="s">
+        <v>359</v>
+      </c>
+      <c r="D21" t="s">
+        <v>360</v>
+      </c>
+      <c r="E21">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>224</v>
+      </c>
+      <c r="C22" t="s">
+        <v>359</v>
+      </c>
+      <c r="D22" t="s">
+        <v>362</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>387</v>
+      </c>
+      <c r="C23" t="s">
+        <v>363</v>
+      </c>
+      <c r="D23" t="s">
+        <v>364</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>721</v>
+      </c>
+      <c r="C24" t="s">
+        <v>366</v>
+      </c>
+      <c r="D24" t="s">
+        <v>367</v>
+      </c>
+      <c r="E24">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25">
+        <v>148</v>
+      </c>
+      <c r="C25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D25" t="s">
+        <v>369</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>1561</v>
+      </c>
+      <c r="C26" t="s">
+        <v>371</v>
+      </c>
+      <c r="D26" t="s">
+        <v>372</v>
+      </c>
+      <c r="E26">
+        <v>101</v>
+      </c>
+      <c r="F26" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>1126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>374</v>
+      </c>
+      <c r="D27" t="s">
+        <v>375</v>
+      </c>
+      <c r="E27">
+        <v>114</v>
+      </c>
+      <c r="F27" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>322</v>
+      </c>
+      <c r="D28" t="s">
+        <v>377</v>
+      </c>
+      <c r="E28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>724</v>
+      </c>
+      <c r="C29" t="s">
+        <v>366</v>
+      </c>
+      <c r="D29" t="s">
+        <v>378</v>
+      </c>
+      <c r="E29">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>801</v>
+      </c>
+      <c r="C30" t="s">
+        <v>380</v>
+      </c>
+      <c r="D30" t="s">
+        <v>381</v>
+      </c>
+      <c r="E30">
+        <v>40</v>
+      </c>
+      <c r="F30" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" t="s">
+        <v>292</v>
+      </c>
+      <c r="C31" t="s">
+        <v>326</v>
+      </c>
+      <c r="D31" t="s">
+        <v>326</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>730</v>
+      </c>
+      <c r="C32" t="s">
+        <v>383</v>
+      </c>
+      <c r="D32" t="s">
+        <v>384</v>
+      </c>
+      <c r="E32">
+        <v>142</v>
+      </c>
+      <c r="F32" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>780</v>
+      </c>
+      <c r="C33" t="s">
+        <v>386</v>
+      </c>
+      <c r="D33" t="s">
+        <v>387</v>
+      </c>
+      <c r="E33">
+        <v>108</v>
+      </c>
+      <c r="F33" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>543</v>
+      </c>
+      <c r="C34" t="s">
+        <v>389</v>
+      </c>
+      <c r="D34" t="s">
+        <v>390</v>
+      </c>
+      <c r="E34">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>1435</v>
+      </c>
+      <c r="C35" t="s">
+        <v>392</v>
+      </c>
+      <c r="D35" t="s">
+        <v>393</v>
+      </c>
+      <c r="E35">
+        <v>89</v>
+      </c>
+      <c r="F35" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36">
+        <v>149</v>
+      </c>
+      <c r="C36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D36" t="s">
+        <v>395</v>
+      </c>
+      <c r="E36">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>396</v>
+      </c>
+      <c r="B37">
+        <v>781</v>
+      </c>
+      <c r="E37">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>397</v>
+      </c>
+      <c r="B38">
         <v>20232</v>
       </c>
-      <c r="D12" t="s">
-        <v>333</v>
-      </c>
-      <c r="E12" t="s">
-        <v>312</v>
-      </c>
-      <c r="F12" t="s">
-        <v>313</v>
+      <c r="E38" t="s">
+        <v>306</v>
+      </c>
+      <c r="F38" t="s">
+        <v>307</v>
       </c>
     </row>
-    <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/app/data/covid19_MTL.xlsx
+++ b/app/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1F06F2-3D67-4272-AC5C-C911F3F13518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5726D66F-259E-4355-AAA3-67513B7A985D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19030" yWindow="4580" windowWidth="26450" windowHeight="17150" tabRatio="585" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="10890" yWindow="3580" windowWidth="26450" windowHeight="17150" tabRatio="585" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="340">
   <si>
     <t>borough</t>
   </si>
@@ -982,37 +982,19 @@
     <t>Total deaths</t>
   </si>
   <si>
-    <t>9,5</t>
-  </si>
-  <si>
     <t>11 MAI, 18h05</t>
   </si>
   <si>
     <t>12 MAI, 18h05</t>
   </si>
   <si>
-    <t>0,0</t>
-  </si>
-  <si>
-    <t>2 063</t>
-  </si>
-  <si>
-    <t>99,9</t>
-  </si>
-  <si>
     <t>100 000</t>
-  </si>
-  <si>
-    <t>RRONDISSEMENT OU VILLE LIÉE</t>
   </si>
   <si>
     <t>NOMBRE DE CAS CONFIRMÉS¹</t>
   </si>
   <si>
     <t>RÉPARTITION DES CAS (%)</t>
-  </si>
-  <si>
-    <t>TAUX DE CAS POUR</t>
   </si>
   <si>
     <t>PERSONNES</t>
@@ -1024,253 +1006,94 @@
     <t>TAUX DE MORTALITÉ POUR</t>
   </si>
   <si>
-    <t>8,6</t>
+    <t>13 MAI, 18h05</t>
   </si>
   <si>
-    <t>1 244,7</t>
+    <t>2 154</t>
   </si>
   <si>
-    <t>169,1</t>
+    <t>TAUX POUR</t>
   </si>
   <si>
-    <t>2,4</t>
+    <t>1,0</t>
   </si>
   <si>
-    <t>1 100,6</t>
+    <t>179,5</t>
   </si>
   <si>
-    <t>*56,1</t>
+    <t>0,9</t>
   </si>
   <si>
-    <t>0,1</t>
+    <t>166,7</t>
   </si>
   <si>
-    <t>*366,2</t>
+    <t>3,0</t>
   </si>
   <si>
-    <t>0,3</t>
+    <t>313,7</t>
   </si>
   <si>
-    <t>258,7</t>
+    <t>10,9</t>
   </si>
   <si>
-    <t>n.p.</t>
+    <t> 695,7</t>
   </si>
   <si>
-    <t>8,4</t>
+    <t>12,4</t>
   </si>
   <si>
-    <t>980,7</t>
+    <t>773,4</t>
   </si>
   <si>
-    <t>107,5</t>
+    <t>13,9</t>
   </si>
   <si>
-    <t>2,1</t>
+    <t>1 028,2</t>
   </si>
   <si>
-    <t>1257,4</t>
+    <t>4,3</t>
   </si>
   <si>
-    <t>67,8</t>
+    <t>12,7</t>
   </si>
   <si>
-    <t>1,6</t>
+    <t>1 019,2</t>
   </si>
   <si>
-    <t>634,0</t>
+    <t>14,0</t>
   </si>
   <si>
-    <t>79,8</t>
+    <t>8,7</t>
   </si>
   <si>
-    <t>0,8</t>
+    <t>69,3</t>
   </si>
   <si>
-    <t>790,3</t>
+    <t>9,4</t>
   </si>
   <si>
-    <t>152,8</t>
+    <t> 1 338,6</t>
   </si>
   <si>
-    <t>0,2</t>
+    <t> 254,3</t>
   </si>
   <si>
-    <t>688,4</t>
+    <t>27,1</t>
   </si>
   <si>
-    <t>0,5</t>
+    <t>5 508,7</t>
   </si>
   <si>
-    <t>436,7</t>
+    <t>1 585</t>
   </si>
   <si>
-    <t>49,6</t>
+    <t> 1 568,7</t>
   </si>
   <si>
-    <t>2,2</t>
+    <t>998,8</t>
   </si>
   <si>
-    <t>973,3</t>
-  </si>
-  <si>
-    <t>132,6</t>
-  </si>
-  <si>
-    <t>4,9</t>
-  </si>
-  <si>
-    <t>1 240,0</t>
-  </si>
-  <si>
-    <t>167,9</t>
-  </si>
-  <si>
-    <t>836,4</t>
-  </si>
-  <si>
-    <t>114,0</t>
-  </si>
-  <si>
-    <t>8,2</t>
-  </si>
-  <si>
-    <t>1 169,6</t>
-  </si>
-  <si>
-    <t>152,9</t>
-  </si>
-  <si>
-    <t>*727,3</t>
-  </si>
-  <si>
-    <t>2 204,6</t>
-  </si>
-  <si>
-    <t>168,6</t>
-  </si>
-  <si>
-    <t>*336,6</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>1 129,4</t>
-  </si>
-  <si>
-    <t>291,0</t>
-  </si>
-  <si>
-    <t>935,1</t>
-  </si>
-  <si>
-    <t>2,0</t>
-  </si>
-  <si>
-    <t>558,5</t>
-  </si>
-  <si>
-    <t>*28,9</t>
-  </si>
-  <si>
-    <t>3,7</t>
-  </si>
-  <si>
-    <t>693,3</t>
-  </si>
-  <si>
-    <t>74,0</t>
-  </si>
-  <si>
-    <t>471,6</t>
-  </si>
-  <si>
-    <t>*73,3</t>
-  </si>
-  <si>
-    <t>8,0</t>
-  </si>
-  <si>
-    <t>1 462,4</t>
-  </si>
-  <si>
-    <t>94,6</t>
-  </si>
-  <si>
-    <t>5,8</t>
-  </si>
-  <si>
-    <t>806,6</t>
-  </si>
-  <si>
-    <t>81,7</t>
-  </si>
-  <si>
-    <t>*322,7</t>
-  </si>
-  <si>
-    <t>732,6</t>
-  </si>
-  <si>
-    <t>77,9</t>
-  </si>
-  <si>
-    <t>4,1</t>
-  </si>
-  <si>
-    <t>1 022,9</t>
-  </si>
-  <si>
-    <t>51,1</t>
-  </si>
-  <si>
-    <t>3,8</t>
-  </si>
-  <si>
-    <t>934,1</t>
-  </si>
-  <si>
-    <t>181,7</t>
-  </si>
-  <si>
-    <t>4,0</t>
-  </si>
-  <si>
-    <t>1 126,7</t>
-  </si>
-  <si>
-    <t>156,0</t>
-  </si>
-  <si>
-    <t>2,8</t>
-  </si>
-  <si>
-    <t>608,9</t>
-  </si>
-  <si>
-    <t>43,7</t>
-  </si>
-  <si>
-    <t>7,4</t>
-  </si>
-  <si>
-    <t>997,5</t>
-  </si>
-  <si>
-    <t>61,9</t>
-  </si>
-  <si>
-    <t>733,6</t>
-  </si>
-  <si>
-    <t>Territoire à confirmer²</t>
-  </si>
-  <si>
-    <t>Total à Montréal    </t>
-  </si>
-  <si>
-    <t>13 MAI, 18h05</t>
+    <t> 104,3</t>
   </si>
 </sst>
 </file>
@@ -1784,20 +1607,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:AU35"/>
+  <dimension ref="A1:AV35"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AT1" sqref="AT1:AU1"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AP53" sqref="AP53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="46" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="48" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1939,8 +1762,11 @@
       <c r="AU1" s="19">
         <v>43964</v>
       </c>
+      <c r="AV1" s="19">
+        <v>43965</v>
+      </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2079,11 +1905,14 @@
       <c r="AT2">
         <v>1671</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AU2">
+        <v>1695</v>
+      </c>
+      <c r="AV2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2222,11 +2051,14 @@
       <c r="AT3">
         <v>471</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AU3">
+        <v>494</v>
+      </c>
+      <c r="AV3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2365,11 +2197,14 @@
       <c r="AT4">
         <v>14</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AU4">
+        <v>15</v>
+      </c>
+      <c r="AV4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2508,11 +2343,14 @@
       <c r="AT5">
         <v>50</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AU5">
+        <v>50</v>
+      </c>
+      <c r="AV5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2651,11 +2489,14 @@
       <c r="AT6">
         <v>1633</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AU6">
+        <v>1659</v>
+      </c>
+      <c r="AV6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -2794,11 +2635,14 @@
       <c r="AT7">
         <v>408</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AU7">
+        <v>412</v>
+      </c>
+      <c r="AV7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -2937,11 +2781,14 @@
       <c r="AT8">
         <v>310</v>
       </c>
-      <c r="AU8" t="s">
+      <c r="AU8">
+        <v>318</v>
+      </c>
+      <c r="AV8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -3080,11 +2927,14 @@
       <c r="AT9">
         <v>150</v>
       </c>
-      <c r="AU9" t="s">
+      <c r="AU9">
+        <v>152</v>
+      </c>
+      <c r="AV9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -3223,11 +3073,14 @@
       <c r="AT10">
         <v>48</v>
       </c>
-      <c r="AU10" t="s">
+      <c r="AU10">
+        <v>48</v>
+      </c>
+      <c r="AV10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -3366,11 +3219,14 @@
       <c r="AT11">
         <v>88</v>
       </c>
-      <c r="AU11" t="s">
+      <c r="AU11">
+        <v>89</v>
+      </c>
+      <c r="AV11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3509,11 +3365,14 @@
       <c r="AT12">
         <v>433</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="AU12">
+        <v>438</v>
+      </c>
+      <c r="AV12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3652,11 +3511,14 @@
       <c r="AT13">
         <v>953</v>
       </c>
-      <c r="AU13" t="s">
+      <c r="AU13">
+        <v>964</v>
+      </c>
+      <c r="AV13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3795,11 +3657,14 @@
       <c r="AT14">
         <v>154</v>
       </c>
-      <c r="AU14" t="s">
+      <c r="AU14">
+        <v>156</v>
+      </c>
+      <c r="AV14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3938,11 +3803,14 @@
       <c r="AT15">
         <v>1951</v>
       </c>
-      <c r="AU15" t="s">
+      <c r="AU15">
+        <v>1645</v>
+      </c>
+      <c r="AV15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -4081,11 +3949,14 @@
       <c r="AT16">
         <v>28</v>
       </c>
-      <c r="AU16" t="s">
+      <c r="AU16">
+        <v>27</v>
+      </c>
+      <c r="AV16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4224,11 +4095,14 @@
       <c r="AT17">
         <v>1857</v>
       </c>
-      <c r="AU17" t="s">
+      <c r="AU17">
+        <v>1894</v>
+      </c>
+      <c r="AV17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -4367,11 +4241,14 @@
       <c r="AT18">
         <v>17</v>
       </c>
-      <c r="AU18" t="s">
+      <c r="AU18">
+        <v>18</v>
+      </c>
+      <c r="AV18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -4510,11 +4387,14 @@
       <c r="AT19">
         <v>229</v>
       </c>
-      <c r="AU19" t="s">
+      <c r="AU19">
+        <v>230</v>
+      </c>
+      <c r="AV19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4653,11 +4533,14 @@
       <c r="AT20">
         <v>224</v>
       </c>
-      <c r="AU20" t="s">
+      <c r="AU20">
+        <v>225</v>
+      </c>
+      <c r="AV20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4796,11 +4679,14 @@
       <c r="AT21">
         <v>387</v>
       </c>
-      <c r="AU21" t="s">
+      <c r="AU21">
+        <v>400</v>
+      </c>
+      <c r="AV21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4939,11 +4825,14 @@
       <c r="AT22">
         <v>721</v>
       </c>
-      <c r="AU22" t="s">
+      <c r="AU22">
+        <v>732</v>
+      </c>
+      <c r="AV22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -5082,11 +4971,14 @@
       <c r="AT23">
         <v>148</v>
       </c>
-      <c r="AU23" t="s">
+      <c r="AU23">
+        <v>153</v>
+      </c>
+      <c r="AV23" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5225,11 +5117,14 @@
       <c r="AT24">
         <v>1561</v>
       </c>
-      <c r="AU24" t="s">
+      <c r="AU24">
+        <v>1606</v>
+      </c>
+      <c r="AV24" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5368,11 +5263,14 @@
       <c r="AT25">
         <v>1126</v>
       </c>
-      <c r="AU25" t="s">
+      <c r="AU25">
+        <v>1158</v>
+      </c>
+      <c r="AV25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -5511,11 +5409,14 @@
       <c r="AT26">
         <v>16</v>
       </c>
-      <c r="AU26" t="s">
+      <c r="AU26">
+        <v>16</v>
+      </c>
+      <c r="AV26" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5654,11 +5555,14 @@
       <c r="AT27">
         <v>724</v>
       </c>
-      <c r="AU27" t="s">
+      <c r="AU27">
+        <v>749</v>
+      </c>
+      <c r="AV27" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5797,11 +5701,14 @@
       <c r="AT28">
         <v>801</v>
       </c>
-      <c r="AU28" t="s">
+      <c r="AU28">
+        <v>816</v>
+      </c>
+      <c r="AV28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -5940,11 +5847,14 @@
       <c r="AT29">
         <v>2</v>
       </c>
-      <c r="AU29" t="s">
+      <c r="AU29">
+        <v>2</v>
+      </c>
+      <c r="AV29" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -6083,11 +5993,14 @@
       <c r="AT30">
         <v>730</v>
       </c>
-      <c r="AU30" t="s">
+      <c r="AU30">
+        <v>734</v>
+      </c>
+      <c r="AV30" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -6226,11 +6139,14 @@
       <c r="AT31">
         <v>780</v>
       </c>
-      <c r="AU31" t="s">
+      <c r="AU31">
+        <v>786</v>
+      </c>
+      <c r="AV31" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -6369,11 +6285,14 @@
       <c r="AT32">
         <v>543</v>
       </c>
-      <c r="AU32" t="s">
+      <c r="AU32">
+        <v>558</v>
+      </c>
+      <c r="AV32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -6512,11 +6431,14 @@
       <c r="AT33">
         <v>1435</v>
       </c>
-      <c r="AU33" t="s">
+      <c r="AU33">
+        <v>1470</v>
+      </c>
+      <c r="AV33" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -6655,11 +6577,14 @@
       <c r="AT34">
         <v>149</v>
       </c>
-      <c r="AU34" t="s">
+      <c r="AU34">
+        <v>151</v>
+      </c>
+      <c r="AV34" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -6798,7 +6723,10 @@
       <c r="AT35">
         <v>781</v>
       </c>
-      <c r="AU35" t="s">
+      <c r="AU35">
+        <v>774</v>
+      </c>
+      <c r="AV35" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6810,11 +6738,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:AU34"/>
+  <dimension ref="A1:AV34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT1" sqref="AT1:AU1"/>
+      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AV35" sqref="AV35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6825,7 +6753,7 @@
     <col min="28" max="47" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6988,8 +6916,11 @@
       <c r="AU1" s="1">
         <v>43964</v>
       </c>
+      <c r="AV1" s="19">
+        <v>43965</v>
+      </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7169,11 +7100,15 @@
         <f>cases!AT2/(population_2016!$B2/1000)</f>
         <v>12.447390964281723</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AU2" s="3">
+        <f>cases!AU2/(population_2016!$B2/1000)</f>
+        <v>12.626168572386309</v>
+      </c>
+      <c r="AV2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7353,11 +7288,15 @@
         <f>cases!AT3/(population_2016!$B3/1000)</f>
         <v>11.005701467426862</v>
       </c>
-      <c r="AU3" s="3" t="s">
+      <c r="AU3" s="3">
+        <f>cases!AU3/(population_2016!$B3/1000)</f>
+        <v>11.543134872417983</v>
+      </c>
+      <c r="AV3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -7537,11 +7476,15 @@
         <f>cases!AT4/(population_2016!$B4/1000)</f>
         <v>3.6620455139942454</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AU4" s="3">
+        <f>cases!AU4/(population_2016!$B4/1000)</f>
+        <v>3.923620193565263</v>
+      </c>
+      <c r="AV4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -7721,11 +7664,15 @@
         <f>cases!AT5/(population_2016!$B5/1000)</f>
         <v>2.5874560132477744</v>
       </c>
-      <c r="AU5" s="3" t="s">
+      <c r="AU5" s="3">
+        <f>cases!AU5/(population_2016!$B5/1000)</f>
+        <v>2.5874560132477744</v>
+      </c>
+      <c r="AV5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7905,11 +7852,15 @@
         <f>cases!AT6/(population_2016!$B6/1000)</f>
         <v>9.8066298342541423</v>
       </c>
-      <c r="AU6" s="3" t="s">
+      <c r="AU6" s="3">
+        <f>cases!AU6/(population_2016!$B6/1000)</f>
+        <v>9.9627672351669467</v>
+      </c>
+      <c r="AV6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -8089,11 +8040,15 @@
         <f>cases!AT7/(population_2016!$B7/1000)</f>
         <v>12.57396449704142</v>
       </c>
-      <c r="AU7" s="3" t="s">
+      <c r="AU7" s="3">
+        <f>cases!AU7/(population_2016!$B7/1000)</f>
+        <v>12.69723865877712</v>
+      </c>
+      <c r="AV7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -8273,11 +8228,15 @@
         <f>cases!AT8/(population_2016!$B8/1000)</f>
         <v>6.3395979467882775</v>
       </c>
-      <c r="AU8" s="3" t="s">
+      <c r="AU8" s="3">
+        <f>cases!AU8/(population_2016!$B8/1000)</f>
+        <v>6.50320047444733</v>
+      </c>
+      <c r="AV8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -8457,11 +8416,15 @@
         <f>cases!AT9/(population_2016!$B9/1000)</f>
         <v>7.9030558482613271</v>
       </c>
-      <c r="AU9" s="3" t="s">
+      <c r="AU9" s="3">
+        <f>cases!AU9/(population_2016!$B9/1000)</f>
+        <v>8.0084299262381453</v>
+      </c>
+      <c r="AV9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -8641,11 +8604,15 @@
         <f>cases!AT10/(population_2016!$B10/1000)</f>
         <v>6.8836942492470961</v>
       </c>
-      <c r="AU10" s="3" t="s">
+      <c r="AU10" s="3">
+        <f>cases!AU10/(population_2016!$B10/1000)</f>
+        <v>6.8836942492470961</v>
+      </c>
+      <c r="AV10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -8825,11 +8792,15 @@
         <f>cases!AT11/(population_2016!$B11/1000)</f>
         <v>4.3670289315666713</v>
       </c>
-      <c r="AU11" s="3" t="s">
+      <c r="AU11" s="3">
+        <f>cases!AU11/(population_2016!$B11/1000)</f>
+        <v>4.4166542603344752</v>
+      </c>
+      <c r="AV11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -9009,11 +8980,15 @@
         <f>cases!AT12/(population_2016!$B12/1000)</f>
         <v>9.7327429252174706</v>
       </c>
-      <c r="AU12" s="3" t="s">
+      <c r="AU12" s="3">
+        <f>cases!AU12/(population_2016!$B12/1000)</f>
+        <v>9.8451302569174413</v>
+      </c>
+      <c r="AV12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -9193,11 +9168,15 @@
         <f>cases!AT13/(population_2016!$B13/1000)</f>
         <v>12.400296670266615</v>
       </c>
-      <c r="AU13" s="3" t="s">
+      <c r="AU13" s="3">
+        <f>cases!AU13/(population_2016!$B13/1000)</f>
+        <v>12.543427062053532</v>
+      </c>
+      <c r="AV13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -9377,11 +9356,15 @@
         <f>cases!AT14/(population_2016!$B14/1000)</f>
         <v>8.3636561125291919</v>
       </c>
-      <c r="AU14" s="3" t="s">
+      <c r="AU14" s="3">
+        <f>cases!AU14/(population_2016!$B14/1000)</f>
+        <v>8.4722750230815187</v>
+      </c>
+      <c r="AV14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -9561,11 +9544,15 @@
         <f>cases!AT15/(population_2016!$B15/1000)</f>
         <v>14.343057107569253</v>
       </c>
-      <c r="AU15" s="3" t="s">
+      <c r="AU15" s="3">
+        <f>cases!AU15/(population_2016!$B15/1000)</f>
+        <v>12.093454096335941</v>
+      </c>
+      <c r="AV15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -9745,11 +9732,15 @@
         <f>cases!AT16/(population_2016!$B16/1000)</f>
         <v>7.2727272727272725</v>
       </c>
-      <c r="AU16" s="3" t="s">
+      <c r="AU16" s="3">
+        <f>cases!AU16/(population_2016!$B16/1000)</f>
+        <v>7.0129870129870131</v>
+      </c>
+      <c r="AV16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -9929,11 +9920,15 @@
         <f>cases!AT17/(population_2016!$B17/1000)</f>
         <v>22.045729752831399</v>
       </c>
-      <c r="AU17" s="3" t="s">
+      <c r="AU17" s="3">
+        <f>cases!AU17/(population_2016!$B17/1000)</f>
+        <v>22.484982311180758</v>
+      </c>
+      <c r="AV17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -10113,11 +10108,15 @@
         <f>cases!AT18/(population_2016!$B18/1000)</f>
         <v>3.3663366336633667</v>
       </c>
-      <c r="AU18" s="3" t="s">
+      <c r="AU18" s="3">
+        <f>cases!AU18/(population_2016!$B18/1000)</f>
+        <v>3.5643564356435644</v>
+      </c>
+      <c r="AV18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -10297,11 +10296,15 @@
         <f>cases!AT19/(population_2016!$B19/1000)</f>
         <v>11.294140856184653</v>
       </c>
-      <c r="AU19" s="3" t="s">
+      <c r="AU19" s="3">
+        <f>cases!AU19/(population_2016!$B19/1000)</f>
+        <v>11.343460248569738</v>
+      </c>
+      <c r="AV19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -10481,11 +10484,15 @@
         <f>cases!AT20/(population_2016!$B20/1000)</f>
         <v>9.3512565751022798</v>
       </c>
-      <c r="AU20" s="3" t="s">
+      <c r="AU20" s="3">
+        <f>cases!AU20/(population_2016!$B20/1000)</f>
+        <v>9.3930032562411281</v>
+      </c>
+      <c r="AV20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -10665,11 +10672,15 @@
         <f>cases!AT21/(population_2016!$B21/1000)</f>
         <v>5.5846573444737873</v>
       </c>
-      <c r="AU21" s="3" t="s">
+      <c r="AU21" s="3">
+        <f>cases!AU21/(population_2016!$B21/1000)</f>
+        <v>5.7722556532028806</v>
+      </c>
+      <c r="AV21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -10849,11 +10860,15 @@
         <f>cases!AT22/(population_2016!$B22/1000)</f>
         <v>6.9326923076923075</v>
       </c>
-      <c r="AU22" s="3" t="s">
+      <c r="AU22" s="3">
+        <f>cases!AU22/(population_2016!$B22/1000)</f>
+        <v>7.0384615384615383</v>
+      </c>
+      <c r="AV22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -11033,11 +11048,15 @@
         <f>cases!AT23/(population_2016!$B23/1000)</f>
         <v>4.7163798597833013</v>
       </c>
-      <c r="AU23" s="3" t="s">
+      <c r="AU23" s="3">
+        <f>cases!AU23/(population_2016!$B23/1000)</f>
+        <v>4.8757170172084132</v>
+      </c>
+      <c r="AV23" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -11217,11 +11236,15 @@
         <f>cases!AT24/(population_2016!$B24/1000)</f>
         <v>14.623909764574726</v>
       </c>
-      <c r="AU24" s="3" t="s">
+      <c r="AU24" s="3">
+        <f>cases!AU24/(population_2016!$B24/1000)</f>
+        <v>15.045483076173614</v>
+      </c>
+      <c r="AV24" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -11401,11 +11424,15 @@
         <f>cases!AT25/(population_2016!$B25/1000)</f>
         <v>8.0664804069059386</v>
       </c>
-      <c r="AU25" s="3" t="s">
+      <c r="AU25" s="3">
+        <f>cases!AU25/(population_2016!$B25/1000)</f>
+        <v>8.2957231893402099</v>
+      </c>
+      <c r="AV25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -11585,11 +11612,15 @@
         <f>cases!AT26/(population_2016!$B26/1000)</f>
         <v>3.227107704719645</v>
       </c>
-      <c r="AU26" s="3" t="s">
+      <c r="AU26" s="3">
+        <f>cases!AU26/(population_2016!$B26/1000)</f>
+        <v>3.227107704719645</v>
+      </c>
+      <c r="AV26" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -11769,11 +11800,15 @@
         <f>cases!AT27/(population_2016!$B27/1000)</f>
         <v>7.325859068280244</v>
       </c>
-      <c r="AU27" s="3" t="s">
+      <c r="AU27" s="3">
+        <f>cases!AU27/(population_2016!$B27/1000)</f>
+        <v>7.5788238151131253</v>
+      </c>
+      <c r="AV27" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -11953,11 +11988,15 @@
         <f>cases!AT28/(population_2016!$B28/1000)</f>
         <v>10.229231849818019</v>
       </c>
-      <c r="AU28" s="3" t="s">
+      <c r="AU28" s="3">
+        <f>cases!AU28/(population_2016!$B28/1000)</f>
+        <v>10.420790498691016</v>
+      </c>
+      <c r="AV28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -12137,11 +12176,15 @@
         <f>cases!AT29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
-      <c r="AU29" s="3" t="s">
+      <c r="AU29" s="3">
+        <f>cases!AU29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
+      <c r="AV29" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -12321,11 +12364,15 @@
         <f>cases!AT30/(population_2016!$B30/1000)</f>
         <v>9.3408913513582679</v>
       </c>
-      <c r="AU30" s="3" t="s">
+      <c r="AU30" s="3">
+        <f>cases!AU30/(population_2016!$B30/1000)</f>
+        <v>9.3920743176670811</v>
+      </c>
+      <c r="AV30" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -12505,11 +12552,15 @@
         <f>cases!AT31/(population_2016!$B31/1000)</f>
         <v>11.266954599950887</v>
       </c>
-      <c r="AU31" s="3" t="s">
+      <c r="AU31" s="3">
+        <f>cases!AU31/(population_2016!$B31/1000)</f>
+        <v>11.353623481488972</v>
+      </c>
+      <c r="AV31" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -12689,11 +12740,15 @@
         <f>cases!AT32/(population_2016!$B32/1000)</f>
         <v>6.0894919816081643</v>
       </c>
-      <c r="AU32" s="3" t="s">
+      <c r="AU32" s="3">
+        <f>cases!AU32/(population_2016!$B32/1000)</f>
+        <v>6.2577099921498265</v>
+      </c>
+      <c r="AV32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -12873,11 +12928,15 @@
         <f>cases!AT33/(population_2016!$B33/1000)</f>
         <v>9.9754610609441574</v>
       </c>
-      <c r="AU33" s="3" t="s">
+      <c r="AU33" s="3">
+        <f>cases!AU33/(population_2016!$B33/1000)</f>
+        <v>10.218764989259869</v>
+      </c>
+      <c r="AV33" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -13057,7 +13116,11 @@
         <f>cases!AT34/(population_2016!$B34/1000)</f>
         <v>7.3355651831429691</v>
       </c>
-      <c r="AU34" s="3" t="s">
+      <c r="AU34" s="3">
+        <f>cases!AU34/(population_2016!$B34/1000)</f>
+        <v>7.4340291453328078</v>
+      </c>
+      <c r="AV34" t="s">
         <v>101</v>
       </c>
     </row>
@@ -13068,11 +13131,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AS61"/>
+  <dimension ref="A1:AS62"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I65" sqref="I65:J65"/>
+      <selection pane="bottomLeft" activeCell="F62" sqref="F62:AS62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22718,124 +22781,294 @@
         <f t="shared" ref="E61" si="724">D61-D60</f>
         <v>91</v>
       </c>
-      <c r="F61" t="s">
-        <v>101</v>
-      </c>
-      <c r="G61" t="s">
-        <v>101</v>
-      </c>
-      <c r="H61" t="s">
-        <v>101</v>
-      </c>
-      <c r="I61" t="s">
-        <v>101</v>
-      </c>
-      <c r="J61" t="s">
-        <v>101</v>
-      </c>
-      <c r="K61" t="s">
-        <v>101</v>
-      </c>
-      <c r="L61" t="s">
-        <v>101</v>
-      </c>
-      <c r="M61" t="s">
-        <v>101</v>
-      </c>
-      <c r="N61" t="s">
-        <v>101</v>
-      </c>
-      <c r="O61" t="s">
-        <v>101</v>
-      </c>
-      <c r="P61" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>101</v>
-      </c>
-      <c r="R61" t="s">
-        <v>101</v>
-      </c>
-      <c r="S61" t="s">
-        <v>101</v>
-      </c>
-      <c r="T61" t="s">
-        <v>101</v>
-      </c>
-      <c r="U61" t="s">
-        <v>101</v>
-      </c>
-      <c r="V61" t="s">
-        <v>101</v>
-      </c>
-      <c r="W61" t="s">
-        <v>101</v>
-      </c>
-      <c r="X61" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD61" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE61" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF61" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH61" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI61" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ61" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK61" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL61" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM61" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN61" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO61" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP61" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ61" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR61" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS61" t="s">
+      <c r="F61" cm="1">
+        <f t="array" ref="F61:O61">TRANSPOSE(santemontreal!AT$57:AT$66)</f>
+        <v>199</v>
+      </c>
+      <c r="G61">
+        <v>180</v>
+      </c>
+      <c r="H61">
+        <v>624</v>
+      </c>
+      <c r="I61">
+        <v>2241</v>
+      </c>
+      <c r="J61">
+        <v>2541</v>
+      </c>
+      <c r="K61">
+        <v>2862</v>
+      </c>
+      <c r="L61">
+        <v>2616</v>
+      </c>
+      <c r="M61">
+        <v>1791</v>
+      </c>
+      <c r="N61">
+        <v>1937</v>
+      </c>
+      <c r="O61">
+        <v>5566</v>
+      </c>
+      <c r="P61" s="18">
+        <f>F61/(age_distribution_2016!$B$2/100000)</f>
+        <v>181.33770730818298</v>
+      </c>
+      <c r="Q61" s="18">
+        <f>G61/(age_distribution_2016!$B$3/100000)</f>
+        <v>172.4385687598793</v>
+      </c>
+      <c r="R61" s="18">
+        <f>H61/(age_distribution_2016!$B$4/100000)</f>
+        <v>331.58859632808139</v>
+      </c>
+      <c r="S61" s="18">
+        <f>I61/(age_distribution_2016!$B$5/100000)</f>
+        <v>764.25952766646776</v>
+      </c>
+      <c r="T61" s="18">
+        <f>J61/(age_distribution_2016!$B$6/100000)</f>
+        <v>847.91857845999834</v>
+      </c>
+      <c r="U61" s="18">
+        <f>K61/(age_distribution_2016!$B$7/100000)</f>
+        <v>1124.6684350132625</v>
+      </c>
+      <c r="V61" s="18">
+        <f>L61/(age_distribution_2016!$B$8/100000)</f>
+        <v>1010.5263157894736</v>
+      </c>
+      <c r="W61" s="18">
+        <f>M61/(age_distribution_2016!$B$9/100000)</f>
+        <v>873.63722836028387</v>
+      </c>
+      <c r="X61" s="18">
+        <f>N61/(age_distribution_2016!$B$10/100000)</f>
+        <v>1493.676742751388</v>
+      </c>
+      <c r="Y61" s="18">
+        <f>O61/(age_distribution_2016!$B$11/100000)</f>
+        <v>5633.3181519153886</v>
+      </c>
+      <c r="Z61" s="3">
+        <f t="shared" ref="Z61" si="725">F61*100/SUM($F61:$O61)</f>
+        <v>0.96804008366979621</v>
+      </c>
+      <c r="AA61" s="3">
+        <f t="shared" ref="AA61" si="726">G61*100/SUM($F61:$O61)</f>
+        <v>0.87561414603298149</v>
+      </c>
+      <c r="AB61" s="3">
+        <f t="shared" ref="AB61" si="727">H61*100/SUM($F61:$O61)</f>
+        <v>3.0354623729143357</v>
+      </c>
+      <c r="AC61" s="3">
+        <f t="shared" ref="AC61" si="728">I61*100/SUM($F61:$O61)</f>
+        <v>10.90139611811062</v>
+      </c>
+      <c r="AD61" s="3">
+        <f t="shared" ref="AD61" si="729">J61*100/SUM($F61:$O61)</f>
+        <v>12.360753028165588</v>
+      </c>
+      <c r="AE61" s="3">
+        <f t="shared" ref="AE61" si="730">K61*100/SUM($F61:$O61)</f>
+        <v>13.922264921924405</v>
+      </c>
+      <c r="AF61" s="3">
+        <f t="shared" ref="AF61" si="731">L61*100/SUM($F61:$O61)</f>
+        <v>12.725592255679331</v>
+      </c>
+      <c r="AG61" s="3">
+        <f t="shared" ref="AG61" si="732">M61*100/SUM($F61:$O61)</f>
+        <v>8.7123607530281664</v>
+      </c>
+      <c r="AH61" s="3">
+        <f t="shared" ref="AH61" si="733">N61*100/SUM($F61:$O61)</f>
+        <v>9.4225811159215844</v>
+      </c>
+      <c r="AI61" s="3">
+        <f t="shared" ref="AI61" si="734">O61*100/SUM($F61:$O61)</f>
+        <v>27.075935204553193</v>
+      </c>
+      <c r="AJ61" s="3">
+        <f t="shared" ref="AJ61" si="735">P61*100/SUM($P61:$Y61)</f>
+        <v>1.4584759358210011</v>
+      </c>
+      <c r="AK61" s="3">
+        <f t="shared" ref="AK61" si="736">Q61*100/SUM($P61:$Y61)</f>
+        <v>1.3869013051779662</v>
+      </c>
+      <c r="AL61" s="3">
+        <f t="shared" ref="AL61" si="737">R61*100/SUM($P61:$Y61)</f>
+        <v>2.6669245768905081</v>
+      </c>
+      <c r="AM61" s="3">
+        <f t="shared" ref="AM61" si="738">S61*100/SUM($P61:$Y61)</f>
+        <v>6.1468414174285098</v>
+      </c>
+      <c r="AN61" s="3">
+        <f t="shared" ref="AN61" si="739">T61*100/SUM($P61:$Y61)</f>
+        <v>6.819700439455449</v>
+      </c>
+      <c r="AO61" s="3">
+        <f t="shared" ref="AO61" si="740">U61*100/SUM($P61:$Y61)</f>
+        <v>9.0455640616246455</v>
+      </c>
+      <c r="AP61" s="3">
+        <f t="shared" ref="AP61" si="741">V61*100/SUM($P61:$Y61)</f>
+        <v>8.1275336275650236</v>
+      </c>
+      <c r="AQ61" s="3">
+        <f t="shared" ref="AQ61" si="742">W61*100/SUM($P61:$Y61)</f>
+        <v>7.0265522439597561</v>
+      </c>
+      <c r="AR61" s="3">
+        <f t="shared" ref="AR61" si="743">X61*100/SUM($P61:$Y61)</f>
+        <v>12.013450580888033</v>
+      </c>
+      <c r="AS61" s="3">
+        <f t="shared" ref="AS61" si="744">Y61*100/SUM($P61:$Y61)</f>
+        <v>45.308055811189107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A62" s="19">
+        <v>43965</v>
+      </c>
+      <c r="B62" s="17">
+        <v>21036</v>
+      </c>
+      <c r="C62" s="17">
+        <f t="shared" ref="C62" si="745">B62-B61</f>
+        <v>403</v>
+      </c>
+      <c r="D62">
+        <v>2182</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ref="E62" si="746">D62-D61</f>
+        <v>28</v>
+      </c>
+      <c r="F62" t="s">
+        <v>101</v>
+      </c>
+      <c r="G62" t="s">
+        <v>101</v>
+      </c>
+      <c r="H62" t="s">
+        <v>101</v>
+      </c>
+      <c r="I62" t="s">
+        <v>101</v>
+      </c>
+      <c r="J62" t="s">
+        <v>101</v>
+      </c>
+      <c r="K62" t="s">
+        <v>101</v>
+      </c>
+      <c r="L62" t="s">
+        <v>101</v>
+      </c>
+      <c r="M62" t="s">
+        <v>101</v>
+      </c>
+      <c r="N62" t="s">
+        <v>101</v>
+      </c>
+      <c r="O62" t="s">
+        <v>101</v>
+      </c>
+      <c r="P62" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>101</v>
+      </c>
+      <c r="R62" t="s">
+        <v>101</v>
+      </c>
+      <c r="S62" t="s">
+        <v>101</v>
+      </c>
+      <c r="T62" t="s">
+        <v>101</v>
+      </c>
+      <c r="U62" t="s">
+        <v>101</v>
+      </c>
+      <c r="V62" t="s">
+        <v>101</v>
+      </c>
+      <c r="W62" t="s">
+        <v>101</v>
+      </c>
+      <c r="X62" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP62" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ62" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR62" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS62" t="s">
         <v>101</v>
       </c>
     </row>
@@ -22846,11 +23079,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J76" sqref="J76"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22991,7 +23224,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F73" si="1">E4-E3</f>
+        <f t="shared" ref="F4:F74" si="1">E4-E3</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -23004,7 +23237,7 @@
         <v>260</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J73" si="2">I4-I3</f>
+        <f t="shared" ref="J4:J74" si="2">I4-I3</f>
         <v>18</v>
       </c>
       <c r="K4" t="s">
@@ -25261,7 +25494,7 @@
         <v>33417</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:C73" si="4">B64-B63</f>
+        <f t="shared" ref="C64:C74" si="4">B64-B63</f>
         <v>794</v>
       </c>
       <c r="D64">
@@ -25631,6 +25864,44 @@
       </c>
       <c r="K73">
         <v>10829</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B74">
+        <v>41420</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="4"/>
+        <v>696</v>
+      </c>
+      <c r="D74">
+        <v>26980</v>
+      </c>
+      <c r="E74">
+        <v>3401</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G74">
+        <v>1822</v>
+      </c>
+      <c r="H74">
+        <v>191</v>
+      </c>
+      <c r="I74">
+        <v>274360</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="2"/>
+        <v>7049</v>
+      </c>
+      <c r="K74">
+        <v>11039</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27289,13 @@
         <v>300</v>
       </c>
       <c r="AR1" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="AS1" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="AS1" s="5" t="s">
-        <v>304</v>
-      </c>
       <c r="AT1" s="5" t="s">
-        <v>398</v>
+        <v>310</v>
       </c>
       <c r="AU1" s="5"/>
       <c r="AV1" s="5"/>
@@ -27333,8 +27604,8 @@
       <c r="AS2" s="7">
         <v>1671</v>
       </c>
-      <c r="AT2" s="7" t="s">
-        <v>101</v>
+      <c r="AT2" s="7">
+        <v>1695</v>
       </c>
       <c r="AU2" s="7"/>
       <c r="AV2" s="7"/>
@@ -27643,8 +27914,8 @@
       <c r="AS3" s="9">
         <v>471</v>
       </c>
-      <c r="AT3" s="9" t="s">
-        <v>101</v>
+      <c r="AT3" s="9">
+        <v>494</v>
       </c>
       <c r="AU3" s="9"/>
       <c r="AV3" s="9"/>
@@ -27953,8 +28224,8 @@
       <c r="AS4" s="7">
         <v>14</v>
       </c>
-      <c r="AT4" s="7" t="s">
-        <v>101</v>
+      <c r="AT4" s="7">
+        <v>15</v>
       </c>
       <c r="AU4" s="7"/>
       <c r="AV4" s="7"/>
@@ -28263,8 +28534,8 @@
       <c r="AS5" s="9">
         <v>50</v>
       </c>
-      <c r="AT5" s="9" t="s">
-        <v>101</v>
+      <c r="AT5" s="9">
+        <v>50</v>
       </c>
       <c r="AU5" s="9"/>
       <c r="AV5" s="9"/>
@@ -28573,8 +28844,8 @@
       <c r="AS6" s="7">
         <v>1633</v>
       </c>
-      <c r="AT6" s="7" t="s">
-        <v>101</v>
+      <c r="AT6" s="7">
+        <v>1659</v>
       </c>
       <c r="AU6" s="7"/>
       <c r="AV6" s="7"/>
@@ -28883,8 +29154,8 @@
       <c r="AS7" s="9">
         <v>408</v>
       </c>
-      <c r="AT7" s="9" t="s">
-        <v>101</v>
+      <c r="AT7" s="9">
+        <v>412</v>
       </c>
       <c r="AU7" s="9"/>
       <c r="AV7" s="9"/>
@@ -29193,8 +29464,8 @@
       <c r="AS8" s="7">
         <v>310</v>
       </c>
-      <c r="AT8" s="7" t="s">
-        <v>101</v>
+      <c r="AT8" s="7">
+        <v>318</v>
       </c>
       <c r="AU8" s="7"/>
       <c r="AV8" s="7"/>
@@ -29503,8 +29774,8 @@
       <c r="AS9" s="9">
         <v>150</v>
       </c>
-      <c r="AT9" s="9" t="s">
-        <v>101</v>
+      <c r="AT9" s="9">
+        <v>152</v>
       </c>
       <c r="AU9" s="9"/>
       <c r="AV9" s="9"/>
@@ -29813,8 +30084,8 @@
       <c r="AS10" s="7">
         <v>48</v>
       </c>
-      <c r="AT10" s="7" t="s">
-        <v>101</v>
+      <c r="AT10" s="7">
+        <v>48</v>
       </c>
       <c r="AU10" s="7"/>
       <c r="AV10" s="7"/>
@@ -30123,8 +30394,8 @@
       <c r="AS11" s="9">
         <v>88</v>
       </c>
-      <c r="AT11" s="9" t="s">
-        <v>101</v>
+      <c r="AT11" s="9">
+        <v>89</v>
       </c>
       <c r="AU11" s="9"/>
       <c r="AV11" s="9"/>
@@ -30433,8 +30704,8 @@
       <c r="AS12" s="7">
         <v>433</v>
       </c>
-      <c r="AT12" s="7" t="s">
-        <v>101</v>
+      <c r="AT12" s="7">
+        <v>438</v>
       </c>
       <c r="AU12" s="7"/>
       <c r="AV12" s="7"/>
@@ -30743,8 +31014,8 @@
       <c r="AS13" s="9">
         <v>953</v>
       </c>
-      <c r="AT13" s="9" t="s">
-        <v>101</v>
+      <c r="AT13" s="9">
+        <v>964</v>
       </c>
       <c r="AU13" s="9"/>
       <c r="AV13" s="9"/>
@@ -31053,8 +31324,8 @@
       <c r="AS14" s="7">
         <v>154</v>
       </c>
-      <c r="AT14" s="7" t="s">
-        <v>101</v>
+      <c r="AT14" s="7">
+        <v>156</v>
       </c>
       <c r="AU14" s="7"/>
       <c r="AV14" s="7"/>
@@ -31363,8 +31634,8 @@
       <c r="AS15" s="9">
         <v>1951</v>
       </c>
-      <c r="AT15" s="9" t="s">
-        <v>101</v>
+      <c r="AT15" s="9">
+        <v>1645</v>
       </c>
       <c r="AU15" s="9"/>
       <c r="AV15" s="9"/>
@@ -31673,8 +31944,8 @@
       <c r="AS16" s="7">
         <v>28</v>
       </c>
-      <c r="AT16" s="7" t="s">
-        <v>101</v>
+      <c r="AT16" s="7">
+        <v>27</v>
       </c>
       <c r="AU16" s="7"/>
       <c r="AV16" s="7"/>
@@ -31983,8 +32254,8 @@
       <c r="AS17" s="9">
         <v>1857</v>
       </c>
-      <c r="AT17" s="9" t="s">
-        <v>101</v>
+      <c r="AT17" s="9">
+        <v>1894</v>
       </c>
       <c r="AU17" s="9"/>
       <c r="AV17" s="9"/>
@@ -32293,8 +32564,8 @@
       <c r="AS18" s="7">
         <v>17</v>
       </c>
-      <c r="AT18" s="7" t="s">
-        <v>101</v>
+      <c r="AT18" s="7">
+        <v>18</v>
       </c>
       <c r="AU18" s="7"/>
       <c r="AV18" s="7"/>
@@ -32603,8 +32874,8 @@
       <c r="AS19" s="9">
         <v>229</v>
       </c>
-      <c r="AT19" s="9" t="s">
-        <v>101</v>
+      <c r="AT19" s="9">
+        <v>230</v>
       </c>
       <c r="AU19" s="9"/>
       <c r="AV19" s="9"/>
@@ -32913,8 +33184,8 @@
       <c r="AS20" s="7">
         <v>224</v>
       </c>
-      <c r="AT20" s="7" t="s">
-        <v>101</v>
+      <c r="AT20" s="7">
+        <v>225</v>
       </c>
       <c r="AU20" s="7"/>
       <c r="AV20" s="7"/>
@@ -33223,8 +33494,8 @@
       <c r="AS21" s="9">
         <v>387</v>
       </c>
-      <c r="AT21" s="9" t="s">
-        <v>101</v>
+      <c r="AT21" s="9">
+        <v>400</v>
       </c>
       <c r="AU21" s="9"/>
       <c r="AV21" s="9"/>
@@ -33533,8 +33804,8 @@
       <c r="AS22" s="7">
         <v>721</v>
       </c>
-      <c r="AT22" s="7" t="s">
-        <v>101</v>
+      <c r="AT22" s="7">
+        <v>732</v>
       </c>
       <c r="AU22" s="7"/>
       <c r="AV22" s="7"/>
@@ -33843,8 +34114,8 @@
       <c r="AS23" s="9">
         <v>148</v>
       </c>
-      <c r="AT23" s="9" t="s">
-        <v>101</v>
+      <c r="AT23" s="9">
+        <v>153</v>
       </c>
       <c r="AU23" s="9"/>
       <c r="AV23" s="9"/>
@@ -34153,8 +34424,8 @@
       <c r="AS24" s="7">
         <v>1561</v>
       </c>
-      <c r="AT24" s="7" t="s">
-        <v>101</v>
+      <c r="AT24" s="7">
+        <v>1606</v>
       </c>
       <c r="AU24" s="7"/>
       <c r="AV24" s="7"/>
@@ -34463,8 +34734,8 @@
       <c r="AS25" s="9">
         <v>1126</v>
       </c>
-      <c r="AT25" s="9" t="s">
-        <v>101</v>
+      <c r="AT25" s="9">
+        <v>1158</v>
       </c>
       <c r="AU25" s="9"/>
       <c r="AV25" s="9"/>
@@ -34773,8 +35044,8 @@
       <c r="AS26" s="7">
         <v>16</v>
       </c>
-      <c r="AT26" s="7" t="s">
-        <v>101</v>
+      <c r="AT26" s="7">
+        <v>16</v>
       </c>
       <c r="AU26" s="7"/>
       <c r="AV26" s="7"/>
@@ -35083,8 +35354,8 @@
       <c r="AS27" s="9">
         <v>724</v>
       </c>
-      <c r="AT27" s="9" t="s">
-        <v>101</v>
+      <c r="AT27" s="9">
+        <v>749</v>
       </c>
       <c r="AU27" s="9"/>
       <c r="AV27" s="9"/>
@@ -35393,8 +35664,8 @@
       <c r="AS28" s="7">
         <v>801</v>
       </c>
-      <c r="AT28" s="7" t="s">
-        <v>101</v>
+      <c r="AT28" s="7">
+        <v>816</v>
       </c>
       <c r="AU28" s="7"/>
       <c r="AV28" s="7"/>
@@ -35703,8 +35974,8 @@
       <c r="AS29" s="20">
         <v>2</v>
       </c>
-      <c r="AT29" s="22" t="s">
-        <v>101</v>
+      <c r="AT29" s="20">
+        <v>2</v>
       </c>
       <c r="AU29" s="22"/>
       <c r="AV29" s="22"/>
@@ -36013,8 +36284,8 @@
       <c r="AS30" s="7">
         <v>730</v>
       </c>
-      <c r="AT30" s="7" t="s">
-        <v>101</v>
+      <c r="AT30" s="7">
+        <v>734</v>
       </c>
       <c r="AU30" s="7"/>
       <c r="AV30" s="7"/>
@@ -36323,8 +36594,8 @@
       <c r="AS31" s="9">
         <v>780</v>
       </c>
-      <c r="AT31" s="9" t="s">
-        <v>101</v>
+      <c r="AT31" s="9">
+        <v>786</v>
       </c>
       <c r="AU31" s="9"/>
       <c r="AV31" s="9"/>
@@ -36633,8 +36904,8 @@
       <c r="AS32" s="7">
         <v>543</v>
       </c>
-      <c r="AT32" s="7" t="s">
-        <v>101</v>
+      <c r="AT32" s="7">
+        <v>558</v>
       </c>
       <c r="AU32" s="7"/>
       <c r="AV32" s="7"/>
@@ -36943,8 +37214,8 @@
       <c r="AS33" s="9">
         <v>1435</v>
       </c>
-      <c r="AT33" s="9" t="s">
-        <v>101</v>
+      <c r="AT33" s="9">
+        <v>1470</v>
       </c>
       <c r="AU33" s="9"/>
       <c r="AV33" s="9"/>
@@ -37253,8 +37524,8 @@
       <c r="AS34" s="7">
         <v>149</v>
       </c>
-      <c r="AT34" s="7" t="s">
-        <v>101</v>
+      <c r="AT34" s="7">
+        <v>151</v>
       </c>
       <c r="AU34" s="7"/>
       <c r="AV34" s="7"/>
@@ -37563,8 +37834,8 @@
       <c r="AS35" s="9">
         <v>781</v>
       </c>
-      <c r="AT35" s="9" t="s">
-        <v>101</v>
+      <c r="AT35" s="9">
+        <v>774</v>
       </c>
       <c r="AU35" s="9"/>
       <c r="AV35" s="9"/>
@@ -37873,8 +38144,8 @@
       <c r="AS36" s="11">
         <v>20232</v>
       </c>
-      <c r="AT36" s="11" t="s">
-        <v>101</v>
+      <c r="AT36" s="11">
+        <v>20633</v>
       </c>
       <c r="AU36" s="11"/>
       <c r="AV36" s="11"/>
@@ -42338,8 +42609,8 @@
       <c r="AS57" s="7">
         <v>190</v>
       </c>
-      <c r="AT57" s="7" t="s">
-        <v>101</v>
+      <c r="AT57" s="7">
+        <v>199</v>
       </c>
       <c r="AU57" s="7"/>
       <c r="AV57" s="7"/>
@@ -42646,8 +42917,8 @@
       <c r="AS58" s="9">
         <v>173</v>
       </c>
-      <c r="AT58" s="9" t="s">
-        <v>101</v>
+      <c r="AT58" s="9">
+        <v>180</v>
       </c>
       <c r="AU58" s="9"/>
       <c r="AV58" s="9"/>
@@ -42954,8 +43225,8 @@
       <c r="AS59" s="7">
         <v>606</v>
       </c>
-      <c r="AT59" s="7" t="s">
-        <v>101</v>
+      <c r="AT59" s="7">
+        <v>624</v>
       </c>
       <c r="AU59" s="7"/>
       <c r="AV59" s="7"/>
@@ -43262,8 +43533,8 @@
       <c r="AS60" s="9">
         <v>2178</v>
       </c>
-      <c r="AT60" s="9" t="s">
-        <v>101</v>
+      <c r="AT60" s="9">
+        <v>2241</v>
       </c>
       <c r="AU60" s="9"/>
       <c r="AV60" s="9"/>
@@ -43570,8 +43841,8 @@
       <c r="AS61" s="7">
         <v>2495</v>
       </c>
-      <c r="AT61" s="7" t="s">
-        <v>101</v>
+      <c r="AT61" s="7">
+        <v>2541</v>
       </c>
       <c r="AU61" s="7"/>
       <c r="AV61" s="7"/>
@@ -43878,8 +44149,8 @@
       <c r="AS62" s="9">
         <v>2802</v>
       </c>
-      <c r="AT62" s="9" t="s">
-        <v>101</v>
+      <c r="AT62" s="9">
+        <v>2862</v>
       </c>
       <c r="AU62" s="9"/>
       <c r="AV62" s="9"/>
@@ -44186,8 +44457,8 @@
       <c r="AS63" s="7">
         <v>2578</v>
       </c>
-      <c r="AT63" s="7" t="s">
-        <v>101</v>
+      <c r="AT63" s="7">
+        <v>2616</v>
       </c>
       <c r="AU63" s="7"/>
       <c r="AV63" s="7"/>
@@ -44494,8 +44765,8 @@
       <c r="AS64" s="9">
         <v>1754</v>
       </c>
-      <c r="AT64" s="9" t="s">
-        <v>101</v>
+      <c r="AT64" s="9">
+        <v>1791</v>
       </c>
       <c r="AU64" s="9"/>
       <c r="AV64" s="9"/>
@@ -44802,8 +45073,8 @@
       <c r="AS65" s="7">
         <v>1910</v>
       </c>
-      <c r="AT65" s="7" t="s">
-        <v>101</v>
+      <c r="AT65" s="7">
+        <v>1937</v>
       </c>
       <c r="AU65" s="7"/>
       <c r="AV65" s="7"/>
@@ -45110,8 +45381,8 @@
       <c r="AS66" s="9">
         <v>5469</v>
       </c>
-      <c r="AT66" s="9" t="s">
-        <v>101</v>
+      <c r="AT66" s="9">
+        <v>5566</v>
       </c>
       <c r="AU66" s="9"/>
       <c r="AV66" s="9"/>
@@ -45418,8 +45689,8 @@
       <c r="AS67" s="7">
         <v>77</v>
       </c>
-      <c r="AT67" s="7" t="s">
-        <v>101</v>
+      <c r="AT67" s="7">
+        <v>76</v>
       </c>
       <c r="AU67" s="7"/>
       <c r="AV67" s="7"/>
@@ -45726,8 +45997,8 @@
       <c r="AS68" s="15">
         <v>20232</v>
       </c>
-      <c r="AT68" s="15" t="s">
-        <v>101</v>
+      <c r="AT68" s="15">
+        <v>20633</v>
       </c>
       <c r="AU68" s="15"/>
       <c r="AV68" s="15"/>
@@ -46375,8 +46646,8 @@
       <c r="AS71">
         <v>227</v>
       </c>
-      <c r="AT71" t="s">
-        <v>101</v>
+      <c r="AT71">
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46416,8 +46687,8 @@
       <c r="AS72">
         <v>24</v>
       </c>
-      <c r="AT72" t="s">
-        <v>101</v>
+      <c r="AT72">
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46457,8 +46728,8 @@
       <c r="AS73">
         <v>0</v>
       </c>
-      <c r="AT73" t="s">
-        <v>101</v>
+      <c r="AT73">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46498,8 +46769,8 @@
       <c r="AS74">
         <v>6</v>
       </c>
-      <c r="AT74" t="s">
-        <v>101</v>
+      <c r="AT74">
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46539,8 +46810,8 @@
       <c r="AS75">
         <v>179</v>
       </c>
-      <c r="AT75" t="s">
-        <v>101</v>
+      <c r="AT75">
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46580,8 +46851,8 @@
       <c r="AS76">
         <v>22</v>
       </c>
-      <c r="AT76" t="s">
-        <v>101</v>
+      <c r="AT76">
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46621,8 +46892,8 @@
       <c r="AS77">
         <v>39</v>
       </c>
-      <c r="AT77" t="s">
-        <v>101</v>
+      <c r="AT77">
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46662,8 +46933,8 @@
       <c r="AS78">
         <v>29</v>
       </c>
-      <c r="AT78" t="s">
-        <v>101</v>
+      <c r="AT78">
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46703,8 +46974,8 @@
       <c r="AS79">
         <v>0</v>
       </c>
-      <c r="AT79" t="s">
-        <v>101</v>
+      <c r="AT79">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46744,8 +47015,8 @@
       <c r="AS80">
         <v>10</v>
       </c>
-      <c r="AT80" t="s">
-        <v>101</v>
+      <c r="AT80">
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46785,8 +47056,8 @@
       <c r="AS81">
         <v>59</v>
       </c>
-      <c r="AT81" t="s">
-        <v>101</v>
+      <c r="AT81">
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46826,8 +47097,8 @@
       <c r="AS82">
         <v>129</v>
       </c>
-      <c r="AT82" t="s">
-        <v>101</v>
+      <c r="AT82">
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46867,8 +47138,8 @@
       <c r="AS83">
         <v>21</v>
       </c>
-      <c r="AT83" t="s">
-        <v>101</v>
+      <c r="AT83">
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46908,8 +47179,8 @@
       <c r="AS84">
         <v>208</v>
       </c>
-      <c r="AT84" t="s">
-        <v>101</v>
+      <c r="AT84">
+        <v>220</v>
       </c>
     </row>
     <row r="85" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46949,8 +47220,8 @@
       <c r="AS85" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="AT85" t="s">
-        <v>101</v>
+      <c r="AT85" s="24" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="86" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46990,8 +47261,8 @@
       <c r="AS86">
         <v>142</v>
       </c>
-      <c r="AT86" t="s">
-        <v>101</v>
+      <c r="AT86">
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47031,8 +47302,8 @@
       <c r="AS87" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="AT87" t="s">
-        <v>101</v>
+      <c r="AT87" s="24" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47072,8 +47343,8 @@
       <c r="AS88">
         <v>59</v>
       </c>
-      <c r="AT88" t="s">
-        <v>101</v>
+      <c r="AT88">
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47113,8 +47384,8 @@
       <c r="AS89">
         <v>8</v>
       </c>
-      <c r="AT89" t="s">
-        <v>101</v>
+      <c r="AT89">
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47154,8 +47425,8 @@
       <c r="AS90">
         <v>20</v>
       </c>
-      <c r="AT90" t="s">
-        <v>101</v>
+      <c r="AT90">
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47195,8 +47466,8 @@
       <c r="AS91">
         <v>77</v>
       </c>
-      <c r="AT91" t="s">
-        <v>101</v>
+      <c r="AT91">
+        <v>83</v>
       </c>
     </row>
     <row r="92" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47236,8 +47507,8 @@
       <c r="AS92">
         <v>23</v>
       </c>
-      <c r="AT92" t="s">
-        <v>101</v>
+      <c r="AT92">
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47277,8 +47548,8 @@
       <c r="AS93">
         <v>101</v>
       </c>
-      <c r="AT93" t="s">
-        <v>101</v>
+      <c r="AT93">
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47318,8 +47589,8 @@
       <c r="AS94">
         <v>114</v>
       </c>
-      <c r="AT94" t="s">
-        <v>101</v>
+      <c r="AT94">
+        <v>124</v>
       </c>
     </row>
     <row r="95" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47359,8 +47630,8 @@
       <c r="AS95" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="AT95" t="s">
-        <v>101</v>
+      <c r="AT95" s="24" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47400,8 +47671,8 @@
       <c r="AS96">
         <v>77</v>
       </c>
-      <c r="AT96" t="s">
-        <v>101</v>
+      <c r="AT96">
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47441,8 +47712,8 @@
       <c r="AS97">
         <v>40</v>
       </c>
-      <c r="AT97" t="s">
-        <v>101</v>
+      <c r="AT97">
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47482,8 +47753,8 @@
       <c r="AS98">
         <v>0</v>
       </c>
-      <c r="AT98" t="s">
-        <v>101</v>
+      <c r="AT98">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47523,8 +47794,8 @@
       <c r="AS99">
         <v>142</v>
       </c>
-      <c r="AT99" t="s">
-        <v>101</v>
+      <c r="AT99">
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47564,8 +47835,8 @@
       <c r="AS100">
         <v>108</v>
       </c>
-      <c r="AT100" t="s">
-        <v>101</v>
+      <c r="AT100">
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47605,8 +47876,8 @@
       <c r="AS101">
         <v>39</v>
       </c>
-      <c r="AT101" t="s">
-        <v>101</v>
+      <c r="AT101">
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47646,8 +47917,8 @@
       <c r="AS102">
         <v>89</v>
       </c>
-      <c r="AT102" t="s">
-        <v>101</v>
+      <c r="AT102">
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47687,8 +47958,8 @@
       <c r="AS103">
         <v>17</v>
       </c>
-      <c r="AT103" t="s">
-        <v>101</v>
+      <c r="AT103">
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47728,8 +47999,8 @@
       <c r="AS104">
         <v>49</v>
       </c>
-      <c r="AT104" t="s">
-        <v>101</v>
+      <c r="AT104">
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47769,8 +48040,8 @@
       <c r="AS105">
         <v>2063</v>
       </c>
-      <c r="AT105" t="s">
-        <v>101</v>
+      <c r="AT105">
+        <v>2154</v>
       </c>
     </row>
     <row r="106" spans="1:216" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -48030,8 +48301,8 @@
       <c r="AS107">
         <v>0</v>
       </c>
-      <c r="AT107" t="s">
-        <v>101</v>
+      <c r="AT107">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:216" x14ac:dyDescent="0.35">
@@ -48071,8 +48342,8 @@
       <c r="AS108">
         <v>0</v>
       </c>
-      <c r="AT108" t="s">
-        <v>101</v>
+      <c r="AT108">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:216" x14ac:dyDescent="0.35">
@@ -48112,8 +48383,8 @@
       <c r="AS109">
         <v>0</v>
       </c>
-      <c r="AT109" t="s">
-        <v>101</v>
+      <c r="AT109">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:216" x14ac:dyDescent="0.35">
@@ -48153,8 +48424,8 @@
       <c r="AS110">
         <v>0</v>
       </c>
-      <c r="AT110" t="s">
-        <v>101</v>
+      <c r="AT110">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:216" x14ac:dyDescent="0.35">
@@ -48194,8 +48465,8 @@
       <c r="AS111" s="24">
         <v>3</v>
       </c>
-      <c r="AT111" t="s">
-        <v>101</v>
+      <c r="AT111" s="24">
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:216" x14ac:dyDescent="0.35">
@@ -48235,8 +48506,8 @@
       <c r="AS112">
         <v>12</v>
       </c>
-      <c r="AT112" t="s">
-        <v>101</v>
+      <c r="AT112">
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:46" x14ac:dyDescent="0.35">
@@ -48276,8 +48547,8 @@
       <c r="AS113">
         <v>36</v>
       </c>
-      <c r="AT113" t="s">
-        <v>101</v>
+      <c r="AT113">
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:46" x14ac:dyDescent="0.35">
@@ -48317,8 +48588,8 @@
       <c r="AS114">
         <v>146</v>
       </c>
-      <c r="AT114" t="s">
-        <v>101</v>
+      <c r="AT114">
+        <v>150</v>
       </c>
     </row>
     <row r="115" spans="1:46" x14ac:dyDescent="0.35">
@@ -48358,8 +48629,8 @@
       <c r="AS115">
         <v>348</v>
       </c>
-      <c r="AT115" t="s">
-        <v>101</v>
+      <c r="AT115">
+        <v>368</v>
       </c>
     </row>
     <row r="116" spans="1:46" x14ac:dyDescent="0.35">
@@ -48399,8 +48670,8 @@
       <c r="AS116">
         <v>1518</v>
       </c>
-      <c r="AT116" t="s">
-        <v>101</v>
+      <c r="AT116">
+        <v>1585</v>
       </c>
     </row>
     <row r="117" spans="1:46" x14ac:dyDescent="0.35">
@@ -48440,8 +48711,8 @@
       <c r="AS117" s="24">
         <v>1</v>
       </c>
-      <c r="AT117" t="s">
-        <v>101</v>
+      <c r="AT117" s="24">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:46" x14ac:dyDescent="0.35">
@@ -48580,8 +48851,8 @@
       <c r="AS118">
         <v>2063</v>
       </c>
-      <c r="AT118" t="s">
-        <v>101</v>
+      <c r="AT118">
+        <v>2154</v>
       </c>
     </row>
   </sheetData>
@@ -48593,10 +48864,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655ECF0F-EC0D-4FC9-B182-78DF99BFDAD7}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="E4" sqref="E4:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -48606,725 +48877,282 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>309</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D1" t="s">
         <v>312</v>
       </c>
       <c r="E1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="B4">
-        <v>1671</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E4">
-        <v>227</v>
-      </c>
-      <c r="F4" t="s">
-        <v>318</v>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="B5">
-        <v>471</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E5">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>321</v>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>624</v>
       </c>
       <c r="C6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D6" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>305</v>
+      <c r="F6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>2241</v>
       </c>
       <c r="C7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>326</v>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="B8">
-        <v>1633</v>
+        <v>2541</v>
       </c>
       <c r="C8" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D8" t="s">
-        <v>328</v>
-      </c>
-      <c r="E8">
-        <v>179</v>
+        <v>322</v>
+      </c>
+      <c r="E8" t="s">
+        <v>292</v>
       </c>
       <c r="F8" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2">
-        <v>408</v>
+        <v>2862</v>
       </c>
       <c r="C9" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D9" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B10">
-        <v>310</v>
+        <v>2616</v>
       </c>
       <c r="C10" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D10" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E10">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B11">
+        <v>1791</v>
+      </c>
+      <c r="C11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D11">
+        <v>827</v>
+      </c>
+      <c r="E11">
         <v>150</v>
       </c>
-      <c r="C11" t="s">
-        <v>336</v>
-      </c>
-      <c r="D11" t="s">
-        <v>337</v>
-      </c>
-      <c r="E11">
-        <v>29</v>
-      </c>
       <c r="F11" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B12">
-        <v>48</v>
+        <v>1937</v>
       </c>
       <c r="C12" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D12" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="F12" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B13">
-        <v>88</v>
+        <v>5566</v>
       </c>
       <c r="C13" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D13" t="s">
-        <v>342</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
+        <v>335</v>
+      </c>
+      <c r="E13" t="s">
+        <v>336</v>
       </c>
       <c r="F13" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="B14">
-        <v>433</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>344</v>
+        <v>228</v>
       </c>
       <c r="D14" t="s">
-        <v>345</v>
-      </c>
-      <c r="E14">
-        <v>59</v>
+        <v>228</v>
+      </c>
+      <c r="E14" t="s">
+        <v>228</v>
       </c>
       <c r="F14" t="s">
-        <v>346</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="B15">
-        <v>953</v>
+        <v>20633</v>
       </c>
       <c r="C15" t="s">
-        <v>347</v>
+        <v>228</v>
       </c>
       <c r="D15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E15">
-        <v>129</v>
+        <v>338</v>
+      </c>
+      <c r="E15" t="s">
+        <v>311</v>
       </c>
       <c r="F15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>154</v>
-      </c>
-      <c r="C16" t="s">
-        <v>336</v>
-      </c>
-      <c r="D16" t="s">
-        <v>350</v>
-      </c>
-      <c r="E16">
-        <v>21</v>
-      </c>
-      <c r="F16" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>1591</v>
-      </c>
-      <c r="C17" t="s">
-        <v>352</v>
-      </c>
-      <c r="D17" t="s">
-        <v>353</v>
-      </c>
-      <c r="E17">
-        <v>208</v>
-      </c>
-      <c r="F17" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>322</v>
-      </c>
-      <c r="D18" t="s">
-        <v>355</v>
-      </c>
-      <c r="E18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F18" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>1857</v>
-      </c>
-      <c r="C19" t="s">
-        <v>302</v>
-      </c>
-      <c r="D19" t="s">
-        <v>356</v>
-      </c>
-      <c r="E19">
-        <v>142</v>
-      </c>
-      <c r="F19" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>322</v>
-      </c>
-      <c r="D20" t="s">
-        <v>358</v>
-      </c>
-      <c r="E20" t="s">
-        <v>292</v>
-      </c>
-      <c r="F20" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21">
-        <v>229</v>
-      </c>
-      <c r="C21" t="s">
-        <v>359</v>
-      </c>
-      <c r="D21" t="s">
-        <v>360</v>
-      </c>
-      <c r="E21">
-        <v>59</v>
-      </c>
-      <c r="F21" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>224</v>
-      </c>
-      <c r="C22" t="s">
-        <v>359</v>
-      </c>
-      <c r="D22" t="s">
-        <v>362</v>
-      </c>
-      <c r="E22">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23">
-        <v>387</v>
-      </c>
-      <c r="C23" t="s">
-        <v>363</v>
-      </c>
-      <c r="D23" t="s">
-        <v>364</v>
-      </c>
-      <c r="E23">
-        <v>20</v>
-      </c>
-      <c r="F23" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <v>721</v>
-      </c>
-      <c r="C24" t="s">
-        <v>366</v>
-      </c>
-      <c r="D24" t="s">
-        <v>367</v>
-      </c>
-      <c r="E24">
-        <v>77</v>
-      </c>
-      <c r="F24" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25">
-        <v>148</v>
-      </c>
-      <c r="C25" t="s">
-        <v>336</v>
-      </c>
-      <c r="D25" t="s">
-        <v>369</v>
-      </c>
-      <c r="E25">
-        <v>23</v>
-      </c>
-      <c r="F25" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26">
-        <v>1561</v>
-      </c>
-      <c r="C26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D26" t="s">
-        <v>372</v>
-      </c>
-      <c r="E26">
-        <v>101</v>
-      </c>
-      <c r="F26" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27">
-        <v>1126</v>
-      </c>
-      <c r="C27" t="s">
-        <v>374</v>
-      </c>
-      <c r="D27" t="s">
-        <v>375</v>
-      </c>
-      <c r="E27">
-        <v>114</v>
-      </c>
-      <c r="F27" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28">
-        <v>16</v>
-      </c>
-      <c r="C28" t="s">
-        <v>322</v>
-      </c>
-      <c r="D28" t="s">
-        <v>377</v>
-      </c>
-      <c r="E28" t="s">
-        <v>292</v>
-      </c>
-      <c r="F28" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29">
-        <v>724</v>
-      </c>
-      <c r="C29" t="s">
-        <v>366</v>
-      </c>
-      <c r="D29" t="s">
-        <v>378</v>
-      </c>
-      <c r="E29">
-        <v>77</v>
-      </c>
-      <c r="F29" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30">
-        <v>801</v>
-      </c>
-      <c r="C30" t="s">
-        <v>380</v>
-      </c>
-      <c r="D30" t="s">
-        <v>381</v>
-      </c>
-      <c r="E30">
-        <v>40</v>
-      </c>
-      <c r="F30" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" t="s">
-        <v>292</v>
-      </c>
-      <c r="C31" t="s">
-        <v>326</v>
-      </c>
-      <c r="D31" t="s">
-        <v>326</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32">
-        <v>730</v>
-      </c>
-      <c r="C32" t="s">
-        <v>383</v>
-      </c>
-      <c r="D32" t="s">
-        <v>384</v>
-      </c>
-      <c r="E32">
-        <v>142</v>
-      </c>
-      <c r="F32" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33">
-        <v>780</v>
-      </c>
-      <c r="C33" t="s">
-        <v>386</v>
-      </c>
-      <c r="D33" t="s">
-        <v>387</v>
-      </c>
-      <c r="E33">
-        <v>108</v>
-      </c>
-      <c r="F33" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34">
-        <v>543</v>
-      </c>
-      <c r="C34" t="s">
-        <v>389</v>
-      </c>
-      <c r="D34" t="s">
-        <v>390</v>
-      </c>
-      <c r="E34">
-        <v>39</v>
-      </c>
-      <c r="F34" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35">
-        <v>1435</v>
-      </c>
-      <c r="C35" t="s">
-        <v>392</v>
-      </c>
-      <c r="D35" t="s">
-        <v>393</v>
-      </c>
-      <c r="E35">
-        <v>89</v>
-      </c>
-      <c r="F35" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36">
-        <v>149</v>
-      </c>
-      <c r="C36" t="s">
-        <v>336</v>
-      </c>
-      <c r="D36" t="s">
-        <v>395</v>
-      </c>
-      <c r="E36">
-        <v>17</v>
-      </c>
-      <c r="F36" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>396</v>
-      </c>
-      <c r="B37">
-        <v>781</v>
-      </c>
-      <c r="E37">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>397</v>
-      </c>
-      <c r="B38">
-        <v>20232</v>
-      </c>
-      <c r="E38" t="s">
-        <v>306</v>
-      </c>
-      <c r="F38" t="s">
-        <v>307</v>
-      </c>
-    </row>
+    <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/app/data/covid19_MTL.xlsx
+++ b/app/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5726D66F-259E-4355-AAA3-67513B7A985D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFF14F4-2D90-4CF1-8242-A00E6CABB65F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10890" yWindow="3580" windowWidth="26450" windowHeight="17150" tabRatio="585" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="10600" yWindow="3930" windowWidth="27740" windowHeight="17150" tabRatio="585" activeTab="4" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="344">
   <si>
     <t>borough</t>
   </si>
@@ -1009,91 +1009,103 @@
     <t>13 MAI, 18h05</t>
   </si>
   <si>
-    <t>2 154</t>
-  </si>
-  <si>
     <t>TAUX POUR</t>
   </si>
   <si>
     <t>1,0</t>
   </si>
   <si>
-    <t>179,5</t>
-  </si>
-  <si>
     <t>0,9</t>
-  </si>
-  <si>
-    <t>166,7</t>
-  </si>
-  <si>
-    <t>3,0</t>
-  </si>
-  <si>
-    <t>313,7</t>
   </si>
   <si>
     <t>10,9</t>
   </si>
   <si>
-    <t> 695,7</t>
-  </si>
-  <si>
     <t>12,4</t>
-  </si>
-  <si>
-    <t>773,4</t>
-  </si>
-  <si>
-    <t>13,9</t>
-  </si>
-  <si>
-    <t>1 028,2</t>
-  </si>
-  <si>
-    <t>4,3</t>
   </si>
   <si>
     <t>12,7</t>
   </si>
   <si>
-    <t>1 019,2</t>
-  </si>
-  <si>
-    <t>14,0</t>
-  </si>
-  <si>
     <t>8,7</t>
-  </si>
-  <si>
-    <t>69,3</t>
   </si>
   <si>
     <t>9,4</t>
   </si>
   <si>
-    <t> 1 338,6</t>
+    <t>14 MAI, 18h05</t>
   </si>
   <si>
-    <t> 254,3</t>
+    <t>15 MAI, 18h05</t>
   </si>
   <si>
-    <t>27,1</t>
+    <t>n.p.</t>
   </si>
   <si>
-    <t>5 508,7</t>
+    <t> 721,2</t>
   </si>
   <si>
-    <t>1 585</t>
+    <t>2 234</t>
   </si>
   <si>
-    <t> 1 568,7</t>
+    <t> 194,8</t>
   </si>
   <si>
-    <t>998,8</t>
+    <t> 174,1</t>
   </si>
   <si>
-    <t> 104,3</t>
+    <t>3,1</t>
+  </si>
+  <si>
+    <t> 336,4</t>
+  </si>
+  <si>
+    <t> 804,8</t>
+  </si>
+  <si>
+    <t>13,8</t>
+  </si>
+  <si>
+    <t> 1 060,6</t>
+  </si>
+  <si>
+    <t>* 4,3</t>
+  </si>
+  <si>
+    <t> 1 058,9</t>
+  </si>
+  <si>
+    <t> 14,4</t>
+  </si>
+  <si>
+    <t> 855,6</t>
+  </si>
+  <si>
+    <t> 71,1</t>
+  </si>
+  <si>
+    <t> 1 389,1</t>
+  </si>
+  <si>
+    <t> 264,7</t>
+  </si>
+  <si>
+    <t>27,0</t>
+  </si>
+  <si>
+    <t> 5 697,7</t>
+  </si>
+  <si>
+    <t>1 643</t>
+  </si>
+  <si>
+    <t> 1626,1</t>
+  </si>
+  <si>
+    <t> 1036,5</t>
+  </si>
+  <si>
+    <t> 108,1</t>
   </si>
 </sst>
 </file>
@@ -1607,20 +1619,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:AV35"/>
+  <dimension ref="A1:AW35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AP53" sqref="AP53"/>
+    <sheetView topLeftCell="V1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AR52" sqref="AR52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="48" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="49" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1765,8 +1777,11 @@
       <c r="AV1" s="19">
         <v>43965</v>
       </c>
+      <c r="AW1" s="19">
+        <v>43966</v>
+      </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1911,8 +1926,11 @@
       <c r="AV2" t="s">
         <v>101</v>
       </c>
+      <c r="AW2">
+        <v>1755</v>
+      </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2057,8 +2075,11 @@
       <c r="AV3" t="s">
         <v>101</v>
       </c>
+      <c r="AW3">
+        <v>516</v>
+      </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2203,8 +2224,11 @@
       <c r="AV4" t="s">
         <v>101</v>
       </c>
+      <c r="AW4">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2349,8 +2373,11 @@
       <c r="AV5" t="s">
         <v>101</v>
       </c>
+      <c r="AW5">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2495,8 +2522,11 @@
       <c r="AV6" t="s">
         <v>101</v>
       </c>
+      <c r="AW6">
+        <v>1715</v>
+      </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -2641,8 +2671,11 @@
       <c r="AV7" t="s">
         <v>101</v>
       </c>
+      <c r="AW7">
+        <v>419</v>
+      </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -2787,8 +2820,11 @@
       <c r="AV8" t="s">
         <v>101</v>
       </c>
+      <c r="AW8">
+        <v>326</v>
+      </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -2933,8 +2969,11 @@
       <c r="AV9" t="s">
         <v>101</v>
       </c>
+      <c r="AW9">
+        <v>160</v>
+      </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -3079,8 +3118,11 @@
       <c r="AV10" t="s">
         <v>101</v>
       </c>
+      <c r="AW10">
+        <v>48</v>
+      </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -3225,8 +3267,11 @@
       <c r="AV11" t="s">
         <v>101</v>
       </c>
+      <c r="AW11">
+        <v>92</v>
+      </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3371,8 +3416,11 @@
       <c r="AV12" t="s">
         <v>101</v>
       </c>
+      <c r="AW12">
+        <v>453</v>
+      </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3517,8 +3565,11 @@
       <c r="AV13" t="s">
         <v>101</v>
       </c>
+      <c r="AW13">
+        <v>985</v>
+      </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3663,8 +3714,11 @@
       <c r="AV14" t="s">
         <v>101</v>
       </c>
+      <c r="AW14">
+        <v>166</v>
+      </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3809,8 +3863,11 @@
       <c r="AV15" t="s">
         <v>101</v>
       </c>
+      <c r="AW15">
+        <v>1737</v>
+      </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -3955,8 +4012,11 @@
       <c r="AV16" t="s">
         <v>101</v>
       </c>
+      <c r="AW16">
+        <v>30</v>
+      </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4101,8 +4161,11 @@
       <c r="AV17" t="s">
         <v>101</v>
       </c>
+      <c r="AW17">
+        <v>1979</v>
+      </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -4247,8 +4310,11 @@
       <c r="AV18" t="s">
         <v>101</v>
       </c>
+      <c r="AW18">
+        <v>17</v>
+      </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -4393,8 +4459,11 @@
       <c r="AV19" t="s">
         <v>101</v>
       </c>
+      <c r="AW19">
+        <v>231</v>
+      </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4539,8 +4608,11 @@
       <c r="AV20" t="s">
         <v>101</v>
       </c>
+      <c r="AW20">
+        <v>233</v>
+      </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4685,8 +4757,11 @@
       <c r="AV21" t="s">
         <v>101</v>
       </c>
+      <c r="AW21">
+        <v>422</v>
+      </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4831,8 +4906,11 @@
       <c r="AV22" t="s">
         <v>101</v>
       </c>
+      <c r="AW22">
+        <v>750</v>
+      </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -4977,8 +5055,11 @@
       <c r="AV23" t="s">
         <v>101</v>
       </c>
+      <c r="AW23">
+        <v>159</v>
+      </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5123,8 +5204,11 @@
       <c r="AV24" t="s">
         <v>101</v>
       </c>
+      <c r="AW24">
+        <v>1690</v>
+      </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5269,8 +5353,11 @@
       <c r="AV25" t="s">
         <v>101</v>
       </c>
+      <c r="AW25">
+        <v>1204</v>
+      </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -5415,8 +5502,11 @@
       <c r="AV26" t="s">
         <v>101</v>
       </c>
+      <c r="AW26">
+        <v>16</v>
+      </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5561,8 +5651,11 @@
       <c r="AV27" t="s">
         <v>101</v>
       </c>
+      <c r="AW27">
+        <v>781</v>
+      </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5707,8 +5800,11 @@
       <c r="AV28" t="s">
         <v>101</v>
       </c>
+      <c r="AW28">
+        <v>853</v>
+      </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -5853,8 +5949,11 @@
       <c r="AV29" t="s">
         <v>101</v>
       </c>
+      <c r="AW29">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5999,8 +6098,11 @@
       <c r="AV30" t="s">
         <v>101</v>
       </c>
+      <c r="AW30">
+        <v>748</v>
+      </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -6145,8 +6247,11 @@
       <c r="AV31" t="s">
         <v>101</v>
       </c>
+      <c r="AW31">
+        <v>807</v>
+      </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -6291,8 +6396,11 @@
       <c r="AV32" t="s">
         <v>101</v>
       </c>
+      <c r="AW32">
+        <v>578</v>
+      </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -6437,8 +6545,11 @@
       <c r="AV33" t="s">
         <v>101</v>
       </c>
+      <c r="AW33">
+        <v>1520</v>
+      </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -6583,8 +6694,11 @@
       <c r="AV34" t="s">
         <v>101</v>
       </c>
+      <c r="AW34">
+        <v>156</v>
+      </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -6728,6 +6842,9 @@
       </c>
       <c r="AV35" t="s">
         <v>101</v>
+      </c>
+      <c r="AW35">
+        <v>798</v>
       </c>
     </row>
   </sheetData>
@@ -6738,11 +6855,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:AV34"/>
+  <dimension ref="A1:AW34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AV35" sqref="AV35"/>
+      <selection pane="topRight" activeCell="AO39" sqref="AO39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6750,10 +6867,10 @@
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="27" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="47" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="49" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6919,8 +7036,11 @@
       <c r="AV1" s="19">
         <v>43965</v>
       </c>
+      <c r="AW1" s="1">
+        <v>43966</v>
+      </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7107,8 +7227,12 @@
       <c r="AV2" t="s">
         <v>101</v>
       </c>
+      <c r="AW2" s="3">
+        <f>cases!AW2/(population_2016!$B2/1000)</f>
+        <v>13.073112592647771</v>
+      </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7295,8 +7419,12 @@
       <c r="AV3" t="s">
         <v>101</v>
       </c>
+      <c r="AW3" s="3">
+        <f>cases!AW3/(population_2016!$B3/1000)</f>
+        <v>12.057201607626881</v>
+      </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -7483,8 +7611,12 @@
       <c r="AV4" t="s">
         <v>101</v>
       </c>
+      <c r="AW4" s="3">
+        <f>cases!AW4/(population_2016!$B4/1000)</f>
+        <v>3.923620193565263</v>
+      </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -7671,8 +7803,12 @@
       <c r="AV5" t="s">
         <v>101</v>
       </c>
+      <c r="AW5" s="3">
+        <f>cases!AW5/(population_2016!$B5/1000)</f>
+        <v>2.5874560132477744</v>
+      </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7859,8 +7995,12 @@
       <c r="AV6" t="s">
         <v>101</v>
       </c>
+      <c r="AW6" s="3">
+        <f>cases!AW6/(population_2016!$B6/1000)</f>
+        <v>10.299063175594522</v>
+      </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -8047,8 +8187,12 @@
       <c r="AV7" t="s">
         <v>101</v>
       </c>
+      <c r="AW7" s="3">
+        <f>cases!AW7/(population_2016!$B7/1000)</f>
+        <v>12.912968441814595</v>
+      </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -8235,8 +8379,12 @@
       <c r="AV8" t="s">
         <v>101</v>
       </c>
+      <c r="AW8" s="3">
+        <f>cases!AW8/(population_2016!$B8/1000)</f>
+        <v>6.6668030021063824</v>
+      </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -8423,8 +8571,12 @@
       <c r="AV9" t="s">
         <v>101</v>
       </c>
+      <c r="AW9" s="3">
+        <f>cases!AW9/(population_2016!$B9/1000)</f>
+        <v>8.4299262381454163</v>
+      </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -8611,8 +8763,12 @@
       <c r="AV10" t="s">
         <v>101</v>
       </c>
+      <c r="AW10" s="3">
+        <f>cases!AW10/(population_2016!$B10/1000)</f>
+        <v>6.8836942492470961</v>
+      </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -8799,8 +8955,12 @@
       <c r="AV11" t="s">
         <v>101</v>
       </c>
+      <c r="AW11" s="3">
+        <f>cases!AW11/(population_2016!$B11/1000)</f>
+        <v>4.5655302466378842</v>
+      </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -8987,8 +9147,12 @@
       <c r="AV12" t="s">
         <v>101</v>
       </c>
+      <c r="AW12" s="3">
+        <f>cases!AW12/(population_2016!$B12/1000)</f>
+        <v>10.182292252017353</v>
+      </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -9175,8 +9339,12 @@
       <c r="AV13" t="s">
         <v>101</v>
       </c>
+      <c r="AW13" s="3">
+        <f>cases!AW13/(population_2016!$B13/1000)</f>
+        <v>12.816675991828557</v>
+      </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -9363,8 +9531,12 @@
       <c r="AV14" t="s">
         <v>101</v>
       </c>
+      <c r="AW14" s="3">
+        <f>cases!AW14/(population_2016!$B14/1000)</f>
+        <v>9.0153695758431542</v>
+      </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -9551,8 +9723,12 @@
       <c r="AV15" t="s">
         <v>101</v>
       </c>
+      <c r="AW15" s="3">
+        <f>cases!AW15/(population_2016!$B15/1000)</f>
+        <v>12.769805328471445</v>
+      </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -9739,8 +9915,12 @@
       <c r="AV16" t="s">
         <v>101</v>
       </c>
+      <c r="AW16" s="3">
+        <f>cases!AW16/(population_2016!$B16/1000)</f>
+        <v>7.7922077922077921</v>
+      </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -9927,8 +10107,12 @@
       <c r="AV17" t="s">
         <v>101</v>
       </c>
+      <c r="AW17" s="3">
+        <f>cases!AW17/(population_2016!$B17/1000)</f>
+        <v>23.494076026307667</v>
+      </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -10115,8 +10299,12 @@
       <c r="AV18" t="s">
         <v>101</v>
       </c>
+      <c r="AW18" s="3">
+        <f>cases!AW18/(population_2016!$B18/1000)</f>
+        <v>3.3663366336633667</v>
+      </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -10303,8 +10491,12 @@
       <c r="AV19" t="s">
         <v>101</v>
       </c>
+      <c r="AW19" s="3">
+        <f>cases!AW19/(population_2016!$B19/1000)</f>
+        <v>11.392779640954824</v>
+      </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -10491,8 +10683,12 @@
       <c r="AV20" t="s">
         <v>101</v>
       </c>
+      <c r="AW20" s="3">
+        <f>cases!AW20/(population_2016!$B20/1000)</f>
+        <v>9.7269767053519249</v>
+      </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -10679,8 +10875,12 @@
       <c r="AV21" t="s">
         <v>101</v>
       </c>
+      <c r="AW21" s="3">
+        <f>cases!AW21/(population_2016!$B21/1000)</f>
+        <v>6.0897297141290387</v>
+      </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -10867,8 +11067,12 @@
       <c r="AV22" t="s">
         <v>101</v>
       </c>
+      <c r="AW22" s="3">
+        <f>cases!AW22/(population_2016!$B22/1000)</f>
+        <v>7.2115384615384617</v>
+      </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -11055,8 +11259,12 @@
       <c r="AV23" t="s">
         <v>101</v>
       </c>
+      <c r="AW23" s="3">
+        <f>cases!AW23/(population_2016!$B23/1000)</f>
+        <v>5.0669216061185471</v>
+      </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -11243,8 +11451,12 @@
       <c r="AV24" t="s">
         <v>101</v>
       </c>
+      <c r="AW24" s="3">
+        <f>cases!AW24/(population_2016!$B24/1000)</f>
+        <v>15.832419924491537</v>
+      </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -11431,8 +11643,12 @@
       <c r="AV25" t="s">
         <v>101</v>
       </c>
+      <c r="AW25" s="3">
+        <f>cases!AW25/(population_2016!$B25/1000)</f>
+        <v>8.6252596890894768</v>
+      </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -11619,8 +11835,12 @@
       <c r="AV26" t="s">
         <v>101</v>
       </c>
+      <c r="AW26" s="3">
+        <f>cases!AW26/(population_2016!$B26/1000)</f>
+        <v>3.227107704719645</v>
+      </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -11807,8 +12027,12 @@
       <c r="AV27" t="s">
         <v>101</v>
       </c>
+      <c r="AW27" s="3">
+        <f>cases!AW27/(population_2016!$B27/1000)</f>
+        <v>7.9026186910592138</v>
+      </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -11995,8 +12219,12 @@
       <c r="AV28" t="s">
         <v>101</v>
       </c>
+      <c r="AW28" s="3">
+        <f>cases!AW28/(population_2016!$B28/1000)</f>
+        <v>10.893301832577739</v>
+      </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -12183,8 +12411,12 @@
       <c r="AV29" t="s">
         <v>101</v>
       </c>
+      <c r="AW29" s="3">
+        <f>cases!AW29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -12371,8 +12603,12 @@
       <c r="AV30" t="s">
         <v>101</v>
       </c>
+      <c r="AW30" s="3">
+        <f>cases!AW30/(population_2016!$B30/1000)</f>
+        <v>9.5712146997479248</v>
+      </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -12559,8 +12795,12 @@
       <c r="AV31" t="s">
         <v>101</v>
       </c>
+      <c r="AW31" s="3">
+        <f>cases!AW31/(population_2016!$B31/1000)</f>
+        <v>11.656964566872265</v>
+      </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -12747,8 +12987,12 @@
       <c r="AV32" t="s">
         <v>101</v>
       </c>
+      <c r="AW32" s="3">
+        <f>cases!AW32/(population_2016!$B32/1000)</f>
+        <v>6.4820006728720418</v>
+      </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -12935,8 +13179,12 @@
       <c r="AV33" t="s">
         <v>101</v>
       </c>
+      <c r="AW33" s="3">
+        <f>cases!AW33/(population_2016!$B33/1000)</f>
+        <v>10.566342029710885</v>
+      </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -13122,6 +13370,10 @@
       </c>
       <c r="AV34" t="s">
         <v>101</v>
+      </c>
+      <c r="AW34" s="3">
+        <f>cases!AW34/(population_2016!$B34/1000)</f>
+        <v>7.680189050807404</v>
       </c>
     </row>
   </sheetData>
@@ -13131,11 +13383,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AS62"/>
+  <dimension ref="A1:AS63"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F62" sqref="F62:AS62"/>
+      <selection pane="bottomLeft" activeCell="Q77" sqref="Q77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18073,11 +18325,11 @@
       </c>
       <c r="B33" s="17">
         <f>mtl_newcases!C34</f>
-        <v>8063</v>
+        <v>8060</v>
       </c>
       <c r="C33" s="17">
         <f t="shared" si="0"/>
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D33">
         <v>332</v>
@@ -18244,11 +18496,11 @@
       </c>
       <c r="B34" s="17">
         <f>mtl_newcases!C35</f>
-        <v>8553</v>
+        <v>8552</v>
       </c>
       <c r="C34" s="17">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D34">
         <v>391</v>
@@ -18415,11 +18667,11 @@
       </c>
       <c r="B35" s="17">
         <f>mtl_newcases!C36</f>
-        <v>9125</v>
+        <v>9122</v>
       </c>
       <c r="C35" s="17">
         <f t="shared" si="0"/>
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D35">
         <v>454</v>
@@ -18586,11 +18838,11 @@
       </c>
       <c r="B36" s="17">
         <f>mtl_newcases!C37</f>
-        <v>9447</v>
+        <v>9448</v>
       </c>
       <c r="C36" s="17">
         <f t="shared" si="0"/>
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D36">
         <v>513</v>
@@ -18757,11 +19009,11 @@
       </c>
       <c r="B37" s="17">
         <f>mtl_newcases!C38</f>
-        <v>9876</v>
+        <v>9875</v>
       </c>
       <c r="C37" s="17">
         <f t="shared" si="0"/>
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D37">
         <v>525</v>
@@ -18897,11 +19149,11 @@
       </c>
       <c r="B38" s="17">
         <f>mtl_newcases!C39</f>
-        <v>10366</v>
+        <v>10362</v>
       </c>
       <c r="C38" s="17">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D38">
         <v>583</v>
@@ -19068,11 +19320,11 @@
       </c>
       <c r="B39" s="17">
         <f>mtl_newcases!C40</f>
-        <v>10828</v>
+        <v>10821</v>
       </c>
       <c r="C39" s="17">
         <f t="shared" si="0"/>
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D39">
         <v>647</v>
@@ -19239,11 +19491,11 @@
       </c>
       <c r="B40" s="17">
         <f>mtl_newcases!C41</f>
-        <v>11372</v>
+        <v>11362</v>
       </c>
       <c r="C40" s="17">
         <f t="shared" si="0"/>
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D40">
         <v>741</v>
@@ -19410,11 +19662,11 @@
       </c>
       <c r="B41" s="17">
         <f>mtl_newcases!C42</f>
-        <v>11904</v>
+        <v>11889</v>
       </c>
       <c r="C41" s="17">
         <f t="shared" si="0"/>
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D41">
         <v>808</v>
@@ -19581,7 +19833,7 @@
       </c>
       <c r="B42" s="17">
         <f>mtl_newcases!C43</f>
-        <v>12407</v>
+        <v>12392</v>
       </c>
       <c r="C42" s="17">
         <f t="shared" si="0"/>
@@ -19752,11 +20004,11 @@
       </c>
       <c r="B43" s="17">
         <f>mtl_newcases!C44</f>
-        <v>12727</v>
+        <v>12708</v>
       </c>
       <c r="C43" s="17">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D43">
         <v>938</v>
@@ -19923,11 +20175,11 @@
       </c>
       <c r="B44" s="17">
         <f>mtl_newcases!C45</f>
-        <v>13031</v>
+        <v>13013</v>
       </c>
       <c r="C44" s="17">
         <f>B44-B43</f>
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D44">
         <v>983</v>
@@ -20094,11 +20346,11 @@
       </c>
       <c r="B45" s="17">
         <f>mtl_newcases!C46</f>
-        <v>13499</v>
+        <v>13478</v>
       </c>
       <c r="C45" s="17">
         <f>B45-B44</f>
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D45">
         <v>1039</v>
@@ -20265,11 +20517,11 @@
       </c>
       <c r="B46" s="17">
         <f>mtl_newcases!C47</f>
-        <v>13974</v>
+        <v>13951</v>
       </c>
       <c r="C46" s="17">
         <f t="shared" ref="C46:C47" si="438">B46-B45</f>
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D46">
         <v>1078</v>
@@ -20405,11 +20657,11 @@
       </c>
       <c r="B47" s="17">
         <f>mtl_newcases!C48</f>
-        <v>14500</v>
+        <v>14475</v>
       </c>
       <c r="C47" s="17">
         <f t="shared" si="438"/>
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D47">
         <v>1146</v>
@@ -20545,11 +20797,11 @@
       </c>
       <c r="B48" s="17">
         <f>mtl_newcases!C49</f>
-        <v>15101</v>
+        <v>15073</v>
       </c>
       <c r="C48" s="17">
         <f t="shared" ref="C48" si="439">B48-B47</f>
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D48">
         <v>1245</v>
@@ -20716,11 +20968,11 @@
       </c>
       <c r="B49" s="17">
         <f>mtl_newcases!C50</f>
-        <v>15721</v>
+        <v>15689</v>
       </c>
       <c r="C49" s="17">
         <f t="shared" ref="C49" si="461">B49-B48</f>
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D49">
         <v>1312</v>
@@ -20887,11 +21139,11 @@
       </c>
       <c r="B50" s="17">
         <f>mtl_newcases!C51</f>
-        <v>16256</v>
+        <v>16225</v>
       </c>
       <c r="C50" s="17">
         <f t="shared" ref="C50" si="483">B50-B49</f>
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D50">
         <v>1365</v>
@@ -21058,7 +21310,7 @@
       </c>
       <c r="B51" s="17">
         <f>mtl_newcases!C52</f>
-        <v>16606</v>
+        <v>16575</v>
       </c>
       <c r="C51" s="17">
         <f t="shared" ref="C51" si="505">B51-B50</f>
@@ -21229,11 +21481,11 @@
       </c>
       <c r="B52" s="17">
         <f>mtl_newcases!C53</f>
-        <v>17039</v>
+        <v>17004</v>
       </c>
       <c r="C52" s="17">
         <f t="shared" ref="C52" si="527">B52-B51</f>
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D52">
         <v>1488</v>
@@ -21400,11 +21652,11 @@
       </c>
       <c r="B53" s="17">
         <f>mtl_newcases!C54</f>
-        <v>17529</v>
+        <v>17491</v>
       </c>
       <c r="C53" s="17">
         <f t="shared" ref="C53" si="549">B53-B52</f>
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D53">
         <v>1562</v>
@@ -21571,7 +21823,7 @@
       </c>
       <c r="B54" s="17">
         <f>mtl_newcases!C55</f>
-        <v>18105</v>
+        <v>18067</v>
       </c>
       <c r="C54" s="17">
         <f t="shared" ref="C54:C55" si="571">B54-B53</f>
@@ -21742,11 +21994,11 @@
       </c>
       <c r="B55" s="17">
         <f>mtl_newcases!C56</f>
-        <v>18552</v>
+        <v>18510</v>
       </c>
       <c r="C55" s="17">
         <f t="shared" si="571"/>
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D55">
         <v>1727</v>
@@ -21913,11 +22165,11 @@
       </c>
       <c r="B56" s="17">
         <f>mtl_newcases!C57</f>
-        <v>19010</v>
+        <v>18963</v>
       </c>
       <c r="C56" s="17">
         <f t="shared" ref="C56" si="613">B56-B55</f>
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D56">
         <v>1760</v>
@@ -22084,11 +22336,11 @@
       </c>
       <c r="B57" s="17">
         <f>mtl_newcases!C58</f>
-        <v>19338</v>
+        <v>19281</v>
       </c>
       <c r="C57" s="17">
         <f t="shared" ref="C57" si="635">B57-B56</f>
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D57">
         <v>1863</v>
@@ -22255,11 +22507,11 @@
       </c>
       <c r="B58" s="17">
         <f>mtl_newcases!C59</f>
-        <v>19635</v>
+        <v>19581</v>
       </c>
       <c r="C58" s="17">
         <f t="shared" ref="C58" si="657">B58-B57</f>
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D58">
         <v>1919</v>
@@ -22426,11 +22678,11 @@
       </c>
       <c r="B59" s="17">
         <f>mtl_newcases!C60</f>
-        <v>20001</v>
+        <v>19954</v>
       </c>
       <c r="C59" s="17">
         <f t="shared" ref="C59" si="679">B59-B58</f>
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D59">
         <v>2003</v>
@@ -22597,11 +22849,11 @@
       </c>
       <c r="B60" s="17">
         <f>mtl_newcases!C61</f>
-        <v>20232</v>
+        <v>20393</v>
       </c>
       <c r="C60" s="17">
         <f t="shared" ref="C60" si="701">B60-B59</f>
-        <v>231</v>
+        <v>439</v>
       </c>
       <c r="D60">
         <v>2063</v>
@@ -22768,11 +23020,11 @@
       </c>
       <c r="B61" s="17">
         <f>mtl_newcases!C62</f>
-        <v>20633</v>
+        <v>20774</v>
       </c>
       <c r="C61" s="17">
         <f t="shared" ref="C61" si="723">B61-B60</f>
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="D61">
         <v>2154</v>
@@ -22938,17 +23190,18 @@
         <v>43965</v>
       </c>
       <c r="B62" s="17">
-        <v>21036</v>
+        <f>mtl_newcases!C63</f>
+        <v>21171</v>
       </c>
       <c r="C62" s="17">
-        <f t="shared" ref="C62" si="745">B62-B61</f>
-        <v>403</v>
+        <f t="shared" ref="C62:C63" si="745">B62-B61</f>
+        <v>397</v>
       </c>
       <c r="D62">
         <v>2182</v>
       </c>
       <c r="E62">
-        <f t="shared" ref="E62" si="746">D62-D61</f>
+        <f t="shared" ref="E62:E63" si="746">D62-D61</f>
         <v>28</v>
       </c>
       <c r="F62" t="s">
@@ -23070,6 +23323,177 @@
       </c>
       <c r="AS62" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A63" s="19">
+        <v>43966</v>
+      </c>
+      <c r="B63" s="17">
+        <f>mtl_newcases!C64</f>
+        <v>21410</v>
+      </c>
+      <c r="C63" s="17">
+        <f t="shared" si="745"/>
+        <v>239</v>
+      </c>
+      <c r="D63">
+        <v>2234</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="746"/>
+        <v>52</v>
+      </c>
+      <c r="F63" cm="1">
+        <f t="array" ref="F63:O63">TRANSPOSE(santemontreal!AV$57:AV$66)</f>
+        <v>216</v>
+      </c>
+      <c r="G63">
+        <v>188</v>
+      </c>
+      <c r="H63">
+        <v>669</v>
+      </c>
+      <c r="I63">
+        <v>2323</v>
+      </c>
+      <c r="J63">
+        <v>2644</v>
+      </c>
+      <c r="K63">
+        <v>2952</v>
+      </c>
+      <c r="L63">
+        <v>2718</v>
+      </c>
+      <c r="M63">
+        <v>1853</v>
+      </c>
+      <c r="N63">
+        <v>2010</v>
+      </c>
+      <c r="O63">
+        <v>5757</v>
+      </c>
+      <c r="P63" s="18">
+        <f>F63/(age_distribution_2016!$B$2/100000)</f>
+        <v>196.82886823400767</v>
+      </c>
+      <c r="Q63" s="18">
+        <f>G63/(age_distribution_2016!$B$3/100000)</f>
+        <v>180.10250514920727</v>
+      </c>
+      <c r="R63" s="18">
+        <f>H63/(age_distribution_2016!$B$4/100000)</f>
+        <v>355.50123548635651</v>
+      </c>
+      <c r="S63" s="18">
+        <f>I63/(age_distribution_2016!$B$5/100000)</f>
+        <v>792.22440105720864</v>
+      </c>
+      <c r="T63" s="18">
+        <f>J63/(age_distribution_2016!$B$6/100000)</f>
+        <v>882.2891465754567</v>
+      </c>
+      <c r="U63" s="18">
+        <f>K63/(age_distribution_2016!$B$7/100000)</f>
+        <v>1160.0353669319186</v>
+      </c>
+      <c r="V63" s="18">
+        <f>L63/(age_distribution_2016!$B$8/100000)</f>
+        <v>1049.927571221632</v>
+      </c>
+      <c r="W63" s="18">
+        <f>M63/(age_distribution_2016!$B$9/100000)</f>
+        <v>903.88039316114236</v>
+      </c>
+      <c r="X63" s="18">
+        <f>N63/(age_distribution_2016!$B$10/100000)</f>
+        <v>1549.9691548426897</v>
+      </c>
+      <c r="Y63" s="18">
+        <f>O63/(age_distribution_2016!$B$11/100000)</f>
+        <v>5826.628207074541</v>
+      </c>
+      <c r="Z63" s="3">
+        <f t="shared" ref="Z63" si="747">F63*100/SUM($F63:$O63)</f>
+        <v>1.0126582278481013</v>
+      </c>
+      <c r="AA63" s="3">
+        <f t="shared" ref="AA63" si="748">G63*100/SUM($F63:$O63)</f>
+        <v>0.88138771683075479</v>
+      </c>
+      <c r="AB63" s="3">
+        <f t="shared" ref="AB63" si="749">H63*100/SUM($F63:$O63)</f>
+        <v>3.1364275668073138</v>
+      </c>
+      <c r="AC63" s="3">
+        <f t="shared" ref="AC63" si="750">I63*100/SUM($F63:$O63)</f>
+        <v>10.890764181903423</v>
+      </c>
+      <c r="AD63" s="3">
+        <f t="shared" ref="AD63" si="751">J63*100/SUM($F63:$O63)</f>
+        <v>12.395686826066573</v>
+      </c>
+      <c r="AE63" s="3">
+        <f t="shared" ref="AE63" si="752">K63*100/SUM($F63:$O63)</f>
+        <v>13.839662447257384</v>
+      </c>
+      <c r="AF63" s="3">
+        <f t="shared" ref="AF63" si="753">L63*100/SUM($F63:$O63)</f>
+        <v>12.742616033755274</v>
+      </c>
+      <c r="AG63" s="3">
+        <f t="shared" ref="AG63" si="754">M63*100/SUM($F63:$O63)</f>
+        <v>8.6872948898265356</v>
+      </c>
+      <c r="AH63" s="3">
+        <f t="shared" ref="AH63" si="755">N63*100/SUM($F63:$O63)</f>
+        <v>9.423347398030943</v>
+      </c>
+      <c r="AI63" s="3">
+        <f t="shared" ref="AI63" si="756">O63*100/SUM($F63:$O63)</f>
+        <v>26.9901547116737</v>
+      </c>
+      <c r="AJ63" s="3">
+        <f t="shared" ref="AJ63" si="757">P63*100/SUM($P63:$Y63)</f>
+        <v>1.5261143247638935</v>
+      </c>
+      <c r="AK63" s="3">
+        <f t="shared" ref="AK63" si="758">Q63*100/SUM($P63:$Y63)</f>
+        <v>1.3964263245536404</v>
+      </c>
+      <c r="AL63" s="3">
+        <f t="shared" ref="AL63" si="759">R63*100/SUM($P63:$Y63)</f>
+        <v>2.7563818905973503</v>
+      </c>
+      <c r="AM63" s="3">
+        <f t="shared" ref="AM63" si="760">S63*100/SUM($P63:$Y63)</f>
+        <v>6.1425187155143588</v>
+      </c>
+      <c r="AN63" s="3">
+        <f t="shared" ref="AN63" si="761">T63*100/SUM($P63:$Y63)</f>
+        <v>6.8408364954459149</v>
+      </c>
+      <c r="AO63" s="3">
+        <f t="shared" ref="AO63" si="762">U63*100/SUM($P63:$Y63)</f>
+        <v>8.9943442066780293</v>
+      </c>
+      <c r="AP63" s="3">
+        <f t="shared" ref="AP63" si="763">V63*100/SUM($P63:$Y63)</f>
+        <v>8.140622464489951</v>
+      </c>
+      <c r="AQ63" s="3">
+        <f t="shared" ref="AQ63" si="764">W63*100/SUM($P63:$Y63)</f>
+        <v>7.0082444117722424</v>
+      </c>
+      <c r="AR63" s="3">
+        <f t="shared" ref="AR63" si="765">X63*100/SUM($P63:$Y63)</f>
+        <v>12.017699188999959</v>
+      </c>
+      <c r="AS63" s="3">
+        <f t="shared" ref="AS63" si="766">Y63*100/SUM($P63:$Y63)</f>
+        <v>45.176811977184656</v>
       </c>
     </row>
   </sheetData>
@@ -23079,11 +23503,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
+      <selection pane="bottomLeft" activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23224,7 +23648,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F74" si="1">E4-E3</f>
+        <f t="shared" ref="F4:F75" si="1">E4-E3</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -23237,7 +23661,7 @@
         <v>260</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J74" si="2">I4-I3</f>
+        <f t="shared" ref="J4:J75" si="2">I4-I3</f>
         <v>18</v>
       </c>
       <c r="K4" t="s">
@@ -25494,7 +25918,7 @@
         <v>33417</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:C74" si="4">B64-B63</f>
+        <f t="shared" ref="C64:C75" si="4">B64-B63</f>
         <v>794</v>
       </c>
       <c r="D64">
@@ -25902,6 +26326,44 @@
       </c>
       <c r="K74">
         <v>11039</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B75">
+        <v>42183</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="4"/>
+        <v>763</v>
+      </c>
+      <c r="D75">
+        <v>27242</v>
+      </c>
+      <c r="E75">
+        <v>3483</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="G75">
+        <v>1763</v>
+      </c>
+      <c r="H75">
+        <v>179</v>
+      </c>
+      <c r="I75">
+        <v>282551</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="2"/>
+        <v>8191</v>
+      </c>
+      <c r="K75">
+        <v>11458</v>
       </c>
     </row>
   </sheetData>
@@ -25911,11 +26373,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
+      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26502,11 +26964,11 @@
         <v>43936</v>
       </c>
       <c r="B34">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>8063</v>
+        <v>8060</v>
       </c>
       <c r="E34" s="19">
         <v>43936</v>
@@ -26516,7 +26978,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G36" si="6">C34-F34</f>
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -26524,11 +26986,11 @@
         <v>43937</v>
       </c>
       <c r="B35">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>8553</v>
+        <v>8552</v>
       </c>
       <c r="E35" s="19">
         <v>43937</v>
@@ -26538,7 +27000,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -26546,11 +27008,11 @@
         <v>43938</v>
       </c>
       <c r="B36">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
-        <v>9125</v>
+        <v>9122</v>
       </c>
       <c r="E36" s="19">
         <v>43938</v>
@@ -26560,7 +27022,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -26568,11 +27030,11 @@
         <v>43939</v>
       </c>
       <c r="B37" s="23">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
-        <v>9447</v>
+        <v>9448</v>
       </c>
       <c r="E37" s="19">
         <v>43939</v>
@@ -26582,7 +27044,7 @@
       </c>
       <c r="G37">
         <f t="shared" ref="G37" si="7">C37-F37</f>
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -26590,11 +27052,11 @@
         <v>43940</v>
       </c>
       <c r="B38" s="23">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C39" si="8">C37+B38</f>
-        <v>9876</v>
+        <v>9875</v>
       </c>
       <c r="E38" s="19">
         <v>43940</v>
@@ -26604,7 +27066,7 @@
       </c>
       <c r="G38">
         <f t="shared" ref="G38" si="9">C38-F38</f>
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -26612,11 +27074,11 @@
         <v>43941</v>
       </c>
       <c r="B39">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C39">
         <f t="shared" si="8"/>
-        <v>10366</v>
+        <v>10362</v>
       </c>
       <c r="E39" s="19">
         <v>43941</v>
@@ -26626,7 +27088,7 @@
       </c>
       <c r="G39">
         <f t="shared" ref="G39" si="10">C39-F39</f>
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -26634,11 +27096,11 @@
         <v>43942</v>
       </c>
       <c r="B40">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40" si="11">C39+B40</f>
-        <v>10828</v>
+        <v>10821</v>
       </c>
       <c r="E40" s="19">
         <v>43942</v>
@@ -26648,7 +27110,7 @@
       </c>
       <c r="G40">
         <f t="shared" ref="G40" si="12">C40-F40</f>
-        <v>972</v>
+        <v>965</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -26656,11 +27118,11 @@
         <v>43943</v>
       </c>
       <c r="B41">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C41">
         <f t="shared" ref="C41:C52" si="13">C40+B41</f>
-        <v>11372</v>
+        <v>11362</v>
       </c>
       <c r="E41" s="19">
         <v>43943</v>
@@ -26670,7 +27132,7 @@
       </c>
       <c r="G41">
         <f t="shared" ref="G41" si="14">C41-F41</f>
-        <v>997</v>
+        <v>987</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -26678,11 +27140,11 @@
         <v>43944</v>
       </c>
       <c r="B42" s="23">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C42">
         <f t="shared" si="13"/>
-        <v>11904</v>
+        <v>11889</v>
       </c>
       <c r="E42" s="19">
         <v>43944</v>
@@ -26692,7 +27154,7 @@
       </c>
       <c r="G42">
         <f t="shared" ref="G42:G44" si="15">C42-F42</f>
-        <v>1007</v>
+        <v>992</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -26704,7 +27166,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="13"/>
-        <v>12407</v>
+        <v>12392</v>
       </c>
       <c r="E43" s="19">
         <v>43945</v>
@@ -26714,7 +27176,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="15"/>
-        <v>1246</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -26722,11 +27184,11 @@
         <v>43946</v>
       </c>
       <c r="B44" s="23">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C44">
         <f t="shared" si="13"/>
-        <v>12727</v>
+        <v>12708</v>
       </c>
       <c r="E44" s="19">
         <v>43946</v>
@@ -26736,7 +27198,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="15"/>
-        <v>1106</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -26744,11 +27206,11 @@
         <v>43947</v>
       </c>
       <c r="B45" s="23">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C45">
         <f t="shared" si="13"/>
-        <v>13031</v>
+        <v>13013</v>
       </c>
       <c r="E45" s="19">
         <v>43947</v>
@@ -26758,7 +27220,7 @@
       </c>
       <c r="G45">
         <f>C45-F45</f>
-        <v>997</v>
+        <v>979</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -26766,11 +27228,11 @@
         <v>43948</v>
       </c>
       <c r="B46" s="23">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C46">
         <f t="shared" si="13"/>
-        <v>13499</v>
+        <v>13478</v>
       </c>
       <c r="E46" s="19">
         <v>43948</v>
@@ -26780,7 +27242,7 @@
       </c>
       <c r="G46">
         <f>C46-F46</f>
-        <v>1012</v>
+        <v>991</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -26788,11 +27250,11 @@
         <v>43949</v>
       </c>
       <c r="B47" s="23">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C47">
         <f t="shared" si="13"/>
-        <v>13974</v>
+        <v>13951</v>
       </c>
       <c r="E47" s="19">
         <v>43949</v>
@@ -26802,7 +27264,7 @@
       </c>
       <c r="G47">
         <f t="shared" ref="G47:G52" si="16">C47-F47</f>
-        <v>1163</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -26810,11 +27272,11 @@
         <v>43950</v>
       </c>
       <c r="B48" s="23">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C48">
         <f t="shared" si="13"/>
-        <v>14500</v>
+        <v>14475</v>
       </c>
       <c r="E48" s="19">
         <v>43950</v>
@@ -26824,7 +27286,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="16"/>
-        <v>1176</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -26832,11 +27294,11 @@
         <v>43951</v>
       </c>
       <c r="B49" s="23">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C49">
         <f t="shared" si="13"/>
-        <v>15101</v>
+        <v>15073</v>
       </c>
       <c r="E49" s="19">
         <v>43951</v>
@@ -26846,7 +27308,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="16"/>
-        <v>1122</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -26854,11 +27316,11 @@
         <v>43952</v>
       </c>
       <c r="B50" s="23">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C50">
         <f t="shared" si="13"/>
-        <v>15721</v>
+        <v>15689</v>
       </c>
       <c r="E50" s="19">
         <v>43952</v>
@@ -26868,7 +27330,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="16"/>
-        <v>1122</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -26876,11 +27338,11 @@
         <v>43953</v>
       </c>
       <c r="B51" s="23">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C51">
         <f t="shared" si="13"/>
-        <v>16256</v>
+        <v>16225</v>
       </c>
       <c r="E51" s="19">
         <v>43953</v>
@@ -26890,7 +27352,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -26902,7 +27364,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="13"/>
-        <v>16606</v>
+        <v>16575</v>
       </c>
       <c r="E52" s="19">
         <v>43954</v>
@@ -26912,7 +27374,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -26920,11 +27382,11 @@
         <v>43955</v>
       </c>
       <c r="B53" s="23">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C53">
         <f t="shared" ref="C53" si="17">C52+B53</f>
-        <v>17039</v>
+        <v>17004</v>
       </c>
       <c r="E53" s="19">
         <v>43955</v>
@@ -26934,7 +27396,7 @@
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="18">C53-F53</f>
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -26942,11 +27404,11 @@
         <v>43956</v>
       </c>
       <c r="B54" s="23">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C54">
         <f t="shared" ref="C54:C61" si="19">C53+B54</f>
-        <v>17529</v>
+        <v>17491</v>
       </c>
       <c r="E54" s="19">
         <v>43956</v>
@@ -26956,7 +27418,7 @@
       </c>
       <c r="G54">
         <f t="shared" ref="G54" si="20">C54-F54</f>
-        <v>87</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -26968,7 +27430,7 @@
       </c>
       <c r="C55">
         <f t="shared" si="19"/>
-        <v>18105</v>
+        <v>18067</v>
       </c>
       <c r="E55" s="19">
         <v>43957</v>
@@ -26978,7 +27440,7 @@
       </c>
       <c r="G55">
         <f t="shared" ref="G55:G58" si="21">C55-F55</f>
-        <v>187</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -26986,11 +27448,11 @@
         <v>43958</v>
       </c>
       <c r="B56" s="23">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C56">
         <f t="shared" si="19"/>
-        <v>18552</v>
+        <v>18510</v>
       </c>
       <c r="E56" s="19">
         <v>43958</v>
@@ -27000,7 +27462,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="21"/>
-        <v>117</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -27008,11 +27470,11 @@
         <v>43959</v>
       </c>
       <c r="B57" s="23">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C57">
         <f t="shared" si="19"/>
-        <v>19010</v>
+        <v>18963</v>
       </c>
       <c r="E57" s="19">
         <v>43959</v>
@@ -27022,7 +27484,7 @@
       </c>
       <c r="G57">
         <f t="shared" si="21"/>
-        <v>155</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -27030,11 +27492,11 @@
         <v>43960</v>
       </c>
       <c r="B58" s="23">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C58">
         <f t="shared" si="19"/>
-        <v>19338</v>
+        <v>19281</v>
       </c>
       <c r="E58" s="19">
         <v>43960</v>
@@ -27044,7 +27506,7 @@
       </c>
       <c r="G58">
         <f t="shared" si="21"/>
-        <v>141</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -27052,11 +27514,11 @@
         <v>43961</v>
       </c>
       <c r="B59" s="23">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C59">
         <f t="shared" si="19"/>
-        <v>19635</v>
+        <v>19581</v>
       </c>
       <c r="E59" s="19">
         <v>43961</v>
@@ -27066,7 +27528,7 @@
       </c>
       <c r="G59">
         <f t="shared" ref="G59" si="22">C59-F59</f>
-        <v>143</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -27074,11 +27536,11 @@
         <v>43962</v>
       </c>
       <c r="B60" s="23">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C60">
         <f t="shared" si="19"/>
-        <v>20001</v>
+        <v>19954</v>
       </c>
       <c r="E60" s="19">
         <v>43962</v>
@@ -27087,20 +27549,20 @@
         <v>19878</v>
       </c>
       <c r="G60">
-        <f t="shared" ref="G60:G62" si="23">C60-F60</f>
-        <v>123</v>
+        <f t="shared" ref="G60:G64" si="23">C60-F60</f>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="19">
         <v>43963</v>
       </c>
-      <c r="B61" s="24">
-        <v>231</v>
+      <c r="B61" s="23">
+        <v>439</v>
       </c>
       <c r="C61">
         <f t="shared" si="19"/>
-        <v>20232</v>
+        <v>20393</v>
       </c>
       <c r="E61" s="19">
         <v>43963</v>
@@ -27110,19 +27572,19 @@
       </c>
       <c r="G61">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="19">
         <v>43964</v>
       </c>
-      <c r="B62" s="24">
-        <v>401</v>
+      <c r="B62" s="23">
+        <v>381</v>
       </c>
       <c r="C62">
-        <f t="shared" ref="C62" si="24">C61+B62</f>
-        <v>20633</v>
+        <f t="shared" ref="C62:C64" si="24">C61+B62</f>
+        <v>20774</v>
       </c>
       <c r="E62" s="19">
         <v>43964</v>
@@ -27131,6 +27593,50 @@
         <v>20633</v>
       </c>
       <c r="G62">
+        <f t="shared" si="23"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="19">
+        <v>43965</v>
+      </c>
+      <c r="B63" s="23">
+        <v>397</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="24"/>
+        <v>21171</v>
+      </c>
+      <c r="E63" s="19">
+        <v>43965</v>
+      </c>
+      <c r="F63" s="17">
+        <v>21036</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="23"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="19">
+        <v>43966</v>
+      </c>
+      <c r="B64" s="24">
+        <v>239</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="24"/>
+        <v>21410</v>
+      </c>
+      <c r="E64" s="19">
+        <v>43966</v>
+      </c>
+      <c r="F64">
+        <v>21410</v>
+      </c>
+      <c r="G64">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -27147,7 +27653,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT2" sqref="AT2:AT35"/>
+      <selection pane="topRight" activeCell="AV2" sqref="AV2:AV35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27297,8 +27803,12 @@
       <c r="AT1" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
+      <c r="AU1" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>320</v>
+      </c>
       <c r="AW1" s="5"/>
       <c r="AX1" s="5"/>
       <c r="AY1" s="5"/>
@@ -27607,8 +28117,12 @@
       <c r="AT2" s="7">
         <v>1695</v>
       </c>
-      <c r="AU2" s="7"/>
-      <c r="AV2" s="7"/>
+      <c r="AU2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>1755</v>
+      </c>
       <c r="AW2" s="7"/>
       <c r="AX2" s="7"/>
       <c r="AY2" s="7"/>
@@ -27917,8 +28431,12 @@
       <c r="AT3" s="9">
         <v>494</v>
       </c>
-      <c r="AU3" s="9"/>
-      <c r="AV3" s="9"/>
+      <c r="AU3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV3" s="9">
+        <v>516</v>
+      </c>
       <c r="AW3" s="9"/>
       <c r="AX3" s="9"/>
       <c r="AY3" s="9"/>
@@ -28227,8 +28745,12 @@
       <c r="AT4" s="7">
         <v>15</v>
       </c>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="7"/>
+      <c r="AU4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV4" s="7">
+        <v>15</v>
+      </c>
       <c r="AW4" s="7"/>
       <c r="AX4" s="7"/>
       <c r="AY4" s="7"/>
@@ -28537,8 +29059,12 @@
       <c r="AT5" s="9">
         <v>50</v>
       </c>
-      <c r="AU5" s="9"/>
-      <c r="AV5" s="9"/>
+      <c r="AU5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV5" s="9">
+        <v>50</v>
+      </c>
       <c r="AW5" s="9"/>
       <c r="AX5" s="9"/>
       <c r="AY5" s="9"/>
@@ -28847,8 +29373,12 @@
       <c r="AT6" s="7">
         <v>1659</v>
       </c>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="7"/>
+      <c r="AU6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV6" s="7">
+        <v>1715</v>
+      </c>
       <c r="AW6" s="7"/>
       <c r="AX6" s="7"/>
       <c r="AY6" s="7"/>
@@ -29157,8 +29687,12 @@
       <c r="AT7" s="9">
         <v>412</v>
       </c>
-      <c r="AU7" s="9"/>
-      <c r="AV7" s="9"/>
+      <c r="AU7" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV7" s="9">
+        <v>419</v>
+      </c>
       <c r="AW7" s="9"/>
       <c r="AX7" s="9"/>
       <c r="AY7" s="9"/>
@@ -29467,8 +30001,12 @@
       <c r="AT8" s="7">
         <v>318</v>
       </c>
-      <c r="AU8" s="7"/>
-      <c r="AV8" s="7"/>
+      <c r="AU8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV8" s="7">
+        <v>326</v>
+      </c>
       <c r="AW8" s="7"/>
       <c r="AX8" s="7"/>
       <c r="AY8" s="7"/>
@@ -29777,8 +30315,12 @@
       <c r="AT9" s="9">
         <v>152</v>
       </c>
-      <c r="AU9" s="9"/>
-      <c r="AV9" s="9"/>
+      <c r="AU9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV9" s="9">
+        <v>160</v>
+      </c>
       <c r="AW9" s="9"/>
       <c r="AX9" s="9"/>
       <c r="AY9" s="9"/>
@@ -30087,8 +30629,12 @@
       <c r="AT10" s="7">
         <v>48</v>
       </c>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="7"/>
+      <c r="AU10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV10" s="7">
+        <v>48</v>
+      </c>
       <c r="AW10" s="7"/>
       <c r="AX10" s="7"/>
       <c r="AY10" s="7"/>
@@ -30397,8 +30943,12 @@
       <c r="AT11" s="9">
         <v>89</v>
       </c>
-      <c r="AU11" s="9"/>
-      <c r="AV11" s="9"/>
+      <c r="AU11" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV11" s="9">
+        <v>92</v>
+      </c>
       <c r="AW11" s="9"/>
       <c r="AX11" s="9"/>
       <c r="AY11" s="9"/>
@@ -30707,8 +31257,12 @@
       <c r="AT12" s="7">
         <v>438</v>
       </c>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
+      <c r="AU12" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV12" s="7">
+        <v>453</v>
+      </c>
       <c r="AW12" s="7"/>
       <c r="AX12" s="7"/>
       <c r="AY12" s="7"/>
@@ -31017,8 +31571,12 @@
       <c r="AT13" s="9">
         <v>964</v>
       </c>
-      <c r="AU13" s="9"/>
-      <c r="AV13" s="9"/>
+      <c r="AU13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV13" s="9">
+        <v>985</v>
+      </c>
       <c r="AW13" s="9"/>
       <c r="AX13" s="9"/>
       <c r="AY13" s="9"/>
@@ -31327,8 +31885,12 @@
       <c r="AT14" s="7">
         <v>156</v>
       </c>
-      <c r="AU14" s="7"/>
-      <c r="AV14" s="7"/>
+      <c r="AU14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV14" s="7">
+        <v>166</v>
+      </c>
       <c r="AW14" s="7"/>
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
@@ -31637,8 +32199,12 @@
       <c r="AT15" s="9">
         <v>1645</v>
       </c>
-      <c r="AU15" s="9"/>
-      <c r="AV15" s="9"/>
+      <c r="AU15" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV15" s="9">
+        <v>1737</v>
+      </c>
       <c r="AW15" s="9"/>
       <c r="AX15" s="9"/>
       <c r="AY15" s="9"/>
@@ -31947,8 +32513,12 @@
       <c r="AT16" s="7">
         <v>27</v>
       </c>
-      <c r="AU16" s="7"/>
-      <c r="AV16" s="7"/>
+      <c r="AU16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV16" s="7">
+        <v>30</v>
+      </c>
       <c r="AW16" s="7"/>
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
@@ -32257,8 +32827,12 @@
       <c r="AT17" s="9">
         <v>1894</v>
       </c>
-      <c r="AU17" s="9"/>
-      <c r="AV17" s="9"/>
+      <c r="AU17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV17" s="9">
+        <v>1979</v>
+      </c>
       <c r="AW17" s="9"/>
       <c r="AX17" s="9"/>
       <c r="AY17" s="9"/>
@@ -32567,8 +33141,12 @@
       <c r="AT18" s="7">
         <v>18</v>
       </c>
-      <c r="AU18" s="7"/>
-      <c r="AV18" s="7"/>
+      <c r="AU18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV18" s="7">
+        <v>17</v>
+      </c>
       <c r="AW18" s="7"/>
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
@@ -32877,8 +33455,12 @@
       <c r="AT19" s="9">
         <v>230</v>
       </c>
-      <c r="AU19" s="9"/>
-      <c r="AV19" s="9"/>
+      <c r="AU19" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV19" s="9">
+        <v>231</v>
+      </c>
       <c r="AW19" s="9"/>
       <c r="AX19" s="9"/>
       <c r="AY19" s="9"/>
@@ -33187,8 +33769,12 @@
       <c r="AT20" s="7">
         <v>225</v>
       </c>
-      <c r="AU20" s="7"/>
-      <c r="AV20" s="7"/>
+      <c r="AU20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV20" s="7">
+        <v>233</v>
+      </c>
       <c r="AW20" s="7"/>
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
@@ -33497,8 +34083,12 @@
       <c r="AT21" s="9">
         <v>400</v>
       </c>
-      <c r="AU21" s="9"/>
-      <c r="AV21" s="9"/>
+      <c r="AU21" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV21" s="9">
+        <v>422</v>
+      </c>
       <c r="AW21" s="9"/>
       <c r="AX21" s="9"/>
       <c r="AY21" s="9"/>
@@ -33807,8 +34397,12 @@
       <c r="AT22" s="7">
         <v>732</v>
       </c>
-      <c r="AU22" s="7"/>
-      <c r="AV22" s="7"/>
+      <c r="AU22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV22" s="7">
+        <v>750</v>
+      </c>
       <c r="AW22" s="7"/>
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
@@ -34117,8 +34711,12 @@
       <c r="AT23" s="9">
         <v>153</v>
       </c>
-      <c r="AU23" s="9"/>
-      <c r="AV23" s="9"/>
+      <c r="AU23" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV23" s="9">
+        <v>159</v>
+      </c>
       <c r="AW23" s="9"/>
       <c r="AX23" s="9"/>
       <c r="AY23" s="9"/>
@@ -34427,8 +35025,12 @@
       <c r="AT24" s="7">
         <v>1606</v>
       </c>
-      <c r="AU24" s="7"/>
-      <c r="AV24" s="7"/>
+      <c r="AU24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV24" s="7">
+        <v>1690</v>
+      </c>
       <c r="AW24" s="7"/>
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
@@ -34737,8 +35339,12 @@
       <c r="AT25" s="9">
         <v>1158</v>
       </c>
-      <c r="AU25" s="9"/>
-      <c r="AV25" s="9"/>
+      <c r="AU25" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV25" s="9">
+        <v>1204</v>
+      </c>
       <c r="AW25" s="9"/>
       <c r="AX25" s="9"/>
       <c r="AY25" s="9"/>
@@ -35047,8 +35653,12 @@
       <c r="AT26" s="7">
         <v>16</v>
       </c>
-      <c r="AU26" s="7"/>
-      <c r="AV26" s="7"/>
+      <c r="AU26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV26" s="7">
+        <v>16</v>
+      </c>
       <c r="AW26" s="7"/>
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
@@ -35357,8 +35967,12 @@
       <c r="AT27" s="9">
         <v>749</v>
       </c>
-      <c r="AU27" s="9"/>
-      <c r="AV27" s="9"/>
+      <c r="AU27" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV27" s="9">
+        <v>781</v>
+      </c>
       <c r="AW27" s="9"/>
       <c r="AX27" s="9"/>
       <c r="AY27" s="9"/>
@@ -35667,8 +36281,12 @@
       <c r="AT28" s="7">
         <v>816</v>
       </c>
-      <c r="AU28" s="7"/>
-      <c r="AV28" s="7"/>
+      <c r="AU28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV28" s="7">
+        <v>853</v>
+      </c>
       <c r="AW28" s="7"/>
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
@@ -35977,8 +36595,12 @@
       <c r="AT29" s="20">
         <v>2</v>
       </c>
-      <c r="AU29" s="22"/>
-      <c r="AV29" s="22"/>
+      <c r="AU29" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV29" s="20">
+        <v>2</v>
+      </c>
       <c r="AW29" s="22"/>
       <c r="AX29" s="22"/>
       <c r="AY29" s="22"/>
@@ -36287,8 +36909,12 @@
       <c r="AT30" s="7">
         <v>734</v>
       </c>
-      <c r="AU30" s="7"/>
-      <c r="AV30" s="7"/>
+      <c r="AU30" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV30" s="7">
+        <v>748</v>
+      </c>
       <c r="AW30" s="7"/>
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
@@ -36597,8 +37223,12 @@
       <c r="AT31" s="9">
         <v>786</v>
       </c>
-      <c r="AU31" s="9"/>
-      <c r="AV31" s="9"/>
+      <c r="AU31" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV31" s="9">
+        <v>807</v>
+      </c>
       <c r="AW31" s="9"/>
       <c r="AX31" s="9"/>
       <c r="AY31" s="9"/>
@@ -36907,8 +37537,12 @@
       <c r="AT32" s="7">
         <v>558</v>
       </c>
-      <c r="AU32" s="7"/>
-      <c r="AV32" s="7"/>
+      <c r="AU32" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV32" s="7">
+        <v>578</v>
+      </c>
       <c r="AW32" s="7"/>
       <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
@@ -37217,8 +37851,12 @@
       <c r="AT33" s="9">
         <v>1470</v>
       </c>
-      <c r="AU33" s="9"/>
-      <c r="AV33" s="9"/>
+      <c r="AU33" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV33" s="9">
+        <v>1520</v>
+      </c>
       <c r="AW33" s="9"/>
       <c r="AX33" s="9"/>
       <c r="AY33" s="9"/>
@@ -37527,8 +38165,12 @@
       <c r="AT34" s="7">
         <v>151</v>
       </c>
-      <c r="AU34" s="7"/>
-      <c r="AV34" s="7"/>
+      <c r="AU34" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV34" s="7">
+        <v>156</v>
+      </c>
       <c r="AW34" s="7"/>
       <c r="AX34" s="7"/>
       <c r="AY34" s="7"/>
@@ -37837,8 +38479,12 @@
       <c r="AT35" s="9">
         <v>774</v>
       </c>
-      <c r="AU35" s="9"/>
-      <c r="AV35" s="9"/>
+      <c r="AU35" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV35" s="9">
+        <v>798</v>
+      </c>
       <c r="AW35" s="9"/>
       <c r="AX35" s="9"/>
       <c r="AY35" s="9"/>
@@ -38147,8 +38793,12 @@
       <c r="AT36" s="11">
         <v>20633</v>
       </c>
-      <c r="AU36" s="11"/>
-      <c r="AV36" s="11"/>
+      <c r="AU36" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV36" s="11">
+        <v>21410</v>
+      </c>
       <c r="AW36" s="11"/>
       <c r="AX36" s="11"/>
       <c r="AY36" s="11"/>
@@ -42612,8 +43262,12 @@
       <c r="AT57" s="7">
         <v>199</v>
       </c>
-      <c r="AU57" s="7"/>
-      <c r="AV57" s="7"/>
+      <c r="AU57" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV57" s="7">
+        <v>216</v>
+      </c>
       <c r="AW57" s="7"/>
       <c r="AX57" s="7"/>
       <c r="AY57" s="7"/>
@@ -42920,8 +43574,12 @@
       <c r="AT58" s="9">
         <v>180</v>
       </c>
-      <c r="AU58" s="9"/>
-      <c r="AV58" s="9"/>
+      <c r="AU58" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV58" s="9">
+        <v>188</v>
+      </c>
       <c r="AW58" s="9"/>
       <c r="AX58" s="9"/>
       <c r="AY58" s="9"/>
@@ -43228,8 +43886,12 @@
       <c r="AT59" s="7">
         <v>624</v>
       </c>
-      <c r="AU59" s="7"/>
-      <c r="AV59" s="7"/>
+      <c r="AU59" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV59" s="7">
+        <v>669</v>
+      </c>
       <c r="AW59" s="7"/>
       <c r="AX59" s="7"/>
       <c r="AY59" s="7"/>
@@ -43536,8 +44198,12 @@
       <c r="AT60" s="9">
         <v>2241</v>
       </c>
-      <c r="AU60" s="9"/>
-      <c r="AV60" s="9"/>
+      <c r="AU60" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV60" s="9">
+        <v>2323</v>
+      </c>
       <c r="AW60" s="9"/>
       <c r="AX60" s="9"/>
       <c r="AY60" s="9"/>
@@ -43844,8 +44510,12 @@
       <c r="AT61" s="7">
         <v>2541</v>
       </c>
-      <c r="AU61" s="7"/>
-      <c r="AV61" s="7"/>
+      <c r="AU61" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV61" s="7">
+        <v>2644</v>
+      </c>
       <c r="AW61" s="7"/>
       <c r="AX61" s="7"/>
       <c r="AY61" s="7"/>
@@ -44152,8 +44822,12 @@
       <c r="AT62" s="9">
         <v>2862</v>
       </c>
-      <c r="AU62" s="9"/>
-      <c r="AV62" s="9"/>
+      <c r="AU62" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV62" s="9">
+        <v>2952</v>
+      </c>
       <c r="AW62" s="9"/>
       <c r="AX62" s="9"/>
       <c r="AY62" s="9"/>
@@ -44460,8 +45134,12 @@
       <c r="AT63" s="7">
         <v>2616</v>
       </c>
-      <c r="AU63" s="7"/>
-      <c r="AV63" s="7"/>
+      <c r="AU63" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV63" s="7">
+        <v>2718</v>
+      </c>
       <c r="AW63" s="7"/>
       <c r="AX63" s="7"/>
       <c r="AY63" s="7"/>
@@ -44768,8 +45446,12 @@
       <c r="AT64" s="9">
         <v>1791</v>
       </c>
-      <c r="AU64" s="9"/>
-      <c r="AV64" s="9"/>
+      <c r="AU64" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV64" s="9">
+        <v>1853</v>
+      </c>
       <c r="AW64" s="9"/>
       <c r="AX64" s="9"/>
       <c r="AY64" s="9"/>
@@ -45076,8 +45758,12 @@
       <c r="AT65" s="7">
         <v>1937</v>
       </c>
-      <c r="AU65" s="7"/>
-      <c r="AV65" s="7"/>
+      <c r="AU65" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV65" s="7">
+        <v>2010</v>
+      </c>
       <c r="AW65" s="7"/>
       <c r="AX65" s="7"/>
       <c r="AY65" s="7"/>
@@ -45384,8 +46070,12 @@
       <c r="AT66" s="9">
         <v>5566</v>
       </c>
-      <c r="AU66" s="9"/>
-      <c r="AV66" s="9"/>
+      <c r="AU66" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV66" s="9">
+        <v>5757</v>
+      </c>
       <c r="AW66" s="9"/>
       <c r="AX66" s="9"/>
       <c r="AY66" s="9"/>
@@ -45692,8 +46382,12 @@
       <c r="AT67" s="7">
         <v>76</v>
       </c>
-      <c r="AU67" s="7"/>
-      <c r="AV67" s="7"/>
+      <c r="AU67" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV67" s="7">
+        <v>80</v>
+      </c>
       <c r="AW67" s="7"/>
       <c r="AX67" s="7"/>
       <c r="AY67" s="7"/>
@@ -46000,8 +46694,12 @@
       <c r="AT68" s="15">
         <v>20633</v>
       </c>
-      <c r="AU68" s="15"/>
-      <c r="AV68" s="15"/>
+      <c r="AU68" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV68" s="15">
+        <v>21410</v>
+      </c>
       <c r="AW68" s="15"/>
       <c r="AX68" s="15"/>
       <c r="AY68" s="15"/>
@@ -46649,6 +47347,12 @@
       <c r="AT71">
         <v>238</v>
       </c>
+      <c r="AU71" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV71">
+        <v>239</v>
+      </c>
     </row>
     <row r="72" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="8" t="s">
@@ -46690,6 +47394,12 @@
       <c r="AT72">
         <v>30</v>
       </c>
+      <c r="AU72" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV72">
+        <v>33</v>
+      </c>
     </row>
     <row r="73" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
@@ -46731,6 +47441,12 @@
       <c r="AT73">
         <v>0</v>
       </c>
+      <c r="AU73" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="8" t="s">
@@ -46772,6 +47488,12 @@
       <c r="AT74">
         <v>6</v>
       </c>
+      <c r="AU74" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV74">
+        <v>6</v>
+      </c>
     </row>
     <row r="75" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="6" t="s">
@@ -46813,6 +47535,12 @@
       <c r="AT75">
         <v>184</v>
       </c>
+      <c r="AU75" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV75">
+        <v>189</v>
+      </c>
     </row>
     <row r="76" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="8" t="s">
@@ -46854,6 +47582,12 @@
       <c r="AT76">
         <v>23</v>
       </c>
+      <c r="AU76" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV76">
+        <v>24</v>
+      </c>
     </row>
     <row r="77" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="6" t="s">
@@ -46895,6 +47629,12 @@
       <c r="AT77">
         <v>40</v>
       </c>
+      <c r="AU77" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV77">
+        <v>41</v>
+      </c>
     </row>
     <row r="78" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="8" t="s">
@@ -46936,6 +47676,12 @@
       <c r="AT78">
         <v>29</v>
       </c>
+      <c r="AU78" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV78">
+        <v>30</v>
+      </c>
     </row>
     <row r="79" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
@@ -46977,6 +47723,12 @@
       <c r="AT79">
         <v>0</v>
       </c>
+      <c r="AU79" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="8" t="s">
@@ -47018,8 +47770,14 @@
       <c r="AT80">
         <v>10</v>
       </c>
+      <c r="AU80" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV80">
+        <v>10</v>
+      </c>
     </row>
-    <row r="81" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
         <v>47</v>
       </c>
@@ -47059,8 +47817,14 @@
       <c r="AT81">
         <v>59</v>
       </c>
+      <c r="AU81" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV81">
+        <v>59</v>
+      </c>
     </row>
-    <row r="82" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="8" t="s">
         <v>48</v>
       </c>
@@ -47100,8 +47864,14 @@
       <c r="AT82">
         <v>132</v>
       </c>
+      <c r="AU82" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV82">
+        <v>133</v>
+      </c>
     </row>
-    <row r="83" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
         <v>49</v>
       </c>
@@ -47141,8 +47911,14 @@
       <c r="AT83">
         <v>22</v>
       </c>
+      <c r="AU83" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV83">
+        <v>22</v>
+      </c>
     </row>
-    <row r="84" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="8" t="s">
         <v>50</v>
       </c>
@@ -47182,8 +47958,14 @@
       <c r="AT84">
         <v>220</v>
       </c>
+      <c r="AU84" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV84">
+        <v>239</v>
+      </c>
     </row>
-    <row r="85" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
         <v>51</v>
       </c>
@@ -47223,8 +48005,14 @@
       <c r="AT85" s="24" t="s">
         <v>292</v>
       </c>
+      <c r="AU85" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV85" s="24" t="s">
+        <v>292</v>
+      </c>
     </row>
-    <row r="86" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="8" t="s">
         <v>52</v>
       </c>
@@ -47264,8 +48052,14 @@
       <c r="AT86">
         <v>147</v>
       </c>
+      <c r="AU86" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV86">
+        <v>153</v>
+      </c>
     </row>
-    <row r="87" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
         <v>53</v>
       </c>
@@ -47305,8 +48099,14 @@
       <c r="AT87" s="24" t="s">
         <v>292</v>
       </c>
+      <c r="AU87" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV87" s="24" t="s">
+        <v>292</v>
+      </c>
     </row>
-    <row r="88" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="8" t="s">
         <v>54</v>
       </c>
@@ -47346,8 +48146,14 @@
       <c r="AT88">
         <v>61</v>
       </c>
+      <c r="AU88" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV88">
+        <v>62</v>
+      </c>
     </row>
-    <row r="89" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
         <v>55</v>
       </c>
@@ -47387,8 +48193,14 @@
       <c r="AT89">
         <v>8</v>
       </c>
+      <c r="AU89" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV89">
+        <v>8</v>
+      </c>
     </row>
-    <row r="90" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="8" t="s">
         <v>56</v>
       </c>
@@ -47428,8 +48240,14 @@
       <c r="AT90">
         <v>20</v>
       </c>
+      <c r="AU90" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV90">
+        <v>21</v>
+      </c>
     </row>
-    <row r="91" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
         <v>57</v>
       </c>
@@ -47469,8 +48287,14 @@
       <c r="AT91">
         <v>83</v>
       </c>
+      <c r="AU91" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV91">
+        <v>87</v>
+      </c>
     </row>
-    <row r="92" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="8" t="s">
         <v>58</v>
       </c>
@@ -47510,8 +48334,14 @@
       <c r="AT92">
         <v>24</v>
       </c>
+      <c r="AU92" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV92">
+        <v>24</v>
+      </c>
     </row>
-    <row r="93" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
         <v>59</v>
       </c>
@@ -47551,8 +48381,14 @@
       <c r="AT93">
         <v>116</v>
       </c>
+      <c r="AU93" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV93">
+        <v>130</v>
+      </c>
     </row>
-    <row r="94" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="8" t="s">
         <v>60</v>
       </c>
@@ -47592,8 +48428,14 @@
       <c r="AT94">
         <v>124</v>
       </c>
+      <c r="AU94" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV94">
+        <v>129</v>
+      </c>
     </row>
-    <row r="95" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
         <v>61</v>
       </c>
@@ -47633,8 +48475,14 @@
       <c r="AT95" s="24" t="s">
         <v>292</v>
       </c>
+      <c r="AU95" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV95" s="24" t="s">
+        <v>292</v>
+      </c>
     </row>
-    <row r="96" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="8" t="s">
         <v>62</v>
       </c>
@@ -47673,6 +48521,12 @@
       </c>
       <c r="AT96">
         <v>80</v>
+      </c>
+      <c r="AU96" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV96">
+        <v>85</v>
       </c>
     </row>
     <row r="97" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47715,6 +48569,12 @@
       <c r="AT97">
         <v>42</v>
       </c>
+      <c r="AU97" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV97">
+        <v>45</v>
+      </c>
     </row>
     <row r="98" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="8" t="s">
@@ -47756,6 +48616,12 @@
       <c r="AT98">
         <v>0</v>
       </c>
+      <c r="AU98" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="6" t="s">
@@ -47797,6 +48663,12 @@
       <c r="AT99">
         <v>142</v>
       </c>
+      <c r="AU99" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV99">
+        <v>144</v>
+      </c>
     </row>
     <row r="100" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="8" t="s">
@@ -47838,6 +48710,12 @@
       <c r="AT100">
         <v>110</v>
       </c>
+      <c r="AU100" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV100">
+        <v>111</v>
+      </c>
     </row>
     <row r="101" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="6" t="s">
@@ -47879,6 +48757,12 @@
       <c r="AT101">
         <v>41</v>
       </c>
+      <c r="AU101" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV101">
+        <v>43</v>
+      </c>
     </row>
     <row r="102" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="8" t="s">
@@ -47920,6 +48804,12 @@
       <c r="AT102">
         <v>92</v>
       </c>
+      <c r="AU102" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV102">
+        <v>95</v>
+      </c>
     </row>
     <row r="103" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
@@ -47961,6 +48851,12 @@
       <c r="AT103">
         <v>17</v>
       </c>
+      <c r="AU103" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV103">
+        <v>18</v>
+      </c>
     </row>
     <row r="104" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="8" t="s">
@@ -48002,6 +48898,12 @@
       <c r="AT104">
         <v>47</v>
       </c>
+      <c r="AU104" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV104">
+        <v>49</v>
+      </c>
     </row>
     <row r="105" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="10" t="s">
@@ -48042,6 +48944,12 @@
       </c>
       <c r="AT105">
         <v>2154</v>
+      </c>
+      <c r="AU105" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV105">
+        <v>2234</v>
       </c>
     </row>
     <row r="106" spans="1:216" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -48304,6 +49212,12 @@
       <c r="AT107">
         <v>0</v>
       </c>
+      <c r="AU107" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
@@ -48345,6 +49259,12 @@
       <c r="AT108">
         <v>0</v>
       </c>
+      <c r="AU108" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
@@ -48386,6 +49306,12 @@
       <c r="AT109">
         <v>0</v>
       </c>
+      <c r="AU109" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
@@ -48427,6 +49353,12 @@
       <c r="AT110">
         <v>0</v>
       </c>
+      <c r="AU110" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV110" s="24">
+        <v>2</v>
+      </c>
     </row>
     <row r="111" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
@@ -48468,6 +49400,12 @@
       <c r="AT111" s="24">
         <v>3</v>
       </c>
+      <c r="AU111" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV111" s="24">
+        <v>3</v>
+      </c>
     </row>
     <row r="112" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
@@ -48509,8 +49447,14 @@
       <c r="AT112">
         <v>12</v>
       </c>
+      <c r="AU112" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV112">
+        <v>12</v>
+      </c>
     </row>
-    <row r="113" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -48550,8 +49494,14 @@
       <c r="AT113">
         <v>36</v>
       </c>
+      <c r="AU113" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV113">
+        <v>37</v>
+      </c>
     </row>
-    <row r="114" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>93</v>
       </c>
@@ -48591,8 +49541,14 @@
       <c r="AT114">
         <v>150</v>
       </c>
+      <c r="AU114" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV114">
+        <v>154</v>
+      </c>
     </row>
-    <row r="115" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>94</v>
       </c>
@@ -48632,8 +49588,14 @@
       <c r="AT115">
         <v>368</v>
       </c>
+      <c r="AU115" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV115">
+        <v>383</v>
+      </c>
     </row>
-    <row r="116" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>95</v>
       </c>
@@ -48673,8 +49635,14 @@
       <c r="AT116">
         <v>1585</v>
       </c>
+      <c r="AU116" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV116">
+        <v>1643</v>
+      </c>
     </row>
-    <row r="117" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -48714,8 +49682,14 @@
       <c r="AT117" s="24">
         <v>1</v>
       </c>
+      <c r="AU117" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV117">
+        <v>0</v>
+      </c>
     </row>
-    <row r="118" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>301</v>
       </c>
@@ -48853,6 +49827,12 @@
       </c>
       <c r="AT118">
         <v>2154</v>
+      </c>
+      <c r="AU118" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV118">
+        <v>2234</v>
       </c>
     </row>
   </sheetData>
@@ -48886,7 +49866,7 @@
         <v>306</v>
       </c>
       <c r="D1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E1" t="s">
         <v>308</v>
@@ -48916,18 +49896,15 @@
         <v>86</v>
       </c>
       <c r="B4">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="C4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D4" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -48936,18 +49913,15 @@
         <v>87</v>
       </c>
       <c r="B5">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D5" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -48956,18 +49930,15 @@
         <v>88</v>
       </c>
       <c r="B6">
-        <v>624</v>
+        <v>669</v>
       </c>
       <c r="C6" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="D6" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
         <v>0</v>
       </c>
     </row>
@@ -48976,19 +49947,19 @@
         <v>89</v>
       </c>
       <c r="B7">
-        <v>2241</v>
+        <v>2323</v>
       </c>
       <c r="C7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D7" t="s">
-        <v>320</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>322</v>
+      </c>
+      <c r="E7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F7" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -48996,19 +49967,19 @@
         <v>90</v>
       </c>
       <c r="B8">
-        <v>2541</v>
+        <v>2644</v>
       </c>
       <c r="C8" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D8" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="E8" t="s">
         <v>292</v>
       </c>
       <c r="F8" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -49016,19 +49987,19 @@
         <v>91</v>
       </c>
       <c r="B9" s="2">
-        <v>2862</v>
+        <v>2952</v>
       </c>
       <c r="C9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D9" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="E9">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -49036,19 +50007,19 @@
         <v>92</v>
       </c>
       <c r="B10">
-        <v>2616</v>
+        <v>2718</v>
       </c>
       <c r="C10" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D10" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -49056,19 +50027,19 @@
         <v>93</v>
       </c>
       <c r="B11">
-        <v>1791</v>
+        <v>1853</v>
       </c>
       <c r="C11" t="s">
-        <v>329</v>
-      </c>
-      <c r="D11">
-        <v>827</v>
+        <v>317</v>
+      </c>
+      <c r="D11" t="s">
+        <v>334</v>
       </c>
       <c r="E11">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F11" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -49076,19 +50047,19 @@
         <v>94</v>
       </c>
       <c r="B12">
-        <v>1937</v>
+        <v>2010</v>
       </c>
       <c r="C12" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D12" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E12">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="F12" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -49096,19 +50067,19 @@
         <v>95</v>
       </c>
       <c r="B13">
-        <v>5566</v>
+        <v>5757</v>
       </c>
       <c r="C13" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D13" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E13" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F13" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -49116,7 +50087,7 @@
         <v>96</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
         <v>228</v>
@@ -49136,19 +50107,19 @@
         <v>97</v>
       </c>
       <c r="B15">
-        <v>20633</v>
+        <v>21410</v>
       </c>
       <c r="C15" t="s">
         <v>228</v>
       </c>
       <c r="D15" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E15" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="F15" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/app/data/covid19_MTL.xlsx
+++ b/app/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFF14F4-2D90-4CF1-8242-A00E6CABB65F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC2B1E0-BE3B-4523-89A6-A8C39D1CC679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10600" yWindow="3930" windowWidth="27740" windowHeight="17150" tabRatio="585" activeTab="4" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="17280" yWindow="5010" windowWidth="24910" windowHeight="13190" tabRatio="585" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="344">
   <si>
     <t>borough</t>
   </si>
@@ -1024,9 +1024,6 @@
     <t>12,4</t>
   </si>
   <si>
-    <t>12,7</t>
-  </si>
-  <si>
     <t>8,7</t>
   </si>
   <si>
@@ -1042,70 +1039,73 @@
     <t>n.p.</t>
   </si>
   <si>
-    <t> 721,2</t>
-  </si>
-  <si>
-    <t>2 234</t>
-  </si>
-  <si>
-    <t> 194,8</t>
-  </si>
-  <si>
-    <t> 174,1</t>
-  </si>
-  <si>
-    <t>3,1</t>
-  </si>
-  <si>
-    <t> 336,4</t>
-  </si>
-  <si>
-    <t> 804,8</t>
-  </si>
-  <si>
     <t>13,8</t>
-  </si>
-  <si>
-    <t> 1 060,6</t>
   </si>
   <si>
     <t>* 4,3</t>
   </si>
   <si>
-    <t> 1 058,9</t>
+    <t>16 MAI, 18h05</t>
   </si>
   <si>
-    <t> 14,4</t>
+    <t>2 276</t>
   </si>
   <si>
-    <t> 855,6</t>
+    <t>198,4</t>
   </si>
   <si>
-    <t> 71,1</t>
+    <t>3,2</t>
   </si>
   <si>
-    <t> 1 389,1</t>
+    <t>342,9</t>
   </si>
   <si>
-    <t> 264,7</t>
+    <t>735,5</t>
   </si>
   <si>
-    <t>27,0</t>
+    <t>815,7</t>
   </si>
   <si>
-    <t> 5 697,7</t>
+    <t>1 074,6</t>
   </si>
   <si>
-    <t>1 643</t>
+    <t>12,8</t>
   </si>
   <si>
-    <t> 1626,1</t>
+    <t>1 076,1</t>
   </si>
   <si>
-    <t> 1036,5</t>
+    <t>15,2</t>
   </si>
   <si>
-    <t> 108,1</t>
+    <t>868,1</t>
+  </si>
+  <si>
+    <t>71,1</t>
+  </si>
+  <si>
+    <t>1 409,1</t>
+  </si>
+  <si>
+    <t>269,5</t>
+  </si>
+  <si>
+    <t>26,9</t>
+  </si>
+  <si>
+    <t>5 763,0</t>
+  </si>
+  <si>
+    <t>1 676</t>
+  </si>
+  <si>
+    <t>1 658,7</t>
+  </si>
+  <si>
+    <t> 1 051,3</t>
+  </si>
+  <si>
+    <t> 110,2</t>
   </si>
 </sst>
 </file>
@@ -1619,20 +1619,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:AW35"/>
+  <dimension ref="A1:AX35"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AR52" sqref="AR52"/>
+    <sheetView topLeftCell="Y1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AW1" sqref="AW1:AX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="49" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="50" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1780,8 +1780,11 @@
       <c r="AW1" s="19">
         <v>43966</v>
       </c>
+      <c r="AX1" s="19">
+        <v>43967</v>
+      </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1929,8 +1932,11 @@
       <c r="AW2">
         <v>1755</v>
       </c>
+      <c r="AX2">
+        <v>1782</v>
+      </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2078,8 +2084,11 @@
       <c r="AW3">
         <v>516</v>
       </c>
+      <c r="AX3">
+        <v>528</v>
+      </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2227,8 +2236,11 @@
       <c r="AW4">
         <v>15</v>
       </c>
+      <c r="AX4">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2376,8 +2388,11 @@
       <c r="AW5">
         <v>50</v>
       </c>
+      <c r="AX5">
+        <v>49</v>
+      </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2525,8 +2540,11 @@
       <c r="AW6">
         <v>1715</v>
       </c>
+      <c r="AX6">
+        <v>1752</v>
+      </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -2674,8 +2692,11 @@
       <c r="AW7">
         <v>419</v>
       </c>
+      <c r="AX7">
+        <v>425</v>
+      </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -2823,8 +2844,11 @@
       <c r="AW8">
         <v>326</v>
       </c>
+      <c r="AX8">
+        <v>331</v>
+      </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -2972,8 +2996,11 @@
       <c r="AW9">
         <v>160</v>
       </c>
+      <c r="AX9">
+        <v>161</v>
+      </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -3121,8 +3148,11 @@
       <c r="AW10">
         <v>48</v>
       </c>
+      <c r="AX10">
+        <v>50</v>
+      </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -3270,8 +3300,11 @@
       <c r="AW11">
         <v>92</v>
       </c>
+      <c r="AX11">
+        <v>92</v>
+      </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3419,8 +3452,11 @@
       <c r="AW12">
         <v>453</v>
       </c>
+      <c r="AX12">
+        <v>455</v>
+      </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3568,8 +3604,11 @@
       <c r="AW13">
         <v>985</v>
       </c>
+      <c r="AX13">
+        <v>989</v>
+      </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3717,8 +3756,11 @@
       <c r="AW14">
         <v>166</v>
       </c>
+      <c r="AX14">
+        <v>169</v>
+      </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3866,8 +3908,11 @@
       <c r="AW15">
         <v>1737</v>
       </c>
+      <c r="AX15">
+        <v>1779</v>
+      </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -4015,8 +4060,11 @@
       <c r="AW16">
         <v>30</v>
       </c>
+      <c r="AX16">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4164,8 +4212,11 @@
       <c r="AW17">
         <v>1979</v>
       </c>
+      <c r="AX17">
+        <v>2004</v>
+      </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -4313,8 +4364,11 @@
       <c r="AW18">
         <v>17</v>
       </c>
+      <c r="AX18">
+        <v>17</v>
+      </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -4462,8 +4516,11 @@
       <c r="AW19">
         <v>231</v>
       </c>
+      <c r="AX19">
+        <v>231</v>
+      </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4611,8 +4668,11 @@
       <c r="AW20">
         <v>233</v>
       </c>
+      <c r="AX20">
+        <v>235</v>
+      </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4760,8 +4820,11 @@
       <c r="AW21">
         <v>422</v>
       </c>
+      <c r="AX21">
+        <v>433</v>
+      </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4909,8 +4972,11 @@
       <c r="AW22">
         <v>750</v>
       </c>
+      <c r="AX22">
+        <v>762</v>
+      </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -5058,8 +5124,11 @@
       <c r="AW23">
         <v>159</v>
       </c>
+      <c r="AX23">
+        <v>164</v>
+      </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5207,8 +5276,11 @@
       <c r="AW24">
         <v>1690</v>
       </c>
+      <c r="AX24">
+        <v>1705</v>
+      </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5356,8 +5428,11 @@
       <c r="AW25">
         <v>1204</v>
       </c>
+      <c r="AX25">
+        <v>1217</v>
+      </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -5505,8 +5580,11 @@
       <c r="AW26">
         <v>16</v>
       </c>
+      <c r="AX26">
+        <v>17</v>
+      </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5654,8 +5732,11 @@
       <c r="AW27">
         <v>781</v>
       </c>
+      <c r="AX27">
+        <v>790</v>
+      </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5803,8 +5884,11 @@
       <c r="AW28">
         <v>853</v>
       </c>
+      <c r="AX28">
+        <v>867</v>
+      </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -5952,8 +6036,11 @@
       <c r="AW29">
         <v>2</v>
       </c>
+      <c r="AX29">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -6101,8 +6188,11 @@
       <c r="AW30">
         <v>748</v>
       </c>
+      <c r="AX30">
+        <v>757</v>
+      </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -6250,8 +6340,11 @@
       <c r="AW31">
         <v>807</v>
       </c>
+      <c r="AX31">
+        <v>820</v>
+      </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -6399,8 +6492,11 @@
       <c r="AW32">
         <v>578</v>
       </c>
+      <c r="AX32">
+        <v>593</v>
+      </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -6548,8 +6644,11 @@
       <c r="AW33">
         <v>1520</v>
       </c>
+      <c r="AX33">
+        <v>1536</v>
+      </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -6697,8 +6796,11 @@
       <c r="AW34">
         <v>156</v>
       </c>
+      <c r="AX34">
+        <v>157</v>
+      </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -6845,6 +6947,9 @@
       </c>
       <c r="AW35">
         <v>798</v>
+      </c>
+      <c r="AX35">
+        <v>802</v>
       </c>
     </row>
   </sheetData>
@@ -6855,11 +6960,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:AW34"/>
+  <dimension ref="A1:AX34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO39" sqref="AO39"/>
+      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AY7" sqref="AY7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6867,10 +6972,10 @@
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="27" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="49" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="50" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7039,8 +7144,11 @@
       <c r="AW1" s="1">
         <v>43966</v>
       </c>
+      <c r="AX1" s="1">
+        <v>43967</v>
+      </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7231,8 +7339,12 @@
         <f>cases!AW2/(population_2016!$B2/1000)</f>
         <v>13.073112592647771</v>
       </c>
+      <c r="AX2" s="3">
+        <f>cases!AX2/(population_2016!$B2/1000)</f>
+        <v>13.274237401765429</v>
+      </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7423,8 +7535,12 @@
         <f>cases!AW3/(population_2016!$B3/1000)</f>
         <v>12.057201607626881</v>
       </c>
+      <c r="AX3" s="3">
+        <f>cases!AX3/(population_2016!$B3/1000)</f>
+        <v>12.337601645013553</v>
+      </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -7615,8 +7731,12 @@
         <f>cases!AW4/(population_2016!$B4/1000)</f>
         <v>3.923620193565263</v>
       </c>
+      <c r="AX4" s="3">
+        <f>cases!AX4/(population_2016!$B4/1000)</f>
+        <v>4.1851948731362807</v>
+      </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -7807,8 +7927,12 @@
         <f>cases!AW5/(population_2016!$B5/1000)</f>
         <v>2.5874560132477744</v>
       </c>
+      <c r="AX5" s="3">
+        <f>cases!AX5/(population_2016!$B5/1000)</f>
+        <v>2.535706892982819</v>
+      </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7999,8 +8123,12 @@
         <f>cases!AW6/(population_2016!$B6/1000)</f>
         <v>10.299063175594522</v>
       </c>
+      <c r="AX6" s="3">
+        <f>cases!AX6/(population_2016!$B6/1000)</f>
+        <v>10.521258707662742</v>
+      </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -8191,8 +8319,12 @@
         <f>cases!AW7/(population_2016!$B7/1000)</f>
         <v>12.912968441814595</v>
       </c>
+      <c r="AX7" s="3">
+        <f>cases!AX7/(population_2016!$B7/1000)</f>
+        <v>13.097879684418146</v>
+      </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -8383,8 +8515,12 @@
         <f>cases!AW8/(population_2016!$B8/1000)</f>
         <v>6.6668030021063824</v>
       </c>
+      <c r="AX8" s="3">
+        <f>cases!AX8/(population_2016!$B8/1000)</f>
+        <v>6.7690545818932906</v>
+      </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -8575,8 +8711,12 @@
         <f>cases!AW9/(population_2016!$B9/1000)</f>
         <v>8.4299262381454163</v>
       </c>
+      <c r="AX9" s="3">
+        <f>cases!AX9/(population_2016!$B9/1000)</f>
+        <v>8.4826132771338241</v>
+      </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -8767,8 +8907,12 @@
         <f>cases!AW10/(population_2016!$B10/1000)</f>
         <v>6.8836942492470961</v>
       </c>
+      <c r="AX10" s="3">
+        <f>cases!AX10/(population_2016!$B10/1000)</f>
+        <v>7.1705148429657255</v>
+      </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -8959,8 +9103,12 @@
         <f>cases!AW11/(population_2016!$B11/1000)</f>
         <v>4.5655302466378842</v>
       </c>
+      <c r="AX11" s="3">
+        <f>cases!AX11/(population_2016!$B11/1000)</f>
+        <v>4.5655302466378842</v>
+      </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -9151,8 +9299,12 @@
         <f>cases!AW12/(population_2016!$B12/1000)</f>
         <v>10.182292252017353</v>
       </c>
+      <c r="AX12" s="3">
+        <f>cases!AX12/(population_2016!$B12/1000)</f>
+        <v>10.227247184697342</v>
+      </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -9343,8 +9495,12 @@
         <f>cases!AW13/(population_2016!$B13/1000)</f>
         <v>12.816675991828557</v>
       </c>
+      <c r="AX13" s="3">
+        <f>cases!AX13/(population_2016!$B13/1000)</f>
+        <v>12.868723407023799</v>
+      </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -9535,8 +9691,12 @@
         <f>cases!AW14/(population_2016!$B14/1000)</f>
         <v>9.0153695758431542</v>
       </c>
+      <c r="AX14" s="3">
+        <f>cases!AX14/(population_2016!$B14/1000)</f>
+        <v>9.1782979416716444</v>
+      </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -9727,8 +9887,12 @@
         <f>cases!AW15/(population_2016!$B15/1000)</f>
         <v>12.769805328471445</v>
       </c>
+      <c r="AX15" s="3">
+        <f>cases!AX15/(population_2016!$B15/1000)</f>
+        <v>13.07857436922896</v>
+      </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -9919,8 +10083,12 @@
         <f>cases!AW16/(population_2016!$B16/1000)</f>
         <v>7.7922077922077921</v>
       </c>
+      <c r="AX16" s="3">
+        <f>cases!AX16/(population_2016!$B16/1000)</f>
+        <v>8.0519480519480524</v>
+      </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -10111,8 +10279,12 @@
         <f>cases!AW17/(population_2016!$B17/1000)</f>
         <v>23.494076026307667</v>
       </c>
+      <c r="AX17" s="3">
+        <f>cases!AX17/(population_2016!$B17/1000)</f>
+        <v>23.790868295462641</v>
+      </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -10303,8 +10475,12 @@
         <f>cases!AW18/(population_2016!$B18/1000)</f>
         <v>3.3663366336633667</v>
       </c>
+      <c r="AX18" s="3">
+        <f>cases!AX18/(population_2016!$B18/1000)</f>
+        <v>3.3663366336633667</v>
+      </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -10495,8 +10671,12 @@
         <f>cases!AW19/(population_2016!$B19/1000)</f>
         <v>11.392779640954824</v>
       </c>
+      <c r="AX19" s="3">
+        <f>cases!AX19/(population_2016!$B19/1000)</f>
+        <v>11.392779640954824</v>
+      </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -10687,8 +10867,12 @@
         <f>cases!AW20/(population_2016!$B20/1000)</f>
         <v>9.7269767053519249</v>
       </c>
+      <c r="AX20" s="3">
+        <f>cases!AX20/(population_2016!$B20/1000)</f>
+        <v>9.8104700676296233</v>
+      </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -10879,8 +11063,12 @@
         <f>cases!AW21/(population_2016!$B21/1000)</f>
         <v>6.0897297141290387</v>
       </c>
+      <c r="AX21" s="3">
+        <f>cases!AX21/(population_2016!$B21/1000)</f>
+        <v>6.2484667445921183</v>
+      </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -11071,8 +11259,12 @@
         <f>cases!AW22/(population_2016!$B22/1000)</f>
         <v>7.2115384615384617</v>
       </c>
+      <c r="AX22" s="3">
+        <f>cases!AX22/(population_2016!$B22/1000)</f>
+        <v>7.3269230769230766</v>
+      </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -11263,8 +11455,12 @@
         <f>cases!AW23/(population_2016!$B23/1000)</f>
         <v>5.0669216061185471</v>
       </c>
+      <c r="AX23" s="3">
+        <f>cases!AX23/(population_2016!$B23/1000)</f>
+        <v>5.2262587635436581</v>
+      </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -11455,8 +11651,12 @@
         <f>cases!AW24/(population_2016!$B24/1000)</f>
         <v>15.832419924491537</v>
       </c>
+      <c r="AX24" s="3">
+        <f>cases!AX24/(population_2016!$B24/1000)</f>
+        <v>15.972944361691166</v>
+      </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -11647,8 +11847,12 @@
         <f>cases!AW25/(population_2016!$B25/1000)</f>
         <v>8.6252596890894768</v>
       </c>
+      <c r="AX25" s="3">
+        <f>cases!AX25/(population_2016!$B25/1000)</f>
+        <v>8.7183895694533984</v>
+      </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -11839,8 +12043,12 @@
         <f>cases!AW26/(population_2016!$B26/1000)</f>
         <v>3.227107704719645</v>
       </c>
+      <c r="AX26" s="3">
+        <f>cases!AX26/(population_2016!$B26/1000)</f>
+        <v>3.4288019362646227</v>
+      </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -12031,8 +12239,12 @@
         <f>cases!AW27/(population_2016!$B27/1000)</f>
         <v>7.9026186910592138</v>
       </c>
+      <c r="AX27" s="3">
+        <f>cases!AX27/(population_2016!$B27/1000)</f>
+        <v>7.9936859999190508</v>
+      </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -12223,8 +12435,12 @@
         <f>cases!AW28/(population_2016!$B28/1000)</f>
         <v>10.893301832577739</v>
       </c>
+      <c r="AX28" s="3">
+        <f>cases!AX28/(population_2016!$B28/1000)</f>
+        <v>11.072089904859203</v>
+      </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -12415,8 +12631,12 @@
         <f>cases!AW29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
+      <c r="AX29" s="3">
+        <f>cases!AX29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -12607,8 +12827,12 @@
         <f>cases!AW30/(population_2016!$B30/1000)</f>
         <v>9.5712146997479248</v>
       </c>
+      <c r="AX30" s="3">
+        <f>cases!AX30/(population_2016!$B30/1000)</f>
+        <v>9.6863763739427515</v>
+      </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -12799,8 +13023,12 @@
         <f>cases!AW31/(population_2016!$B31/1000)</f>
         <v>11.656964566872265</v>
       </c>
+      <c r="AX31" s="3">
+        <f>cases!AX31/(population_2016!$B31/1000)</f>
+        <v>11.844747143538113</v>
+      </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -12991,8 +13219,12 @@
         <f>cases!AW32/(population_2016!$B32/1000)</f>
         <v>6.4820006728720418</v>
       </c>
+      <c r="AX32" s="3">
+        <f>cases!AX32/(population_2016!$B32/1000)</f>
+        <v>6.650218683413704</v>
+      </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -13183,8 +13415,12 @@
         <f>cases!AW33/(population_2016!$B33/1000)</f>
         <v>10.566342029710885</v>
       </c>
+      <c r="AX33" s="3">
+        <f>cases!AX33/(population_2016!$B33/1000)</f>
+        <v>10.677566682655209</v>
+      </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -13374,6 +13610,10 @@
       <c r="AW34" s="3">
         <f>cases!AW34/(population_2016!$B34/1000)</f>
         <v>7.680189050807404</v>
+      </c>
+      <c r="AX34" s="3">
+        <f>cases!AX34/(population_2016!$B34/1000)</f>
+        <v>7.7294210319023229</v>
       </c>
     </row>
   </sheetData>
@@ -13383,11 +13623,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AS63"/>
+  <dimension ref="A1:AS64"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q77" sqref="Q77"/>
+      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18325,11 +18565,11 @@
       </c>
       <c r="B33" s="17">
         <f>mtl_newcases!C34</f>
-        <v>8060</v>
+        <v>8062</v>
       </c>
       <c r="C33" s="17">
         <f t="shared" si="0"/>
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D33">
         <v>332</v>
@@ -18496,7 +18736,7 @@
       </c>
       <c r="B34" s="17">
         <f>mtl_newcases!C35</f>
-        <v>8552</v>
+        <v>8554</v>
       </c>
       <c r="C34" s="17">
         <f t="shared" si="0"/>
@@ -18667,11 +18907,11 @@
       </c>
       <c r="B35" s="17">
         <f>mtl_newcases!C36</f>
-        <v>9122</v>
+        <v>9125</v>
       </c>
       <c r="C35" s="17">
         <f t="shared" si="0"/>
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D35">
         <v>454</v>
@@ -18838,11 +19078,11 @@
       </c>
       <c r="B36" s="17">
         <f>mtl_newcases!C37</f>
-        <v>9448</v>
+        <v>9449</v>
       </c>
       <c r="C36" s="17">
         <f t="shared" si="0"/>
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D36">
         <v>513</v>
@@ -19009,11 +19249,11 @@
       </c>
       <c r="B37" s="17">
         <f>mtl_newcases!C38</f>
-        <v>9875</v>
+        <v>9877</v>
       </c>
       <c r="C37" s="17">
         <f t="shared" si="0"/>
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D37">
         <v>525</v>
@@ -19149,7 +19389,7 @@
       </c>
       <c r="B38" s="17">
         <f>mtl_newcases!C39</f>
-        <v>10362</v>
+        <v>10364</v>
       </c>
       <c r="C38" s="17">
         <f t="shared" si="0"/>
@@ -19320,11 +19560,11 @@
       </c>
       <c r="B39" s="17">
         <f>mtl_newcases!C40</f>
-        <v>10821</v>
+        <v>10826</v>
       </c>
       <c r="C39" s="17">
         <f t="shared" si="0"/>
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D39">
         <v>647</v>
@@ -19491,11 +19731,11 @@
       </c>
       <c r="B40" s="17">
         <f>mtl_newcases!C41</f>
-        <v>11362</v>
+        <v>11368</v>
       </c>
       <c r="C40" s="17">
         <f t="shared" si="0"/>
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D40">
         <v>741</v>
@@ -19662,7 +19902,7 @@
       </c>
       <c r="B41" s="17">
         <f>mtl_newcases!C42</f>
-        <v>11889</v>
+        <v>11895</v>
       </c>
       <c r="C41" s="17">
         <f t="shared" si="0"/>
@@ -19837,7 +20077,7 @@
       </c>
       <c r="C42" s="17">
         <f t="shared" si="0"/>
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D42">
         <v>895</v>
@@ -20004,11 +20244,11 @@
       </c>
       <c r="B43" s="17">
         <f>mtl_newcases!C44</f>
-        <v>12708</v>
+        <v>12711</v>
       </c>
       <c r="C43" s="17">
         <f t="shared" si="0"/>
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D43">
         <v>938</v>
@@ -20179,7 +20419,7 @@
       </c>
       <c r="C44" s="17">
         <f>B44-B43</f>
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D44">
         <v>983</v>
@@ -20517,11 +20757,11 @@
       </c>
       <c r="B46" s="17">
         <f>mtl_newcases!C47</f>
-        <v>13951</v>
+        <v>13952</v>
       </c>
       <c r="C46" s="17">
         <f t="shared" ref="C46:C47" si="438">B46-B45</f>
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D46">
         <v>1078</v>
@@ -20657,11 +20897,11 @@
       </c>
       <c r="B47" s="17">
         <f>mtl_newcases!C48</f>
-        <v>14475</v>
+        <v>14478</v>
       </c>
       <c r="C47" s="17">
         <f t="shared" si="438"/>
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D47">
         <v>1146</v>
@@ -20797,11 +21037,11 @@
       </c>
       <c r="B48" s="17">
         <f>mtl_newcases!C49</f>
-        <v>15073</v>
+        <v>15080</v>
       </c>
       <c r="C48" s="17">
         <f t="shared" ref="C48" si="439">B48-B47</f>
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D48">
         <v>1245</v>
@@ -20968,11 +21208,11 @@
       </c>
       <c r="B49" s="17">
         <f>mtl_newcases!C50</f>
-        <v>15689</v>
+        <v>15698</v>
       </c>
       <c r="C49" s="17">
         <f t="shared" ref="C49" si="461">B49-B48</f>
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D49">
         <v>1312</v>
@@ -21139,11 +21379,11 @@
       </c>
       <c r="B50" s="17">
         <f>mtl_newcases!C51</f>
-        <v>16225</v>
+        <v>16235</v>
       </c>
       <c r="C50" s="17">
         <f t="shared" ref="C50" si="483">B50-B49</f>
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D50">
         <v>1365</v>
@@ -21310,11 +21550,11 @@
       </c>
       <c r="B51" s="17">
         <f>mtl_newcases!C52</f>
-        <v>16575</v>
+        <v>16584</v>
       </c>
       <c r="C51" s="17">
         <f t="shared" ref="C51" si="505">B51-B50</f>
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D51">
         <v>1410</v>
@@ -21481,11 +21721,11 @@
       </c>
       <c r="B52" s="17">
         <f>mtl_newcases!C53</f>
-        <v>17004</v>
+        <v>17011</v>
       </c>
       <c r="C52" s="17">
         <f t="shared" ref="C52" si="527">B52-B51</f>
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D52">
         <v>1488</v>
@@ -21652,7 +21892,7 @@
       </c>
       <c r="B53" s="17">
         <f>mtl_newcases!C54</f>
-        <v>17491</v>
+        <v>17498</v>
       </c>
       <c r="C53" s="17">
         <f t="shared" ref="C53" si="549">B53-B52</f>
@@ -21823,11 +22063,11 @@
       </c>
       <c r="B54" s="17">
         <f>mtl_newcases!C55</f>
-        <v>18067</v>
+        <v>18075</v>
       </c>
       <c r="C54" s="17">
         <f t="shared" ref="C54:C55" si="571">B54-B53</f>
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D54">
         <v>1666</v>
@@ -21994,11 +22234,11 @@
       </c>
       <c r="B55" s="17">
         <f>mtl_newcases!C56</f>
-        <v>18510</v>
+        <v>18516</v>
       </c>
       <c r="C55" s="17">
         <f t="shared" si="571"/>
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D55">
         <v>1727</v>
@@ -22165,7 +22405,7 @@
       </c>
       <c r="B56" s="17">
         <f>mtl_newcases!C57</f>
-        <v>18963</v>
+        <v>18969</v>
       </c>
       <c r="C56" s="17">
         <f t="shared" ref="C56" si="613">B56-B55</f>
@@ -22336,11 +22576,11 @@
       </c>
       <c r="B57" s="17">
         <f>mtl_newcases!C58</f>
-        <v>19281</v>
+        <v>19286</v>
       </c>
       <c r="C57" s="17">
         <f t="shared" ref="C57" si="635">B57-B56</f>
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D57">
         <v>1863</v>
@@ -22507,11 +22747,11 @@
       </c>
       <c r="B58" s="17">
         <f>mtl_newcases!C59</f>
-        <v>19581</v>
+        <v>19588</v>
       </c>
       <c r="C58" s="17">
         <f t="shared" ref="C58" si="657">B58-B57</f>
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D58">
         <v>1919</v>
@@ -22678,11 +22918,11 @@
       </c>
       <c r="B59" s="17">
         <f>mtl_newcases!C60</f>
-        <v>19954</v>
+        <v>19959</v>
       </c>
       <c r="C59" s="17">
         <f t="shared" ref="C59" si="679">B59-B58</f>
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D59">
         <v>2003</v>
@@ -22849,7 +23089,7 @@
       </c>
       <c r="B60" s="17">
         <f>mtl_newcases!C61</f>
-        <v>20393</v>
+        <v>20398</v>
       </c>
       <c r="C60" s="17">
         <f t="shared" ref="C60" si="701">B60-B59</f>
@@ -23020,11 +23260,11 @@
       </c>
       <c r="B61" s="17">
         <f>mtl_newcases!C62</f>
-        <v>20774</v>
+        <v>20787</v>
       </c>
       <c r="C61" s="17">
         <f t="shared" ref="C61" si="723">B61-B60</f>
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="D61">
         <v>2154</v>
@@ -23191,11 +23431,11 @@
       </c>
       <c r="B62" s="17">
         <f>mtl_newcases!C63</f>
-        <v>21171</v>
+        <v>21160</v>
       </c>
       <c r="C62" s="17">
         <f t="shared" ref="C62:C63" si="745">B62-B61</f>
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="D62">
         <v>2182</v>
@@ -23331,11 +23571,11 @@
       </c>
       <c r="B63" s="17">
         <f>mtl_newcases!C64</f>
-        <v>21410</v>
+        <v>21511</v>
       </c>
       <c r="C63" s="17">
         <f t="shared" si="745"/>
-        <v>239</v>
+        <v>351</v>
       </c>
       <c r="D63">
         <v>2234</v>
@@ -23494,6 +23734,177 @@
       <c r="AS63" s="3">
         <f t="shared" ref="AS63" si="766">Y63*100/SUM($P63:$Y63)</f>
         <v>45.176811977184656</v>
+      </c>
+    </row>
+    <row r="64" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A64" s="19">
+        <v>43967</v>
+      </c>
+      <c r="B64" s="17">
+        <f>mtl_newcases!C65</f>
+        <v>21717</v>
+      </c>
+      <c r="C64" s="17">
+        <f t="shared" ref="C64" si="767">B64-B63</f>
+        <v>206</v>
+      </c>
+      <c r="D64">
+        <v>2276</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ref="E64" si="768">D64-D63</f>
+        <v>42</v>
+      </c>
+      <c r="F64" cm="1">
+        <f t="array" ref="F64:O64">TRANSPOSE(santemontreal!AW$57:AW$66)</f>
+        <v>220</v>
+      </c>
+      <c r="G64">
+        <v>194</v>
+      </c>
+      <c r="H64">
+        <v>682</v>
+      </c>
+      <c r="I64">
+        <v>2369</v>
+      </c>
+      <c r="J64">
+        <v>2680</v>
+      </c>
+      <c r="K64">
+        <v>2991</v>
+      </c>
+      <c r="L64">
+        <v>2762</v>
+      </c>
+      <c r="M64">
+        <v>1880</v>
+      </c>
+      <c r="N64">
+        <v>2039</v>
+      </c>
+      <c r="O64">
+        <v>5823</v>
+      </c>
+      <c r="P64" s="18">
+        <f>F64/(age_distribution_2016!$B$2/100000)</f>
+        <v>200.47384727537818</v>
+      </c>
+      <c r="Q64" s="18">
+        <f>G64/(age_distribution_2016!$B$3/100000)</f>
+        <v>185.85045744120325</v>
+      </c>
+      <c r="R64" s="18">
+        <f>H64/(age_distribution_2016!$B$4/100000)</f>
+        <v>362.40933124319156</v>
+      </c>
+      <c r="S64" s="18">
+        <f>I64/(age_distribution_2016!$B$5/100000)</f>
+        <v>807.91201295933161</v>
+      </c>
+      <c r="T64" s="18">
+        <f>J64/(age_distribution_2016!$B$6/100000)</f>
+        <v>894.30216067406354</v>
+      </c>
+      <c r="U64" s="18">
+        <f>K64/(age_distribution_2016!$B$7/100000)</f>
+        <v>1175.3610374300029</v>
+      </c>
+      <c r="V64" s="18">
+        <f>L64/(age_distribution_2016!$B$8/100000)</f>
+        <v>1066.9241912119749</v>
+      </c>
+      <c r="W64" s="18">
+        <f>M64/(age_distribution_2016!$B$9/100000)</f>
+        <v>917.05080363893558</v>
+      </c>
+      <c r="X64" s="18">
+        <f>N64/(age_distribution_2016!$B$10/100000)</f>
+        <v>1572.3318938926589</v>
+      </c>
+      <c r="Y64" s="18">
+        <f>O64/(age_distribution_2016!$B$11/100000)</f>
+        <v>5893.4264460300592</v>
+      </c>
+      <c r="Z64" s="3">
+        <f t="shared" ref="Z64" si="769">F64*100/SUM($F64:$O64)</f>
+        <v>1.0166358595194085</v>
+      </c>
+      <c r="AA64" s="3">
+        <f t="shared" ref="AA64" si="770">G64*100/SUM($F64:$O64)</f>
+        <v>0.89648798521256934</v>
+      </c>
+      <c r="AB64" s="3">
+        <f t="shared" ref="AB64" si="771">H64*100/SUM($F64:$O64)</f>
+        <v>3.1515711645101665</v>
+      </c>
+      <c r="AC64" s="3">
+        <f t="shared" ref="AC64" si="772">I64*100/SUM($F64:$O64)</f>
+        <v>10.94731977818854</v>
+      </c>
+      <c r="AD64" s="3">
+        <f t="shared" ref="AD64" si="773">J64*100/SUM($F64:$O64)</f>
+        <v>12.384473197781885</v>
+      </c>
+      <c r="AE64" s="3">
+        <f t="shared" ref="AE64" si="774">K64*100/SUM($F64:$O64)</f>
+        <v>13.82162661737523</v>
+      </c>
+      <c r="AF64" s="3">
+        <f t="shared" ref="AF64" si="775">L64*100/SUM($F64:$O64)</f>
+        <v>12.763401109057302</v>
+      </c>
+      <c r="AG64" s="3">
+        <f t="shared" ref="AG64" si="776">M64*100/SUM($F64:$O64)</f>
+        <v>8.6876155268022188</v>
+      </c>
+      <c r="AH64" s="3">
+        <f t="shared" ref="AH64" si="777">N64*100/SUM($F64:$O64)</f>
+        <v>9.4223659889094264</v>
+      </c>
+      <c r="AI64" s="3">
+        <f t="shared" ref="AI64" si="778">O64*100/SUM($F64:$O64)</f>
+        <v>26.908502772643253</v>
+      </c>
+      <c r="AJ64" s="3">
+        <f t="shared" ref="AJ64" si="779">P64*100/SUM($P64:$Y64)</f>
+        <v>1.5331385788465755</v>
+      </c>
+      <c r="AK64" s="3">
+        <f t="shared" ref="AK64" si="780">Q64*100/SUM($P64:$Y64)</f>
+        <v>1.4213051231964233</v>
+      </c>
+      <c r="AL64" s="3">
+        <f t="shared" ref="AL64" si="781">R64*100/SUM($P64:$Y64)</f>
+        <v>2.7715521730856971</v>
+      </c>
+      <c r="AM64" s="3">
+        <f t="shared" ref="AM64" si="782">S64*100/SUM($P64:$Y64)</f>
+        <v>6.1785668914714016</v>
+      </c>
+      <c r="AN64" s="3">
+        <f t="shared" ref="AN64" si="783">T64*100/SUM($P64:$Y64)</f>
+        <v>6.8392419375873876</v>
+      </c>
+      <c r="AO64" s="3">
+        <f t="shared" ref="AO64" si="784">U64*100/SUM($P64:$Y64)</f>
+        <v>8.9886604913696821</v>
+      </c>
+      <c r="AP64" s="3">
+        <f t="shared" ref="AP64" si="785">V64*100/SUM($P64:$Y64)</f>
+        <v>8.1593816873521838</v>
+      </c>
+      <c r="AQ64" s="3">
+        <f t="shared" ref="AQ64" si="786">W64*100/SUM($P64:$Y64)</f>
+        <v>7.013213867691289</v>
+      </c>
+      <c r="AR64" s="3">
+        <f t="shared" ref="AR64" si="787">X64*100/SUM($P64:$Y64)</f>
+        <v>12.024524485562669</v>
+      </c>
+      <c r="AS64" s="3">
+        <f t="shared" ref="AS64" si="788">Y64*100/SUM($P64:$Y64)</f>
+        <v>45.070414763836709</v>
       </c>
     </row>
   </sheetData>
@@ -23503,11 +23914,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I77" sqref="I77"/>
+      <selection pane="bottomLeft" activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23648,7 +24059,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F75" si="1">E4-E3</f>
+        <f t="shared" ref="F4:F76" si="1">E4-E3</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -23661,7 +24072,7 @@
         <v>260</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J75" si="2">I4-I3</f>
+        <f t="shared" ref="J4:J76" si="2">I4-I3</f>
         <v>18</v>
       </c>
       <c r="K4" t="s">
@@ -25918,7 +26329,7 @@
         <v>33417</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:C75" si="4">B64-B63</f>
+        <f t="shared" ref="C64:C76" si="4">B64-B63</f>
         <v>794</v>
       </c>
       <c r="D64">
@@ -26364,6 +26775,44 @@
       </c>
       <c r="K75">
         <v>11458</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B76">
+        <v>42920</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="4"/>
+        <v>737</v>
+      </c>
+      <c r="D76">
+        <v>27604</v>
+      </c>
+      <c r="E76">
+        <v>3562</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="G76">
+        <v>1766</v>
+      </c>
+      <c r="H76">
+        <v>183</v>
+      </c>
+      <c r="I76">
+        <v>290192</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="2"/>
+        <v>7641</v>
+      </c>
+      <c r="K76">
+        <v>11754</v>
       </c>
     </row>
   </sheetData>
@@ -26373,11 +26822,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26964,11 +27413,11 @@
         <v>43936</v>
       </c>
       <c r="B34">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>8060</v>
+        <v>8062</v>
       </c>
       <c r="E34" s="19">
         <v>43936</v>
@@ -26978,7 +27427,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G36" si="6">C34-F34</f>
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -26990,7 +27439,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>8552</v>
+        <v>8554</v>
       </c>
       <c r="E35" s="19">
         <v>43937</v>
@@ -27000,7 +27449,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -27008,11 +27457,11 @@
         <v>43938</v>
       </c>
       <c r="B36">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
-        <v>9122</v>
+        <v>9125</v>
       </c>
       <c r="E36" s="19">
         <v>43938</v>
@@ -27022,7 +27471,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>1070</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -27030,11 +27479,11 @@
         <v>43939</v>
       </c>
       <c r="B37" s="23">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
-        <v>9448</v>
+        <v>9449</v>
       </c>
       <c r="E37" s="19">
         <v>43939</v>
@@ -27044,7 +27493,7 @@
       </c>
       <c r="G37">
         <f t="shared" ref="G37" si="7">C37-F37</f>
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -27052,11 +27501,11 @@
         <v>43940</v>
       </c>
       <c r="B38" s="23">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C39" si="8">C37+B38</f>
-        <v>9875</v>
+        <v>9877</v>
       </c>
       <c r="E38" s="19">
         <v>43940</v>
@@ -27066,7 +27515,7 @@
       </c>
       <c r="G38">
         <f t="shared" ref="G38" si="9">C38-F38</f>
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -27078,7 +27527,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="8"/>
-        <v>10362</v>
+        <v>10364</v>
       </c>
       <c r="E39" s="19">
         <v>43941</v>
@@ -27088,7 +27537,7 @@
       </c>
       <c r="G39">
         <f t="shared" ref="G39" si="10">C39-F39</f>
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -27096,11 +27545,11 @@
         <v>43942</v>
       </c>
       <c r="B40">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40" si="11">C39+B40</f>
-        <v>10821</v>
+        <v>10826</v>
       </c>
       <c r="E40" s="19">
         <v>43942</v>
@@ -27110,7 +27559,7 @@
       </c>
       <c r="G40">
         <f t="shared" ref="G40" si="12">C40-F40</f>
-        <v>965</v>
+        <v>970</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -27118,11 +27567,11 @@
         <v>43943</v>
       </c>
       <c r="B41">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C41">
         <f t="shared" ref="C41:C52" si="13">C40+B41</f>
-        <v>11362</v>
+        <v>11368</v>
       </c>
       <c r="E41" s="19">
         <v>43943</v>
@@ -27132,7 +27581,7 @@
       </c>
       <c r="G41">
         <f t="shared" ref="G41" si="14">C41-F41</f>
-        <v>987</v>
+        <v>993</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -27144,7 +27593,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="13"/>
-        <v>11889</v>
+        <v>11895</v>
       </c>
       <c r="E42" s="19">
         <v>43944</v>
@@ -27154,7 +27603,7 @@
       </c>
       <c r="G42">
         <f t="shared" ref="G42:G44" si="15">C42-F42</f>
-        <v>992</v>
+        <v>998</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -27162,7 +27611,7 @@
         <v>43945</v>
       </c>
       <c r="B43" s="23">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C43">
         <f t="shared" si="13"/>
@@ -27184,11 +27633,11 @@
         <v>43946</v>
       </c>
       <c r="B44" s="23">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C44">
         <f t="shared" si="13"/>
-        <v>12708</v>
+        <v>12711</v>
       </c>
       <c r="E44" s="19">
         <v>43946</v>
@@ -27198,7 +27647,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="15"/>
-        <v>1087</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -27206,7 +27655,7 @@
         <v>43947</v>
       </c>
       <c r="B45" s="23">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C45">
         <f t="shared" si="13"/>
@@ -27250,11 +27699,11 @@
         <v>43949</v>
       </c>
       <c r="B47" s="23">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C47">
         <f t="shared" si="13"/>
-        <v>13951</v>
+        <v>13952</v>
       </c>
       <c r="E47" s="19">
         <v>43949</v>
@@ -27264,7 +27713,7 @@
       </c>
       <c r="G47">
         <f t="shared" ref="G47:G52" si="16">C47-F47</f>
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -27272,11 +27721,11 @@
         <v>43950</v>
       </c>
       <c r="B48" s="23">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C48">
         <f t="shared" si="13"/>
-        <v>14475</v>
+        <v>14478</v>
       </c>
       <c r="E48" s="19">
         <v>43950</v>
@@ -27286,7 +27735,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="16"/>
-        <v>1151</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -27294,11 +27743,11 @@
         <v>43951</v>
       </c>
       <c r="B49" s="23">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C49">
         <f t="shared" si="13"/>
-        <v>15073</v>
+        <v>15080</v>
       </c>
       <c r="E49" s="19">
         <v>43951</v>
@@ -27308,7 +27757,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="16"/>
-        <v>1094</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -27316,11 +27765,11 @@
         <v>43952</v>
       </c>
       <c r="B50" s="23">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C50">
         <f t="shared" si="13"/>
-        <v>15689</v>
+        <v>15698</v>
       </c>
       <c r="E50" s="19">
         <v>43952</v>
@@ -27330,7 +27779,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="16"/>
-        <v>1090</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -27338,11 +27787,11 @@
         <v>43953</v>
       </c>
       <c r="B51" s="23">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C51">
         <f t="shared" si="13"/>
-        <v>16225</v>
+        <v>16235</v>
       </c>
       <c r="E51" s="19">
         <v>43953</v>
@@ -27352,7 +27801,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="16"/>
-        <v>-26</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -27360,11 +27809,11 @@
         <v>43954</v>
       </c>
       <c r="B52" s="23">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C52">
         <f t="shared" si="13"/>
-        <v>16575</v>
+        <v>16584</v>
       </c>
       <c r="E52" s="19">
         <v>43954</v>
@@ -27374,7 +27823,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="16"/>
-        <v>-31</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -27382,11 +27831,11 @@
         <v>43955</v>
       </c>
       <c r="B53" s="23">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C53">
         <f t="shared" ref="C53" si="17">C52+B53</f>
-        <v>17004</v>
+        <v>17011</v>
       </c>
       <c r="E53" s="19">
         <v>43955</v>
@@ -27396,7 +27845,7 @@
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="18">C53-F53</f>
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -27408,7 +27857,7 @@
       </c>
       <c r="C54">
         <f t="shared" ref="C54:C61" si="19">C53+B54</f>
-        <v>17491</v>
+        <v>17498</v>
       </c>
       <c r="E54" s="19">
         <v>43956</v>
@@ -27418,7 +27867,7 @@
       </c>
       <c r="G54">
         <f t="shared" ref="G54" si="20">C54-F54</f>
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -27426,11 +27875,11 @@
         <v>43957</v>
       </c>
       <c r="B55" s="23">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C55">
         <f t="shared" si="19"/>
-        <v>18067</v>
+        <v>18075</v>
       </c>
       <c r="E55" s="19">
         <v>43957</v>
@@ -27440,7 +27889,7 @@
       </c>
       <c r="G55">
         <f t="shared" ref="G55:G58" si="21">C55-F55</f>
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -27448,11 +27897,11 @@
         <v>43958</v>
       </c>
       <c r="B56" s="23">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C56">
         <f t="shared" si="19"/>
-        <v>18510</v>
+        <v>18516</v>
       </c>
       <c r="E56" s="19">
         <v>43958</v>
@@ -27462,7 +27911,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="21"/>
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -27474,7 +27923,7 @@
       </c>
       <c r="C57">
         <f t="shared" si="19"/>
-        <v>18963</v>
+        <v>18969</v>
       </c>
       <c r="E57" s="19">
         <v>43959</v>
@@ -27484,7 +27933,7 @@
       </c>
       <c r="G57">
         <f t="shared" si="21"/>
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -27492,11 +27941,11 @@
         <v>43960</v>
       </c>
       <c r="B58" s="23">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C58">
         <f t="shared" si="19"/>
-        <v>19281</v>
+        <v>19286</v>
       </c>
       <c r="E58" s="19">
         <v>43960</v>
@@ -27506,7 +27955,7 @@
       </c>
       <c r="G58">
         <f t="shared" si="21"/>
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -27514,11 +27963,11 @@
         <v>43961</v>
       </c>
       <c r="B59" s="23">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C59">
         <f t="shared" si="19"/>
-        <v>19581</v>
+        <v>19588</v>
       </c>
       <c r="E59" s="19">
         <v>43961</v>
@@ -27528,7 +27977,7 @@
       </c>
       <c r="G59">
         <f t="shared" ref="G59" si="22">C59-F59</f>
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -27536,11 +27985,11 @@
         <v>43962</v>
       </c>
       <c r="B60" s="23">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C60">
         <f t="shared" si="19"/>
-        <v>19954</v>
+        <v>19959</v>
       </c>
       <c r="E60" s="19">
         <v>43962</v>
@@ -27550,7 +27999,7 @@
       </c>
       <c r="G60">
         <f t="shared" ref="G60:G64" si="23">C60-F60</f>
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -27562,7 +28011,7 @@
       </c>
       <c r="C61">
         <f t="shared" si="19"/>
-        <v>20393</v>
+        <v>20398</v>
       </c>
       <c r="E61" s="19">
         <v>43963</v>
@@ -27572,7 +28021,7 @@
       </c>
       <c r="G61">
         <f t="shared" si="23"/>
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -27580,11 +28029,11 @@
         <v>43964</v>
       </c>
       <c r="B62" s="23">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C62">
         <f t="shared" ref="C62:C64" si="24">C61+B62</f>
-        <v>20774</v>
+        <v>20787</v>
       </c>
       <c r="E62" s="19">
         <v>43964</v>
@@ -27594,7 +28043,7 @@
       </c>
       <c r="G62">
         <f t="shared" si="23"/>
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -27602,11 +28051,11 @@
         <v>43965</v>
       </c>
       <c r="B63" s="23">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="C63">
         <f t="shared" si="24"/>
-        <v>21171</v>
+        <v>21160</v>
       </c>
       <c r="E63" s="19">
         <v>43965</v>
@@ -27616,19 +28065,19 @@
       </c>
       <c r="G63">
         <f t="shared" si="23"/>
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="19">
         <v>43966</v>
       </c>
-      <c r="B64" s="24">
-        <v>239</v>
+      <c r="B64" s="23">
+        <v>351</v>
       </c>
       <c r="C64">
         <f t="shared" si="24"/>
-        <v>21410</v>
+        <v>21511</v>
       </c>
       <c r="E64" s="19">
         <v>43966</v>
@@ -27638,6 +28087,28 @@
       </c>
       <c r="G64">
         <f t="shared" si="23"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="19">
+        <v>43967</v>
+      </c>
+      <c r="B65" s="24">
+        <v>206</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ref="C65" si="25">C64+B65</f>
+        <v>21717</v>
+      </c>
+      <c r="E65" s="19">
+        <v>43967</v>
+      </c>
+      <c r="F65">
+        <v>21717</v>
+      </c>
+      <c r="G65">
+        <f t="shared" ref="G65" si="26">C65-F65</f>
         <v>0</v>
       </c>
     </row>
@@ -27651,9 +28122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AV2" sqref="AV2:AV35"/>
+      <selection pane="topRight" activeCell="AW2" sqref="AW2:AW35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27804,12 +28275,14 @@
         <v>310</v>
       </c>
       <c r="AU1" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="AV1" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="AV1" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="AW1" s="5"/>
+      <c r="AW1" s="5" t="s">
+        <v>323</v>
+      </c>
       <c r="AX1" s="5"/>
       <c r="AY1" s="5"/>
       <c r="AZ1" s="5"/>
@@ -28123,7 +28596,9 @@
       <c r="AV2" s="7">
         <v>1755</v>
       </c>
-      <c r="AW2" s="7"/>
+      <c r="AW2" s="7">
+        <v>1782</v>
+      </c>
       <c r="AX2" s="7"/>
       <c r="AY2" s="7"/>
       <c r="AZ2" s="7"/>
@@ -28437,7 +28912,9 @@
       <c r="AV3" s="9">
         <v>516</v>
       </c>
-      <c r="AW3" s="9"/>
+      <c r="AW3" s="9">
+        <v>528</v>
+      </c>
       <c r="AX3" s="9"/>
       <c r="AY3" s="9"/>
       <c r="AZ3" s="9"/>
@@ -28751,7 +29228,9 @@
       <c r="AV4" s="7">
         <v>15</v>
       </c>
-      <c r="AW4" s="7"/>
+      <c r="AW4" s="7">
+        <v>16</v>
+      </c>
       <c r="AX4" s="7"/>
       <c r="AY4" s="7"/>
       <c r="AZ4" s="7"/>
@@ -29065,7 +29544,9 @@
       <c r="AV5" s="9">
         <v>50</v>
       </c>
-      <c r="AW5" s="9"/>
+      <c r="AW5" s="9">
+        <v>49</v>
+      </c>
       <c r="AX5" s="9"/>
       <c r="AY5" s="9"/>
       <c r="AZ5" s="9"/>
@@ -29379,7 +29860,9 @@
       <c r="AV6" s="7">
         <v>1715</v>
       </c>
-      <c r="AW6" s="7"/>
+      <c r="AW6" s="7">
+        <v>1752</v>
+      </c>
       <c r="AX6" s="7"/>
       <c r="AY6" s="7"/>
       <c r="AZ6" s="7"/>
@@ -29693,7 +30176,9 @@
       <c r="AV7" s="9">
         <v>419</v>
       </c>
-      <c r="AW7" s="9"/>
+      <c r="AW7" s="9">
+        <v>425</v>
+      </c>
       <c r="AX7" s="9"/>
       <c r="AY7" s="9"/>
       <c r="AZ7" s="9"/>
@@ -30007,7 +30492,9 @@
       <c r="AV8" s="7">
         <v>326</v>
       </c>
-      <c r="AW8" s="7"/>
+      <c r="AW8" s="7">
+        <v>331</v>
+      </c>
       <c r="AX8" s="7"/>
       <c r="AY8" s="7"/>
       <c r="AZ8" s="7"/>
@@ -30321,7 +30808,9 @@
       <c r="AV9" s="9">
         <v>160</v>
       </c>
-      <c r="AW9" s="9"/>
+      <c r="AW9" s="9">
+        <v>161</v>
+      </c>
       <c r="AX9" s="9"/>
       <c r="AY9" s="9"/>
       <c r="AZ9" s="9"/>
@@ -30635,7 +31124,9 @@
       <c r="AV10" s="7">
         <v>48</v>
       </c>
-      <c r="AW10" s="7"/>
+      <c r="AW10" s="7">
+        <v>50</v>
+      </c>
       <c r="AX10" s="7"/>
       <c r="AY10" s="7"/>
       <c r="AZ10" s="7"/>
@@ -30949,7 +31440,9 @@
       <c r="AV11" s="9">
         <v>92</v>
       </c>
-      <c r="AW11" s="9"/>
+      <c r="AW11" s="9">
+        <v>92</v>
+      </c>
       <c r="AX11" s="9"/>
       <c r="AY11" s="9"/>
       <c r="AZ11" s="9"/>
@@ -31263,7 +31756,9 @@
       <c r="AV12" s="7">
         <v>453</v>
       </c>
-      <c r="AW12" s="7"/>
+      <c r="AW12" s="7">
+        <v>455</v>
+      </c>
       <c r="AX12" s="7"/>
       <c r="AY12" s="7"/>
       <c r="AZ12" s="7"/>
@@ -31577,7 +32072,9 @@
       <c r="AV13" s="9">
         <v>985</v>
       </c>
-      <c r="AW13" s="9"/>
+      <c r="AW13" s="9">
+        <v>989</v>
+      </c>
       <c r="AX13" s="9"/>
       <c r="AY13" s="9"/>
       <c r="AZ13" s="9"/>
@@ -31891,7 +32388,9 @@
       <c r="AV14" s="7">
         <v>166</v>
       </c>
-      <c r="AW14" s="7"/>
+      <c r="AW14" s="7">
+        <v>169</v>
+      </c>
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
       <c r="AZ14" s="7"/>
@@ -32205,7 +32704,9 @@
       <c r="AV15" s="9">
         <v>1737</v>
       </c>
-      <c r="AW15" s="9"/>
+      <c r="AW15" s="9">
+        <v>1779</v>
+      </c>
       <c r="AX15" s="9"/>
       <c r="AY15" s="9"/>
       <c r="AZ15" s="9"/>
@@ -32519,7 +33020,9 @@
       <c r="AV16" s="7">
         <v>30</v>
       </c>
-      <c r="AW16" s="7"/>
+      <c r="AW16" s="7">
+        <v>31</v>
+      </c>
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
       <c r="AZ16" s="7"/>
@@ -32833,7 +33336,9 @@
       <c r="AV17" s="9">
         <v>1979</v>
       </c>
-      <c r="AW17" s="9"/>
+      <c r="AW17" s="9">
+        <v>2004</v>
+      </c>
       <c r="AX17" s="9"/>
       <c r="AY17" s="9"/>
       <c r="AZ17" s="9"/>
@@ -33147,7 +33652,9 @@
       <c r="AV18" s="7">
         <v>17</v>
       </c>
-      <c r="AW18" s="7"/>
+      <c r="AW18" s="7">
+        <v>17</v>
+      </c>
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
       <c r="AZ18" s="7"/>
@@ -33461,7 +33968,9 @@
       <c r="AV19" s="9">
         <v>231</v>
       </c>
-      <c r="AW19" s="9"/>
+      <c r="AW19" s="9">
+        <v>231</v>
+      </c>
       <c r="AX19" s="9"/>
       <c r="AY19" s="9"/>
       <c r="AZ19" s="9"/>
@@ -33775,7 +34284,9 @@
       <c r="AV20" s="7">
         <v>233</v>
       </c>
-      <c r="AW20" s="7"/>
+      <c r="AW20" s="7">
+        <v>235</v>
+      </c>
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
       <c r="AZ20" s="7"/>
@@ -34089,7 +34600,9 @@
       <c r="AV21" s="9">
         <v>422</v>
       </c>
-      <c r="AW21" s="9"/>
+      <c r="AW21" s="9">
+        <v>433</v>
+      </c>
       <c r="AX21" s="9"/>
       <c r="AY21" s="9"/>
       <c r="AZ21" s="9"/>
@@ -34403,7 +34916,9 @@
       <c r="AV22" s="7">
         <v>750</v>
       </c>
-      <c r="AW22" s="7"/>
+      <c r="AW22" s="7">
+        <v>762</v>
+      </c>
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
       <c r="AZ22" s="7"/>
@@ -34717,7 +35232,9 @@
       <c r="AV23" s="9">
         <v>159</v>
       </c>
-      <c r="AW23" s="9"/>
+      <c r="AW23" s="9">
+        <v>164</v>
+      </c>
       <c r="AX23" s="9"/>
       <c r="AY23" s="9"/>
       <c r="AZ23" s="9"/>
@@ -35031,7 +35548,9 @@
       <c r="AV24" s="7">
         <v>1690</v>
       </c>
-      <c r="AW24" s="7"/>
+      <c r="AW24" s="7">
+        <v>1705</v>
+      </c>
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
       <c r="AZ24" s="7"/>
@@ -35345,7 +35864,9 @@
       <c r="AV25" s="9">
         <v>1204</v>
       </c>
-      <c r="AW25" s="9"/>
+      <c r="AW25" s="9">
+        <v>1217</v>
+      </c>
       <c r="AX25" s="9"/>
       <c r="AY25" s="9"/>
       <c r="AZ25" s="9"/>
@@ -35659,7 +36180,9 @@
       <c r="AV26" s="7">
         <v>16</v>
       </c>
-      <c r="AW26" s="7"/>
+      <c r="AW26" s="7">
+        <v>17</v>
+      </c>
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
       <c r="AZ26" s="7"/>
@@ -35973,7 +36496,9 @@
       <c r="AV27" s="9">
         <v>781</v>
       </c>
-      <c r="AW27" s="9"/>
+      <c r="AW27" s="9">
+        <v>790</v>
+      </c>
       <c r="AX27" s="9"/>
       <c r="AY27" s="9"/>
       <c r="AZ27" s="9"/>
@@ -36287,7 +36812,9 @@
       <c r="AV28" s="7">
         <v>853</v>
       </c>
-      <c r="AW28" s="7"/>
+      <c r="AW28" s="7">
+        <v>867</v>
+      </c>
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
       <c r="AZ28" s="7"/>
@@ -36601,7 +37128,9 @@
       <c r="AV29" s="20">
         <v>2</v>
       </c>
-      <c r="AW29" s="22"/>
+      <c r="AW29" s="20">
+        <v>2</v>
+      </c>
       <c r="AX29" s="22"/>
       <c r="AY29" s="22"/>
       <c r="AZ29" s="22"/>
@@ -36915,7 +37444,9 @@
       <c r="AV30" s="7">
         <v>748</v>
       </c>
-      <c r="AW30" s="7"/>
+      <c r="AW30" s="7">
+        <v>757</v>
+      </c>
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
       <c r="AZ30" s="7"/>
@@ -37229,7 +37760,9 @@
       <c r="AV31" s="9">
         <v>807</v>
       </c>
-      <c r="AW31" s="9"/>
+      <c r="AW31" s="9">
+        <v>820</v>
+      </c>
       <c r="AX31" s="9"/>
       <c r="AY31" s="9"/>
       <c r="AZ31" s="9"/>
@@ -37543,7 +38076,9 @@
       <c r="AV32" s="7">
         <v>578</v>
       </c>
-      <c r="AW32" s="7"/>
+      <c r="AW32" s="7">
+        <v>593</v>
+      </c>
       <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
       <c r="AZ32" s="7"/>
@@ -37857,7 +38392,9 @@
       <c r="AV33" s="9">
         <v>1520</v>
       </c>
-      <c r="AW33" s="9"/>
+      <c r="AW33" s="9">
+        <v>1536</v>
+      </c>
       <c r="AX33" s="9"/>
       <c r="AY33" s="9"/>
       <c r="AZ33" s="9"/>
@@ -38171,7 +38708,9 @@
       <c r="AV34" s="7">
         <v>156</v>
       </c>
-      <c r="AW34" s="7"/>
+      <c r="AW34" s="7">
+        <v>157</v>
+      </c>
       <c r="AX34" s="7"/>
       <c r="AY34" s="7"/>
       <c r="AZ34" s="7"/>
@@ -38485,7 +39024,9 @@
       <c r="AV35" s="9">
         <v>798</v>
       </c>
-      <c r="AW35" s="9"/>
+      <c r="AW35" s="9">
+        <v>802</v>
+      </c>
       <c r="AX35" s="9"/>
       <c r="AY35" s="9"/>
       <c r="AZ35" s="9"/>
@@ -38799,7 +39340,9 @@
       <c r="AV36" s="11">
         <v>21410</v>
       </c>
-      <c r="AW36" s="11"/>
+      <c r="AW36" s="11">
+        <v>21717</v>
+      </c>
       <c r="AX36" s="11"/>
       <c r="AY36" s="11"/>
       <c r="AZ36" s="11"/>
@@ -43268,7 +43811,9 @@
       <c r="AV57" s="7">
         <v>216</v>
       </c>
-      <c r="AW57" s="7"/>
+      <c r="AW57" s="7">
+        <v>220</v>
+      </c>
       <c r="AX57" s="7"/>
       <c r="AY57" s="7"/>
       <c r="AZ57" s="7"/>
@@ -43580,7 +44125,9 @@
       <c r="AV58" s="9">
         <v>188</v>
       </c>
-      <c r="AW58" s="9"/>
+      <c r="AW58" s="9">
+        <v>194</v>
+      </c>
       <c r="AX58" s="9"/>
       <c r="AY58" s="9"/>
       <c r="AZ58" s="9"/>
@@ -43892,7 +44439,9 @@
       <c r="AV59" s="7">
         <v>669</v>
       </c>
-      <c r="AW59" s="7"/>
+      <c r="AW59" s="7">
+        <v>682</v>
+      </c>
       <c r="AX59" s="7"/>
       <c r="AY59" s="7"/>
       <c r="AZ59" s="7"/>
@@ -44204,7 +44753,9 @@
       <c r="AV60" s="9">
         <v>2323</v>
       </c>
-      <c r="AW60" s="9"/>
+      <c r="AW60" s="9">
+        <v>2369</v>
+      </c>
       <c r="AX60" s="9"/>
       <c r="AY60" s="9"/>
       <c r="AZ60" s="9"/>
@@ -44516,7 +45067,9 @@
       <c r="AV61" s="7">
         <v>2644</v>
       </c>
-      <c r="AW61" s="7"/>
+      <c r="AW61" s="7">
+        <v>2680</v>
+      </c>
       <c r="AX61" s="7"/>
       <c r="AY61" s="7"/>
       <c r="AZ61" s="7"/>
@@ -44828,7 +45381,9 @@
       <c r="AV62" s="9">
         <v>2952</v>
       </c>
-      <c r="AW62" s="9"/>
+      <c r="AW62" s="9">
+        <v>2991</v>
+      </c>
       <c r="AX62" s="9"/>
       <c r="AY62" s="9"/>
       <c r="AZ62" s="9"/>
@@ -45140,7 +45695,9 @@
       <c r="AV63" s="7">
         <v>2718</v>
       </c>
-      <c r="AW63" s="7"/>
+      <c r="AW63" s="7">
+        <v>2762</v>
+      </c>
       <c r="AX63" s="7"/>
       <c r="AY63" s="7"/>
       <c r="AZ63" s="7"/>
@@ -45452,7 +46009,9 @@
       <c r="AV64" s="9">
         <v>1853</v>
       </c>
-      <c r="AW64" s="9"/>
+      <c r="AW64" s="9">
+        <v>1880</v>
+      </c>
       <c r="AX64" s="9"/>
       <c r="AY64" s="9"/>
       <c r="AZ64" s="9"/>
@@ -45764,7 +46323,9 @@
       <c r="AV65" s="7">
         <v>2010</v>
       </c>
-      <c r="AW65" s="7"/>
+      <c r="AW65" s="7">
+        <v>2039</v>
+      </c>
       <c r="AX65" s="7"/>
       <c r="AY65" s="7"/>
       <c r="AZ65" s="7"/>
@@ -46076,7 +46637,9 @@
       <c r="AV66" s="9">
         <v>5757</v>
       </c>
-      <c r="AW66" s="9"/>
+      <c r="AW66" s="9">
+        <v>5823</v>
+      </c>
       <c r="AX66" s="9"/>
       <c r="AY66" s="9"/>
       <c r="AZ66" s="9"/>
@@ -46388,7 +46951,9 @@
       <c r="AV67" s="7">
         <v>80</v>
       </c>
-      <c r="AW67" s="7"/>
+      <c r="AW67" s="7">
+        <v>77</v>
+      </c>
       <c r="AX67" s="7"/>
       <c r="AY67" s="7"/>
       <c r="AZ67" s="7"/>
@@ -46700,7 +47265,9 @@
       <c r="AV68" s="15">
         <v>21410</v>
       </c>
-      <c r="AW68" s="15"/>
+      <c r="AW68" s="15">
+        <v>21717</v>
+      </c>
       <c r="AX68" s="15"/>
       <c r="AY68" s="15"/>
       <c r="AZ68" s="15"/>
@@ -47353,6 +47920,9 @@
       <c r="AV71">
         <v>239</v>
       </c>
+      <c r="AW71">
+        <v>244</v>
+      </c>
     </row>
     <row r="72" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="8" t="s">
@@ -47400,6 +47970,9 @@
       <c r="AV72">
         <v>33</v>
       </c>
+      <c r="AW72">
+        <v>34</v>
+      </c>
     </row>
     <row r="73" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
@@ -47447,6 +48020,9 @@
       <c r="AV73">
         <v>0</v>
       </c>
+      <c r="AW73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="8" t="s">
@@ -47494,6 +48070,9 @@
       <c r="AV74">
         <v>6</v>
       </c>
+      <c r="AW74">
+        <v>6</v>
+      </c>
     </row>
     <row r="75" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="6" t="s">
@@ -47541,6 +48120,9 @@
       <c r="AV75">
         <v>189</v>
       </c>
+      <c r="AW75">
+        <v>189</v>
+      </c>
     </row>
     <row r="76" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="8" t="s">
@@ -47588,6 +48170,9 @@
       <c r="AV76">
         <v>24</v>
       </c>
+      <c r="AW76">
+        <v>24</v>
+      </c>
     </row>
     <row r="77" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="6" t="s">
@@ -47635,6 +48220,9 @@
       <c r="AV77">
         <v>41</v>
       </c>
+      <c r="AW77">
+        <v>42</v>
+      </c>
     </row>
     <row r="78" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="8" t="s">
@@ -47682,6 +48270,9 @@
       <c r="AV78">
         <v>30</v>
       </c>
+      <c r="AW78">
+        <v>30</v>
+      </c>
     </row>
     <row r="79" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
@@ -47729,6 +48320,9 @@
       <c r="AV79">
         <v>0</v>
       </c>
+      <c r="AW79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="8" t="s">
@@ -47776,8 +48370,11 @@
       <c r="AV80">
         <v>10</v>
       </c>
+      <c r="AW80">
+        <v>10</v>
+      </c>
     </row>
-    <row r="81" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
         <v>47</v>
       </c>
@@ -47823,8 +48420,11 @@
       <c r="AV81">
         <v>59</v>
       </c>
+      <c r="AW81">
+        <v>59</v>
+      </c>
     </row>
-    <row r="82" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="8" t="s">
         <v>48</v>
       </c>
@@ -47870,8 +48470,11 @@
       <c r="AV82">
         <v>133</v>
       </c>
+      <c r="AW82">
+        <v>134</v>
+      </c>
     </row>
-    <row r="83" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
         <v>49</v>
       </c>
@@ -47917,8 +48520,11 @@
       <c r="AV83">
         <v>22</v>
       </c>
+      <c r="AW83">
+        <v>22</v>
+      </c>
     </row>
-    <row r="84" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="8" t="s">
         <v>50</v>
       </c>
@@ -47964,8 +48570,11 @@
       <c r="AV84">
         <v>239</v>
       </c>
+      <c r="AW84">
+        <v>247</v>
+      </c>
     </row>
-    <row r="85" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
         <v>51</v>
       </c>
@@ -48011,8 +48620,11 @@
       <c r="AV85" s="24" t="s">
         <v>292</v>
       </c>
+      <c r="AW85" s="24" t="s">
+        <v>292</v>
+      </c>
     </row>
-    <row r="86" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="8" t="s">
         <v>52</v>
       </c>
@@ -48058,8 +48670,11 @@
       <c r="AV86">
         <v>153</v>
       </c>
+      <c r="AW86">
+        <v>155</v>
+      </c>
     </row>
-    <row r="87" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
         <v>53</v>
       </c>
@@ -48105,8 +48720,11 @@
       <c r="AV87" s="24" t="s">
         <v>292</v>
       </c>
+      <c r="AW87" s="24" t="s">
+        <v>292</v>
+      </c>
     </row>
-    <row r="88" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="8" t="s">
         <v>54</v>
       </c>
@@ -48152,8 +48770,11 @@
       <c r="AV88">
         <v>62</v>
       </c>
+      <c r="AW88">
+        <v>62</v>
+      </c>
     </row>
-    <row r="89" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
         <v>55</v>
       </c>
@@ -48199,8 +48820,11 @@
       <c r="AV89">
         <v>8</v>
       </c>
+      <c r="AW89">
+        <v>9</v>
+      </c>
     </row>
-    <row r="90" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="8" t="s">
         <v>56</v>
       </c>
@@ -48246,8 +48870,11 @@
       <c r="AV90">
         <v>21</v>
       </c>
+      <c r="AW90">
+        <v>21</v>
+      </c>
     </row>
-    <row r="91" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
         <v>57</v>
       </c>
@@ -48293,8 +48920,11 @@
       <c r="AV91">
         <v>87</v>
       </c>
+      <c r="AW91">
+        <v>88</v>
+      </c>
     </row>
-    <row r="92" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="8" t="s">
         <v>58</v>
       </c>
@@ -48340,8 +48970,11 @@
       <c r="AV92">
         <v>24</v>
       </c>
+      <c r="AW92">
+        <v>24</v>
+      </c>
     </row>
-    <row r="93" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
         <v>59</v>
       </c>
@@ -48387,8 +49020,11 @@
       <c r="AV93">
         <v>130</v>
       </c>
+      <c r="AW93">
+        <v>141</v>
+      </c>
     </row>
-    <row r="94" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="8" t="s">
         <v>60</v>
       </c>
@@ -48434,8 +49070,11 @@
       <c r="AV94">
         <v>129</v>
       </c>
+      <c r="AW94">
+        <v>131</v>
+      </c>
     </row>
-    <row r="95" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
         <v>61</v>
       </c>
@@ -48481,8 +49120,11 @@
       <c r="AV95" s="24" t="s">
         <v>292</v>
       </c>
+      <c r="AW95" s="24" t="s">
+        <v>292</v>
+      </c>
     </row>
-    <row r="96" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="8" t="s">
         <v>62</v>
       </c>
@@ -48527,6 +49169,9 @@
       </c>
       <c r="AV96">
         <v>85</v>
+      </c>
+      <c r="AW96">
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -48575,6 +49220,9 @@
       <c r="AV97">
         <v>45</v>
       </c>
+      <c r="AW97">
+        <v>47</v>
+      </c>
     </row>
     <row r="98" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="8" t="s">
@@ -48622,6 +49270,9 @@
       <c r="AV98">
         <v>0</v>
       </c>
+      <c r="AW98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="6" t="s">
@@ -48669,6 +49320,9 @@
       <c r="AV99">
         <v>144</v>
       </c>
+      <c r="AW99">
+        <v>144</v>
+      </c>
     </row>
     <row r="100" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="8" t="s">
@@ -48716,6 +49370,9 @@
       <c r="AV100">
         <v>111</v>
       </c>
+      <c r="AW100">
+        <v>114</v>
+      </c>
     </row>
     <row r="101" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="6" t="s">
@@ -48763,6 +49420,9 @@
       <c r="AV101">
         <v>43</v>
       </c>
+      <c r="AW101">
+        <v>43</v>
+      </c>
     </row>
     <row r="102" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="8" t="s">
@@ -48810,6 +49470,9 @@
       <c r="AV102">
         <v>95</v>
       </c>
+      <c r="AW102">
+        <v>98</v>
+      </c>
     </row>
     <row r="103" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
@@ -48857,6 +49520,9 @@
       <c r="AV103">
         <v>18</v>
       </c>
+      <c r="AW103">
+        <v>18</v>
+      </c>
     </row>
     <row r="104" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="8" t="s">
@@ -48904,6 +49570,9 @@
       <c r="AV104">
         <v>49</v>
       </c>
+      <c r="AW104">
+        <v>49</v>
+      </c>
     </row>
     <row r="105" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="10" t="s">
@@ -48950,6 +49619,9 @@
       </c>
       <c r="AV105">
         <v>2234</v>
+      </c>
+      <c r="AW105">
+        <v>2276</v>
       </c>
     </row>
     <row r="106" spans="1:216" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -49218,6 +49890,9 @@
       <c r="AV107">
         <v>0</v>
       </c>
+      <c r="AW107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
@@ -49265,6 +49940,9 @@
       <c r="AV108">
         <v>0</v>
       </c>
+      <c r="AW108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
@@ -49312,6 +49990,9 @@
       <c r="AV109">
         <v>0</v>
       </c>
+      <c r="AW109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
@@ -49359,6 +50040,9 @@
       <c r="AV110" s="24">
         <v>2</v>
       </c>
+      <c r="AW110" s="24">
+        <v>2</v>
+      </c>
     </row>
     <row r="111" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
@@ -49406,6 +50090,9 @@
       <c r="AV111" s="24">
         <v>3</v>
       </c>
+      <c r="AW111" s="24">
+        <v>3</v>
+      </c>
     </row>
     <row r="112" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
@@ -49453,8 +50140,11 @@
       <c r="AV112">
         <v>12</v>
       </c>
+      <c r="AW112">
+        <v>12</v>
+      </c>
     </row>
-    <row r="113" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -49500,8 +50190,11 @@
       <c r="AV113">
         <v>37</v>
       </c>
+      <c r="AW113">
+        <v>39</v>
+      </c>
     </row>
-    <row r="114" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>93</v>
       </c>
@@ -49547,8 +50240,11 @@
       <c r="AV114">
         <v>154</v>
       </c>
+      <c r="AW114">
+        <v>154</v>
+      </c>
     </row>
-    <row r="115" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>94</v>
       </c>
@@ -49594,8 +50290,11 @@
       <c r="AV115">
         <v>383</v>
       </c>
+      <c r="AW115">
+        <v>390</v>
+      </c>
     </row>
-    <row r="116" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>95</v>
       </c>
@@ -49641,8 +50340,11 @@
       <c r="AV116">
         <v>1643</v>
       </c>
+      <c r="AW116">
+        <v>1676</v>
+      </c>
     </row>
-    <row r="117" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -49688,8 +50390,11 @@
       <c r="AV117">
         <v>0</v>
       </c>
+      <c r="AW117" s="24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="118" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>301</v>
       </c>
@@ -49833,6 +50538,9 @@
       </c>
       <c r="AV118">
         <v>2234</v>
+      </c>
+      <c r="AW118">
+        <v>2276</v>
       </c>
     </row>
   </sheetData>
@@ -49896,13 +50604,13 @@
         <v>86</v>
       </c>
       <c r="B4">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s">
         <v>312</v>
       </c>
       <c r="D4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -49913,13 +50621,13 @@
         <v>87</v>
       </c>
       <c r="B5">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C5" t="s">
         <v>313</v>
       </c>
       <c r="D5" t="s">
-        <v>325</v>
+        <v>182</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -49930,7 +50638,7 @@
         <v>88</v>
       </c>
       <c r="B6">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="C6" t="s">
         <v>326</v>
@@ -49947,19 +50655,19 @@
         <v>89</v>
       </c>
       <c r="B7">
-        <v>2323</v>
+        <v>2369</v>
       </c>
       <c r="C7" t="s">
         <v>314</v>
       </c>
       <c r="D7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="E7" t="s">
         <v>292</v>
       </c>
       <c r="F7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -49967,19 +50675,19 @@
         <v>90</v>
       </c>
       <c r="B8">
-        <v>2644</v>
+        <v>2680</v>
       </c>
       <c r="C8" t="s">
         <v>315</v>
       </c>
       <c r="D8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E8" t="s">
         <v>292</v>
       </c>
       <c r="F8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -49987,10 +50695,10 @@
         <v>91</v>
       </c>
       <c r="B9" s="2">
-        <v>2952</v>
+        <v>2991</v>
       </c>
       <c r="C9" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D9" t="s">
         <v>330</v>
@@ -49999,7 +50707,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -50007,16 +50715,16 @@
         <v>92</v>
       </c>
       <c r="B10">
-        <v>2718</v>
+        <v>2762</v>
       </c>
       <c r="C10" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="D10" t="s">
         <v>332</v>
       </c>
       <c r="E10">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
         <v>333</v>
@@ -50027,10 +50735,10 @@
         <v>93</v>
       </c>
       <c r="B11">
-        <v>1853</v>
+        <v>1880</v>
       </c>
       <c r="C11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D11" t="s">
         <v>334</v>
@@ -50047,16 +50755,16 @@
         <v>94</v>
       </c>
       <c r="B12">
-        <v>2010</v>
+        <v>2039</v>
       </c>
       <c r="C12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D12" t="s">
         <v>336</v>
       </c>
       <c r="E12">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="F12" t="s">
         <v>337</v>
@@ -50067,7 +50775,7 @@
         <v>95</v>
       </c>
       <c r="B13">
-        <v>5757</v>
+        <v>5823</v>
       </c>
       <c r="C13" t="s">
         <v>338</v>
@@ -50087,19 +50795,7 @@
         <v>96</v>
       </c>
       <c r="B14">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>228</v>
-      </c>
-      <c r="D14" t="s">
-        <v>228</v>
-      </c>
-      <c r="E14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F14" t="s">
-        <v>228</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -50107,16 +50803,13 @@
         <v>97</v>
       </c>
       <c r="B15">
-        <v>21410</v>
-      </c>
-      <c r="C15" t="s">
-        <v>228</v>
+        <v>21717</v>
       </c>
       <c r="D15" t="s">
         <v>342</v>
       </c>
       <c r="E15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F15" t="s">
         <v>343</v>

--- a/app/data/covid19_MTL.xlsx
+++ b/app/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC2B1E0-BE3B-4523-89A6-A8C39D1CC679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987A15AB-B96A-4FD5-8DDC-FA0113825B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="5010" windowWidth="24910" windowHeight="13190" tabRatio="585" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="18830" yWindow="7090" windowWidth="27540" windowHeight="13430" tabRatio="585" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="346">
   <si>
     <t>borough</t>
   </si>
@@ -961,9 +961,6 @@
     <t>5 MAI, 18h04</t>
   </si>
   <si>
-    <t>1 666</t>
-  </si>
-  <si>
     <t>6 MAI, 18h04</t>
   </si>
   <si>
@@ -988,37 +985,13 @@
     <t>12 MAI, 18h05</t>
   </si>
   <si>
-    <t>100 000</t>
-  </si>
-  <si>
-    <t>NOMBRE DE CAS CONFIRMÉS¹</t>
-  </si>
-  <si>
-    <t>RÉPARTITION DES CAS (%)</t>
-  </si>
-  <si>
-    <t>PERSONNES</t>
-  </si>
-  <si>
-    <t>NOMBRE DE DÉCÈS</t>
-  </si>
-  <si>
-    <t>TAUX DE MORTALITÉ POUR</t>
-  </si>
-  <si>
     <t>13 MAI, 18h05</t>
-  </si>
-  <si>
-    <t>TAUX POUR</t>
   </si>
   <si>
     <t>1,0</t>
   </si>
   <si>
     <t>0,9</t>
-  </si>
-  <si>
-    <t>10,9</t>
   </si>
   <si>
     <t>12,4</t>
@@ -1048,64 +1021,97 @@
     <t>16 MAI, 18h05</t>
   </si>
   <si>
-    <t>2 276</t>
-  </si>
-  <si>
-    <t>198,4</t>
-  </si>
-  <si>
     <t>3,2</t>
-  </si>
-  <si>
-    <t>342,9</t>
-  </si>
-  <si>
-    <t>735,5</t>
-  </si>
-  <si>
-    <t>815,7</t>
-  </si>
-  <si>
-    <t>1 074,6</t>
-  </si>
-  <si>
-    <t>12,8</t>
-  </si>
-  <si>
-    <t>1 076,1</t>
-  </si>
-  <si>
-    <t>15,2</t>
-  </si>
-  <si>
-    <t>868,1</t>
-  </si>
-  <si>
-    <t>71,1</t>
-  </si>
-  <si>
-    <t>1 409,1</t>
-  </si>
-  <si>
-    <t>269,5</t>
   </si>
   <si>
     <t>26,9</t>
   </si>
   <si>
-    <t>5 763,0</t>
+    <t> 184,3</t>
   </si>
   <si>
-    <t>1 676</t>
+    <t>22 028</t>
   </si>
   <si>
-    <t>1 658,7</t>
+    <t>2 296</t>
   </si>
   <si>
-    <t> 1 051,3</t>
+    <t> 111,1</t>
   </si>
   <si>
-    <t> 110,2</t>
+    <t>17 MAI, 18h05</t>
+  </si>
+  <si>
+    <t> 201,1</t>
+  </si>
+  <si>
+    <t> 350,4</t>
+  </si>
+  <si>
+    <t>2 410</t>
+  </si>
+  <si>
+    <t>11,0</t>
+  </si>
+  <si>
+    <t> 748,2</t>
+  </si>
+  <si>
+    <t>2 713</t>
+  </si>
+  <si>
+    <t> 825,8</t>
+  </si>
+  <si>
+    <t>3 035</t>
+  </si>
+  <si>
+    <t> 1 090,4</t>
+  </si>
+  <si>
+    <t>2 798</t>
+  </si>
+  <si>
+    <t>12,7</t>
+  </si>
+  <si>
+    <t> 1 090,1</t>
+  </si>
+  <si>
+    <t> 16,0</t>
+  </si>
+  <si>
+    <t>1 914</t>
+  </si>
+  <si>
+    <t> 883,8</t>
+  </si>
+  <si>
+    <t> 71,6</t>
+  </si>
+  <si>
+    <t>2 058</t>
+  </si>
+  <si>
+    <t> 1 422,2</t>
+  </si>
+  <si>
+    <t> 271,6</t>
+  </si>
+  <si>
+    <t>5 907</t>
+  </si>
+  <si>
+    <t> 5 846,1</t>
+  </si>
+  <si>
+    <t>1 690</t>
+  </si>
+  <si>
+    <t> 1672,6</t>
+  </si>
+  <si>
+    <t> 1066,4</t>
   </si>
 </sst>
 </file>
@@ -1619,20 +1625,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:AX35"/>
+  <dimension ref="A1:AY35"/>
   <sheetViews>
     <sheetView topLeftCell="Y1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AW1" sqref="AW1:AX1"/>
+      <selection activeCell="AY2" sqref="AY2:AY35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="50" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="51" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1783,8 +1789,11 @@
       <c r="AX1" s="19">
         <v>43967</v>
       </c>
+      <c r="AY1" s="19">
+        <v>43968</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1935,8 +1944,11 @@
       <c r="AX2">
         <v>1782</v>
       </c>
+      <c r="AY2">
+        <v>1817</v>
+      </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2087,8 +2099,11 @@
       <c r="AX3">
         <v>528</v>
       </c>
+      <c r="AY3">
+        <v>537</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2239,8 +2254,11 @@
       <c r="AX4">
         <v>16</v>
       </c>
+      <c r="AY4">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2391,8 +2409,11 @@
       <c r="AX5">
         <v>49</v>
       </c>
+      <c r="AY5">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2543,8 +2564,11 @@
       <c r="AX6">
         <v>1752</v>
       </c>
+      <c r="AY6">
+        <v>1787</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -2695,8 +2719,11 @@
       <c r="AX7">
         <v>425</v>
       </c>
+      <c r="AY7">
+        <v>437</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -2847,8 +2874,11 @@
       <c r="AX8">
         <v>331</v>
       </c>
+      <c r="AY8">
+        <v>339</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -2999,8 +3029,11 @@
       <c r="AX9">
         <v>161</v>
       </c>
+      <c r="AY9">
+        <v>163</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -3151,8 +3184,11 @@
       <c r="AX10">
         <v>50</v>
       </c>
+      <c r="AY10">
+        <v>50</v>
+      </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -3303,8 +3339,11 @@
       <c r="AX11">
         <v>92</v>
       </c>
+      <c r="AY11">
+        <v>93</v>
+      </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3455,8 +3494,11 @@
       <c r="AX12">
         <v>455</v>
       </c>
+      <c r="AY12">
+        <v>465</v>
+      </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3607,8 +3649,11 @@
       <c r="AX13">
         <v>989</v>
       </c>
+      <c r="AY13">
+        <v>996</v>
+      </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3759,8 +3804,11 @@
       <c r="AX14">
         <v>169</v>
       </c>
+      <c r="AY14">
+        <v>172</v>
+      </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3911,8 +3959,11 @@
       <c r="AX15">
         <v>1779</v>
       </c>
+      <c r="AY15">
+        <v>1825</v>
+      </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -4063,8 +4114,11 @@
       <c r="AX16">
         <v>31</v>
       </c>
+      <c r="AY16">
+        <v>32</v>
+      </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4215,8 +4269,11 @@
       <c r="AX17">
         <v>2004</v>
       </c>
+      <c r="AY17">
+        <v>2028</v>
+      </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -4367,8 +4424,11 @@
       <c r="AX18">
         <v>17</v>
       </c>
+      <c r="AY18">
+        <v>17</v>
+      </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -4519,8 +4579,11 @@
       <c r="AX19">
         <v>231</v>
       </c>
+      <c r="AY19">
+        <v>232</v>
+      </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4671,8 +4734,11 @@
       <c r="AX20">
         <v>235</v>
       </c>
+      <c r="AY20">
+        <v>235</v>
+      </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4823,8 +4889,11 @@
       <c r="AX21">
         <v>433</v>
       </c>
+      <c r="AY21">
+        <v>439</v>
+      </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4975,8 +5044,11 @@
       <c r="AX22">
         <v>762</v>
       </c>
+      <c r="AY22">
+        <v>765</v>
+      </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -5127,8 +5199,11 @@
       <c r="AX23">
         <v>164</v>
       </c>
+      <c r="AY23">
+        <v>166</v>
+      </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5279,8 +5354,11 @@
       <c r="AX24">
         <v>1705</v>
       </c>
+      <c r="AY24">
+        <v>1730</v>
+      </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5431,8 +5509,11 @@
       <c r="AX25">
         <v>1217</v>
       </c>
+      <c r="AY25">
+        <v>1231</v>
+      </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -5583,8 +5664,11 @@
       <c r="AX26">
         <v>17</v>
       </c>
+      <c r="AY26">
+        <v>18</v>
+      </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5735,8 +5819,11 @@
       <c r="AX27">
         <v>790</v>
       </c>
+      <c r="AY27">
+        <v>806</v>
+      </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5887,8 +5974,11 @@
       <c r="AX28">
         <v>867</v>
       </c>
+      <c r="AY28">
+        <v>876</v>
+      </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -6039,8 +6129,11 @@
       <c r="AX29">
         <v>2</v>
       </c>
+      <c r="AY29">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -6191,8 +6284,11 @@
       <c r="AX30">
         <v>757</v>
       </c>
+      <c r="AY30">
+        <v>764</v>
+      </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -6343,8 +6439,11 @@
       <c r="AX31">
         <v>820</v>
       </c>
+      <c r="AY31">
+        <v>826</v>
+      </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -6495,8 +6594,11 @@
       <c r="AX32">
         <v>593</v>
       </c>
+      <c r="AY32">
+        <v>611</v>
+      </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -6647,8 +6749,11 @@
       <c r="AX33">
         <v>1536</v>
       </c>
+      <c r="AY33">
+        <v>1549</v>
+      </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -6799,8 +6904,11 @@
       <c r="AX34">
         <v>157</v>
       </c>
+      <c r="AY34">
+        <v>159</v>
+      </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -6950,6 +7058,9 @@
       </c>
       <c r="AX35">
         <v>802</v>
+      </c>
+      <c r="AY35">
+        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -6960,11 +7071,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:AX34"/>
+  <dimension ref="A1:AY34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY7" sqref="AY7"/>
+      <selection pane="topRight" activeCell="BA28" sqref="BA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6975,7 +7086,7 @@
     <col min="28" max="50" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7147,8 +7258,11 @@
       <c r="AX1" s="1">
         <v>43967</v>
       </c>
+      <c r="AY1" s="1">
+        <v>43968</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7343,8 +7457,12 @@
         <f>cases!AX2/(population_2016!$B2/1000)</f>
         <v>13.274237401765429</v>
       </c>
+      <c r="AY2" s="3">
+        <f>cases!AY2/(population_2016!$B2/1000)</f>
+        <v>13.534954746917949</v>
+      </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7539,8 +7657,12 @@
         <f>cases!AX3/(population_2016!$B3/1000)</f>
         <v>12.337601645013553</v>
       </c>
+      <c r="AY3" s="3">
+        <f>cases!AY3/(population_2016!$B3/1000)</f>
+        <v>12.547901673053557</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -7735,8 +7857,12 @@
         <f>cases!AX4/(population_2016!$B4/1000)</f>
         <v>4.1851948731362807</v>
       </c>
+      <c r="AY4" s="3">
+        <f>cases!AY4/(population_2016!$B4/1000)</f>
+        <v>4.1851948731362807</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -7931,8 +8057,12 @@
         <f>cases!AX5/(population_2016!$B5/1000)</f>
         <v>2.535706892982819</v>
       </c>
+      <c r="AY5" s="3">
+        <f>cases!AY5/(population_2016!$B5/1000)</f>
+        <v>2.5874560132477744</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -8127,8 +8257,12 @@
         <f>cases!AX6/(population_2016!$B6/1000)</f>
         <v>10.521258707662742</v>
       </c>
+      <c r="AY6" s="3">
+        <f>cases!AY6/(population_2016!$B6/1000)</f>
+        <v>10.731443670429977</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -8323,8 +8457,12 @@
         <f>cases!AX7/(population_2016!$B7/1000)</f>
         <v>13.097879684418146</v>
       </c>
+      <c r="AY7" s="3">
+        <f>cases!AY7/(population_2016!$B7/1000)</f>
+        <v>13.467702169625246</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -8519,8 +8657,12 @@
         <f>cases!AX8/(population_2016!$B8/1000)</f>
         <v>6.7690545818932906</v>
       </c>
+      <c r="AY8" s="3">
+        <f>cases!AY8/(population_2016!$B8/1000)</f>
+        <v>6.9326571095523422</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -8715,8 +8857,12 @@
         <f>cases!AX9/(population_2016!$B9/1000)</f>
         <v>8.4826132771338241</v>
       </c>
+      <c r="AY9" s="3">
+        <f>cases!AY9/(population_2016!$B9/1000)</f>
+        <v>8.5879873551106432</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -8911,8 +9057,12 @@
         <f>cases!AX10/(population_2016!$B10/1000)</f>
         <v>7.1705148429657255</v>
       </c>
+      <c r="AY10" s="3">
+        <f>cases!AY10/(population_2016!$B10/1000)</f>
+        <v>7.1705148429657255</v>
+      </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -9107,8 +9257,12 @@
         <f>cases!AX11/(population_2016!$B11/1000)</f>
         <v>4.5655302466378842</v>
       </c>
+      <c r="AY11" s="3">
+        <f>cases!AY11/(population_2016!$B11/1000)</f>
+        <v>4.6151555754056872</v>
+      </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -9303,8 +9457,12 @@
         <f>cases!AX12/(population_2016!$B12/1000)</f>
         <v>10.227247184697342</v>
       </c>
+      <c r="AY12" s="3">
+        <f>cases!AY12/(population_2016!$B12/1000)</f>
+        <v>10.452021848097283</v>
+      </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -9499,8 +9657,12 @@
         <f>cases!AX13/(population_2016!$B13/1000)</f>
         <v>12.868723407023799</v>
       </c>
+      <c r="AY13" s="3">
+        <f>cases!AY13/(population_2016!$B13/1000)</f>
+        <v>12.959806383615474</v>
+      </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -9695,8 +9857,12 @@
         <f>cases!AX14/(population_2016!$B14/1000)</f>
         <v>9.1782979416716444</v>
       </c>
+      <c r="AY14" s="3">
+        <f>cases!AY14/(population_2016!$B14/1000)</f>
+        <v>9.3412263075001363</v>
+      </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -9891,8 +10057,12 @@
         <f>cases!AX15/(population_2016!$B15/1000)</f>
         <v>13.07857436922896</v>
       </c>
+      <c r="AY15" s="3">
+        <f>cases!AY15/(population_2016!$B15/1000)</f>
+        <v>13.416749985296713</v>
+      </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -10087,8 +10257,12 @@
         <f>cases!AX16/(population_2016!$B16/1000)</f>
         <v>8.0519480519480524</v>
       </c>
+      <c r="AY16" s="3">
+        <f>cases!AY16/(population_2016!$B16/1000)</f>
+        <v>8.3116883116883109</v>
+      </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -10283,8 +10457,12 @@
         <f>cases!AX17/(population_2016!$B17/1000)</f>
         <v>23.790868295462641</v>
       </c>
+      <c r="AY17" s="3">
+        <f>cases!AY17/(population_2016!$B17/1000)</f>
+        <v>24.075788873851415</v>
+      </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -10479,8 +10657,12 @@
         <f>cases!AX18/(population_2016!$B18/1000)</f>
         <v>3.3663366336633667</v>
       </c>
+      <c r="AY18" s="3">
+        <f>cases!AY18/(population_2016!$B18/1000)</f>
+        <v>3.3663366336633667</v>
+      </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -10675,8 +10857,12 @@
         <f>cases!AX19/(population_2016!$B19/1000)</f>
         <v>11.392779640954824</v>
       </c>
+      <c r="AY19" s="3">
+        <f>cases!AY19/(population_2016!$B19/1000)</f>
+        <v>11.442099033339909</v>
+      </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -10871,8 +11057,12 @@
         <f>cases!AX20/(population_2016!$B20/1000)</f>
         <v>9.8104700676296233</v>
       </c>
+      <c r="AY20" s="3">
+        <f>cases!AY20/(population_2016!$B20/1000)</f>
+        <v>9.8104700676296233</v>
+      </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -11067,8 +11257,12 @@
         <f>cases!AX21/(population_2016!$B21/1000)</f>
         <v>6.2484667445921183</v>
       </c>
+      <c r="AY21" s="3">
+        <f>cases!AY21/(population_2016!$B21/1000)</f>
+        <v>6.3350505793901615</v>
+      </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -11263,8 +11457,12 @@
         <f>cases!AX22/(population_2016!$B22/1000)</f>
         <v>7.3269230769230766</v>
       </c>
+      <c r="AY22" s="3">
+        <f>cases!AY22/(population_2016!$B22/1000)</f>
+        <v>7.3557692307692308</v>
+      </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -11459,8 +11657,12 @@
         <f>cases!AX23/(population_2016!$B23/1000)</f>
         <v>5.2262587635436581</v>
       </c>
+      <c r="AY23" s="3">
+        <f>cases!AY23/(population_2016!$B23/1000)</f>
+        <v>5.2899936265137031</v>
+      </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -11655,8 +11857,12 @@
         <f>cases!AX24/(population_2016!$B24/1000)</f>
         <v>15.972944361691166</v>
       </c>
+      <c r="AY24" s="3">
+        <f>cases!AY24/(population_2016!$B24/1000)</f>
+        <v>16.20715175702388</v>
+      </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -11851,8 +12057,12 @@
         <f>cases!AX25/(population_2016!$B25/1000)</f>
         <v>8.7183895694533984</v>
       </c>
+      <c r="AY25" s="3">
+        <f>cases!AY25/(population_2016!$B25/1000)</f>
+        <v>8.8186832867683922</v>
+      </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -12047,8 +12257,12 @@
         <f>cases!AX26/(population_2016!$B26/1000)</f>
         <v>3.4288019362646227</v>
       </c>
+      <c r="AY26" s="3">
+        <f>cases!AY26/(population_2016!$B26/1000)</f>
+        <v>3.6304961678096004</v>
+      </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -12243,8 +12457,12 @@
         <f>cases!AX27/(population_2016!$B27/1000)</f>
         <v>7.9936859999190508</v>
       </c>
+      <c r="AY27" s="3">
+        <f>cases!AY27/(population_2016!$B27/1000)</f>
+        <v>8.1555834378920959</v>
+      </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -12439,8 +12657,12 @@
         <f>cases!AX28/(population_2016!$B28/1000)</f>
         <v>11.072089904859203</v>
       </c>
+      <c r="AY28" s="3">
+        <f>cases!AY28/(population_2016!$B28/1000)</f>
+        <v>11.187025094183001</v>
+      </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -12635,8 +12857,12 @@
         <f>cases!AX29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
+      <c r="AY29" s="3">
+        <f>cases!AY29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -12831,8 +13057,12 @@
         <f>cases!AX30/(population_2016!$B30/1000)</f>
         <v>9.6863763739427515</v>
       </c>
+      <c r="AY30" s="3">
+        <f>cases!AY30/(population_2016!$B30/1000)</f>
+        <v>9.7759465649831743</v>
+      </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -13027,8 +13257,12 @@
         <f>cases!AX31/(population_2016!$B31/1000)</f>
         <v>11.844747143538113</v>
       </c>
+      <c r="AY31" s="3">
+        <f>cases!AY31/(population_2016!$B31/1000)</f>
+        <v>11.931416025076196</v>
+      </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -13223,8 +13457,12 @@
         <f>cases!AX32/(population_2016!$B32/1000)</f>
         <v>6.650218683413704</v>
       </c>
+      <c r="AY32" s="3">
+        <f>cases!AY32/(population_2016!$B32/1000)</f>
+        <v>6.8520802960636988</v>
+      </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -13419,8 +13657,12 @@
         <f>cases!AX33/(population_2016!$B33/1000)</f>
         <v>10.677566682655209</v>
       </c>
+      <c r="AY33" s="3">
+        <f>cases!AY33/(population_2016!$B33/1000)</f>
+        <v>10.767936713172475</v>
+      </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -13614,6 +13856,10 @@
       <c r="AX34" s="3">
         <f>cases!AX34/(population_2016!$B34/1000)</f>
         <v>7.7294210319023229</v>
+      </c>
+      <c r="AY34" s="3">
+        <f>cases!AY34/(population_2016!$B34/1000)</f>
+        <v>7.8278849940921615</v>
       </c>
     </row>
   </sheetData>
@@ -13623,11 +13869,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AS64"/>
+  <dimension ref="A1:AS65"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18565,11 +18811,11 @@
       </c>
       <c r="B33" s="17">
         <f>mtl_newcases!C34</f>
-        <v>8062</v>
+        <v>8065</v>
       </c>
       <c r="C33" s="17">
         <f t="shared" si="0"/>
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="D33">
         <v>332</v>
@@ -18736,11 +18982,11 @@
       </c>
       <c r="B34" s="17">
         <f>mtl_newcases!C35</f>
-        <v>8554</v>
+        <v>8558</v>
       </c>
       <c r="C34" s="17">
         <f t="shared" si="0"/>
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D34">
         <v>391</v>
@@ -18907,7 +19153,7 @@
       </c>
       <c r="B35" s="17">
         <f>mtl_newcases!C36</f>
-        <v>9125</v>
+        <v>9129</v>
       </c>
       <c r="C35" s="17">
         <f t="shared" si="0"/>
@@ -19078,7 +19324,7 @@
       </c>
       <c r="B36" s="17">
         <f>mtl_newcases!C37</f>
-        <v>9449</v>
+        <v>9453</v>
       </c>
       <c r="C36" s="17">
         <f t="shared" si="0"/>
@@ -19249,11 +19495,11 @@
       </c>
       <c r="B37" s="17">
         <f>mtl_newcases!C38</f>
-        <v>9877</v>
+        <v>9882</v>
       </c>
       <c r="C37" s="17">
         <f t="shared" si="0"/>
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D37">
         <v>525</v>
@@ -19389,11 +19635,11 @@
       </c>
       <c r="B38" s="17">
         <f>mtl_newcases!C39</f>
-        <v>10364</v>
+        <v>10368</v>
       </c>
       <c r="C38" s="17">
         <f t="shared" si="0"/>
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D38">
         <v>583</v>
@@ -19560,11 +19806,11 @@
       </c>
       <c r="B39" s="17">
         <f>mtl_newcases!C40</f>
-        <v>10826</v>
+        <v>10831</v>
       </c>
       <c r="C39" s="17">
         <f t="shared" si="0"/>
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D39">
         <v>647</v>
@@ -19731,7 +19977,7 @@
       </c>
       <c r="B40" s="17">
         <f>mtl_newcases!C41</f>
-        <v>11368</v>
+        <v>11373</v>
       </c>
       <c r="C40" s="17">
         <f t="shared" si="0"/>
@@ -19902,11 +20148,11 @@
       </c>
       <c r="B41" s="17">
         <f>mtl_newcases!C42</f>
-        <v>11895</v>
+        <v>11901</v>
       </c>
       <c r="C41" s="17">
         <f t="shared" si="0"/>
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D41">
         <v>808</v>
@@ -20073,11 +20319,11 @@
       </c>
       <c r="B42" s="17">
         <f>mtl_newcases!C43</f>
-        <v>12392</v>
+        <v>12399</v>
       </c>
       <c r="C42" s="17">
         <f t="shared" si="0"/>
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D42">
         <v>895</v>
@@ -20244,7 +20490,7 @@
       </c>
       <c r="B43" s="17">
         <f>mtl_newcases!C44</f>
-        <v>12711</v>
+        <v>12718</v>
       </c>
       <c r="C43" s="17">
         <f t="shared" si="0"/>
@@ -20415,7 +20661,7 @@
       </c>
       <c r="B44" s="17">
         <f>mtl_newcases!C45</f>
-        <v>13013</v>
+        <v>13020</v>
       </c>
       <c r="C44" s="17">
         <f>B44-B43</f>
@@ -20586,11 +20832,11 @@
       </c>
       <c r="B45" s="17">
         <f>mtl_newcases!C46</f>
-        <v>13478</v>
+        <v>13484</v>
       </c>
       <c r="C45" s="17">
         <f>B45-B44</f>
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D45">
         <v>1039</v>
@@ -20757,11 +21003,11 @@
       </c>
       <c r="B46" s="17">
         <f>mtl_newcases!C47</f>
-        <v>13952</v>
+        <v>13957</v>
       </c>
       <c r="C46" s="17">
         <f t="shared" ref="C46:C47" si="438">B46-B45</f>
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D46">
         <v>1078</v>
@@ -20897,11 +21143,11 @@
       </c>
       <c r="B47" s="17">
         <f>mtl_newcases!C48</f>
-        <v>14478</v>
+        <v>14482</v>
       </c>
       <c r="C47" s="17">
         <f t="shared" si="438"/>
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D47">
         <v>1146</v>
@@ -21037,7 +21283,7 @@
       </c>
       <c r="B48" s="17">
         <f>mtl_newcases!C49</f>
-        <v>15080</v>
+        <v>15084</v>
       </c>
       <c r="C48" s="17">
         <f t="shared" ref="C48" si="439">B48-B47</f>
@@ -21208,11 +21454,11 @@
       </c>
       <c r="B49" s="17">
         <f>mtl_newcases!C50</f>
-        <v>15698</v>
+        <v>15701</v>
       </c>
       <c r="C49" s="17">
         <f t="shared" ref="C49" si="461">B49-B48</f>
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D49">
         <v>1312</v>
@@ -21379,11 +21625,11 @@
       </c>
       <c r="B50" s="17">
         <f>mtl_newcases!C51</f>
-        <v>16235</v>
+        <v>16236</v>
       </c>
       <c r="C50" s="17">
         <f t="shared" ref="C50" si="483">B50-B49</f>
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D50">
         <v>1365</v>
@@ -21550,7 +21796,7 @@
       </c>
       <c r="B51" s="17">
         <f>mtl_newcases!C52</f>
-        <v>16584</v>
+        <v>16585</v>
       </c>
       <c r="C51" s="17">
         <f t="shared" ref="C51" si="505">B51-B50</f>
@@ -21721,11 +21967,11 @@
       </c>
       <c r="B52" s="17">
         <f>mtl_newcases!C53</f>
-        <v>17011</v>
+        <v>17008</v>
       </c>
       <c r="C52" s="17">
         <f t="shared" ref="C52" si="527">B52-B51</f>
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D52">
         <v>1488</v>
@@ -21892,11 +22138,11 @@
       </c>
       <c r="B53" s="17">
         <f>mtl_newcases!C54</f>
-        <v>17498</v>
+        <v>17492</v>
       </c>
       <c r="C53" s="17">
         <f t="shared" ref="C53" si="549">B53-B52</f>
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D53">
         <v>1562</v>
@@ -22063,11 +22309,11 @@
       </c>
       <c r="B54" s="17">
         <f>mtl_newcases!C55</f>
-        <v>18075</v>
+        <v>18068</v>
       </c>
       <c r="C54" s="17">
         <f t="shared" ref="C54:C55" si="571">B54-B53</f>
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D54">
         <v>1666</v>
@@ -22234,7 +22480,7 @@
       </c>
       <c r="B55" s="17">
         <f>mtl_newcases!C56</f>
-        <v>18516</v>
+        <v>18509</v>
       </c>
       <c r="C55" s="17">
         <f t="shared" si="571"/>
@@ -22405,11 +22651,11 @@
       </c>
       <c r="B56" s="17">
         <f>mtl_newcases!C57</f>
-        <v>18969</v>
+        <v>18955</v>
       </c>
       <c r="C56" s="17">
         <f t="shared" ref="C56" si="613">B56-B55</f>
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D56">
         <v>1760</v>
@@ -22576,11 +22822,11 @@
       </c>
       <c r="B57" s="17">
         <f>mtl_newcases!C58</f>
-        <v>19286</v>
+        <v>19271</v>
       </c>
       <c r="C57" s="17">
         <f t="shared" ref="C57" si="635">B57-B56</f>
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D57">
         <v>1863</v>
@@ -22747,11 +22993,11 @@
       </c>
       <c r="B58" s="17">
         <f>mtl_newcases!C59</f>
-        <v>19588</v>
+        <v>19576</v>
       </c>
       <c r="C58" s="17">
         <f t="shared" ref="C58" si="657">B58-B57</f>
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D58">
         <v>1919</v>
@@ -22918,7 +23164,7 @@
       </c>
       <c r="B59" s="17">
         <f>mtl_newcases!C60</f>
-        <v>19959</v>
+        <v>19947</v>
       </c>
       <c r="C59" s="17">
         <f t="shared" ref="C59" si="679">B59-B58</f>
@@ -23089,7 +23335,7 @@
       </c>
       <c r="B60" s="17">
         <f>mtl_newcases!C61</f>
-        <v>20398</v>
+        <v>20386</v>
       </c>
       <c r="C60" s="17">
         <f t="shared" ref="C60" si="701">B60-B59</f>
@@ -23260,11 +23506,11 @@
       </c>
       <c r="B61" s="17">
         <f>mtl_newcases!C62</f>
-        <v>20787</v>
+        <v>20783</v>
       </c>
       <c r="C61" s="17">
         <f t="shared" ref="C61" si="723">B61-B60</f>
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="D61">
         <v>2154</v>
@@ -23431,11 +23677,11 @@
       </c>
       <c r="B62" s="17">
         <f>mtl_newcases!C63</f>
-        <v>21160</v>
+        <v>21153</v>
       </c>
       <c r="C62" s="17">
         <f t="shared" ref="C62:C63" si="745">B62-B61</f>
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D62">
         <v>2182</v>
@@ -23571,11 +23817,11 @@
       </c>
       <c r="B63" s="17">
         <f>mtl_newcases!C64</f>
-        <v>21511</v>
+        <v>21508</v>
       </c>
       <c r="C63" s="17">
         <f t="shared" si="745"/>
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D63">
         <v>2234</v>
@@ -23742,11 +23988,11 @@
       </c>
       <c r="B64" s="17">
         <f>mtl_newcases!C65</f>
-        <v>21717</v>
+        <v>21777</v>
       </c>
       <c r="C64" s="17">
         <f t="shared" ref="C64" si="767">B64-B63</f>
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="D64">
         <v>2276</v>
@@ -23905,6 +24151,177 @@
       <c r="AS64" s="3">
         <f t="shared" ref="AS64" si="788">Y64*100/SUM($P64:$Y64)</f>
         <v>45.070414763836709</v>
+      </c>
+    </row>
+    <row r="65" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A65" s="19">
+        <v>43968</v>
+      </c>
+      <c r="B65" s="17">
+        <f>mtl_newcases!C66</f>
+        <v>22028</v>
+      </c>
+      <c r="C65" s="17">
+        <f t="shared" ref="C65" si="789">B65-B64</f>
+        <v>251</v>
+      </c>
+      <c r="D65">
+        <v>2296</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ref="E65" si="790">D65-D64</f>
+        <v>20</v>
+      </c>
+      <c r="F65" cm="1">
+        <f t="array" ref="F65:O65">TRANSPOSE(santemontreal!AX$57:AX$66)</f>
+        <v>223</v>
+      </c>
+      <c r="G65">
+        <v>199</v>
+      </c>
+      <c r="H65">
+        <v>697</v>
+      </c>
+      <c r="I65">
+        <v>2410</v>
+      </c>
+      <c r="J65">
+        <v>2713</v>
+      </c>
+      <c r="K65">
+        <v>3035</v>
+      </c>
+      <c r="L65">
+        <v>2798</v>
+      </c>
+      <c r="M65">
+        <v>1914</v>
+      </c>
+      <c r="N65">
+        <v>2058</v>
+      </c>
+      <c r="O65">
+        <v>5907</v>
+      </c>
+      <c r="P65" s="18">
+        <f>F65/(age_distribution_2016!$B$2/100000)</f>
+        <v>203.20758155640607</v>
+      </c>
+      <c r="Q65" s="18">
+        <f>G65/(age_distribution_2016!$B$3/100000)</f>
+        <v>190.64041768453322</v>
+      </c>
+      <c r="R65" s="18">
+        <f>H65/(age_distribution_2016!$B$4/100000)</f>
+        <v>370.38021096261656</v>
+      </c>
+      <c r="S65" s="18">
+        <f>I65/(age_distribution_2016!$B$5/100000)</f>
+        <v>821.89444965470204</v>
+      </c>
+      <c r="T65" s="18">
+        <f>J65/(age_distribution_2016!$B$6/100000)</f>
+        <v>905.31409026445317</v>
+      </c>
+      <c r="U65" s="18">
+        <f>K65/(age_distribution_2016!$B$7/100000)</f>
+        <v>1192.6515374791236</v>
+      </c>
+      <c r="V65" s="18">
+        <f>L65/(age_distribution_2016!$B$8/100000)</f>
+        <v>1080.830516658619</v>
+      </c>
+      <c r="W65" s="18">
+        <f>M65/(age_distribution_2016!$B$9/100000)</f>
+        <v>933.63576498134182</v>
+      </c>
+      <c r="X65" s="18">
+        <f>N65/(age_distribution_2016!$B$10/100000)</f>
+        <v>1586.9833436150525</v>
+      </c>
+      <c r="Y65" s="18">
+        <f>O65/(age_distribution_2016!$B$11/100000)</f>
+        <v>5978.442386518901</v>
+      </c>
+      <c r="Z65" s="3">
+        <f t="shared" ref="Z65" si="791">F65*100/SUM($F65:$O65)</f>
+        <v>1.015760225926938</v>
+      </c>
+      <c r="AA65" s="3">
+        <f t="shared" ref="AA65" si="792">G65*100/SUM($F65:$O65)</f>
+        <v>0.90644073972852324</v>
+      </c>
+      <c r="AB65" s="3">
+        <f t="shared" ref="AB65" si="793">H65*100/SUM($F65:$O65)</f>
+        <v>3.1748200783456317</v>
+      </c>
+      <c r="AC65" s="3">
+        <f t="shared" ref="AC65" si="794">I65*100/SUM($F65:$O65)</f>
+        <v>10.977498405757492</v>
+      </c>
+      <c r="AD65" s="3">
+        <f t="shared" ref="AD65" si="795">J65*100/SUM($F65:$O65)</f>
+        <v>12.357656919012481</v>
+      </c>
+      <c r="AE65" s="3">
+        <f t="shared" ref="AE65" si="796">K65*100/SUM($F65:$O65)</f>
+        <v>13.824360025507881</v>
+      </c>
+      <c r="AF65" s="3">
+        <f t="shared" ref="AF65" si="797">L65*100/SUM($F65:$O65)</f>
+        <v>12.744830099298534</v>
+      </c>
+      <c r="AG65" s="3">
+        <f t="shared" ref="AG65" si="798">M65*100/SUM($F65:$O65)</f>
+        <v>8.7182290243235858</v>
+      </c>
+      <c r="AH65" s="3">
+        <f t="shared" ref="AH65" si="799">N65*100/SUM($F65:$O65)</f>
+        <v>9.3741459415140742</v>
+      </c>
+      <c r="AI65" s="3">
+        <f t="shared" ref="AI65" si="800">O65*100/SUM($F65:$O65)</f>
+        <v>26.906258540584858</v>
+      </c>
+      <c r="AJ65" s="3">
+        <f t="shared" ref="AJ65" si="801">P65*100/SUM($P65:$Y65)</f>
+        <v>1.5320256587381225</v>
+      </c>
+      <c r="AK65" s="3">
+        <f t="shared" ref="AK65" si="802">Q65*100/SUM($P65:$Y65)</f>
+        <v>1.4372791076409051</v>
+      </c>
+      <c r="AL65" s="3">
+        <f t="shared" ref="AL65" si="803">R65*100/SUM($P65:$Y65)</f>
+        <v>2.7923760636168016</v>
+      </c>
+      <c r="AM65" s="3">
+        <f t="shared" ref="AM65" si="804">S65*100/SUM($P65:$Y65)</f>
+        <v>6.1964390107951495</v>
+      </c>
+      <c r="AN65" s="3">
+        <f t="shared" ref="AN65" si="805">T65*100/SUM($P65:$Y65)</f>
+        <v>6.8253576214001201</v>
+      </c>
+      <c r="AO65" s="3">
+        <f t="shared" ref="AO65" si="806">U65*100/SUM($P65:$Y65)</f>
+        <v>8.9916564301234239</v>
+      </c>
+      <c r="AP65" s="3">
+        <f t="shared" ref="AP65" si="807">V65*100/SUM($P65:$Y65)</f>
+        <v>8.1486137061699875</v>
+      </c>
+      <c r="AQ65" s="3">
+        <f t="shared" ref="AQ65" si="808">W65*100/SUM($P65:$Y65)</f>
+        <v>7.0388808178890478</v>
+      </c>
+      <c r="AR65" s="3">
+        <f t="shared" ref="AR65" si="809">X65*100/SUM($P65:$Y65)</f>
+        <v>11.964608720730247</v>
+      </c>
+      <c r="AS65" s="3">
+        <f t="shared" ref="AS65" si="810">Y65*100/SUM($P65:$Y65)</f>
+        <v>45.072762862896205</v>
       </c>
     </row>
   </sheetData>
@@ -23914,11 +24331,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G82" sqref="G82"/>
+      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24059,7 +24476,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F76" si="1">E4-E3</f>
+        <f t="shared" ref="F4:F77" si="1">E4-E3</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -24072,7 +24489,7 @@
         <v>260</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J76" si="2">I4-I3</f>
+        <f t="shared" ref="J4:J77" si="2">I4-I3</f>
         <v>18</v>
       </c>
       <c r="K4" t="s">
@@ -26329,7 +26746,7 @@
         <v>33417</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:C76" si="4">B64-B63</f>
+        <f t="shared" ref="C64:C77" si="4">B64-B63</f>
         <v>794</v>
       </c>
       <c r="D64">
@@ -26813,6 +27230,44 @@
       </c>
       <c r="K76">
         <v>11754</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B77">
+        <v>43627</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="4"/>
+        <v>707</v>
+      </c>
+      <c r="D77">
+        <v>27986</v>
+      </c>
+      <c r="E77">
+        <v>3596</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="G77">
+        <v>1771</v>
+      </c>
+      <c r="H77">
+        <v>179</v>
+      </c>
+      <c r="I77">
+        <v>296991</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="2"/>
+        <v>6799</v>
+      </c>
+      <c r="K77">
+        <v>12045</v>
       </c>
     </row>
   </sheetData>
@@ -26822,11 +27277,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27413,11 +27868,11 @@
         <v>43936</v>
       </c>
       <c r="B34">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>8062</v>
+        <v>8065</v>
       </c>
       <c r="E34" s="19">
         <v>43936</v>
@@ -27427,7 +27882,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G36" si="6">C34-F34</f>
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -27435,11 +27890,11 @@
         <v>43937</v>
       </c>
       <c r="B35">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>8554</v>
+        <v>8558</v>
       </c>
       <c r="E35" s="19">
         <v>43937</v>
@@ -27449,7 +27904,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>794</v>
+        <v>798</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -27461,7 +27916,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
-        <v>9125</v>
+        <v>9129</v>
       </c>
       <c r="E36" s="19">
         <v>43938</v>
@@ -27471,7 +27926,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>1073</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -27483,7 +27938,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
-        <v>9449</v>
+        <v>9453</v>
       </c>
       <c r="E37" s="19">
         <v>43939</v>
@@ -27493,7 +27948,7 @@
       </c>
       <c r="G37">
         <f t="shared" ref="G37" si="7">C37-F37</f>
-        <v>992</v>
+        <v>996</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -27501,11 +27956,11 @@
         <v>43940</v>
       </c>
       <c r="B38" s="23">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C39" si="8">C37+B38</f>
-        <v>9877</v>
+        <v>9882</v>
       </c>
       <c r="E38" s="19">
         <v>43940</v>
@@ -27515,7 +27970,7 @@
       </c>
       <c r="G38">
         <f t="shared" ref="G38" si="9">C38-F38</f>
-        <v>913</v>
+        <v>918</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -27523,11 +27978,11 @@
         <v>43941</v>
       </c>
       <c r="B39">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C39">
         <f t="shared" si="8"/>
-        <v>10364</v>
+        <v>10368</v>
       </c>
       <c r="E39" s="19">
         <v>43941</v>
@@ -27537,7 +27992,7 @@
       </c>
       <c r="G39">
         <f t="shared" ref="G39" si="10">C39-F39</f>
-        <v>1016</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -27545,11 +28000,11 @@
         <v>43942</v>
       </c>
       <c r="B40">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40" si="11">C39+B40</f>
-        <v>10826</v>
+        <v>10831</v>
       </c>
       <c r="E40" s="19">
         <v>43942</v>
@@ -27559,7 +28014,7 @@
       </c>
       <c r="G40">
         <f t="shared" ref="G40" si="12">C40-F40</f>
-        <v>970</v>
+        <v>975</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -27571,7 +28026,7 @@
       </c>
       <c r="C41">
         <f t="shared" ref="C41:C52" si="13">C40+B41</f>
-        <v>11368</v>
+        <v>11373</v>
       </c>
       <c r="E41" s="19">
         <v>43943</v>
@@ -27581,7 +28036,7 @@
       </c>
       <c r="G41">
         <f t="shared" ref="G41" si="14">C41-F41</f>
-        <v>993</v>
+        <v>998</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -27589,11 +28044,11 @@
         <v>43944</v>
       </c>
       <c r="B42" s="23">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C42">
         <f t="shared" si="13"/>
-        <v>11895</v>
+        <v>11901</v>
       </c>
       <c r="E42" s="19">
         <v>43944</v>
@@ -27603,7 +28058,7 @@
       </c>
       <c r="G42">
         <f t="shared" ref="G42:G44" si="15">C42-F42</f>
-        <v>998</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -27611,11 +28066,11 @@
         <v>43945</v>
       </c>
       <c r="B43" s="23">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C43">
         <f t="shared" si="13"/>
-        <v>12392</v>
+        <v>12399</v>
       </c>
       <c r="E43" s="19">
         <v>43945</v>
@@ -27625,7 +28080,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="15"/>
-        <v>1231</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -27637,7 +28092,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="13"/>
-        <v>12711</v>
+        <v>12718</v>
       </c>
       <c r="E44" s="19">
         <v>43946</v>
@@ -27647,7 +28102,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="15"/>
-        <v>1090</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -27659,7 +28114,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="13"/>
-        <v>13013</v>
+        <v>13020</v>
       </c>
       <c r="E45" s="19">
         <v>43947</v>
@@ -27669,7 +28124,7 @@
       </c>
       <c r="G45">
         <f>C45-F45</f>
-        <v>979</v>
+        <v>986</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -27677,11 +28132,11 @@
         <v>43948</v>
       </c>
       <c r="B46" s="23">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C46">
         <f t="shared" si="13"/>
-        <v>13478</v>
+        <v>13484</v>
       </c>
       <c r="E46" s="19">
         <v>43948</v>
@@ -27691,7 +28146,7 @@
       </c>
       <c r="G46">
         <f>C46-F46</f>
-        <v>991</v>
+        <v>997</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -27699,11 +28154,11 @@
         <v>43949</v>
       </c>
       <c r="B47" s="23">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C47">
         <f t="shared" si="13"/>
-        <v>13952</v>
+        <v>13957</v>
       </c>
       <c r="E47" s="19">
         <v>43949</v>
@@ -27713,7 +28168,7 @@
       </c>
       <c r="G47">
         <f t="shared" ref="G47:G52" si="16">C47-F47</f>
-        <v>1141</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -27721,11 +28176,11 @@
         <v>43950</v>
       </c>
       <c r="B48" s="23">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C48">
         <f t="shared" si="13"/>
-        <v>14478</v>
+        <v>14482</v>
       </c>
       <c r="E48" s="19">
         <v>43950</v>
@@ -27735,7 +28190,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="16"/>
-        <v>1154</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -27747,7 +28202,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="13"/>
-        <v>15080</v>
+        <v>15084</v>
       </c>
       <c r="E49" s="19">
         <v>43951</v>
@@ -27757,7 +28212,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="16"/>
-        <v>1101</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -27765,11 +28220,11 @@
         <v>43952</v>
       </c>
       <c r="B50" s="23">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C50">
         <f t="shared" si="13"/>
-        <v>15698</v>
+        <v>15701</v>
       </c>
       <c r="E50" s="19">
         <v>43952</v>
@@ -27779,7 +28234,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="16"/>
-        <v>1099</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -27787,11 +28242,11 @@
         <v>43953</v>
       </c>
       <c r="B51" s="23">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C51">
         <f t="shared" si="13"/>
-        <v>16235</v>
+        <v>16236</v>
       </c>
       <c r="E51" s="19">
         <v>43953</v>
@@ -27801,7 +28256,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="16"/>
-        <v>-16</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -27813,7 +28268,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="13"/>
-        <v>16584</v>
+        <v>16585</v>
       </c>
       <c r="E52" s="19">
         <v>43954</v>
@@ -27823,7 +28278,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="16"/>
-        <v>-22</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -27831,11 +28286,11 @@
         <v>43955</v>
       </c>
       <c r="B53" s="23">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C53">
         <f t="shared" ref="C53" si="17">C52+B53</f>
-        <v>17011</v>
+        <v>17008</v>
       </c>
       <c r="E53" s="19">
         <v>43955</v>
@@ -27845,7 +28300,7 @@
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="18">C53-F53</f>
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -27853,11 +28308,11 @@
         <v>43956</v>
       </c>
       <c r="B54" s="23">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C54">
         <f t="shared" ref="C54:C61" si="19">C53+B54</f>
-        <v>17498</v>
+        <v>17492</v>
       </c>
       <c r="E54" s="19">
         <v>43956</v>
@@ -27867,7 +28322,7 @@
       </c>
       <c r="G54">
         <f t="shared" ref="G54" si="20">C54-F54</f>
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -27875,11 +28330,11 @@
         <v>43957</v>
       </c>
       <c r="B55" s="23">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C55">
         <f t="shared" si="19"/>
-        <v>18075</v>
+        <v>18068</v>
       </c>
       <c r="E55" s="19">
         <v>43957</v>
@@ -27889,7 +28344,7 @@
       </c>
       <c r="G55">
         <f t="shared" ref="G55:G58" si="21">C55-F55</f>
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -27901,7 +28356,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="19"/>
-        <v>18516</v>
+        <v>18509</v>
       </c>
       <c r="E56" s="19">
         <v>43958</v>
@@ -27911,7 +28366,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="21"/>
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -27919,11 +28374,11 @@
         <v>43959</v>
       </c>
       <c r="B57" s="23">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C57">
         <f t="shared" si="19"/>
-        <v>18969</v>
+        <v>18955</v>
       </c>
       <c r="E57" s="19">
         <v>43959</v>
@@ -27933,7 +28388,7 @@
       </c>
       <c r="G57">
         <f t="shared" si="21"/>
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -27941,11 +28396,11 @@
         <v>43960</v>
       </c>
       <c r="B58" s="23">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C58">
         <f t="shared" si="19"/>
-        <v>19286</v>
+        <v>19271</v>
       </c>
       <c r="E58" s="19">
         <v>43960</v>
@@ -27955,7 +28410,7 @@
       </c>
       <c r="G58">
         <f t="shared" si="21"/>
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -27963,11 +28418,11 @@
         <v>43961</v>
       </c>
       <c r="B59" s="23">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C59">
         <f t="shared" si="19"/>
-        <v>19588</v>
+        <v>19576</v>
       </c>
       <c r="E59" s="19">
         <v>43961</v>
@@ -27977,7 +28432,7 @@
       </c>
       <c r="G59">
         <f t="shared" ref="G59" si="22">C59-F59</f>
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -27989,7 +28444,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="19"/>
-        <v>19959</v>
+        <v>19947</v>
       </c>
       <c r="E60" s="19">
         <v>43962</v>
@@ -27999,7 +28454,7 @@
       </c>
       <c r="G60">
         <f t="shared" ref="G60:G64" si="23">C60-F60</f>
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -28011,7 +28466,7 @@
       </c>
       <c r="C61">
         <f t="shared" si="19"/>
-        <v>20398</v>
+        <v>20386</v>
       </c>
       <c r="E61" s="19">
         <v>43963</v>
@@ -28021,7 +28476,7 @@
       </c>
       <c r="G61">
         <f t="shared" si="23"/>
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -28029,11 +28484,11 @@
         <v>43964</v>
       </c>
       <c r="B62" s="23">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C62">
         <f t="shared" ref="C62:C64" si="24">C61+B62</f>
-        <v>20787</v>
+        <v>20783</v>
       </c>
       <c r="E62" s="19">
         <v>43964</v>
@@ -28043,7 +28498,7 @@
       </c>
       <c r="G62">
         <f t="shared" si="23"/>
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -28051,11 +28506,11 @@
         <v>43965</v>
       </c>
       <c r="B63" s="23">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C63">
         <f t="shared" si="24"/>
-        <v>21160</v>
+        <v>21153</v>
       </c>
       <c r="E63" s="19">
         <v>43965</v>
@@ -28065,7 +28520,7 @@
       </c>
       <c r="G63">
         <f t="shared" si="23"/>
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -28073,11 +28528,11 @@
         <v>43966</v>
       </c>
       <c r="B64" s="23">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C64">
         <f t="shared" si="24"/>
-        <v>21511</v>
+        <v>21508</v>
       </c>
       <c r="E64" s="19">
         <v>43966</v>
@@ -28087,7 +28542,7 @@
       </c>
       <c r="G64">
         <f t="shared" si="23"/>
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -28095,11 +28550,11 @@
         <v>43967</v>
       </c>
       <c r="B65" s="24">
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="C65">
-        <f t="shared" ref="C65" si="25">C64+B65</f>
-        <v>21717</v>
+        <f t="shared" ref="C65:C66" si="25">C64+B65</f>
+        <v>21777</v>
       </c>
       <c r="E65" s="19">
         <v>43967</v>
@@ -28109,6 +28564,28 @@
       </c>
       <c r="G65">
         <f t="shared" ref="G65" si="26">C65-F65</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="19">
+        <v>43968</v>
+      </c>
+      <c r="B66" s="23">
+        <v>251</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="25"/>
+        <v>22028</v>
+      </c>
+      <c r="E66" s="19">
+        <v>43968</v>
+      </c>
+      <c r="F66">
+        <v>22028</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ref="G66" si="27">C66-F66</f>
         <v>0</v>
       </c>
     </row>
@@ -28122,9 +28599,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH118"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW2" sqref="AW2:AW35"/>
+      <selection pane="topRight" activeCell="AX2" sqref="AX2:AX35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28251,39 +28728,41 @@
         <v>294</v>
       </c>
       <c r="AM1" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="AN1" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="AQ1" s="5" t="s">
-        <v>300</v>
-      </c>
       <c r="AR1" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS1" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="AV1" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="AU1" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>319</v>
-      </c>
       <c r="AW1" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="AX1" s="5"/>
+        <v>314</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>321</v>
+      </c>
       <c r="AY1" s="5"/>
       <c r="AZ1" s="5"/>
       <c r="BA1" s="5"/>
@@ -28599,7 +29078,9 @@
       <c r="AW2" s="7">
         <v>1782</v>
       </c>
-      <c r="AX2" s="7"/>
+      <c r="AX2" s="7">
+        <v>1817</v>
+      </c>
       <c r="AY2" s="7"/>
       <c r="AZ2" s="7"/>
       <c r="BA2" s="7"/>
@@ -28915,7 +29396,9 @@
       <c r="AW3" s="9">
         <v>528</v>
       </c>
-      <c r="AX3" s="9"/>
+      <c r="AX3" s="9">
+        <v>537</v>
+      </c>
       <c r="AY3" s="9"/>
       <c r="AZ3" s="9"/>
       <c r="BA3" s="9"/>
@@ -29231,7 +29714,9 @@
       <c r="AW4" s="7">
         <v>16</v>
       </c>
-      <c r="AX4" s="7"/>
+      <c r="AX4" s="7">
+        <v>16</v>
+      </c>
       <c r="AY4" s="7"/>
       <c r="AZ4" s="7"/>
       <c r="BA4" s="7"/>
@@ -29547,7 +30032,9 @@
       <c r="AW5" s="9">
         <v>49</v>
       </c>
-      <c r="AX5" s="9"/>
+      <c r="AX5" s="9">
+        <v>50</v>
+      </c>
       <c r="AY5" s="9"/>
       <c r="AZ5" s="9"/>
       <c r="BA5" s="9"/>
@@ -29863,7 +30350,9 @@
       <c r="AW6" s="7">
         <v>1752</v>
       </c>
-      <c r="AX6" s="7"/>
+      <c r="AX6" s="7">
+        <v>1787</v>
+      </c>
       <c r="AY6" s="7"/>
       <c r="AZ6" s="7"/>
       <c r="BA6" s="7"/>
@@ -30179,7 +30668,9 @@
       <c r="AW7" s="9">
         <v>425</v>
       </c>
-      <c r="AX7" s="9"/>
+      <c r="AX7" s="9">
+        <v>437</v>
+      </c>
       <c r="AY7" s="9"/>
       <c r="AZ7" s="9"/>
       <c r="BA7" s="9"/>
@@ -30495,7 +30986,9 @@
       <c r="AW8" s="7">
         <v>331</v>
       </c>
-      <c r="AX8" s="7"/>
+      <c r="AX8" s="7">
+        <v>339</v>
+      </c>
       <c r="AY8" s="7"/>
       <c r="AZ8" s="7"/>
       <c r="BA8" s="7"/>
@@ -30811,7 +31304,9 @@
       <c r="AW9" s="9">
         <v>161</v>
       </c>
-      <c r="AX9" s="9"/>
+      <c r="AX9" s="9">
+        <v>163</v>
+      </c>
       <c r="AY9" s="9"/>
       <c r="AZ9" s="9"/>
       <c r="BA9" s="9"/>
@@ -31127,7 +31622,9 @@
       <c r="AW10" s="7">
         <v>50</v>
       </c>
-      <c r="AX10" s="7"/>
+      <c r="AX10" s="7">
+        <v>50</v>
+      </c>
       <c r="AY10" s="7"/>
       <c r="AZ10" s="7"/>
       <c r="BA10" s="7"/>
@@ -31443,7 +31940,9 @@
       <c r="AW11" s="9">
         <v>92</v>
       </c>
-      <c r="AX11" s="9"/>
+      <c r="AX11" s="9">
+        <v>93</v>
+      </c>
       <c r="AY11" s="9"/>
       <c r="AZ11" s="9"/>
       <c r="BA11" s="9"/>
@@ -31759,7 +32258,9 @@
       <c r="AW12" s="7">
         <v>455</v>
       </c>
-      <c r="AX12" s="7"/>
+      <c r="AX12" s="7">
+        <v>465</v>
+      </c>
       <c r="AY12" s="7"/>
       <c r="AZ12" s="7"/>
       <c r="BA12" s="7"/>
@@ -32075,7 +32576,9 @@
       <c r="AW13" s="9">
         <v>989</v>
       </c>
-      <c r="AX13" s="9"/>
+      <c r="AX13" s="9">
+        <v>996</v>
+      </c>
       <c r="AY13" s="9"/>
       <c r="AZ13" s="9"/>
       <c r="BA13" s="9"/>
@@ -32391,7 +32894,9 @@
       <c r="AW14" s="7">
         <v>169</v>
       </c>
-      <c r="AX14" s="7"/>
+      <c r="AX14" s="7">
+        <v>172</v>
+      </c>
       <c r="AY14" s="7"/>
       <c r="AZ14" s="7"/>
       <c r="BA14" s="7"/>
@@ -32707,7 +33212,9 @@
       <c r="AW15" s="9">
         <v>1779</v>
       </c>
-      <c r="AX15" s="9"/>
+      <c r="AX15" s="9">
+        <v>1825</v>
+      </c>
       <c r="AY15" s="9"/>
       <c r="AZ15" s="9"/>
       <c r="BA15" s="9"/>
@@ -33023,7 +33530,9 @@
       <c r="AW16" s="7">
         <v>31</v>
       </c>
-      <c r="AX16" s="7"/>
+      <c r="AX16" s="7">
+        <v>32</v>
+      </c>
       <c r="AY16" s="7"/>
       <c r="AZ16" s="7"/>
       <c r="BA16" s="7"/>
@@ -33339,7 +33848,9 @@
       <c r="AW17" s="9">
         <v>2004</v>
       </c>
-      <c r="AX17" s="9"/>
+      <c r="AX17" s="9">
+        <v>2028</v>
+      </c>
       <c r="AY17" s="9"/>
       <c r="AZ17" s="9"/>
       <c r="BA17" s="9"/>
@@ -33655,7 +34166,9 @@
       <c r="AW18" s="7">
         <v>17</v>
       </c>
-      <c r="AX18" s="7"/>
+      <c r="AX18" s="7">
+        <v>17</v>
+      </c>
       <c r="AY18" s="7"/>
       <c r="AZ18" s="7"/>
       <c r="BA18" s="7"/>
@@ -33971,7 +34484,9 @@
       <c r="AW19" s="9">
         <v>231</v>
       </c>
-      <c r="AX19" s="9"/>
+      <c r="AX19" s="9">
+        <v>232</v>
+      </c>
       <c r="AY19" s="9"/>
       <c r="AZ19" s="9"/>
       <c r="BA19" s="9"/>
@@ -34287,7 +34802,9 @@
       <c r="AW20" s="7">
         <v>235</v>
       </c>
-      <c r="AX20" s="7"/>
+      <c r="AX20" s="7">
+        <v>235</v>
+      </c>
       <c r="AY20" s="7"/>
       <c r="AZ20" s="7"/>
       <c r="BA20" s="7"/>
@@ -34603,7 +35120,9 @@
       <c r="AW21" s="9">
         <v>433</v>
       </c>
-      <c r="AX21" s="9"/>
+      <c r="AX21" s="9">
+        <v>439</v>
+      </c>
       <c r="AY21" s="9"/>
       <c r="AZ21" s="9"/>
       <c r="BA21" s="9"/>
@@ -34919,7 +35438,9 @@
       <c r="AW22" s="7">
         <v>762</v>
       </c>
-      <c r="AX22" s="7"/>
+      <c r="AX22" s="7">
+        <v>765</v>
+      </c>
       <c r="AY22" s="7"/>
       <c r="AZ22" s="7"/>
       <c r="BA22" s="7"/>
@@ -35235,7 +35756,9 @@
       <c r="AW23" s="9">
         <v>164</v>
       </c>
-      <c r="AX23" s="9"/>
+      <c r="AX23" s="9">
+        <v>166</v>
+      </c>
       <c r="AY23" s="9"/>
       <c r="AZ23" s="9"/>
       <c r="BA23" s="9"/>
@@ -35551,7 +36074,9 @@
       <c r="AW24" s="7">
         <v>1705</v>
       </c>
-      <c r="AX24" s="7"/>
+      <c r="AX24" s="7">
+        <v>1730</v>
+      </c>
       <c r="AY24" s="7"/>
       <c r="AZ24" s="7"/>
       <c r="BA24" s="7"/>
@@ -35867,7 +36392,9 @@
       <c r="AW25" s="9">
         <v>1217</v>
       </c>
-      <c r="AX25" s="9"/>
+      <c r="AX25" s="9">
+        <v>1231</v>
+      </c>
       <c r="AY25" s="9"/>
       <c r="AZ25" s="9"/>
       <c r="BA25" s="9"/>
@@ -36183,7 +36710,9 @@
       <c r="AW26" s="7">
         <v>17</v>
       </c>
-      <c r="AX26" s="7"/>
+      <c r="AX26" s="7">
+        <v>18</v>
+      </c>
       <c r="AY26" s="7"/>
       <c r="AZ26" s="7"/>
       <c r="BA26" s="7"/>
@@ -36499,7 +37028,9 @@
       <c r="AW27" s="9">
         <v>790</v>
       </c>
-      <c r="AX27" s="9"/>
+      <c r="AX27" s="9">
+        <v>806</v>
+      </c>
       <c r="AY27" s="9"/>
       <c r="AZ27" s="9"/>
       <c r="BA27" s="9"/>
@@ -36815,7 +37346,9 @@
       <c r="AW28" s="7">
         <v>867</v>
       </c>
-      <c r="AX28" s="7"/>
+      <c r="AX28" s="7">
+        <v>876</v>
+      </c>
       <c r="AY28" s="7"/>
       <c r="AZ28" s="7"/>
       <c r="BA28" s="7"/>
@@ -37131,7 +37664,9 @@
       <c r="AW29" s="20">
         <v>2</v>
       </c>
-      <c r="AX29" s="22"/>
+      <c r="AX29" s="20">
+        <v>2</v>
+      </c>
       <c r="AY29" s="22"/>
       <c r="AZ29" s="22"/>
       <c r="BA29" s="22"/>
@@ -37447,7 +37982,9 @@
       <c r="AW30" s="7">
         <v>757</v>
       </c>
-      <c r="AX30" s="7"/>
+      <c r="AX30" s="7">
+        <v>764</v>
+      </c>
       <c r="AY30" s="7"/>
       <c r="AZ30" s="7"/>
       <c r="BA30" s="7"/>
@@ -37763,7 +38300,9 @@
       <c r="AW31" s="9">
         <v>820</v>
       </c>
-      <c r="AX31" s="9"/>
+      <c r="AX31" s="9">
+        <v>826</v>
+      </c>
       <c r="AY31" s="9"/>
       <c r="AZ31" s="9"/>
       <c r="BA31" s="9"/>
@@ -38079,7 +38618,9 @@
       <c r="AW32" s="7">
         <v>593</v>
       </c>
-      <c r="AX32" s="7"/>
+      <c r="AX32" s="7">
+        <v>611</v>
+      </c>
       <c r="AY32" s="7"/>
       <c r="AZ32" s="7"/>
       <c r="BA32" s="7"/>
@@ -38395,7 +38936,9 @@
       <c r="AW33" s="9">
         <v>1536</v>
       </c>
-      <c r="AX33" s="9"/>
+      <c r="AX33" s="9">
+        <v>1549</v>
+      </c>
       <c r="AY33" s="9"/>
       <c r="AZ33" s="9"/>
       <c r="BA33" s="9"/>
@@ -38711,7 +39254,9 @@
       <c r="AW34" s="7">
         <v>157</v>
       </c>
-      <c r="AX34" s="7"/>
+      <c r="AX34" s="7">
+        <v>159</v>
+      </c>
       <c r="AY34" s="7"/>
       <c r="AZ34" s="7"/>
       <c r="BA34" s="7"/>
@@ -39027,7 +39572,9 @@
       <c r="AW35" s="9">
         <v>802</v>
       </c>
-      <c r="AX35" s="9"/>
+      <c r="AX35" s="9">
+        <v>796</v>
+      </c>
       <c r="AY35" s="9"/>
       <c r="AZ35" s="9"/>
       <c r="BA35" s="9"/>
@@ -39343,7 +39890,9 @@
       <c r="AW36" s="11">
         <v>21717</v>
       </c>
-      <c r="AX36" s="11"/>
+      <c r="AX36" s="11">
+        <v>22028</v>
+      </c>
       <c r="AY36" s="11"/>
       <c r="AZ36" s="11"/>
       <c r="BA36" s="11"/>
@@ -43814,7 +44363,9 @@
       <c r="AW57" s="7">
         <v>220</v>
       </c>
-      <c r="AX57" s="7"/>
+      <c r="AX57" s="7">
+        <v>223</v>
+      </c>
       <c r="AY57" s="7"/>
       <c r="AZ57" s="7"/>
       <c r="BA57" s="7"/>
@@ -44128,7 +44679,9 @@
       <c r="AW58" s="9">
         <v>194</v>
       </c>
-      <c r="AX58" s="9"/>
+      <c r="AX58" s="9">
+        <v>199</v>
+      </c>
       <c r="AY58" s="9"/>
       <c r="AZ58" s="9"/>
       <c r="BA58" s="9"/>
@@ -44442,7 +44995,9 @@
       <c r="AW59" s="7">
         <v>682</v>
       </c>
-      <c r="AX59" s="7"/>
+      <c r="AX59" s="7">
+        <v>697</v>
+      </c>
       <c r="AY59" s="7"/>
       <c r="AZ59" s="7"/>
       <c r="BA59" s="7"/>
@@ -44756,7 +45311,9 @@
       <c r="AW60" s="9">
         <v>2369</v>
       </c>
-      <c r="AX60" s="9"/>
+      <c r="AX60" s="9">
+        <v>2410</v>
+      </c>
       <c r="AY60" s="9"/>
       <c r="AZ60" s="9"/>
       <c r="BA60" s="9"/>
@@ -45070,7 +45627,9 @@
       <c r="AW61" s="7">
         <v>2680</v>
       </c>
-      <c r="AX61" s="7"/>
+      <c r="AX61" s="7">
+        <v>2713</v>
+      </c>
       <c r="AY61" s="7"/>
       <c r="AZ61" s="7"/>
       <c r="BA61" s="7"/>
@@ -45384,7 +45943,9 @@
       <c r="AW62" s="9">
         <v>2991</v>
       </c>
-      <c r="AX62" s="9"/>
+      <c r="AX62" s="9">
+        <v>3035</v>
+      </c>
       <c r="AY62" s="9"/>
       <c r="AZ62" s="9"/>
       <c r="BA62" s="9"/>
@@ -45698,7 +46259,9 @@
       <c r="AW63" s="7">
         <v>2762</v>
       </c>
-      <c r="AX63" s="7"/>
+      <c r="AX63" s="7">
+        <v>2798</v>
+      </c>
       <c r="AY63" s="7"/>
       <c r="AZ63" s="7"/>
       <c r="BA63" s="7"/>
@@ -46012,7 +46575,9 @@
       <c r="AW64" s="9">
         <v>1880</v>
       </c>
-      <c r="AX64" s="9"/>
+      <c r="AX64" s="9">
+        <v>1914</v>
+      </c>
       <c r="AY64" s="9"/>
       <c r="AZ64" s="9"/>
       <c r="BA64" s="9"/>
@@ -46326,7 +46891,9 @@
       <c r="AW65" s="7">
         <v>2039</v>
       </c>
-      <c r="AX65" s="7"/>
+      <c r="AX65" s="7">
+        <v>2058</v>
+      </c>
       <c r="AY65" s="7"/>
       <c r="AZ65" s="7"/>
       <c r="BA65" s="7"/>
@@ -46640,7 +47207,9 @@
       <c r="AW66" s="9">
         <v>5823</v>
       </c>
-      <c r="AX66" s="9"/>
+      <c r="AX66" s="9">
+        <v>5907</v>
+      </c>
       <c r="AY66" s="9"/>
       <c r="AZ66" s="9"/>
       <c r="BA66" s="9"/>
@@ -46954,7 +47523,9 @@
       <c r="AW67" s="7">
         <v>77</v>
       </c>
-      <c r="AX67" s="7"/>
+      <c r="AX67" s="7">
+        <v>74</v>
+      </c>
       <c r="AY67" s="7"/>
       <c r="AZ67" s="7"/>
       <c r="BA67" s="7"/>
@@ -47268,7 +47839,9 @@
       <c r="AW68" s="15">
         <v>21717</v>
       </c>
-      <c r="AX68" s="15"/>
+      <c r="AX68" s="15">
+        <v>22028</v>
+      </c>
       <c r="AY68" s="15"/>
       <c r="AZ68" s="15"/>
       <c r="BA68" s="15"/>
@@ -47923,6 +48496,9 @@
       <c r="AW71">
         <v>244</v>
       </c>
+      <c r="AX71">
+        <v>245</v>
+      </c>
     </row>
     <row r="72" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="8" t="s">
@@ -47973,6 +48549,9 @@
       <c r="AW72">
         <v>34</v>
       </c>
+      <c r="AX72">
+        <v>34</v>
+      </c>
     </row>
     <row r="73" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
@@ -48023,6 +48602,9 @@
       <c r="AW73">
         <v>0</v>
       </c>
+      <c r="AX73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="8" t="s">
@@ -48073,6 +48655,9 @@
       <c r="AW74">
         <v>6</v>
       </c>
+      <c r="AX74">
+        <v>6</v>
+      </c>
     </row>
     <row r="75" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="6" t="s">
@@ -48123,6 +48708,9 @@
       <c r="AW75">
         <v>189</v>
       </c>
+      <c r="AX75">
+        <v>190</v>
+      </c>
     </row>
     <row r="76" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="8" t="s">
@@ -48173,6 +48761,9 @@
       <c r="AW76">
         <v>24</v>
       </c>
+      <c r="AX76">
+        <v>24</v>
+      </c>
     </row>
     <row r="77" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="6" t="s">
@@ -48223,6 +48814,9 @@
       <c r="AW77">
         <v>42</v>
       </c>
+      <c r="AX77">
+        <v>43</v>
+      </c>
     </row>
     <row r="78" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="8" t="s">
@@ -48273,6 +48867,9 @@
       <c r="AW78">
         <v>30</v>
       </c>
+      <c r="AX78">
+        <v>30</v>
+      </c>
     </row>
     <row r="79" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
@@ -48323,6 +48920,9 @@
       <c r="AW79">
         <v>0</v>
       </c>
+      <c r="AX79" s="24" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="80" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="8" t="s">
@@ -48373,8 +48973,11 @@
       <c r="AW80">
         <v>10</v>
       </c>
+      <c r="AX80">
+        <v>10</v>
+      </c>
     </row>
-    <row r="81" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
         <v>47</v>
       </c>
@@ -48423,8 +49026,11 @@
       <c r="AW81">
         <v>59</v>
       </c>
+      <c r="AX81">
+        <v>59</v>
+      </c>
     </row>
-    <row r="82" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="8" t="s">
         <v>48</v>
       </c>
@@ -48473,8 +49079,11 @@
       <c r="AW82">
         <v>134</v>
       </c>
+      <c r="AX82">
+        <v>134</v>
+      </c>
     </row>
-    <row r="83" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
         <v>49</v>
       </c>
@@ -48523,8 +49132,11 @@
       <c r="AW83">
         <v>22</v>
       </c>
+      <c r="AX83">
+        <v>23</v>
+      </c>
     </row>
-    <row r="84" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="8" t="s">
         <v>50</v>
       </c>
@@ -48573,8 +49185,11 @@
       <c r="AW84">
         <v>247</v>
       </c>
+      <c r="AX84">
+        <v>251</v>
+      </c>
     </row>
-    <row r="85" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
         <v>51</v>
       </c>
@@ -48623,8 +49238,11 @@
       <c r="AW85" s="24" t="s">
         <v>292</v>
       </c>
+      <c r="AX85" s="24" t="s">
+        <v>292</v>
+      </c>
     </row>
-    <row r="86" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="8" t="s">
         <v>52</v>
       </c>
@@ -48673,8 +49291,11 @@
       <c r="AW86">
         <v>155</v>
       </c>
+      <c r="AX86">
+        <v>157</v>
+      </c>
     </row>
-    <row r="87" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
         <v>53</v>
       </c>
@@ -48723,8 +49344,11 @@
       <c r="AW87" s="24" t="s">
         <v>292</v>
       </c>
+      <c r="AX87" s="24" t="s">
+        <v>292</v>
+      </c>
     </row>
-    <row r="88" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="8" t="s">
         <v>54</v>
       </c>
@@ -48773,8 +49397,11 @@
       <c r="AW88">
         <v>62</v>
       </c>
+      <c r="AX88">
+        <v>62</v>
+      </c>
     </row>
-    <row r="89" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
         <v>55</v>
       </c>
@@ -48823,8 +49450,11 @@
       <c r="AW89">
         <v>9</v>
       </c>
+      <c r="AX89">
+        <v>9</v>
+      </c>
     </row>
-    <row r="90" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="8" t="s">
         <v>56</v>
       </c>
@@ -48873,8 +49503,11 @@
       <c r="AW90">
         <v>21</v>
       </c>
+      <c r="AX90">
+        <v>21</v>
+      </c>
     </row>
-    <row r="91" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
         <v>57</v>
       </c>
@@ -48923,8 +49556,11 @@
       <c r="AW91">
         <v>88</v>
       </c>
+      <c r="AX91">
+        <v>90</v>
+      </c>
     </row>
-    <row r="92" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="8" t="s">
         <v>58</v>
       </c>
@@ -48973,8 +49609,11 @@
       <c r="AW92">
         <v>24</v>
       </c>
+      <c r="AX92">
+        <v>24</v>
+      </c>
     </row>
-    <row r="93" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
         <v>59</v>
       </c>
@@ -49023,8 +49662,11 @@
       <c r="AW93">
         <v>141</v>
       </c>
+      <c r="AX93">
+        <v>144</v>
+      </c>
     </row>
-    <row r="94" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="8" t="s">
         <v>60</v>
       </c>
@@ -49073,8 +49715,11 @@
       <c r="AW94">
         <v>131</v>
       </c>
+      <c r="AX94">
+        <v>133</v>
+      </c>
     </row>
-    <row r="95" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
         <v>61</v>
       </c>
@@ -49123,8 +49768,11 @@
       <c r="AW95" s="24" t="s">
         <v>292</v>
       </c>
+      <c r="AX95" s="24" t="s">
+        <v>292</v>
+      </c>
     </row>
-    <row r="96" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="8" t="s">
         <v>62</v>
       </c>
@@ -49171,6 +49819,9 @@
         <v>85</v>
       </c>
       <c r="AW96">
+        <v>86</v>
+      </c>
+      <c r="AX96">
         <v>86</v>
       </c>
     </row>
@@ -49223,6 +49874,9 @@
       <c r="AW97">
         <v>47</v>
       </c>
+      <c r="AX97">
+        <v>46</v>
+      </c>
     </row>
     <row r="98" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="8" t="s">
@@ -49273,6 +49927,9 @@
       <c r="AW98">
         <v>0</v>
       </c>
+      <c r="AX98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="6" t="s">
@@ -49323,6 +49980,9 @@
       <c r="AW99">
         <v>144</v>
       </c>
+      <c r="AX99">
+        <v>144</v>
+      </c>
     </row>
     <row r="100" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="8" t="s">
@@ -49373,6 +50033,9 @@
       <c r="AW100">
         <v>114</v>
       </c>
+      <c r="AX100">
+        <v>114</v>
+      </c>
     </row>
     <row r="101" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="6" t="s">
@@ -49423,6 +50086,9 @@
       <c r="AW101">
         <v>43</v>
       </c>
+      <c r="AX101">
+        <v>44</v>
+      </c>
     </row>
     <row r="102" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="8" t="s">
@@ -49473,6 +50139,9 @@
       <c r="AW102">
         <v>98</v>
       </c>
+      <c r="AX102">
+        <v>99</v>
+      </c>
     </row>
     <row r="103" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
@@ -49523,6 +50192,9 @@
       <c r="AW103">
         <v>18</v>
       </c>
+      <c r="AX103">
+        <v>18</v>
+      </c>
     </row>
     <row r="104" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="8" t="s">
@@ -49573,6 +50245,9 @@
       <c r="AW104">
         <v>49</v>
       </c>
+      <c r="AX104">
+        <v>49</v>
+      </c>
     </row>
     <row r="105" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="10" t="s">
@@ -49622,6 +50297,9 @@
       </c>
       <c r="AW105">
         <v>2276</v>
+      </c>
+      <c r="AX105">
+        <v>2296</v>
       </c>
     </row>
     <row r="106" spans="1:216" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -49893,6 +50571,9 @@
       <c r="AW107">
         <v>0</v>
       </c>
+      <c r="AX107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
@@ -49943,6 +50624,9 @@
       <c r="AW108">
         <v>0</v>
       </c>
+      <c r="AX108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
@@ -49993,6 +50677,9 @@
       <c r="AW109">
         <v>0</v>
       </c>
+      <c r="AX109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
@@ -50043,6 +50730,9 @@
       <c r="AW110" s="24">
         <v>2</v>
       </c>
+      <c r="AX110" s="24">
+        <v>2</v>
+      </c>
     </row>
     <row r="111" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
@@ -50093,6 +50783,9 @@
       <c r="AW111" s="24">
         <v>3</v>
       </c>
+      <c r="AX111" s="24">
+        <v>3</v>
+      </c>
     </row>
     <row r="112" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
@@ -50143,8 +50836,11 @@
       <c r="AW112">
         <v>12</v>
       </c>
+      <c r="AX112">
+        <v>12</v>
+      </c>
     </row>
-    <row r="113" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -50193,8 +50889,11 @@
       <c r="AW113">
         <v>39</v>
       </c>
+      <c r="AX113">
+        <v>41</v>
+      </c>
     </row>
-    <row r="114" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>93</v>
       </c>
@@ -50243,8 +50942,11 @@
       <c r="AW114">
         <v>154</v>
       </c>
+      <c r="AX114">
+        <v>155</v>
+      </c>
     </row>
-    <row r="115" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>94</v>
       </c>
@@ -50293,8 +50995,11 @@
       <c r="AW115">
         <v>390</v>
       </c>
+      <c r="AX115">
+        <v>393</v>
+      </c>
     </row>
-    <row r="116" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>95</v>
       </c>
@@ -50343,8 +51048,11 @@
       <c r="AW116">
         <v>1676</v>
       </c>
+      <c r="AX116">
+        <v>1690</v>
+      </c>
     </row>
-    <row r="117" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -50393,10 +51101,13 @@
       <c r="AW117" s="24">
         <v>0</v>
       </c>
+      <c r="AX117" s="24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="118" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B118" t="s">
         <v>101</v>
@@ -50509,8 +51220,8 @@
       <c r="AL118">
         <v>1562</v>
       </c>
-      <c r="AM118" t="s">
-        <v>295</v>
+      <c r="AM118">
+        <v>1666</v>
       </c>
       <c r="AN118">
         <v>1727</v>
@@ -50541,6 +51252,9 @@
       </c>
       <c r="AW118">
         <v>2276</v>
+      </c>
+      <c r="AX118">
+        <v>2296</v>
       </c>
     </row>
   </sheetData>
@@ -50555,7 +51269,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E15"/>
+      <selection activeCell="E1" sqref="E1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -50565,254 +51279,233 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" t="s">
-        <v>305</v>
+        <v>86</v>
+      </c>
+      <c r="B1">
+        <v>223</v>
       </c>
       <c r="C1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F1" t="s">
-        <v>309</v>
+        <v>322</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
+        <v>305</v>
+      </c>
       <c r="D2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F2" t="s">
-        <v>304</v>
+        <v>317</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3">
+        <v>697</v>
+      </c>
+      <c r="C3" t="s">
+        <v>315</v>
+      </c>
       <c r="D3" t="s">
-        <v>307</v>
-      </c>
-      <c r="F3" t="s">
-        <v>307</v>
+        <v>323</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4">
-        <v>220</v>
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>324</v>
       </c>
       <c r="C4" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="D4" t="s">
-        <v>325</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>326</v>
+      </c>
+      <c r="E4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5">
-        <v>194</v>
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>327</v>
       </c>
       <c r="C5" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>328</v>
+      </c>
+      <c r="E5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6">
-        <v>682</v>
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>329</v>
       </c>
       <c r="C6" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="D6" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7">
-        <v>2369</v>
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>331</v>
       </c>
       <c r="C7" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="D7" t="s">
-        <v>328</v>
-      </c>
-      <c r="E7" t="s">
-        <v>292</v>
+        <v>333</v>
+      </c>
+      <c r="E7">
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8">
-        <v>2680</v>
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>335</v>
       </c>
       <c r="C8" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D8" t="s">
-        <v>329</v>
-      </c>
-      <c r="E8" t="s">
-        <v>292</v>
+        <v>336</v>
+      </c>
+      <c r="E8">
+        <v>155</v>
       </c>
       <c r="F8" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2991</v>
+        <v>94</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="C9" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="D9" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="F9" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10">
-        <v>2762</v>
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>341</v>
       </c>
       <c r="C10" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D10" t="s">
-        <v>332</v>
-      </c>
-      <c r="E10">
-        <v>39</v>
+        <v>342</v>
+      </c>
+      <c r="E10" t="s">
+        <v>343</v>
       </c>
       <c r="F10" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B11">
-        <v>1880</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>316</v>
+        <v>228</v>
       </c>
       <c r="D11" t="s">
-        <v>334</v>
-      </c>
-      <c r="E11">
-        <v>154</v>
+        <v>228</v>
+      </c>
+      <c r="E11" t="s">
+        <v>228</v>
       </c>
       <c r="F11" t="s">
-        <v>335</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12">
-        <v>2039</v>
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
+        <v>318</v>
       </c>
       <c r="C12" t="s">
-        <v>317</v>
+        <v>228</v>
       </c>
       <c r="D12" t="s">
-        <v>336</v>
-      </c>
-      <c r="E12">
-        <v>390</v>
+        <v>345</v>
+      </c>
+      <c r="E12" t="s">
+        <v>319</v>
       </c>
       <c r="F12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13">
-        <v>5823</v>
-      </c>
-      <c r="C13" t="s">
-        <v>338</v>
-      </c>
-      <c r="D13" t="s">
-        <v>339</v>
-      </c>
-      <c r="E13" t="s">
-        <v>340</v>
-      </c>
-      <c r="F13" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15">
-        <v>21717</v>
-      </c>
-      <c r="D15" t="s">
-        <v>342</v>
-      </c>
-      <c r="E15" t="s">
-        <v>324</v>
-      </c>
-      <c r="F15" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/app/data/covid19_MTL.xlsx
+++ b/app/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987A15AB-B96A-4FD5-8DDC-FA0113825B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BCCCA7-E30C-458A-929A-09FFC2B5212A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18830" yWindow="7090" windowWidth="27540" windowHeight="13430" tabRatio="585" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="16960" yWindow="6680" windowWidth="23310" windowHeight="12430" tabRatio="585" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="355">
   <si>
     <t>borough</t>
   </si>
@@ -1015,103 +1015,130 @@
     <t>13,8</t>
   </si>
   <si>
-    <t>* 4,3</t>
-  </si>
-  <si>
     <t>16 MAI, 18h05</t>
   </si>
   <si>
     <t>3,2</t>
   </si>
   <si>
-    <t>26,9</t>
-  </si>
-  <si>
-    <t> 184,3</t>
-  </si>
-  <si>
-    <t>22 028</t>
-  </si>
-  <si>
-    <t>2 296</t>
-  </si>
-  <si>
-    <t> 111,1</t>
-  </si>
-  <si>
     <t>17 MAI, 18h05</t>
-  </si>
-  <si>
-    <t> 201,1</t>
-  </si>
-  <si>
-    <t> 350,4</t>
-  </si>
-  <si>
-    <t>2 410</t>
   </si>
   <si>
     <t>11,0</t>
   </si>
   <si>
-    <t> 748,2</t>
-  </si>
-  <si>
-    <t>2 713</t>
-  </si>
-  <si>
-    <t> 825,8</t>
-  </si>
-  <si>
-    <t>3 035</t>
-  </si>
-  <si>
-    <t> 1 090,4</t>
-  </si>
-  <si>
-    <t>2 798</t>
-  </si>
-  <si>
     <t>12,7</t>
   </si>
   <si>
-    <t> 1 090,1</t>
+    <t>PERSONNES</t>
   </si>
   <si>
-    <t> 16,0</t>
+    <t>NOMBREDECASCONFIRMÉS¹</t>
   </si>
   <si>
-    <t>1 914</t>
+    <t>RÉPARTITIONDESCAS(%)</t>
   </si>
   <si>
-    <t> 883,8</t>
+    <t>NOMBREDEDÉCÈS</t>
   </si>
   <si>
-    <t> 71,6</t>
+    <t>TAUXDEMORTALITÉPOUR</t>
   </si>
   <si>
-    <t>2 058</t>
+    <t>&lt;5</t>
   </si>
   <si>
-    <t> 1 422,2</t>
+    <t>18 MAI, 18h05</t>
   </si>
   <si>
-    <t> 271,6</t>
+    <t>204,7</t>
   </si>
   <si>
-    <t>5 907</t>
+    <t>189,9</t>
   </si>
   <si>
-    <t> 5 846,1</t>
+    <t>358,5</t>
   </si>
   <si>
-    <t>1 690</t>
+    <t>756,3</t>
   </si>
   <si>
-    <t> 1672,6</t>
+    <t>841,0</t>
   </si>
   <si>
-    <t> 1066,4</t>
+    <t>16,0</t>
+  </si>
+  <si>
+    <t>898,1</t>
+  </si>
+  <si>
+    <t>72,0</t>
+  </si>
+  <si>
+    <t>277,1</t>
+  </si>
+  <si>
+    <t>26,8</t>
+  </si>
+  <si>
+    <t> 112,5</t>
+  </si>
+  <si>
+    <t>GROUPED'ÂGE</t>
+  </si>
+  <si>
+    <t>TAUXPOUR</t>
+  </si>
+  <si>
+    <t>0-4ans</t>
+  </si>
+  <si>
+    <t>5-9ans</t>
+  </si>
+  <si>
+    <t>10-19ans</t>
+  </si>
+  <si>
+    <t>20-29ans</t>
+  </si>
+  <si>
+    <t>30-39ans</t>
+  </si>
+  <si>
+    <t>40-49ans</t>
+  </si>
+  <si>
+    <t>1103,3</t>
+  </si>
+  <si>
+    <t>*4,3</t>
+  </si>
+  <si>
+    <t>50-59ans</t>
+  </si>
+  <si>
+    <t>1101,8</t>
+  </si>
+  <si>
+    <t>60-69ans</t>
+  </si>
+  <si>
+    <t>70-79ans</t>
+  </si>
+  <si>
+    <t>1440,2</t>
+  </si>
+  <si>
+    <t>80anset+</t>
+  </si>
+  <si>
+    <t>5906,5</t>
+  </si>
+  <si>
+    <t>1689,4</t>
+  </si>
+  <si>
+    <t> 1080,4</t>
   </si>
 </sst>
 </file>
@@ -1625,20 +1652,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:AY35"/>
+  <dimension ref="A1:AZ35"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AY2" sqref="AY2:AY35"/>
+    <sheetView topLeftCell="AC1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AY1" sqref="AY1:AZ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="51" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="52" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1792,8 +1819,11 @@
       <c r="AY1" s="19">
         <v>43968</v>
       </c>
+      <c r="AZ1" s="19">
+        <v>43969</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1947,8 +1977,11 @@
       <c r="AY2">
         <v>1817</v>
       </c>
+      <c r="AZ2">
+        <v>1842</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2102,8 +2135,11 @@
       <c r="AY3">
         <v>537</v>
       </c>
+      <c r="AZ3">
+        <v>545</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2257,8 +2293,11 @@
       <c r="AY4">
         <v>16</v>
       </c>
+      <c r="AZ4">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2412,8 +2451,11 @@
       <c r="AY5">
         <v>50</v>
       </c>
+      <c r="AZ5">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2567,8 +2609,11 @@
       <c r="AY6">
         <v>1787</v>
       </c>
+      <c r="AZ6">
+        <v>1811</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -2722,8 +2767,11 @@
       <c r="AY7">
         <v>437</v>
       </c>
+      <c r="AZ7">
+        <v>443</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -2877,8 +2925,11 @@
       <c r="AY8">
         <v>339</v>
       </c>
+      <c r="AZ8">
+        <v>338</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -3032,8 +3083,11 @@
       <c r="AY9">
         <v>163</v>
       </c>
+      <c r="AZ9">
+        <v>164</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -3187,8 +3241,11 @@
       <c r="AY10">
         <v>50</v>
       </c>
+      <c r="AZ10">
+        <v>53</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -3342,8 +3399,11 @@
       <c r="AY11">
         <v>93</v>
       </c>
+      <c r="AZ11">
+        <v>93</v>
+      </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3497,8 +3557,11 @@
       <c r="AY12">
         <v>465</v>
       </c>
+      <c r="AZ12">
+        <v>470</v>
+      </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3652,8 +3715,11 @@
       <c r="AY13">
         <v>996</v>
       </c>
+      <c r="AZ13">
+        <v>1002</v>
+      </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3807,8 +3873,11 @@
       <c r="AY14">
         <v>172</v>
       </c>
+      <c r="AZ14">
+        <v>173</v>
+      </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3962,8 +4031,11 @@
       <c r="AY15">
         <v>1825</v>
       </c>
+      <c r="AZ15">
+        <v>1844</v>
+      </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -4117,8 +4189,11 @@
       <c r="AY16">
         <v>32</v>
       </c>
+      <c r="AZ16">
+        <v>32</v>
+      </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4272,8 +4347,11 @@
       <c r="AY17">
         <v>2028</v>
       </c>
+      <c r="AZ17">
+        <v>2052</v>
+      </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -4427,8 +4505,11 @@
       <c r="AY18">
         <v>17</v>
       </c>
+      <c r="AZ18">
+        <v>17</v>
+      </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -4582,8 +4663,11 @@
       <c r="AY19">
         <v>232</v>
       </c>
+      <c r="AZ19">
+        <v>234</v>
+      </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4737,8 +4821,11 @@
       <c r="AY20">
         <v>235</v>
       </c>
+      <c r="AZ20">
+        <v>235</v>
+      </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4892,8 +4979,11 @@
       <c r="AY21">
         <v>439</v>
       </c>
+      <c r="AZ21">
+        <v>443</v>
+      </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5047,8 +5137,11 @@
       <c r="AY22">
         <v>765</v>
       </c>
+      <c r="AZ22">
+        <v>776</v>
+      </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -5202,8 +5295,11 @@
       <c r="AY23">
         <v>166</v>
       </c>
+      <c r="AZ23">
+        <v>171</v>
+      </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5357,8 +5453,11 @@
       <c r="AY24">
         <v>1730</v>
       </c>
+      <c r="AZ24">
+        <v>1755</v>
+      </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5512,8 +5611,11 @@
       <c r="AY25">
         <v>1231</v>
       </c>
+      <c r="AZ25">
+        <v>1247</v>
+      </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -5667,8 +5769,11 @@
       <c r="AY26">
         <v>18</v>
       </c>
+      <c r="AZ26">
+        <v>18</v>
+      </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5822,8 +5927,11 @@
       <c r="AY27">
         <v>806</v>
       </c>
+      <c r="AZ27">
+        <v>824</v>
+      </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5977,8 +6085,11 @@
       <c r="AY28">
         <v>876</v>
       </c>
+      <c r="AZ28">
+        <v>893</v>
+      </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -6132,8 +6243,11 @@
       <c r="AY29">
         <v>2</v>
       </c>
+      <c r="AZ29">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -6287,8 +6401,11 @@
       <c r="AY30">
         <v>764</v>
       </c>
+      <c r="AZ30">
+        <v>781</v>
+      </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -6442,8 +6559,11 @@
       <c r="AY31">
         <v>826</v>
       </c>
+      <c r="AZ31">
+        <v>835</v>
+      </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -6597,8 +6717,11 @@
       <c r="AY32">
         <v>611</v>
       </c>
+      <c r="AZ32">
+        <v>633</v>
+      </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -6752,8 +6875,11 @@
       <c r="AY33">
         <v>1549</v>
       </c>
+      <c r="AZ33">
+        <v>1569</v>
+      </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -6907,8 +7033,11 @@
       <c r="AY34">
         <v>159</v>
       </c>
+      <c r="AZ34">
+        <v>159</v>
+      </c>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -7061,6 +7190,9 @@
       </c>
       <c r="AY35">
         <v>796</v>
+      </c>
+      <c r="AZ35">
+        <v>798</v>
       </c>
     </row>
   </sheetData>
@@ -7071,11 +7203,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:AY34"/>
+  <dimension ref="A1:AZ34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BA28" sqref="BA28"/>
+      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AV6" sqref="AV6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7083,10 +7215,10 @@
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="27" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="50" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="52" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7261,8 +7393,11 @@
       <c r="AY1" s="1">
         <v>43968</v>
       </c>
+      <c r="AZ1" s="1">
+        <v>43969</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7461,8 +7596,12 @@
         <f>cases!AY2/(population_2016!$B2/1000)</f>
         <v>13.534954746917949</v>
       </c>
+      <c r="AZ2" s="3">
+        <f>cases!AZ2/(population_2016!$B2/1000)</f>
+        <v>13.721181422026891</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7661,8 +7800,12 @@
         <f>cases!AY3/(population_2016!$B3/1000)</f>
         <v>12.547901673053557</v>
       </c>
+      <c r="AZ3" s="3">
+        <f>cases!AZ3/(population_2016!$B3/1000)</f>
+        <v>12.734835031311338</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -7861,8 +8004,12 @@
         <f>cases!AY4/(population_2016!$B4/1000)</f>
         <v>4.1851948731362807</v>
       </c>
+      <c r="AZ4" s="3">
+        <f>cases!AZ4/(population_2016!$B4/1000)</f>
+        <v>4.1851948731362807</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -8061,8 +8208,12 @@
         <f>cases!AY5/(population_2016!$B5/1000)</f>
         <v>2.5874560132477744</v>
       </c>
+      <c r="AZ5" s="3">
+        <f>cases!AZ5/(population_2016!$B5/1000)</f>
+        <v>2.5874560132477744</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -8261,8 +8412,12 @@
         <f>cases!AY6/(population_2016!$B6/1000)</f>
         <v>10.731443670429977</v>
       </c>
+      <c r="AZ6" s="3">
+        <f>cases!AZ6/(population_2016!$B6/1000)</f>
+        <v>10.875570502041796</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -8461,8 +8616,12 @@
         <f>cases!AY7/(population_2016!$B7/1000)</f>
         <v>13.467702169625246</v>
       </c>
+      <c r="AZ7" s="3">
+        <f>cases!AZ7/(population_2016!$B7/1000)</f>
+        <v>13.652613412228797</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -8661,8 +8820,12 @@
         <f>cases!AY8/(population_2016!$B8/1000)</f>
         <v>6.9326571095523422</v>
       </c>
+      <c r="AZ8" s="3">
+        <f>cases!AZ8/(population_2016!$B8/1000)</f>
+        <v>6.9122067935949607</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -8861,8 +9024,12 @@
         <f>cases!AY9/(population_2016!$B9/1000)</f>
         <v>8.5879873551106432</v>
       </c>
+      <c r="AZ9" s="3">
+        <f>cases!AZ9/(population_2016!$B9/1000)</f>
+        <v>8.6406743940990509</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -9061,8 +9228,12 @@
         <f>cases!AY10/(population_2016!$B10/1000)</f>
         <v>7.1705148429657255</v>
       </c>
+      <c r="AZ10" s="3">
+        <f>cases!AZ10/(population_2016!$B10/1000)</f>
+        <v>7.6007457335436683</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -9261,8 +9432,12 @@
         <f>cases!AY11/(population_2016!$B11/1000)</f>
         <v>4.6151555754056872</v>
       </c>
+      <c r="AZ11" s="3">
+        <f>cases!AZ11/(population_2016!$B11/1000)</f>
+        <v>4.6151555754056872</v>
+      </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -9461,8 +9636,12 @@
         <f>cases!AY12/(population_2016!$B12/1000)</f>
         <v>10.452021848097283</v>
       </c>
+      <c r="AZ12" s="3">
+        <f>cases!AZ12/(population_2016!$B12/1000)</f>
+        <v>10.564409179797254</v>
+      </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -9661,8 +9840,12 @@
         <f>cases!AY13/(population_2016!$B13/1000)</f>
         <v>12.959806383615474</v>
       </c>
+      <c r="AZ13" s="3">
+        <f>cases!AZ13/(population_2016!$B13/1000)</f>
+        <v>13.037877506408339</v>
+      </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -9861,8 +10044,12 @@
         <f>cases!AY14/(population_2016!$B14/1000)</f>
         <v>9.3412263075001363</v>
       </c>
+      <c r="AZ14" s="3">
+        <f>cases!AZ14/(population_2016!$B14/1000)</f>
+        <v>9.3955357627762996</v>
+      </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -10061,8 +10248,12 @@
         <f>cases!AY15/(population_2016!$B15/1000)</f>
         <v>13.416749985296713</v>
       </c>
+      <c r="AZ15" s="3">
+        <f>cases!AZ15/(population_2016!$B15/1000)</f>
+        <v>13.55643121802035</v>
+      </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -10261,8 +10452,12 @@
         <f>cases!AY16/(population_2016!$B16/1000)</f>
         <v>8.3116883116883109</v>
       </c>
+      <c r="AZ16" s="3">
+        <f>cases!AZ16/(population_2016!$B16/1000)</f>
+        <v>8.3116883116883109</v>
+      </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -10461,8 +10656,12 @@
         <f>cases!AY17/(population_2016!$B17/1000)</f>
         <v>24.075788873851415</v>
       </c>
+      <c r="AZ17" s="3">
+        <f>cases!AZ17/(population_2016!$B17/1000)</f>
+        <v>24.36070945224019</v>
+      </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -10661,8 +10860,12 @@
         <f>cases!AY18/(population_2016!$B18/1000)</f>
         <v>3.3663366336633667</v>
       </c>
+      <c r="AZ18" s="3">
+        <f>cases!AZ18/(population_2016!$B18/1000)</f>
+        <v>3.3663366336633667</v>
+      </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -10861,8 +11064,12 @@
         <f>cases!AY19/(population_2016!$B19/1000)</f>
         <v>11.442099033339909</v>
       </c>
+      <c r="AZ19" s="3">
+        <f>cases!AZ19/(population_2016!$B19/1000)</f>
+        <v>11.540737818110081</v>
+      </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -11061,8 +11268,12 @@
         <f>cases!AY20/(population_2016!$B20/1000)</f>
         <v>9.8104700676296233</v>
       </c>
+      <c r="AZ20" s="3">
+        <f>cases!AZ20/(population_2016!$B20/1000)</f>
+        <v>9.8104700676296233</v>
+      </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -11261,8 +11472,12 @@
         <f>cases!AY21/(population_2016!$B21/1000)</f>
         <v>6.3350505793901615</v>
       </c>
+      <c r="AZ21" s="3">
+        <f>cases!AZ21/(population_2016!$B21/1000)</f>
+        <v>6.39277313592219</v>
+      </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -11461,8 +11676,12 @@
         <f>cases!AY22/(population_2016!$B22/1000)</f>
         <v>7.3557692307692308</v>
       </c>
+      <c r="AZ22" s="3">
+        <f>cases!AZ22/(population_2016!$B22/1000)</f>
+        <v>7.4615384615384617</v>
+      </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -11661,8 +11880,12 @@
         <f>cases!AY23/(population_2016!$B23/1000)</f>
         <v>5.2899936265137031</v>
       </c>
+      <c r="AZ23" s="3">
+        <f>cases!AZ23/(population_2016!$B23/1000)</f>
+        <v>5.449330783938815</v>
+      </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -11861,8 +12084,12 @@
         <f>cases!AY24/(population_2016!$B24/1000)</f>
         <v>16.20715175702388</v>
       </c>
+      <c r="AZ24" s="3">
+        <f>cases!AZ24/(population_2016!$B24/1000)</f>
+        <v>16.441359152356597</v>
+      </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -12061,8 +12288,12 @@
         <f>cases!AY25/(population_2016!$B25/1000)</f>
         <v>8.8186832867683922</v>
       </c>
+      <c r="AZ25" s="3">
+        <f>cases!AZ25/(population_2016!$B25/1000)</f>
+        <v>8.9333046779855287</v>
+      </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -12261,8 +12492,12 @@
         <f>cases!AY26/(population_2016!$B26/1000)</f>
         <v>3.6304961678096004</v>
       </c>
+      <c r="AZ26" s="3">
+        <f>cases!AZ26/(population_2016!$B26/1000)</f>
+        <v>3.6304961678096004</v>
+      </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -12461,8 +12696,12 @@
         <f>cases!AY27/(population_2016!$B27/1000)</f>
         <v>8.1555834378920959</v>
       </c>
+      <c r="AZ27" s="3">
+        <f>cases!AZ27/(population_2016!$B27/1000)</f>
+        <v>8.33771805561177</v>
+      </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -12661,8 +12900,12 @@
         <f>cases!AY28/(population_2016!$B28/1000)</f>
         <v>11.187025094183001</v>
       </c>
+      <c r="AZ28" s="3">
+        <f>cases!AZ28/(population_2016!$B28/1000)</f>
+        <v>11.404124896239065</v>
+      </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -12861,8 +13104,12 @@
         <f>cases!AY29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
+      <c r="AZ29" s="3">
+        <f>cases!AZ29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -13061,8 +13308,12 @@
         <f>cases!AY30/(population_2016!$B30/1000)</f>
         <v>9.7759465649831743</v>
       </c>
+      <c r="AZ30" s="3">
+        <f>cases!AZ30/(population_2016!$B30/1000)</f>
+        <v>9.9934741717956275</v>
+      </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -13261,8 +13512,12 @@
         <f>cases!AY31/(population_2016!$B31/1000)</f>
         <v>11.931416025076196</v>
       </c>
+      <c r="AZ31" s="3">
+        <f>cases!AZ31/(population_2016!$B31/1000)</f>
+        <v>12.061419347383323</v>
+      </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -13461,8 +13716,12 @@
         <f>cases!AY32/(population_2016!$B32/1000)</f>
         <v>6.8520802960636988</v>
       </c>
+      <c r="AZ32" s="3">
+        <f>cases!AZ32/(population_2016!$B32/1000)</f>
+        <v>7.0988000448581356</v>
+      </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -13661,8 +13920,12 @@
         <f>cases!AY33/(population_2016!$B33/1000)</f>
         <v>10.767936713172475</v>
       </c>
+      <c r="AZ33" s="3">
+        <f>cases!AZ33/(population_2016!$B33/1000)</f>
+        <v>10.90696752935288</v>
+      </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -13859,6 +14122,10 @@
       </c>
       <c r="AY34" s="3">
         <f>cases!AY34/(population_2016!$B34/1000)</f>
+        <v>7.8278849940921615</v>
+      </c>
+      <c r="AZ34" s="3">
+        <f>cases!AZ34/(population_2016!$B34/1000)</f>
         <v>7.8278849940921615</v>
       </c>
     </row>
@@ -13869,11 +14136,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AS65"/>
+  <dimension ref="A1:AS66"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AO72" sqref="AO72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18811,11 +19078,11 @@
       </c>
       <c r="B33" s="17">
         <f>mtl_newcases!C34</f>
-        <v>8065</v>
+        <v>8063</v>
       </c>
       <c r="C33" s="17">
         <f t="shared" si="0"/>
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D33">
         <v>332</v>
@@ -18982,7 +19249,7 @@
       </c>
       <c r="B34" s="17">
         <f>mtl_newcases!C35</f>
-        <v>8558</v>
+        <v>8556</v>
       </c>
       <c r="C34" s="17">
         <f t="shared" si="0"/>
@@ -19153,11 +19420,11 @@
       </c>
       <c r="B35" s="17">
         <f>mtl_newcases!C36</f>
-        <v>9129</v>
+        <v>9125</v>
       </c>
       <c r="C35" s="17">
         <f t="shared" si="0"/>
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D35">
         <v>454</v>
@@ -19324,7 +19591,7 @@
       </c>
       <c r="B36" s="17">
         <f>mtl_newcases!C37</f>
-        <v>9453</v>
+        <v>9449</v>
       </c>
       <c r="C36" s="17">
         <f t="shared" si="0"/>
@@ -19495,11 +19762,11 @@
       </c>
       <c r="B37" s="17">
         <f>mtl_newcases!C38</f>
-        <v>9882</v>
+        <v>9877</v>
       </c>
       <c r="C37" s="17">
         <f t="shared" si="0"/>
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D37">
         <v>525</v>
@@ -19635,11 +19902,11 @@
       </c>
       <c r="B38" s="17">
         <f>mtl_newcases!C39</f>
-        <v>10368</v>
+        <v>10364</v>
       </c>
       <c r="C38" s="17">
         <f t="shared" si="0"/>
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D38">
         <v>583</v>
@@ -19806,7 +20073,7 @@
       </c>
       <c r="B39" s="17">
         <f>mtl_newcases!C40</f>
-        <v>10831</v>
+        <v>10827</v>
       </c>
       <c r="C39" s="17">
         <f t="shared" si="0"/>
@@ -19977,7 +20244,7 @@
       </c>
       <c r="B40" s="17">
         <f>mtl_newcases!C41</f>
-        <v>11373</v>
+        <v>11369</v>
       </c>
       <c r="C40" s="17">
         <f t="shared" si="0"/>
@@ -20148,11 +20415,11 @@
       </c>
       <c r="B41" s="17">
         <f>mtl_newcases!C42</f>
-        <v>11901</v>
+        <v>11896</v>
       </c>
       <c r="C41" s="17">
         <f t="shared" si="0"/>
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D41">
         <v>808</v>
@@ -20319,11 +20586,11 @@
       </c>
       <c r="B42" s="17">
         <f>mtl_newcases!C43</f>
-        <v>12399</v>
+        <v>12395</v>
       </c>
       <c r="C42" s="17">
         <f t="shared" si="0"/>
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D42">
         <v>895</v>
@@ -20490,7 +20757,7 @@
       </c>
       <c r="B43" s="17">
         <f>mtl_newcases!C44</f>
-        <v>12718</v>
+        <v>12714</v>
       </c>
       <c r="C43" s="17">
         <f t="shared" si="0"/>
@@ -20661,11 +20928,11 @@
       </c>
       <c r="B44" s="17">
         <f>mtl_newcases!C45</f>
-        <v>13020</v>
+        <v>13015</v>
       </c>
       <c r="C44" s="17">
         <f>B44-B43</f>
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D44">
         <v>983</v>
@@ -20832,11 +21099,11 @@
       </c>
       <c r="B45" s="17">
         <f>mtl_newcases!C46</f>
-        <v>13484</v>
+        <v>13478</v>
       </c>
       <c r="C45" s="17">
         <f>B45-B44</f>
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D45">
         <v>1039</v>
@@ -21003,11 +21270,11 @@
       </c>
       <c r="B46" s="17">
         <f>mtl_newcases!C47</f>
-        <v>13957</v>
+        <v>13954</v>
       </c>
       <c r="C46" s="17">
         <f t="shared" ref="C46:C47" si="438">B46-B45</f>
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D46">
         <v>1078</v>
@@ -21143,11 +21410,11 @@
       </c>
       <c r="B47" s="17">
         <f>mtl_newcases!C48</f>
-        <v>14482</v>
+        <v>14476</v>
       </c>
       <c r="C47" s="17">
         <f t="shared" si="438"/>
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D47">
         <v>1146</v>
@@ -21283,11 +21550,11 @@
       </c>
       <c r="B48" s="17">
         <f>mtl_newcases!C49</f>
-        <v>15084</v>
+        <v>15076</v>
       </c>
       <c r="C48" s="17">
         <f t="shared" ref="C48" si="439">B48-B47</f>
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D48">
         <v>1245</v>
@@ -21454,11 +21721,11 @@
       </c>
       <c r="B49" s="17">
         <f>mtl_newcases!C50</f>
-        <v>15701</v>
+        <v>15694</v>
       </c>
       <c r="C49" s="17">
         <f t="shared" ref="C49" si="461">B49-B48</f>
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D49">
         <v>1312</v>
@@ -21625,11 +21892,11 @@
       </c>
       <c r="B50" s="17">
         <f>mtl_newcases!C51</f>
-        <v>16236</v>
+        <v>16226</v>
       </c>
       <c r="C50" s="17">
         <f t="shared" ref="C50" si="483">B50-B49</f>
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D50">
         <v>1365</v>
@@ -21796,7 +22063,7 @@
       </c>
       <c r="B51" s="17">
         <f>mtl_newcases!C52</f>
-        <v>16585</v>
+        <v>16575</v>
       </c>
       <c r="C51" s="17">
         <f t="shared" ref="C51" si="505">B51-B50</f>
@@ -21967,11 +22234,11 @@
       </c>
       <c r="B52" s="17">
         <f>mtl_newcases!C53</f>
-        <v>17008</v>
+        <v>16997</v>
       </c>
       <c r="C52" s="17">
         <f t="shared" ref="C52" si="527">B52-B51</f>
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D52">
         <v>1488</v>
@@ -22138,11 +22405,11 @@
       </c>
       <c r="B53" s="17">
         <f>mtl_newcases!C54</f>
-        <v>17492</v>
+        <v>17480</v>
       </c>
       <c r="C53" s="17">
         <f t="shared" ref="C53" si="549">B53-B52</f>
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D53">
         <v>1562</v>
@@ -22309,11 +22576,11 @@
       </c>
       <c r="B54" s="17">
         <f>mtl_newcases!C55</f>
-        <v>18068</v>
+        <v>18057</v>
       </c>
       <c r="C54" s="17">
         <f t="shared" ref="C54:C55" si="571">B54-B53</f>
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D54">
         <v>1666</v>
@@ -22480,11 +22747,11 @@
       </c>
       <c r="B55" s="17">
         <f>mtl_newcases!C56</f>
-        <v>18509</v>
+        <v>18499</v>
       </c>
       <c r="C55" s="17">
         <f t="shared" si="571"/>
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D55">
         <v>1727</v>
@@ -22651,11 +22918,11 @@
       </c>
       <c r="B56" s="17">
         <f>mtl_newcases!C57</f>
-        <v>18955</v>
+        <v>18941</v>
       </c>
       <c r="C56" s="17">
         <f t="shared" ref="C56" si="613">B56-B55</f>
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D56">
         <v>1760</v>
@@ -22822,11 +23089,11 @@
       </c>
       <c r="B57" s="17">
         <f>mtl_newcases!C58</f>
-        <v>19271</v>
+        <v>19256</v>
       </c>
       <c r="C57" s="17">
         <f t="shared" ref="C57" si="635">B57-B56</f>
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D57">
         <v>1863</v>
@@ -22993,11 +23260,11 @@
       </c>
       <c r="B58" s="17">
         <f>mtl_newcases!C59</f>
-        <v>19576</v>
+        <v>19562</v>
       </c>
       <c r="C58" s="17">
         <f t="shared" ref="C58" si="657">B58-B57</f>
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D58">
         <v>1919</v>
@@ -23164,11 +23431,11 @@
       </c>
       <c r="B59" s="17">
         <f>mtl_newcases!C60</f>
-        <v>19947</v>
+        <v>19932</v>
       </c>
       <c r="C59" s="17">
         <f t="shared" ref="C59" si="679">B59-B58</f>
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D59">
         <v>2003</v>
@@ -23335,11 +23602,11 @@
       </c>
       <c r="B60" s="17">
         <f>mtl_newcases!C61</f>
-        <v>20386</v>
+        <v>20369</v>
       </c>
       <c r="C60" s="17">
         <f t="shared" ref="C60" si="701">B60-B59</f>
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D60">
         <v>2063</v>
@@ -23506,11 +23773,11 @@
       </c>
       <c r="B61" s="17">
         <f>mtl_newcases!C62</f>
-        <v>20783</v>
+        <v>20762</v>
       </c>
       <c r="C61" s="17">
         <f t="shared" ref="C61" si="723">B61-B60</f>
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D61">
         <v>2154</v>
@@ -23677,11 +23944,11 @@
       </c>
       <c r="B62" s="17">
         <f>mtl_newcases!C63</f>
-        <v>21153</v>
+        <v>21128</v>
       </c>
       <c r="C62" s="17">
         <f t="shared" ref="C62:C63" si="745">B62-B61</f>
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D62">
         <v>2182</v>
@@ -23817,11 +24084,11 @@
       </c>
       <c r="B63" s="17">
         <f>mtl_newcases!C64</f>
-        <v>21508</v>
+        <v>21478</v>
       </c>
       <c r="C63" s="17">
         <f t="shared" si="745"/>
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D63">
         <v>2234</v>
@@ -23988,11 +24255,11 @@
       </c>
       <c r="B64" s="17">
         <f>mtl_newcases!C65</f>
-        <v>21777</v>
+        <v>21745</v>
       </c>
       <c r="C64" s="17">
         <f t="shared" ref="C64" si="767">B64-B63</f>
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D64">
         <v>2276</v>
@@ -24159,17 +24426,17 @@
       </c>
       <c r="B65" s="17">
         <f>mtl_newcases!C66</f>
-        <v>22028</v>
+        <v>22085</v>
       </c>
       <c r="C65" s="17">
         <f t="shared" ref="C65" si="789">B65-B64</f>
-        <v>251</v>
+        <v>340</v>
       </c>
       <c r="D65">
         <v>2296</v>
       </c>
       <c r="E65">
-        <f t="shared" ref="E65" si="790">D65-D64</f>
+        <f t="shared" ref="E65:E66" si="790">D65-D64</f>
         <v>20</v>
       </c>
       <c r="F65" cm="1">
@@ -24322,6 +24589,177 @@
       <c r="AS65" s="3">
         <f t="shared" ref="AS65" si="810">Y65*100/SUM($P65:$Y65)</f>
         <v>45.072762862896205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A66" s="19">
+        <v>43969</v>
+      </c>
+      <c r="B66" s="17">
+        <f>mtl_newcases!C67</f>
+        <v>22317</v>
+      </c>
+      <c r="C66" s="17">
+        <f t="shared" ref="C66" si="811">B66-B65</f>
+        <v>232</v>
+      </c>
+      <c r="D66">
+        <v>2323</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="790"/>
+        <v>27</v>
+      </c>
+      <c r="F66" cm="1">
+        <f t="array" ref="F66:O66">TRANSPOSE(santemontreal!AY$57:AY$66)</f>
+        <v>227</v>
+      </c>
+      <c r="G66">
+        <v>205</v>
+      </c>
+      <c r="H66">
+        <v>713</v>
+      </c>
+      <c r="I66">
+        <v>2436</v>
+      </c>
+      <c r="J66">
+        <v>2763</v>
+      </c>
+      <c r="K66">
+        <v>3071</v>
+      </c>
+      <c r="L66">
+        <v>2828</v>
+      </c>
+      <c r="M66">
+        <v>1945</v>
+      </c>
+      <c r="N66">
+        <v>2084</v>
+      </c>
+      <c r="O66">
+        <v>5968</v>
+      </c>
+      <c r="P66" s="18">
+        <f>F66/(age_distribution_2016!$B$2/100000)</f>
+        <v>206.85256059777657</v>
+      </c>
+      <c r="Q66" s="18">
+        <f>G66/(age_distribution_2016!$B$3/100000)</f>
+        <v>196.38836997652922</v>
+      </c>
+      <c r="R66" s="18">
+        <f>H66/(age_distribution_2016!$B$4/100000)</f>
+        <v>378.88248266333659</v>
+      </c>
+      <c r="S66" s="18">
+        <f>I66/(age_distribution_2016!$B$5/100000)</f>
+        <v>830.76136072981501</v>
+      </c>
+      <c r="T66" s="18">
+        <f>J66/(age_distribution_2016!$B$6/100000)</f>
+        <v>921.99883206807374</v>
+      </c>
+      <c r="U66" s="18">
+        <f>K66/(age_distribution_2016!$B$7/100000)</f>
+        <v>1206.798310246586</v>
+      </c>
+      <c r="V66" s="18">
+        <f>L66/(age_distribution_2016!$B$8/100000)</f>
+        <v>1092.4191211974892</v>
+      </c>
+      <c r="W66" s="18">
+        <f>M66/(age_distribution_2016!$B$9/100000)</f>
+        <v>948.75734738177107</v>
+      </c>
+      <c r="X66" s="18">
+        <f>N66/(age_distribution_2016!$B$10/100000)</f>
+        <v>1607.032695866749</v>
+      </c>
+      <c r="Y66" s="18">
+        <f>O66/(age_distribution_2016!$B$11/100000)</f>
+        <v>6040.180152826274</v>
+      </c>
+      <c r="Z66" s="3">
+        <f t="shared" ref="Z66" si="812">F66*100/SUM($F66:$O66)</f>
+        <v>1.0206834532374101</v>
+      </c>
+      <c r="AA66" s="3">
+        <f t="shared" ref="AA66" si="813">G66*100/SUM($F66:$O66)</f>
+        <v>0.9217625899280576</v>
+      </c>
+      <c r="AB66" s="3">
+        <f t="shared" ref="AB66" si="814">H66*100/SUM($F66:$O66)</f>
+        <v>3.2059352517985613</v>
+      </c>
+      <c r="AC66" s="3">
+        <f t="shared" ref="AC66" si="815">I66*100/SUM($F66:$O66)</f>
+        <v>10.953237410071942</v>
+      </c>
+      <c r="AD66" s="3">
+        <f t="shared" ref="AD66" si="816">J66*100/SUM($F66:$O66)</f>
+        <v>12.423561151079136</v>
+      </c>
+      <c r="AE66" s="3">
+        <f t="shared" ref="AE66" si="817">K66*100/SUM($F66:$O66)</f>
+        <v>13.808453237410072</v>
+      </c>
+      <c r="AF66" s="3">
+        <f t="shared" ref="AF66" si="818">L66*100/SUM($F66:$O66)</f>
+        <v>12.715827338129497</v>
+      </c>
+      <c r="AG66" s="3">
+        <f t="shared" ref="AG66" si="819">M66*100/SUM($F66:$O66)</f>
+        <v>8.745503597122303</v>
+      </c>
+      <c r="AH66" s="3">
+        <f t="shared" ref="AH66" si="820">N66*100/SUM($F66:$O66)</f>
+        <v>9.370503597122303</v>
+      </c>
+      <c r="AI66" s="3">
+        <f t="shared" ref="AI66" si="821">O66*100/SUM($F66:$O66)</f>
+        <v>26.834532374100718</v>
+      </c>
+      <c r="AJ66" s="3">
+        <f t="shared" ref="AJ66" si="822">P66*100/SUM($P66:$Y66)</f>
+        <v>1.5402193852923518</v>
+      </c>
+      <c r="AK66" s="3">
+        <f t="shared" ref="AK66" si="823">Q66*100/SUM($P66:$Y66)</f>
+        <v>1.4623032637821169</v>
+      </c>
+      <c r="AL66" s="3">
+        <f t="shared" ref="AL66" si="824">R66*100/SUM($P66:$Y66)</f>
+        <v>2.8211502089185982</v>
+      </c>
+      <c r="AM66" s="3">
+        <f t="shared" ref="AM66" si="825">S66*100/SUM($P66:$Y66)</f>
+        <v>6.1858298908660805</v>
+      </c>
+      <c r="AN66" s="3">
+        <f t="shared" ref="AN66" si="826">T66*100/SUM($P66:$Y66)</f>
+        <v>6.8651819937075462</v>
+      </c>
+      <c r="AO66" s="3">
+        <f t="shared" ref="AO66" si="827">U66*100/SUM($P66:$Y66)</f>
+        <v>8.9857923257432706</v>
+      </c>
+      <c r="AP66" s="3">
+        <f t="shared" ref="AP66" si="828">V66*100/SUM($P66:$Y66)</f>
+        <v>8.1341275276942042</v>
+      </c>
+      <c r="AQ66" s="3">
+        <f t="shared" ref="AQ66" si="829">W66*100/SUM($P66:$Y66)</f>
+        <v>7.0644252802721219</v>
+      </c>
+      <c r="AR66" s="3">
+        <f t="shared" ref="AR66" si="830">X66*100/SUM($P66:$Y66)</f>
+        <v>11.965928310578528</v>
+      </c>
+      <c r="AS66" s="3">
+        <f t="shared" ref="AS66" si="831">Y66*100/SUM($P66:$Y66)</f>
+        <v>44.975041813145175</v>
       </c>
     </row>
   </sheetData>
@@ -24331,11 +24769,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
+      <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24476,7 +24914,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F77" si="1">E4-E3</f>
+        <f t="shared" ref="F4:F78" si="1">E4-E3</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -24489,7 +24927,7 @@
         <v>260</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J77" si="2">I4-I3</f>
+        <f t="shared" ref="J4:J78" si="2">I4-I3</f>
         <v>18</v>
       </c>
       <c r="K4" t="s">
@@ -26746,7 +27184,7 @@
         <v>33417</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:C77" si="4">B64-B63</f>
+        <f t="shared" ref="C64:C78" si="4">B64-B63</f>
         <v>794</v>
       </c>
       <c r="D64">
@@ -27268,6 +27706,44 @@
       </c>
       <c r="K77">
         <v>12045</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B78">
+        <v>44197</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="4"/>
+        <v>570</v>
+      </c>
+      <c r="D78">
+        <v>28053</v>
+      </c>
+      <c r="E78">
+        <v>3647</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="G78">
+        <v>1784</v>
+      </c>
+      <c r="H78">
+        <v>180</v>
+      </c>
+      <c r="I78">
+        <v>302358</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="2"/>
+        <v>5367</v>
+      </c>
+      <c r="K78">
+        <v>12497</v>
       </c>
     </row>
   </sheetData>
@@ -27277,11 +27753,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27868,11 +28344,11 @@
         <v>43936</v>
       </c>
       <c r="B34">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>8065</v>
+        <v>8063</v>
       </c>
       <c r="E34" s="19">
         <v>43936</v>
@@ -27882,7 +28358,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G36" si="6">C34-F34</f>
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -27894,7 +28370,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>8558</v>
+        <v>8556</v>
       </c>
       <c r="E35" s="19">
         <v>43937</v>
@@ -27904,7 +28380,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -27912,11 +28388,11 @@
         <v>43938</v>
       </c>
       <c r="B36">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
-        <v>9129</v>
+        <v>9125</v>
       </c>
       <c r="E36" s="19">
         <v>43938</v>
@@ -27926,7 +28402,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -27938,7 +28414,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
-        <v>9453</v>
+        <v>9449</v>
       </c>
       <c r="E37" s="19">
         <v>43939</v>
@@ -27948,7 +28424,7 @@
       </c>
       <c r="G37">
         <f t="shared" ref="G37" si="7">C37-F37</f>
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -27956,11 +28432,11 @@
         <v>43940</v>
       </c>
       <c r="B38" s="23">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C39" si="8">C37+B38</f>
-        <v>9882</v>
+        <v>9877</v>
       </c>
       <c r="E38" s="19">
         <v>43940</v>
@@ -27970,7 +28446,7 @@
       </c>
       <c r="G38">
         <f t="shared" ref="G38" si="9">C38-F38</f>
-        <v>918</v>
+        <v>913</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -27978,11 +28454,11 @@
         <v>43941</v>
       </c>
       <c r="B39">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C39">
         <f t="shared" si="8"/>
-        <v>10368</v>
+        <v>10364</v>
       </c>
       <c r="E39" s="19">
         <v>43941</v>
@@ -27992,7 +28468,7 @@
       </c>
       <c r="G39">
         <f t="shared" ref="G39" si="10">C39-F39</f>
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -28004,7 +28480,7 @@
       </c>
       <c r="C40">
         <f t="shared" ref="C40" si="11">C39+B40</f>
-        <v>10831</v>
+        <v>10827</v>
       </c>
       <c r="E40" s="19">
         <v>43942</v>
@@ -28014,7 +28490,7 @@
       </c>
       <c r="G40">
         <f t="shared" ref="G40" si="12">C40-F40</f>
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -28026,7 +28502,7 @@
       </c>
       <c r="C41">
         <f t="shared" ref="C41:C52" si="13">C40+B41</f>
-        <v>11373</v>
+        <v>11369</v>
       </c>
       <c r="E41" s="19">
         <v>43943</v>
@@ -28036,7 +28512,7 @@
       </c>
       <c r="G41">
         <f t="shared" ref="G41" si="14">C41-F41</f>
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -28044,11 +28520,11 @@
         <v>43944</v>
       </c>
       <c r="B42" s="23">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C42">
         <f t="shared" si="13"/>
-        <v>11901</v>
+        <v>11896</v>
       </c>
       <c r="E42" s="19">
         <v>43944</v>
@@ -28058,7 +28534,7 @@
       </c>
       <c r="G42">
         <f t="shared" ref="G42:G44" si="15">C42-F42</f>
-        <v>1004</v>
+        <v>999</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -28066,11 +28542,11 @@
         <v>43945</v>
       </c>
       <c r="B43" s="23">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C43">
         <f t="shared" si="13"/>
-        <v>12399</v>
+        <v>12395</v>
       </c>
       <c r="E43" s="19">
         <v>43945</v>
@@ -28080,7 +28556,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="15"/>
-        <v>1238</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -28092,7 +28568,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="13"/>
-        <v>12718</v>
+        <v>12714</v>
       </c>
       <c r="E44" s="19">
         <v>43946</v>
@@ -28102,7 +28578,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="15"/>
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -28110,11 +28586,11 @@
         <v>43947</v>
       </c>
       <c r="B45" s="23">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C45">
         <f t="shared" si="13"/>
-        <v>13020</v>
+        <v>13015</v>
       </c>
       <c r="E45" s="19">
         <v>43947</v>
@@ -28124,7 +28600,7 @@
       </c>
       <c r="G45">
         <f>C45-F45</f>
-        <v>986</v>
+        <v>981</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -28132,11 +28608,11 @@
         <v>43948</v>
       </c>
       <c r="B46" s="23">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C46">
         <f t="shared" si="13"/>
-        <v>13484</v>
+        <v>13478</v>
       </c>
       <c r="E46" s="19">
         <v>43948</v>
@@ -28146,7 +28622,7 @@
       </c>
       <c r="G46">
         <f>C46-F46</f>
-        <v>997</v>
+        <v>991</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -28154,11 +28630,11 @@
         <v>43949</v>
       </c>
       <c r="B47" s="23">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C47">
         <f t="shared" si="13"/>
-        <v>13957</v>
+        <v>13954</v>
       </c>
       <c r="E47" s="19">
         <v>43949</v>
@@ -28168,7 +28644,7 @@
       </c>
       <c r="G47">
         <f t="shared" ref="G47:G52" si="16">C47-F47</f>
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -28176,11 +28652,11 @@
         <v>43950</v>
       </c>
       <c r="B48" s="23">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C48">
         <f t="shared" si="13"/>
-        <v>14482</v>
+        <v>14476</v>
       </c>
       <c r="E48" s="19">
         <v>43950</v>
@@ -28190,7 +28666,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="16"/>
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -28198,11 +28674,11 @@
         <v>43951</v>
       </c>
       <c r="B49" s="23">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C49">
         <f t="shared" si="13"/>
-        <v>15084</v>
+        <v>15076</v>
       </c>
       <c r="E49" s="19">
         <v>43951</v>
@@ -28212,7 +28688,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="16"/>
-        <v>1105</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -28220,11 +28696,11 @@
         <v>43952</v>
       </c>
       <c r="B50" s="23">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C50">
         <f t="shared" si="13"/>
-        <v>15701</v>
+        <v>15694</v>
       </c>
       <c r="E50" s="19">
         <v>43952</v>
@@ -28234,7 +28710,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="16"/>
-        <v>1102</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -28242,11 +28718,11 @@
         <v>43953</v>
       </c>
       <c r="B51" s="23">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C51">
         <f t="shared" si="13"/>
-        <v>16236</v>
+        <v>16226</v>
       </c>
       <c r="E51" s="19">
         <v>43953</v>
@@ -28256,7 +28732,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="16"/>
-        <v>-15</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -28268,7 +28744,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="13"/>
-        <v>16585</v>
+        <v>16575</v>
       </c>
       <c r="E52" s="19">
         <v>43954</v>
@@ -28278,7 +28754,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="16"/>
-        <v>-21</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -28286,11 +28762,11 @@
         <v>43955</v>
       </c>
       <c r="B53" s="23">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C53">
         <f t="shared" ref="C53" si="17">C52+B53</f>
-        <v>17008</v>
+        <v>16997</v>
       </c>
       <c r="E53" s="19">
         <v>43955</v>
@@ -28300,7 +28776,7 @@
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="18">C53-F53</f>
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -28308,11 +28784,11 @@
         <v>43956</v>
       </c>
       <c r="B54" s="23">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C54">
         <f t="shared" ref="C54:C61" si="19">C53+B54</f>
-        <v>17492</v>
+        <v>17480</v>
       </c>
       <c r="E54" s="19">
         <v>43956</v>
@@ -28322,7 +28798,7 @@
       </c>
       <c r="G54">
         <f t="shared" ref="G54" si="20">C54-F54</f>
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -28330,11 +28806,11 @@
         <v>43957</v>
       </c>
       <c r="B55" s="23">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C55">
         <f t="shared" si="19"/>
-        <v>18068</v>
+        <v>18057</v>
       </c>
       <c r="E55" s="19">
         <v>43957</v>
@@ -28344,7 +28820,7 @@
       </c>
       <c r="G55">
         <f t="shared" ref="G55:G58" si="21">C55-F55</f>
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -28352,11 +28828,11 @@
         <v>43958</v>
       </c>
       <c r="B56" s="23">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C56">
         <f t="shared" si="19"/>
-        <v>18509</v>
+        <v>18499</v>
       </c>
       <c r="E56" s="19">
         <v>43958</v>
@@ -28366,7 +28842,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="21"/>
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -28374,11 +28850,11 @@
         <v>43959</v>
       </c>
       <c r="B57" s="23">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C57">
         <f t="shared" si="19"/>
-        <v>18955</v>
+        <v>18941</v>
       </c>
       <c r="E57" s="19">
         <v>43959</v>
@@ -28388,7 +28864,7 @@
       </c>
       <c r="G57">
         <f t="shared" si="21"/>
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -28396,11 +28872,11 @@
         <v>43960</v>
       </c>
       <c r="B58" s="23">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C58">
         <f t="shared" si="19"/>
-        <v>19271</v>
+        <v>19256</v>
       </c>
       <c r="E58" s="19">
         <v>43960</v>
@@ -28410,7 +28886,7 @@
       </c>
       <c r="G58">
         <f t="shared" si="21"/>
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -28418,11 +28894,11 @@
         <v>43961</v>
       </c>
       <c r="B59" s="23">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C59">
         <f t="shared" si="19"/>
-        <v>19576</v>
+        <v>19562</v>
       </c>
       <c r="E59" s="19">
         <v>43961</v>
@@ -28432,7 +28908,7 @@
       </c>
       <c r="G59">
         <f t="shared" ref="G59" si="22">C59-F59</f>
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -28440,11 +28916,11 @@
         <v>43962</v>
       </c>
       <c r="B60" s="23">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C60">
         <f t="shared" si="19"/>
-        <v>19947</v>
+        <v>19932</v>
       </c>
       <c r="E60" s="19">
         <v>43962</v>
@@ -28454,7 +28930,7 @@
       </c>
       <c r="G60">
         <f t="shared" ref="G60:G64" si="23">C60-F60</f>
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -28462,11 +28938,11 @@
         <v>43963</v>
       </c>
       <c r="B61" s="23">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C61">
         <f t="shared" si="19"/>
-        <v>20386</v>
+        <v>20369</v>
       </c>
       <c r="E61" s="19">
         <v>43963</v>
@@ -28476,7 +28952,7 @@
       </c>
       <c r="G61">
         <f t="shared" si="23"/>
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -28484,11 +28960,11 @@
         <v>43964</v>
       </c>
       <c r="B62" s="23">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C62">
         <f t="shared" ref="C62:C64" si="24">C61+B62</f>
-        <v>20783</v>
+        <v>20762</v>
       </c>
       <c r="E62" s="19">
         <v>43964</v>
@@ -28498,7 +28974,7 @@
       </c>
       <c r="G62">
         <f t="shared" si="23"/>
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -28506,11 +28982,11 @@
         <v>43965</v>
       </c>
       <c r="B63" s="23">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C63">
         <f t="shared" si="24"/>
-        <v>21153</v>
+        <v>21128</v>
       </c>
       <c r="E63" s="19">
         <v>43965</v>
@@ -28520,7 +28996,7 @@
       </c>
       <c r="G63">
         <f t="shared" si="23"/>
-        <v>117</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -28528,11 +29004,11 @@
         <v>43966</v>
       </c>
       <c r="B64" s="23">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C64">
         <f t="shared" si="24"/>
-        <v>21508</v>
+        <v>21478</v>
       </c>
       <c r="E64" s="19">
         <v>43966</v>
@@ -28542,19 +29018,19 @@
       </c>
       <c r="G64">
         <f t="shared" si="23"/>
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="19">
         <v>43967</v>
       </c>
-      <c r="B65" s="24">
-        <v>269</v>
+      <c r="B65" s="23">
+        <v>267</v>
       </c>
       <c r="C65">
-        <f t="shared" ref="C65:C66" si="25">C64+B65</f>
-        <v>21777</v>
+        <f t="shared" ref="C65:C67" si="25">C64+B65</f>
+        <v>21745</v>
       </c>
       <c r="E65" s="19">
         <v>43967</v>
@@ -28564,7 +29040,7 @@
       </c>
       <c r="G65">
         <f t="shared" ref="G65" si="26">C65-F65</f>
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -28572,11 +29048,11 @@
         <v>43968</v>
       </c>
       <c r="B66" s="23">
-        <v>251</v>
+        <v>340</v>
       </c>
       <c r="C66">
         <f t="shared" si="25"/>
-        <v>22028</v>
+        <v>22085</v>
       </c>
       <c r="E66" s="19">
         <v>43968</v>
@@ -28585,7 +29061,29 @@
         <v>22028</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66" si="27">C66-F66</f>
+        <f t="shared" ref="G66:G67" si="27">C66-F66</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="19">
+        <v>43969</v>
+      </c>
+      <c r="B67" s="23">
+        <v>232</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="25"/>
+        <v>22317</v>
+      </c>
+      <c r="E67" s="19">
+        <v>43969</v>
+      </c>
+      <c r="F67">
+        <v>22317</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -28599,9 +29097,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH118"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AX2" sqref="AX2:AX35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AY2" sqref="AY2:AY35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28758,12 +29256,14 @@
         <v>310</v>
       </c>
       <c r="AW1" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AX1" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="AY1" s="5"/>
+        <v>315</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>324</v>
+      </c>
       <c r="AZ1" s="5"/>
       <c r="BA1" s="5"/>
       <c r="BB1" s="5"/>
@@ -29081,7 +29581,9 @@
       <c r="AX2" s="7">
         <v>1817</v>
       </c>
-      <c r="AY2" s="7"/>
+      <c r="AY2" s="7">
+        <v>1842</v>
+      </c>
       <c r="AZ2" s="7"/>
       <c r="BA2" s="7"/>
       <c r="BB2" s="7"/>
@@ -29399,7 +29901,9 @@
       <c r="AX3" s="9">
         <v>537</v>
       </c>
-      <c r="AY3" s="9"/>
+      <c r="AY3" s="9">
+        <v>545</v>
+      </c>
       <c r="AZ3" s="9"/>
       <c r="BA3" s="9"/>
       <c r="BB3" s="9"/>
@@ -29717,7 +30221,9 @@
       <c r="AX4" s="7">
         <v>16</v>
       </c>
-      <c r="AY4" s="7"/>
+      <c r="AY4" s="7">
+        <v>16</v>
+      </c>
       <c r="AZ4" s="7"/>
       <c r="BA4" s="7"/>
       <c r="BB4" s="7"/>
@@ -30035,7 +30541,9 @@
       <c r="AX5" s="9">
         <v>50</v>
       </c>
-      <c r="AY5" s="9"/>
+      <c r="AY5" s="9">
+        <v>50</v>
+      </c>
       <c r="AZ5" s="9"/>
       <c r="BA5" s="9"/>
       <c r="BB5" s="9"/>
@@ -30353,7 +30861,9 @@
       <c r="AX6" s="7">
         <v>1787</v>
       </c>
-      <c r="AY6" s="7"/>
+      <c r="AY6" s="7">
+        <v>1811</v>
+      </c>
       <c r="AZ6" s="7"/>
       <c r="BA6" s="7"/>
       <c r="BB6" s="7"/>
@@ -30671,7 +31181,9 @@
       <c r="AX7" s="9">
         <v>437</v>
       </c>
-      <c r="AY7" s="9"/>
+      <c r="AY7" s="9">
+        <v>443</v>
+      </c>
       <c r="AZ7" s="9"/>
       <c r="BA7" s="9"/>
       <c r="BB7" s="9"/>
@@ -30989,7 +31501,9 @@
       <c r="AX8" s="7">
         <v>339</v>
       </c>
-      <c r="AY8" s="7"/>
+      <c r="AY8" s="7">
+        <v>338</v>
+      </c>
       <c r="AZ8" s="7"/>
       <c r="BA8" s="7"/>
       <c r="BB8" s="7"/>
@@ -31307,7 +31821,9 @@
       <c r="AX9" s="9">
         <v>163</v>
       </c>
-      <c r="AY9" s="9"/>
+      <c r="AY9" s="9">
+        <v>164</v>
+      </c>
       <c r="AZ9" s="9"/>
       <c r="BA9" s="9"/>
       <c r="BB9" s="9"/>
@@ -31625,7 +32141,9 @@
       <c r="AX10" s="7">
         <v>50</v>
       </c>
-      <c r="AY10" s="7"/>
+      <c r="AY10" s="7">
+        <v>53</v>
+      </c>
       <c r="AZ10" s="7"/>
       <c r="BA10" s="7"/>
       <c r="BB10" s="7"/>
@@ -31943,7 +32461,9 @@
       <c r="AX11" s="9">
         <v>93</v>
       </c>
-      <c r="AY11" s="9"/>
+      <c r="AY11" s="9">
+        <v>93</v>
+      </c>
       <c r="AZ11" s="9"/>
       <c r="BA11" s="9"/>
       <c r="BB11" s="9"/>
@@ -32261,7 +32781,9 @@
       <c r="AX12" s="7">
         <v>465</v>
       </c>
-      <c r="AY12" s="7"/>
+      <c r="AY12" s="7">
+        <v>470</v>
+      </c>
       <c r="AZ12" s="7"/>
       <c r="BA12" s="7"/>
       <c r="BB12" s="7"/>
@@ -32579,7 +33101,9 @@
       <c r="AX13" s="9">
         <v>996</v>
       </c>
-      <c r="AY13" s="9"/>
+      <c r="AY13" s="9">
+        <v>1002</v>
+      </c>
       <c r="AZ13" s="9"/>
       <c r="BA13" s="9"/>
       <c r="BB13" s="9"/>
@@ -32897,7 +33421,9 @@
       <c r="AX14" s="7">
         <v>172</v>
       </c>
-      <c r="AY14" s="7"/>
+      <c r="AY14" s="7">
+        <v>173</v>
+      </c>
       <c r="AZ14" s="7"/>
       <c r="BA14" s="7"/>
       <c r="BB14" s="7"/>
@@ -33215,7 +33741,9 @@
       <c r="AX15" s="9">
         <v>1825</v>
       </c>
-      <c r="AY15" s="9"/>
+      <c r="AY15" s="9">
+        <v>1844</v>
+      </c>
       <c r="AZ15" s="9"/>
       <c r="BA15" s="9"/>
       <c r="BB15" s="9"/>
@@ -33533,7 +34061,9 @@
       <c r="AX16" s="7">
         <v>32</v>
       </c>
-      <c r="AY16" s="7"/>
+      <c r="AY16" s="7">
+        <v>32</v>
+      </c>
       <c r="AZ16" s="7"/>
       <c r="BA16" s="7"/>
       <c r="BB16" s="7"/>
@@ -33851,7 +34381,9 @@
       <c r="AX17" s="9">
         <v>2028</v>
       </c>
-      <c r="AY17" s="9"/>
+      <c r="AY17" s="9">
+        <v>2052</v>
+      </c>
       <c r="AZ17" s="9"/>
       <c r="BA17" s="9"/>
       <c r="BB17" s="9"/>
@@ -34169,7 +34701,9 @@
       <c r="AX18" s="7">
         <v>17</v>
       </c>
-      <c r="AY18" s="7"/>
+      <c r="AY18" s="7">
+        <v>17</v>
+      </c>
       <c r="AZ18" s="7"/>
       <c r="BA18" s="7"/>
       <c r="BB18" s="7"/>
@@ -34487,7 +35021,9 @@
       <c r="AX19" s="9">
         <v>232</v>
       </c>
-      <c r="AY19" s="9"/>
+      <c r="AY19" s="9">
+        <v>234</v>
+      </c>
       <c r="AZ19" s="9"/>
       <c r="BA19" s="9"/>
       <c r="BB19" s="9"/>
@@ -34805,7 +35341,9 @@
       <c r="AX20" s="7">
         <v>235</v>
       </c>
-      <c r="AY20" s="7"/>
+      <c r="AY20" s="7">
+        <v>235</v>
+      </c>
       <c r="AZ20" s="7"/>
       <c r="BA20" s="7"/>
       <c r="BB20" s="7"/>
@@ -35123,7 +35661,9 @@
       <c r="AX21" s="9">
         <v>439</v>
       </c>
-      <c r="AY21" s="9"/>
+      <c r="AY21" s="9">
+        <v>443</v>
+      </c>
       <c r="AZ21" s="9"/>
       <c r="BA21" s="9"/>
       <c r="BB21" s="9"/>
@@ -35441,7 +35981,9 @@
       <c r="AX22" s="7">
         <v>765</v>
       </c>
-      <c r="AY22" s="7"/>
+      <c r="AY22" s="7">
+        <v>776</v>
+      </c>
       <c r="AZ22" s="7"/>
       <c r="BA22" s="7"/>
       <c r="BB22" s="7"/>
@@ -35759,7 +36301,9 @@
       <c r="AX23" s="9">
         <v>166</v>
       </c>
-      <c r="AY23" s="9"/>
+      <c r="AY23" s="9">
+        <v>171</v>
+      </c>
       <c r="AZ23" s="9"/>
       <c r="BA23" s="9"/>
       <c r="BB23" s="9"/>
@@ -36077,7 +36621,9 @@
       <c r="AX24" s="7">
         <v>1730</v>
       </c>
-      <c r="AY24" s="7"/>
+      <c r="AY24" s="7">
+        <v>1755</v>
+      </c>
       <c r="AZ24" s="7"/>
       <c r="BA24" s="7"/>
       <c r="BB24" s="7"/>
@@ -36395,7 +36941,9 @@
       <c r="AX25" s="9">
         <v>1231</v>
       </c>
-      <c r="AY25" s="9"/>
+      <c r="AY25" s="9">
+        <v>1247</v>
+      </c>
       <c r="AZ25" s="9"/>
       <c r="BA25" s="9"/>
       <c r="BB25" s="9"/>
@@ -36713,7 +37261,9 @@
       <c r="AX26" s="7">
         <v>18</v>
       </c>
-      <c r="AY26" s="7"/>
+      <c r="AY26" s="7">
+        <v>18</v>
+      </c>
       <c r="AZ26" s="7"/>
       <c r="BA26" s="7"/>
       <c r="BB26" s="7"/>
@@ -37031,7 +37581,9 @@
       <c r="AX27" s="9">
         <v>806</v>
       </c>
-      <c r="AY27" s="9"/>
+      <c r="AY27" s="9">
+        <v>824</v>
+      </c>
       <c r="AZ27" s="9"/>
       <c r="BA27" s="9"/>
       <c r="BB27" s="9"/>
@@ -37349,7 +37901,9 @@
       <c r="AX28" s="7">
         <v>876</v>
       </c>
-      <c r="AY28" s="7"/>
+      <c r="AY28" s="7">
+        <v>893</v>
+      </c>
       <c r="AZ28" s="7"/>
       <c r="BA28" s="7"/>
       <c r="BB28" s="7"/>
@@ -37667,7 +38221,9 @@
       <c r="AX29" s="20">
         <v>2</v>
       </c>
-      <c r="AY29" s="22"/>
+      <c r="AY29" s="20">
+        <v>2</v>
+      </c>
       <c r="AZ29" s="22"/>
       <c r="BA29" s="22"/>
       <c r="BB29" s="22"/>
@@ -37985,7 +38541,9 @@
       <c r="AX30" s="7">
         <v>764</v>
       </c>
-      <c r="AY30" s="7"/>
+      <c r="AY30" s="7">
+        <v>781</v>
+      </c>
       <c r="AZ30" s="7"/>
       <c r="BA30" s="7"/>
       <c r="BB30" s="7"/>
@@ -38303,7 +38861,9 @@
       <c r="AX31" s="9">
         <v>826</v>
       </c>
-      <c r="AY31" s="9"/>
+      <c r="AY31" s="9">
+        <v>835</v>
+      </c>
       <c r="AZ31" s="9"/>
       <c r="BA31" s="9"/>
       <c r="BB31" s="9"/>
@@ -38621,7 +39181,9 @@
       <c r="AX32" s="7">
         <v>611</v>
       </c>
-      <c r="AY32" s="7"/>
+      <c r="AY32" s="7">
+        <v>633</v>
+      </c>
       <c r="AZ32" s="7"/>
       <c r="BA32" s="7"/>
       <c r="BB32" s="7"/>
@@ -38939,7 +39501,9 @@
       <c r="AX33" s="9">
         <v>1549</v>
       </c>
-      <c r="AY33" s="9"/>
+      <c r="AY33" s="9">
+        <v>1569</v>
+      </c>
       <c r="AZ33" s="9"/>
       <c r="BA33" s="9"/>
       <c r="BB33" s="9"/>
@@ -39257,7 +39821,9 @@
       <c r="AX34" s="7">
         <v>159</v>
       </c>
-      <c r="AY34" s="7"/>
+      <c r="AY34" s="7">
+        <v>159</v>
+      </c>
       <c r="AZ34" s="7"/>
       <c r="BA34" s="7"/>
       <c r="BB34" s="7"/>
@@ -39575,7 +40141,9 @@
       <c r="AX35" s="9">
         <v>796</v>
       </c>
-      <c r="AY35" s="9"/>
+      <c r="AY35" s="9">
+        <v>798</v>
+      </c>
       <c r="AZ35" s="9"/>
       <c r="BA35" s="9"/>
       <c r="BB35" s="9"/>
@@ -39893,7 +40461,9 @@
       <c r="AX36" s="11">
         <v>22028</v>
       </c>
-      <c r="AY36" s="11"/>
+      <c r="AY36" s="11">
+        <v>22317</v>
+      </c>
       <c r="AZ36" s="11"/>
       <c r="BA36" s="11"/>
       <c r="BB36" s="11"/>
@@ -44366,7 +44936,9 @@
       <c r="AX57" s="7">
         <v>223</v>
       </c>
-      <c r="AY57" s="7"/>
+      <c r="AY57" s="7">
+        <v>227</v>
+      </c>
       <c r="AZ57" s="7"/>
       <c r="BA57" s="7"/>
       <c r="BB57" s="7"/>
@@ -44682,7 +45254,9 @@
       <c r="AX58" s="9">
         <v>199</v>
       </c>
-      <c r="AY58" s="9"/>
+      <c r="AY58" s="9">
+        <v>205</v>
+      </c>
       <c r="AZ58" s="9"/>
       <c r="BA58" s="9"/>
       <c r="BB58" s="9"/>
@@ -44998,7 +45572,9 @@
       <c r="AX59" s="7">
         <v>697</v>
       </c>
-      <c r="AY59" s="7"/>
+      <c r="AY59" s="7">
+        <v>713</v>
+      </c>
       <c r="AZ59" s="7"/>
       <c r="BA59" s="7"/>
       <c r="BB59" s="7"/>
@@ -45314,7 +45890,9 @@
       <c r="AX60" s="9">
         <v>2410</v>
       </c>
-      <c r="AY60" s="9"/>
+      <c r="AY60" s="9">
+        <v>2436</v>
+      </c>
       <c r="AZ60" s="9"/>
       <c r="BA60" s="9"/>
       <c r="BB60" s="9"/>
@@ -45630,7 +46208,9 @@
       <c r="AX61" s="7">
         <v>2713</v>
       </c>
-      <c r="AY61" s="7"/>
+      <c r="AY61" s="7">
+        <v>2763</v>
+      </c>
       <c r="AZ61" s="7"/>
       <c r="BA61" s="7"/>
       <c r="BB61" s="7"/>
@@ -45946,7 +46526,9 @@
       <c r="AX62" s="9">
         <v>3035</v>
       </c>
-      <c r="AY62" s="9"/>
+      <c r="AY62" s="9">
+        <v>3071</v>
+      </c>
       <c r="AZ62" s="9"/>
       <c r="BA62" s="9"/>
       <c r="BB62" s="9"/>
@@ -46262,7 +46844,9 @@
       <c r="AX63" s="7">
         <v>2798</v>
       </c>
-      <c r="AY63" s="7"/>
+      <c r="AY63" s="7">
+        <v>2828</v>
+      </c>
       <c r="AZ63" s="7"/>
       <c r="BA63" s="7"/>
       <c r="BB63" s="7"/>
@@ -46578,7 +47162,9 @@
       <c r="AX64" s="9">
         <v>1914</v>
       </c>
-      <c r="AY64" s="9"/>
+      <c r="AY64" s="9">
+        <v>1945</v>
+      </c>
       <c r="AZ64" s="9"/>
       <c r="BA64" s="9"/>
       <c r="BB64" s="9"/>
@@ -46894,7 +47480,9 @@
       <c r="AX65" s="7">
         <v>2058</v>
       </c>
-      <c r="AY65" s="7"/>
+      <c r="AY65" s="7">
+        <v>2084</v>
+      </c>
       <c r="AZ65" s="7"/>
       <c r="BA65" s="7"/>
       <c r="BB65" s="7"/>
@@ -47210,7 +47798,9 @@
       <c r="AX66" s="9">
         <v>5907</v>
       </c>
-      <c r="AY66" s="9"/>
+      <c r="AY66" s="9">
+        <v>5968</v>
+      </c>
       <c r="AZ66" s="9"/>
       <c r="BA66" s="9"/>
       <c r="BB66" s="9"/>
@@ -47526,7 +48116,9 @@
       <c r="AX67" s="7">
         <v>74</v>
       </c>
-      <c r="AY67" s="7"/>
+      <c r="AY67" s="7">
+        <v>77</v>
+      </c>
       <c r="AZ67" s="7"/>
       <c r="BA67" s="7"/>
       <c r="BB67" s="7"/>
@@ -47842,7 +48434,9 @@
       <c r="AX68" s="15">
         <v>22028</v>
       </c>
-      <c r="AY68" s="15"/>
+      <c r="AY68" s="15">
+        <v>22317</v>
+      </c>
       <c r="AZ68" s="15"/>
       <c r="BA68" s="15"/>
       <c r="BB68" s="15"/>
@@ -48499,6 +49093,9 @@
       <c r="AX71">
         <v>245</v>
       </c>
+      <c r="AY71">
+        <v>247</v>
+      </c>
     </row>
     <row r="72" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="8" t="s">
@@ -48552,6 +49149,9 @@
       <c r="AX72">
         <v>34</v>
       </c>
+      <c r="AY72">
+        <v>35</v>
+      </c>
     </row>
     <row r="73" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
@@ -48605,6 +49205,9 @@
       <c r="AX73">
         <v>0</v>
       </c>
+      <c r="AY73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="8" t="s">
@@ -48658,6 +49261,9 @@
       <c r="AX74">
         <v>6</v>
       </c>
+      <c r="AY74">
+        <v>6</v>
+      </c>
     </row>
     <row r="75" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="6" t="s">
@@ -48711,6 +49317,9 @@
       <c r="AX75">
         <v>190</v>
       </c>
+      <c r="AY75">
+        <v>192</v>
+      </c>
     </row>
     <row r="76" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="8" t="s">
@@ -48764,6 +49373,9 @@
       <c r="AX76">
         <v>24</v>
       </c>
+      <c r="AY76">
+        <v>24</v>
+      </c>
     </row>
     <row r="77" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="6" t="s">
@@ -48817,6 +49429,9 @@
       <c r="AX77">
         <v>43</v>
       </c>
+      <c r="AY77">
+        <v>43</v>
+      </c>
     </row>
     <row r="78" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="8" t="s">
@@ -48870,6 +49485,9 @@
       <c r="AX78">
         <v>30</v>
       </c>
+      <c r="AY78">
+        <v>32</v>
+      </c>
     </row>
     <row r="79" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
@@ -48923,6 +49541,9 @@
       <c r="AX79" s="24" t="s">
         <v>292</v>
       </c>
+      <c r="AY79" s="24" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="80" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="8" t="s">
@@ -48976,8 +49597,11 @@
       <c r="AX80">
         <v>10</v>
       </c>
+      <c r="AY80">
+        <v>10</v>
+      </c>
     </row>
-    <row r="81" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
         <v>47</v>
       </c>
@@ -49029,8 +49653,11 @@
       <c r="AX81">
         <v>59</v>
       </c>
+      <c r="AY81">
+        <v>59</v>
+      </c>
     </row>
-    <row r="82" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="8" t="s">
         <v>48</v>
       </c>
@@ -49082,8 +49709,11 @@
       <c r="AX82">
         <v>134</v>
       </c>
+      <c r="AY82">
+        <v>134</v>
+      </c>
     </row>
-    <row r="83" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
         <v>49</v>
       </c>
@@ -49135,8 +49765,11 @@
       <c r="AX83">
         <v>23</v>
       </c>
+      <c r="AY83">
+        <v>23</v>
+      </c>
     </row>
-    <row r="84" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="8" t="s">
         <v>50</v>
       </c>
@@ -49188,8 +49821,11 @@
       <c r="AX84">
         <v>251</v>
       </c>
+      <c r="AY84">
+        <v>258</v>
+      </c>
     </row>
-    <row r="85" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
         <v>51</v>
       </c>
@@ -49241,8 +49877,11 @@
       <c r="AX85" s="24" t="s">
         <v>292</v>
       </c>
+      <c r="AY85" s="24" t="s">
+        <v>292</v>
+      </c>
     </row>
-    <row r="86" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="8" t="s">
         <v>52</v>
       </c>
@@ -49294,8 +49933,11 @@
       <c r="AX86">
         <v>157</v>
       </c>
+      <c r="AY86">
+        <v>158</v>
+      </c>
     </row>
-    <row r="87" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
         <v>53</v>
       </c>
@@ -49347,8 +49989,11 @@
       <c r="AX87" s="24" t="s">
         <v>292</v>
       </c>
+      <c r="AY87" s="24" t="s">
+        <v>292</v>
+      </c>
     </row>
-    <row r="88" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="8" t="s">
         <v>54</v>
       </c>
@@ -49400,8 +50045,11 @@
       <c r="AX88">
         <v>62</v>
       </c>
+      <c r="AY88">
+        <v>62</v>
+      </c>
     </row>
-    <row r="89" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
         <v>55</v>
       </c>
@@ -49453,8 +50101,11 @@
       <c r="AX89">
         <v>9</v>
       </c>
+      <c r="AY89">
+        <v>9</v>
+      </c>
     </row>
-    <row r="90" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="8" t="s">
         <v>56</v>
       </c>
@@ -49506,8 +50157,11 @@
       <c r="AX90">
         <v>21</v>
       </c>
+      <c r="AY90">
+        <v>22</v>
+      </c>
     </row>
-    <row r="91" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
         <v>57</v>
       </c>
@@ -49559,8 +50213,11 @@
       <c r="AX91">
         <v>90</v>
       </c>
+      <c r="AY91">
+        <v>91</v>
+      </c>
     </row>
-    <row r="92" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="8" t="s">
         <v>58</v>
       </c>
@@ -49612,8 +50269,11 @@
       <c r="AX92">
         <v>24</v>
       </c>
+      <c r="AY92">
+        <v>24</v>
+      </c>
     </row>
-    <row r="93" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
         <v>59</v>
       </c>
@@ -49665,8 +50325,11 @@
       <c r="AX93">
         <v>144</v>
       </c>
+      <c r="AY93">
+        <v>146</v>
+      </c>
     </row>
-    <row r="94" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="8" t="s">
         <v>60</v>
       </c>
@@ -49718,8 +50381,11 @@
       <c r="AX94">
         <v>133</v>
       </c>
+      <c r="AY94">
+        <v>136</v>
+      </c>
     </row>
-    <row r="95" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
         <v>61</v>
       </c>
@@ -49771,8 +50437,11 @@
       <c r="AX95" s="24" t="s">
         <v>292</v>
       </c>
+      <c r="AY95" s="24" t="s">
+        <v>292</v>
+      </c>
     </row>
-    <row r="96" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="8" t="s">
         <v>62</v>
       </c>
@@ -49823,6 +50492,9 @@
       </c>
       <c r="AX96">
         <v>86</v>
+      </c>
+      <c r="AY96">
+        <v>87</v>
       </c>
     </row>
     <row r="97" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -49877,6 +50549,9 @@
       <c r="AX97">
         <v>46</v>
       </c>
+      <c r="AY97">
+        <v>46</v>
+      </c>
     </row>
     <row r="98" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="8" t="s">
@@ -49930,6 +50605,9 @@
       <c r="AX98">
         <v>0</v>
       </c>
+      <c r="AY98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="6" t="s">
@@ -49983,6 +50661,9 @@
       <c r="AX99">
         <v>144</v>
       </c>
+      <c r="AY99">
+        <v>144</v>
+      </c>
     </row>
     <row r="100" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="8" t="s">
@@ -50036,6 +50717,9 @@
       <c r="AX100">
         <v>114</v>
       </c>
+      <c r="AY100">
+        <v>114</v>
+      </c>
     </row>
     <row r="101" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="6" t="s">
@@ -50089,6 +50773,9 @@
       <c r="AX101">
         <v>44</v>
       </c>
+      <c r="AY101">
+        <v>46</v>
+      </c>
     </row>
     <row r="102" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="8" t="s">
@@ -50142,6 +50829,9 @@
       <c r="AX102">
         <v>99</v>
       </c>
+      <c r="AY102">
+        <v>100</v>
+      </c>
     </row>
     <row r="103" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
@@ -50195,6 +50885,9 @@
       <c r="AX103">
         <v>18</v>
       </c>
+      <c r="AY103">
+        <v>18</v>
+      </c>
     </row>
     <row r="104" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="8" t="s">
@@ -50248,6 +50941,9 @@
       <c r="AX104">
         <v>49</v>
       </c>
+      <c r="AY104">
+        <v>49</v>
+      </c>
     </row>
     <row r="105" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="10" t="s">
@@ -50300,6 +50996,9 @@
       </c>
       <c r="AX105">
         <v>2296</v>
+      </c>
+      <c r="AY105">
+        <v>2323</v>
       </c>
     </row>
     <row r="106" spans="1:216" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -50574,6 +51273,9 @@
       <c r="AX107">
         <v>0</v>
       </c>
+      <c r="AY107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
@@ -50627,6 +51329,9 @@
       <c r="AX108">
         <v>0</v>
       </c>
+      <c r="AY108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
@@ -50680,6 +51385,9 @@
       <c r="AX109">
         <v>0</v>
       </c>
+      <c r="AY109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
@@ -50733,6 +51441,9 @@
       <c r="AX110" s="24">
         <v>2</v>
       </c>
+      <c r="AY110" s="24">
+        <v>2</v>
+      </c>
     </row>
     <row r="111" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
@@ -50786,6 +51497,9 @@
       <c r="AX111" s="24">
         <v>3</v>
       </c>
+      <c r="AY111" s="24">
+        <v>4</v>
+      </c>
     </row>
     <row r="112" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
@@ -50839,8 +51553,11 @@
       <c r="AX112">
         <v>12</v>
       </c>
+      <c r="AY112">
+        <v>12</v>
+      </c>
     </row>
-    <row r="113" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -50892,8 +51609,11 @@
       <c r="AX113">
         <v>41</v>
       </c>
+      <c r="AY113">
+        <v>41</v>
+      </c>
     </row>
-    <row r="114" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>93</v>
       </c>
@@ -50945,8 +51665,11 @@
       <c r="AX114">
         <v>155</v>
       </c>
+      <c r="AY114">
+        <v>156</v>
+      </c>
     </row>
-    <row r="115" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>94</v>
       </c>
@@ -50998,8 +51721,11 @@
       <c r="AX115">
         <v>393</v>
       </c>
+      <c r="AY115">
+        <v>401</v>
+      </c>
     </row>
-    <row r="116" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>95</v>
       </c>
@@ -51051,8 +51777,11 @@
       <c r="AX116">
         <v>1690</v>
       </c>
+      <c r="AY116">
+        <v>1707</v>
+      </c>
     </row>
-    <row r="117" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -51104,8 +51833,11 @@
       <c r="AX117" s="24">
         <v>0</v>
       </c>
+      <c r="AY117" s="24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="118" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>300</v>
       </c>
@@ -51255,6 +51987,9 @@
       </c>
       <c r="AX118">
         <v>2296</v>
+      </c>
+      <c r="AY118">
+        <v>2323</v>
       </c>
     </row>
   </sheetData>
@@ -51269,7 +52004,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E12"/>
+      <selection activeCell="E4" sqref="E4:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -51279,233 +52014,257 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1">
-        <v>223</v>
+        <v>336</v>
+      </c>
+      <c r="B1" t="s">
+        <v>319</v>
       </c>
       <c r="C1" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="D1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F1" t="s">
         <v>322</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2">
-        <v>199</v>
-      </c>
-      <c r="C2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="D2">
+        <v>100000</v>
+      </c>
+      <c r="F2">
+        <v>100000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3">
-        <v>697</v>
-      </c>
-      <c r="C3" t="s">
-        <v>315</v>
-      </c>
       <c r="D3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>318</v>
+      </c>
+      <c r="F3" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" t="s">
-        <v>324</v>
+        <v>338</v>
+      </c>
+      <c r="B4">
+        <v>227</v>
       </c>
       <c r="C4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" t="s">
         <v>325</v>
       </c>
-      <c r="D4" t="s">
-        <v>326</v>
-      </c>
-      <c r="E4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F4" t="s">
-        <v>311</v>
+      <c r="E4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" t="s">
-        <v>327</v>
+        <v>339</v>
+      </c>
+      <c r="B5">
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D5" t="s">
-        <v>328</v>
-      </c>
-      <c r="E5" t="s">
-        <v>292</v>
-      </c>
-      <c r="F5" t="s">
-        <v>311</v>
+        <v>326</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" t="s">
-        <v>329</v>
+        <v>340</v>
+      </c>
+      <c r="B6">
+        <v>713</v>
       </c>
       <c r="C6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" t="s">
-        <v>331</v>
+        <v>341</v>
+      </c>
+      <c r="B7">
+        <v>2436</v>
       </c>
       <c r="C7" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="D7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E7">
-        <v>41</v>
+        <v>328</v>
+      </c>
+      <c r="E7" t="s">
+        <v>323</v>
       </c>
       <c r="F7" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" t="s">
-        <v>335</v>
+        <v>342</v>
+      </c>
+      <c r="B8">
+        <v>2763</v>
       </c>
       <c r="C8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D8" t="s">
-        <v>336</v>
-      </c>
-      <c r="E8">
-        <v>155</v>
+        <v>329</v>
+      </c>
+      <c r="E8" t="s">
+        <v>323</v>
       </c>
       <c r="F8" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>338</v>
+        <v>343</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3071</v>
       </c>
       <c r="C9" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D9" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E9">
-        <v>393</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" t="s">
-        <v>341</v>
+        <v>346</v>
+      </c>
+      <c r="B10">
+        <v>2828</v>
       </c>
       <c r="C10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D10" t="s">
-        <v>342</v>
-      </c>
-      <c r="E10" t="s">
-        <v>343</v>
+        <v>347</v>
+      </c>
+      <c r="E10">
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>348</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>1945</v>
       </c>
       <c r="C11" t="s">
-        <v>228</v>
+        <v>307</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
-      </c>
-      <c r="E11" t="s">
-        <v>228</v>
+        <v>331</v>
+      </c>
+      <c r="E11">
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>228</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B12">
+        <v>2084</v>
+      </c>
+      <c r="C12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" t="s">
+        <v>350</v>
+      </c>
+      <c r="E12">
+        <v>401</v>
+      </c>
+      <c r="F12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B13">
+        <v>5968</v>
+      </c>
+      <c r="C13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D13" t="s">
+        <v>352</v>
+      </c>
+      <c r="E13">
+        <v>1707</v>
+      </c>
+      <c r="F13" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14">
+        <v>77</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>97</v>
       </c>
-      <c r="B12" t="s">
-        <v>318</v>
-      </c>
-      <c r="C12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D12" t="s">
-        <v>345</v>
-      </c>
-      <c r="E12" t="s">
-        <v>319</v>
-      </c>
-      <c r="F12" t="s">
-        <v>320</v>
+      <c r="B15">
+        <v>22317</v>
+      </c>
+      <c r="D15" t="s">
+        <v>354</v>
+      </c>
+      <c r="E15">
+        <v>2323</v>
+      </c>
+      <c r="F15" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/app/data/covid19_MTL.xlsx
+++ b/app/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BCCCA7-E30C-458A-929A-09FFC2B5212A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAA37F4-F4EF-4BBB-8118-BA878FD04722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16960" yWindow="6680" windowWidth="23310" windowHeight="12430" tabRatio="585" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="20200" yWindow="6740" windowWidth="23690" windowHeight="14600" tabRatio="585" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="356">
   <si>
     <t>borough</t>
   </si>
@@ -994,15 +994,6 @@
     <t>0,9</t>
   </si>
   <si>
-    <t>12,4</t>
-  </si>
-  <si>
-    <t>8,7</t>
-  </si>
-  <si>
-    <t>9,4</t>
-  </si>
-  <si>
     <t>14 MAI, 18h05</t>
   </si>
   <si>
@@ -1051,37 +1042,10 @@
     <t>18 MAI, 18h05</t>
   </si>
   <si>
-    <t>204,7</t>
-  </si>
-  <si>
-    <t>189,9</t>
-  </si>
-  <si>
-    <t>358,5</t>
-  </si>
-  <si>
-    <t>756,3</t>
-  </si>
-  <si>
-    <t>841,0</t>
-  </si>
-  <si>
     <t>16,0</t>
   </si>
   <si>
-    <t>898,1</t>
-  </si>
-  <si>
-    <t>72,0</t>
-  </si>
-  <si>
-    <t>277,1</t>
-  </si>
-  <si>
     <t>26,8</t>
-  </si>
-  <si>
-    <t> 112,5</t>
   </si>
   <si>
     <t>GROUPED'ÂGE</t>
@@ -1108,16 +1072,10 @@
     <t>40-49ans</t>
   </si>
   <si>
-    <t>1103,3</t>
-  </si>
-  <si>
     <t>*4,3</t>
   </si>
   <si>
     <t>50-59ans</t>
-  </si>
-  <si>
-    <t>1101,8</t>
   </si>
   <si>
     <t>60-69ans</t>
@@ -1126,19 +1084,64 @@
     <t>70-79ans</t>
   </si>
   <si>
-    <t>1440,2</t>
-  </si>
-  <si>
     <t>80anset+</t>
   </si>
   <si>
-    <t>5906,5</t>
+    <t>855,0</t>
   </si>
   <si>
-    <t>1689,4</t>
+    <t>114,6</t>
   </si>
   <si>
-    <t> 1080,4</t>
+    <t>1095,8</t>
+  </si>
+  <si>
+    <t>19 MAI, 18h05</t>
+  </si>
+  <si>
+    <t>210,2</t>
+  </si>
+  <si>
+    <t>193,6</t>
+  </si>
+  <si>
+    <t>368,5</t>
+  </si>
+  <si>
+    <t>767,4</t>
+  </si>
+  <si>
+    <t>12,5</t>
+  </si>
+  <si>
+    <t>8,8</t>
+  </si>
+  <si>
+    <t>912,9</t>
+  </si>
+  <si>
+    <t>73,4</t>
+  </si>
+  <si>
+    <t>9,3</t>
+  </si>
+  <si>
+    <t>284,7</t>
+  </si>
+  <si>
+    <t>1115,2</t>
+  </si>
+  <si>
+    <t>1114,7</t>
+  </si>
+  <si>
+    <t>1454,7</t>
+  </si>
+  <si>
+    <t>5992,6</t>
+  </si>
+  <si>
+    <t>1719,1</t>
   </si>
 </sst>
 </file>
@@ -1652,20 +1655,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:AZ35"/>
+  <dimension ref="A1:BA35"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AY1" sqref="AY1:AZ1"/>
+    <sheetView topLeftCell="AH16" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="BA29" sqref="BA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="52" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="53" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1822,8 +1825,11 @@
       <c r="AZ1" s="19">
         <v>43969</v>
       </c>
+      <c r="BA1" s="19">
+        <v>43970</v>
+      </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1980,8 +1986,11 @@
       <c r="AZ2">
         <v>1842</v>
       </c>
+      <c r="BA2">
+        <v>1865</v>
+      </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2138,8 +2147,11 @@
       <c r="AZ3">
         <v>545</v>
       </c>
+      <c r="BA3">
+        <v>552</v>
+      </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2296,8 +2308,11 @@
       <c r="AZ4">
         <v>16</v>
       </c>
+      <c r="BA4">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2454,8 +2469,11 @@
       <c r="AZ5">
         <v>50</v>
       </c>
+      <c r="BA5">
+        <v>51</v>
+      </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2612,8 +2630,11 @@
       <c r="AZ6">
         <v>1811</v>
       </c>
+      <c r="BA6">
+        <v>1825</v>
+      </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -2770,8 +2791,11 @@
       <c r="AZ7">
         <v>443</v>
       </c>
+      <c r="BA7">
+        <v>449</v>
+      </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -2928,8 +2952,11 @@
       <c r="AZ8">
         <v>338</v>
       </c>
+      <c r="BA8">
+        <v>339</v>
+      </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -3086,8 +3113,11 @@
       <c r="AZ9">
         <v>164</v>
       </c>
+      <c r="BA9">
+        <v>164</v>
+      </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -3244,8 +3274,11 @@
       <c r="AZ10">
         <v>53</v>
       </c>
+      <c r="BA10">
+        <v>53</v>
+      </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -3402,8 +3435,11 @@
       <c r="AZ11">
         <v>93</v>
       </c>
+      <c r="BA11">
+        <v>94</v>
+      </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3560,8 +3596,11 @@
       <c r="AZ12">
         <v>470</v>
       </c>
+      <c r="BA12">
+        <v>472</v>
+      </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3718,8 +3757,11 @@
       <c r="AZ13">
         <v>1002</v>
       </c>
+      <c r="BA13">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3876,8 +3918,11 @@
       <c r="AZ14">
         <v>173</v>
       </c>
+      <c r="BA14">
+        <v>173</v>
+      </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4034,8 +4079,11 @@
       <c r="AZ15">
         <v>1844</v>
       </c>
+      <c r="BA15">
+        <v>1887</v>
+      </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -4192,8 +4240,11 @@
       <c r="AZ16">
         <v>32</v>
       </c>
+      <c r="BA16">
+        <v>32</v>
+      </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4350,8 +4401,11 @@
       <c r="AZ17">
         <v>2052</v>
       </c>
+      <c r="BA17">
+        <v>2104</v>
+      </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -4508,8 +4562,11 @@
       <c r="AZ18">
         <v>17</v>
       </c>
+      <c r="BA18">
+        <v>17</v>
+      </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -4666,8 +4723,11 @@
       <c r="AZ19">
         <v>234</v>
       </c>
+      <c r="BA19">
+        <v>235</v>
+      </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4824,8 +4884,11 @@
       <c r="AZ20">
         <v>235</v>
       </c>
+      <c r="BA20">
+        <v>236</v>
+      </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5045,11 @@
       <c r="AZ21">
         <v>443</v>
       </c>
+      <c r="BA21">
+        <v>454</v>
+      </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5140,8 +5206,11 @@
       <c r="AZ22">
         <v>776</v>
       </c>
+      <c r="BA22">
+        <v>777</v>
+      </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -5298,8 +5367,11 @@
       <c r="AZ23">
         <v>171</v>
       </c>
+      <c r="BA23">
+        <v>174</v>
+      </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5456,8 +5528,11 @@
       <c r="AZ24">
         <v>1755</v>
       </c>
+      <c r="BA24">
+        <v>1771</v>
+      </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5614,8 +5689,11 @@
       <c r="AZ25">
         <v>1247</v>
       </c>
+      <c r="BA25">
+        <v>1268</v>
+      </c>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -5772,8 +5850,11 @@
       <c r="AZ26">
         <v>18</v>
       </c>
+      <c r="BA26">
+        <v>18</v>
+      </c>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5930,8 +6011,11 @@
       <c r="AZ27">
         <v>824</v>
       </c>
+      <c r="BA27">
+        <v>845</v>
+      </c>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -6088,8 +6172,11 @@
       <c r="AZ28">
         <v>893</v>
       </c>
+      <c r="BA28">
+        <v>910</v>
+      </c>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -6246,8 +6333,11 @@
       <c r="AZ29">
         <v>2</v>
       </c>
+      <c r="BA29">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -6404,8 +6494,11 @@
       <c r="AZ30">
         <v>781</v>
       </c>
+      <c r="BA30">
+        <v>790</v>
+      </c>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -6562,8 +6655,11 @@
       <c r="AZ31">
         <v>835</v>
       </c>
+      <c r="BA31">
+        <v>841</v>
+      </c>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -6720,8 +6816,11 @@
       <c r="AZ32">
         <v>633</v>
       </c>
+      <c r="BA32">
+        <v>639</v>
+      </c>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -6878,8 +6977,11 @@
       <c r="AZ33">
         <v>1569</v>
       </c>
+      <c r="BA33">
+        <v>1601</v>
+      </c>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -7036,8 +7138,11 @@
       <c r="AZ34">
         <v>159</v>
       </c>
+      <c r="BA34">
+        <v>160</v>
+      </c>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -7193,6 +7298,9 @@
       </c>
       <c r="AZ35">
         <v>798</v>
+      </c>
+      <c r="BA35">
+        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -7203,11 +7311,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:AZ34"/>
+  <dimension ref="A1:BA34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AV6" sqref="AV6"/>
+      <selection pane="topRight" activeCell="AY37" sqref="AY37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7218,7 +7326,7 @@
     <col min="28" max="52" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7396,8 +7504,11 @@
       <c r="AZ1" s="1">
         <v>43969</v>
       </c>
+      <c r="BA1" s="1">
+        <v>43970</v>
+      </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7600,8 +7711,12 @@
         <f>cases!AZ2/(population_2016!$B2/1000)</f>
         <v>13.721181422026891</v>
       </c>
+      <c r="BA2" s="3">
+        <f>cases!BA2/(population_2016!$B2/1000)</f>
+        <v>13.892509963127118</v>
+      </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7804,8 +7919,12 @@
         <f>cases!AZ3/(population_2016!$B3/1000)</f>
         <v>12.734835031311338</v>
       </c>
+      <c r="BA3" s="3">
+        <f>cases!BA3/(population_2016!$B3/1000)</f>
+        <v>12.898401719786897</v>
+      </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -8008,8 +8127,12 @@
         <f>cases!AZ4/(population_2016!$B4/1000)</f>
         <v>4.1851948731362807</v>
       </c>
+      <c r="BA4" s="3">
+        <f>cases!BA4/(population_2016!$B4/1000)</f>
+        <v>4.9699189118493328</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -8212,8 +8335,12 @@
         <f>cases!AZ5/(population_2016!$B5/1000)</f>
         <v>2.5874560132477744</v>
       </c>
+      <c r="BA5" s="3">
+        <f>cases!BA5/(population_2016!$B5/1000)</f>
+        <v>2.6392051335127302</v>
+      </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -8416,8 +8543,12 @@
         <f>cases!AZ6/(population_2016!$B6/1000)</f>
         <v>10.875570502041796</v>
       </c>
+      <c r="BA6" s="3">
+        <f>cases!BA6/(population_2016!$B6/1000)</f>
+        <v>10.95964448714869</v>
+      </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -8620,8 +8751,12 @@
         <f>cases!AZ7/(population_2016!$B7/1000)</f>
         <v>13.652613412228797</v>
       </c>
+      <c r="BA7" s="3">
+        <f>cases!BA7/(population_2016!$B7/1000)</f>
+        <v>13.837524654832347</v>
+      </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -8824,8 +8959,12 @@
         <f>cases!AZ8/(population_2016!$B8/1000)</f>
         <v>6.9122067935949607</v>
       </c>
+      <c r="BA8" s="3">
+        <f>cases!BA8/(population_2016!$B8/1000)</f>
+        <v>6.9326571095523422</v>
+      </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -9028,8 +9167,12 @@
         <f>cases!AZ9/(population_2016!$B9/1000)</f>
         <v>8.6406743940990509</v>
       </c>
+      <c r="BA9" s="3">
+        <f>cases!BA9/(population_2016!$B9/1000)</f>
+        <v>8.6406743940990509</v>
+      </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -9232,8 +9375,12 @@
         <f>cases!AZ10/(population_2016!$B10/1000)</f>
         <v>7.6007457335436683</v>
       </c>
+      <c r="BA10" s="3">
+        <f>cases!BA10/(population_2016!$B10/1000)</f>
+        <v>7.6007457335436683</v>
+      </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -9436,8 +9583,12 @@
         <f>cases!AZ11/(population_2016!$B11/1000)</f>
         <v>4.6151555754056872</v>
       </c>
+      <c r="BA11" s="3">
+        <f>cases!BA11/(population_2016!$B11/1000)</f>
+        <v>4.6647809041734902</v>
+      </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -9640,8 +9791,12 @@
         <f>cases!AZ12/(population_2016!$B12/1000)</f>
         <v>10.564409179797254</v>
       </c>
+      <c r="BA12" s="3">
+        <f>cases!BA12/(population_2016!$B12/1000)</f>
+        <v>10.609364112477243</v>
+      </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -9844,8 +9999,12 @@
         <f>cases!AZ13/(population_2016!$B13/1000)</f>
         <v>13.037877506408339</v>
       </c>
+      <c r="BA13" s="3">
+        <f>cases!BA13/(population_2016!$B13/1000)</f>
+        <v>13.063901214005961</v>
+      </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -10048,8 +10207,12 @@
         <f>cases!AZ14/(population_2016!$B14/1000)</f>
         <v>9.3955357627762996</v>
       </c>
+      <c r="BA14" s="3">
+        <f>cases!BA14/(population_2016!$B14/1000)</f>
+        <v>9.3955357627762996</v>
+      </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -10252,8 +10415,12 @@
         <f>cases!AZ15/(population_2016!$B15/1000)</f>
         <v>13.55643121802035</v>
       </c>
+      <c r="BA15" s="3">
+        <f>cases!BA15/(population_2016!$B15/1000)</f>
+        <v>13.872551902605423</v>
+      </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -10456,8 +10623,12 @@
         <f>cases!AZ16/(population_2016!$B16/1000)</f>
         <v>8.3116883116883109</v>
       </c>
+      <c r="BA16" s="3">
+        <f>cases!BA16/(population_2016!$B16/1000)</f>
+        <v>8.3116883116883109</v>
+      </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -10660,8 +10831,12 @@
         <f>cases!AZ17/(population_2016!$B17/1000)</f>
         <v>24.36070945224019</v>
       </c>
+      <c r="BA17" s="3">
+        <f>cases!BA17/(population_2016!$B17/1000)</f>
+        <v>24.978037372082532</v>
+      </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -10864,8 +11039,12 @@
         <f>cases!AZ18/(population_2016!$B18/1000)</f>
         <v>3.3663366336633667</v>
       </c>
+      <c r="BA18" s="3">
+        <f>cases!BA18/(population_2016!$B18/1000)</f>
+        <v>3.3663366336633667</v>
+      </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -11068,8 +11247,12 @@
         <f>cases!AZ19/(population_2016!$B19/1000)</f>
         <v>11.540737818110081</v>
       </c>
+      <c r="BA19" s="3">
+        <f>cases!BA19/(population_2016!$B19/1000)</f>
+        <v>11.590057210495166</v>
+      </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -11272,8 +11455,12 @@
         <f>cases!AZ20/(population_2016!$B20/1000)</f>
         <v>9.8104700676296233</v>
       </c>
+      <c r="BA20" s="3">
+        <f>cases!BA20/(population_2016!$B20/1000)</f>
+        <v>9.8522167487684733</v>
+      </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -11476,8 +11663,12 @@
         <f>cases!AZ21/(population_2016!$B21/1000)</f>
         <v>6.39277313592219</v>
       </c>
+      <c r="BA21" s="3">
+        <f>cases!BA21/(population_2016!$B21/1000)</f>
+        <v>6.5515101663852695</v>
+      </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -11680,8 +11871,12 @@
         <f>cases!AZ22/(population_2016!$B22/1000)</f>
         <v>7.4615384615384617</v>
       </c>
+      <c r="BA22" s="3">
+        <f>cases!BA22/(population_2016!$B22/1000)</f>
+        <v>7.4711538461538458</v>
+      </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -11884,8 +12079,12 @@
         <f>cases!AZ23/(population_2016!$B23/1000)</f>
         <v>5.449330783938815</v>
       </c>
+      <c r="BA23" s="3">
+        <f>cases!BA23/(population_2016!$B23/1000)</f>
+        <v>5.5449330783938819</v>
+      </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -12088,8 +12287,12 @@
         <f>cases!AZ24/(population_2016!$B24/1000)</f>
         <v>16.441359152356597</v>
       </c>
+      <c r="BA24" s="3">
+        <f>cases!BA24/(population_2016!$B24/1000)</f>
+        <v>16.591251885369534</v>
+      </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -12292,8 +12495,12 @@
         <f>cases!AZ25/(population_2016!$B25/1000)</f>
         <v>8.9333046779855287</v>
       </c>
+      <c r="BA25" s="3">
+        <f>cases!BA25/(population_2016!$B25/1000)</f>
+        <v>9.0837452539580195</v>
+      </c>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -12496,8 +12703,12 @@
         <f>cases!AZ26/(population_2016!$B26/1000)</f>
         <v>3.6304961678096004</v>
       </c>
+      <c r="BA26" s="3">
+        <f>cases!BA26/(population_2016!$B26/1000)</f>
+        <v>3.6304961678096004</v>
+      </c>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -12700,8 +12911,12 @@
         <f>cases!AZ27/(population_2016!$B27/1000)</f>
         <v>8.33771805561177</v>
       </c>
+      <c r="BA27" s="3">
+        <f>cases!BA27/(population_2016!$B27/1000)</f>
+        <v>8.5502084429513907</v>
+      </c>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -12904,8 +13119,12 @@
         <f>cases!AZ28/(population_2016!$B28/1000)</f>
         <v>11.404124896239065</v>
       </c>
+      <c r="BA28" s="3">
+        <f>cases!BA28/(population_2016!$B28/1000)</f>
+        <v>11.621224698295126</v>
+      </c>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -13108,8 +13327,12 @@
         <f>cases!AZ29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
+      <c r="BA29" s="3">
+        <f>cases!BA29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -13312,8 +13535,12 @@
         <f>cases!AZ30/(population_2016!$B30/1000)</f>
         <v>9.9934741717956275</v>
       </c>
+      <c r="BA30" s="3">
+        <f>cases!BA30/(population_2016!$B30/1000)</f>
+        <v>10.108635845990454</v>
+      </c>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -13516,8 +13743,12 @@
         <f>cases!AZ31/(population_2016!$B31/1000)</f>
         <v>12.061419347383323</v>
       </c>
+      <c r="BA31" s="3">
+        <f>cases!BA31/(population_2016!$B31/1000)</f>
+        <v>12.148088228921406</v>
+      </c>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -13720,8 +13951,12 @@
         <f>cases!AZ32/(population_2016!$B32/1000)</f>
         <v>7.0988000448581356</v>
       </c>
+      <c r="BA32" s="3">
+        <f>cases!BA32/(population_2016!$B32/1000)</f>
+        <v>7.1660872490748009</v>
+      </c>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -13924,8 +14159,12 @@
         <f>cases!AZ33/(population_2016!$B33/1000)</f>
         <v>10.90696752935288</v>
       </c>
+      <c r="BA33" s="3">
+        <f>cases!BA33/(population_2016!$B33/1000)</f>
+        <v>11.12941683524153</v>
+      </c>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -14127,6 +14366,10 @@
       <c r="AZ34" s="3">
         <f>cases!AZ34/(population_2016!$B34/1000)</f>
         <v>7.8278849940921615</v>
+      </c>
+      <c r="BA34" s="3">
+        <f>cases!BA34/(population_2016!$B34/1000)</f>
+        <v>7.8771169751870813</v>
       </c>
     </row>
   </sheetData>
@@ -14136,11 +14379,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AS66"/>
+  <dimension ref="A1:AS67"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO72" sqref="AO72"/>
+      <selection pane="bottomLeft" activeCell="AO71" sqref="AO71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19078,11 +19321,11 @@
       </c>
       <c r="B33" s="17">
         <f>mtl_newcases!C34</f>
-        <v>8063</v>
+        <v>8062</v>
       </c>
       <c r="C33" s="17">
         <f t="shared" si="0"/>
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D33">
         <v>332</v>
@@ -19249,7 +19492,7 @@
       </c>
       <c r="B34" s="17">
         <f>mtl_newcases!C35</f>
-        <v>8556</v>
+        <v>8555</v>
       </c>
       <c r="C34" s="17">
         <f t="shared" si="0"/>
@@ -19420,11 +19663,11 @@
       </c>
       <c r="B35" s="17">
         <f>mtl_newcases!C36</f>
-        <v>9125</v>
+        <v>9123</v>
       </c>
       <c r="C35" s="17">
         <f t="shared" si="0"/>
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D35">
         <v>454</v>
@@ -19595,7 +19838,7 @@
       </c>
       <c r="C36" s="17">
         <f t="shared" si="0"/>
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D36">
         <v>513</v>
@@ -19902,11 +20145,11 @@
       </c>
       <c r="B38" s="17">
         <f>mtl_newcases!C39</f>
-        <v>10364</v>
+        <v>10363</v>
       </c>
       <c r="C38" s="17">
         <f t="shared" si="0"/>
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D38">
         <v>583</v>
@@ -20073,7 +20316,7 @@
       </c>
       <c r="B39" s="17">
         <f>mtl_newcases!C40</f>
-        <v>10827</v>
+        <v>10826</v>
       </c>
       <c r="C39" s="17">
         <f t="shared" si="0"/>
@@ -20248,7 +20491,7 @@
       </c>
       <c r="C40" s="17">
         <f t="shared" si="0"/>
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D40">
         <v>741</v>
@@ -20415,11 +20658,11 @@
       </c>
       <c r="B41" s="17">
         <f>mtl_newcases!C42</f>
-        <v>11896</v>
+        <v>11897</v>
       </c>
       <c r="C41" s="17">
         <f t="shared" si="0"/>
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D41">
         <v>808</v>
@@ -20586,7 +20829,7 @@
       </c>
       <c r="B42" s="17">
         <f>mtl_newcases!C43</f>
-        <v>12395</v>
+        <v>12396</v>
       </c>
       <c r="C42" s="17">
         <f t="shared" si="0"/>
@@ -20761,7 +21004,7 @@
       </c>
       <c r="C43" s="17">
         <f t="shared" si="0"/>
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D43">
         <v>938</v>
@@ -21099,11 +21342,11 @@
       </c>
       <c r="B45" s="17">
         <f>mtl_newcases!C46</f>
-        <v>13478</v>
+        <v>13479</v>
       </c>
       <c r="C45" s="17">
         <f>B45-B44</f>
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D45">
         <v>1039</v>
@@ -21270,11 +21513,11 @@
       </c>
       <c r="B46" s="17">
         <f>mtl_newcases!C47</f>
-        <v>13954</v>
+        <v>13956</v>
       </c>
       <c r="C46" s="17">
         <f t="shared" ref="C46:C47" si="438">B46-B45</f>
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D46">
         <v>1078</v>
@@ -21410,11 +21653,11 @@
       </c>
       <c r="B47" s="17">
         <f>mtl_newcases!C48</f>
-        <v>14476</v>
+        <v>14477</v>
       </c>
       <c r="C47" s="17">
         <f t="shared" si="438"/>
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D47">
         <v>1146</v>
@@ -21550,11 +21793,11 @@
       </c>
       <c r="B48" s="17">
         <f>mtl_newcases!C49</f>
-        <v>15076</v>
+        <v>15078</v>
       </c>
       <c r="C48" s="17">
         <f t="shared" ref="C48" si="439">B48-B47</f>
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D48">
         <v>1245</v>
@@ -21721,11 +21964,11 @@
       </c>
       <c r="B49" s="17">
         <f>mtl_newcases!C50</f>
-        <v>15694</v>
+        <v>15697</v>
       </c>
       <c r="C49" s="17">
         <f t="shared" ref="C49" si="461">B49-B48</f>
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D49">
         <v>1312</v>
@@ -21892,11 +22135,11 @@
       </c>
       <c r="B50" s="17">
         <f>mtl_newcases!C51</f>
-        <v>16226</v>
+        <v>16227</v>
       </c>
       <c r="C50" s="17">
         <f t="shared" ref="C50" si="483">B50-B49</f>
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D50">
         <v>1365</v>
@@ -22067,7 +22310,7 @@
       </c>
       <c r="C51" s="17">
         <f t="shared" ref="C51" si="505">B51-B50</f>
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D51">
         <v>1410</v>
@@ -22234,11 +22477,11 @@
       </c>
       <c r="B52" s="17">
         <f>mtl_newcases!C53</f>
-        <v>16997</v>
+        <v>16996</v>
       </c>
       <c r="C52" s="17">
         <f t="shared" ref="C52" si="527">B52-B51</f>
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D52">
         <v>1488</v>
@@ -22405,7 +22648,7 @@
       </c>
       <c r="B53" s="17">
         <f>mtl_newcases!C54</f>
-        <v>17480</v>
+        <v>17479</v>
       </c>
       <c r="C53" s="17">
         <f t="shared" ref="C53" si="549">B53-B52</f>
@@ -22576,11 +22819,11 @@
       </c>
       <c r="B54" s="17">
         <f>mtl_newcases!C55</f>
-        <v>18057</v>
+        <v>18053</v>
       </c>
       <c r="C54" s="17">
         <f t="shared" ref="C54:C55" si="571">B54-B53</f>
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D54">
         <v>1666</v>
@@ -22747,11 +22990,11 @@
       </c>
       <c r="B55" s="17">
         <f>mtl_newcases!C56</f>
-        <v>18499</v>
+        <v>18491</v>
       </c>
       <c r="C55" s="17">
         <f t="shared" si="571"/>
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D55">
         <v>1727</v>
@@ -22918,7 +23161,7 @@
       </c>
       <c r="B56" s="17">
         <f>mtl_newcases!C57</f>
-        <v>18941</v>
+        <v>18933</v>
       </c>
       <c r="C56" s="17">
         <f t="shared" ref="C56" si="613">B56-B55</f>
@@ -23089,11 +23332,11 @@
       </c>
       <c r="B57" s="17">
         <f>mtl_newcases!C58</f>
-        <v>19256</v>
+        <v>19247</v>
       </c>
       <c r="C57" s="17">
         <f t="shared" ref="C57" si="635">B57-B56</f>
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D57">
         <v>1863</v>
@@ -23260,11 +23503,11 @@
       </c>
       <c r="B58" s="17">
         <f>mtl_newcases!C59</f>
-        <v>19562</v>
+        <v>19552</v>
       </c>
       <c r="C58" s="17">
         <f t="shared" ref="C58" si="657">B58-B57</f>
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D58">
         <v>1919</v>
@@ -23431,11 +23674,11 @@
       </c>
       <c r="B59" s="17">
         <f>mtl_newcases!C60</f>
-        <v>19932</v>
+        <v>19923</v>
       </c>
       <c r="C59" s="17">
         <f t="shared" ref="C59" si="679">B59-B58</f>
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D59">
         <v>2003</v>
@@ -23602,11 +23845,11 @@
       </c>
       <c r="B60" s="17">
         <f>mtl_newcases!C61</f>
-        <v>20369</v>
+        <v>20361</v>
       </c>
       <c r="C60" s="17">
         <f t="shared" ref="C60" si="701">B60-B59</f>
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D60">
         <v>2063</v>
@@ -23773,11 +24016,11 @@
       </c>
       <c r="B61" s="17">
         <f>mtl_newcases!C62</f>
-        <v>20762</v>
+        <v>20752</v>
       </c>
       <c r="C61" s="17">
         <f t="shared" ref="C61" si="723">B61-B60</f>
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D61">
         <v>2154</v>
@@ -23944,7 +24187,7 @@
       </c>
       <c r="B62" s="17">
         <f>mtl_newcases!C63</f>
-        <v>21128</v>
+        <v>21118</v>
       </c>
       <c r="C62" s="17">
         <f t="shared" ref="C62:C63" si="745">B62-B61</f>
@@ -24084,11 +24327,11 @@
       </c>
       <c r="B63" s="17">
         <f>mtl_newcases!C64</f>
-        <v>21478</v>
+        <v>21471</v>
       </c>
       <c r="C63" s="17">
         <f t="shared" si="745"/>
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D63">
         <v>2234</v>
@@ -24259,7 +24502,7 @@
       </c>
       <c r="C64" s="17">
         <f t="shared" ref="C64" si="767">B64-B63</f>
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D64">
         <v>2276</v>
@@ -24426,11 +24669,11 @@
       </c>
       <c r="B65" s="17">
         <f>mtl_newcases!C66</f>
-        <v>22085</v>
+        <v>22096</v>
       </c>
       <c r="C65" s="17">
         <f t="shared" ref="C65" si="789">B65-B64</f>
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="D65">
         <v>2296</v>
@@ -24597,11 +24840,11 @@
       </c>
       <c r="B66" s="17">
         <f>mtl_newcases!C67</f>
-        <v>22317</v>
+        <v>22412</v>
       </c>
       <c r="C66" s="17">
         <f t="shared" ref="C66" si="811">B66-B65</f>
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="D66">
         <v>2323</v>
@@ -24760,6 +25003,177 @@
       <c r="AS66" s="3">
         <f t="shared" ref="AS66" si="831">Y66*100/SUM($P66:$Y66)</f>
         <v>44.975041813145175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A67" s="19">
+        <v>43970</v>
+      </c>
+      <c r="B67" s="17">
+        <f>mtl_newcases!C68</f>
+        <v>22636</v>
+      </c>
+      <c r="C67" s="17">
+        <f t="shared" ref="C67" si="832">B67-B66</f>
+        <v>224</v>
+      </c>
+      <c r="D67">
+        <v>2367</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67" si="833">D67-D66</f>
+        <v>44</v>
+      </c>
+      <c r="F67" cm="1">
+        <f t="array" ref="F67:O67">TRANSPOSE(santemontreal!AZ$57:AZ$66)</f>
+        <v>233</v>
+      </c>
+      <c r="G67">
+        <v>209</v>
+      </c>
+      <c r="H67">
+        <v>733</v>
+      </c>
+      <c r="I67">
+        <v>2472</v>
+      </c>
+      <c r="J67">
+        <v>2809</v>
+      </c>
+      <c r="K67">
+        <v>3104</v>
+      </c>
+      <c r="L67">
+        <v>2861</v>
+      </c>
+      <c r="M67">
+        <v>1977</v>
+      </c>
+      <c r="N67">
+        <v>2105</v>
+      </c>
+      <c r="O67">
+        <v>6055</v>
+      </c>
+      <c r="P67" s="18">
+        <f>F67/(age_distribution_2016!$B$2/100000)</f>
+        <v>212.32002915983233</v>
+      </c>
+      <c r="Q67" s="18">
+        <f>G67/(age_distribution_2016!$B$3/100000)</f>
+        <v>200.22033817119319</v>
+      </c>
+      <c r="R67" s="18">
+        <f>H67/(age_distribution_2016!$B$4/100000)</f>
+        <v>389.51032228923663</v>
+      </c>
+      <c r="S67" s="18">
+        <f>I67/(age_distribution_2016!$B$5/100000)</f>
+        <v>843.03862221843303</v>
+      </c>
+      <c r="T67" s="18">
+        <f>J67/(age_distribution_2016!$B$6/100000)</f>
+        <v>937.34879452740472</v>
+      </c>
+      <c r="U67" s="18">
+        <f>K67/(age_distribution_2016!$B$7/100000)</f>
+        <v>1219.7661852834267</v>
+      </c>
+      <c r="V67" s="18">
+        <f>L67/(age_distribution_2016!$B$8/100000)</f>
+        <v>1105.1665861902461</v>
+      </c>
+      <c r="W67" s="18">
+        <f>M67/(age_distribution_2016!$B$9/100000)</f>
+        <v>964.36672276285935</v>
+      </c>
+      <c r="X67" s="18">
+        <f>N67/(age_distribution_2016!$B$10/100000)</f>
+        <v>1623.2264034546577</v>
+      </c>
+      <c r="Y67" s="18">
+        <f>O67/(age_distribution_2016!$B$11/100000)</f>
+        <v>6128.2323769040031</v>
+      </c>
+      <c r="Z67" s="3">
+        <f t="shared" ref="Z67" si="834">F67*100/SUM($F67:$O67)</f>
+        <v>1.0328929869669297</v>
+      </c>
+      <c r="AA67" s="3">
+        <f t="shared" ref="AA67" si="835">G67*100/SUM($F67:$O67)</f>
+        <v>0.92650057629222449</v>
+      </c>
+      <c r="AB67" s="3">
+        <f t="shared" ref="AB67" si="836">H67*100/SUM($F67:$O67)</f>
+        <v>3.249401542689955</v>
+      </c>
+      <c r="AC67" s="3">
+        <f t="shared" ref="AC67" si="837">I67*100/SUM($F67:$O67)</f>
+        <v>10.958418299494635</v>
+      </c>
+      <c r="AD67" s="3">
+        <f t="shared" ref="AD67" si="838">J67*100/SUM($F67:$O67)</f>
+        <v>12.452345066051954</v>
+      </c>
+      <c r="AE67" s="3">
+        <f t="shared" ref="AE67" si="839">K67*100/SUM($F67:$O67)</f>
+        <v>13.76008511392854</v>
+      </c>
+      <c r="AF67" s="3">
+        <f t="shared" ref="AF67" si="840">L67*100/SUM($F67:$O67)</f>
+        <v>12.68286195584715</v>
+      </c>
+      <c r="AG67" s="3">
+        <f t="shared" ref="AG67" si="841">M67*100/SUM($F67:$O67)</f>
+        <v>8.7640748293288411</v>
+      </c>
+      <c r="AH67" s="3">
+        <f t="shared" ref="AH67" si="842">N67*100/SUM($F67:$O67)</f>
+        <v>9.3315010195939365</v>
+      </c>
+      <c r="AI67" s="3">
+        <f t="shared" ref="AI67" si="843">O67*100/SUM($F67:$O67)</f>
+        <v>26.841918609805834</v>
+      </c>
+      <c r="AJ67" s="3">
+        <f t="shared" ref="AJ67" si="844">P67*100/SUM($P67:$Y67)</f>
+        <v>1.558518450607921</v>
+      </c>
+      <c r="AK67" s="3">
+        <f t="shared" ref="AK67" si="845">Q67*100/SUM($P67:$Y67)</f>
+        <v>1.4697016219409811</v>
+      </c>
+      <c r="AL67" s="3">
+        <f t="shared" ref="AL67" si="846">R67*100/SUM($P67:$Y67)</f>
+        <v>2.8591698408868687</v>
+      </c>
+      <c r="AM67" s="3">
+        <f t="shared" ref="AM67" si="847">S67*100/SUM($P67:$Y67)</f>
+        <v>6.1882586042479533</v>
+      </c>
+      <c r="AN67" s="3">
+        <f t="shared" ref="AN67" si="848">T67*100/SUM($P67:$Y67)</f>
+        <v>6.8805349957178148</v>
+      </c>
+      <c r="AO67" s="3">
+        <f t="shared" ref="AO67" si="849">U67*100/SUM($P67:$Y67)</f>
+        <v>8.9535976078864721</v>
+      </c>
+      <c r="AP67" s="3">
+        <f t="shared" ref="AP67" si="850">V67*100/SUM($P67:$Y67)</f>
+        <v>8.1123882772088631</v>
+      </c>
+      <c r="AQ67" s="3">
+        <f t="shared" ref="AQ67" si="851">W67*100/SUM($P67:$Y67)</f>
+        <v>7.078857969856343</v>
+      </c>
+      <c r="AR67" s="3">
+        <f t="shared" ref="AR67" si="852">X67*100/SUM($P67:$Y67)</f>
+        <v>11.915165560728106</v>
+      </c>
+      <c r="AS67" s="3">
+        <f t="shared" ref="AS67" si="853">Y67*100/SUM($P67:$Y67)</f>
+        <v>44.983807070918672</v>
       </c>
     </row>
   </sheetData>
@@ -24769,11 +25183,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
+      <selection pane="bottomLeft" activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24914,7 +25328,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F78" si="1">E4-E3</f>
+        <f t="shared" ref="F4:F79" si="1">E4-E3</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -24927,7 +25341,7 @@
         <v>260</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J78" si="2">I4-I3</f>
+        <f t="shared" ref="J4:J79" si="2">I4-I3</f>
         <v>18</v>
       </c>
       <c r="K4" t="s">
@@ -27184,7 +27598,7 @@
         <v>33417</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:C78" si="4">B64-B63</f>
+        <f t="shared" ref="C64:C79" si="4">B64-B63</f>
         <v>794</v>
       </c>
       <c r="D64">
@@ -27744,6 +28158,44 @@
       </c>
       <c r="K78">
         <v>12497</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B79">
+        <v>44775</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="4"/>
+        <v>578</v>
+      </c>
+      <c r="D79">
+        <v>28235</v>
+      </c>
+      <c r="E79">
+        <v>3718</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="G79">
+        <v>1516</v>
+      </c>
+      <c r="H79">
+        <v>183</v>
+      </c>
+      <c r="I79">
+        <v>307437</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="2"/>
+        <v>5079</v>
+      </c>
+      <c r="K79">
+        <v>12822</v>
       </c>
     </row>
   </sheetData>
@@ -27753,11 +28205,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28344,11 +28796,11 @@
         <v>43936</v>
       </c>
       <c r="B34">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>8063</v>
+        <v>8062</v>
       </c>
       <c r="E34" s="19">
         <v>43936</v>
@@ -28358,7 +28810,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G36" si="6">C34-F34</f>
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -28370,7 +28822,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>8556</v>
+        <v>8555</v>
       </c>
       <c r="E35" s="19">
         <v>43937</v>
@@ -28380,7 +28832,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -28388,11 +28840,11 @@
         <v>43938</v>
       </c>
       <c r="B36">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
-        <v>9125</v>
+        <v>9123</v>
       </c>
       <c r="E36" s="19">
         <v>43938</v>
@@ -28402,7 +28854,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -28410,7 +28862,7 @@
         <v>43939</v>
       </c>
       <c r="B37" s="23">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
@@ -28454,11 +28906,11 @@
         <v>43941</v>
       </c>
       <c r="B39">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C39">
         <f t="shared" si="8"/>
-        <v>10364</v>
+        <v>10363</v>
       </c>
       <c r="E39" s="19">
         <v>43941</v>
@@ -28468,7 +28920,7 @@
       </c>
       <c r="G39">
         <f t="shared" ref="G39" si="10">C39-F39</f>
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -28480,7 +28932,7 @@
       </c>
       <c r="C40">
         <f t="shared" ref="C40" si="11">C39+B40</f>
-        <v>10827</v>
+        <v>10826</v>
       </c>
       <c r="E40" s="19">
         <v>43942</v>
@@ -28490,7 +28942,7 @@
       </c>
       <c r="G40">
         <f t="shared" ref="G40" si="12">C40-F40</f>
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -28498,7 +28950,7 @@
         <v>43943</v>
       </c>
       <c r="B41">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C41">
         <f t="shared" ref="C41:C52" si="13">C40+B41</f>
@@ -28520,11 +28972,11 @@
         <v>43944</v>
       </c>
       <c r="B42" s="23">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C42">
         <f t="shared" si="13"/>
-        <v>11896</v>
+        <v>11897</v>
       </c>
       <c r="E42" s="19">
         <v>43944</v>
@@ -28534,7 +28986,7 @@
       </c>
       <c r="G42">
         <f t="shared" ref="G42:G44" si="15">C42-F42</f>
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -28546,7 +28998,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="13"/>
-        <v>12395</v>
+        <v>12396</v>
       </c>
       <c r="E43" s="19">
         <v>43945</v>
@@ -28556,7 +29008,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="15"/>
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -28564,7 +29016,7 @@
         <v>43946</v>
       </c>
       <c r="B44" s="23">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C44">
         <f t="shared" si="13"/>
@@ -28608,11 +29060,11 @@
         <v>43948</v>
       </c>
       <c r="B46" s="23">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C46">
         <f t="shared" si="13"/>
-        <v>13478</v>
+        <v>13479</v>
       </c>
       <c r="E46" s="19">
         <v>43948</v>
@@ -28622,7 +29074,7 @@
       </c>
       <c r="G46">
         <f>C46-F46</f>
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -28630,11 +29082,11 @@
         <v>43949</v>
       </c>
       <c r="B47" s="23">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C47">
         <f t="shared" si="13"/>
-        <v>13954</v>
+        <v>13956</v>
       </c>
       <c r="E47" s="19">
         <v>43949</v>
@@ -28644,7 +29096,7 @@
       </c>
       <c r="G47">
         <f t="shared" ref="G47:G52" si="16">C47-F47</f>
-        <v>1143</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -28652,11 +29104,11 @@
         <v>43950</v>
       </c>
       <c r="B48" s="23">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C48">
         <f t="shared" si="13"/>
-        <v>14476</v>
+        <v>14477</v>
       </c>
       <c r="E48" s="19">
         <v>43950</v>
@@ -28666,7 +29118,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="16"/>
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -28674,11 +29126,11 @@
         <v>43951</v>
       </c>
       <c r="B49" s="23">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C49">
         <f t="shared" si="13"/>
-        <v>15076</v>
+        <v>15078</v>
       </c>
       <c r="E49" s="19">
         <v>43951</v>
@@ -28688,7 +29140,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="16"/>
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -28696,11 +29148,11 @@
         <v>43952</v>
       </c>
       <c r="B50" s="23">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C50">
         <f t="shared" si="13"/>
-        <v>15694</v>
+        <v>15697</v>
       </c>
       <c r="E50" s="19">
         <v>43952</v>
@@ -28710,7 +29162,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="16"/>
-        <v>1095</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -28718,11 +29170,11 @@
         <v>43953</v>
       </c>
       <c r="B51" s="23">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C51">
         <f t="shared" si="13"/>
-        <v>16226</v>
+        <v>16227</v>
       </c>
       <c r="E51" s="19">
         <v>43953</v>
@@ -28732,7 +29184,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="16"/>
-        <v>-25</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -28740,7 +29192,7 @@
         <v>43954</v>
       </c>
       <c r="B52" s="23">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C52">
         <f t="shared" si="13"/>
@@ -28762,11 +29214,11 @@
         <v>43955</v>
       </c>
       <c r="B53" s="23">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C53">
         <f t="shared" ref="C53" si="17">C52+B53</f>
-        <v>16997</v>
+        <v>16996</v>
       </c>
       <c r="E53" s="19">
         <v>43955</v>
@@ -28776,7 +29228,7 @@
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="18">C53-F53</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -28788,7 +29240,7 @@
       </c>
       <c r="C54">
         <f t="shared" ref="C54:C61" si="19">C53+B54</f>
-        <v>17480</v>
+        <v>17479</v>
       </c>
       <c r="E54" s="19">
         <v>43956</v>
@@ -28798,7 +29250,7 @@
       </c>
       <c r="G54">
         <f t="shared" ref="G54" si="20">C54-F54</f>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -28806,11 +29258,11 @@
         <v>43957</v>
       </c>
       <c r="B55" s="23">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C55">
         <f t="shared" si="19"/>
-        <v>18057</v>
+        <v>18053</v>
       </c>
       <c r="E55" s="19">
         <v>43957</v>
@@ -28820,7 +29272,7 @@
       </c>
       <c r="G55">
         <f t="shared" ref="G55:G58" si="21">C55-F55</f>
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -28828,11 +29280,11 @@
         <v>43958</v>
       </c>
       <c r="B56" s="23">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C56">
         <f t="shared" si="19"/>
-        <v>18499</v>
+        <v>18491</v>
       </c>
       <c r="E56" s="19">
         <v>43958</v>
@@ -28842,7 +29294,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="21"/>
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -28854,7 +29306,7 @@
       </c>
       <c r="C57">
         <f t="shared" si="19"/>
-        <v>18941</v>
+        <v>18933</v>
       </c>
       <c r="E57" s="19">
         <v>43959</v>
@@ -28864,7 +29316,7 @@
       </c>
       <c r="G57">
         <f t="shared" si="21"/>
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -28872,11 +29324,11 @@
         <v>43960</v>
       </c>
       <c r="B58" s="23">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C58">
         <f t="shared" si="19"/>
-        <v>19256</v>
+        <v>19247</v>
       </c>
       <c r="E58" s="19">
         <v>43960</v>
@@ -28886,7 +29338,7 @@
       </c>
       <c r="G58">
         <f t="shared" si="21"/>
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -28894,11 +29346,11 @@
         <v>43961</v>
       </c>
       <c r="B59" s="23">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C59">
         <f t="shared" si="19"/>
-        <v>19562</v>
+        <v>19552</v>
       </c>
       <c r="E59" s="19">
         <v>43961</v>
@@ -28908,7 +29360,7 @@
       </c>
       <c r="G59">
         <f t="shared" ref="G59" si="22">C59-F59</f>
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -28916,11 +29368,11 @@
         <v>43962</v>
       </c>
       <c r="B60" s="23">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C60">
         <f t="shared" si="19"/>
-        <v>19932</v>
+        <v>19923</v>
       </c>
       <c r="E60" s="19">
         <v>43962</v>
@@ -28930,7 +29382,7 @@
       </c>
       <c r="G60">
         <f t="shared" ref="G60:G64" si="23">C60-F60</f>
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -28938,11 +29390,11 @@
         <v>43963</v>
       </c>
       <c r="B61" s="23">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C61">
         <f t="shared" si="19"/>
-        <v>20369</v>
+        <v>20361</v>
       </c>
       <c r="E61" s="19">
         <v>43963</v>
@@ -28952,7 +29404,7 @@
       </c>
       <c r="G61">
         <f t="shared" si="23"/>
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -28960,11 +29412,11 @@
         <v>43964</v>
       </c>
       <c r="B62" s="23">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C62">
         <f t="shared" ref="C62:C64" si="24">C61+B62</f>
-        <v>20762</v>
+        <v>20752</v>
       </c>
       <c r="E62" s="19">
         <v>43964</v>
@@ -28974,7 +29426,7 @@
       </c>
       <c r="G62">
         <f t="shared" si="23"/>
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -28986,7 +29438,7 @@
       </c>
       <c r="C63">
         <f t="shared" si="24"/>
-        <v>21128</v>
+        <v>21118</v>
       </c>
       <c r="E63" s="19">
         <v>43965</v>
@@ -28996,7 +29448,7 @@
       </c>
       <c r="G63">
         <f t="shared" si="23"/>
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -29004,11 +29456,11 @@
         <v>43966</v>
       </c>
       <c r="B64" s="23">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C64">
         <f t="shared" si="24"/>
-        <v>21478</v>
+        <v>21471</v>
       </c>
       <c r="E64" s="19">
         <v>43966</v>
@@ -29018,7 +29470,7 @@
       </c>
       <c r="G64">
         <f t="shared" si="23"/>
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -29026,10 +29478,10 @@
         <v>43967</v>
       </c>
       <c r="B65" s="23">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C65">
-        <f t="shared" ref="C65:C67" si="25">C64+B65</f>
+        <f t="shared" ref="C65:C68" si="25">C64+B65</f>
         <v>21745</v>
       </c>
       <c r="E65" s="19">
@@ -29048,11 +29500,11 @@
         <v>43968</v>
       </c>
       <c r="B66" s="23">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="C66">
         <f t="shared" si="25"/>
-        <v>22085</v>
+        <v>22096</v>
       </c>
       <c r="E66" s="19">
         <v>43968</v>
@@ -29062,7 +29514,7 @@
       </c>
       <c r="G66">
         <f t="shared" ref="G66:G67" si="27">C66-F66</f>
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -29070,11 +29522,11 @@
         <v>43969</v>
       </c>
       <c r="B67" s="23">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="C67">
         <f t="shared" si="25"/>
-        <v>22317</v>
+        <v>22412</v>
       </c>
       <c r="E67" s="19">
         <v>43969</v>
@@ -29084,6 +29536,28 @@
       </c>
       <c r="G67">
         <f t="shared" si="27"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="19">
+        <v>43970</v>
+      </c>
+      <c r="B68" s="23">
+        <v>224</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="25"/>
+        <v>22636</v>
+      </c>
+      <c r="E68" s="19">
+        <v>43970</v>
+      </c>
+      <c r="F68">
+        <v>22636</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ref="G68" si="28">C68-F68</f>
         <v>0</v>
       </c>
     </row>
@@ -29097,9 +29571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH118"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY2" sqref="AY2:AY35"/>
+      <selection pane="topRight" activeCell="AZ35" sqref="AZ2:AZ35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29250,21 +29724,23 @@
         <v>303</v>
       </c>
       <c r="AU1" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AV1" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW1" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="AW1" s="5" t="s">
-        <v>313</v>
-      </c>
       <c r="AX1" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AY1" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="AZ1" s="5"/>
+        <v>321</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>340</v>
+      </c>
       <c r="BA1" s="5"/>
       <c r="BB1" s="5"/>
       <c r="BC1" s="5"/>
@@ -29584,7 +30060,9 @@
       <c r="AY2" s="7">
         <v>1842</v>
       </c>
-      <c r="AZ2" s="7"/>
+      <c r="AZ2" s="7">
+        <v>1865</v>
+      </c>
       <c r="BA2" s="7"/>
       <c r="BB2" s="7"/>
       <c r="BC2" s="7"/>
@@ -29904,7 +30382,9 @@
       <c r="AY3" s="9">
         <v>545</v>
       </c>
-      <c r="AZ3" s="9"/>
+      <c r="AZ3" s="9">
+        <v>552</v>
+      </c>
       <c r="BA3" s="9"/>
       <c r="BB3" s="9"/>
       <c r="BC3" s="9"/>
@@ -30224,7 +30704,9 @@
       <c r="AY4" s="7">
         <v>16</v>
       </c>
-      <c r="AZ4" s="7"/>
+      <c r="AZ4" s="7">
+        <v>19</v>
+      </c>
       <c r="BA4" s="7"/>
       <c r="BB4" s="7"/>
       <c r="BC4" s="7"/>
@@ -30544,7 +31026,9 @@
       <c r="AY5" s="9">
         <v>50</v>
       </c>
-      <c r="AZ5" s="9"/>
+      <c r="AZ5" s="9">
+        <v>51</v>
+      </c>
       <c r="BA5" s="9"/>
       <c r="BB5" s="9"/>
       <c r="BC5" s="9"/>
@@ -30864,7 +31348,9 @@
       <c r="AY6" s="7">
         <v>1811</v>
       </c>
-      <c r="AZ6" s="7"/>
+      <c r="AZ6" s="7">
+        <v>1825</v>
+      </c>
       <c r="BA6" s="7"/>
       <c r="BB6" s="7"/>
       <c r="BC6" s="7"/>
@@ -31184,7 +31670,9 @@
       <c r="AY7" s="9">
         <v>443</v>
       </c>
-      <c r="AZ7" s="9"/>
+      <c r="AZ7" s="9">
+        <v>449</v>
+      </c>
       <c r="BA7" s="9"/>
       <c r="BB7" s="9"/>
       <c r="BC7" s="9"/>
@@ -31504,7 +31992,9 @@
       <c r="AY8" s="7">
         <v>338</v>
       </c>
-      <c r="AZ8" s="7"/>
+      <c r="AZ8" s="7">
+        <v>339</v>
+      </c>
       <c r="BA8" s="7"/>
       <c r="BB8" s="7"/>
       <c r="BC8" s="7"/>
@@ -31824,7 +32314,9 @@
       <c r="AY9" s="9">
         <v>164</v>
       </c>
-      <c r="AZ9" s="9"/>
+      <c r="AZ9" s="9">
+        <v>164</v>
+      </c>
       <c r="BA9" s="9"/>
       <c r="BB9" s="9"/>
       <c r="BC9" s="9"/>
@@ -32144,7 +32636,9 @@
       <c r="AY10" s="7">
         <v>53</v>
       </c>
-      <c r="AZ10" s="7"/>
+      <c r="AZ10" s="7">
+        <v>53</v>
+      </c>
       <c r="BA10" s="7"/>
       <c r="BB10" s="7"/>
       <c r="BC10" s="7"/>
@@ -32464,7 +32958,9 @@
       <c r="AY11" s="9">
         <v>93</v>
       </c>
-      <c r="AZ11" s="9"/>
+      <c r="AZ11" s="9">
+        <v>94</v>
+      </c>
       <c r="BA11" s="9"/>
       <c r="BB11" s="9"/>
       <c r="BC11" s="9"/>
@@ -32784,7 +33280,9 @@
       <c r="AY12" s="7">
         <v>470</v>
       </c>
-      <c r="AZ12" s="7"/>
+      <c r="AZ12" s="7">
+        <v>472</v>
+      </c>
       <c r="BA12" s="7"/>
       <c r="BB12" s="7"/>
       <c r="BC12" s="7"/>
@@ -33104,7 +33602,9 @@
       <c r="AY13" s="9">
         <v>1002</v>
       </c>
-      <c r="AZ13" s="9"/>
+      <c r="AZ13" s="9">
+        <v>1004</v>
+      </c>
       <c r="BA13" s="9"/>
       <c r="BB13" s="9"/>
       <c r="BC13" s="9"/>
@@ -33424,7 +33924,9 @@
       <c r="AY14" s="7">
         <v>173</v>
       </c>
-      <c r="AZ14" s="7"/>
+      <c r="AZ14" s="7">
+        <v>173</v>
+      </c>
       <c r="BA14" s="7"/>
       <c r="BB14" s="7"/>
       <c r="BC14" s="7"/>
@@ -33744,7 +34246,9 @@
       <c r="AY15" s="9">
         <v>1844</v>
       </c>
-      <c r="AZ15" s="9"/>
+      <c r="AZ15" s="9">
+        <v>1887</v>
+      </c>
       <c r="BA15" s="9"/>
       <c r="BB15" s="9"/>
       <c r="BC15" s="9"/>
@@ -34064,7 +34568,9 @@
       <c r="AY16" s="7">
         <v>32</v>
       </c>
-      <c r="AZ16" s="7"/>
+      <c r="AZ16" s="7">
+        <v>32</v>
+      </c>
       <c r="BA16" s="7"/>
       <c r="BB16" s="7"/>
       <c r="BC16" s="7"/>
@@ -34384,7 +34890,9 @@
       <c r="AY17" s="9">
         <v>2052</v>
       </c>
-      <c r="AZ17" s="9"/>
+      <c r="AZ17" s="9">
+        <v>2104</v>
+      </c>
       <c r="BA17" s="9"/>
       <c r="BB17" s="9"/>
       <c r="BC17" s="9"/>
@@ -34704,7 +35212,9 @@
       <c r="AY18" s="7">
         <v>17</v>
       </c>
-      <c r="AZ18" s="7"/>
+      <c r="AZ18" s="7">
+        <v>17</v>
+      </c>
       <c r="BA18" s="7"/>
       <c r="BB18" s="7"/>
       <c r="BC18" s="7"/>
@@ -35024,7 +35534,9 @@
       <c r="AY19" s="9">
         <v>234</v>
       </c>
-      <c r="AZ19" s="9"/>
+      <c r="AZ19" s="9">
+        <v>235</v>
+      </c>
       <c r="BA19" s="9"/>
       <c r="BB19" s="9"/>
       <c r="BC19" s="9"/>
@@ -35344,7 +35856,9 @@
       <c r="AY20" s="7">
         <v>235</v>
       </c>
-      <c r="AZ20" s="7"/>
+      <c r="AZ20" s="7">
+        <v>236</v>
+      </c>
       <c r="BA20" s="7"/>
       <c r="BB20" s="7"/>
       <c r="BC20" s="7"/>
@@ -35664,7 +36178,9 @@
       <c r="AY21" s="9">
         <v>443</v>
       </c>
-      <c r="AZ21" s="9"/>
+      <c r="AZ21" s="9">
+        <v>454</v>
+      </c>
       <c r="BA21" s="9"/>
       <c r="BB21" s="9"/>
       <c r="BC21" s="9"/>
@@ -35984,7 +36500,9 @@
       <c r="AY22" s="7">
         <v>776</v>
       </c>
-      <c r="AZ22" s="7"/>
+      <c r="AZ22" s="7">
+        <v>777</v>
+      </c>
       <c r="BA22" s="7"/>
       <c r="BB22" s="7"/>
       <c r="BC22" s="7"/>
@@ -36304,7 +36822,9 @@
       <c r="AY23" s="9">
         <v>171</v>
       </c>
-      <c r="AZ23" s="9"/>
+      <c r="AZ23" s="9">
+        <v>174</v>
+      </c>
       <c r="BA23" s="9"/>
       <c r="BB23" s="9"/>
       <c r="BC23" s="9"/>
@@ -36624,7 +37144,9 @@
       <c r="AY24" s="7">
         <v>1755</v>
       </c>
-      <c r="AZ24" s="7"/>
+      <c r="AZ24" s="7">
+        <v>1771</v>
+      </c>
       <c r="BA24" s="7"/>
       <c r="BB24" s="7"/>
       <c r="BC24" s="7"/>
@@ -36944,7 +37466,9 @@
       <c r="AY25" s="9">
         <v>1247</v>
       </c>
-      <c r="AZ25" s="9"/>
+      <c r="AZ25" s="9">
+        <v>1268</v>
+      </c>
       <c r="BA25" s="9"/>
       <c r="BB25" s="9"/>
       <c r="BC25" s="9"/>
@@ -37264,7 +37788,9 @@
       <c r="AY26" s="7">
         <v>18</v>
       </c>
-      <c r="AZ26" s="7"/>
+      <c r="AZ26" s="7">
+        <v>18</v>
+      </c>
       <c r="BA26" s="7"/>
       <c r="BB26" s="7"/>
       <c r="BC26" s="7"/>
@@ -37584,7 +38110,9 @@
       <c r="AY27" s="9">
         <v>824</v>
       </c>
-      <c r="AZ27" s="9"/>
+      <c r="AZ27" s="9">
+        <v>845</v>
+      </c>
       <c r="BA27" s="9"/>
       <c r="BB27" s="9"/>
       <c r="BC27" s="9"/>
@@ -37904,7 +38432,9 @@
       <c r="AY28" s="7">
         <v>893</v>
       </c>
-      <c r="AZ28" s="7"/>
+      <c r="AZ28" s="7">
+        <v>910</v>
+      </c>
       <c r="BA28" s="7"/>
       <c r="BB28" s="7"/>
       <c r="BC28" s="7"/>
@@ -38224,7 +38754,9 @@
       <c r="AY29" s="20">
         <v>2</v>
       </c>
-      <c r="AZ29" s="22"/>
+      <c r="AZ29" s="20">
+        <v>2</v>
+      </c>
       <c r="BA29" s="22"/>
       <c r="BB29" s="22"/>
       <c r="BC29" s="22"/>
@@ -38544,7 +39076,9 @@
       <c r="AY30" s="7">
         <v>781</v>
       </c>
-      <c r="AZ30" s="7"/>
+      <c r="AZ30" s="7">
+        <v>790</v>
+      </c>
       <c r="BA30" s="7"/>
       <c r="BB30" s="7"/>
       <c r="BC30" s="7"/>
@@ -38864,7 +39398,9 @@
       <c r="AY31" s="9">
         <v>835</v>
       </c>
-      <c r="AZ31" s="9"/>
+      <c r="AZ31" s="9">
+        <v>841</v>
+      </c>
       <c r="BA31" s="9"/>
       <c r="BB31" s="9"/>
       <c r="BC31" s="9"/>
@@ -39184,7 +39720,9 @@
       <c r="AY32" s="7">
         <v>633</v>
       </c>
-      <c r="AZ32" s="7"/>
+      <c r="AZ32" s="7">
+        <v>639</v>
+      </c>
       <c r="BA32" s="7"/>
       <c r="BB32" s="7"/>
       <c r="BC32" s="7"/>
@@ -39504,7 +40042,9 @@
       <c r="AY33" s="9">
         <v>1569</v>
       </c>
-      <c r="AZ33" s="9"/>
+      <c r="AZ33" s="9">
+        <v>1601</v>
+      </c>
       <c r="BA33" s="9"/>
       <c r="BB33" s="9"/>
       <c r="BC33" s="9"/>
@@ -39824,7 +40364,9 @@
       <c r="AY34" s="7">
         <v>159</v>
       </c>
-      <c r="AZ34" s="7"/>
+      <c r="AZ34" s="7">
+        <v>160</v>
+      </c>
       <c r="BA34" s="7"/>
       <c r="BB34" s="7"/>
       <c r="BC34" s="7"/>
@@ -40144,7 +40686,9 @@
       <c r="AY35" s="9">
         <v>798</v>
       </c>
-      <c r="AZ35" s="9"/>
+      <c r="AZ35" s="9">
+        <v>816</v>
+      </c>
       <c r="BA35" s="9"/>
       <c r="BB35" s="9"/>
       <c r="BC35" s="9"/>
@@ -40464,7 +41008,9 @@
       <c r="AY36" s="11">
         <v>22317</v>
       </c>
-      <c r="AZ36" s="11"/>
+      <c r="AZ36" s="11">
+        <v>22636</v>
+      </c>
       <c r="BA36" s="11"/>
       <c r="BB36" s="11"/>
       <c r="BC36" s="11"/>
@@ -44939,7 +45485,9 @@
       <c r="AY57" s="7">
         <v>227</v>
       </c>
-      <c r="AZ57" s="7"/>
+      <c r="AZ57" s="7">
+        <v>233</v>
+      </c>
       <c r="BA57" s="7"/>
       <c r="BB57" s="7"/>
       <c r="BC57" s="7"/>
@@ -45257,7 +45805,9 @@
       <c r="AY58" s="9">
         <v>205</v>
       </c>
-      <c r="AZ58" s="9"/>
+      <c r="AZ58" s="9">
+        <v>209</v>
+      </c>
       <c r="BA58" s="9"/>
       <c r="BB58" s="9"/>
       <c r="BC58" s="9"/>
@@ -45575,7 +46125,9 @@
       <c r="AY59" s="7">
         <v>713</v>
       </c>
-      <c r="AZ59" s="7"/>
+      <c r="AZ59" s="7">
+        <v>733</v>
+      </c>
       <c r="BA59" s="7"/>
       <c r="BB59" s="7"/>
       <c r="BC59" s="7"/>
@@ -45893,7 +46445,9 @@
       <c r="AY60" s="9">
         <v>2436</v>
       </c>
-      <c r="AZ60" s="9"/>
+      <c r="AZ60" s="9">
+        <v>2472</v>
+      </c>
       <c r="BA60" s="9"/>
       <c r="BB60" s="9"/>
       <c r="BC60" s="9"/>
@@ -46211,7 +46765,9 @@
       <c r="AY61" s="7">
         <v>2763</v>
       </c>
-      <c r="AZ61" s="7"/>
+      <c r="AZ61" s="7">
+        <v>2809</v>
+      </c>
       <c r="BA61" s="7"/>
       <c r="BB61" s="7"/>
       <c r="BC61" s="7"/>
@@ -46529,7 +47085,9 @@
       <c r="AY62" s="9">
         <v>3071</v>
       </c>
-      <c r="AZ62" s="9"/>
+      <c r="AZ62" s="9">
+        <v>3104</v>
+      </c>
       <c r="BA62" s="9"/>
       <c r="BB62" s="9"/>
       <c r="BC62" s="9"/>
@@ -46847,7 +47405,9 @@
       <c r="AY63" s="7">
         <v>2828</v>
       </c>
-      <c r="AZ63" s="7"/>
+      <c r="AZ63" s="7">
+        <v>2861</v>
+      </c>
       <c r="BA63" s="7"/>
       <c r="BB63" s="7"/>
       <c r="BC63" s="7"/>
@@ -47165,7 +47725,9 @@
       <c r="AY64" s="9">
         <v>1945</v>
       </c>
-      <c r="AZ64" s="9"/>
+      <c r="AZ64" s="9">
+        <v>1977</v>
+      </c>
       <c r="BA64" s="9"/>
       <c r="BB64" s="9"/>
       <c r="BC64" s="9"/>
@@ -47483,7 +48045,9 @@
       <c r="AY65" s="7">
         <v>2084</v>
       </c>
-      <c r="AZ65" s="7"/>
+      <c r="AZ65" s="7">
+        <v>2105</v>
+      </c>
       <c r="BA65" s="7"/>
       <c r="BB65" s="7"/>
       <c r="BC65" s="7"/>
@@ -47801,7 +48365,9 @@
       <c r="AY66" s="9">
         <v>5968</v>
       </c>
-      <c r="AZ66" s="9"/>
+      <c r="AZ66" s="9">
+        <v>6055</v>
+      </c>
       <c r="BA66" s="9"/>
       <c r="BB66" s="9"/>
       <c r="BC66" s="9"/>
@@ -48119,7 +48685,9 @@
       <c r="AY67" s="7">
         <v>77</v>
       </c>
-      <c r="AZ67" s="7"/>
+      <c r="AZ67" s="7">
+        <v>78</v>
+      </c>
       <c r="BA67" s="7"/>
       <c r="BB67" s="7"/>
       <c r="BC67" s="7"/>
@@ -48437,7 +49005,9 @@
       <c r="AY68" s="15">
         <v>22317</v>
       </c>
-      <c r="AZ68" s="15"/>
+      <c r="AZ68" s="15">
+        <v>22636</v>
+      </c>
       <c r="BA68" s="15"/>
       <c r="BB68" s="15"/>
       <c r="BC68" s="15"/>
@@ -49096,6 +49666,9 @@
       <c r="AY71">
         <v>247</v>
       </c>
+      <c r="AZ71">
+        <v>252</v>
+      </c>
     </row>
     <row r="72" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="8" t="s">
@@ -49152,6 +49725,9 @@
       <c r="AY72">
         <v>35</v>
       </c>
+      <c r="AZ72">
+        <v>38</v>
+      </c>
     </row>
     <row r="73" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
@@ -49208,6 +49784,9 @@
       <c r="AY73">
         <v>0</v>
       </c>
+      <c r="AZ73" s="24" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="74" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="8" t="s">
@@ -49264,6 +49843,9 @@
       <c r="AY74">
         <v>6</v>
       </c>
+      <c r="AZ74">
+        <v>7</v>
+      </c>
     </row>
     <row r="75" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="6" t="s">
@@ -49320,6 +49902,9 @@
       <c r="AY75">
         <v>192</v>
       </c>
+      <c r="AZ75">
+        <v>195</v>
+      </c>
     </row>
     <row r="76" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="8" t="s">
@@ -49376,6 +49961,9 @@
       <c r="AY76">
         <v>24</v>
       </c>
+      <c r="AZ76">
+        <v>24</v>
+      </c>
     </row>
     <row r="77" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="6" t="s">
@@ -49432,6 +50020,9 @@
       <c r="AY77">
         <v>43</v>
       </c>
+      <c r="AZ77">
+        <v>43</v>
+      </c>
     </row>
     <row r="78" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="8" t="s">
@@ -49488,6 +50079,9 @@
       <c r="AY78">
         <v>32</v>
       </c>
+      <c r="AZ78">
+        <v>32</v>
+      </c>
     </row>
     <row r="79" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
@@ -49544,6 +50138,9 @@
       <c r="AY79" s="24" t="s">
         <v>292</v>
       </c>
+      <c r="AZ79" s="24" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="80" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="8" t="s">
@@ -49600,8 +50197,11 @@
       <c r="AY80">
         <v>10</v>
       </c>
+      <c r="AZ80">
+        <v>10</v>
+      </c>
     </row>
-    <row r="81" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
         <v>47</v>
       </c>
@@ -49656,8 +50256,11 @@
       <c r="AY81">
         <v>59</v>
       </c>
+      <c r="AZ81">
+        <v>60</v>
+      </c>
     </row>
-    <row r="82" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="8" t="s">
         <v>48</v>
       </c>
@@ -49712,8 +50315,11 @@
       <c r="AY82">
         <v>134</v>
       </c>
+      <c r="AZ82">
+        <v>134</v>
+      </c>
     </row>
-    <row r="83" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
         <v>49</v>
       </c>
@@ -49768,8 +50374,11 @@
       <c r="AY83">
         <v>23</v>
       </c>
+      <c r="AZ83">
+        <v>23</v>
+      </c>
     </row>
-    <row r="84" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="8" t="s">
         <v>50</v>
       </c>
@@ -49824,8 +50433,11 @@
       <c r="AY84">
         <v>258</v>
       </c>
+      <c r="AZ84">
+        <v>262</v>
+      </c>
     </row>
-    <row r="85" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
         <v>51</v>
       </c>
@@ -49880,8 +50492,11 @@
       <c r="AY85" s="24" t="s">
         <v>292</v>
       </c>
+      <c r="AZ85" s="24" t="s">
+        <v>292</v>
+      </c>
     </row>
-    <row r="86" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="8" t="s">
         <v>52</v>
       </c>
@@ -49936,8 +50551,11 @@
       <c r="AY86">
         <v>158</v>
       </c>
+      <c r="AZ86">
+        <v>159</v>
+      </c>
     </row>
-    <row r="87" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
         <v>53</v>
       </c>
@@ -49992,8 +50610,11 @@
       <c r="AY87" s="24" t="s">
         <v>292</v>
       </c>
+      <c r="AZ87" s="24" t="s">
+        <v>292</v>
+      </c>
     </row>
-    <row r="88" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="8" t="s">
         <v>54</v>
       </c>
@@ -50048,8 +50669,11 @@
       <c r="AY88">
         <v>62</v>
       </c>
+      <c r="AZ88">
+        <v>62</v>
+      </c>
     </row>
-    <row r="89" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
         <v>55</v>
       </c>
@@ -50104,8 +50728,11 @@
       <c r="AY89">
         <v>9</v>
       </c>
+      <c r="AZ89">
+        <v>9</v>
+      </c>
     </row>
-    <row r="90" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="8" t="s">
         <v>56</v>
       </c>
@@ -50160,8 +50787,11 @@
       <c r="AY90">
         <v>22</v>
       </c>
+      <c r="AZ90">
+        <v>23</v>
+      </c>
     </row>
-    <row r="91" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
         <v>57</v>
       </c>
@@ -50216,8 +50846,11 @@
       <c r="AY91">
         <v>91</v>
       </c>
+      <c r="AZ91">
+        <v>93</v>
+      </c>
     </row>
-    <row r="92" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="8" t="s">
         <v>58</v>
       </c>
@@ -50272,8 +50905,11 @@
       <c r="AY92">
         <v>24</v>
       </c>
+      <c r="AZ92">
+        <v>24</v>
+      </c>
     </row>
-    <row r="93" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
         <v>59</v>
       </c>
@@ -50328,8 +50964,11 @@
       <c r="AY93">
         <v>146</v>
       </c>
+      <c r="AZ93">
+        <v>148</v>
+      </c>
     </row>
-    <row r="94" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="8" t="s">
         <v>60</v>
       </c>
@@ -50384,8 +51023,11 @@
       <c r="AY94">
         <v>136</v>
       </c>
+      <c r="AZ94">
+        <v>148</v>
+      </c>
     </row>
-    <row r="95" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
         <v>61</v>
       </c>
@@ -50440,8 +51082,11 @@
       <c r="AY95" s="24" t="s">
         <v>292</v>
       </c>
+      <c r="AZ95" s="24" t="s">
+        <v>292</v>
+      </c>
     </row>
-    <row r="96" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="8" t="s">
         <v>62</v>
       </c>
@@ -50495,6 +51140,9 @@
       </c>
       <c r="AY96">
         <v>87</v>
+      </c>
+      <c r="AZ96">
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -50552,6 +51200,9 @@
       <c r="AY97">
         <v>46</v>
       </c>
+      <c r="AZ97">
+        <v>46</v>
+      </c>
     </row>
     <row r="98" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="8" t="s">
@@ -50608,6 +51259,9 @@
       <c r="AY98">
         <v>0</v>
       </c>
+      <c r="AZ98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="6" t="s">
@@ -50664,6 +51318,9 @@
       <c r="AY99">
         <v>144</v>
       </c>
+      <c r="AZ99">
+        <v>144</v>
+      </c>
     </row>
     <row r="100" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="8" t="s">
@@ -50720,6 +51377,9 @@
       <c r="AY100">
         <v>114</v>
       </c>
+      <c r="AZ100">
+        <v>115</v>
+      </c>
     </row>
     <row r="101" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="6" t="s">
@@ -50776,6 +51436,9 @@
       <c r="AY101">
         <v>46</v>
       </c>
+      <c r="AZ101">
+        <v>47</v>
+      </c>
     </row>
     <row r="102" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="8" t="s">
@@ -50832,6 +51495,9 @@
       <c r="AY102">
         <v>100</v>
       </c>
+      <c r="AZ102">
+        <v>102</v>
+      </c>
     </row>
     <row r="103" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
@@ -50888,6 +51554,9 @@
       <c r="AY103">
         <v>18</v>
       </c>
+      <c r="AZ103">
+        <v>19</v>
+      </c>
     </row>
     <row r="104" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="8" t="s">
@@ -50944,6 +51613,9 @@
       <c r="AY104">
         <v>49</v>
       </c>
+      <c r="AZ104">
+        <v>51</v>
+      </c>
     </row>
     <row r="105" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="10" t="s">
@@ -50999,6 +51671,9 @@
       </c>
       <c r="AY105">
         <v>2323</v>
+      </c>
+      <c r="AZ105">
+        <v>2367</v>
       </c>
     </row>
     <row r="106" spans="1:216" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -51276,6 +51951,9 @@
       <c r="AY107">
         <v>0</v>
       </c>
+      <c r="AZ107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
@@ -51332,6 +52010,9 @@
       <c r="AY108">
         <v>0</v>
       </c>
+      <c r="AZ108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
@@ -51388,6 +52069,9 @@
       <c r="AY109">
         <v>0</v>
       </c>
+      <c r="AZ109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
@@ -51444,6 +52128,9 @@
       <c r="AY110" s="24">
         <v>2</v>
       </c>
+      <c r="AZ110" s="24">
+        <v>2</v>
+      </c>
     </row>
     <row r="111" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
@@ -51500,6 +52187,9 @@
       <c r="AY111" s="24">
         <v>4</v>
       </c>
+      <c r="AZ111" s="24">
+        <v>4</v>
+      </c>
     </row>
     <row r="112" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
@@ -51556,8 +52246,11 @@
       <c r="AY112">
         <v>12</v>
       </c>
+      <c r="AZ112">
+        <v>12</v>
+      </c>
     </row>
-    <row r="113" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -51612,8 +52305,11 @@
       <c r="AY113">
         <v>41</v>
       </c>
+      <c r="AZ113">
+        <v>41</v>
+      </c>
     </row>
-    <row r="114" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>93</v>
       </c>
@@ -51668,8 +52364,11 @@
       <c r="AY114">
         <v>156</v>
       </c>
+      <c r="AZ114">
+        <v>159</v>
+      </c>
     </row>
-    <row r="115" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>94</v>
       </c>
@@ -51724,8 +52423,11 @@
       <c r="AY115">
         <v>401</v>
       </c>
+      <c r="AZ115">
+        <v>412</v>
+      </c>
     </row>
-    <row r="116" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>95</v>
       </c>
@@ -51780,8 +52482,11 @@
       <c r="AY116">
         <v>1707</v>
       </c>
+      <c r="AZ116">
+        <v>1737</v>
+      </c>
     </row>
-    <row r="117" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -51836,8 +52541,11 @@
       <c r="AY117" s="24">
         <v>0</v>
       </c>
+      <c r="AZ117" s="24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="118" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>300</v>
       </c>
@@ -51990,6 +52698,9 @@
       </c>
       <c r="AY118">
         <v>2323</v>
+      </c>
+      <c r="AZ118">
+        <v>2367</v>
       </c>
     </row>
   </sheetData>
@@ -52014,22 +52725,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" t="s">
         <v>319</v>
-      </c>
-      <c r="C1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E1" t="s">
-        <v>321</v>
-      </c>
-      <c r="F1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -52042,201 +52753,210 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B4">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C4" t="s">
         <v>304</v>
       </c>
       <c r="D4" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="E4">
         <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B5">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C5" t="s">
         <v>305</v>
       </c>
       <c r="D5" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="E5">
         <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B6">
-        <v>713</v>
+        <v>733</v>
       </c>
       <c r="C6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D6" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="E6">
         <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B7">
-        <v>2436</v>
+        <v>2472</v>
       </c>
       <c r="C7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D7" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="E7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B8">
-        <v>2763</v>
+        <v>2809</v>
       </c>
       <c r="C8" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="D8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B9" s="2">
-        <v>3071</v>
+        <v>3104</v>
       </c>
       <c r="C9" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D9" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="E9">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B10">
-        <v>2828</v>
+        <v>2861</v>
       </c>
       <c r="C10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D10" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="E10">
         <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11">
+        <v>1977</v>
+      </c>
+      <c r="C11" t="s">
+        <v>346</v>
+      </c>
+      <c r="D11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E11">
+        <v>159</v>
+      </c>
+      <c r="F11" t="s">
         <v>348</v>
-      </c>
-      <c r="B11">
-        <v>1945</v>
-      </c>
-      <c r="C11" t="s">
-        <v>307</v>
-      </c>
-      <c r="D11" t="s">
-        <v>331</v>
-      </c>
-      <c r="E11">
-        <v>156</v>
-      </c>
-      <c r="F11" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12">
+        <v>2105</v>
+      </c>
+      <c r="C12" t="s">
         <v>349</v>
       </c>
-      <c r="B12">
-        <v>2084</v>
-      </c>
-      <c r="C12" t="s">
-        <v>308</v>
-      </c>
       <c r="D12" t="s">
+        <v>353</v>
+      </c>
+      <c r="E12">
+        <v>412</v>
+      </c>
+      <c r="F12" t="s">
         <v>350</v>
-      </c>
-      <c r="E12">
-        <v>401</v>
-      </c>
-      <c r="F12" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="B13">
-        <v>5968</v>
+        <v>6055</v>
       </c>
       <c r="C13" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D13" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E13">
-        <v>1707</v>
+        <v>1737</v>
       </c>
       <c r="F13" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -52244,10 +52964,19 @@
         <v>96</v>
       </c>
       <c r="B14">
-        <v>77</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -52255,16 +52984,19 @@
         <v>97</v>
       </c>
       <c r="B15">
-        <v>22317</v>
+        <v>22636</v>
+      </c>
+      <c r="C15" t="s">
+        <v>228</v>
       </c>
       <c r="D15" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="E15">
-        <v>2323</v>
+        <v>2367</v>
       </c>
       <c r="F15" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/app/data/covid19_MTL.xlsx
+++ b/app/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAA37F4-F4EF-4BBB-8118-BA878FD04722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4AACB4-453D-405E-A2C8-3A03A0E86E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20200" yWindow="6740" windowWidth="23690" windowHeight="14600" tabRatio="585" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="20430" yWindow="5930" windowWidth="25380" windowHeight="13160" tabRatio="585" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="349">
   <si>
     <t>borough</t>
   </si>
@@ -1021,37 +1021,10 @@
     <t>12,7</t>
   </si>
   <si>
-    <t>PERSONNES</t>
-  </si>
-  <si>
-    <t>NOMBREDECASCONFIRMÉS¹</t>
-  </si>
-  <si>
-    <t>RÉPARTITIONDESCAS(%)</t>
-  </si>
-  <si>
-    <t>NOMBREDEDÉCÈS</t>
-  </si>
-  <si>
-    <t>TAUXDEMORTALITÉPOUR</t>
-  </si>
-  <si>
     <t>&lt;5</t>
   </si>
   <si>
     <t>18 MAI, 18h05</t>
-  </si>
-  <si>
-    <t>16,0</t>
-  </si>
-  <si>
-    <t>26,8</t>
-  </si>
-  <si>
-    <t>GROUPED'ÂGE</t>
-  </si>
-  <si>
-    <t>TAUXPOUR</t>
   </si>
   <si>
     <t>0-4ans</t>
@@ -1087,28 +1060,7 @@
     <t>80anset+</t>
   </si>
   <si>
-    <t>855,0</t>
-  </si>
-  <si>
-    <t>114,6</t>
-  </si>
-  <si>
-    <t>1095,8</t>
-  </si>
-  <si>
     <t>19 MAI, 18h05</t>
-  </si>
-  <si>
-    <t>210,2</t>
-  </si>
-  <si>
-    <t>193,6</t>
-  </si>
-  <si>
-    <t>368,5</t>
-  </si>
-  <si>
-    <t>767,4</t>
   </si>
   <si>
     <t>12,5</t>
@@ -1117,31 +1069,58 @@
     <t>8,8</t>
   </si>
   <si>
-    <t>912,9</t>
-  </si>
-  <si>
     <t>73,4</t>
   </si>
   <si>
     <t>9,3</t>
   </si>
   <si>
-    <t>284,7</t>
+    <t>116,7</t>
   </si>
   <si>
-    <t>1115,2</t>
+    <t>1116,5</t>
   </si>
   <si>
-    <t>1114,7</t>
+    <t>20 MAI, 18h05</t>
   </si>
   <si>
-    <t>1454,7</t>
+    <t>214,7</t>
   </si>
   <si>
-    <t>5992,6</t>
+    <t>195,4</t>
   </si>
   <si>
-    <t>1719,1</t>
+    <t>375,6</t>
+  </si>
+  <si>
+    <t>783,9</t>
+  </si>
+  <si>
+    <t>873,9</t>
+  </si>
+  <si>
+    <t>933,2</t>
+  </si>
+  <si>
+    <t>291,6</t>
+  </si>
+  <si>
+    <t>26,7</t>
+  </si>
+  <si>
+    <t>1138,2</t>
+  </si>
+  <si>
+    <t>1136,1</t>
+  </si>
+  <si>
+    <t>1484,4</t>
+  </si>
+  <si>
+    <t>6077,7</t>
+  </si>
+  <si>
+    <t>1751,8</t>
   </si>
 </sst>
 </file>
@@ -1655,20 +1634,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:BA35"/>
+  <dimension ref="A1:BB35"/>
   <sheetViews>
-    <sheetView topLeftCell="AH16" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="BA29" sqref="BA29"/>
+    <sheetView topLeftCell="AH1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="BD34" sqref="BC34:BD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="53" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="54" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1828,8 +1807,11 @@
       <c r="BA1" s="19">
         <v>43970</v>
       </c>
+      <c r="BB1" s="19">
+        <v>43971</v>
+      </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1989,8 +1971,11 @@
       <c r="BA2">
         <v>1865</v>
       </c>
+      <c r="BB2">
+        <v>1898</v>
+      </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2150,8 +2135,11 @@
       <c r="BA3">
         <v>552</v>
       </c>
+      <c r="BB3">
+        <v>562</v>
+      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2311,8 +2299,11 @@
       <c r="BA4">
         <v>19</v>
       </c>
+      <c r="BB4">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2472,8 +2463,11 @@
       <c r="BA5">
         <v>51</v>
       </c>
+      <c r="BB5">
+        <v>54</v>
+      </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2633,8 +2627,11 @@
       <c r="BA6">
         <v>1825</v>
       </c>
+      <c r="BB6">
+        <v>1851</v>
+      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -2794,8 +2791,11 @@
       <c r="BA7">
         <v>449</v>
       </c>
+      <c r="BB7">
+        <v>461</v>
+      </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -2955,8 +2955,11 @@
       <c r="BA8">
         <v>339</v>
       </c>
+      <c r="BB8">
+        <v>342</v>
+      </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -3116,8 +3119,11 @@
       <c r="BA9">
         <v>164</v>
       </c>
+      <c r="BB9">
+        <v>164</v>
+      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -3277,8 +3283,11 @@
       <c r="BA10">
         <v>53</v>
       </c>
+      <c r="BB10">
+        <v>54</v>
+      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -3438,8 +3447,11 @@
       <c r="BA11">
         <v>94</v>
       </c>
+      <c r="BB11">
+        <v>95</v>
+      </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3599,8 +3611,11 @@
       <c r="BA12">
         <v>472</v>
       </c>
+      <c r="BB12">
+        <v>483</v>
+      </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3760,8 +3775,11 @@
       <c r="BA13">
         <v>1004</v>
       </c>
+      <c r="BB13">
+        <v>1011</v>
+      </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3921,8 +3939,11 @@
       <c r="BA14">
         <v>173</v>
       </c>
+      <c r="BB14">
+        <v>177</v>
+      </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4082,8 +4103,11 @@
       <c r="BA15">
         <v>1887</v>
       </c>
+      <c r="BB15">
+        <v>1924</v>
+      </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -4243,8 +4267,11 @@
       <c r="BA16">
         <v>32</v>
       </c>
+      <c r="BB16">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4404,8 +4431,11 @@
       <c r="BA17">
         <v>2104</v>
       </c>
+      <c r="BB17">
+        <v>2139</v>
+      </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -4565,8 +4595,11 @@
       <c r="BA18">
         <v>17</v>
       </c>
+      <c r="BB18">
+        <v>17</v>
+      </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -4726,8 +4759,11 @@
       <c r="BA19">
         <v>235</v>
       </c>
+      <c r="BB19">
+        <v>239</v>
+      </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4887,8 +4923,11 @@
       <c r="BA20">
         <v>236</v>
       </c>
+      <c r="BB20">
+        <v>237</v>
+      </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -5048,8 +5087,11 @@
       <c r="BA21">
         <v>454</v>
       </c>
+      <c r="BB21">
+        <v>461</v>
+      </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5209,8 +5251,11 @@
       <c r="BA22">
         <v>777</v>
       </c>
+      <c r="BB22">
+        <v>783</v>
+      </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -5370,8 +5415,11 @@
       <c r="BA23">
         <v>174</v>
       </c>
+      <c r="BB23">
+        <v>182</v>
+      </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5531,8 +5579,11 @@
       <c r="BA24">
         <v>1771</v>
       </c>
+      <c r="BB24">
+        <v>1811</v>
+      </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5692,8 +5743,11 @@
       <c r="BA25">
         <v>1268</v>
       </c>
+      <c r="BB25">
+        <v>1308</v>
+      </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -5853,8 +5907,11 @@
       <c r="BA26">
         <v>18</v>
       </c>
+      <c r="BB26">
+        <v>18</v>
+      </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -6014,8 +6071,11 @@
       <c r="BA27">
         <v>845</v>
       </c>
+      <c r="BB27">
+        <v>875</v>
+      </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -6175,8 +6235,11 @@
       <c r="BA28">
         <v>910</v>
       </c>
+      <c r="BB28">
+        <v>931</v>
+      </c>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -6336,8 +6399,11 @@
       <c r="BA29">
         <v>2</v>
       </c>
+      <c r="BB29">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -6497,8 +6563,11 @@
       <c r="BA30">
         <v>790</v>
       </c>
+      <c r="BB30">
+        <v>794</v>
+      </c>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -6658,8 +6727,11 @@
       <c r="BA31">
         <v>841</v>
       </c>
+      <c r="BB31">
+        <v>851</v>
+      </c>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -6819,8 +6891,11 @@
       <c r="BA32">
         <v>639</v>
       </c>
+      <c r="BB32">
+        <v>651</v>
+      </c>
     </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -6980,8 +7055,11 @@
       <c r="BA33">
         <v>1601</v>
       </c>
+      <c r="BB33">
+        <v>1642</v>
+      </c>
     </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -7141,8 +7219,11 @@
       <c r="BA34">
         <v>160</v>
       </c>
+      <c r="BB34">
+        <v>163</v>
+      </c>
     </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -7301,6 +7382,9 @@
       </c>
       <c r="BA35">
         <v>816</v>
+      </c>
+      <c r="BB35">
+        <v>833</v>
       </c>
     </row>
   </sheetData>
@@ -7311,11 +7395,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:BA34"/>
+  <dimension ref="A1:BB34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY37" sqref="AY37"/>
+      <selection pane="topRight" activeCell="BC12" sqref="BC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7323,10 +7407,10 @@
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="27" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="52" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="54" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7507,8 +7591,11 @@
       <c r="BA1" s="1">
         <v>43970</v>
       </c>
+      <c r="BB1" s="1">
+        <v>43971</v>
+      </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7715,8 +7802,12 @@
         <f>cases!BA2/(population_2016!$B2/1000)</f>
         <v>13.892509963127118</v>
       </c>
+      <c r="BB2" s="3">
+        <f>cases!BB2/(population_2016!$B2/1000)</f>
+        <v>14.138329174270922</v>
+      </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7923,8 +8014,12 @@
         <f>cases!BA3/(population_2016!$B3/1000)</f>
         <v>12.898401719786897</v>
       </c>
+      <c r="BB3" s="3">
+        <f>cases!BB3/(population_2016!$B3/1000)</f>
+        <v>13.132068417609123</v>
+      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -8131,8 +8226,12 @@
         <f>cases!BA4/(population_2016!$B4/1000)</f>
         <v>4.9699189118493328</v>
       </c>
+      <c r="BB4" s="3">
+        <f>cases!BB4/(population_2016!$B4/1000)</f>
+        <v>4.9699189118493328</v>
+      </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -8339,8 +8438,12 @@
         <f>cases!BA5/(population_2016!$B5/1000)</f>
         <v>2.6392051335127302</v>
       </c>
+      <c r="BB5" s="3">
+        <f>cases!BB5/(population_2016!$B5/1000)</f>
+        <v>2.7944524943075963</v>
+      </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -8547,8 +8650,12 @@
         <f>cases!BA6/(population_2016!$B6/1000)</f>
         <v>10.95964448714869</v>
       </c>
+      <c r="BB6" s="3">
+        <f>cases!BB6/(population_2016!$B6/1000)</f>
+        <v>11.115781888061493</v>
+      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -8755,8 +8862,12 @@
         <f>cases!BA7/(population_2016!$B7/1000)</f>
         <v>13.837524654832347</v>
       </c>
+      <c r="BB7" s="3">
+        <f>cases!BB7/(population_2016!$B7/1000)</f>
+        <v>14.207347140039447</v>
+      </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -8963,8 +9074,12 @@
         <f>cases!BA8/(population_2016!$B8/1000)</f>
         <v>6.9326571095523422</v>
       </c>
+      <c r="BB8" s="3">
+        <f>cases!BB8/(population_2016!$B8/1000)</f>
+        <v>6.9940080574244874</v>
+      </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -9171,8 +9286,12 @@
         <f>cases!BA9/(population_2016!$B9/1000)</f>
         <v>8.6406743940990509</v>
       </c>
+      <c r="BB9" s="3">
+        <f>cases!BB9/(population_2016!$B9/1000)</f>
+        <v>8.6406743940990509</v>
+      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -9379,8 +9498,12 @@
         <f>cases!BA10/(population_2016!$B10/1000)</f>
         <v>7.6007457335436683</v>
       </c>
+      <c r="BB10" s="3">
+        <f>cases!BB10/(population_2016!$B10/1000)</f>
+        <v>7.7441560304029835</v>
+      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -9587,8 +9710,12 @@
         <f>cases!BA11/(population_2016!$B11/1000)</f>
         <v>4.6647809041734902</v>
       </c>
+      <c r="BB11" s="3">
+        <f>cases!BB11/(population_2016!$B11/1000)</f>
+        <v>4.7144062329412932</v>
+      </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -9795,8 +9922,12 @@
         <f>cases!BA12/(population_2016!$B12/1000)</f>
         <v>10.609364112477243</v>
       </c>
+      <c r="BB12" s="3">
+        <f>cases!BB12/(population_2016!$B12/1000)</f>
+        <v>10.856616242217179</v>
+      </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -10003,8 +10134,12 @@
         <f>cases!BA13/(population_2016!$B13/1000)</f>
         <v>13.063901214005961</v>
       </c>
+      <c r="BB13" s="3">
+        <f>cases!BB13/(population_2016!$B13/1000)</f>
+        <v>13.154984190597636</v>
+      </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -10211,8 +10346,12 @@
         <f>cases!BA14/(population_2016!$B14/1000)</f>
         <v>9.3955357627762996</v>
       </c>
+      <c r="BB14" s="3">
+        <f>cases!BB14/(population_2016!$B14/1000)</f>
+        <v>9.6127735838809532</v>
+      </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -10419,8 +10558,12 @@
         <f>cases!BA15/(population_2016!$B15/1000)</f>
         <v>13.872551902605423</v>
       </c>
+      <c r="BB15" s="3">
+        <f>cases!BB15/(population_2016!$B15/1000)</f>
+        <v>14.144562724225137</v>
+      </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -10627,8 +10770,12 @@
         <f>cases!BA16/(population_2016!$B16/1000)</f>
         <v>8.3116883116883109</v>
       </c>
+      <c r="BB16" s="3">
+        <f>cases!BB16/(population_2016!$B16/1000)</f>
+        <v>8.5714285714285712</v>
+      </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -10835,8 +10982,12 @@
         <f>cases!BA17/(population_2016!$B17/1000)</f>
         <v>24.978037372082532</v>
       </c>
+      <c r="BB17" s="3">
+        <f>cases!BB17/(population_2016!$B17/1000)</f>
+        <v>25.393546548899497</v>
+      </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -11043,8 +11194,12 @@
         <f>cases!BA18/(population_2016!$B18/1000)</f>
         <v>3.3663366336633667</v>
       </c>
+      <c r="BB18" s="3">
+        <f>cases!BB18/(population_2016!$B18/1000)</f>
+        <v>3.3663366336633667</v>
+      </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -11251,8 +11406,12 @@
         <f>cases!BA19/(population_2016!$B19/1000)</f>
         <v>11.590057210495166</v>
       </c>
+      <c r="BB19" s="3">
+        <f>cases!BB19/(population_2016!$B19/1000)</f>
+        <v>11.787334780035509</v>
+      </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -11459,8 +11618,12 @@
         <f>cases!BA20/(population_2016!$B20/1000)</f>
         <v>9.8522167487684733</v>
       </c>
+      <c r="BB20" s="3">
+        <f>cases!BB20/(population_2016!$B20/1000)</f>
+        <v>9.8939634299073216</v>
+      </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -11667,8 +11830,12 @@
         <f>cases!BA21/(population_2016!$B21/1000)</f>
         <v>6.5515101663852695</v>
       </c>
+      <c r="BB21" s="3">
+        <f>cases!BB21/(population_2016!$B21/1000)</f>
+        <v>6.6525246403163196</v>
+      </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -11875,8 +12042,12 @@
         <f>cases!BA22/(population_2016!$B22/1000)</f>
         <v>7.4711538461538458</v>
       </c>
+      <c r="BB22" s="3">
+        <f>cases!BB22/(population_2016!$B22/1000)</f>
+        <v>7.5288461538461542</v>
+      </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -12083,8 +12254,12 @@
         <f>cases!BA23/(population_2016!$B23/1000)</f>
         <v>5.5449330783938819</v>
       </c>
+      <c r="BB23" s="3">
+        <f>cases!BB23/(population_2016!$B23/1000)</f>
+        <v>5.7998725302740599</v>
+      </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -12291,8 +12466,12 @@
         <f>cases!BA24/(population_2016!$B24/1000)</f>
         <v>16.591251885369534</v>
       </c>
+      <c r="BB24" s="3">
+        <f>cases!BB24/(population_2016!$B24/1000)</f>
+        <v>16.965983717901878</v>
+      </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -12499,8 +12678,12 @@
         <f>cases!BA25/(population_2016!$B25/1000)</f>
         <v>9.0837452539580195</v>
       </c>
+      <c r="BB25" s="3">
+        <f>cases!BB25/(population_2016!$B25/1000)</f>
+        <v>9.3702987320008599</v>
+      </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -12707,8 +12890,12 @@
         <f>cases!BA26/(population_2016!$B26/1000)</f>
         <v>3.6304961678096004</v>
       </c>
+      <c r="BB26" s="3">
+        <f>cases!BB26/(population_2016!$B26/1000)</f>
+        <v>3.6304961678096004</v>
+      </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -12915,8 +13102,12 @@
         <f>cases!BA27/(population_2016!$B27/1000)</f>
         <v>8.5502084429513907</v>
       </c>
+      <c r="BB27" s="3">
+        <f>cases!BB27/(population_2016!$B27/1000)</f>
+        <v>8.8537661391508475</v>
+      </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -13123,8 +13314,12 @@
         <f>cases!BA28/(population_2016!$B28/1000)</f>
         <v>11.621224698295126</v>
       </c>
+      <c r="BB28" s="3">
+        <f>cases!BB28/(population_2016!$B28/1000)</f>
+        <v>11.889406806717322</v>
+      </c>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -13331,8 +13526,12 @@
         <f>cases!BA29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
+      <c r="BB29" s="3">
+        <f>cases!BB29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -13539,8 +13738,12 @@
         <f>cases!BA30/(population_2016!$B30/1000)</f>
         <v>10.108635845990454</v>
       </c>
+      <c r="BB30" s="3">
+        <f>cases!BB30/(population_2016!$B30/1000)</f>
+        <v>10.159818812299267</v>
+      </c>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -13747,8 +13950,12 @@
         <f>cases!BA31/(population_2016!$B31/1000)</f>
         <v>12.148088228921406</v>
       </c>
+      <c r="BB31" s="3">
+        <f>cases!BB31/(population_2016!$B31/1000)</f>
+        <v>12.292536364818211</v>
+      </c>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -13955,8 +14162,12 @@
         <f>cases!BA32/(population_2016!$B32/1000)</f>
         <v>7.1660872490748009</v>
       </c>
+      <c r="BB32" s="3">
+        <f>cases!BB32/(population_2016!$B32/1000)</f>
+        <v>7.3006616575081305</v>
+      </c>
     </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -14163,8 +14374,12 @@
         <f>cases!BA33/(population_2016!$B33/1000)</f>
         <v>11.12941683524153</v>
       </c>
+      <c r="BB33" s="3">
+        <f>cases!BB33/(population_2016!$B33/1000)</f>
+        <v>11.414430008411363</v>
+      </c>
     </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -14370,6 +14585,10 @@
       <c r="BA34" s="3">
         <f>cases!BA34/(population_2016!$B34/1000)</f>
         <v>7.8771169751870813</v>
+      </c>
+      <c r="BB34" s="3">
+        <f>cases!BB34/(population_2016!$B34/1000)</f>
+        <v>8.024812918471838</v>
       </c>
     </row>
   </sheetData>
@@ -14379,11 +14598,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AS67"/>
+  <dimension ref="A1:AS68"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO71" sqref="AO71"/>
+      <selection pane="bottomLeft" activeCell="P67" sqref="P67:AS68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19321,11 +19540,11 @@
       </c>
       <c r="B33" s="17">
         <f>mtl_newcases!C34</f>
-        <v>8062</v>
+        <v>8059</v>
       </c>
       <c r="C33" s="17">
         <f t="shared" si="0"/>
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D33">
         <v>332</v>
@@ -19496,7 +19715,7 @@
       </c>
       <c r="C34" s="17">
         <f t="shared" si="0"/>
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D34">
         <v>391</v>
@@ -19663,11 +19882,11 @@
       </c>
       <c r="B35" s="17">
         <f>mtl_newcases!C36</f>
-        <v>9123</v>
+        <v>9128</v>
       </c>
       <c r="C35" s="17">
         <f t="shared" si="0"/>
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="D35">
         <v>454</v>
@@ -19834,11 +20053,11 @@
       </c>
       <c r="B36" s="17">
         <f>mtl_newcases!C37</f>
-        <v>9449</v>
+        <v>9453</v>
       </c>
       <c r="C36" s="17">
         <f t="shared" si="0"/>
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D36">
         <v>513</v>
@@ -20005,11 +20224,11 @@
       </c>
       <c r="B37" s="17">
         <f>mtl_newcases!C38</f>
-        <v>9877</v>
+        <v>9880</v>
       </c>
       <c r="C37" s="17">
         <f t="shared" si="0"/>
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D37">
         <v>525</v>
@@ -20145,7 +20364,7 @@
       </c>
       <c r="B38" s="17">
         <f>mtl_newcases!C39</f>
-        <v>10363</v>
+        <v>10366</v>
       </c>
       <c r="C38" s="17">
         <f t="shared" si="0"/>
@@ -20316,11 +20535,11 @@
       </c>
       <c r="B39" s="17">
         <f>mtl_newcases!C40</f>
-        <v>10826</v>
+        <v>10825</v>
       </c>
       <c r="C39" s="17">
         <f t="shared" si="0"/>
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D39">
         <v>647</v>
@@ -20487,11 +20706,11 @@
       </c>
       <c r="B40" s="17">
         <f>mtl_newcases!C41</f>
-        <v>11369</v>
+        <v>11365</v>
       </c>
       <c r="C40" s="17">
         <f t="shared" si="0"/>
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D40">
         <v>741</v>
@@ -20658,7 +20877,7 @@
       </c>
       <c r="B41" s="17">
         <f>mtl_newcases!C42</f>
-        <v>11897</v>
+        <v>11893</v>
       </c>
       <c r="C41" s="17">
         <f t="shared" si="0"/>
@@ -20829,11 +21048,11 @@
       </c>
       <c r="B42" s="17">
         <f>mtl_newcases!C43</f>
-        <v>12396</v>
+        <v>12391</v>
       </c>
       <c r="C42" s="17">
         <f t="shared" si="0"/>
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D42">
         <v>895</v>
@@ -21000,11 +21219,11 @@
       </c>
       <c r="B43" s="17">
         <f>mtl_newcases!C44</f>
-        <v>12714</v>
+        <v>12708</v>
       </c>
       <c r="C43" s="17">
         <f t="shared" si="0"/>
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D43">
         <v>938</v>
@@ -21171,11 +21390,11 @@
       </c>
       <c r="B44" s="17">
         <f>mtl_newcases!C45</f>
-        <v>13015</v>
+        <v>13010</v>
       </c>
       <c r="C44" s="17">
         <f>B44-B43</f>
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D44">
         <v>983</v>
@@ -21342,11 +21561,11 @@
       </c>
       <c r="B45" s="17">
         <f>mtl_newcases!C46</f>
-        <v>13479</v>
+        <v>13473</v>
       </c>
       <c r="C45" s="17">
         <f>B45-B44</f>
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D45">
         <v>1039</v>
@@ -21513,11 +21732,11 @@
       </c>
       <c r="B46" s="17">
         <f>mtl_newcases!C47</f>
-        <v>13956</v>
+        <v>13949</v>
       </c>
       <c r="C46" s="17">
         <f t="shared" ref="C46:C47" si="438">B46-B45</f>
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D46">
         <v>1078</v>
@@ -21653,11 +21872,11 @@
       </c>
       <c r="B47" s="17">
         <f>mtl_newcases!C48</f>
-        <v>14477</v>
+        <v>14471</v>
       </c>
       <c r="C47" s="17">
         <f t="shared" si="438"/>
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D47">
         <v>1146</v>
@@ -21793,11 +22012,11 @@
       </c>
       <c r="B48" s="17">
         <f>mtl_newcases!C49</f>
-        <v>15078</v>
+        <v>15071</v>
       </c>
       <c r="C48" s="17">
         <f t="shared" ref="C48" si="439">B48-B47</f>
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D48">
         <v>1245</v>
@@ -21964,11 +22183,11 @@
       </c>
       <c r="B49" s="17">
         <f>mtl_newcases!C50</f>
-        <v>15697</v>
+        <v>15689</v>
       </c>
       <c r="C49" s="17">
         <f t="shared" ref="C49" si="461">B49-B48</f>
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D49">
         <v>1312</v>
@@ -22135,11 +22354,11 @@
       </c>
       <c r="B50" s="17">
         <f>mtl_newcases!C51</f>
-        <v>16227</v>
+        <v>16215</v>
       </c>
       <c r="C50" s="17">
         <f t="shared" ref="C50" si="483">B50-B49</f>
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D50">
         <v>1365</v>
@@ -22306,7 +22525,7 @@
       </c>
       <c r="B51" s="17">
         <f>mtl_newcases!C52</f>
-        <v>16575</v>
+        <v>16563</v>
       </c>
       <c r="C51" s="17">
         <f t="shared" ref="C51" si="505">B51-B50</f>
@@ -22477,11 +22696,11 @@
       </c>
       <c r="B52" s="17">
         <f>mtl_newcases!C53</f>
-        <v>16996</v>
+        <v>16982</v>
       </c>
       <c r="C52" s="17">
         <f t="shared" ref="C52" si="527">B52-B51</f>
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D52">
         <v>1488</v>
@@ -22648,7 +22867,7 @@
       </c>
       <c r="B53" s="17">
         <f>mtl_newcases!C54</f>
-        <v>17479</v>
+        <v>17465</v>
       </c>
       <c r="C53" s="17">
         <f t="shared" ref="C53" si="549">B53-B52</f>
@@ -22819,11 +23038,11 @@
       </c>
       <c r="B54" s="17">
         <f>mtl_newcases!C55</f>
-        <v>18053</v>
+        <v>18040</v>
       </c>
       <c r="C54" s="17">
         <f t="shared" ref="C54:C55" si="571">B54-B53</f>
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D54">
         <v>1666</v>
@@ -22990,7 +23209,7 @@
       </c>
       <c r="B55" s="17">
         <f>mtl_newcases!C56</f>
-        <v>18491</v>
+        <v>18478</v>
       </c>
       <c r="C55" s="17">
         <f t="shared" si="571"/>
@@ -23161,11 +23380,11 @@
       </c>
       <c r="B56" s="17">
         <f>mtl_newcases!C57</f>
-        <v>18933</v>
+        <v>18917</v>
       </c>
       <c r="C56" s="17">
         <f t="shared" ref="C56" si="613">B56-B55</f>
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D56">
         <v>1760</v>
@@ -23332,7 +23551,7 @@
       </c>
       <c r="B57" s="17">
         <f>mtl_newcases!C58</f>
-        <v>19247</v>
+        <v>19231</v>
       </c>
       <c r="C57" s="17">
         <f t="shared" ref="C57" si="635">B57-B56</f>
@@ -23503,7 +23722,7 @@
       </c>
       <c r="B58" s="17">
         <f>mtl_newcases!C59</f>
-        <v>19552</v>
+        <v>19536</v>
       </c>
       <c r="C58" s="17">
         <f t="shared" ref="C58" si="657">B58-B57</f>
@@ -23674,11 +23893,11 @@
       </c>
       <c r="B59" s="17">
         <f>mtl_newcases!C60</f>
-        <v>19923</v>
+        <v>19905</v>
       </c>
       <c r="C59" s="17">
         <f t="shared" ref="C59" si="679">B59-B58</f>
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D59">
         <v>2003</v>
@@ -23845,11 +24064,11 @@
       </c>
       <c r="B60" s="17">
         <f>mtl_newcases!C61</f>
-        <v>20361</v>
+        <v>20345</v>
       </c>
       <c r="C60" s="17">
         <f t="shared" ref="C60" si="701">B60-B59</f>
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D60">
         <v>2063</v>
@@ -24016,11 +24235,11 @@
       </c>
       <c r="B61" s="17">
         <f>mtl_newcases!C62</f>
-        <v>20752</v>
+        <v>20738</v>
       </c>
       <c r="C61" s="17">
         <f t="shared" ref="C61" si="723">B61-B60</f>
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D61">
         <v>2154</v>
@@ -24187,11 +24406,11 @@
       </c>
       <c r="B62" s="17">
         <f>mtl_newcases!C63</f>
-        <v>21118</v>
+        <v>21105</v>
       </c>
       <c r="C62" s="17">
         <f t="shared" ref="C62:C63" si="745">B62-B61</f>
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D62">
         <v>2182</v>
@@ -24327,11 +24546,11 @@
       </c>
       <c r="B63" s="17">
         <f>mtl_newcases!C64</f>
-        <v>21471</v>
+        <v>21462</v>
       </c>
       <c r="C63" s="17">
         <f t="shared" si="745"/>
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D63">
         <v>2234</v>
@@ -24498,11 +24717,11 @@
       </c>
       <c r="B64" s="17">
         <f>mtl_newcases!C65</f>
-        <v>21745</v>
+        <v>21740</v>
       </c>
       <c r="C64" s="17">
         <f t="shared" ref="C64" si="767">B64-B63</f>
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D64">
         <v>2276</v>
@@ -24669,11 +24888,11 @@
       </c>
       <c r="B65" s="17">
         <f>mtl_newcases!C66</f>
-        <v>22096</v>
+        <v>22089</v>
       </c>
       <c r="C65" s="17">
         <f t="shared" ref="C65" si="789">B65-B64</f>
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D65">
         <v>2296</v>
@@ -24840,11 +25059,11 @@
       </c>
       <c r="B66" s="17">
         <f>mtl_newcases!C67</f>
-        <v>22412</v>
+        <v>22411</v>
       </c>
       <c r="C66" s="17">
         <f t="shared" ref="C66" si="811">B66-B65</f>
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D66">
         <v>2323</v>
@@ -25011,11 +25230,11 @@
       </c>
       <c r="B67" s="17">
         <f>mtl_newcases!C68</f>
-        <v>22636</v>
+        <v>22720</v>
       </c>
       <c r="C67" s="17">
         <f t="shared" ref="C67" si="832">B67-B66</f>
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="D67">
         <v>2367</v>
@@ -25174,6 +25393,177 @@
       <c r="AS67" s="3">
         <f t="shared" ref="AS67" si="853">Y67*100/SUM($P67:$Y67)</f>
         <v>44.983807070918672</v>
+      </c>
+    </row>
+    <row r="68" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A68" s="19">
+        <v>43971</v>
+      </c>
+      <c r="B68" s="17">
+        <f>mtl_newcases!C69</f>
+        <v>23064</v>
+      </c>
+      <c r="C68" s="17">
+        <f t="shared" ref="C68" si="854">B68-B67</f>
+        <v>344</v>
+      </c>
+      <c r="D68">
+        <v>2411</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68" si="855">D68-D67</f>
+        <v>44</v>
+      </c>
+      <c r="F68" cm="1">
+        <f t="array" ref="F68:O68">TRANSPOSE(santemontreal!BA$57:BA$66)</f>
+        <v>238</v>
+      </c>
+      <c r="G68">
+        <v>211</v>
+      </c>
+      <c r="H68">
+        <v>747</v>
+      </c>
+      <c r="I68">
+        <v>2525</v>
+      </c>
+      <c r="J68">
+        <v>2871</v>
+      </c>
+      <c r="K68">
+        <v>3168</v>
+      </c>
+      <c r="L68">
+        <v>2916</v>
+      </c>
+      <c r="M68">
+        <v>2021</v>
+      </c>
+      <c r="N68">
+        <v>2148</v>
+      </c>
+      <c r="O68">
+        <v>6141</v>
+      </c>
+      <c r="P68" s="18">
+        <f>F68/(age_distribution_2016!$B$2/100000)</f>
+        <v>216.87625296154548</v>
+      </c>
+      <c r="Q68" s="18">
+        <f>G68/(age_distribution_2016!$B$3/100000)</f>
+        <v>202.13632226852519</v>
+      </c>
+      <c r="R68" s="18">
+        <f>H68/(age_distribution_2016!$B$4/100000)</f>
+        <v>396.94981002736671</v>
+      </c>
+      <c r="S68" s="18">
+        <f>I68/(age_distribution_2016!$B$5/100000)</f>
+        <v>861.1134794100094</v>
+      </c>
+      <c r="T68" s="18">
+        <f>J68/(age_distribution_2016!$B$6/100000)</f>
+        <v>958.03787436389416</v>
+      </c>
+      <c r="U68" s="18">
+        <f>K68/(age_distribution_2016!$B$7/100000)</f>
+        <v>1244.9160035366931</v>
+      </c>
+      <c r="V68" s="18">
+        <f>L68/(age_distribution_2016!$B$8/100000)</f>
+        <v>1126.4123611781747</v>
+      </c>
+      <c r="W68" s="18">
+        <f>M68/(age_distribution_2016!$B$9/100000)</f>
+        <v>985.82961391185574</v>
+      </c>
+      <c r="X68" s="18">
+        <f>N68/(age_distribution_2016!$B$10/100000)</f>
+        <v>1656.3849475632326</v>
+      </c>
+      <c r="Y68" s="18">
+        <f>O68/(age_distribution_2016!$B$11/100000)</f>
+        <v>6215.2725064521028</v>
+      </c>
+      <c r="Z68" s="3">
+        <f t="shared" ref="Z68" si="856">F68*100/SUM($F68:$O68)</f>
+        <v>1.0354128600017403</v>
+      </c>
+      <c r="AA68" s="3">
+        <f t="shared" ref="AA68" si="857">G68*100/SUM($F68:$O68)</f>
+        <v>0.91795005655616457</v>
+      </c>
+      <c r="AB68" s="3">
+        <f t="shared" ref="AB68" si="858">H68*100/SUM($F68:$O68)</f>
+        <v>3.2498042286609241</v>
+      </c>
+      <c r="AC68" s="3">
+        <f t="shared" ref="AC68" si="859">I68*100/SUM($F68:$O68)</f>
+        <v>10.98494735926216</v>
+      </c>
+      <c r="AD68" s="3">
+        <f t="shared" ref="AD68" si="860">J68*100/SUM($F68:$O68)</f>
+        <v>12.490211433046202</v>
+      </c>
+      <c r="AE68" s="3">
+        <f t="shared" ref="AE68" si="861">K68*100/SUM($F68:$O68)</f>
+        <v>13.782302270947532</v>
+      </c>
+      <c r="AF68" s="3">
+        <f t="shared" ref="AF68" si="862">L68*100/SUM($F68:$O68)</f>
+        <v>12.685982772122161</v>
+      </c>
+      <c r="AG68" s="3">
+        <f t="shared" ref="AG68" si="863">M68*100/SUM($F68:$O68)</f>
+        <v>8.7923083616114148</v>
+      </c>
+      <c r="AH68" s="3">
+        <f t="shared" ref="AH68" si="864">N68*100/SUM($F68:$O68)</f>
+        <v>9.3448185852257897</v>
+      </c>
+      <c r="AI68" s="3">
+        <f t="shared" ref="AI68" si="865">O68*100/SUM($F68:$O68)</f>
+        <v>26.716262072565911</v>
+      </c>
+      <c r="AJ68" s="3">
+        <f t="shared" ref="AJ68" si="866">P68*100/SUM($P68:$Y68)</f>
+        <v>1.5643202606997171</v>
+      </c>
+      <c r="AK68" s="3">
+        <f t="shared" ref="AK68" si="867">Q68*100/SUM($P68:$Y68)</f>
+        <v>1.4580016946532552</v>
+      </c>
+      <c r="AL68" s="3">
+        <f t="shared" ref="AL68" si="868">R68*100/SUM($P68:$Y68)</f>
+        <v>2.8631840592377618</v>
+      </c>
+      <c r="AM68" s="3">
+        <f t="shared" ref="AM68" si="869">S68*100/SUM($P68:$Y68)</f>
+        <v>6.2111791595807144</v>
+      </c>
+      <c r="AN68" s="3">
+        <f t="shared" ref="AN68" si="870">T68*100/SUM($P68:$Y68)</f>
+        <v>6.9102911772035354</v>
+      </c>
+      <c r="AO68" s="3">
+        <f t="shared" ref="AO68" si="871">U68*100/SUM($P68:$Y68)</f>
+        <v>8.9795323397950515</v>
+      </c>
+      <c r="AP68" s="3">
+        <f t="shared" ref="AP68" si="872">V68*100/SUM($P68:$Y68)</f>
+        <v>8.1247700217601064</v>
+      </c>
+      <c r="AQ68" s="3">
+        <f t="shared" ref="AQ68" si="873">W68*100/SUM($P68:$Y68)</f>
+        <v>7.1107519499312639</v>
+      </c>
+      <c r="AR68" s="3">
+        <f t="shared" ref="AR68" si="874">X68*100/SUM($P68:$Y68)</f>
+        <v>11.947442366825825</v>
+      </c>
+      <c r="AS68" s="3">
+        <f t="shared" ref="AS68" si="875">Y68*100/SUM($P68:$Y68)</f>
+        <v>44.830526970312761</v>
       </c>
     </row>
   </sheetData>
@@ -25183,11 +25573,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J79" sqref="J79"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25328,7 +25718,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F79" si="1">E4-E3</f>
+        <f t="shared" ref="F4:F80" si="1">E4-E3</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -25341,7 +25731,7 @@
         <v>260</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J79" si="2">I4-I3</f>
+        <f t="shared" ref="J4:J80" si="2">I4-I3</f>
         <v>18</v>
       </c>
       <c r="K4" t="s">
@@ -27598,7 +27988,7 @@
         <v>33417</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:C79" si="4">B64-B63</f>
+        <f t="shared" ref="C64:C80" si="4">B64-B63</f>
         <v>794</v>
       </c>
       <c r="D64">
@@ -28196,6 +28586,44 @@
       </c>
       <c r="K79">
         <v>12822</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B80">
+        <v>45495</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="4"/>
+        <v>720</v>
+      </c>
+      <c r="D80">
+        <v>45495</v>
+      </c>
+      <c r="E80">
+        <v>3800</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="G80">
+        <v>1504</v>
+      </c>
+      <c r="H80">
+        <v>176</v>
+      </c>
+      <c r="I80">
+        <v>314327</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="2"/>
+        <v>6890</v>
+      </c>
+      <c r="K80">
+        <v>13327</v>
       </c>
     </row>
   </sheetData>
@@ -28205,11 +28633,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28796,11 +29224,11 @@
         <v>43936</v>
       </c>
       <c r="B34">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>8062</v>
+        <v>8059</v>
       </c>
       <c r="E34" s="19">
         <v>43936</v>
@@ -28810,7 +29238,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G36" si="6">C34-F34</f>
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -28818,7 +29246,7 @@
         <v>43937</v>
       </c>
       <c r="B35">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
@@ -28840,11 +29268,11 @@
         <v>43938</v>
       </c>
       <c r="B36">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
-        <v>9123</v>
+        <v>9128</v>
       </c>
       <c r="E36" s="19">
         <v>43938</v>
@@ -28854,7 +29282,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>1071</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -28862,11 +29290,11 @@
         <v>43939</v>
       </c>
       <c r="B37" s="23">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
-        <v>9449</v>
+        <v>9453</v>
       </c>
       <c r="E37" s="19">
         <v>43939</v>
@@ -28876,7 +29304,7 @@
       </c>
       <c r="G37">
         <f t="shared" ref="G37" si="7">C37-F37</f>
-        <v>992</v>
+        <v>996</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -28884,11 +29312,11 @@
         <v>43940</v>
       </c>
       <c r="B38" s="23">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C39" si="8">C37+B38</f>
-        <v>9877</v>
+        <v>9880</v>
       </c>
       <c r="E38" s="19">
         <v>43940</v>
@@ -28898,7 +29326,7 @@
       </c>
       <c r="G38">
         <f t="shared" ref="G38" si="9">C38-F38</f>
-        <v>913</v>
+        <v>916</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -28910,7 +29338,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="8"/>
-        <v>10363</v>
+        <v>10366</v>
       </c>
       <c r="E39" s="19">
         <v>43941</v>
@@ -28920,7 +29348,7 @@
       </c>
       <c r="G39">
         <f t="shared" ref="G39" si="10">C39-F39</f>
-        <v>1015</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -28928,11 +29356,11 @@
         <v>43942</v>
       </c>
       <c r="B40">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40" si="11">C39+B40</f>
-        <v>10826</v>
+        <v>10825</v>
       </c>
       <c r="E40" s="19">
         <v>43942</v>
@@ -28942,7 +29370,7 @@
       </c>
       <c r="G40">
         <f t="shared" ref="G40" si="12">C40-F40</f>
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -28950,11 +29378,11 @@
         <v>43943</v>
       </c>
       <c r="B41">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C41">
         <f t="shared" ref="C41:C52" si="13">C40+B41</f>
-        <v>11369</v>
+        <v>11365</v>
       </c>
       <c r="E41" s="19">
         <v>43943</v>
@@ -28964,7 +29392,7 @@
       </c>
       <c r="G41">
         <f t="shared" ref="G41" si="14">C41-F41</f>
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -28976,7 +29404,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="13"/>
-        <v>11897</v>
+        <v>11893</v>
       </c>
       <c r="E42" s="19">
         <v>43944</v>
@@ -28986,7 +29414,7 @@
       </c>
       <c r="G42">
         <f t="shared" ref="G42:G44" si="15">C42-F42</f>
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -28994,11 +29422,11 @@
         <v>43945</v>
       </c>
       <c r="B43" s="23">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C43">
         <f t="shared" si="13"/>
-        <v>12396</v>
+        <v>12391</v>
       </c>
       <c r="E43" s="19">
         <v>43945</v>
@@ -29008,7 +29436,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="15"/>
-        <v>1235</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -29016,11 +29444,11 @@
         <v>43946</v>
       </c>
       <c r="B44" s="23">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C44">
         <f t="shared" si="13"/>
-        <v>12714</v>
+        <v>12708</v>
       </c>
       <c r="E44" s="19">
         <v>43946</v>
@@ -29030,7 +29458,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="15"/>
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -29038,11 +29466,11 @@
         <v>43947</v>
       </c>
       <c r="B45" s="23">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C45">
         <f t="shared" si="13"/>
-        <v>13015</v>
+        <v>13010</v>
       </c>
       <c r="E45" s="19">
         <v>43947</v>
@@ -29052,7 +29480,7 @@
       </c>
       <c r="G45">
         <f>C45-F45</f>
-        <v>981</v>
+        <v>976</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -29060,11 +29488,11 @@
         <v>43948</v>
       </c>
       <c r="B46" s="23">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C46">
         <f t="shared" si="13"/>
-        <v>13479</v>
+        <v>13473</v>
       </c>
       <c r="E46" s="19">
         <v>43948</v>
@@ -29074,7 +29502,7 @@
       </c>
       <c r="G46">
         <f>C46-F46</f>
-        <v>992</v>
+        <v>986</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -29082,11 +29510,11 @@
         <v>43949</v>
       </c>
       <c r="B47" s="23">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C47">
         <f t="shared" si="13"/>
-        <v>13956</v>
+        <v>13949</v>
       </c>
       <c r="E47" s="19">
         <v>43949</v>
@@ -29096,7 +29524,7 @@
       </c>
       <c r="G47">
         <f t="shared" ref="G47:G52" si="16">C47-F47</f>
-        <v>1145</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -29104,11 +29532,11 @@
         <v>43950</v>
       </c>
       <c r="B48" s="23">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C48">
         <f t="shared" si="13"/>
-        <v>14477</v>
+        <v>14471</v>
       </c>
       <c r="E48" s="19">
         <v>43950</v>
@@ -29118,7 +29546,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="16"/>
-        <v>1153</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -29126,11 +29554,11 @@
         <v>43951</v>
       </c>
       <c r="B49" s="23">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C49">
         <f t="shared" si="13"/>
-        <v>15078</v>
+        <v>15071</v>
       </c>
       <c r="E49" s="19">
         <v>43951</v>
@@ -29140,7 +29568,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="16"/>
-        <v>1099</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -29148,11 +29576,11 @@
         <v>43952</v>
       </c>
       <c r="B50" s="23">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C50">
         <f t="shared" si="13"/>
-        <v>15697</v>
+        <v>15689</v>
       </c>
       <c r="E50" s="19">
         <v>43952</v>
@@ -29162,7 +29590,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="16"/>
-        <v>1098</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -29170,11 +29598,11 @@
         <v>43953</v>
       </c>
       <c r="B51" s="23">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C51">
         <f t="shared" si="13"/>
-        <v>16227</v>
+        <v>16215</v>
       </c>
       <c r="E51" s="19">
         <v>43953</v>
@@ -29184,7 +29612,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="16"/>
-        <v>-24</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -29196,7 +29624,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="13"/>
-        <v>16575</v>
+        <v>16563</v>
       </c>
       <c r="E52" s="19">
         <v>43954</v>
@@ -29206,7 +29634,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="16"/>
-        <v>-31</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -29214,11 +29642,11 @@
         <v>43955</v>
       </c>
       <c r="B53" s="23">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C53">
         <f t="shared" ref="C53" si="17">C52+B53</f>
-        <v>16996</v>
+        <v>16982</v>
       </c>
       <c r="E53" s="19">
         <v>43955</v>
@@ -29228,7 +29656,7 @@
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="18">C53-F53</f>
-        <v>5</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -29240,7 +29668,7 @@
       </c>
       <c r="C54">
         <f t="shared" ref="C54:C61" si="19">C53+B54</f>
-        <v>17479</v>
+        <v>17465</v>
       </c>
       <c r="E54" s="19">
         <v>43956</v>
@@ -29250,7 +29678,7 @@
       </c>
       <c r="G54">
         <f t="shared" ref="G54" si="20">C54-F54</f>
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -29258,11 +29686,11 @@
         <v>43957</v>
       </c>
       <c r="B55" s="23">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C55">
         <f t="shared" si="19"/>
-        <v>18053</v>
+        <v>18040</v>
       </c>
       <c r="E55" s="19">
         <v>43957</v>
@@ -29272,7 +29700,7 @@
       </c>
       <c r="G55">
         <f t="shared" ref="G55:G58" si="21">C55-F55</f>
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -29284,7 +29712,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="19"/>
-        <v>18491</v>
+        <v>18478</v>
       </c>
       <c r="E56" s="19">
         <v>43958</v>
@@ -29294,7 +29722,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="21"/>
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -29302,11 +29730,11 @@
         <v>43959</v>
       </c>
       <c r="B57" s="23">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C57">
         <f t="shared" si="19"/>
-        <v>18933</v>
+        <v>18917</v>
       </c>
       <c r="E57" s="19">
         <v>43959</v>
@@ -29316,7 +29744,7 @@
       </c>
       <c r="G57">
         <f t="shared" si="21"/>
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -29328,7 +29756,7 @@
       </c>
       <c r="C58">
         <f t="shared" si="19"/>
-        <v>19247</v>
+        <v>19231</v>
       </c>
       <c r="E58" s="19">
         <v>43960</v>
@@ -29338,7 +29766,7 @@
       </c>
       <c r="G58">
         <f t="shared" si="21"/>
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -29350,7 +29778,7 @@
       </c>
       <c r="C59">
         <f t="shared" si="19"/>
-        <v>19552</v>
+        <v>19536</v>
       </c>
       <c r="E59" s="19">
         <v>43961</v>
@@ -29360,7 +29788,7 @@
       </c>
       <c r="G59">
         <f t="shared" ref="G59" si="22">C59-F59</f>
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -29368,11 +29796,11 @@
         <v>43962</v>
       </c>
       <c r="B60" s="23">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C60">
         <f t="shared" si="19"/>
-        <v>19923</v>
+        <v>19905</v>
       </c>
       <c r="E60" s="19">
         <v>43962</v>
@@ -29382,7 +29810,7 @@
       </c>
       <c r="G60">
         <f t="shared" ref="G60:G64" si="23">C60-F60</f>
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -29390,11 +29818,11 @@
         <v>43963</v>
       </c>
       <c r="B61" s="23">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C61">
         <f t="shared" si="19"/>
-        <v>20361</v>
+        <v>20345</v>
       </c>
       <c r="E61" s="19">
         <v>43963</v>
@@ -29404,7 +29832,7 @@
       </c>
       <c r="G61">
         <f t="shared" si="23"/>
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -29412,11 +29840,11 @@
         <v>43964</v>
       </c>
       <c r="B62" s="23">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C62">
         <f t="shared" ref="C62:C64" si="24">C61+B62</f>
-        <v>20752</v>
+        <v>20738</v>
       </c>
       <c r="E62" s="19">
         <v>43964</v>
@@ -29426,7 +29854,7 @@
       </c>
       <c r="G62">
         <f t="shared" si="23"/>
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -29434,11 +29862,11 @@
         <v>43965</v>
       </c>
       <c r="B63" s="23">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C63">
         <f t="shared" si="24"/>
-        <v>21118</v>
+        <v>21105</v>
       </c>
       <c r="E63" s="19">
         <v>43965</v>
@@ -29448,7 +29876,7 @@
       </c>
       <c r="G63">
         <f t="shared" si="23"/>
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -29456,11 +29884,11 @@
         <v>43966</v>
       </c>
       <c r="B64" s="23">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C64">
         <f t="shared" si="24"/>
-        <v>21471</v>
+        <v>21462</v>
       </c>
       <c r="E64" s="19">
         <v>43966</v>
@@ -29470,7 +29898,7 @@
       </c>
       <c r="G64">
         <f t="shared" si="23"/>
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -29478,11 +29906,11 @@
         <v>43967</v>
       </c>
       <c r="B65" s="23">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C65">
         <f t="shared" ref="C65:C68" si="25">C64+B65</f>
-        <v>21745</v>
+        <v>21740</v>
       </c>
       <c r="E65" s="19">
         <v>43967</v>
@@ -29492,7 +29920,7 @@
       </c>
       <c r="G65">
         <f t="shared" ref="G65" si="26">C65-F65</f>
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -29500,11 +29928,11 @@
         <v>43968</v>
       </c>
       <c r="B66" s="23">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C66">
         <f t="shared" si="25"/>
-        <v>22096</v>
+        <v>22089</v>
       </c>
       <c r="E66" s="19">
         <v>43968</v>
@@ -29514,7 +29942,7 @@
       </c>
       <c r="G66">
         <f t="shared" ref="G66:G67" si="27">C66-F66</f>
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -29522,11 +29950,11 @@
         <v>43969</v>
       </c>
       <c r="B67" s="23">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C67">
         <f t="shared" si="25"/>
-        <v>22412</v>
+        <v>22411</v>
       </c>
       <c r="E67" s="19">
         <v>43969</v>
@@ -29536,7 +29964,7 @@
       </c>
       <c r="G67">
         <f t="shared" si="27"/>
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -29544,11 +29972,11 @@
         <v>43970</v>
       </c>
       <c r="B68" s="23">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="C68">
         <f t="shared" si="25"/>
-        <v>22636</v>
+        <v>22720</v>
       </c>
       <c r="E68" s="19">
         <v>43970</v>
@@ -29558,6 +29986,28 @@
       </c>
       <c r="G68">
         <f t="shared" ref="G68" si="28">C68-F68</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="19">
+        <v>43971</v>
+      </c>
+      <c r="B69" s="23">
+        <v>344</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ref="C69" si="29">C68+B69</f>
+        <v>23064</v>
+      </c>
+      <c r="E69" s="19">
+        <v>43971</v>
+      </c>
+      <c r="F69">
+        <v>23064</v>
+      </c>
+      <c r="G69">
+        <f>C69-F69</f>
         <v>0</v>
       </c>
     </row>
@@ -29571,9 +30021,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH118"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ35" sqref="AZ2:AZ35"/>
+      <selection pane="topRight" activeCell="BA36" sqref="BA2:BA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29736,12 +30186,14 @@
         <v>312</v>
       </c>
       <c r="AY1" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AZ1" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="BA1" s="5"/>
+        <v>328</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>335</v>
+      </c>
       <c r="BB1" s="5"/>
       <c r="BC1" s="5"/>
       <c r="BD1" s="5"/>
@@ -30063,7 +30515,9 @@
       <c r="AZ2" s="7">
         <v>1865</v>
       </c>
-      <c r="BA2" s="7"/>
+      <c r="BA2" s="7">
+        <v>1898</v>
+      </c>
       <c r="BB2" s="7"/>
       <c r="BC2" s="7"/>
       <c r="BD2" s="7"/>
@@ -30385,7 +30839,9 @@
       <c r="AZ3" s="9">
         <v>552</v>
       </c>
-      <c r="BA3" s="9"/>
+      <c r="BA3" s="9">
+        <v>562</v>
+      </c>
       <c r="BB3" s="9"/>
       <c r="BC3" s="9"/>
       <c r="BD3" s="9"/>
@@ -30707,7 +31163,9 @@
       <c r="AZ4" s="7">
         <v>19</v>
       </c>
-      <c r="BA4" s="7"/>
+      <c r="BA4" s="7">
+        <v>19</v>
+      </c>
       <c r="BB4" s="7"/>
       <c r="BC4" s="7"/>
       <c r="BD4" s="7"/>
@@ -31029,7 +31487,9 @@
       <c r="AZ5" s="9">
         <v>51</v>
       </c>
-      <c r="BA5" s="9"/>
+      <c r="BA5" s="9">
+        <v>54</v>
+      </c>
       <c r="BB5" s="9"/>
       <c r="BC5" s="9"/>
       <c r="BD5" s="9"/>
@@ -31351,7 +31811,9 @@
       <c r="AZ6" s="7">
         <v>1825</v>
       </c>
-      <c r="BA6" s="7"/>
+      <c r="BA6" s="7">
+        <v>1851</v>
+      </c>
       <c r="BB6" s="7"/>
       <c r="BC6" s="7"/>
       <c r="BD6" s="7"/>
@@ -31673,7 +32135,9 @@
       <c r="AZ7" s="9">
         <v>449</v>
       </c>
-      <c r="BA7" s="9"/>
+      <c r="BA7" s="9">
+        <v>461</v>
+      </c>
       <c r="BB7" s="9"/>
       <c r="BC7" s="9"/>
       <c r="BD7" s="9"/>
@@ -31995,7 +32459,9 @@
       <c r="AZ8" s="7">
         <v>339</v>
       </c>
-      <c r="BA8" s="7"/>
+      <c r="BA8" s="7">
+        <v>342</v>
+      </c>
       <c r="BB8" s="7"/>
       <c r="BC8" s="7"/>
       <c r="BD8" s="7"/>
@@ -32317,7 +32783,9 @@
       <c r="AZ9" s="9">
         <v>164</v>
       </c>
-      <c r="BA9" s="9"/>
+      <c r="BA9" s="9">
+        <v>164</v>
+      </c>
       <c r="BB9" s="9"/>
       <c r="BC9" s="9"/>
       <c r="BD9" s="9"/>
@@ -32639,7 +33107,9 @@
       <c r="AZ10" s="7">
         <v>53</v>
       </c>
-      <c r="BA10" s="7"/>
+      <c r="BA10" s="7">
+        <v>54</v>
+      </c>
       <c r="BB10" s="7"/>
       <c r="BC10" s="7"/>
       <c r="BD10" s="7"/>
@@ -32961,7 +33431,9 @@
       <c r="AZ11" s="9">
         <v>94</v>
       </c>
-      <c r="BA11" s="9"/>
+      <c r="BA11" s="9">
+        <v>95</v>
+      </c>
       <c r="BB11" s="9"/>
       <c r="BC11" s="9"/>
       <c r="BD11" s="9"/>
@@ -33283,7 +33755,9 @@
       <c r="AZ12" s="7">
         <v>472</v>
       </c>
-      <c r="BA12" s="7"/>
+      <c r="BA12" s="7">
+        <v>483</v>
+      </c>
       <c r="BB12" s="7"/>
       <c r="BC12" s="7"/>
       <c r="BD12" s="7"/>
@@ -33605,7 +34079,9 @@
       <c r="AZ13" s="9">
         <v>1004</v>
       </c>
-      <c r="BA13" s="9"/>
+      <c r="BA13" s="9">
+        <v>1011</v>
+      </c>
       <c r="BB13" s="9"/>
       <c r="BC13" s="9"/>
       <c r="BD13" s="9"/>
@@ -33927,7 +34403,9 @@
       <c r="AZ14" s="7">
         <v>173</v>
       </c>
-      <c r="BA14" s="7"/>
+      <c r="BA14" s="7">
+        <v>177</v>
+      </c>
       <c r="BB14" s="7"/>
       <c r="BC14" s="7"/>
       <c r="BD14" s="7"/>
@@ -34249,7 +34727,9 @@
       <c r="AZ15" s="9">
         <v>1887</v>
       </c>
-      <c r="BA15" s="9"/>
+      <c r="BA15" s="9">
+        <v>1924</v>
+      </c>
       <c r="BB15" s="9"/>
       <c r="BC15" s="9"/>
       <c r="BD15" s="9"/>
@@ -34571,7 +35051,9 @@
       <c r="AZ16" s="7">
         <v>32</v>
       </c>
-      <c r="BA16" s="7"/>
+      <c r="BA16" s="7">
+        <v>33</v>
+      </c>
       <c r="BB16" s="7"/>
       <c r="BC16" s="7"/>
       <c r="BD16" s="7"/>
@@ -34893,7 +35375,9 @@
       <c r="AZ17" s="9">
         <v>2104</v>
       </c>
-      <c r="BA17" s="9"/>
+      <c r="BA17" s="9">
+        <v>2139</v>
+      </c>
       <c r="BB17" s="9"/>
       <c r="BC17" s="9"/>
       <c r="BD17" s="9"/>
@@ -35215,7 +35699,9 @@
       <c r="AZ18" s="7">
         <v>17</v>
       </c>
-      <c r="BA18" s="7"/>
+      <c r="BA18" s="7">
+        <v>17</v>
+      </c>
       <c r="BB18" s="7"/>
       <c r="BC18" s="7"/>
       <c r="BD18" s="7"/>
@@ -35537,7 +36023,9 @@
       <c r="AZ19" s="9">
         <v>235</v>
       </c>
-      <c r="BA19" s="9"/>
+      <c r="BA19" s="9">
+        <v>239</v>
+      </c>
       <c r="BB19" s="9"/>
       <c r="BC19" s="9"/>
       <c r="BD19" s="9"/>
@@ -35859,7 +36347,9 @@
       <c r="AZ20" s="7">
         <v>236</v>
       </c>
-      <c r="BA20" s="7"/>
+      <c r="BA20" s="7">
+        <v>237</v>
+      </c>
       <c r="BB20" s="7"/>
       <c r="BC20" s="7"/>
       <c r="BD20" s="7"/>
@@ -36181,7 +36671,9 @@
       <c r="AZ21" s="9">
         <v>454</v>
       </c>
-      <c r="BA21" s="9"/>
+      <c r="BA21" s="9">
+        <v>461</v>
+      </c>
       <c r="BB21" s="9"/>
       <c r="BC21" s="9"/>
       <c r="BD21" s="9"/>
@@ -36503,7 +36995,9 @@
       <c r="AZ22" s="7">
         <v>777</v>
       </c>
-      <c r="BA22" s="7"/>
+      <c r="BA22" s="7">
+        <v>783</v>
+      </c>
       <c r="BB22" s="7"/>
       <c r="BC22" s="7"/>
       <c r="BD22" s="7"/>
@@ -36825,7 +37319,9 @@
       <c r="AZ23" s="9">
         <v>174</v>
       </c>
-      <c r="BA23" s="9"/>
+      <c r="BA23" s="9">
+        <v>182</v>
+      </c>
       <c r="BB23" s="9"/>
       <c r="BC23" s="9"/>
       <c r="BD23" s="9"/>
@@ -37147,7 +37643,9 @@
       <c r="AZ24" s="7">
         <v>1771</v>
       </c>
-      <c r="BA24" s="7"/>
+      <c r="BA24" s="7">
+        <v>1811</v>
+      </c>
       <c r="BB24" s="7"/>
       <c r="BC24" s="7"/>
       <c r="BD24" s="7"/>
@@ -37469,7 +37967,9 @@
       <c r="AZ25" s="9">
         <v>1268</v>
       </c>
-      <c r="BA25" s="9"/>
+      <c r="BA25" s="9">
+        <v>1308</v>
+      </c>
       <c r="BB25" s="9"/>
       <c r="BC25" s="9"/>
       <c r="BD25" s="9"/>
@@ -37791,7 +38291,9 @@
       <c r="AZ26" s="7">
         <v>18</v>
       </c>
-      <c r="BA26" s="7"/>
+      <c r="BA26" s="7">
+        <v>18</v>
+      </c>
       <c r="BB26" s="7"/>
       <c r="BC26" s="7"/>
       <c r="BD26" s="7"/>
@@ -38113,7 +38615,9 @@
       <c r="AZ27" s="9">
         <v>845</v>
       </c>
-      <c r="BA27" s="9"/>
+      <c r="BA27" s="9">
+        <v>875</v>
+      </c>
       <c r="BB27" s="9"/>
       <c r="BC27" s="9"/>
       <c r="BD27" s="9"/>
@@ -38435,7 +38939,9 @@
       <c r="AZ28" s="7">
         <v>910</v>
       </c>
-      <c r="BA28" s="7"/>
+      <c r="BA28" s="7">
+        <v>931</v>
+      </c>
       <c r="BB28" s="7"/>
       <c r="BC28" s="7"/>
       <c r="BD28" s="7"/>
@@ -38757,7 +39263,9 @@
       <c r="AZ29" s="20">
         <v>2</v>
       </c>
-      <c r="BA29" s="22"/>
+      <c r="BA29" s="20">
+        <v>2</v>
+      </c>
       <c r="BB29" s="22"/>
       <c r="BC29" s="22"/>
       <c r="BD29" s="22"/>
@@ -39079,7 +39587,9 @@
       <c r="AZ30" s="7">
         <v>790</v>
       </c>
-      <c r="BA30" s="7"/>
+      <c r="BA30" s="7">
+        <v>794</v>
+      </c>
       <c r="BB30" s="7"/>
       <c r="BC30" s="7"/>
       <c r="BD30" s="7"/>
@@ -39401,7 +39911,9 @@
       <c r="AZ31" s="9">
         <v>841</v>
       </c>
-      <c r="BA31" s="9"/>
+      <c r="BA31" s="9">
+        <v>851</v>
+      </c>
       <c r="BB31" s="9"/>
       <c r="BC31" s="9"/>
       <c r="BD31" s="9"/>
@@ -39723,7 +40235,9 @@
       <c r="AZ32" s="7">
         <v>639</v>
       </c>
-      <c r="BA32" s="7"/>
+      <c r="BA32" s="7">
+        <v>651</v>
+      </c>
       <c r="BB32" s="7"/>
       <c r="BC32" s="7"/>
       <c r="BD32" s="7"/>
@@ -40045,7 +40559,9 @@
       <c r="AZ33" s="9">
         <v>1601</v>
       </c>
-      <c r="BA33" s="9"/>
+      <c r="BA33" s="9">
+        <v>1642</v>
+      </c>
       <c r="BB33" s="9"/>
       <c r="BC33" s="9"/>
       <c r="BD33" s="9"/>
@@ -40367,7 +40883,9 @@
       <c r="AZ34" s="7">
         <v>160</v>
       </c>
-      <c r="BA34" s="7"/>
+      <c r="BA34" s="7">
+        <v>163</v>
+      </c>
       <c r="BB34" s="7"/>
       <c r="BC34" s="7"/>
       <c r="BD34" s="7"/>
@@ -40689,7 +41207,9 @@
       <c r="AZ35" s="9">
         <v>816</v>
       </c>
-      <c r="BA35" s="9"/>
+      <c r="BA35" s="9">
+        <v>833</v>
+      </c>
       <c r="BB35" s="9"/>
       <c r="BC35" s="9"/>
       <c r="BD35" s="9"/>
@@ -41011,7 +41531,9 @@
       <c r="AZ36" s="11">
         <v>22636</v>
       </c>
-      <c r="BA36" s="11"/>
+      <c r="BA36" s="11">
+        <v>23064</v>
+      </c>
       <c r="BB36" s="11"/>
       <c r="BC36" s="11"/>
       <c r="BD36" s="11"/>
@@ -45488,7 +46010,9 @@
       <c r="AZ57" s="7">
         <v>233</v>
       </c>
-      <c r="BA57" s="7"/>
+      <c r="BA57" s="7">
+        <v>238</v>
+      </c>
       <c r="BB57" s="7"/>
       <c r="BC57" s="7"/>
       <c r="BD57" s="7"/>
@@ -45808,7 +46332,9 @@
       <c r="AZ58" s="9">
         <v>209</v>
       </c>
-      <c r="BA58" s="9"/>
+      <c r="BA58" s="9">
+        <v>211</v>
+      </c>
       <c r="BB58" s="9"/>
       <c r="BC58" s="9"/>
       <c r="BD58" s="9"/>
@@ -46128,7 +46654,9 @@
       <c r="AZ59" s="7">
         <v>733</v>
       </c>
-      <c r="BA59" s="7"/>
+      <c r="BA59" s="7">
+        <v>747</v>
+      </c>
       <c r="BB59" s="7"/>
       <c r="BC59" s="7"/>
       <c r="BD59" s="7"/>
@@ -46448,7 +46976,9 @@
       <c r="AZ60" s="9">
         <v>2472</v>
       </c>
-      <c r="BA60" s="9"/>
+      <c r="BA60" s="9">
+        <v>2525</v>
+      </c>
       <c r="BB60" s="9"/>
       <c r="BC60" s="9"/>
       <c r="BD60" s="9"/>
@@ -46768,7 +47298,9 @@
       <c r="AZ61" s="7">
         <v>2809</v>
       </c>
-      <c r="BA61" s="7"/>
+      <c r="BA61" s="7">
+        <v>2871</v>
+      </c>
       <c r="BB61" s="7"/>
       <c r="BC61" s="7"/>
       <c r="BD61" s="7"/>
@@ -47088,7 +47620,9 @@
       <c r="AZ62" s="9">
         <v>3104</v>
       </c>
-      <c r="BA62" s="9"/>
+      <c r="BA62" s="9">
+        <v>3168</v>
+      </c>
       <c r="BB62" s="9"/>
       <c r="BC62" s="9"/>
       <c r="BD62" s="9"/>
@@ -47408,7 +47942,9 @@
       <c r="AZ63" s="7">
         <v>2861</v>
       </c>
-      <c r="BA63" s="7"/>
+      <c r="BA63" s="7">
+        <v>2916</v>
+      </c>
       <c r="BB63" s="7"/>
       <c r="BC63" s="7"/>
       <c r="BD63" s="7"/>
@@ -47728,7 +48264,9 @@
       <c r="AZ64" s="9">
         <v>1977</v>
       </c>
-      <c r="BA64" s="9"/>
+      <c r="BA64" s="9">
+        <v>2021</v>
+      </c>
       <c r="BB64" s="9"/>
       <c r="BC64" s="9"/>
       <c r="BD64" s="9"/>
@@ -48048,7 +48586,9 @@
       <c r="AZ65" s="7">
         <v>2105</v>
       </c>
-      <c r="BA65" s="7"/>
+      <c r="BA65" s="7">
+        <v>2148</v>
+      </c>
       <c r="BB65" s="7"/>
       <c r="BC65" s="7"/>
       <c r="BD65" s="7"/>
@@ -48368,7 +48908,9 @@
       <c r="AZ66" s="9">
         <v>6055</v>
       </c>
-      <c r="BA66" s="9"/>
+      <c r="BA66" s="9">
+        <v>6141</v>
+      </c>
       <c r="BB66" s="9"/>
       <c r="BC66" s="9"/>
       <c r="BD66" s="9"/>
@@ -48688,7 +49230,9 @@
       <c r="AZ67" s="7">
         <v>78</v>
       </c>
-      <c r="BA67" s="7"/>
+      <c r="BA67" s="7">
+        <v>78</v>
+      </c>
       <c r="BB67" s="7"/>
       <c r="BC67" s="7"/>
       <c r="BD67" s="7"/>
@@ -49008,7 +49552,9 @@
       <c r="AZ68" s="15">
         <v>22636</v>
       </c>
-      <c r="BA68" s="15"/>
+      <c r="BA68" s="15">
+        <v>23064</v>
+      </c>
       <c r="BB68" s="15"/>
       <c r="BC68" s="15"/>
       <c r="BD68" s="15"/>
@@ -49669,6 +50215,9 @@
       <c r="AZ71">
         <v>252</v>
       </c>
+      <c r="BA71">
+        <v>258</v>
+      </c>
     </row>
     <row r="72" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="8" t="s">
@@ -49728,6 +50277,9 @@
       <c r="AZ72">
         <v>38</v>
       </c>
+      <c r="BA72">
+        <v>39</v>
+      </c>
     </row>
     <row r="73" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
@@ -49787,6 +50339,9 @@
       <c r="AZ73" s="24" t="s">
         <v>292</v>
       </c>
+      <c r="BA73" s="24" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="74" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="8" t="s">
@@ -49846,6 +50401,9 @@
       <c r="AZ74">
         <v>7</v>
       </c>
+      <c r="BA74">
+        <v>7</v>
+      </c>
     </row>
     <row r="75" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="6" t="s">
@@ -49905,6 +50463,9 @@
       <c r="AZ75">
         <v>195</v>
       </c>
+      <c r="BA75">
+        <v>198</v>
+      </c>
     </row>
     <row r="76" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="8" t="s">
@@ -49964,6 +50525,9 @@
       <c r="AZ76">
         <v>24</v>
       </c>
+      <c r="BA76">
+        <v>24</v>
+      </c>
     </row>
     <row r="77" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="6" t="s">
@@ -50023,6 +50587,9 @@
       <c r="AZ77">
         <v>43</v>
       </c>
+      <c r="BA77">
+        <v>43</v>
+      </c>
     </row>
     <row r="78" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="8" t="s">
@@ -50082,6 +50649,9 @@
       <c r="AZ78">
         <v>32</v>
       </c>
+      <c r="BA78">
+        <v>32</v>
+      </c>
     </row>
     <row r="79" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
@@ -50141,6 +50711,9 @@
       <c r="AZ79" s="24" t="s">
         <v>292</v>
       </c>
+      <c r="BA79" s="24" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="80" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="8" t="s">
@@ -50200,8 +50773,11 @@
       <c r="AZ80">
         <v>10</v>
       </c>
+      <c r="BA80">
+        <v>10</v>
+      </c>
     </row>
-    <row r="81" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
         <v>47</v>
       </c>
@@ -50259,8 +50835,11 @@
       <c r="AZ81">
         <v>60</v>
       </c>
+      <c r="BA81">
+        <v>61</v>
+      </c>
     </row>
-    <row r="82" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="8" t="s">
         <v>48</v>
       </c>
@@ -50318,8 +50897,11 @@
       <c r="AZ82">
         <v>134</v>
       </c>
+      <c r="BA82">
+        <v>135</v>
+      </c>
     </row>
-    <row r="83" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
         <v>49</v>
       </c>
@@ -50377,8 +50959,11 @@
       <c r="AZ83">
         <v>23</v>
       </c>
+      <c r="BA83">
+        <v>23</v>
+      </c>
     </row>
-    <row r="84" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="8" t="s">
         <v>50</v>
       </c>
@@ -50436,8 +51021,11 @@
       <c r="AZ84">
         <v>262</v>
       </c>
+      <c r="BA84">
+        <v>274</v>
+      </c>
     </row>
-    <row r="85" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
         <v>51</v>
       </c>
@@ -50495,8 +51083,11 @@
       <c r="AZ85" s="24" t="s">
         <v>292</v>
       </c>
+      <c r="BA85" s="24" t="s">
+        <v>292</v>
+      </c>
     </row>
-    <row r="86" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="8" t="s">
         <v>52</v>
       </c>
@@ -50554,8 +51145,11 @@
       <c r="AZ86">
         <v>159</v>
       </c>
+      <c r="BA86">
+        <v>159</v>
+      </c>
     </row>
-    <row r="87" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
         <v>53</v>
       </c>
@@ -50613,8 +51207,11 @@
       <c r="AZ87" s="24" t="s">
         <v>292</v>
       </c>
+      <c r="BA87" s="24" t="s">
+        <v>292</v>
+      </c>
     </row>
-    <row r="88" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="8" t="s">
         <v>54</v>
       </c>
@@ -50672,8 +51269,11 @@
       <c r="AZ88">
         <v>62</v>
       </c>
+      <c r="BA88">
+        <v>62</v>
+      </c>
     </row>
-    <row r="89" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
         <v>55</v>
       </c>
@@ -50731,8 +51331,11 @@
       <c r="AZ89">
         <v>9</v>
       </c>
+      <c r="BA89">
+        <v>9</v>
+      </c>
     </row>
-    <row r="90" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="8" t="s">
         <v>56</v>
       </c>
@@ -50790,8 +51393,11 @@
       <c r="AZ90">
         <v>23</v>
       </c>
+      <c r="BA90">
+        <v>23</v>
+      </c>
     </row>
-    <row r="91" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
         <v>57</v>
       </c>
@@ -50849,8 +51455,11 @@
       <c r="AZ91">
         <v>93</v>
       </c>
+      <c r="BA91">
+        <v>99</v>
+      </c>
     </row>
-    <row r="92" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="8" t="s">
         <v>58</v>
       </c>
@@ -50908,8 +51517,11 @@
       <c r="AZ92">
         <v>24</v>
       </c>
+      <c r="BA92">
+        <v>24</v>
+      </c>
     </row>
-    <row r="93" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
         <v>59</v>
       </c>
@@ -50967,8 +51579,11 @@
       <c r="AZ93">
         <v>148</v>
       </c>
+      <c r="BA93">
+        <v>153</v>
+      </c>
     </row>
-    <row r="94" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="8" t="s">
         <v>60</v>
       </c>
@@ -51026,8 +51641,11 @@
       <c r="AZ94">
         <v>148</v>
       </c>
+      <c r="BA94">
+        <v>151</v>
+      </c>
     </row>
-    <row r="95" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
         <v>61</v>
       </c>
@@ -51085,8 +51703,11 @@
       <c r="AZ95" s="24" t="s">
         <v>292</v>
       </c>
+      <c r="BA95" s="24" t="s">
+        <v>292</v>
+      </c>
     </row>
-    <row r="96" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="8" t="s">
         <v>62</v>
       </c>
@@ -51143,6 +51764,9 @@
       </c>
       <c r="AZ96">
         <v>88</v>
+      </c>
+      <c r="BA96">
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -51203,6 +51827,9 @@
       <c r="AZ97">
         <v>46</v>
       </c>
+      <c r="BA97">
+        <v>46</v>
+      </c>
     </row>
     <row r="98" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="8" t="s">
@@ -51262,6 +51889,9 @@
       <c r="AZ98">
         <v>0</v>
       </c>
+      <c r="BA98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="6" t="s">
@@ -51321,6 +51951,9 @@
       <c r="AZ99">
         <v>144</v>
       </c>
+      <c r="BA99">
+        <v>144</v>
+      </c>
     </row>
     <row r="100" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="8" t="s">
@@ -51380,6 +52013,9 @@
       <c r="AZ100">
         <v>115</v>
       </c>
+      <c r="BA100">
+        <v>115</v>
+      </c>
     </row>
     <row r="101" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="6" t="s">
@@ -51439,6 +52075,9 @@
       <c r="AZ101">
         <v>47</v>
       </c>
+      <c r="BA101">
+        <v>49</v>
+      </c>
     </row>
     <row r="102" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="8" t="s">
@@ -51498,6 +52137,9 @@
       <c r="AZ102">
         <v>102</v>
       </c>
+      <c r="BA102">
+        <v>104</v>
+      </c>
     </row>
     <row r="103" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
@@ -51557,6 +52199,9 @@
       <c r="AZ103">
         <v>19</v>
       </c>
+      <c r="BA103">
+        <v>19</v>
+      </c>
     </row>
     <row r="104" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="8" t="s">
@@ -51616,6 +52261,9 @@
       <c r="AZ104">
         <v>51</v>
       </c>
+      <c r="BA104">
+        <v>51</v>
+      </c>
     </row>
     <row r="105" spans="1:216" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="10" t="s">
@@ -51674,6 +52322,9 @@
       </c>
       <c r="AZ105">
         <v>2367</v>
+      </c>
+      <c r="BA105">
+        <v>2411</v>
       </c>
     </row>
     <row r="106" spans="1:216" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -51954,6 +52605,9 @@
       <c r="AZ107">
         <v>0</v>
       </c>
+      <c r="BA107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
@@ -52013,6 +52667,9 @@
       <c r="AZ108">
         <v>0</v>
       </c>
+      <c r="BA108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
@@ -52072,6 +52729,9 @@
       <c r="AZ109">
         <v>0</v>
       </c>
+      <c r="BA109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
@@ -52131,6 +52791,9 @@
       <c r="AZ110" s="24">
         <v>2</v>
       </c>
+      <c r="BA110" s="24">
+        <v>2</v>
+      </c>
     </row>
     <row r="111" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
@@ -52190,6 +52853,9 @@
       <c r="AZ111" s="24">
         <v>4</v>
       </c>
+      <c r="BA111" s="24">
+        <v>4</v>
+      </c>
     </row>
     <row r="112" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
@@ -52249,8 +52915,11 @@
       <c r="AZ112">
         <v>12</v>
       </c>
+      <c r="BA112">
+        <v>12</v>
+      </c>
     </row>
-    <row r="113" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -52308,8 +52977,11 @@
       <c r="AZ113">
         <v>41</v>
       </c>
+      <c r="BA113">
+        <v>42</v>
+      </c>
     </row>
-    <row r="114" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>93</v>
       </c>
@@ -52367,8 +53039,11 @@
       <c r="AZ114">
         <v>159</v>
       </c>
+      <c r="BA114">
+        <v>159</v>
+      </c>
     </row>
-    <row r="115" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>94</v>
       </c>
@@ -52426,8 +53101,11 @@
       <c r="AZ115">
         <v>412</v>
       </c>
+      <c r="BA115">
+        <v>422</v>
+      </c>
     </row>
-    <row r="116" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>95</v>
       </c>
@@ -52485,8 +53163,11 @@
       <c r="AZ116">
         <v>1737</v>
       </c>
+      <c r="BA116">
+        <v>1770</v>
+      </c>
     </row>
-    <row r="117" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -52544,8 +53225,11 @@
       <c r="AZ117" s="24">
         <v>0</v>
       </c>
+      <c r="BA117" s="24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="118" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>300</v>
       </c>
@@ -52701,6 +53385,9 @@
       </c>
       <c r="AZ118">
         <v>2367</v>
+      </c>
+      <c r="BA118">
+        <v>2411</v>
       </c>
     </row>
   </sheetData>
@@ -52715,7 +53402,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E15"/>
+      <selection activeCell="E1" sqref="E1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -52725,278 +53412,242 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B1" t="s">
-        <v>316</v>
+        <v>317</v>
+      </c>
+      <c r="B1">
+        <v>238</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="D1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E1" t="s">
-        <v>318</v>
+        <v>336</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>319</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D2">
-        <v>100000</v>
-      </c>
-      <c r="F2">
-        <v>100000</v>
+      <c r="A2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2">
+        <v>211</v>
+      </c>
+      <c r="C2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3">
+        <v>747</v>
+      </c>
+      <c r="C3" t="s">
+        <v>311</v>
+      </c>
       <c r="D3" t="s">
-        <v>315</v>
+        <v>338</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>315</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B4">
-        <v>233</v>
+        <v>2525</v>
       </c>
       <c r="C4" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="D4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>339</v>
+      </c>
+      <c r="E4" t="s">
+        <v>315</v>
       </c>
       <c r="F4" t="s">
-        <v>228</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B5">
-        <v>209</v>
+        <v>2871</v>
       </c>
       <c r="C5" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="D5" t="s">
-        <v>342</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>340</v>
+      </c>
+      <c r="E5" t="s">
+        <v>315</v>
       </c>
       <c r="F5" t="s">
-        <v>228</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B6">
-        <v>733</v>
+        <v>3168</v>
       </c>
       <c r="C6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>228</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B7">
-        <v>2472</v>
+        <v>2916</v>
       </c>
       <c r="C7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E7" t="s">
-        <v>320</v>
+        <v>345</v>
+      </c>
+      <c r="E7">
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B8">
+        <v>2021</v>
+      </c>
+      <c r="C8" t="s">
         <v>330</v>
       </c>
-      <c r="B8">
-        <v>2809</v>
-      </c>
-      <c r="C8" t="s">
-        <v>345</v>
-      </c>
       <c r="D8" t="s">
-        <v>337</v>
-      </c>
-      <c r="E8" t="s">
-        <v>320</v>
+        <v>341</v>
+      </c>
+      <c r="E8">
+        <v>159</v>
       </c>
       <c r="F8" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B9" s="2">
-        <v>3104</v>
+        <v>2148</v>
       </c>
       <c r="C9" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="D9" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>422</v>
       </c>
       <c r="F9" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B10">
-        <v>2861</v>
+        <v>6141</v>
       </c>
       <c r="C10" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="D10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E10">
-        <v>41</v>
+        <v>1770</v>
       </c>
       <c r="F10" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>334</v>
+        <v>96</v>
       </c>
       <c r="B11">
-        <v>1977</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>228</v>
       </c>
       <c r="D11" t="s">
-        <v>347</v>
-      </c>
-      <c r="E11">
-        <v>159</v>
+        <v>228</v>
+      </c>
+      <c r="E11" t="s">
+        <v>228</v>
       </c>
       <c r="F11" t="s">
-        <v>348</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>335</v>
+        <v>97</v>
       </c>
       <c r="B12">
-        <v>2105</v>
+        <v>23064</v>
       </c>
       <c r="C12" t="s">
-        <v>349</v>
+        <v>228</v>
       </c>
       <c r="D12" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="E12">
-        <v>412</v>
+        <v>2411</v>
       </c>
       <c r="F12" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>336</v>
-      </c>
-      <c r="B13">
-        <v>6055</v>
-      </c>
-      <c r="C13" t="s">
-        <v>323</v>
-      </c>
-      <c r="D13" t="s">
-        <v>354</v>
-      </c>
-      <c r="E13">
-        <v>1737</v>
-      </c>
-      <c r="F13" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14">
-        <v>78</v>
-      </c>
-      <c r="C14" t="s">
-        <v>228</v>
-      </c>
-      <c r="D14" t="s">
-        <v>228</v>
-      </c>
-      <c r="E14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15">
-        <v>22636</v>
-      </c>
-      <c r="C15" t="s">
-        <v>228</v>
-      </c>
-      <c r="D15" t="s">
-        <v>339</v>
-      </c>
-      <c r="E15">
-        <v>2367</v>
-      </c>
-      <c r="F15" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/app/data/covid19_MTL.xlsx
+++ b/app/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4AACB4-453D-405E-A2C8-3A03A0E86E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECECC9D-D955-43D7-B05E-D25A7684E1AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20430" yWindow="5930" windowWidth="25380" windowHeight="13160" tabRatio="585" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="-110" yWindow="390" windowWidth="38620" windowHeight="20740" tabRatio="585" activeTab="2" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="358">
   <si>
     <t>borough</t>
   </si>
@@ -1009,9 +1009,6 @@
     <t>16 MAI, 18h05</t>
   </si>
   <si>
-    <t>3,2</t>
-  </si>
-  <si>
     <t>17 MAI, 18h05</t>
   </si>
   <si>
@@ -1075,52 +1072,82 @@
     <t>9,3</t>
   </si>
   <si>
-    <t>116,7</t>
-  </si>
-  <si>
-    <t>1116,5</t>
-  </si>
-  <si>
     <t>20 MAI, 18h05</t>
   </si>
   <si>
-    <t>214,7</t>
+    <t>PERSONNES</t>
   </si>
   <si>
-    <t>195,4</t>
+    <t>118,8</t>
   </si>
   <si>
-    <t>375,6</t>
+    <t>NOMBREDECASCONFIRMÉS¹</t>
   </si>
   <si>
-    <t>783,9</t>
+    <t>RÉPARTITIONDESCAS(%)</t>
   </si>
   <si>
-    <t>873,9</t>
+    <t>NOMBREDEDÉCÈS</t>
   </si>
   <si>
-    <t>933,2</t>
+    <t>TAUXDEMORTALITÉPOUR</t>
   </si>
   <si>
-    <t>291,6</t>
+    <t>1133,4</t>
   </si>
   <si>
-    <t>26,7</t>
+    <t>21 MAI, 18h05</t>
   </si>
   <si>
-    <t>1138,2</t>
+    <t>215,6</t>
   </si>
   <si>
-    <t>1136,1</t>
+    <t>200,1</t>
   </si>
   <si>
-    <t>1484,4</t>
+    <t>3,3</t>
   </si>
   <si>
-    <t>6077,7</t>
+    <t>384,1</t>
   </si>
   <si>
-    <t>1751,8</t>
+    <t>795,4</t>
+  </si>
+  <si>
+    <t>885,7</t>
+  </si>
+  <si>
+    <t>17,1</t>
+  </si>
+  <si>
+    <t>948,0</t>
+  </si>
+  <si>
+    <t>297,2</t>
+  </si>
+  <si>
+    <t>26,8</t>
+  </si>
+  <si>
+    <t>GROUPED'ÂGE</t>
+  </si>
+  <si>
+    <t>TAUXPOUR</t>
+  </si>
+  <si>
+    <t>1158,3</t>
+  </si>
+  <si>
+    <t>1151,3</t>
+  </si>
+  <si>
+    <t>1498,3</t>
+  </si>
+  <si>
+    <t>6178,7</t>
+  </si>
+  <si>
+    <t>1784,4</t>
   </si>
 </sst>
 </file>
@@ -1634,20 +1661,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:BB35"/>
+  <dimension ref="A1:BC35"/>
   <sheetViews>
     <sheetView topLeftCell="AH1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="BD34" sqref="BC34:BD34"/>
+      <selection activeCell="BD35" sqref="BD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="54" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="55" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1810,8 +1837,11 @@
       <c r="BB1" s="19">
         <v>43971</v>
       </c>
+      <c r="BC1" s="19">
+        <v>43972</v>
+      </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1974,8 +2004,11 @@
       <c r="BB2">
         <v>1898</v>
       </c>
+      <c r="BC2">
+        <v>1925</v>
+      </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2138,8 +2171,11 @@
       <c r="BB3">
         <v>562</v>
       </c>
+      <c r="BC3">
+        <v>569</v>
+      </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2302,8 +2338,11 @@
       <c r="BB4">
         <v>19</v>
       </c>
+      <c r="BC4">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2466,8 +2505,11 @@
       <c r="BB5">
         <v>54</v>
       </c>
+      <c r="BC5">
+        <v>54</v>
+      </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2630,8 +2672,11 @@
       <c r="BB6">
         <v>1851</v>
       </c>
+      <c r="BC6">
+        <v>1862</v>
+      </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -2794,8 +2839,11 @@
       <c r="BB7">
         <v>461</v>
       </c>
+      <c r="BC7">
+        <v>469</v>
+      </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -2958,8 +3006,11 @@
       <c r="BB8">
         <v>342</v>
       </c>
+      <c r="BC8">
+        <v>344</v>
+      </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -3122,8 +3173,11 @@
       <c r="BB9">
         <v>164</v>
       </c>
+      <c r="BC9">
+        <v>164</v>
+      </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -3286,8 +3340,11 @@
       <c r="BB10">
         <v>54</v>
       </c>
+      <c r="BC10">
+        <v>54</v>
+      </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -3450,8 +3507,11 @@
       <c r="BB11">
         <v>95</v>
       </c>
+      <c r="BC11">
+        <v>95</v>
+      </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3614,8 +3674,11 @@
       <c r="BB12">
         <v>483</v>
       </c>
+      <c r="BC12">
+        <v>505</v>
+      </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3778,8 +3841,11 @@
       <c r="BB13">
         <v>1011</v>
       </c>
+      <c r="BC13">
+        <v>1024</v>
+      </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3942,8 +4008,11 @@
       <c r="BB14">
         <v>177</v>
       </c>
+      <c r="BC14">
+        <v>179</v>
+      </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4106,8 +4175,11 @@
       <c r="BB15">
         <v>1924</v>
       </c>
+      <c r="BC15">
+        <v>1945</v>
+      </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -4270,8 +4342,11 @@
       <c r="BB16">
         <v>33</v>
       </c>
+      <c r="BC16">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4434,8 +4509,11 @@
       <c r="BB17">
         <v>2139</v>
       </c>
+      <c r="BC17">
+        <v>2184</v>
+      </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -4598,8 +4676,11 @@
       <c r="BB18">
         <v>17</v>
       </c>
+      <c r="BC18">
+        <v>18</v>
+      </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -4762,8 +4843,11 @@
       <c r="BB19">
         <v>239</v>
       </c>
+      <c r="BC19">
+        <v>242</v>
+      </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4926,8 +5010,11 @@
       <c r="BB20">
         <v>237</v>
       </c>
+      <c r="BC20">
+        <v>238</v>
+      </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -5090,8 +5177,11 @@
       <c r="BB21">
         <v>461</v>
       </c>
+      <c r="BC21">
+        <v>474</v>
+      </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5254,8 +5344,11 @@
       <c r="BB22">
         <v>783</v>
       </c>
+      <c r="BC22">
+        <v>794</v>
+      </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -5418,8 +5511,11 @@
       <c r="BB23">
         <v>182</v>
       </c>
+      <c r="BC23">
+        <v>185</v>
+      </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5582,8 +5678,11 @@
       <c r="BB24">
         <v>1811</v>
       </c>
+      <c r="BC24">
+        <v>1859</v>
+      </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5746,8 +5845,11 @@
       <c r="BB25">
         <v>1308</v>
       </c>
+      <c r="BC25">
+        <v>1318</v>
+      </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -5910,8 +6012,11 @@
       <c r="BB26">
         <v>18</v>
       </c>
+      <c r="BC26">
+        <v>18</v>
+      </c>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -6074,8 +6179,11 @@
       <c r="BB27">
         <v>875</v>
       </c>
+      <c r="BC27">
+        <v>897</v>
+      </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -6238,8 +6346,11 @@
       <c r="BB28">
         <v>931</v>
       </c>
+      <c r="BC28">
+        <v>945</v>
+      </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -6402,8 +6513,11 @@
       <c r="BB29">
         <v>2</v>
       </c>
+      <c r="BC29">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -6566,8 +6680,11 @@
       <c r="BB30">
         <v>794</v>
       </c>
+      <c r="BC30">
+        <v>802</v>
+      </c>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -6730,8 +6847,11 @@
       <c r="BB31">
         <v>851</v>
       </c>
+      <c r="BC31">
+        <v>856</v>
+      </c>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -6894,8 +7014,11 @@
       <c r="BB32">
         <v>651</v>
       </c>
+      <c r="BC32">
+        <v>655</v>
+      </c>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -7058,8 +7181,11 @@
       <c r="BB33">
         <v>1642</v>
       </c>
+      <c r="BC33">
+        <v>1688</v>
+      </c>
     </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -7222,8 +7348,11 @@
       <c r="BB34">
         <v>163</v>
       </c>
+      <c r="BC34">
+        <v>163</v>
+      </c>
     </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -7385,6 +7514,9 @@
       </c>
       <c r="BB35">
         <v>833</v>
+      </c>
+      <c r="BC35">
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -7395,11 +7527,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:BB34"/>
+  <dimension ref="A1:BC34"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BC12" sqref="BC12"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BD34" sqref="BD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7407,10 +7539,10 @@
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="27" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="54" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="55" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7594,8 +7726,11 @@
       <c r="BB1" s="1">
         <v>43971</v>
       </c>
+      <c r="BC1" s="1">
+        <v>43972</v>
+      </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7806,8 +7941,12 @@
         <f>cases!BB2/(population_2016!$B2/1000)</f>
         <v>14.138329174270922</v>
       </c>
+      <c r="BC2" s="3">
+        <f>cases!BC2/(population_2016!$B2/1000)</f>
+        <v>14.33945398338858</v>
+      </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8018,8 +8157,12 @@
         <f>cases!BB3/(population_2016!$B3/1000)</f>
         <v>13.132068417609123</v>
       </c>
+      <c r="BC3" s="3">
+        <f>cases!BC3/(population_2016!$B3/1000)</f>
+        <v>13.295635106084681</v>
+      </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -8230,8 +8373,12 @@
         <f>cases!BB4/(population_2016!$B4/1000)</f>
         <v>4.9699189118493328</v>
       </c>
+      <c r="BC4" s="3">
+        <f>cases!BC4/(population_2016!$B4/1000)</f>
+        <v>4.9699189118493328</v>
+      </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -8442,8 +8589,12 @@
         <f>cases!BB5/(population_2016!$B5/1000)</f>
         <v>2.7944524943075963</v>
       </c>
+      <c r="BC5" s="3">
+        <f>cases!BC5/(population_2016!$B5/1000)</f>
+        <v>2.7944524943075963</v>
+      </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -8654,8 +8805,12 @@
         <f>cases!BB6/(population_2016!$B6/1000)</f>
         <v>11.115781888061493</v>
       </c>
+      <c r="BC6" s="3">
+        <f>cases!BC6/(population_2016!$B6/1000)</f>
+        <v>11.18184001921691</v>
+      </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -8866,8 +9021,12 @@
         <f>cases!BB7/(population_2016!$B7/1000)</f>
         <v>14.207347140039447</v>
       </c>
+      <c r="BC7" s="3">
+        <f>cases!BC7/(population_2016!$B7/1000)</f>
+        <v>14.453895463510849</v>
+      </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -9078,8 +9237,12 @@
         <f>cases!BB8/(population_2016!$B8/1000)</f>
         <v>6.9940080574244874</v>
       </c>
+      <c r="BC8" s="3">
+        <f>cases!BC8/(population_2016!$B8/1000)</f>
+        <v>7.0349086893392503</v>
+      </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -9290,8 +9453,12 @@
         <f>cases!BB9/(population_2016!$B9/1000)</f>
         <v>8.6406743940990509</v>
       </c>
+      <c r="BC9" s="3">
+        <f>cases!BC9/(population_2016!$B9/1000)</f>
+        <v>8.6406743940990509</v>
+      </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -9502,8 +9669,12 @@
         <f>cases!BB10/(population_2016!$B10/1000)</f>
         <v>7.7441560304029835</v>
       </c>
+      <c r="BC10" s="3">
+        <f>cases!BC10/(population_2016!$B10/1000)</f>
+        <v>7.7441560304029835</v>
+      </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -9714,8 +9885,12 @@
         <f>cases!BB11/(population_2016!$B11/1000)</f>
         <v>4.7144062329412932</v>
       </c>
+      <c r="BC11" s="3">
+        <f>cases!BC11/(population_2016!$B11/1000)</f>
+        <v>4.7144062329412932</v>
+      </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -9926,8 +10101,12 @@
         <f>cases!BB12/(population_2016!$B12/1000)</f>
         <v>10.856616242217179</v>
       </c>
+      <c r="BC12" s="3">
+        <f>cases!BC12/(population_2016!$B12/1000)</f>
+        <v>11.35112050169705</v>
+      </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -10138,8 +10317,12 @@
         <f>cases!BB13/(population_2016!$B13/1000)</f>
         <v>13.154984190597636</v>
       </c>
+      <c r="BC13" s="3">
+        <f>cases!BC13/(population_2016!$B13/1000)</f>
+        <v>13.324138289982175</v>
+      </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -10350,8 +10533,12 @@
         <f>cases!BB14/(population_2016!$B14/1000)</f>
         <v>9.6127735838809532</v>
       </c>
+      <c r="BC14" s="3">
+        <f>cases!BC14/(population_2016!$B14/1000)</f>
+        <v>9.7213924944332799</v>
+      </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -10562,8 +10749,12 @@
         <f>cases!BB15/(population_2016!$B15/1000)</f>
         <v>14.144562724225137</v>
       </c>
+      <c r="BC15" s="3">
+        <f>cases!BC15/(population_2016!$B15/1000)</f>
+        <v>14.298947244603893</v>
+      </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -10774,8 +10965,12 @@
         <f>cases!BB16/(population_2016!$B16/1000)</f>
         <v>8.5714285714285712</v>
       </c>
+      <c r="BC16" s="3">
+        <f>cases!BC16/(population_2016!$B16/1000)</f>
+        <v>8.8311688311688314</v>
+      </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -10986,8 +11181,12 @@
         <f>cases!BB17/(population_2016!$B17/1000)</f>
         <v>25.393546548899497</v>
       </c>
+      <c r="BC17" s="3">
+        <f>cases!BC17/(population_2016!$B17/1000)</f>
+        <v>25.927772633378446</v>
+      </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -11198,8 +11397,12 @@
         <f>cases!BB18/(population_2016!$B18/1000)</f>
         <v>3.3663366336633667</v>
       </c>
+      <c r="BC18" s="3">
+        <f>cases!BC18/(population_2016!$B18/1000)</f>
+        <v>3.5643564356435644</v>
+      </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -11410,8 +11613,12 @@
         <f>cases!BB19/(population_2016!$B19/1000)</f>
         <v>11.787334780035509</v>
       </c>
+      <c r="BC19" s="3">
+        <f>cases!BC19/(population_2016!$B19/1000)</f>
+        <v>11.935292957190768</v>
+      </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -11622,8 +11829,12 @@
         <f>cases!BB20/(population_2016!$B20/1000)</f>
         <v>9.8939634299073216</v>
       </c>
+      <c r="BC20" s="3">
+        <f>cases!BC20/(population_2016!$B20/1000)</f>
+        <v>9.9357101110461716</v>
+      </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -11834,8 +12045,12 @@
         <f>cases!BB21/(population_2016!$B21/1000)</f>
         <v>6.6525246403163196</v>
       </c>
+      <c r="BC21" s="3">
+        <f>cases!BC21/(population_2016!$B21/1000)</f>
+        <v>6.8401229490454138</v>
+      </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -12046,8 +12261,12 @@
         <f>cases!BB22/(population_2016!$B22/1000)</f>
         <v>7.5288461538461542</v>
       </c>
+      <c r="BC22" s="3">
+        <f>cases!BC22/(population_2016!$B22/1000)</f>
+        <v>7.634615384615385</v>
+      </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -12258,8 +12477,12 @@
         <f>cases!BB23/(population_2016!$B23/1000)</f>
         <v>5.7998725302740599</v>
       </c>
+      <c r="BC23" s="3">
+        <f>cases!BC23/(population_2016!$B23/1000)</f>
+        <v>5.8954748247291269</v>
+      </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -12470,8 +12693,12 @@
         <f>cases!BB24/(population_2016!$B24/1000)</f>
         <v>16.965983717901878</v>
       </c>
+      <c r="BC24" s="3">
+        <f>cases!BC24/(population_2016!$B24/1000)</f>
+        <v>17.415661916940689</v>
+      </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -12682,8 +12909,12 @@
         <f>cases!BB25/(population_2016!$B25/1000)</f>
         <v>9.3702987320008599</v>
       </c>
+      <c r="BC25" s="3">
+        <f>cases!BC25/(population_2016!$B25/1000)</f>
+        <v>9.4419371015115701</v>
+      </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -12894,8 +13125,12 @@
         <f>cases!BB26/(population_2016!$B26/1000)</f>
         <v>3.6304961678096004</v>
       </c>
+      <c r="BC26" s="3">
+        <f>cases!BC26/(population_2016!$B26/1000)</f>
+        <v>3.6304961678096004</v>
+      </c>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -13106,8 +13341,12 @@
         <f>cases!BB27/(population_2016!$B27/1000)</f>
         <v>8.8537661391508475</v>
       </c>
+      <c r="BC27" s="3">
+        <f>cases!BC27/(population_2016!$B27/1000)</f>
+        <v>9.0763751163637831</v>
+      </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -13318,8 +13557,12 @@
         <f>cases!BB28/(population_2016!$B28/1000)</f>
         <v>11.889406806717322</v>
       </c>
+      <c r="BC28" s="3">
+        <f>cases!BC28/(population_2016!$B28/1000)</f>
+        <v>12.068194878998785</v>
+      </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -13530,8 +13773,12 @@
         <f>cases!BB29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
+      <c r="BC29" s="3">
+        <f>cases!BC29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -13742,8 +13989,12 @@
         <f>cases!BB30/(population_2016!$B30/1000)</f>
         <v>10.159818812299267</v>
       </c>
+      <c r="BC30" s="3">
+        <f>cases!BC30/(population_2016!$B30/1000)</f>
+        <v>10.262184744916892</v>
+      </c>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -13954,8 +14205,12 @@
         <f>cases!BB31/(population_2016!$B31/1000)</f>
         <v>12.292536364818211</v>
       </c>
+      <c r="BC31" s="3">
+        <f>cases!BC31/(population_2016!$B31/1000)</f>
+        <v>12.364760432766616</v>
+      </c>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -14166,8 +14421,12 @@
         <f>cases!BB32/(population_2016!$B32/1000)</f>
         <v>7.3006616575081305</v>
       </c>
+      <c r="BC32" s="3">
+        <f>cases!BC32/(population_2016!$B32/1000)</f>
+        <v>7.3455197936525733</v>
+      </c>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -14378,8 +14637,12 @@
         <f>cases!BB33/(population_2016!$B33/1000)</f>
         <v>11.414430008411363</v>
       </c>
+      <c r="BC33" s="3">
+        <f>cases!BC33/(population_2016!$B33/1000)</f>
+        <v>11.734200885626299</v>
+      </c>
     </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -14588,6 +14851,10 @@
       </c>
       <c r="BB34" s="3">
         <f>cases!BB34/(population_2016!$B34/1000)</f>
+        <v>8.024812918471838</v>
+      </c>
+      <c r="BC34" s="3">
+        <f>cases!BC34/(population_2016!$B34/1000)</f>
         <v>8.024812918471838</v>
       </c>
     </row>
@@ -14598,11 +14865,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AS68"/>
+  <dimension ref="A1:AS69"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P67" sqref="P67:AS68"/>
+      <selection pane="bottomLeft" activeCell="AC70" sqref="AC70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20364,11 +20631,11 @@
       </c>
       <c r="B38" s="17">
         <f>mtl_newcases!C39</f>
-        <v>10366</v>
+        <v>10367</v>
       </c>
       <c r="C38" s="17">
         <f t="shared" si="0"/>
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D38">
         <v>583</v>
@@ -20535,7 +20802,7 @@
       </c>
       <c r="B39" s="17">
         <f>mtl_newcases!C40</f>
-        <v>10825</v>
+        <v>10826</v>
       </c>
       <c r="C39" s="17">
         <f t="shared" si="0"/>
@@ -20710,7 +20977,7 @@
       </c>
       <c r="C40" s="17">
         <f t="shared" si="0"/>
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D40">
         <v>741</v>
@@ -20877,11 +21144,11 @@
       </c>
       <c r="B41" s="17">
         <f>mtl_newcases!C42</f>
-        <v>11893</v>
+        <v>11894</v>
       </c>
       <c r="C41" s="17">
         <f t="shared" si="0"/>
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D41">
         <v>808</v>
@@ -21048,7 +21315,7 @@
       </c>
       <c r="B42" s="17">
         <f>mtl_newcases!C43</f>
-        <v>12391</v>
+        <v>12392</v>
       </c>
       <c r="C42" s="17">
         <f t="shared" si="0"/>
@@ -21219,7 +21486,7 @@
       </c>
       <c r="B43" s="17">
         <f>mtl_newcases!C44</f>
-        <v>12708</v>
+        <v>12709</v>
       </c>
       <c r="C43" s="17">
         <f t="shared" si="0"/>
@@ -21390,7 +21657,7 @@
       </c>
       <c r="B44" s="17">
         <f>mtl_newcases!C45</f>
-        <v>13010</v>
+        <v>13011</v>
       </c>
       <c r="C44" s="17">
         <f>B44-B43</f>
@@ -21561,7 +21828,7 @@
       </c>
       <c r="B45" s="17">
         <f>mtl_newcases!C46</f>
-        <v>13473</v>
+        <v>13474</v>
       </c>
       <c r="C45" s="17">
         <f>B45-B44</f>
@@ -21732,7 +21999,7 @@
       </c>
       <c r="B46" s="17">
         <f>mtl_newcases!C47</f>
-        <v>13949</v>
+        <v>13950</v>
       </c>
       <c r="C46" s="17">
         <f t="shared" ref="C46:C47" si="438">B46-B45</f>
@@ -21876,7 +22143,7 @@
       </c>
       <c r="C47" s="17">
         <f t="shared" si="438"/>
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D47">
         <v>1146</v>
@@ -22012,11 +22279,11 @@
       </c>
       <c r="B48" s="17">
         <f>mtl_newcases!C49</f>
-        <v>15071</v>
+        <v>15070</v>
       </c>
       <c r="C48" s="17">
         <f t="shared" ref="C48" si="439">B48-B47</f>
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D48">
         <v>1245</v>
@@ -22187,7 +22454,7 @@
       </c>
       <c r="C49" s="17">
         <f t="shared" ref="C49" si="461">B49-B48</f>
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D49">
         <v>1312</v>
@@ -22354,11 +22621,11 @@
       </c>
       <c r="B50" s="17">
         <f>mtl_newcases!C51</f>
-        <v>16215</v>
+        <v>16216</v>
       </c>
       <c r="C50" s="17">
         <f t="shared" ref="C50" si="483">B50-B49</f>
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D50">
         <v>1365</v>
@@ -22529,7 +22796,7 @@
       </c>
       <c r="C51" s="17">
         <f t="shared" ref="C51" si="505">B51-B50</f>
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D51">
         <v>1410</v>
@@ -22696,11 +22963,11 @@
       </c>
       <c r="B52" s="17">
         <f>mtl_newcases!C53</f>
-        <v>16982</v>
+        <v>16983</v>
       </c>
       <c r="C52" s="17">
         <f t="shared" ref="C52" si="527">B52-B51</f>
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D52">
         <v>1488</v>
@@ -22871,7 +23138,7 @@
       </c>
       <c r="C53" s="17">
         <f t="shared" ref="C53" si="549">B53-B52</f>
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D53">
         <v>1562</v>
@@ -23038,11 +23305,11 @@
       </c>
       <c r="B54" s="17">
         <f>mtl_newcases!C55</f>
-        <v>18040</v>
+        <v>18041</v>
       </c>
       <c r="C54" s="17">
         <f t="shared" ref="C54:C55" si="571">B54-B53</f>
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D54">
         <v>1666</v>
@@ -23209,11 +23476,11 @@
       </c>
       <c r="B55" s="17">
         <f>mtl_newcases!C56</f>
-        <v>18478</v>
+        <v>18476</v>
       </c>
       <c r="C55" s="17">
         <f t="shared" si="571"/>
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D55">
         <v>1727</v>
@@ -23380,11 +23647,11 @@
       </c>
       <c r="B56" s="17">
         <f>mtl_newcases!C57</f>
-        <v>18917</v>
+        <v>18913</v>
       </c>
       <c r="C56" s="17">
         <f t="shared" ref="C56" si="613">B56-B55</f>
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D56">
         <v>1760</v>
@@ -23551,11 +23818,11 @@
       </c>
       <c r="B57" s="17">
         <f>mtl_newcases!C58</f>
-        <v>19231</v>
+        <v>19226</v>
       </c>
       <c r="C57" s="17">
         <f t="shared" ref="C57" si="635">B57-B56</f>
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D57">
         <v>1863</v>
@@ -23722,11 +23989,11 @@
       </c>
       <c r="B58" s="17">
         <f>mtl_newcases!C59</f>
-        <v>19536</v>
+        <v>19533</v>
       </c>
       <c r="C58" s="17">
         <f t="shared" ref="C58" si="657">B58-B57</f>
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D58">
         <v>1919</v>
@@ -23893,11 +24160,11 @@
       </c>
       <c r="B59" s="17">
         <f>mtl_newcases!C60</f>
-        <v>19905</v>
+        <v>19901</v>
       </c>
       <c r="C59" s="17">
         <f t="shared" ref="C59" si="679">B59-B58</f>
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D59">
         <v>2003</v>
@@ -24064,11 +24331,11 @@
       </c>
       <c r="B60" s="17">
         <f>mtl_newcases!C61</f>
-        <v>20345</v>
+        <v>20343</v>
       </c>
       <c r="C60" s="17">
         <f t="shared" ref="C60" si="701">B60-B59</f>
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D60">
         <v>2063</v>
@@ -24235,11 +24502,11 @@
       </c>
       <c r="B61" s="17">
         <f>mtl_newcases!C62</f>
-        <v>20738</v>
+        <v>20734</v>
       </c>
       <c r="C61" s="17">
         <f t="shared" ref="C61" si="723">B61-B60</f>
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D61">
         <v>2154</v>
@@ -24406,11 +24673,11 @@
       </c>
       <c r="B62" s="17">
         <f>mtl_newcases!C63</f>
-        <v>21105</v>
+        <v>21099</v>
       </c>
       <c r="C62" s="17">
         <f t="shared" ref="C62:C63" si="745">B62-B61</f>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D62">
         <v>2182</v>
@@ -24550,7 +24817,7 @@
       </c>
       <c r="C63" s="17">
         <f t="shared" si="745"/>
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D63">
         <v>2234</v>
@@ -24717,11 +24984,11 @@
       </c>
       <c r="B64" s="17">
         <f>mtl_newcases!C65</f>
-        <v>21740</v>
+        <v>21738</v>
       </c>
       <c r="C64" s="17">
         <f t="shared" ref="C64" si="767">B64-B63</f>
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D64">
         <v>2276</v>
@@ -24888,11 +25155,11 @@
       </c>
       <c r="B65" s="17">
         <f>mtl_newcases!C66</f>
-        <v>22089</v>
+        <v>22090</v>
       </c>
       <c r="C65" s="17">
         <f t="shared" ref="C65" si="789">B65-B64</f>
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D65">
         <v>2296</v>
@@ -25059,11 +25326,11 @@
       </c>
       <c r="B66" s="17">
         <f>mtl_newcases!C67</f>
-        <v>22411</v>
+        <v>22410</v>
       </c>
       <c r="C66" s="17">
         <f t="shared" ref="C66" si="811">B66-B65</f>
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D66">
         <v>2323</v>
@@ -25230,11 +25497,11 @@
       </c>
       <c r="B67" s="17">
         <f>mtl_newcases!C68</f>
-        <v>22720</v>
+        <v>22728</v>
       </c>
       <c r="C67" s="17">
         <f t="shared" ref="C67" si="832">B67-B66</f>
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="D67">
         <v>2367</v>
@@ -25401,11 +25668,11 @@
       </c>
       <c r="B68" s="17">
         <f>mtl_newcases!C69</f>
-        <v>23064</v>
+        <v>23137</v>
       </c>
       <c r="C68" s="17">
         <f t="shared" ref="C68" si="854">B68-B67</f>
-        <v>344</v>
+        <v>409</v>
       </c>
       <c r="D68">
         <v>2411</v>
@@ -25564,6 +25831,177 @@
       <c r="AS68" s="3">
         <f t="shared" ref="AS68" si="875">Y68*100/SUM($P68:$Y68)</f>
         <v>44.830526970312761</v>
+      </c>
+    </row>
+    <row r="69" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A69" s="19">
+        <v>43972</v>
+      </c>
+      <c r="B69" s="17">
+        <f>mtl_newcases!C70</f>
+        <v>23413</v>
+      </c>
+      <c r="C69" s="17">
+        <f t="shared" ref="C69" si="876">B69-B68</f>
+        <v>276</v>
+      </c>
+      <c r="D69">
+        <v>2454</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ref="E69" si="877">D69-D68</f>
+        <v>43</v>
+      </c>
+      <c r="F69" cm="1">
+        <f t="array" ref="F69:O69">TRANSPOSE(santemontreal!BB$57:BB$66)</f>
+        <v>239</v>
+      </c>
+      <c r="G69">
+        <v>216</v>
+      </c>
+      <c r="H69">
+        <v>764</v>
+      </c>
+      <c r="I69">
+        <v>2562</v>
+      </c>
+      <c r="J69">
+        <v>2910</v>
+      </c>
+      <c r="K69">
+        <v>3224</v>
+      </c>
+      <c r="L69">
+        <v>2955</v>
+      </c>
+      <c r="M69">
+        <v>2053</v>
+      </c>
+      <c r="N69">
+        <v>2168</v>
+      </c>
+      <c r="O69">
+        <v>6243</v>
+      </c>
+      <c r="P69" s="18">
+        <f>F69/(age_distribution_2016!$B$2/100000)</f>
+        <v>217.78749772188812</v>
+      </c>
+      <c r="Q69" s="18">
+        <f>G69/(age_distribution_2016!$B$3/100000)</f>
+        <v>206.92628251185516</v>
+      </c>
+      <c r="R69" s="18">
+        <f>H69/(age_distribution_2016!$B$4/100000)</f>
+        <v>405.98347370938171</v>
+      </c>
+      <c r="S69" s="18">
+        <f>I69/(age_distribution_2016!$B$5/100000)</f>
+        <v>873.73177593997787</v>
+      </c>
+      <c r="T69" s="18">
+        <f>J69/(age_distribution_2016!$B$6/100000)</f>
+        <v>971.05197297071823</v>
+      </c>
+      <c r="U69" s="18">
+        <f>K69/(age_distribution_2016!$B$7/100000)</f>
+        <v>1266.9220945083014</v>
+      </c>
+      <c r="V69" s="18">
+        <f>L69/(age_distribution_2016!$B$8/100000)</f>
+        <v>1141.4775470787058</v>
+      </c>
+      <c r="W69" s="18">
+        <f>M69/(age_distribution_2016!$B$9/100000)</f>
+        <v>1001.438989292944</v>
+      </c>
+      <c r="X69" s="18">
+        <f>N69/(age_distribution_2016!$B$10/100000)</f>
+        <v>1671.8075262183838</v>
+      </c>
+      <c r="Y69" s="18">
+        <f>O69/(age_distribution_2016!$B$11/100000)</f>
+        <v>6318.5061484742673</v>
+      </c>
+      <c r="Z69" s="3">
+        <f t="shared" ref="Z69" si="878">F69*100/SUM($F69:$O69)</f>
+        <v>1.0242564498157196</v>
+      </c>
+      <c r="AA69" s="3">
+        <f t="shared" ref="AA69" si="879">G69*100/SUM($F69:$O69)</f>
+        <v>0.92568783749035743</v>
+      </c>
+      <c r="AB69" s="3">
+        <f t="shared" ref="AB69" si="880">H69*100/SUM($F69:$O69)</f>
+        <v>3.2741921659381159</v>
+      </c>
+      <c r="AC69" s="3">
+        <f t="shared" ref="AC69" si="881">I69*100/SUM($F69:$O69)</f>
+        <v>10.979686294677295</v>
+      </c>
+      <c r="AD69" s="3">
+        <f t="shared" ref="AD69" si="882">J69*100/SUM($F69:$O69)</f>
+        <v>12.471072255078427</v>
+      </c>
+      <c r="AE69" s="3">
+        <f t="shared" ref="AE69" si="883">K69*100/SUM($F69:$O69)</f>
+        <v>13.816748092911631</v>
+      </c>
+      <c r="AF69" s="3">
+        <f t="shared" ref="AF69" si="884">L69*100/SUM($F69:$O69)</f>
+        <v>12.663923887888917</v>
+      </c>
+      <c r="AG69" s="3">
+        <f t="shared" ref="AG69" si="885">M69*100/SUM($F69:$O69)</f>
+        <v>8.7983200479986294</v>
+      </c>
+      <c r="AH69" s="3">
+        <f t="shared" ref="AH69" si="886">N69*100/SUM($F69:$O69)</f>
+        <v>9.2911631096254386</v>
+      </c>
+      <c r="AI69" s="3">
+        <f t="shared" ref="AI69" si="887">O69*100/SUM($F69:$O69)</f>
+        <v>26.754949858575468</v>
+      </c>
+      <c r="AJ69" s="3">
+        <f t="shared" ref="AJ69" si="888">P69*100/SUM($P69:$Y69)</f>
+        <v>1.5472660657585395</v>
+      </c>
+      <c r="AK69" s="3">
+        <f t="shared" ref="AK69" si="889">Q69*100/SUM($P69:$Y69)</f>
+        <v>1.4701028222153107</v>
+      </c>
+      <c r="AL69" s="3">
+        <f t="shared" ref="AL69" si="890">R69*100/SUM($P69:$Y69)</f>
+        <v>2.8842998735008134</v>
+      </c>
+      <c r="AM69" s="3">
+        <f t="shared" ref="AM69" si="891">S69*100/SUM($P69:$Y69)</f>
+        <v>6.2074064931551991</v>
+      </c>
+      <c r="AN69" s="3">
+        <f t="shared" ref="AN69" si="892">T69*100/SUM($P69:$Y69)</f>
+        <v>6.8988155040199484</v>
+      </c>
+      <c r="AO69" s="3">
+        <f t="shared" ref="AO69" si="893">U69*100/SUM($P69:$Y69)</f>
+        <v>9.0008177021054845</v>
+      </c>
+      <c r="AP69" s="3">
+        <f t="shared" ref="AP69" si="894">V69*100/SUM($P69:$Y69)</f>
+        <v>8.1095999168673742</v>
+      </c>
+      <c r="AQ69" s="3">
+        <f t="shared" ref="AQ69" si="895">W69*100/SUM($P69:$Y69)</f>
+        <v>7.1146993342987219</v>
+      </c>
+      <c r="AR69" s="3">
+        <f t="shared" ref="AR69" si="896">X69*100/SUM($P69:$Y69)</f>
+        <v>11.877316562499185</v>
+      </c>
+      <c r="AS69" s="3">
+        <f t="shared" ref="AS69" si="897">Y69*100/SUM($P69:$Y69)</f>
+        <v>44.889675725579416</v>
       </c>
     </row>
   </sheetData>
@@ -25573,11 +26011,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25718,7 +26156,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F80" si="1">E4-E3</f>
+        <f t="shared" ref="F4:F81" si="1">E4-E3</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -25731,7 +26169,7 @@
         <v>260</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J80" si="2">I4-I3</f>
+        <f t="shared" ref="J4:J81" si="2">I4-I3</f>
         <v>18</v>
       </c>
       <c r="K4" t="s">
@@ -27988,7 +28426,7 @@
         <v>33417</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:C80" si="4">B64-B63</f>
+        <f t="shared" ref="C64:C81" si="4">B64-B63</f>
         <v>794</v>
       </c>
       <c r="D64">
@@ -28624,6 +29062,44 @@
       </c>
       <c r="K80">
         <v>13327</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B81">
+        <v>46141</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="4"/>
+        <v>646</v>
+      </c>
+      <c r="D81">
+        <v>28457</v>
+      </c>
+      <c r="E81">
+        <v>3865</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="G81">
+        <v>1479</v>
+      </c>
+      <c r="H81">
+        <v>171</v>
+      </c>
+      <c r="I81">
+        <v>321123</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="2"/>
+        <v>6796</v>
+      </c>
+      <c r="K81">
+        <v>13819</v>
       </c>
     </row>
   </sheetData>
@@ -28633,11 +29109,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29334,11 +29810,11 @@
         <v>43941</v>
       </c>
       <c r="B39">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C39">
         <f t="shared" si="8"/>
-        <v>10366</v>
+        <v>10367</v>
       </c>
       <c r="E39" s="19">
         <v>43941</v>
@@ -29348,7 +29824,7 @@
       </c>
       <c r="G39">
         <f t="shared" ref="G39" si="10">C39-F39</f>
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -29360,7 +29836,7 @@
       </c>
       <c r="C40">
         <f t="shared" ref="C40" si="11">C39+B40</f>
-        <v>10825</v>
+        <v>10826</v>
       </c>
       <c r="E40" s="19">
         <v>43942</v>
@@ -29370,7 +29846,7 @@
       </c>
       <c r="G40">
         <f t="shared" ref="G40" si="12">C40-F40</f>
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -29378,7 +29854,7 @@
         <v>43943</v>
       </c>
       <c r="B41">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C41">
         <f t="shared" ref="C41:C52" si="13">C40+B41</f>
@@ -29400,11 +29876,11 @@
         <v>43944</v>
       </c>
       <c r="B42" s="23">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C42">
         <f t="shared" si="13"/>
-        <v>11893</v>
+        <v>11894</v>
       </c>
       <c r="E42" s="19">
         <v>43944</v>
@@ -29414,7 +29890,7 @@
       </c>
       <c r="G42">
         <f t="shared" ref="G42:G44" si="15">C42-F42</f>
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -29426,7 +29902,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="13"/>
-        <v>12391</v>
+        <v>12392</v>
       </c>
       <c r="E43" s="19">
         <v>43945</v>
@@ -29436,7 +29912,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="15"/>
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -29448,7 +29924,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="13"/>
-        <v>12708</v>
+        <v>12709</v>
       </c>
       <c r="E44" s="19">
         <v>43946</v>
@@ -29458,7 +29934,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="15"/>
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -29470,7 +29946,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="13"/>
-        <v>13010</v>
+        <v>13011</v>
       </c>
       <c r="E45" s="19">
         <v>43947</v>
@@ -29480,7 +29956,7 @@
       </c>
       <c r="G45">
         <f>C45-F45</f>
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -29492,7 +29968,7 @@
       </c>
       <c r="C46">
         <f t="shared" si="13"/>
-        <v>13473</v>
+        <v>13474</v>
       </c>
       <c r="E46" s="19">
         <v>43948</v>
@@ -29502,7 +29978,7 @@
       </c>
       <c r="G46">
         <f>C46-F46</f>
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -29514,7 +29990,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="13"/>
-        <v>13949</v>
+        <v>13950</v>
       </c>
       <c r="E47" s="19">
         <v>43949</v>
@@ -29524,7 +30000,7 @@
       </c>
       <c r="G47">
         <f t="shared" ref="G47:G52" si="16">C47-F47</f>
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -29532,7 +30008,7 @@
         <v>43950</v>
       </c>
       <c r="B48" s="23">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C48">
         <f t="shared" si="13"/>
@@ -29554,11 +30030,11 @@
         <v>43951</v>
       </c>
       <c r="B49" s="23">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C49">
         <f t="shared" si="13"/>
-        <v>15071</v>
+        <v>15070</v>
       </c>
       <c r="E49" s="19">
         <v>43951</v>
@@ -29568,7 +30044,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="16"/>
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -29576,7 +30052,7 @@
         <v>43952</v>
       </c>
       <c r="B50" s="23">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C50">
         <f t="shared" si="13"/>
@@ -29598,11 +30074,11 @@
         <v>43953</v>
       </c>
       <c r="B51" s="23">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C51">
         <f t="shared" si="13"/>
-        <v>16215</v>
+        <v>16216</v>
       </c>
       <c r="E51" s="19">
         <v>43953</v>
@@ -29612,7 +30088,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="16"/>
-        <v>-36</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -29620,7 +30096,7 @@
         <v>43954</v>
       </c>
       <c r="B52" s="23">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C52">
         <f t="shared" si="13"/>
@@ -29642,11 +30118,11 @@
         <v>43955</v>
       </c>
       <c r="B53" s="23">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C53">
         <f t="shared" ref="C53" si="17">C52+B53</f>
-        <v>16982</v>
+        <v>16983</v>
       </c>
       <c r="E53" s="19">
         <v>43955</v>
@@ -29656,7 +30132,7 @@
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="18">C53-F53</f>
-        <v>-9</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -29664,7 +30140,7 @@
         <v>43956</v>
       </c>
       <c r="B54" s="23">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C54">
         <f t="shared" ref="C54:C61" si="19">C53+B54</f>
@@ -29686,11 +30162,11 @@
         <v>43957</v>
       </c>
       <c r="B55" s="23">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C55">
         <f t="shared" si="19"/>
-        <v>18040</v>
+        <v>18041</v>
       </c>
       <c r="E55" s="19">
         <v>43957</v>
@@ -29700,7 +30176,7 @@
       </c>
       <c r="G55">
         <f t="shared" ref="G55:G58" si="21">C55-F55</f>
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -29708,11 +30184,11 @@
         <v>43958</v>
       </c>
       <c r="B56" s="23">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C56">
         <f t="shared" si="19"/>
-        <v>18478</v>
+        <v>18476</v>
       </c>
       <c r="E56" s="19">
         <v>43958</v>
@@ -29722,7 +30198,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="21"/>
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -29730,11 +30206,11 @@
         <v>43959</v>
       </c>
       <c r="B57" s="23">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C57">
         <f t="shared" si="19"/>
-        <v>18917</v>
+        <v>18913</v>
       </c>
       <c r="E57" s="19">
         <v>43959</v>
@@ -29744,7 +30220,7 @@
       </c>
       <c r="G57">
         <f t="shared" si="21"/>
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -29752,11 +30228,11 @@
         <v>43960</v>
       </c>
       <c r="B58" s="23">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C58">
         <f t="shared" si="19"/>
-        <v>19231</v>
+        <v>19226</v>
       </c>
       <c r="E58" s="19">
         <v>43960</v>
@@ -29766,7 +30242,7 @@
       </c>
       <c r="G58">
         <f t="shared" si="21"/>
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -29774,11 +30250,11 @@
         <v>43961</v>
       </c>
       <c r="B59" s="23">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C59">
         <f t="shared" si="19"/>
-        <v>19536</v>
+        <v>19533</v>
       </c>
       <c r="E59" s="19">
         <v>43961</v>
@@ -29788,7 +30264,7 @@
       </c>
       <c r="G59">
         <f t="shared" ref="G59" si="22">C59-F59</f>
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -29796,11 +30272,11 @@
         <v>43962</v>
       </c>
       <c r="B60" s="23">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C60">
         <f t="shared" si="19"/>
-        <v>19905</v>
+        <v>19901</v>
       </c>
       <c r="E60" s="19">
         <v>43962</v>
@@ -29810,7 +30286,7 @@
       </c>
       <c r="G60">
         <f t="shared" ref="G60:G64" si="23">C60-F60</f>
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -29818,11 +30294,11 @@
         <v>43963</v>
       </c>
       <c r="B61" s="23">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C61">
         <f t="shared" si="19"/>
-        <v>20345</v>
+        <v>20343</v>
       </c>
       <c r="E61" s="19">
         <v>43963</v>
@@ -29832,7 +30308,7 @@
       </c>
       <c r="G61">
         <f t="shared" si="23"/>
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -29840,11 +30316,11 @@
         <v>43964</v>
       </c>
       <c r="B62" s="23">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C62">
         <f t="shared" ref="C62:C64" si="24">C61+B62</f>
-        <v>20738</v>
+        <v>20734</v>
       </c>
       <c r="E62" s="19">
         <v>43964</v>
@@ -29854,7 +30330,7 @@
       </c>
       <c r="G62">
         <f t="shared" si="23"/>
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -29862,11 +30338,11 @@
         <v>43965</v>
       </c>
       <c r="B63" s="23">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C63">
         <f t="shared" si="24"/>
-        <v>21105</v>
+        <v>21099</v>
       </c>
       <c r="E63" s="19">
         <v>43965</v>
@@ -29876,7 +30352,7 @@
       </c>
       <c r="G63">
         <f t="shared" si="23"/>
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -29884,7 +30360,7 @@
         <v>43966</v>
       </c>
       <c r="B64" s="23">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C64">
         <f t="shared" si="24"/>
@@ -29906,11 +30382,11 @@
         <v>43967</v>
       </c>
       <c r="B65" s="23">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C65">
         <f t="shared" ref="C65:C68" si="25">C64+B65</f>
-        <v>21740</v>
+        <v>21738</v>
       </c>
       <c r="E65" s="19">
         <v>43967</v>
@@ -29920,7 +30396,7 @@
       </c>
       <c r="G65">
         <f t="shared" ref="G65" si="26">C65-F65</f>
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -29928,11 +30404,11 @@
         <v>43968</v>
       </c>
       <c r="B66" s="23">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C66">
         <f t="shared" si="25"/>
-        <v>22089</v>
+        <v>22090</v>
       </c>
       <c r="E66" s="19">
         <v>43968</v>
@@ -29942,7 +30418,7 @@
       </c>
       <c r="G66">
         <f t="shared" ref="G66:G67" si="27">C66-F66</f>
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -29950,11 +30426,11 @@
         <v>43969</v>
       </c>
       <c r="B67" s="23">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C67">
         <f t="shared" si="25"/>
-        <v>22411</v>
+        <v>22410</v>
       </c>
       <c r="E67" s="19">
         <v>43969</v>
@@ -29964,7 +30440,7 @@
       </c>
       <c r="G67">
         <f t="shared" si="27"/>
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -29972,11 +30448,11 @@
         <v>43970</v>
       </c>
       <c r="B68" s="23">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C68">
         <f t="shared" si="25"/>
-        <v>22720</v>
+        <v>22728</v>
       </c>
       <c r="E68" s="19">
         <v>43970</v>
@@ -29986,7 +30462,7 @@
       </c>
       <c r="G68">
         <f t="shared" ref="G68" si="28">C68-F68</f>
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -29994,11 +30470,11 @@
         <v>43971</v>
       </c>
       <c r="B69" s="23">
-        <v>344</v>
+        <v>409</v>
       </c>
       <c r="C69">
         <f t="shared" ref="C69" si="29">C68+B69</f>
-        <v>23064</v>
+        <v>23137</v>
       </c>
       <c r="E69" s="19">
         <v>43971</v>
@@ -30008,6 +30484,28 @@
       </c>
       <c r="G69">
         <f>C69-F69</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="19">
+        <v>43972</v>
+      </c>
+      <c r="B70" s="23">
+        <v>276</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ref="C70" si="30">C69+B70</f>
+        <v>23413</v>
+      </c>
+      <c r="E70" s="19">
+        <v>43972</v>
+      </c>
+      <c r="F70">
+        <v>23413</v>
+      </c>
+      <c r="G70">
+        <f>C70-F70</f>
         <v>0</v>
       </c>
     </row>
@@ -30021,9 +30519,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BA36" sqref="BA2:BA36"/>
+      <selection pane="topRight" activeCell="BB2" sqref="BB2:BB36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30183,18 +30681,20 @@
         <v>310</v>
       </c>
       <c r="AX1" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AY1" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AZ1" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BA1" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="BB1" s="5"/>
+        <v>332</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>340</v>
+      </c>
       <c r="BC1" s="5"/>
       <c r="BD1" s="5"/>
       <c r="BE1" s="5"/>
@@ -30518,7 +31018,9 @@
       <c r="BA2" s="7">
         <v>1898</v>
       </c>
-      <c r="BB2" s="7"/>
+      <c r="BB2" s="7">
+        <v>1925</v>
+      </c>
       <c r="BC2" s="7"/>
       <c r="BD2" s="7"/>
       <c r="BE2" s="7"/>
@@ -30842,7 +31344,9 @@
       <c r="BA3" s="9">
         <v>562</v>
       </c>
-      <c r="BB3" s="9"/>
+      <c r="BB3" s="9">
+        <v>569</v>
+      </c>
       <c r="BC3" s="9"/>
       <c r="BD3" s="9"/>
       <c r="BE3" s="9"/>
@@ -31166,7 +31670,9 @@
       <c r="BA4" s="7">
         <v>19</v>
       </c>
-      <c r="BB4" s="7"/>
+      <c r="BB4" s="7">
+        <v>19</v>
+      </c>
       <c r="BC4" s="7"/>
       <c r="BD4" s="7"/>
       <c r="BE4" s="7"/>
@@ -31490,7 +31996,9 @@
       <c r="BA5" s="9">
         <v>54</v>
       </c>
-      <c r="BB5" s="9"/>
+      <c r="BB5" s="9">
+        <v>54</v>
+      </c>
       <c r="BC5" s="9"/>
       <c r="BD5" s="9"/>
       <c r="BE5" s="9"/>
@@ -31814,7 +32322,9 @@
       <c r="BA6" s="7">
         <v>1851</v>
       </c>
-      <c r="BB6" s="7"/>
+      <c r="BB6" s="7">
+        <v>1862</v>
+      </c>
       <c r="BC6" s="7"/>
       <c r="BD6" s="7"/>
       <c r="BE6" s="7"/>
@@ -32138,7 +32648,9 @@
       <c r="BA7" s="9">
         <v>461</v>
       </c>
-      <c r="BB7" s="9"/>
+      <c r="BB7" s="9">
+        <v>469</v>
+      </c>
       <c r="BC7" s="9"/>
       <c r="BD7" s="9"/>
       <c r="BE7" s="9"/>
@@ -32462,7 +32974,9 @@
       <c r="BA8" s="7">
         <v>342</v>
       </c>
-      <c r="BB8" s="7"/>
+      <c r="BB8" s="7">
+        <v>344</v>
+      </c>
       <c r="BC8" s="7"/>
       <c r="BD8" s="7"/>
       <c r="BE8" s="7"/>
@@ -32786,7 +33300,9 @@
       <c r="BA9" s="9">
         <v>164</v>
       </c>
-      <c r="BB9" s="9"/>
+      <c r="BB9" s="9">
+        <v>164</v>
+      </c>
       <c r="BC9" s="9"/>
       <c r="BD9" s="9"/>
       <c r="BE9" s="9"/>
@@ -33110,7 +33626,9 @@
       <c r="BA10" s="7">
         <v>54</v>
       </c>
-      <c r="BB10" s="7"/>
+      <c r="BB10" s="7">
+        <v>54</v>
+      </c>
       <c r="BC10" s="7"/>
       <c r="BD10" s="7"/>
       <c r="BE10" s="7"/>
@@ -33434,7 +33952,9 @@
       <c r="BA11" s="9">
         <v>95</v>
       </c>
-      <c r="BB11" s="9"/>
+      <c r="BB11" s="9">
+        <v>95</v>
+      </c>
       <c r="BC11" s="9"/>
       <c r="BD11" s="9"/>
       <c r="BE11" s="9"/>
@@ -33758,7 +34278,9 @@
       <c r="BA12" s="7">
         <v>483</v>
       </c>
-      <c r="BB12" s="7"/>
+      <c r="BB12" s="7">
+        <v>505</v>
+      </c>
       <c r="BC12" s="7"/>
       <c r="BD12" s="7"/>
       <c r="BE12" s="7"/>
@@ -34082,7 +34604,9 @@
       <c r="BA13" s="9">
         <v>1011</v>
       </c>
-      <c r="BB13" s="9"/>
+      <c r="BB13" s="9">
+        <v>1024</v>
+      </c>
       <c r="BC13" s="9"/>
       <c r="BD13" s="9"/>
       <c r="BE13" s="9"/>
@@ -34406,7 +34930,9 @@
       <c r="BA14" s="7">
         <v>177</v>
       </c>
-      <c r="BB14" s="7"/>
+      <c r="BB14" s="7">
+        <v>179</v>
+      </c>
       <c r="BC14" s="7"/>
       <c r="BD14" s="7"/>
       <c r="BE14" s="7"/>
@@ -34730,7 +35256,9 @@
       <c r="BA15" s="9">
         <v>1924</v>
       </c>
-      <c r="BB15" s="9"/>
+      <c r="BB15" s="9">
+        <v>1945</v>
+      </c>
       <c r="BC15" s="9"/>
       <c r="BD15" s="9"/>
       <c r="BE15" s="9"/>
@@ -35054,7 +35582,9 @@
       <c r="BA16" s="7">
         <v>33</v>
       </c>
-      <c r="BB16" s="7"/>
+      <c r="BB16" s="7">
+        <v>34</v>
+      </c>
       <c r="BC16" s="7"/>
       <c r="BD16" s="7"/>
       <c r="BE16" s="7"/>
@@ -35378,7 +35908,9 @@
       <c r="BA17" s="9">
         <v>2139</v>
       </c>
-      <c r="BB17" s="9"/>
+      <c r="BB17" s="9">
+        <v>2184</v>
+      </c>
       <c r="BC17" s="9"/>
       <c r="BD17" s="9"/>
       <c r="BE17" s="9"/>
@@ -35702,7 +36234,9 @@
       <c r="BA18" s="7">
         <v>17</v>
       </c>
-      <c r="BB18" s="7"/>
+      <c r="BB18" s="7">
+        <v>18</v>
+      </c>
       <c r="BC18" s="7"/>
       <c r="BD18" s="7"/>
       <c r="BE18" s="7"/>
@@ -36026,7 +36560,9 @@
       <c r="BA19" s="9">
         <v>239</v>
       </c>
-      <c r="BB19" s="9"/>
+      <c r="BB19" s="9">
+        <v>242</v>
+      </c>
       <c r="BC19" s="9"/>
       <c r="BD19" s="9"/>
       <c r="BE19" s="9"/>
@@ -36350,7 +36886,9 @@
       <c r="BA20" s="7">
         <v>237</v>
       </c>
-      <c r="BB20" s="7"/>
+      <c r="BB20" s="7">
+        <v>238</v>
+      </c>
       <c r="BC20" s="7"/>
       <c r="BD20" s="7"/>
       <c r="BE20" s="7"/>
@@ -36674,7 +37212,9 @@
       <c r="BA21" s="9">
         <v>461</v>
       </c>
-      <c r="BB21" s="9"/>
+      <c r="BB21" s="9">
+        <v>474</v>
+      </c>
       <c r="BC21" s="9"/>
       <c r="BD21" s="9"/>
       <c r="BE21" s="9"/>
@@ -36998,7 +37538,9 @@
       <c r="BA22" s="7">
         <v>783</v>
       </c>
-      <c r="BB22" s="7"/>
+      <c r="BB22" s="7">
+        <v>794</v>
+      </c>
       <c r="BC22" s="7"/>
       <c r="BD22" s="7"/>
       <c r="BE22" s="7"/>
@@ -37322,7 +37864,9 @@
       <c r="BA23" s="9">
         <v>182</v>
       </c>
-      <c r="BB23" s="9"/>
+      <c r="BB23" s="9">
+        <v>185</v>
+      </c>
       <c r="BC23" s="9"/>
       <c r="BD23" s="9"/>
       <c r="BE23" s="9"/>
@@ -37646,7 +38190,9 @@
       <c r="BA24" s="7">
         <v>1811</v>
       </c>
-      <c r="BB24" s="7"/>
+      <c r="BB24" s="7">
+        <v>1859</v>
+      </c>
       <c r="BC24" s="7"/>
       <c r="BD24" s="7"/>
       <c r="BE24" s="7"/>
@@ -37970,7 +38516,9 @@
       <c r="BA25" s="9">
         <v>1308</v>
       </c>
-      <c r="BB25" s="9"/>
+      <c r="BB25" s="9">
+        <v>1318</v>
+      </c>
       <c r="BC25" s="9"/>
       <c r="BD25" s="9"/>
       <c r="BE25" s="9"/>
@@ -38294,7 +38842,9 @@
       <c r="BA26" s="7">
         <v>18</v>
       </c>
-      <c r="BB26" s="7"/>
+      <c r="BB26" s="7">
+        <v>18</v>
+      </c>
       <c r="BC26" s="7"/>
       <c r="BD26" s="7"/>
       <c r="BE26" s="7"/>
@@ -38618,7 +39168,9 @@
       <c r="BA27" s="9">
         <v>875</v>
       </c>
-      <c r="BB27" s="9"/>
+      <c r="BB27" s="9">
+        <v>897</v>
+      </c>
       <c r="BC27" s="9"/>
       <c r="BD27" s="9"/>
       <c r="BE27" s="9"/>
@@ -38942,7 +39494,9 @@
       <c r="BA28" s="7">
         <v>931</v>
       </c>
-      <c r="BB28" s="7"/>
+      <c r="BB28" s="7">
+        <v>945</v>
+      </c>
       <c r="BC28" s="7"/>
       <c r="BD28" s="7"/>
       <c r="BE28" s="7"/>
@@ -39266,7 +39820,9 @@
       <c r="BA29" s="20">
         <v>2</v>
       </c>
-      <c r="BB29" s="22"/>
+      <c r="BB29" s="20">
+        <v>2</v>
+      </c>
       <c r="BC29" s="22"/>
       <c r="BD29" s="22"/>
       <c r="BE29" s="22"/>
@@ -39590,7 +40146,9 @@
       <c r="BA30" s="7">
         <v>794</v>
       </c>
-      <c r="BB30" s="7"/>
+      <c r="BB30" s="7">
+        <v>802</v>
+      </c>
       <c r="BC30" s="7"/>
       <c r="BD30" s="7"/>
       <c r="BE30" s="7"/>
@@ -39914,7 +40472,9 @@
       <c r="BA31" s="9">
         <v>851</v>
       </c>
-      <c r="BB31" s="9"/>
+      <c r="BB31" s="9">
+        <v>856</v>
+      </c>
       <c r="BC31" s="9"/>
       <c r="BD31" s="9"/>
       <c r="BE31" s="9"/>
@@ -40238,7 +40798,9 @@
       <c r="BA32" s="7">
         <v>651</v>
       </c>
-      <c r="BB32" s="7"/>
+      <c r="BB32" s="7">
+        <v>655</v>
+      </c>
       <c r="BC32" s="7"/>
       <c r="BD32" s="7"/>
       <c r="BE32" s="7"/>
@@ -40562,7 +41124,9 @@
       <c r="BA33" s="9">
         <v>1642</v>
       </c>
-      <c r="BB33" s="9"/>
+      <c r="BB33" s="9">
+        <v>1688</v>
+      </c>
       <c r="BC33" s="9"/>
       <c r="BD33" s="9"/>
       <c r="BE33" s="9"/>
@@ -40886,7 +41450,9 @@
       <c r="BA34" s="7">
         <v>163</v>
       </c>
-      <c r="BB34" s="7"